--- a/Expenses.xlsx
+++ b/Expenses.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffgood/Desktop/FI/Expenses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffgood/Desktop/R_Studio_Projects/Financial_Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910D6CAB-A14E-4745-88BE-C6E2CBAF81FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35595B41-A7EA-E54C-AA53-CD96E62AA944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="1000" windowWidth="27380" windowHeight="15800" xr2:uid="{D9F47917-7B20-384C-878F-0D08681ABD47}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId4"/>
+    <pivotCache cacheId="13" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="124">
   <si>
     <t>Date</t>
   </si>
@@ -152,9 +152,6 @@
   </si>
   <si>
     <t>AMICI PIZZA</t>
-  </si>
-  <si>
-    <t>Jeff Pay</t>
   </si>
   <si>
     <t>COLUMBUS CITY TREASURY</t>
@@ -516,6 +513,7 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -524,7 +522,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1670,7 +1667,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1870C13B-AC88-4747-AFC0-996355F07F2B}" name="PivotTable3" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1870C13B-AC88-4747-AFC0-996355F07F2B}" name="PivotTable3" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B3:E7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
@@ -1789,18 +1786,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}" name="Table1" displayName="Table1" ref="A1:F125" totalsRowShown="0" headerRowDxfId="7" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}" name="Table1" displayName="Table1" ref="A1:F125" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:F125" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F125">
     <sortCondition ref="A1:A125"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{36D6B367-4586-164A-BAFD-F61BD8D7B0D8}" name="Date" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{163A618F-4E2A-CF42-8DEE-891E741B2D57}" name="Source" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{49FF6B6D-B6DF-3C46-990B-4A21BE1D1B1E}" name="Transaction" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{84AF5D09-AAE0-8848-B5A8-C38A5769933E}" name="Category" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{0A1EF426-6D1D-AF40-9C65-9FAE6E780C77}" name="Amount" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{BA3274DD-10C7-F14A-8D5D-C0FF14C09BB2}" name="Type" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{36D6B367-4586-164A-BAFD-F61BD8D7B0D8}" name="Date" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{163A618F-4E2A-CF42-8DEE-891E741B2D57}" name="Source" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{49FF6B6D-B6DF-3C46-990B-4A21BE1D1B1E}" name="Transaction" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{84AF5D09-AAE0-8848-B5A8-C38A5769933E}" name="Category" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{0A1EF426-6D1D-AF40-9C65-9FAE6E780C77}" name="Amount" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{BA3274DD-10C7-F14A-8D5D-C0FF14C09BB2}" name="Type" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2106,7 +2103,7 @@
   <dimension ref="A1:F125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2134,7 +2131,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2148,13 +2145,13 @@
         <v>6</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="6">
-        <v>-300</v>
+        <v>-50</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2162,19 +2159,19 @@
         <v>44774</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E3" s="6">
-        <v>-50</v>
+        <v>-12</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2182,19 +2179,19 @@
         <v>44774</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E4" s="6">
-        <v>-12</v>
+        <v>-300</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -2215,7 +2212,7 @@
         <v>300</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -2226,16 +2223,16 @@
         <v>23</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" s="6">
-        <v>-847.99</v>
+        <v>-5.93</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2243,20 +2240,19 @@
         <v>44776</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E7" s="6">
-        <f>-85.23-E6</f>
-        <v>762.76</v>
+        <v>-36</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2264,19 +2260,19 @@
         <v>44776</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="6">
-        <v>-36</v>
+        <v>-26.34</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2284,19 +2280,19 @@
         <v>44776</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E9" s="6">
-        <v>-35.880000000000003</v>
+        <v>-847.99</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -2307,16 +2303,16 @@
         <v>7</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E10" s="6">
-        <v>-26.34</v>
+        <v>-35.880000000000003</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -2336,7 +2332,7 @@
         <v>-24</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -2344,16 +2340,17 @@
         <v>44776</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="E12" s="6">
-        <v>-5.93</v>
+        <f>--3.19</f>
+        <v>3.19</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>121</v>
@@ -2370,14 +2367,14 @@
         <v>25</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E13" s="6">
-        <f>--3.19</f>
-        <v>3.19</v>
+        <f>-85.23-E12</f>
+        <v>-88.42</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -2385,19 +2382,19 @@
         <v>44778</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E14" s="6">
-        <v>-117</v>
+        <v>-22.5</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -2408,13 +2405,14 @@
         <v>7</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" s="6">
-        <v>-22.5</v>
+        <f>--2.5</f>
+        <v>2.5</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>121</v>
@@ -2428,16 +2426,16 @@
         <v>23</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E16" s="6">
-        <v>-9.5299999999999994</v>
+        <v>-117</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -2454,10 +2452,10 @@
         <v>12</v>
       </c>
       <c r="E17" s="6">
-        <v>-7.21</v>
+        <v>-9.5299999999999994</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -2465,20 +2463,19 @@
         <v>44778</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E18" s="6">
-        <f>--2.5</f>
-        <v>2.5</v>
+        <v>-7.21</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -2489,16 +2486,16 @@
         <v>23</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" s="6">
-        <v>-47.94</v>
+        <v>-19.71</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -2509,16 +2506,16 @@
         <v>23</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E20" s="6">
-        <v>-19.71</v>
+        <v>-47.94</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -2529,16 +2526,16 @@
         <v>23</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E21" s="6">
         <v>-97.9</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -2546,19 +2543,19 @@
         <v>44782</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E22" s="6">
-        <v>-121.08</v>
+        <v>-2.99</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -2572,13 +2569,13 @@
         <v>25</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E23" s="6">
-        <v>-50.35</v>
+        <v>-42.99</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -2586,19 +2583,19 @@
         <v>44782</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="E24" s="6">
-        <v>-42.99</v>
+        <v>-32</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -2606,19 +2603,20 @@
         <v>44782</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="6">
-        <v>-32</v>
+        <f>-5.49-1.19</f>
+        <v>-6.68</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -2635,10 +2633,10 @@
         <v>43</v>
       </c>
       <c r="E26" s="6">
-        <v>-18.690000000000001</v>
+        <v>-50.35</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -2652,14 +2650,13 @@
         <v>25</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E27" s="6">
-        <f>-5.49-1.19</f>
-        <v>-6.68</v>
+        <v>-6.33</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -2676,10 +2673,10 @@
         <v>11</v>
       </c>
       <c r="E28" s="6">
-        <v>-6.33</v>
+        <v>-5.12</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -2693,13 +2690,13 @@
         <v>25</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="E29" s="6">
-        <v>-5.12</v>
+        <v>-18.690000000000001</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -2707,19 +2704,19 @@
         <v>44782</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="E30" s="6">
-        <v>-2.99</v>
+        <v>-121.08</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -2730,17 +2727,17 @@
         <v>7</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E31" s="6">
         <f>--4428.13</f>
         <v>4428.13</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -2751,7 +2748,7 @@
         <v>23</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>12</v>
@@ -2760,7 +2757,7 @@
         <v>-195.11</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -2771,7 +2768,7 @@
         <v>23</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>11</v>
@@ -2780,7 +2777,7 @@
         <v>-13.36</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -2791,16 +2788,16 @@
         <v>23</v>
       </c>
       <c r="C34" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="E34" s="6">
         <v>-103.59</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -2811,16 +2808,16 @@
         <v>23</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E35" s="6">
         <v>-82.78</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -2828,16 +2825,17 @@
         <v>44785</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E36" s="6">
-        <v>-29.47</v>
+        <f>--2856.77</f>
+        <v>2856.77</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>121</v>
@@ -2848,20 +2846,19 @@
         <v>44785</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E37" s="6">
-        <f>--2856.77</f>
-        <v>2856.77</v>
+        <v>-29.47</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -2872,7 +2869,7 @@
         <v>23</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>31</v>
@@ -2881,7 +2878,7 @@
         <v>-9.5299999999999994</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -2895,13 +2892,13 @@
         <v>28</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="E39" s="6">
-        <v>-134.43</v>
+        <v>-37.78</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -2912,16 +2909,16 @@
         <v>23</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="E40" s="6">
-        <v>-82.58</v>
+        <v>-134.43</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -2932,16 +2929,16 @@
         <v>23</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E41" s="6">
-        <v>-37.78</v>
+        <v>-82.58</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -2955,13 +2952,13 @@
         <v>28</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E42" s="6">
         <v>-10.99</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -2972,16 +2969,16 @@
         <v>7</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="E43" s="6">
-        <v>-4500</v>
+        <v>-1935.13</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -2989,16 +2986,17 @@
         <v>44788</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E44" s="6">
-        <v>-1935.13</v>
+        <f>--1935.13</f>
+        <v>1935.13</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>121</v>
@@ -3015,13 +3013,13 @@
         <v>6</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E45" s="6">
-        <v>-300</v>
+        <v>-50</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -3032,16 +3030,16 @@
         <v>7</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E46" s="6">
-        <v>-50</v>
+        <v>-16.55</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -3049,19 +3047,19 @@
         <v>44788</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E47" s="6">
-        <v>-24</v>
+        <v>-9.99</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -3069,19 +3067,19 @@
         <v>44788</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E48" s="6">
-        <v>-16.55</v>
+        <v>-24</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -3089,16 +3087,17 @@
         <v>44788</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E49" s="6">
-        <v>-9.99</v>
+        <f>--413</f>
+        <v>413</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>121</v>
@@ -3109,20 +3108,19 @@
         <v>44788</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E50" s="6">
-        <f>--300</f>
-        <v>300</v>
+        <v>-4500</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -3130,20 +3128,19 @@
         <v>44788</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="E51" s="6">
-        <f>--413</f>
-        <v>413</v>
+        <v>-300</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -3151,20 +3148,20 @@
         <v>44788</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="E52" s="6">
-        <f>--1935.13</f>
-        <v>1935.13</v>
+        <f>--300</f>
+        <v>300</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -3185,7 +3182,7 @@
         <v>4500</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -3193,19 +3190,19 @@
         <v>44789</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="E54" s="6">
-        <v>-12000</v>
+        <v>-60.05</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -3213,19 +3210,19 @@
         <v>44789</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="E55" s="6">
-        <v>-60.05</v>
+        <v>-12000</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -3233,16 +3230,17 @@
         <v>44791</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="E56" s="6">
-        <v>-23.1</v>
+        <f>--0.04</f>
+        <v>0.04</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>121</v>
@@ -3256,16 +3254,16 @@
         <v>23</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E57" s="6">
         <v>-15.98</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -3273,20 +3271,19 @@
         <v>44791</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="E58" s="6">
-        <f>--0.04</f>
-        <v>0.04</v>
+        <v>-23.1</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -3294,19 +3291,19 @@
         <v>44792</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E59" s="6">
-        <v>-57.39</v>
+        <v>-17.78</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -3320,13 +3317,13 @@
         <v>25</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="E60" s="6">
-        <v>-52.46</v>
+        <v>-14.08</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -3340,13 +3337,13 @@
         <v>25</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="E61" s="6">
-        <v>-19.87</v>
+        <v>-6</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -3360,13 +3357,13 @@
         <v>25</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="E62" s="6">
-        <v>-17.78</v>
+        <v>-19.87</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -3380,13 +3377,13 @@
         <v>25</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="E63" s="6">
-        <v>-14.08</v>
+        <v>-6</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -3394,19 +3391,19 @@
         <v>44792</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="E64" s="6">
-        <v>-13.95</v>
+        <v>-57.39</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -3420,13 +3417,13 @@
         <v>25</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="E65" s="6">
-        <v>-6</v>
+        <v>-52.46</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -3440,13 +3437,13 @@
         <v>25</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E66" s="6">
-        <v>-6</v>
+        <v>-13.95</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -3457,16 +3454,16 @@
         <v>23</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E67" s="6">
         <v>-39.99</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -3477,16 +3474,16 @@
         <v>7</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E68" s="6">
         <v>-883.65</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -3497,16 +3494,16 @@
         <v>23</v>
       </c>
       <c r="C69" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D69" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="E69" s="6">
         <v>-145.75</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -3517,16 +3514,16 @@
         <v>23</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E70" s="6">
         <v>-65.05</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -3537,16 +3534,16 @@
         <v>23</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E71" s="6">
-        <v>-24.5</v>
+        <v>-14.11</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -3560,13 +3557,13 @@
         <v>90</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E72" s="6">
-        <v>-14.11</v>
+        <v>-24.5</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -3577,7 +3574,7 @@
         <v>23</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>11</v>
@@ -3586,7 +3583,7 @@
         <v>-10</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -3600,10 +3597,11 @@
         <v>25</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E74" s="6">
-        <v>-53.71</v>
+        <f>--33.08</f>
+        <v>33.08</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>121</v>
@@ -3620,13 +3618,13 @@
         <v>25</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="E75" s="6">
-        <v>-34.79</v>
+        <v>-28.47</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -3640,13 +3638,13 @@
         <v>25</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="E76" s="6">
-        <v>-28.47</v>
+        <v>-34.79</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -3654,19 +3652,19 @@
         <v>44797</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E77" s="6">
-        <v>-24.21</v>
+        <v>-7.48</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -3680,13 +3678,13 @@
         <v>25</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="E78" s="6">
-        <v>-12.99</v>
+        <v>-53.71</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -3700,10 +3698,11 @@
         <v>25</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E79" s="6">
-        <v>-7.48</v>
+        <f>--3.7</f>
+        <v>3.7</v>
       </c>
       <c r="F79" s="6" t="s">
         <v>121</v>
@@ -3714,16 +3713,17 @@
         <v>44797</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E80" s="6">
-        <v>-4.7</v>
+        <f>--5.71</f>
+        <v>5.71</v>
       </c>
       <c r="F80" s="6" t="s">
         <v>121</v>
@@ -3740,14 +3740,13 @@
         <v>25</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="E81" s="6">
-        <f>--3.7</f>
-        <v>3.7</v>
+        <v>-12.99</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -3755,20 +3754,19 @@
         <v>44797</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E82" s="6">
-        <f>--5.71</f>
-        <v>5.71</v>
+        <v>-24.21</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -3776,20 +3774,19 @@
         <v>44797</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="E83" s="6">
-        <f>--33.08</f>
-        <v>33.08</v>
+        <v>-4.7</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -3800,16 +3797,16 @@
         <v>7</v>
       </c>
       <c r="C84" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D84" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>77</v>
       </c>
       <c r="E84" s="6">
         <v>-300</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -3820,7 +3817,7 @@
         <v>23</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>12</v>
@@ -3829,7 +3826,7 @@
         <v>-32.270000000000003</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -3840,7 +3837,7 @@
         <v>23</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>31</v>
@@ -3849,7 +3846,7 @@
         <v>-19.34</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -3860,16 +3857,16 @@
         <v>23</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E87" s="6">
         <v>-57.09</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -3880,16 +3877,16 @@
         <v>23</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E88" s="6">
         <v>-30.95</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -3900,7 +3897,7 @@
         <v>23</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>12</v>
@@ -3909,7 +3906,7 @@
         <v>-17.36</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -3920,7 +3917,7 @@
         <v>23</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>31</v>
@@ -3929,7 +3926,7 @@
         <v>-6.77</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -3940,16 +3937,16 @@
         <v>23</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E91" s="6">
         <v>-26.67</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -3960,7 +3957,7 @@
         <v>23</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>31</v>
@@ -3969,7 +3966,7 @@
         <v>-18.64</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -3983,13 +3980,13 @@
         <v>109</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E93" s="6">
-        <v>-43.6</v>
+        <v>-15.04</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -4003,13 +4000,13 @@
         <v>111</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E94" s="6">
-        <v>-34.11</v>
+        <v>-25</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -4020,16 +4017,16 @@
         <v>23</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E95" s="6">
-        <v>-25</v>
+        <v>-43.6</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -4043,13 +4040,13 @@
         <v>110</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E96" s="6">
-        <v>-15.04</v>
+        <v>-34.11</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -4060,16 +4057,16 @@
         <v>7</v>
       </c>
       <c r="C97" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D97" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D97" s="6" t="s">
-        <v>63</v>
-      </c>
       <c r="E97" s="6">
-        <v>-965.06</v>
+        <v>-38</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -4080,16 +4077,16 @@
         <v>7</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="E98" s="6">
-        <v>-63.5</v>
+        <v>-965.06</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -4097,16 +4094,17 @@
         <v>44802</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E99" s="6">
-        <v>-38</v>
+        <f>--965.06</f>
+        <v>965.06</v>
       </c>
       <c r="F99" s="6" t="s">
         <v>121</v>
@@ -4117,16 +4115,16 @@
         <v>44802</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E100" s="6">
-        <v>-24</v>
+        <v>13.99</v>
       </c>
       <c r="F100" s="6" t="s">
         <v>121</v>
@@ -4137,16 +4135,16 @@
         <v>44802</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="E101" s="6">
-        <v>-9.99</v>
+        <v>12.99</v>
       </c>
       <c r="F101" s="6" t="s">
         <v>121</v>
@@ -4157,19 +4155,19 @@
         <v>44802</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="E102" s="6">
-        <v>-9.44</v>
+        <v>-2.29</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
@@ -4177,19 +4175,19 @@
         <v>44802</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E103" s="6">
-        <v>-2.29</v>
+        <v>-24</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -4197,19 +4195,19 @@
         <v>44802</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="E104" s="6">
-        <v>12.99</v>
+        <v>-9.99</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
@@ -4223,13 +4221,13 @@
         <v>25</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E105" s="6">
-        <v>13.99</v>
+        <v>-63.5</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -4240,17 +4238,16 @@
         <v>23</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="E106" s="6">
-        <f>--965.06</f>
-        <v>965.06</v>
+        <v>-9.44</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -4261,16 +4258,16 @@
         <v>7</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E107" s="6">
         <v>-335.43</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -4281,16 +4278,16 @@
         <v>23</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E108" s="6">
         <v>-210</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
@@ -4301,7 +4298,7 @@
         <v>23</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D109" s="6" t="s">
         <v>32</v>
@@ -4310,7 +4307,7 @@
         <v>-24</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -4321,16 +4318,16 @@
         <v>23</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E110" s="6">
         <v>-13</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -4338,16 +4335,17 @@
         <v>44804</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E111" s="6">
-        <v>-50.52</v>
+        <f>--0.12</f>
+        <v>0.12</v>
       </c>
       <c r="F111" s="6" t="s">
         <v>121</v>
@@ -4358,20 +4356,19 @@
         <v>44804</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E112" s="6">
-        <f>--0.12</f>
-        <v>0.12</v>
+        <v>-50.52</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -4382,17 +4379,17 @@
         <v>7</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D113" s="6" t="s">
         <v>41</v>
       </c>
       <c r="E113" s="6">
-        <f>--614.79</f>
-        <v>614.79</v>
+        <f>--3116.22</f>
+        <v>3116.22</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -4406,14 +4403,14 @@
         <v>95</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E114" s="6">
-        <f>--3116.22</f>
-        <v>3116.22</v>
+        <f>--614.79</f>
+        <v>614.79</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -4427,13 +4424,13 @@
         <v>6</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E115" s="6">
-        <v>-3000</v>
+        <v>-50</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -4450,10 +4447,10 @@
         <v>9</v>
       </c>
       <c r="E116" s="6">
-        <v>-300</v>
+        <v>-3000</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -4467,13 +4464,13 @@
         <v>6</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E117" s="6">
-        <v>-50</v>
+        <v>-300</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
@@ -4494,7 +4491,7 @@
         <v>300</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -4515,7 +4512,7 @@
         <v>3000</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -4526,16 +4523,16 @@
         <v>23</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E120" s="6">
         <v>-25</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -4546,16 +4543,16 @@
         <v>23</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E121" s="6">
         <v>-18</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -4569,13 +4566,13 @@
         <v>97</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="E122" s="6">
-        <v>-13.41</v>
+        <v>-10</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -4586,16 +4583,16 @@
         <v>23</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E123" s="6">
-        <v>-10</v>
+        <v>-6</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -4606,16 +4603,16 @@
         <v>23</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>31</v>
       </c>
       <c r="E124" s="6">
-        <v>-8.9</v>
+        <v>-13.41</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -4626,16 +4623,16 @@
         <v>23</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="E125" s="6">
-        <v>-6</v>
+        <v>-8.9</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -4683,7 +4680,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -4693,37 +4690,37 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
@@ -4733,7 +4730,7 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
@@ -4743,7 +4740,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
@@ -4758,17 +4755,17 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
@@ -4783,17 +4780,17 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
@@ -4808,17 +4805,17 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
@@ -4838,7 +4835,7 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -4875,34 +4872,34 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" t="s">
         <v>115</v>
-      </c>
-      <c r="C4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E4" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C5" s="2">
         <v>19504.420000000002</v>
@@ -4916,7 +4913,7 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C6" s="2">
         <v>3300</v>
@@ -4930,7 +4927,7 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2">
         <v>22804.420000000002</v>

--- a/Expenses.xlsx
+++ b/Expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffgood/Desktop/R_Studio_Projects/Financial_Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35595B41-A7EA-E54C-AA53-CD96E62AA944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74306D5C-CDC4-794B-A716-A69C872866E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="1000" windowWidth="27380" windowHeight="15800" xr2:uid="{D9F47917-7B20-384C-878F-0D08681ABD47}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId4"/>
+    <pivotCache cacheId="15" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="125">
   <si>
     <t>Date</t>
   </si>
@@ -232,9 +232,6 @@
     <t>Books</t>
   </si>
   <si>
-    <t>Credit_Card_Payment</t>
-  </si>
-  <si>
     <t>VANGUARD BUY     INVESTMENT ***********3619</t>
   </si>
   <si>
@@ -416,6 +413,12 @@
   </si>
   <si>
     <t>(All)</t>
+  </si>
+  <si>
+    <t>USAA_CC_Payment</t>
+  </si>
+  <si>
+    <t>Chase_CC_Payment</t>
   </si>
 </sst>
 </file>
@@ -1667,7 +1670,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1870C13B-AC88-4747-AFC0-996355F07F2B}" name="PivotTable3" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1870C13B-AC88-4747-AFC0-996355F07F2B}" name="PivotTable3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B3:E7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
@@ -2103,7 +2106,7 @@
   <dimension ref="A1:F125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+      <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2131,7 +2134,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2151,7 +2154,7 @@
         <v>-50</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2171,7 +2174,7 @@
         <v>-12</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2191,7 +2194,7 @@
         <v>-300</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -2212,7 +2215,7 @@
         <v>300</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -2232,7 +2235,7 @@
         <v>-5.93</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2252,7 +2255,7 @@
         <v>-36</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2272,7 +2275,7 @@
         <v>-26.34</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2292,7 +2295,7 @@
         <v>-847.99</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -2312,7 +2315,7 @@
         <v>-35.880000000000003</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -2332,7 +2335,7 @@
         <v>-24</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -2353,7 +2356,7 @@
         <v>3.19</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -2374,7 +2377,7 @@
         <v>-88.42</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -2394,7 +2397,7 @@
         <v>-22.5</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -2415,7 +2418,7 @@
         <v>2.5</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -2435,7 +2438,7 @@
         <v>-117</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -2455,7 +2458,7 @@
         <v>-9.5299999999999994</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -2475,7 +2478,7 @@
         <v>-7.21</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -2495,7 +2498,7 @@
         <v>-19.71</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -2515,7 +2518,7 @@
         <v>-47.94</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -2535,7 +2538,7 @@
         <v>-97.9</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -2555,7 +2558,7 @@
         <v>-2.99</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -2575,7 +2578,7 @@
         <v>-42.99</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -2595,7 +2598,7 @@
         <v>-32</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -2616,7 +2619,7 @@
         <v>-6.68</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -2636,7 +2639,7 @@
         <v>-50.35</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -2656,7 +2659,7 @@
         <v>-6.33</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -2676,7 +2679,7 @@
         <v>-5.12</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -2696,7 +2699,7 @@
         <v>-18.690000000000001</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -2716,7 +2719,7 @@
         <v>-121.08</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -2737,7 +2740,7 @@
         <v>4428.13</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -2757,7 +2760,7 @@
         <v>-195.11</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -2777,7 +2780,7 @@
         <v>-13.36</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -2797,7 +2800,7 @@
         <v>-103.59</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -2817,7 +2820,7 @@
         <v>-82.78</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -2838,7 +2841,7 @@
         <v>2856.77</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -2858,7 +2861,7 @@
         <v>-29.47</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -2878,7 +2881,7 @@
         <v>-9.5299999999999994</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -2898,7 +2901,7 @@
         <v>-37.78</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -2918,7 +2921,7 @@
         <v>-134.43</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -2929,7 +2932,7 @@
         <v>23</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>56</v>
@@ -2938,7 +2941,7 @@
         <v>-82.58</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -2958,7 +2961,7 @@
         <v>-10.99</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -2972,13 +2975,13 @@
         <v>58</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="E43" s="6">
         <v>-1935.13</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -2989,17 +2992,17 @@
         <v>23</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="E44" s="6">
         <f>--1935.13</f>
         <v>1935.13</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -3019,7 +3022,7 @@
         <v>-50</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -3039,7 +3042,7 @@
         <v>-16.55</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -3059,7 +3062,7 @@
         <v>-9.99</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -3070,7 +3073,7 @@
         <v>23</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>32</v>
@@ -3079,7 +3082,7 @@
         <v>-24</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -3090,7 +3093,7 @@
         <v>18</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>40</v>
@@ -3100,7 +3103,7 @@
         <v>413</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -3120,7 +3123,7 @@
         <v>-4500</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -3140,7 +3143,7 @@
         <v>-300</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -3161,7 +3164,7 @@
         <v>300</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -3182,7 +3185,7 @@
         <v>4500</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -3193,7 +3196,7 @@
         <v>23</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>12</v>
@@ -3202,7 +3205,7 @@
         <v>-60.05</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -3213,16 +3216,16 @@
         <v>18</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E55" s="6">
         <v>-12000</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -3243,7 +3246,7 @@
         <v>0.04</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -3254,7 +3257,7 @@
         <v>23</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>61</v>
@@ -3263,7 +3266,7 @@
         <v>-15.98</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -3274,16 +3277,16 @@
         <v>23</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E58" s="6">
         <v>-23.1</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -3303,7 +3306,7 @@
         <v>-17.78</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -3323,7 +3326,7 @@
         <v>-14.08</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -3343,7 +3346,7 @@
         <v>-6</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -3363,7 +3366,7 @@
         <v>-19.87</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -3383,7 +3386,7 @@
         <v>-6</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -3394,7 +3397,7 @@
         <v>23</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>56</v>
@@ -3403,7 +3406,7 @@
         <v>-57.39</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -3423,7 +3426,7 @@
         <v>-52.46</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -3443,7 +3446,7 @@
         <v>-13.95</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -3454,16 +3457,16 @@
         <v>23</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E67" s="6">
         <v>-39.99</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -3474,16 +3477,16 @@
         <v>7</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="E68" s="6">
         <v>-883.65</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -3494,16 +3497,16 @@
         <v>23</v>
       </c>
       <c r="C69" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D69" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="E69" s="6">
         <v>-145.75</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -3514,7 +3517,7 @@
         <v>23</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>44</v>
@@ -3523,7 +3526,7 @@
         <v>-65.05</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -3534,7 +3537,7 @@
         <v>23</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>12</v>
@@ -3543,7 +3546,7 @@
         <v>-14.11</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -3554,7 +3557,7 @@
         <v>23</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>32</v>
@@ -3563,7 +3566,7 @@
         <v>-24.5</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -3574,7 +3577,7 @@
         <v>23</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>11</v>
@@ -3583,7 +3586,7 @@
         <v>-10</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -3604,7 +3607,7 @@
         <v>33.08</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -3618,13 +3621,13 @@
         <v>25</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E75" s="6">
         <v>-28.47</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -3644,7 +3647,7 @@
         <v>-34.79</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -3664,7 +3667,7 @@
         <v>-7.48</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -3678,13 +3681,13 @@
         <v>25</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E78" s="6">
         <v>-53.71</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -3705,7 +3708,7 @@
         <v>3.7</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -3726,7 +3729,7 @@
         <v>5.71</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -3746,7 +3749,7 @@
         <v>-12.99</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -3757,7 +3760,7 @@
         <v>23</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>31</v>
@@ -3766,7 +3769,7 @@
         <v>-24.21</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -3777,7 +3780,7 @@
         <v>23</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>31</v>
@@ -3786,7 +3789,7 @@
         <v>-4.7</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -3797,16 +3800,16 @@
         <v>7</v>
       </c>
       <c r="C84" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D84" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="E84" s="6">
         <v>-300</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -3817,7 +3820,7 @@
         <v>23</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>12</v>
@@ -3826,7 +3829,7 @@
         <v>-32.270000000000003</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -3837,7 +3840,7 @@
         <v>23</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>31</v>
@@ -3846,7 +3849,7 @@
         <v>-19.34</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -3857,7 +3860,7 @@
         <v>23</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>44</v>
@@ -3866,7 +3869,7 @@
         <v>-57.09</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -3877,7 +3880,7 @@
         <v>23</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>44</v>
@@ -3886,7 +3889,7 @@
         <v>-30.95</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -3897,7 +3900,7 @@
         <v>23</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>12</v>
@@ -3906,7 +3909,7 @@
         <v>-17.36</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -3917,7 +3920,7 @@
         <v>23</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>31</v>
@@ -3926,7 +3929,7 @@
         <v>-6.77</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -3937,7 +3940,7 @@
         <v>23</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>59</v>
@@ -3946,7 +3949,7 @@
         <v>-26.67</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -3957,7 +3960,7 @@
         <v>23</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>31</v>
@@ -3966,7 +3969,7 @@
         <v>-18.64</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -3977,7 +3980,7 @@
         <v>23</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>30</v>
@@ -3986,7 +3989,7 @@
         <v>-15.04</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -3997,7 +4000,7 @@
         <v>23</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>11</v>
@@ -4006,7 +4009,7 @@
         <v>-25</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -4017,7 +4020,7 @@
         <v>23</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>31</v>
@@ -4026,7 +4029,7 @@
         <v>-43.6</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -4037,7 +4040,7 @@
         <v>23</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>31</v>
@@ -4046,7 +4049,7 @@
         <v>-34.11</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -4066,7 +4069,7 @@
         <v>-38</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -4080,13 +4083,13 @@
         <v>58</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="E98" s="6">
         <v>-965.06</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -4097,17 +4100,17 @@
         <v>23</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="E99" s="6">
         <f>--965.06</f>
         <v>965.06</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -4127,7 +4130,7 @@
         <v>13.99</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -4141,13 +4144,13 @@
         <v>25</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E101" s="6">
         <v>12.99</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -4167,7 +4170,7 @@
         <v>-2.29</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
@@ -4178,7 +4181,7 @@
         <v>23</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>32</v>
@@ -4187,7 +4190,7 @@
         <v>-24</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -4198,7 +4201,7 @@
         <v>23</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D104" s="6" t="s">
         <v>11</v>
@@ -4207,7 +4210,7 @@
         <v>-9.99</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
@@ -4227,7 +4230,7 @@
         <v>-63.5</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -4238,16 +4241,16 @@
         <v>23</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E106" s="6">
         <v>-9.44</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -4258,16 +4261,16 @@
         <v>7</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="E107" s="6">
         <v>-335.43</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -4278,16 +4281,16 @@
         <v>23</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E108" s="6">
         <v>-210</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
@@ -4298,7 +4301,7 @@
         <v>23</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D109" s="6" t="s">
         <v>32</v>
@@ -4307,7 +4310,7 @@
         <v>-24</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -4318,7 +4321,7 @@
         <v>23</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>42</v>
@@ -4327,7 +4330,7 @@
         <v>-13</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -4348,7 +4351,7 @@
         <v>0.12</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -4359,7 +4362,7 @@
         <v>23</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>12</v>
@@ -4368,7 +4371,7 @@
         <v>-50.52</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -4379,7 +4382,7 @@
         <v>7</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D113" s="6" t="s">
         <v>41</v>
@@ -4389,7 +4392,7 @@
         <v>3116.22</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -4400,7 +4403,7 @@
         <v>7</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>40</v>
@@ -4410,7 +4413,7 @@
         <v>614.79</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -4430,7 +4433,7 @@
         <v>-50</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -4450,7 +4453,7 @@
         <v>-3000</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -4470,7 +4473,7 @@
         <v>-300</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
@@ -4491,7 +4494,7 @@
         <v>300</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -4512,7 +4515,7 @@
         <v>3000</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -4523,16 +4526,16 @@
         <v>23</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E120" s="6">
         <v>-25</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -4543,16 +4546,16 @@
         <v>23</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E121" s="6">
         <v>-18</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -4563,16 +4566,16 @@
         <v>23</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E122" s="6">
         <v>-10</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -4583,16 +4586,16 @@
         <v>23</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E123" s="6">
         <v>-6</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -4603,7 +4606,7 @@
         <v>23</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>31</v>
@@ -4612,7 +4615,7 @@
         <v>-13.41</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -4623,7 +4626,7 @@
         <v>23</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D125" s="6" t="s">
         <v>31</v>
@@ -4632,7 +4635,7 @@
         <v>-8.9</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -4657,10 +4660,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A85DC7-AAE6-0D45-BE57-A2D20F484BD4}">
-  <dimension ref="A1:A34"/>
+  <dimension ref="A1:A35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4695,27 +4698,27 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
@@ -4730,7 +4733,7 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
@@ -4755,7 +4758,7 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
@@ -4780,12 +4783,12 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
@@ -4815,7 +4818,7 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
@@ -4835,13 +4838,18 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:A9" xr:uid="{92A85DC7-AAE6-0D45-BE57-A2D20F484BD4}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A34">
-      <sortCondition ref="A1:A34"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A35">
+      <sortCondition ref="A1:A35"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4872,34 +4880,34 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" t="s">
         <v>114</v>
-      </c>
-      <c r="C4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C5" s="2">
         <v>19504.420000000002</v>
@@ -4913,7 +4921,7 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C6" s="2">
         <v>3300</v>
@@ -4927,7 +4935,7 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C7" s="2">
         <v>22804.420000000002</v>

--- a/Expenses.xlsx
+++ b/Expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffgood/Desktop/R_Studio_Projects/Financial_Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74306D5C-CDC4-794B-A716-A69C872866E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E879822-C522-AE45-B7F3-2315640EBD22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="1000" windowWidth="27380" windowHeight="15800" xr2:uid="{D9F47917-7B20-384C-878F-0D08681ABD47}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="140">
   <si>
     <t>Date</t>
   </si>
@@ -419,16 +419,67 @@
   </si>
   <si>
     <t>Chase_CC_Payment</t>
+  </si>
+  <si>
+    <t>Bill.com         ACCTVERIFY ***********NT4R</t>
+  </si>
+  <si>
+    <t>CHECK # 0000001634</t>
+  </si>
+  <si>
+    <t>CHASE CREDIT CRD EPAY       ***********3157</t>
+  </si>
+  <si>
+    <t>USAA P&amp;amp;C         AUTOPAY    ***********3049</t>
+  </si>
+  <si>
+    <t>WEGMANS #45              MECHANICSBURGPA</t>
+  </si>
+  <si>
+    <t>Medical_Dental</t>
+  </si>
+  <si>
+    <t>MedIcal_Dental</t>
+  </si>
+  <si>
+    <t>MARSHALLS #834           MECHANICSBURGPA</t>
+  </si>
+  <si>
+    <t>SUSHI HEAVEN             MECHANICSBURGPA</t>
+  </si>
+  <si>
+    <t>OLD NAVY ON-LINE         800-6536289  OH</t>
+  </si>
+  <si>
+    <t>SHEETZ 0518   00005181   MECHANICSBURGPA</t>
+  </si>
+  <si>
+    <t>SQ *CORNERSTONE COFFEEHOUCamp Hill    PA</t>
+  </si>
+  <si>
+    <t>KARNS QUALITY FOODS      MECHANICSBURGPA</t>
+  </si>
+  <si>
+    <t>TST* Appalachian Brewing MechanicsburgPA</t>
+  </si>
+  <si>
+    <t>SP FRESH CLEAN TEES      HTTPSFRESHCLECA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -460,7 +511,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -470,6 +521,7 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1670,7 +1722,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1870C13B-AC88-4747-AFC0-996355F07F2B}" name="PivotTable3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1870C13B-AC88-4747-AFC0-996355F07F2B}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B3:E7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
@@ -1789,10 +1841,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}" name="Table1" displayName="Table1" ref="A1:F125" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F125" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F125">
-    <sortCondition ref="A1:A125"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}" name="Table1" displayName="Table1" ref="A1:F144" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F144" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F144">
+    <sortCondition ref="A1:A144"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{36D6B367-4586-164A-BAFD-F61BD8D7B0D8}" name="Date" dataDxfId="5"/>
@@ -2103,10 +2155,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BEBEFE-BF8C-CE41-8907-E9633ACA1DDB}">
-  <dimension ref="A1:F125"/>
+  <dimension ref="A1:F144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D108" sqref="D108"/>
+      <selection activeCell="E135" sqref="E135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4638,7 +4690,389 @@
         <v>119</v>
       </c>
     </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" s="7">
+        <v>44808</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C126" t="s">
+        <v>138</v>
+      </c>
+      <c r="D126" t="s">
+        <v>12</v>
+      </c>
+      <c r="E126">
+        <v>-5.29</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" s="7">
+        <v>44808</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C127" t="s">
+        <v>139</v>
+      </c>
+      <c r="D127" t="s">
+        <v>59</v>
+      </c>
+      <c r="E127">
+        <v>-86.8</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" s="7">
+        <v>44809</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C128" t="s">
+        <v>136</v>
+      </c>
+      <c r="D128" t="s">
+        <v>31</v>
+      </c>
+      <c r="E128">
+        <v>-24.81</v>
+      </c>
+      <c r="F128" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="7">
+        <v>44809</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C129" t="s">
+        <v>137</v>
+      </c>
+      <c r="D129" t="s">
+        <v>12</v>
+      </c>
+      <c r="E129">
+        <v>-5.39</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" s="5">
+        <v>44810</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E130" s="6">
+        <v>-154.11000000000001</v>
+      </c>
+      <c r="F130" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" s="5">
+        <v>44810</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E131" s="6">
+        <v>-70.48</v>
+      </c>
+      <c r="F131" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" s="5">
+        <v>44810</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E132" s="6">
+        <v>-30.26</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" s="5">
+        <v>44810</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E133" s="6">
+        <v>-94.92</v>
+      </c>
+      <c r="F133" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" s="7">
+        <v>44810</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C134" t="s">
+        <v>135</v>
+      </c>
+      <c r="D134" t="s">
+        <v>44</v>
+      </c>
+      <c r="E134">
+        <v>-55.91</v>
+      </c>
+      <c r="F134" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" s="7">
+        <v>44810</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C135" t="s">
+        <v>103</v>
+      </c>
+      <c r="D135" t="s">
+        <v>75</v>
+      </c>
+      <c r="E135">
+        <v>-105</v>
+      </c>
+      <c r="F135" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" s="7">
+        <v>44810</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C136" t="s">
+        <v>111</v>
+      </c>
+      <c r="D136" t="s">
+        <v>31</v>
+      </c>
+      <c r="E136">
+        <v>-41.39</v>
+      </c>
+      <c r="F136" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" s="5">
+        <v>44811</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E137" s="6">
+        <v>-102.44</v>
+      </c>
+      <c r="F137" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138" s="5">
+        <v>44811</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E138" s="6">
+        <v>-415.25</v>
+      </c>
+      <c r="F138" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139" s="7">
+        <v>44812</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C139" t="s">
+        <v>134</v>
+      </c>
+      <c r="D139" t="s">
+        <v>59</v>
+      </c>
+      <c r="E139">
+        <v>-59.57</v>
+      </c>
+      <c r="F139" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140" s="7">
+        <v>44812</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C140" t="s">
+        <v>134</v>
+      </c>
+      <c r="D140" t="s">
+        <v>59</v>
+      </c>
+      <c r="E140">
+        <v>-150.41</v>
+      </c>
+      <c r="F140" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141" s="5">
+        <v>44813</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E141" s="6">
+        <f>--0.01</f>
+        <v>0.01</v>
+      </c>
+      <c r="F141" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142" s="7">
+        <v>44813</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C142" t="s">
+        <v>133</v>
+      </c>
+      <c r="D142" t="s">
+        <v>31</v>
+      </c>
+      <c r="E142">
+        <v>-18.75</v>
+      </c>
+      <c r="F142" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143" s="7">
+        <v>44813</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C143" t="s">
+        <v>106</v>
+      </c>
+      <c r="D143" t="s">
+        <v>11</v>
+      </c>
+      <c r="E143">
+        <v>-2.99</v>
+      </c>
+      <c r="F143" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144" s="7">
+        <v>44814</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C144" t="s">
+        <v>132</v>
+      </c>
+      <c r="D144" t="s">
+        <v>43</v>
+      </c>
+      <c r="E144">
+        <v>-317.99</v>
+      </c>
+      <c r="F144" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -4650,7 +5084,7 @@
           <x14:formula1>
             <xm:f>OFFSET(Categories!$A$2,0,0,COUNTIF(Categories!$A$2:$A$99,"&lt;&gt;"))</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D125</xm:sqref>
+          <xm:sqref>D2:D144</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4662,8 +5096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A85DC7-AAE6-0D45-BE57-A2D20F484BD4}">
   <dimension ref="A1:A35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4798,7 +5232,7 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">

--- a/Expenses.xlsx
+++ b/Expenses.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffgood/Desktop/R_Studio_Projects/Financial_Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E879822-C522-AE45-B7F3-2315640EBD22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E52B31-D30C-1A4C-BB0E-61E1CDB3E217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="1000" windowWidth="27380" windowHeight="15800" xr2:uid="{D9F47917-7B20-384C-878F-0D08681ABD47}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="159">
   <si>
     <t>Date</t>
   </si>
@@ -464,6 +464,63 @@
   </si>
   <si>
     <t>SP FRESH CLEAN TEES      HTTPSFRESHCLECA</t>
+  </si>
+  <si>
+    <t>TARGET DEBIT CRD ACH TRAN   ***********2202</t>
+  </si>
+  <si>
+    <t>General Merchandise</t>
+  </si>
+  <si>
+    <t>TARGET DEBIT CRD ACH TRAN   ***********1893</t>
+  </si>
+  <si>
+    <t>PAYPAL           INST XFER  ***********S.FE</t>
+  </si>
+  <si>
+    <t>PAYPAL           INST XFER  ***********DROO</t>
+  </si>
+  <si>
+    <t>CHASE CREDIT CRD EPAY       ***********3656</t>
+  </si>
+  <si>
+    <t>DFAS-CLEVELAND    IATS PAY  ***********1645</t>
+  </si>
+  <si>
+    <t>Supply_Corps</t>
+  </si>
+  <si>
+    <t>Office_Supplies</t>
+  </si>
+  <si>
+    <t>INTEREST ADJUSTMENT</t>
+  </si>
+  <si>
+    <t>CVS/PHARMACY #01639      MECHANICSBURGPA</t>
+  </si>
+  <si>
+    <t>DUCK DONUTS MECHANICSBUR MECHANICSBURGPA</t>
+  </si>
+  <si>
+    <t>CPH LIABILITY INSURANC   800-875-1911 IL</t>
+  </si>
+  <si>
+    <t>PLAZA AZTECA MECHANICSBURMECHANICSBURGPA</t>
+  </si>
+  <si>
+    <t>WODIFY PAY* WP IBEX TR   IBEXTRAINED.COH</t>
+  </si>
+  <si>
+    <t>CHIPOTLE 2226            MECHANICSBURGPA</t>
+  </si>
+  <si>
+    <t>JIMMY JOHNS - 2362 - E   717-761-4914 PA</t>
+  </si>
+  <si>
+    <t>THE HOME DEPOT #4120     MECHANICSBURGPA</t>
+  </si>
+  <si>
+    <t>IN *D &amp;amp; M HANES INC.     419-4255550  OH</t>
   </si>
 </sst>
 </file>
@@ -1841,8 +1898,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}" name="Table1" displayName="Table1" ref="A1:F144" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F144" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}" name="Table1" displayName="Table1" ref="A1:F182" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F182" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F144">
     <sortCondition ref="A1:A144"/>
   </sortState>
@@ -2155,10 +2212,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BEBEFE-BF8C-CE41-8907-E9633ACA1DDB}">
-  <dimension ref="A1:F144"/>
+  <dimension ref="A1:F182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E135" sqref="E135"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="F168" sqref="F168:F182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5067,7 +5124,745 @@
       <c r="E144">
         <v>-317.99</v>
       </c>
-      <c r="F144" s="6" t="s">
+      <c r="F144" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" s="7">
+        <v>44823</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145" t="s">
+        <v>140</v>
+      </c>
+      <c r="D145" t="s">
+        <v>14</v>
+      </c>
+      <c r="E145">
+        <v>-80.739999999999995</v>
+      </c>
+      <c r="F145" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" s="7">
+        <v>44823</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146" t="s">
+        <v>140</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E146" s="6">
+        <v>-31.63</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" s="7">
+        <v>44823</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C147" t="s">
+        <v>140</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E147" s="6">
+        <v>-43.78</v>
+      </c>
+      <c r="F147" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148" s="7">
+        <v>44823</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148" t="s">
+        <v>140</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E148" s="6">
+        <v>-9.99</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149" s="7">
+        <v>44823</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C149" t="s">
+        <v>140</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E149" s="6">
+        <v>-8.48</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150" s="7">
+        <v>44823</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C150" t="s">
+        <v>142</v>
+      </c>
+      <c r="D150" t="s">
+        <v>12</v>
+      </c>
+      <c r="E150">
+        <v>-79.52</v>
+      </c>
+      <c r="F150" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151" s="7">
+        <v>44823</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C151" t="s">
+        <v>143</v>
+      </c>
+      <c r="D151" t="s">
+        <v>147</v>
+      </c>
+      <c r="E151">
+        <v>-28</v>
+      </c>
+      <c r="F151" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152" s="7">
+        <v>44823</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C152" t="s">
+        <v>140</v>
+      </c>
+      <c r="D152" t="s">
+        <v>141</v>
+      </c>
+      <c r="E152">
+        <f>--27.94</f>
+        <v>27.94</v>
+      </c>
+      <c r="F152" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153" s="7">
+        <v>44823</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C153" t="s">
+        <v>140</v>
+      </c>
+      <c r="D153" t="s">
+        <v>141</v>
+      </c>
+      <c r="E153">
+        <f>--11.27</f>
+        <v>11.27</v>
+      </c>
+      <c r="F153" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154" s="7">
+        <v>44820</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C154" t="s">
+        <v>57</v>
+      </c>
+      <c r="D154" t="s">
+        <v>15</v>
+      </c>
+      <c r="E154">
+        <f>--0.02</f>
+        <v>0.02</v>
+      </c>
+      <c r="F154" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155" s="7">
+        <v>44820</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C155" t="s">
+        <v>144</v>
+      </c>
+      <c r="D155" t="s">
+        <v>147</v>
+      </c>
+      <c r="E155">
+        <v>-110</v>
+      </c>
+      <c r="F155" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A156" s="7">
+        <v>44819</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156" t="s">
+        <v>6</v>
+      </c>
+      <c r="D156" t="s">
+        <v>9</v>
+      </c>
+      <c r="E156">
+        <v>-300</v>
+      </c>
+      <c r="F156" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157" s="7">
+        <v>44819</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157" t="s">
+        <v>6</v>
+      </c>
+      <c r="D157" t="s">
+        <v>8</v>
+      </c>
+      <c r="E157">
+        <v>-50</v>
+      </c>
+      <c r="F157" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158" s="7">
+        <v>44818</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" t="s">
+        <v>145</v>
+      </c>
+      <c r="D158" t="s">
+        <v>124</v>
+      </c>
+      <c r="E158">
+        <v>-982.28</v>
+      </c>
+      <c r="F158" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159" s="7">
+        <v>44818</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" t="s">
+        <v>93</v>
+      </c>
+      <c r="D159" t="s">
+        <v>41</v>
+      </c>
+      <c r="E159">
+        <f>--2954.27</f>
+        <v>2954.27</v>
+      </c>
+      <c r="F159" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A160" s="7">
+        <v>44817</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" t="s">
+        <v>58</v>
+      </c>
+      <c r="D160" t="s">
+        <v>123</v>
+      </c>
+      <c r="E160">
+        <v>-1697.86</v>
+      </c>
+      <c r="F160" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A161" s="7">
+        <v>44816</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C161" t="s">
+        <v>146</v>
+      </c>
+      <c r="D161" t="s">
+        <v>40</v>
+      </c>
+      <c r="E161">
+        <f>--4472.7</f>
+        <v>4472.7</v>
+      </c>
+      <c r="F161" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A162" s="7">
+        <v>44816</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162" t="s">
+        <v>17</v>
+      </c>
+      <c r="D162" t="s">
+        <v>9</v>
+      </c>
+      <c r="E162">
+        <f>--400</f>
+        <v>400</v>
+      </c>
+      <c r="F162" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A163" s="5">
+        <v>44820</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E163" s="6">
+        <f>--0.04</f>
+        <v>0.04</v>
+      </c>
+      <c r="F163" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A164" s="5">
+        <v>44819</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E164" s="6">
+        <f>--300</f>
+        <v>300</v>
+      </c>
+      <c r="F164" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A165" s="5">
+        <v>44817</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E165" s="6">
+        <f>--341.99</f>
+        <v>341.99</v>
+      </c>
+      <c r="F165" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A166" s="5">
+        <v>44816</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E166" s="6">
+        <v>-400</v>
+      </c>
+      <c r="F166" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A167" s="5">
+        <v>44822</v>
+      </c>
+      <c r="B167" s="6"/>
+      <c r="C167" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E167" s="6">
+        <v>-14.48</v>
+      </c>
+      <c r="F167" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A168" s="5">
+        <v>44822</v>
+      </c>
+      <c r="B168" s="6"/>
+      <c r="C168" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E168" s="6">
+        <v>-15.82</v>
+      </c>
+      <c r="F168" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A169" s="5">
+        <v>44821</v>
+      </c>
+      <c r="B169" s="6"/>
+      <c r="C169" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D169" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E169" s="6">
+        <v>-13.18</v>
+      </c>
+      <c r="F169" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A170" s="5">
+        <v>44821</v>
+      </c>
+      <c r="B170" s="6"/>
+      <c r="C170" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D170" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E170" s="6">
+        <v>-10.18</v>
+      </c>
+      <c r="F170" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A171" s="5">
+        <v>44821</v>
+      </c>
+      <c r="B171" s="6"/>
+      <c r="C171" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D171" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E171" s="6">
+        <v>-206</v>
+      </c>
+      <c r="F171" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A172" s="5">
+        <v>44820</v>
+      </c>
+      <c r="B172" s="6"/>
+      <c r="C172" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E172" s="6">
+        <v>-19</v>
+      </c>
+      <c r="F172" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A173" s="5">
+        <v>44819</v>
+      </c>
+      <c r="B173" s="6"/>
+      <c r="C173" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E173" s="6">
+        <v>-55.83</v>
+      </c>
+      <c r="F173" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A174" s="5">
+        <v>44819</v>
+      </c>
+      <c r="B174" s="6"/>
+      <c r="C174" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E174" s="6">
+        <v>-23.1</v>
+      </c>
+      <c r="F174" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A175" s="5">
+        <v>44817</v>
+      </c>
+      <c r="B175" s="6"/>
+      <c r="C175" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D175" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E175" s="6">
+        <v>-26.66</v>
+      </c>
+      <c r="F175" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A176" s="5">
+        <v>44817</v>
+      </c>
+      <c r="B176" s="6"/>
+      <c r="C176" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D176" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E176" s="6">
+        <v>-105</v>
+      </c>
+      <c r="F176" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A177" s="5">
+        <v>44817</v>
+      </c>
+      <c r="B177" s="6"/>
+      <c r="C177" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D177" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E177" s="6">
+        <f>--1697.86</f>
+        <v>1697.86</v>
+      </c>
+      <c r="F177" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A178" s="5">
+        <v>44816</v>
+      </c>
+      <c r="B178" s="6"/>
+      <c r="C178" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D178" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E178" s="6">
+        <v>-17.059999999999999</v>
+      </c>
+      <c r="F178" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A179" s="5">
+        <v>44816</v>
+      </c>
+      <c r="B179" s="6"/>
+      <c r="C179" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D179" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E179" s="6">
+        <v>-4.4800000000000004</v>
+      </c>
+      <c r="F179" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A180" s="5">
+        <v>44815</v>
+      </c>
+      <c r="B180" s="6"/>
+      <c r="C180" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D180" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E180" s="6">
+        <v>-115.61</v>
+      </c>
+      <c r="F180" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A181" s="5">
+        <v>44815</v>
+      </c>
+      <c r="B181" s="6"/>
+      <c r="C181" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D181" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E181" s="6">
+        <v>-19.5</v>
+      </c>
+      <c r="F181" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A182" s="5">
+        <v>44815</v>
+      </c>
+      <c r="B182" s="6"/>
+      <c r="C182" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D182" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E182" s="6">
+        <v>-209.06</v>
+      </c>
+      <c r="F182" s="6" t="s">
         <v>119</v>
       </c>
     </row>
@@ -5084,7 +5879,7 @@
           <x14:formula1>
             <xm:f>OFFSET(Categories!$A$2,0,0,COUNTIF(Categories!$A$2:$A$99,"&lt;&gt;"))</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D144</xm:sqref>
+          <xm:sqref>D2:D182</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5094,10 +5889,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A85DC7-AAE6-0D45-BE57-A2D20F484BD4}">
-  <dimension ref="A1:A35"/>
+  <dimension ref="A1:A37"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5247,43 +6042,53 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:A9" xr:uid="{92A85DC7-AAE6-0D45-BE57-A2D20F484BD4}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A35">
-      <sortCondition ref="A1:A35"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A37">
+      <sortCondition ref="A1:A37"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Expenses.xlsx
+++ b/Expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffgood/Desktop/R_Studio_Projects/Financial_Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E52B31-D30C-1A4C-BB0E-61E1CDB3E217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED270DD-D93E-9D41-9CB5-E6615DE388FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="1000" windowWidth="27380" windowHeight="15800" xr2:uid="{D9F47917-7B20-384C-878F-0D08681ABD47}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="3" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="180">
   <si>
     <t>Date</t>
   </si>
@@ -142,9 +142,6 @@
     <t>Restaurants</t>
   </si>
   <si>
-    <t>Medical</t>
-  </si>
-  <si>
     <t>Houshold_Appliances</t>
   </si>
   <si>
@@ -439,9 +436,6 @@
     <t>Medical_Dental</t>
   </si>
   <si>
-    <t>MedIcal_Dental</t>
-  </si>
-  <si>
     <t>MARSHALLS #834           MECHANICSBURGPA</t>
   </si>
   <si>
@@ -469,9 +463,6 @@
     <t>TARGET DEBIT CRD ACH TRAN   ***********2202</t>
   </si>
   <si>
-    <t>General Merchandise</t>
-  </si>
-  <si>
     <t>TARGET DEBIT CRD ACH TRAN   ***********1893</t>
   </si>
   <si>
@@ -521,6 +512,78 @@
   </si>
   <si>
     <t>IN *D &amp;amp; M HANES INC.     419-4255550  OH</t>
+  </si>
+  <si>
+    <t>CHASE CREDIT CRD EPAY       ***********9465</t>
+  </si>
+  <si>
+    <t>3801000000000000 FED PAYMNT ***********0000</t>
+  </si>
+  <si>
+    <t>TARGET DEBIT CRD ACH TRAN   ***********3991</t>
+  </si>
+  <si>
+    <t>NAVY EXCHANGE 050416NAVY MECHANICSBURGPA</t>
+  </si>
+  <si>
+    <t>SUNOCO 0522340900        LIVERMORE    ME</t>
+  </si>
+  <si>
+    <t>LA-Z-BOY RETAIL          866-424-4886 MI</t>
+  </si>
+  <si>
+    <t>THE FURBISH BREW HOUSE   207-8645847  ME</t>
+  </si>
+  <si>
+    <t>SUNOCO 0008117400        STRATTON     ME</t>
+  </si>
+  <si>
+    <t>THE RACK                 207-2372211  ME</t>
+  </si>
+  <si>
+    <t>HLU*Hulu 844928213460-U  HULU.COM/BILLCA</t>
+  </si>
+  <si>
+    <t>SP* ALICE AND LULU-ZWN   HTTPSWWW.SHOWDE</t>
+  </si>
+  <si>
+    <t>SHELL OIL 10010646007    WATERFORD    CT</t>
+  </si>
+  <si>
+    <t>LOWES #02263*            WATERFORD    CT</t>
+  </si>
+  <si>
+    <t>WAL-MART #1788           SCARBOROUGH  ME</t>
+  </si>
+  <si>
+    <t>WAL-MART #2331           WATERFORD    CT</t>
+  </si>
+  <si>
+    <t>PILOT_00210              MAHWAH       NJ</t>
+  </si>
+  <si>
+    <t>PANERA BREAD #601155 P   MECHANICSBURGPA</t>
+  </si>
+  <si>
+    <t>OLD NAVY US 6927         MECHANICSBURGPA</t>
+  </si>
+  <si>
+    <t>EXXONMOBIL    47828199   ARLINGTON    VA</t>
+  </si>
+  <si>
+    <t>SILVER DINER ALEXANDRIA  ALEXANDRIA   VA</t>
+  </si>
+  <si>
+    <t>5GUYS 4000 ECOMM         023-456-7891 VA</t>
+  </si>
+  <si>
+    <t>HARRIS TEETER #413       ALEXANDRIA   VA</t>
+  </si>
+  <si>
+    <t>DUNKIN #306751           WILMINGTON   DE</t>
+  </si>
+  <si>
+    <t>COMCAST THREERIVERS PA   800-COMCAST  PA</t>
   </si>
 </sst>
 </file>
@@ -1779,7 +1842,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1870C13B-AC88-4747-AFC0-996355F07F2B}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1870C13B-AC88-4747-AFC0-996355F07F2B}" name="PivotTable3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B3:E7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
@@ -1898,10 +1961,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}" name="Table1" displayName="Table1" ref="A1:F182" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F182" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F144">
-    <sortCondition ref="A1:A144"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}" name="Table1" displayName="Table1" ref="A1:F229" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F229" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F229">
+    <sortCondition ref="A1:A229"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{36D6B367-4586-164A-BAFD-F61BD8D7B0D8}" name="Date" dataDxfId="5"/>
@@ -2212,10 +2275,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BEBEFE-BF8C-CE41-8907-E9633ACA1DDB}">
-  <dimension ref="A1:F182"/>
+  <dimension ref="A1:F229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="F168" sqref="F168:F182"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2243,7 +2306,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2263,7 +2326,7 @@
         <v>-50</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2283,7 +2346,7 @@
         <v>-12</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2303,7 +2366,7 @@
         <v>-300</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -2324,7 +2387,7 @@
         <v>300</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -2338,13 +2401,13 @@
         <v>22</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" s="6">
         <v>-5.93</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2364,7 +2427,7 @@
         <v>-36</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2384,7 +2447,7 @@
         <v>-26.34</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2398,13 +2461,13 @@
         <v>28</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="6">
         <v>-847.99</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -2424,7 +2487,7 @@
         <v>-35.880000000000003</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -2438,13 +2501,13 @@
         <v>20</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="E11" s="6">
         <v>-24</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -2465,7 +2528,7 @@
         <v>3.19</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -2486,7 +2549,7 @@
         <v>-88.42</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -2506,7 +2569,7 @@
         <v>-22.5</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -2527,7 +2590,7 @@
         <v>2.5</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -2547,7 +2610,7 @@
         <v>-117</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -2567,7 +2630,7 @@
         <v>-9.5299999999999994</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -2587,7 +2650,7 @@
         <v>-7.21</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -2607,7 +2670,7 @@
         <v>-19.71</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -2618,7 +2681,7 @@
         <v>23</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>31</v>
@@ -2627,7 +2690,7 @@
         <v>-47.94</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -2638,16 +2701,16 @@
         <v>23</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E21" s="6">
         <v>-97.9</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -2658,16 +2721,16 @@
         <v>23</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E22" s="6">
         <v>-2.99</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -2681,13 +2744,13 @@
         <v>25</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E23" s="6">
         <v>-42.99</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -2698,7 +2761,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>12</v>
@@ -2707,7 +2770,7 @@
         <v>-32</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -2728,7 +2791,7 @@
         <v>-6.68</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -2742,13 +2805,13 @@
         <v>25</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E26" s="6">
         <v>-50.35</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -2768,7 +2831,7 @@
         <v>-6.33</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -2788,7 +2851,7 @@
         <v>-5.12</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -2802,13 +2865,13 @@
         <v>25</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E29" s="6">
         <v>-18.690000000000001</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -2819,16 +2882,16 @@
         <v>7</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E30" s="6">
         <v>-121.08</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -2839,17 +2902,17 @@
         <v>7</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E31" s="6">
         <f>--4428.13</f>
         <v>4428.13</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -2860,7 +2923,7 @@
         <v>23</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>12</v>
@@ -2869,7 +2932,7 @@
         <v>-195.11</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -2880,7 +2943,7 @@
         <v>23</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>11</v>
@@ -2889,7 +2952,7 @@
         <v>-13.36</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -2900,16 +2963,16 @@
         <v>23</v>
       </c>
       <c r="C34" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="E34" s="6">
         <v>-103.59</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -2920,16 +2983,16 @@
         <v>23</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E35" s="6">
         <v>-82.78</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -2940,17 +3003,17 @@
         <v>7</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E36" s="6">
         <f>--2856.77</f>
         <v>2856.77</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -2961,7 +3024,7 @@
         <v>23</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>31</v>
@@ -2970,7 +3033,7 @@
         <v>-29.47</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -2981,7 +3044,7 @@
         <v>23</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>31</v>
@@ -2990,7 +3053,7 @@
         <v>-9.5299999999999994</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -3004,13 +3067,13 @@
         <v>28</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E39" s="6">
         <v>-37.78</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -3030,7 +3093,7 @@
         <v>-134.43</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -3041,16 +3104,16 @@
         <v>23</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E41" s="6">
         <v>-82.58</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -3064,13 +3127,13 @@
         <v>28</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E42" s="6">
         <v>-10.99</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -3081,16 +3144,16 @@
         <v>7</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>123</v>
+        <v>8</v>
       </c>
       <c r="E43" s="6">
-        <v>-1935.13</v>
+        <v>-50</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -3098,20 +3161,19 @@
         <v>44788</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="E44" s="6">
-        <f>--1935.13</f>
-        <v>1935.13</v>
+        <v>-16.55</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -3122,16 +3184,16 @@
         <v>7</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="E45" s="6">
-        <v>-50</v>
+        <v>-9.99</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -3139,19 +3201,19 @@
         <v>44788</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="E46" s="6">
-        <v>-16.55</v>
+        <v>-24</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -3159,16 +3221,17 @@
         <v>44788</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E47" s="6">
-        <v>-9.99</v>
+        <f>--413</f>
+        <v>413</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>119</v>
@@ -3179,19 +3242,19 @@
         <v>44788</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="E48" s="6">
-        <v>-24</v>
+        <v>-4500</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -3199,20 +3262,19 @@
         <v>44788</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="E49" s="6">
-        <f>--413</f>
-        <v>413</v>
+        <v>-300</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -3220,16 +3282,17 @@
         <v>44788</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E50" s="6">
-        <v>-4500</v>
+        <f>--300</f>
+        <v>300</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>119</v>
@@ -3240,16 +3303,17 @@
         <v>44788</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E51" s="6">
-        <v>-300</v>
+        <f>--4500</f>
+        <v>4500</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>119</v>
@@ -3260,20 +3324,19 @@
         <v>44788</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="E52" s="6">
-        <f>--300</f>
-        <v>300</v>
+        <v>-1935.13</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -3281,20 +3344,20 @@
         <v>44788</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="E53" s="6">
-        <f>--4500</f>
-        <v>4500</v>
+        <f>--1935.13</f>
+        <v>1935.13</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -3305,7 +3368,7 @@
         <v>23</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>12</v>
@@ -3314,7 +3377,7 @@
         <v>-60.05</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -3325,16 +3388,16 @@
         <v>18</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E55" s="6">
         <v>-12000</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -3345,7 +3408,7 @@
         <v>7</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>15</v>
@@ -3355,7 +3418,7 @@
         <v>0.04</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -3366,16 +3429,16 @@
         <v>23</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E57" s="6">
         <v>-15.98</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -3386,16 +3449,16 @@
         <v>23</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E58" s="6">
         <v>-23.1</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -3409,13 +3472,13 @@
         <v>25</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E59" s="6">
         <v>-17.78</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -3429,13 +3492,13 @@
         <v>25</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E60" s="6">
         <v>-14.08</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -3449,13 +3512,13 @@
         <v>25</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E61" s="6">
         <v>-6</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -3475,7 +3538,7 @@
         <v>-19.87</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -3489,13 +3552,13 @@
         <v>25</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E63" s="6">
         <v>-6</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -3506,16 +3569,16 @@
         <v>23</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E64" s="6">
         <v>-57.39</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -3529,13 +3592,13 @@
         <v>25</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E65" s="6">
         <v>-52.46</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -3555,7 +3618,7 @@
         <v>-13.95</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -3566,16 +3629,16 @@
         <v>23</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E67" s="6">
         <v>-39.99</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -3586,16 +3649,16 @@
         <v>7</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E68" s="6">
         <v>-883.65</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -3606,16 +3669,16 @@
         <v>23</v>
       </c>
       <c r="C69" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D69" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="E69" s="6">
         <v>-145.75</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -3626,16 +3689,16 @@
         <v>23</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E70" s="6">
         <v>-65.05</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -3646,7 +3709,7 @@
         <v>23</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>12</v>
@@ -3655,7 +3718,7 @@
         <v>-14.11</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -3666,16 +3729,16 @@
         <v>23</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="E72" s="6">
         <v>-24.5</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -3686,7 +3749,7 @@
         <v>23</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>11</v>
@@ -3695,7 +3758,7 @@
         <v>-10</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -3709,14 +3772,14 @@
         <v>25</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E74" s="6">
         <f>--33.08</f>
         <v>33.08</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -3730,13 +3793,13 @@
         <v>25</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E75" s="6">
         <v>-28.47</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -3756,7 +3819,7 @@
         <v>-34.79</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -3776,7 +3839,7 @@
         <v>-7.48</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -3790,13 +3853,13 @@
         <v>25</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E78" s="6">
         <v>-53.71</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -3817,7 +3880,7 @@
         <v>3.7</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -3838,7 +3901,7 @@
         <v>5.71</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -3852,13 +3915,13 @@
         <v>25</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E81" s="6">
         <v>-12.99</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -3869,7 +3932,7 @@
         <v>23</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>31</v>
@@ -3878,7 +3941,7 @@
         <v>-24.21</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -3889,7 +3952,7 @@
         <v>23</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>31</v>
@@ -3898,7 +3961,7 @@
         <v>-4.7</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -3909,16 +3972,16 @@
         <v>7</v>
       </c>
       <c r="C84" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D84" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>75</v>
       </c>
       <c r="E84" s="6">
         <v>-300</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -3929,7 +3992,7 @@
         <v>23</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>12</v>
@@ -3938,7 +4001,7 @@
         <v>-32.270000000000003</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -3949,7 +4012,7 @@
         <v>23</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>31</v>
@@ -3958,7 +4021,7 @@
         <v>-19.34</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -3969,16 +4032,16 @@
         <v>23</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E87" s="6">
         <v>-57.09</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -3989,16 +4052,16 @@
         <v>23</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E88" s="6">
         <v>-30.95</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -4009,7 +4072,7 @@
         <v>23</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>12</v>
@@ -4018,7 +4081,7 @@
         <v>-17.36</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -4029,7 +4092,7 @@
         <v>23</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>31</v>
@@ -4038,7 +4101,7 @@
         <v>-6.77</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -4049,16 +4112,16 @@
         <v>23</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E91" s="6">
         <v>-26.67</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -4069,7 +4132,7 @@
         <v>23</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>31</v>
@@ -4078,7 +4141,7 @@
         <v>-18.64</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -4089,7 +4152,7 @@
         <v>23</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>30</v>
@@ -4098,7 +4161,7 @@
         <v>-15.04</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -4109,7 +4172,7 @@
         <v>23</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>11</v>
@@ -4118,7 +4181,7 @@
         <v>-25</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -4129,7 +4192,7 @@
         <v>23</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>31</v>
@@ -4138,7 +4201,7 @@
         <v>-43.6</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -4149,7 +4212,7 @@
         <v>23</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>31</v>
@@ -4158,7 +4221,7 @@
         <v>-34.11</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -4172,13 +4235,13 @@
         <v>25</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E97" s="6">
         <v>-38</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -4189,13 +4252,13 @@
         <v>7</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>123</v>
+        <v>38</v>
       </c>
       <c r="E98" s="6">
-        <v>-965.06</v>
+        <v>13.99</v>
       </c>
       <c r="F98" s="6" t="s">
         <v>119</v>
@@ -4206,20 +4269,19 @@
         <v>44802</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="E99" s="6">
-        <f>--965.06</f>
-        <v>965.06</v>
+        <v>12.99</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -4233,13 +4295,13 @@
         <v>25</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E100" s="6">
-        <v>13.99</v>
+        <v>-2.29</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -4247,19 +4309,19 @@
         <v>44802</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="E101" s="6">
-        <v>12.99</v>
+        <v>-24</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -4267,19 +4329,19 @@
         <v>44802</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E102" s="6">
-        <v>-2.29</v>
+        <v>-9.99</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
@@ -4287,19 +4349,19 @@
         <v>44802</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E103" s="6">
-        <v>-24</v>
+        <v>-63.5</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -4310,16 +4372,16 @@
         <v>23</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="E104" s="6">
-        <v>-9.99</v>
+        <v>-9.44</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
@@ -4330,16 +4392,16 @@
         <v>7</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="E105" s="6">
-        <v>-63.5</v>
+        <v>-965.06</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -4350,13 +4412,14 @@
         <v>23</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E106" s="6">
-        <v>-9.44</v>
+        <f>--965.06</f>
+        <v>965.06</v>
       </c>
       <c r="F106" s="6" t="s">
         <v>119</v>
@@ -4370,16 +4433,16 @@
         <v>7</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E107" s="6">
         <v>-335.43</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -4390,16 +4453,16 @@
         <v>23</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E108" s="6">
         <v>-210</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
@@ -4410,16 +4473,16 @@
         <v>23</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="E109" s="6">
         <v>-24</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -4430,16 +4493,16 @@
         <v>23</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E110" s="6">
         <v>-13</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -4450,7 +4513,7 @@
         <v>18</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D111" s="6" t="s">
         <v>15</v>
@@ -4460,7 +4523,7 @@
         <v>0.12</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -4471,7 +4534,7 @@
         <v>23</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>12</v>
@@ -4480,7 +4543,7 @@
         <v>-50.52</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -4491,17 +4554,17 @@
         <v>7</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E113" s="6">
         <f>--3116.22</f>
         <v>3116.22</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -4512,17 +4575,17 @@
         <v>7</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E114" s="6">
         <f>--614.79</f>
         <v>614.79</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -4542,7 +4605,7 @@
         <v>-50</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -4562,7 +4625,7 @@
         <v>-3000</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -4582,7 +4645,7 @@
         <v>-300</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
@@ -4603,7 +4666,7 @@
         <v>300</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -4624,7 +4687,7 @@
         <v>3000</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -4635,16 +4698,16 @@
         <v>23</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E120" s="6">
         <v>-25</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -4655,16 +4718,16 @@
         <v>23</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E121" s="6">
         <v>-18</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -4675,16 +4738,16 @@
         <v>23</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E122" s="6">
         <v>-10</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -4695,16 +4758,16 @@
         <v>23</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E123" s="6">
         <v>-6</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -4715,7 +4778,7 @@
         <v>23</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>31</v>
@@ -4724,7 +4787,7 @@
         <v>-13.41</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -4735,7 +4798,7 @@
         <v>23</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D125" s="6" t="s">
         <v>31</v>
@@ -4744,7 +4807,7 @@
         <v>-8.9</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -4755,16 +4818,16 @@
         <v>23</v>
       </c>
       <c r="C126" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D126" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="E126">
-        <v>-5.29</v>
+        <v>-86.8</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -4775,16 +4838,16 @@
         <v>23</v>
       </c>
       <c r="C127" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D127" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="E127">
-        <v>-86.8</v>
+        <v>-5.29</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -4795,16 +4858,16 @@
         <v>23</v>
       </c>
       <c r="C128" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D128" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E128">
-        <v>-24.81</v>
+        <v>-5.39</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -4815,16 +4878,16 @@
         <v>23</v>
       </c>
       <c r="C129" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D129" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E129">
-        <v>-5.39</v>
+        <v>-24.81</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
@@ -4835,56 +4898,56 @@
         <v>7</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E130" s="6">
-        <v>-154.11000000000001</v>
+        <v>-70.48</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131" s="5">
+      <c r="A131" s="7">
         <v>44810</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E131" s="6">
-        <v>-70.48</v>
+        <v>23</v>
+      </c>
+      <c r="C131" t="s">
+        <v>102</v>
+      </c>
+      <c r="D131" t="s">
+        <v>74</v>
+      </c>
+      <c r="E131">
+        <v>-105</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" s="5">
+      <c r="A132" s="7">
         <v>44810</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C132" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D132" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E132" s="6">
-        <v>-30.26</v>
+        <v>23</v>
+      </c>
+      <c r="C132" t="s">
+        <v>133</v>
+      </c>
+      <c r="D132" t="s">
+        <v>43</v>
+      </c>
+      <c r="E132">
+        <v>-55.91</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
@@ -4895,56 +4958,56 @@
         <v>7</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="D133" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E133" s="6">
+        <v>-30.26</v>
+      </c>
+      <c r="F133" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" s="5">
+        <v>44810</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E134" s="6">
         <v>-94.92</v>
       </c>
-      <c r="F133" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A134" s="7">
+      <c r="F134" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" s="5">
         <v>44810</v>
       </c>
-      <c r="B134" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C134" t="s">
-        <v>135</v>
-      </c>
-      <c r="D134" t="s">
-        <v>44</v>
-      </c>
-      <c r="E134">
-        <v>-55.91</v>
-      </c>
-      <c r="F134" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135" s="7">
-        <v>44810</v>
-      </c>
       <c r="B135" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C135" t="s">
-        <v>103</v>
-      </c>
-      <c r="D135" t="s">
-        <v>75</v>
-      </c>
-      <c r="E135">
-        <v>-105</v>
+        <v>7</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E135" s="6">
+        <v>-154.11000000000001</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
@@ -4955,7 +5018,7 @@
         <v>23</v>
       </c>
       <c r="C136" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D136" t="s">
         <v>31</v>
@@ -4964,7 +5027,7 @@
         <v>-41.39</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
@@ -4978,13 +5041,13 @@
         <v>126</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="E137" s="6">
-        <v>-102.44</v>
+        <v>-415.25</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
@@ -4995,16 +5058,16 @@
         <v>7</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E138" s="6">
-        <v>-415.25</v>
+        <v>-102.44</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
@@ -5015,16 +5078,16 @@
         <v>23</v>
       </c>
       <c r="C139" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D139" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E139">
         <v>-59.57</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
@@ -5035,16 +5098,16 @@
         <v>23</v>
       </c>
       <c r="C140" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D140" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E140">
         <v>-150.41</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
@@ -5055,7 +5118,7 @@
         <v>7</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D141" s="6" t="s">
         <v>11</v>
@@ -5065,7 +5128,7 @@
         <v>0.01</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
@@ -5076,16 +5139,16 @@
         <v>23</v>
       </c>
       <c r="C142" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="D142" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E142">
-        <v>-18.75</v>
+        <v>-2.99</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
@@ -5096,16 +5159,16 @@
         <v>23</v>
       </c>
       <c r="C143" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="D143" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E143">
-        <v>-2.99</v>
+        <v>-18.75</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
@@ -5116,279 +5179,280 @@
         <v>23</v>
       </c>
       <c r="C144" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D144" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E144">
         <v>-317.99</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145" s="7">
-        <v>44823</v>
+      <c r="A145" s="5">
+        <v>44815</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C145" t="s">
-        <v>140</v>
-      </c>
-      <c r="D145" t="s">
-        <v>14</v>
-      </c>
-      <c r="E145">
-        <v>-80.739999999999995</v>
-      </c>
-      <c r="F145" s="7" t="s">
-        <v>119</v>
+        <v>23</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E145" s="6">
+        <v>-19.5</v>
+      </c>
+      <c r="F145" s="6" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146" s="7">
-        <v>44823</v>
+      <c r="A146" s="5">
+        <v>44815</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C146" t="s">
-        <v>140</v>
+        <v>23</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="D146" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E146" s="6">
-        <v>-31.63</v>
-      </c>
-      <c r="F146" s="5" t="s">
-        <v>119</v>
+        <v>-209.06</v>
+      </c>
+      <c r="F146" s="6" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" s="7">
-        <v>44823</v>
+      <c r="A147" s="5">
+        <v>44815</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C147" t="s">
-        <v>140</v>
+        <v>23</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E147" s="6">
-        <v>-43.78</v>
-      </c>
-      <c r="F147" s="5" t="s">
-        <v>119</v>
+        <v>-115.61</v>
+      </c>
+      <c r="F147" s="6" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="7">
-        <v>44823</v>
+        <v>44816</v>
       </c>
       <c r="B148" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C148" t="s">
-        <v>140</v>
-      </c>
-      <c r="D148" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E148" s="6">
-        <v>-9.99</v>
-      </c>
-      <c r="F148" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D148" t="s">
+        <v>39</v>
+      </c>
+      <c r="E148">
+        <f>--4472.7</f>
+        <v>4472.7</v>
+      </c>
+      <c r="F148" s="7" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149" s="7">
-        <v>44823</v>
+      <c r="A149" s="5">
+        <v>44816</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C149" t="s">
-        <v>140</v>
+        <v>23</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>148</v>
+        <v>41</v>
       </c>
       <c r="E149" s="6">
-        <v>-8.48</v>
-      </c>
-      <c r="F149" s="5" t="s">
-        <v>119</v>
+        <v>-4.4800000000000004</v>
+      </c>
+      <c r="F149" s="6" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A150" s="7">
-        <v>44823</v>
+      <c r="A150" s="5">
+        <v>44816</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C150" t="s">
-        <v>142</v>
-      </c>
-      <c r="D150" t="s">
-        <v>12</v>
-      </c>
-      <c r="E150">
-        <v>-79.52</v>
-      </c>
-      <c r="F150" s="7" t="s">
-        <v>119</v>
+        <v>23</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E150" s="6">
+        <v>-17.059999999999999</v>
+      </c>
+      <c r="F150" s="6" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="7">
-        <v>44823</v>
+        <v>44816</v>
       </c>
       <c r="B151" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C151" t="s">
-        <v>143</v>
+        <v>17</v>
       </c>
       <c r="D151" t="s">
-        <v>147</v>
+        <v>9</v>
       </c>
       <c r="E151">
-        <v>-28</v>
-      </c>
-      <c r="F151" s="7" t="s">
+        <f>--400</f>
+        <v>400</v>
+      </c>
+      <c r="F151" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152" s="5">
+        <v>44816</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E152" s="6">
+        <v>-400</v>
+      </c>
+      <c r="F152" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153" s="5">
+        <v>44817</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E153" s="6">
+        <v>-105</v>
+      </c>
+      <c r="F153" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154" s="5">
+        <v>44817</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E154" s="6">
+        <f>--341.99</f>
+        <v>341.99</v>
+      </c>
+      <c r="F154" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A152" s="7">
-        <v>44823</v>
-      </c>
-      <c r="B152" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C152" t="s">
-        <v>140</v>
-      </c>
-      <c r="D152" t="s">
-        <v>141</v>
-      </c>
-      <c r="E152">
-        <f>--27.94</f>
-        <v>27.94</v>
-      </c>
-      <c r="F152" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153" s="7">
-        <v>44823</v>
-      </c>
-      <c r="B153" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C153" t="s">
-        <v>140</v>
-      </c>
-      <c r="D153" t="s">
-        <v>141</v>
-      </c>
-      <c r="E153">
-        <f>--11.27</f>
-        <v>11.27</v>
-      </c>
-      <c r="F153" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154" s="7">
-        <v>44820</v>
-      </c>
-      <c r="B154" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C154" t="s">
-        <v>57</v>
-      </c>
-      <c r="D154" t="s">
-        <v>15</v>
-      </c>
-      <c r="E154">
-        <f>--0.02</f>
-        <v>0.02</v>
-      </c>
-      <c r="F154" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A155" s="7">
-        <v>44820</v>
+      <c r="A155" s="5">
+        <v>44817</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C155" t="s">
-        <v>144</v>
-      </c>
-      <c r="D155" t="s">
-        <v>147</v>
-      </c>
-      <c r="E155">
-        <v>-110</v>
-      </c>
-      <c r="F155" s="7" t="s">
-        <v>119</v>
+        <v>23</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E155" s="6">
+        <v>-26.66</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="7">
-        <v>44819</v>
+        <v>44817</v>
       </c>
       <c r="B156" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C156" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="E156">
-        <v>-300</v>
+        <v>-1697.86</v>
       </c>
       <c r="F156" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A157" s="7">
-        <v>44819</v>
+      <c r="A157" s="5">
+        <v>44817</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C157" t="s">
-        <v>6</v>
-      </c>
-      <c r="D157" t="s">
-        <v>8</v>
-      </c>
-      <c r="E157">
-        <v>-50</v>
-      </c>
-      <c r="F157" s="7" t="s">
-        <v>119</v>
+        <v>23</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E157" s="6">
+        <f>--1697.86</f>
+        <v>1697.86</v>
+      </c>
+      <c r="F157" s="6" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
@@ -5399,16 +5463,16 @@
         <v>7</v>
       </c>
       <c r="C158" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D158" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E158">
         <v>-982.28</v>
       </c>
       <c r="F158" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
@@ -5419,100 +5483,97 @@
         <v>7</v>
       </c>
       <c r="C159" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D159" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E159">
         <f>--2954.27</f>
         <v>2954.27</v>
       </c>
       <c r="F159" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="7">
-        <v>44817</v>
+        <v>44819</v>
       </c>
       <c r="B160" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C160" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="D160" t="s">
-        <v>123</v>
+        <v>8</v>
       </c>
       <c r="E160">
-        <v>-1697.86</v>
+        <v>-50</v>
       </c>
       <c r="F160" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161" s="7">
-        <v>44816</v>
+      <c r="A161" s="5">
+        <v>44819</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C161" t="s">
-        <v>146</v>
-      </c>
-      <c r="D161" t="s">
-        <v>40</v>
-      </c>
-      <c r="E161">
-        <f>--4472.7</f>
-        <v>4472.7</v>
-      </c>
-      <c r="F161" s="7" t="s">
-        <v>120</v>
+        <v>23</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E161" s="6">
+        <v>-23.1</v>
+      </c>
+      <c r="F161" s="6" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A162" s="7">
-        <v>44816</v>
+      <c r="A162" s="5">
+        <v>44819</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C162" t="s">
-        <v>17</v>
-      </c>
-      <c r="D162" t="s">
+        <v>23</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E162" s="6">
+        <v>-55.83</v>
+      </c>
+      <c r="F162" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A163" s="7">
+        <v>44819</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163" t="s">
+        <v>6</v>
+      </c>
+      <c r="D163" t="s">
         <v>9</v>
       </c>
-      <c r="E162">
-        <f>--400</f>
-        <v>400</v>
-      </c>
-      <c r="F162" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A163" s="5">
-        <v>44820</v>
-      </c>
-      <c r="B163" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C163" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D163" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E163" s="6">
-        <f>--0.04</f>
-        <v>0.04</v>
-      </c>
-      <c r="F163" s="6" t="s">
-        <v>119</v>
+      <c r="E163">
+        <v>-300</v>
+      </c>
+      <c r="F163" s="7" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
@@ -5533,337 +5594,1316 @@
         <v>300</v>
       </c>
       <c r="F164" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A165" s="5">
-        <v>44817</v>
+      <c r="A165" s="7">
+        <v>44820</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C165" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D165" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E165" s="6">
-        <f>--341.99</f>
-        <v>341.99</v>
-      </c>
-      <c r="F165" s="6" t="s">
-        <v>120</v>
+        <v>7</v>
+      </c>
+      <c r="C165" t="s">
+        <v>56</v>
+      </c>
+      <c r="D165" t="s">
+        <v>15</v>
+      </c>
+      <c r="E165">
+        <f>--0.02</f>
+        <v>0.02</v>
+      </c>
+      <c r="F165" s="7" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="5">
-        <v>44816</v>
+        <v>44820</v>
       </c>
       <c r="B166" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E166" s="6">
-        <v>-400</v>
+        <f>--0.04</f>
+        <v>0.04</v>
       </c>
       <c r="F166" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="5">
-        <v>44822</v>
-      </c>
-      <c r="B167" s="6"/>
+        <v>44820</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="C167" s="6" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E167" s="6">
-        <v>-14.48</v>
+        <v>-19</v>
       </c>
       <c r="F167" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A168" s="5">
-        <v>44822</v>
-      </c>
-      <c r="B168" s="6"/>
-      <c r="C168" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D168" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E168" s="6">
-        <v>-15.82</v>
-      </c>
-      <c r="F168" s="6" t="s">
-        <v>119</v>
+      <c r="A168" s="7">
+        <v>44820</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168" t="s">
+        <v>141</v>
+      </c>
+      <c r="D168" t="s">
+        <v>144</v>
+      </c>
+      <c r="E168">
+        <v>-110</v>
+      </c>
+      <c r="F168" s="7" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="5">
         <v>44821</v>
       </c>
-      <c r="B169" s="6"/>
+      <c r="B169" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="C169" s="6" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E169" s="6">
-        <v>-13.18</v>
+        <v>-10.18</v>
       </c>
       <c r="F169" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="5">
         <v>44821</v>
       </c>
-      <c r="B170" s="6"/>
+      <c r="B170" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="C170" s="6" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E170" s="6">
-        <v>-10.18</v>
+        <v>-206</v>
       </c>
       <c r="F170" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="5">
         <v>44821</v>
       </c>
-      <c r="B171" s="6"/>
+      <c r="B171" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="C171" s="6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E171" s="6">
-        <v>-206</v>
+        <v>-13.18</v>
       </c>
       <c r="F171" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="5">
-        <v>44820</v>
-      </c>
-      <c r="B172" s="6"/>
+        <v>44822</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="C172" s="6" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E172" s="6">
-        <v>-19</v>
+        <v>-14.48</v>
       </c>
       <c r="F172" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="5">
-        <v>44819</v>
-      </c>
-      <c r="B173" s="6"/>
+        <v>44822</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="C173" s="6" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="D173" s="6" t="s">
         <v>31</v>
       </c>
       <c r="E173" s="6">
-        <v>-55.83</v>
+        <v>-15.82</v>
       </c>
       <c r="F173" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A174" s="7">
+        <v>44823</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174" t="s">
+        <v>138</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E174" s="6">
+        <v>-9.99</v>
+      </c>
+      <c r="F174" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A175" s="7">
+        <v>44823</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C175" t="s">
+        <v>138</v>
+      </c>
+      <c r="D175" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E175" s="6">
+        <v>-43.78</v>
+      </c>
+      <c r="F175" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A176" s="7">
+        <v>44823</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C176" t="s">
+        <v>138</v>
+      </c>
+      <c r="D176" t="s">
+        <v>38</v>
+      </c>
+      <c r="E176">
+        <f>--27.94</f>
+        <v>27.94</v>
+      </c>
+      <c r="F176" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A177" s="7">
+        <v>44823</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C177" t="s">
+        <v>138</v>
+      </c>
+      <c r="D177" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E177" s="6">
+        <v>-31.63</v>
+      </c>
+      <c r="F177" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A178" s="7">
+        <v>44823</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C178" t="s">
+        <v>139</v>
+      </c>
+      <c r="D178" t="s">
+        <v>12</v>
+      </c>
+      <c r="E178">
+        <v>-79.52</v>
+      </c>
+      <c r="F178" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A179" s="7">
+        <v>44823</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C179" t="s">
+        <v>138</v>
+      </c>
+      <c r="D179" t="s">
+        <v>11</v>
+      </c>
+      <c r="E179">
+        <f>--11.27</f>
+        <v>11.27</v>
+      </c>
+      <c r="F179" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A180" s="7">
+        <v>44823</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C180" t="s">
+        <v>138</v>
+      </c>
+      <c r="D180" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E180" s="6">
+        <v>-8.48</v>
+      </c>
+      <c r="F180" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A181" s="7">
+        <v>44823</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C181" t="s">
+        <v>140</v>
+      </c>
+      <c r="D181" t="s">
+        <v>144</v>
+      </c>
+      <c r="E181">
+        <v>-28</v>
+      </c>
+      <c r="F181" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A182" s="7">
+        <v>44823</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C182" t="s">
+        <v>138</v>
+      </c>
+      <c r="D182" t="s">
+        <v>14</v>
+      </c>
+      <c r="E182">
+        <v>-80.739999999999995</v>
+      </c>
+      <c r="F182" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A183" s="5">
+        <v>44824</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D183" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E183" s="6">
+        <v>-56</v>
+      </c>
+      <c r="F183" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A184" s="5">
+        <v>44824</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D184" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E184" s="6">
+        <v>-105</v>
+      </c>
+      <c r="F184" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A185" s="5">
+        <v>44824</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D185" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E185" s="6">
+        <v>-2.38</v>
+      </c>
+      <c r="F185" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A186" s="5">
+        <v>44824</v>
+      </c>
+      <c r="B186" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D186" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E186" s="6">
+        <v>-39.99</v>
+      </c>
+      <c r="F186" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A187" s="5">
+        <v>44824</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D187" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E187" s="6">
+        <v>-11.19</v>
+      </c>
+      <c r="F187" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A188" s="5">
+        <v>44824</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D188" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E188" s="6">
+        <v>-20.99</v>
+      </c>
+      <c r="F188" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A189" s="5">
+        <v>44824</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D189" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E189" s="6">
+        <v>-1.69</v>
+      </c>
+      <c r="F189" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A190" s="5">
+        <v>44826</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D190" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E190" s="6">
+        <v>-3.52</v>
+      </c>
+      <c r="F190" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A191" s="5">
+        <v>44826</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D191" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E191" s="6">
+        <v>-11.45</v>
+      </c>
+      <c r="F191" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A192" s="5">
+        <v>44826</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D192" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E192" s="6">
+        <v>-36.5</v>
+      </c>
+      <c r="F192" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A193" s="5">
+        <v>44826</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D193" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E193" s="6">
+        <v>-17.940000000000001</v>
+      </c>
+      <c r="F193" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A194" s="5">
+        <v>44826</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D194" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E194" s="6">
+        <v>-16.2</v>
+      </c>
+      <c r="F194" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A195" s="5">
+        <v>44827</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D195" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E195" s="6">
+        <v>-79.41</v>
+      </c>
+      <c r="F195" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A196" s="5">
+        <v>44827</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D196" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E196" s="6">
+        <v>-56.5</v>
+      </c>
+      <c r="F196" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A197" s="5">
+        <v>44827</v>
+      </c>
+      <c r="B197" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D197" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E197" s="6">
+        <v>-19.78</v>
+      </c>
+      <c r="F197" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A198" s="5">
+        <v>44827</v>
+      </c>
+      <c r="B198" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D198" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E198" s="6">
+        <v>-20</v>
+      </c>
+      <c r="F198" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A199" s="5">
+        <v>44827</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D199" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E199" s="6">
+        <v>-18.98</v>
+      </c>
+      <c r="F199" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A200" s="5">
+        <v>44827</v>
+      </c>
+      <c r="B200" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D200" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E200" s="6">
+        <v>-19.8</v>
+      </c>
+      <c r="F200" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A201" s="5">
+        <v>44828</v>
+      </c>
+      <c r="B201" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D201" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E201" s="6">
+        <v>-145.75</v>
+      </c>
+      <c r="F201" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A202" s="5">
+        <v>44828</v>
+      </c>
+      <c r="B202" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D202" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E202" s="6">
+        <v>-40.31</v>
+      </c>
+      <c r="F202" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A203" s="5">
+        <v>44830</v>
+      </c>
+      <c r="B203" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D203" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E203" s="6">
+        <v>-112.5</v>
+      </c>
+      <c r="F203" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A204" s="5">
+        <v>44830</v>
+      </c>
+      <c r="B204" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D204" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E204" s="6">
+        <f>--112.81</f>
+        <v>112.81</v>
+      </c>
+      <c r="F204" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A205" s="5">
+        <v>44830</v>
+      </c>
+      <c r="B205" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D205" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E205" s="6">
+        <v>-42.99</v>
+      </c>
+      <c r="F205" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A206" s="5">
+        <v>44830</v>
+      </c>
+      <c r="B206" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D206" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E206" s="6">
+        <v>-29.01</v>
+      </c>
+      <c r="F206" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A207" s="5">
+        <v>44830</v>
+      </c>
+      <c r="B207" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D207" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E207" s="6">
+        <v>-38.5</v>
+      </c>
+      <c r="F207" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A208" s="5">
+        <v>44830</v>
+      </c>
+      <c r="B208" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D208" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E208" s="6">
+        <v>-3.38</v>
+      </c>
+      <c r="F208" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A209" s="5">
+        <v>44830</v>
+      </c>
+      <c r="B209" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D209" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E209" s="6">
+        <v>-5.04</v>
+      </c>
+      <c r="F209" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A210" s="5">
+        <v>44830</v>
+      </c>
+      <c r="B210" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D210" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E210" s="6">
+        <v>-36.33</v>
+      </c>
+      <c r="F210" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A211" s="5">
+        <v>44830</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D211" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E211" s="6">
+        <v>-8.49</v>
+      </c>
+      <c r="F211" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A212" s="5">
+        <v>44830</v>
+      </c>
+      <c r="B212" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D212" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E212" s="6">
+        <v>-83.8</v>
+      </c>
+      <c r="F212" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A213" s="5">
+        <v>44830</v>
+      </c>
+      <c r="B213" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D213" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E213" s="6">
+        <v>-58.09</v>
+      </c>
+      <c r="F213" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A214" s="5">
+        <v>44831</v>
+      </c>
+      <c r="B214" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D214" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E214" s="6">
+        <v>-313.60000000000002</v>
+      </c>
+      <c r="F214" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A215" s="5">
+        <v>44831</v>
+      </c>
+      <c r="B215" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D215" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E215" s="6">
+        <v>-107.49</v>
+      </c>
+      <c r="F215" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A216" s="5">
+        <v>44832</v>
+      </c>
+      <c r="B216" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C216" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D216" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E216" s="6">
+        <v>-15.04</v>
+      </c>
+      <c r="F216" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A217" s="5">
+        <v>44832</v>
+      </c>
+      <c r="B217" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C217" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D217" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E217" s="6">
+        <f>--584.5</f>
+        <v>584.5</v>
+      </c>
+      <c r="F217" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A174" s="5">
-        <v>44819</v>
-      </c>
-      <c r="B174" s="6"/>
-      <c r="C174" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="D174" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E174" s="6">
-        <v>-23.1</v>
-      </c>
-      <c r="F174" s="6" t="s">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A218" s="5">
+        <v>44832</v>
+      </c>
+      <c r="B218" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D218" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E218" s="6">
+        <v>-85.2</v>
+      </c>
+      <c r="F218" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A219" s="5">
+        <v>44833</v>
+      </c>
+      <c r="B219" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C219" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D219" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E219" s="6">
+        <v>-19.670000000000002</v>
+      </c>
+      <c r="F219" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A220" s="5">
+        <v>44833</v>
+      </c>
+      <c r="B220" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C220" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D220" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E220" s="6">
+        <f>--2953.72</f>
+        <v>2953.72</v>
+      </c>
+      <c r="F220" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A175" s="5">
-        <v>44817</v>
-      </c>
-      <c r="B175" s="6"/>
-      <c r="C175" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D175" s="6" t="s">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A221" s="5">
+        <v>44833</v>
+      </c>
+      <c r="B221" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C221" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D221" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E221" s="6">
+        <v>-9.99</v>
+      </c>
+      <c r="F221" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A222" s="5">
+        <v>44834</v>
+      </c>
+      <c r="B222" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D222" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E222" s="6">
+        <f>--0.12</f>
+        <v>0.12</v>
+      </c>
+      <c r="F222" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A223" s="5">
+        <v>44834</v>
+      </c>
+      <c r="B223" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C223" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D223" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E223" s="6">
+        <v>-391.34</v>
+      </c>
+      <c r="F223" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A224" s="5">
+        <v>44834</v>
+      </c>
+      <c r="B224" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C224" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D224" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E224" s="6">
+        <v>-833.4</v>
+      </c>
+      <c r="F224" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A225" s="5">
+        <v>44834</v>
+      </c>
+      <c r="B225" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C225" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D225" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E175" s="6">
-        <v>-26.66</v>
-      </c>
-      <c r="F175" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A176" s="5">
-        <v>44817</v>
-      </c>
-      <c r="B176" s="6"/>
-      <c r="C176" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D176" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E176" s="6">
-        <v>-105</v>
-      </c>
-      <c r="F176" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A177" s="5">
-        <v>44817</v>
-      </c>
-      <c r="B177" s="6"/>
-      <c r="C177" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D177" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E177" s="6">
-        <f>--1697.86</f>
-        <v>1697.86</v>
-      </c>
-      <c r="F177" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A178" s="5">
-        <v>44816</v>
-      </c>
-      <c r="B178" s="6"/>
-      <c r="C178" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D178" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E178" s="6">
-        <v>-17.059999999999999</v>
-      </c>
-      <c r="F178" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A179" s="5">
-        <v>44816</v>
-      </c>
-      <c r="B179" s="6"/>
-      <c r="C179" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D179" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E179" s="6">
-        <v>-4.4800000000000004</v>
-      </c>
-      <c r="F179" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A180" s="5">
-        <v>44815</v>
-      </c>
-      <c r="B180" s="6"/>
-      <c r="C180" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D180" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E180" s="6">
-        <v>-115.61</v>
-      </c>
-      <c r="F180" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A181" s="5">
-        <v>44815</v>
-      </c>
-      <c r="B181" s="6"/>
-      <c r="C181" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D181" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E181" s="6">
-        <v>-19.5</v>
-      </c>
-      <c r="F181" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A182" s="5">
-        <v>44815</v>
-      </c>
-      <c r="B182" s="6"/>
-      <c r="C182" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D182" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E182" s="6">
-        <v>-209.06</v>
-      </c>
-      <c r="F182" s="6" t="s">
-        <v>119</v>
+      <c r="E225" s="6">
+        <v>-179.69</v>
+      </c>
+      <c r="F225" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A226" s="5">
+        <v>44834</v>
+      </c>
+      <c r="B226" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C226" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D226" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E226" s="6">
+        <v>-1905.64</v>
+      </c>
+      <c r="F226" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A227" s="5">
+        <v>44834</v>
+      </c>
+      <c r="B227" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C227" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D227" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E227" s="6">
+        <f>--1905.64</f>
+        <v>1905.64</v>
+      </c>
+      <c r="F227" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A228" s="5">
+        <v>44835</v>
+      </c>
+      <c r="B228" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C228" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D228" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E228" s="6">
+        <v>-4.26</v>
+      </c>
+      <c r="F228" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A229" s="5">
+        <v>44835</v>
+      </c>
+      <c r="B229" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C229" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D229" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E229" s="6">
+        <v>-41.12</v>
+      </c>
+      <c r="F229" s="6" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -5879,7 +6919,7 @@
           <x14:formula1>
             <xm:f>OFFSET(Categories!$A$2,0,0,COUNTIF(Categories!$A$2:$A$99,"&lt;&gt;"))</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D182</xm:sqref>
+          <xm:sqref>D2:D229</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5912,7 +6952,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -5922,37 +6962,37 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
@@ -5962,7 +7002,7 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
@@ -5972,12 +7012,12 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
@@ -5987,22 +7027,22 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
@@ -6012,22 +7052,22 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
@@ -6037,22 +7077,22 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
@@ -6067,7 +7107,7 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
@@ -6077,12 +7117,12 @@
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -6119,34 +7159,34 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" t="s">
         <v>113</v>
-      </c>
-      <c r="C4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E4" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C5" s="2">
         <v>19504.420000000002</v>
@@ -6160,7 +7200,7 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C6" s="2">
         <v>3300</v>
@@ -6174,7 +7214,7 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2">
         <v>22804.420000000002</v>

--- a/Expenses.xlsx
+++ b/Expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffgood/Desktop/R_Studio_Projects/Financial_Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED270DD-D93E-9D41-9CB5-E6615DE388FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C28FD49-57B6-F046-A3B0-BFB502A9FC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="1000" windowWidth="27380" windowHeight="15800" xr2:uid="{D9F47917-7B20-384C-878F-0D08681ABD47}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="201">
   <si>
     <t>Date</t>
   </si>
@@ -584,6 +584,69 @@
   </si>
   <si>
     <t>COMCAST THREERIVERS PA   800-COMCAST  PA</t>
+  </si>
+  <si>
+    <t>USAA P&amp;C         AUTOPAY    ***********3049</t>
+  </si>
+  <si>
+    <t>USAA Transfer</t>
+  </si>
+  <si>
+    <t>Sportsman's Warehouse</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Marshalls</t>
+  </si>
+  <si>
+    <t>The Home Depot</t>
+  </si>
+  <si>
+    <t>Costco</t>
+  </si>
+  <si>
+    <t>Maple Valley Acres</t>
+  </si>
+  <si>
+    <t>Wayfair</t>
+  </si>
+  <si>
+    <t>Sushi Heaven</t>
+  </si>
+  <si>
+    <t>Old Navy</t>
+  </si>
+  <si>
+    <t>Panera Bread</t>
+  </si>
+  <si>
+    <t>Freshcleantees.com</t>
+  </si>
+  <si>
+    <t>Aldi</t>
+  </si>
+  <si>
+    <t>Kindle</t>
+  </si>
+  <si>
+    <t>Sheetz</t>
+  </si>
+  <si>
+    <t>Travel Center</t>
+  </si>
+  <si>
+    <t>E-ZPass</t>
+  </si>
+  <si>
+    <t>Bestway Old Lyme Corp</t>
+  </si>
+  <si>
+    <t>Amici Pizza</t>
+  </si>
+  <si>
+    <t>Vanguard</t>
   </si>
 </sst>
 </file>
@@ -1842,7 +1905,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1870C13B-AC88-4747-AFC0-996355F07F2B}" name="PivotTable3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1870C13B-AC88-4747-AFC0-996355F07F2B}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B3:E7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
@@ -1961,10 +2024,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}" name="Table1" displayName="Table1" ref="A1:F229" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F229" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F229">
-    <sortCondition ref="A1:A229"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}" name="Table1" displayName="Table1" ref="A1:F262" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F262" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F262">
+    <sortCondition ref="A1:A262"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{36D6B367-4586-164A-BAFD-F61BD8D7B0D8}" name="Date" dataDxfId="5"/>
@@ -2275,10 +2338,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BEBEFE-BF8C-CE41-8907-E9633ACA1DDB}">
-  <dimension ref="A1:F229"/>
+  <dimension ref="A1:F262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D126" sqref="D126"/>
+      <selection activeCell="D263" sqref="D263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6906,6 +6969,666 @@
         <v>118</v>
       </c>
     </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A230" s="5">
+        <v>44836</v>
+      </c>
+      <c r="B230" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C230" t="s">
+        <v>196</v>
+      </c>
+      <c r="D230" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E230">
+        <v>-10.56</v>
+      </c>
+      <c r="F230" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A231" s="5">
+        <v>44836</v>
+      </c>
+      <c r="B231" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C231" t="s">
+        <v>197</v>
+      </c>
+      <c r="D231" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E231">
+        <v>-25</v>
+      </c>
+      <c r="F231" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A232" s="5">
+        <v>44836</v>
+      </c>
+      <c r="B232" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C232" t="s">
+        <v>198</v>
+      </c>
+      <c r="D232" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E232">
+        <v>-34.42</v>
+      </c>
+      <c r="F232" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A233" s="5">
+        <v>44836</v>
+      </c>
+      <c r="B233" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C233" t="s">
+        <v>199</v>
+      </c>
+      <c r="D233" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E233">
+        <v>-17.82</v>
+      </c>
+      <c r="F233" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A234" s="5">
+        <v>44837</v>
+      </c>
+      <c r="B234" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C234" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D234" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E234" s="6">
+        <v>-4000</v>
+      </c>
+      <c r="F234" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A235" s="5">
+        <v>44837</v>
+      </c>
+      <c r="B235" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C235" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D235" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E235" s="6">
+        <v>-300</v>
+      </c>
+      <c r="F235" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A236" s="5">
+        <v>44837</v>
+      </c>
+      <c r="B236" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C236" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D236" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E236" s="6">
+        <v>-50</v>
+      </c>
+      <c r="F236" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A237" s="5">
+        <v>44837</v>
+      </c>
+      <c r="B237" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C237" t="s">
+        <v>194</v>
+      </c>
+      <c r="D237" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E237">
+        <v>-9.5299999999999994</v>
+      </c>
+      <c r="F237" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A238" s="5">
+        <v>44837</v>
+      </c>
+      <c r="B238" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C238" t="s">
+        <v>195</v>
+      </c>
+      <c r="D238" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E238">
+        <v>-59.39</v>
+      </c>
+      <c r="F238" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A239" s="5">
+        <v>44837</v>
+      </c>
+      <c r="B239" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C239" t="s">
+        <v>181</v>
+      </c>
+      <c r="D239" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E239">
+        <v>4000</v>
+      </c>
+      <c r="F239" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A240" s="5">
+        <v>44837</v>
+      </c>
+      <c r="B240" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C240" t="s">
+        <v>181</v>
+      </c>
+      <c r="D240" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E240">
+        <v>300</v>
+      </c>
+      <c r="F240" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A241" s="5">
+        <v>44838</v>
+      </c>
+      <c r="B241" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C241" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D241" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E241" s="6">
+        <v>-156.16</v>
+      </c>
+      <c r="F241" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A242" s="5">
+        <v>44838</v>
+      </c>
+      <c r="B242" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C242" t="s">
+        <v>191</v>
+      </c>
+      <c r="D242" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E242">
+        <v>-40.53</v>
+      </c>
+      <c r="F242" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A243" s="5">
+        <v>44838</v>
+      </c>
+      <c r="B243" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C243" t="s">
+        <v>192</v>
+      </c>
+      <c r="D243" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E243">
+        <v>-12</v>
+      </c>
+      <c r="F243" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A244" s="5">
+        <v>44838</v>
+      </c>
+      <c r="B244" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C244" t="s">
+        <v>193</v>
+      </c>
+      <c r="D244" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E244">
+        <v>-171.89</v>
+      </c>
+      <c r="F244" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A245" s="5">
+        <v>44838</v>
+      </c>
+      <c r="B245" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C245" t="s">
+        <v>73</v>
+      </c>
+      <c r="D245" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E245">
+        <v>-105</v>
+      </c>
+      <c r="F245" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A246" s="5">
+        <v>44838</v>
+      </c>
+      <c r="B246" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C246" t="s">
+        <v>200</v>
+      </c>
+      <c r="D246" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E246">
+        <v>-3000</v>
+      </c>
+      <c r="F246" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A247" s="5">
+        <v>44839</v>
+      </c>
+      <c r="B247" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C247" t="s">
+        <v>184</v>
+      </c>
+      <c r="D247" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E247">
+        <v>-18</v>
+      </c>
+      <c r="F247" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A248" s="5">
+        <v>44840</v>
+      </c>
+      <c r="B248" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C248" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D248" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E248" s="6">
+        <v>-20</v>
+      </c>
+      <c r="F248" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A249" s="5">
+        <v>44840</v>
+      </c>
+      <c r="B249" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C249" t="s">
+        <v>188</v>
+      </c>
+      <c r="D249" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E249">
+        <v>-743.04</v>
+      </c>
+      <c r="F249" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A250" s="5">
+        <v>44841</v>
+      </c>
+      <c r="B250" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C250" t="s">
+        <v>188</v>
+      </c>
+      <c r="D250" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E250">
+        <v>-311.63</v>
+      </c>
+      <c r="F250" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A251" s="5">
+        <v>44841</v>
+      </c>
+      <c r="B251" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C251" t="s">
+        <v>189</v>
+      </c>
+      <c r="D251" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E251">
+        <v>-18.75</v>
+      </c>
+      <c r="F251" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A252" s="5">
+        <v>44841</v>
+      </c>
+      <c r="B252" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C252" t="s">
+        <v>190</v>
+      </c>
+      <c r="D252" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E252">
+        <v>21.94</v>
+      </c>
+      <c r="F252" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A253" s="5">
+        <v>44842</v>
+      </c>
+      <c r="B253" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C253" t="s">
+        <v>185</v>
+      </c>
+      <c r="D253" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E253">
+        <v>-26.48</v>
+      </c>
+      <c r="F253" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A254" s="5">
+        <v>44842</v>
+      </c>
+      <c r="B254" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C254" t="s">
+        <v>186</v>
+      </c>
+      <c r="D254" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E254">
+        <v>-74.98</v>
+      </c>
+      <c r="F254" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A255" s="5">
+        <v>44842</v>
+      </c>
+      <c r="B255" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C255" t="s">
+        <v>186</v>
+      </c>
+      <c r="D255" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E255">
+        <v>-50.97</v>
+      </c>
+      <c r="F255" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A256" s="5">
+        <v>44842</v>
+      </c>
+      <c r="B256" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C256" t="s">
+        <v>186</v>
+      </c>
+      <c r="D256" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E256">
+        <v>-38.979999999999997</v>
+      </c>
+      <c r="F256" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A257" s="5">
+        <v>44842</v>
+      </c>
+      <c r="B257" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C257" t="s">
+        <v>186</v>
+      </c>
+      <c r="D257" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E257">
+        <v>-71.44</v>
+      </c>
+      <c r="F257" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A258" s="5">
+        <v>44842</v>
+      </c>
+      <c r="B258" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C258" t="s">
+        <v>187</v>
+      </c>
+      <c r="D258" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E258">
+        <v>-11</v>
+      </c>
+      <c r="F258" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A259" s="5">
+        <v>44843</v>
+      </c>
+      <c r="B259" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C259" t="s">
+        <v>182</v>
+      </c>
+      <c r="D259" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E259">
+        <v>-59.79</v>
+      </c>
+      <c r="F259" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A260" s="5">
+        <v>44843</v>
+      </c>
+      <c r="B260" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C260" t="s">
+        <v>183</v>
+      </c>
+      <c r="D260" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E260">
+        <v>-2.99</v>
+      </c>
+      <c r="F260" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A261" s="5">
+        <v>44843</v>
+      </c>
+      <c r="B261" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C261" t="s">
+        <v>71</v>
+      </c>
+      <c r="D261" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E261">
+        <v>-129.32</v>
+      </c>
+      <c r="F261" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A262" s="5">
+        <v>44843</v>
+      </c>
+      <c r="B262" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C262" t="s">
+        <v>184</v>
+      </c>
+      <c r="D262" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E262">
+        <v>317.99</v>
+      </c>
+      <c r="F262" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6919,7 +7642,7 @@
           <x14:formula1>
             <xm:f>OFFSET(Categories!$A$2,0,0,COUNTIF(Categories!$A$2:$A$99,"&lt;&gt;"))</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D229</xm:sqref>
+          <xm:sqref>D2:D262</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Expenses.xlsx
+++ b/Expenses.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffgood/Desktop/R_Studio_Projects/Financial_Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C28FD49-57B6-F046-A3B0-BFB502A9FC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1910C654-8C3A-E843-A311-146233496CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="1000" windowWidth="27380" windowHeight="15800" xr2:uid="{D9F47917-7B20-384C-878F-0D08681ABD47}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="217">
   <si>
     <t>Date</t>
   </si>
@@ -397,9 +397,6 @@
     <t>Sum of Amount</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>Expense</t>
   </si>
   <si>
@@ -647,6 +644,57 @@
   </si>
   <si>
     <t>Vanguard</t>
+  </si>
+  <si>
+    <t>STARBUCKS STORE 0896             101722</t>
+  </si>
+  <si>
+    <t>CHASE CREDIT CRD EPAY       ***********0822</t>
+  </si>
+  <si>
+    <t>PAYPAL           INST XFER  ***********SSME</t>
+  </si>
+  <si>
+    <t>Interest Paid</t>
+  </si>
+  <si>
+    <t>Defense Finance and Accounting Service</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>APPLE.COM/BILL</t>
+  </si>
+  <si>
+    <t>CENTRAL OHIO PRIMARY CARE</t>
+  </si>
+  <si>
+    <t>USAA Credit Card</t>
+  </si>
+  <si>
+    <t>Hobby Lobby</t>
+  </si>
+  <si>
+    <t>Pretzel Spot Cafe</t>
+  </si>
+  <si>
+    <t>My Business</t>
+  </si>
+  <si>
+    <t>Character Coffee Comp</t>
+  </si>
+  <si>
+    <t>Joy Bechtel</t>
+  </si>
+  <si>
+    <t>Navy Exchange</t>
+  </si>
+  <si>
+    <t>Wodify Pay Ibex</t>
+  </si>
+  <si>
+    <t>Gap</t>
   </si>
 </sst>
 </file>
@@ -709,15 +757,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -2024,18 +2064,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}" name="Table1" displayName="Table1" ref="A1:F262" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F262" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F262">
-    <sortCondition ref="A1:A262"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}" name="Table1" displayName="Table1" ref="A1:E293" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E293" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E293">
+    <sortCondition ref="A1:A293"/>
   </sortState>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{36D6B367-4586-164A-BAFD-F61BD8D7B0D8}" name="Date" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{163A618F-4E2A-CF42-8DEE-891E741B2D57}" name="Source" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{49FF6B6D-B6DF-3C46-990B-4A21BE1D1B1E}" name="Transaction" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{84AF5D09-AAE0-8848-B5A8-C38A5769933E}" name="Category" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{0A1EF426-6D1D-AF40-9C65-9FAE6E780C77}" name="Amount" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{BA3274DD-10C7-F14A-8D5D-C0FF14C09BB2}" name="Type" dataDxfId="0"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{36D6B367-4586-164A-BAFD-F61BD8D7B0D8}" name="Date" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{163A618F-4E2A-CF42-8DEE-891E741B2D57}" name="Source" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{49FF6B6D-B6DF-3C46-990B-4A21BE1D1B1E}" name="Transaction" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{84AF5D09-AAE0-8848-B5A8-C38A5769933E}" name="Category" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{0A1EF426-6D1D-AF40-9C65-9FAE6E780C77}" name="Amount" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2338,10 +2377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BEBEFE-BF8C-CE41-8907-E9633ACA1DDB}">
-  <dimension ref="A1:F262"/>
+  <dimension ref="A1:E293"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D263" sqref="D263"/>
+      <selection activeCell="E294" sqref="E294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2352,7 +2391,7 @@
     <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2368,11 +2407,8 @@
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>44774</v>
       </c>
@@ -2388,11 +2424,8 @@
       <c r="E2" s="6">
         <v>-50</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>44774</v>
       </c>
@@ -2408,11 +2441,8 @@
       <c r="E3" s="6">
         <v>-12</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>44774</v>
       </c>
@@ -2428,11 +2458,8 @@
       <c r="E4" s="6">
         <v>-300</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>44774</v>
       </c>
@@ -2449,11 +2476,8 @@
         <f>--300</f>
         <v>300</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>44776</v>
       </c>
@@ -2469,11 +2493,8 @@
       <c r="E6" s="6">
         <v>-5.93</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>44776</v>
       </c>
@@ -2489,11 +2510,8 @@
       <c r="E7" s="6">
         <v>-36</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>44776</v>
       </c>
@@ -2509,11 +2527,8 @@
       <c r="E8" s="6">
         <v>-26.34</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>44776</v>
       </c>
@@ -2529,11 +2544,8 @@
       <c r="E9" s="6">
         <v>-847.99</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>44776</v>
       </c>
@@ -2549,11 +2561,8 @@
       <c r="E10" s="6">
         <v>-35.880000000000003</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>44776</v>
       </c>
@@ -2564,16 +2573,13 @@
         <v>20</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E11" s="6">
         <v>-24</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>44776</v>
       </c>
@@ -2590,11 +2596,8 @@
         <f>--3.19</f>
         <v>3.19</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>44776</v>
       </c>
@@ -2611,11 +2614,8 @@
         <f>-85.23-E12</f>
         <v>-88.42</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>44778</v>
       </c>
@@ -2631,11 +2631,8 @@
       <c r="E14" s="6">
         <v>-22.5</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>44778</v>
       </c>
@@ -2652,11 +2649,8 @@
         <f>--2.5</f>
         <v>2.5</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>44778</v>
       </c>
@@ -2672,11 +2666,8 @@
       <c r="E16" s="6">
         <v>-117</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>44778</v>
       </c>
@@ -2692,11 +2683,8 @@
       <c r="E17" s="6">
         <v>-9.5299999999999994</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>44778</v>
       </c>
@@ -2712,11 +2700,8 @@
       <c r="E18" s="6">
         <v>-7.21</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>44779</v>
       </c>
@@ -2732,11 +2717,8 @@
       <c r="E19" s="6">
         <v>-19.71</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>44779</v>
       </c>
@@ -2752,11 +2734,8 @@
       <c r="E20" s="6">
         <v>-47.94</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>44780</v>
       </c>
@@ -2772,11 +2751,8 @@
       <c r="E21" s="6">
         <v>-97.9</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>44782</v>
       </c>
@@ -2792,11 +2768,8 @@
       <c r="E22" s="6">
         <v>-2.99</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>44782</v>
       </c>
@@ -2812,11 +2785,8 @@
       <c r="E23" s="6">
         <v>-42.99</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>44782</v>
       </c>
@@ -2832,11 +2802,8 @@
       <c r="E24" s="6">
         <v>-32</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>44782</v>
       </c>
@@ -2853,11 +2820,8 @@
         <f>-5.49-1.19</f>
         <v>-6.68</v>
       </c>
-      <c r="F25" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>44782</v>
       </c>
@@ -2873,11 +2837,8 @@
       <c r="E26" s="6">
         <v>-50.35</v>
       </c>
-      <c r="F26" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>44782</v>
       </c>
@@ -2893,11 +2854,8 @@
       <c r="E27" s="6">
         <v>-6.33</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>44782</v>
       </c>
@@ -2913,11 +2871,8 @@
       <c r="E28" s="6">
         <v>-5.12</v>
       </c>
-      <c r="F28" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>44782</v>
       </c>
@@ -2933,11 +2888,8 @@
       <c r="E29" s="6">
         <v>-18.690000000000001</v>
       </c>
-      <c r="F29" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>44782</v>
       </c>
@@ -2953,11 +2905,8 @@
       <c r="E30" s="6">
         <v>-121.08</v>
       </c>
-      <c r="F30" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>44783</v>
       </c>
@@ -2974,11 +2923,8 @@
         <f>--4428.13</f>
         <v>4428.13</v>
       </c>
-      <c r="F31" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>44784</v>
       </c>
@@ -2994,11 +2940,8 @@
       <c r="E32" s="6">
         <v>-195.11</v>
       </c>
-      <c r="F32" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>44784</v>
       </c>
@@ -3014,11 +2957,8 @@
       <c r="E33" s="6">
         <v>-13.36</v>
       </c>
-      <c r="F33" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>44785</v>
       </c>
@@ -3034,11 +2974,8 @@
       <c r="E34" s="6">
         <v>-103.59</v>
       </c>
-      <c r="F34" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>44785</v>
       </c>
@@ -3054,11 +2991,8 @@
       <c r="E35" s="6">
         <v>-82.78</v>
       </c>
-      <c r="F35" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>44785</v>
       </c>
@@ -3075,11 +3009,8 @@
         <f>--2856.77</f>
         <v>2856.77</v>
       </c>
-      <c r="F36" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>44785</v>
       </c>
@@ -3095,11 +3026,8 @@
       <c r="E37" s="6">
         <v>-29.47</v>
       </c>
-      <c r="F37" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>44786</v>
       </c>
@@ -3115,11 +3043,8 @@
       <c r="E38" s="6">
         <v>-9.5299999999999994</v>
       </c>
-      <c r="F38" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>44787</v>
       </c>
@@ -3135,11 +3060,8 @@
       <c r="E39" s="6">
         <v>-37.78</v>
       </c>
-      <c r="F39" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>44787</v>
       </c>
@@ -3155,11 +3077,8 @@
       <c r="E40" s="6">
         <v>-134.43</v>
       </c>
-      <c r="F40" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>44787</v>
       </c>
@@ -3175,11 +3094,8 @@
       <c r="E41" s="6">
         <v>-82.58</v>
       </c>
-      <c r="F41" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>44787</v>
       </c>
@@ -3195,11 +3111,8 @@
       <c r="E42" s="6">
         <v>-10.99</v>
       </c>
-      <c r="F42" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>44788</v>
       </c>
@@ -3215,11 +3128,8 @@
       <c r="E43" s="6">
         <v>-50</v>
       </c>
-      <c r="F43" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>44788</v>
       </c>
@@ -3235,11 +3145,8 @@
       <c r="E44" s="6">
         <v>-16.55</v>
       </c>
-      <c r="F44" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>44788</v>
       </c>
@@ -3255,11 +3162,8 @@
       <c r="E45" s="6">
         <v>-9.99</v>
       </c>
-      <c r="F45" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>44788</v>
       </c>
@@ -3270,16 +3174,13 @@
         <v>72</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E46" s="6">
         <v>-24</v>
       </c>
-      <c r="F46" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>44788</v>
       </c>
@@ -3296,11 +3197,8 @@
         <f>--413</f>
         <v>413</v>
       </c>
-      <c r="F47" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>44788</v>
       </c>
@@ -3316,11 +3214,8 @@
       <c r="E48" s="6">
         <v>-4500</v>
       </c>
-      <c r="F48" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>44788</v>
       </c>
@@ -3336,11 +3231,8 @@
       <c r="E49" s="6">
         <v>-300</v>
       </c>
-      <c r="F49" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>44788</v>
       </c>
@@ -3357,11 +3249,8 @@
         <f>--300</f>
         <v>300</v>
       </c>
-      <c r="F50" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>44788</v>
       </c>
@@ -3378,11 +3267,8 @@
         <f>--4500</f>
         <v>4500</v>
       </c>
-      <c r="F51" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>44788</v>
       </c>
@@ -3393,16 +3279,13 @@
         <v>57</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E52" s="6">
         <v>-1935.13</v>
       </c>
-      <c r="F52" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>44788</v>
       </c>
@@ -3413,17 +3296,14 @@
         <v>65</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E53" s="6">
         <f>--1935.13</f>
         <v>1935.13</v>
       </c>
-      <c r="F53" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>44789</v>
       </c>
@@ -3439,11 +3319,8 @@
       <c r="E54" s="6">
         <v>-60.05</v>
       </c>
-      <c r="F54" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>44789</v>
       </c>
@@ -3459,11 +3336,8 @@
       <c r="E55" s="6">
         <v>-12000</v>
       </c>
-      <c r="F55" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>44791</v>
       </c>
@@ -3480,11 +3354,8 @@
         <f>--0.04</f>
         <v>0.04</v>
       </c>
-      <c r="F56" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>44791</v>
       </c>
@@ -3500,11 +3371,8 @@
       <c r="E57" s="6">
         <v>-15.98</v>
       </c>
-      <c r="F57" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>44791</v>
       </c>
@@ -3520,11 +3388,8 @@
       <c r="E58" s="6">
         <v>-23.1</v>
       </c>
-      <c r="F58" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>44792</v>
       </c>
@@ -3540,11 +3405,8 @@
       <c r="E59" s="6">
         <v>-17.78</v>
       </c>
-      <c r="F59" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>44792</v>
       </c>
@@ -3560,11 +3422,8 @@
       <c r="E60" s="6">
         <v>-14.08</v>
       </c>
-      <c r="F60" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>44792</v>
       </c>
@@ -3580,11 +3439,8 @@
       <c r="E61" s="6">
         <v>-6</v>
       </c>
-      <c r="F61" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>44792</v>
       </c>
@@ -3600,11 +3456,8 @@
       <c r="E62" s="6">
         <v>-19.87</v>
       </c>
-      <c r="F62" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>44792</v>
       </c>
@@ -3620,11 +3473,8 @@
       <c r="E63" s="6">
         <v>-6</v>
       </c>
-      <c r="F63" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>44792</v>
       </c>
@@ -3640,11 +3490,8 @@
       <c r="E64" s="6">
         <v>-57.39</v>
       </c>
-      <c r="F64" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>44792</v>
       </c>
@@ -3660,11 +3507,8 @@
       <c r="E65" s="6">
         <v>-52.46</v>
       </c>
-      <c r="F65" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>44792</v>
       </c>
@@ -3680,11 +3524,8 @@
       <c r="E66" s="6">
         <v>-13.95</v>
       </c>
-      <c r="F66" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>44793</v>
       </c>
@@ -3700,11 +3541,8 @@
       <c r="E67" s="6">
         <v>-39.99</v>
       </c>
-      <c r="F67" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>44795</v>
       </c>
@@ -3715,16 +3553,13 @@
         <v>75</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E68" s="6">
         <v>-883.65</v>
       </c>
-      <c r="F68" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>44796</v>
       </c>
@@ -3740,11 +3575,8 @@
       <c r="E69" s="6">
         <v>-145.75</v>
       </c>
-      <c r="F69" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>44796</v>
       </c>
@@ -3760,11 +3592,8 @@
       <c r="E70" s="6">
         <v>-65.05</v>
       </c>
-      <c r="F70" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>44796</v>
       </c>
@@ -3780,11 +3609,8 @@
       <c r="E71" s="6">
         <v>-14.11</v>
       </c>
-      <c r="F71" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>44796</v>
       </c>
@@ -3795,16 +3621,13 @@
         <v>88</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E72" s="6">
         <v>-24.5</v>
       </c>
-      <c r="F72" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>44796</v>
       </c>
@@ -3820,11 +3643,8 @@
       <c r="E73" s="6">
         <v>-10</v>
       </c>
-      <c r="F73" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>44797</v>
       </c>
@@ -3841,11 +3661,8 @@
         <f>--33.08</f>
         <v>33.08</v>
       </c>
-      <c r="F74" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>44797</v>
       </c>
@@ -3861,11 +3678,8 @@
       <c r="E75" s="6">
         <v>-28.47</v>
       </c>
-      <c r="F75" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>44797</v>
       </c>
@@ -3881,11 +3695,8 @@
       <c r="E76" s="6">
         <v>-34.79</v>
       </c>
-      <c r="F76" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>44797</v>
       </c>
@@ -3901,11 +3712,8 @@
       <c r="E77" s="6">
         <v>-7.48</v>
       </c>
-      <c r="F77" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>44797</v>
       </c>
@@ -3921,11 +3729,8 @@
       <c r="E78" s="6">
         <v>-53.71</v>
       </c>
-      <c r="F78" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>44797</v>
       </c>
@@ -3942,11 +3747,8 @@
         <f>--3.7</f>
         <v>3.7</v>
       </c>
-      <c r="F79" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>44797</v>
       </c>
@@ -3963,11 +3765,8 @@
         <f>--5.71</f>
         <v>5.71</v>
       </c>
-      <c r="F80" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>44797</v>
       </c>
@@ -3983,11 +3782,8 @@
       <c r="E81" s="6">
         <v>-12.99</v>
       </c>
-      <c r="F81" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>44797</v>
       </c>
@@ -4003,11 +3799,8 @@
       <c r="E82" s="6">
         <v>-24.21</v>
       </c>
-      <c r="F82" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>44797</v>
       </c>
@@ -4023,11 +3816,8 @@
       <c r="E83" s="6">
         <v>-4.7</v>
       </c>
-      <c r="F83" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>44798</v>
       </c>
@@ -4043,11 +3833,8 @@
       <c r="E84" s="6">
         <v>-300</v>
       </c>
-      <c r="F84" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>44798</v>
       </c>
@@ -4063,11 +3850,8 @@
       <c r="E85" s="6">
         <v>-32.270000000000003</v>
       </c>
-      <c r="F85" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>44798</v>
       </c>
@@ -4083,11 +3867,8 @@
       <c r="E86" s="6">
         <v>-19.34</v>
       </c>
-      <c r="F86" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>44799</v>
       </c>
@@ -4103,11 +3884,8 @@
       <c r="E87" s="6">
         <v>-57.09</v>
       </c>
-      <c r="F87" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>44799</v>
       </c>
@@ -4123,11 +3901,8 @@
       <c r="E88" s="6">
         <v>-30.95</v>
       </c>
-      <c r="F88" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>44799</v>
       </c>
@@ -4143,11 +3918,8 @@
       <c r="E89" s="6">
         <v>-17.36</v>
       </c>
-      <c r="F89" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>44799</v>
       </c>
@@ -4163,11 +3935,8 @@
       <c r="E90" s="6">
         <v>-6.77</v>
       </c>
-      <c r="F90" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>44800</v>
       </c>
@@ -4183,11 +3952,8 @@
       <c r="E91" s="6">
         <v>-26.67</v>
       </c>
-      <c r="F91" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>44800</v>
       </c>
@@ -4203,11 +3969,8 @@
       <c r="E92" s="6">
         <v>-18.64</v>
       </c>
-      <c r="F92" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>44801</v>
       </c>
@@ -4223,11 +3986,8 @@
       <c r="E93" s="6">
         <v>-15.04</v>
       </c>
-      <c r="F93" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <v>44801</v>
       </c>
@@ -4243,11 +4003,8 @@
       <c r="E94" s="6">
         <v>-25</v>
       </c>
-      <c r="F94" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
         <v>44801</v>
       </c>
@@ -4263,11 +4020,8 @@
       <c r="E95" s="6">
         <v>-43.6</v>
       </c>
-      <c r="F95" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="5">
         <v>44801</v>
       </c>
@@ -4283,11 +4037,8 @@
       <c r="E96" s="6">
         <v>-34.11</v>
       </c>
-      <c r="F96" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="5">
         <v>44802</v>
       </c>
@@ -4303,11 +4054,8 @@
       <c r="E97" s="6">
         <v>-38</v>
       </c>
-      <c r="F97" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
         <v>44802</v>
       </c>
@@ -4323,11 +4071,8 @@
       <c r="E98" s="6">
         <v>13.99</v>
       </c>
-      <c r="F98" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="5">
         <v>44802</v>
       </c>
@@ -4343,11 +4088,8 @@
       <c r="E99" s="6">
         <v>12.99</v>
       </c>
-      <c r="F99" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="5">
         <v>44802</v>
       </c>
@@ -4363,11 +4105,8 @@
       <c r="E100" s="6">
         <v>-2.29</v>
       </c>
-      <c r="F100" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="5">
         <v>44802</v>
       </c>
@@ -4378,16 +4117,13 @@
         <v>104</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E101" s="6">
         <v>-24</v>
       </c>
-      <c r="F101" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="5">
         <v>44802</v>
       </c>
@@ -4403,11 +4139,8 @@
       <c r="E102" s="6">
         <v>-9.99</v>
       </c>
-      <c r="F102" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="5">
         <v>44802</v>
       </c>
@@ -4423,11 +4156,8 @@
       <c r="E103" s="6">
         <v>-63.5</v>
       </c>
-      <c r="F103" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="5">
         <v>44802</v>
       </c>
@@ -4443,11 +4173,8 @@
       <c r="E104" s="6">
         <v>-9.44</v>
       </c>
-      <c r="F104" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="5">
         <v>44802</v>
       </c>
@@ -4458,16 +4185,13 @@
         <v>57</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E105" s="6">
         <v>-965.06</v>
       </c>
-      <c r="F105" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="5">
         <v>44802</v>
       </c>
@@ -4478,17 +4202,14 @@
         <v>65</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E106" s="6">
         <f>--965.06</f>
         <v>965.06</v>
       </c>
-      <c r="F106" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="5">
         <v>44803</v>
       </c>
@@ -4499,16 +4220,13 @@
         <v>91</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E107" s="6">
         <v>-335.43</v>
       </c>
-      <c r="F107" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="5">
         <v>44803</v>
       </c>
@@ -4524,11 +4242,8 @@
       <c r="E108" s="6">
         <v>-210</v>
       </c>
-      <c r="F108" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="5">
         <v>44803</v>
       </c>
@@ -4539,16 +4254,13 @@
         <v>103</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E109" s="6">
         <v>-24</v>
       </c>
-      <c r="F109" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="5">
         <v>44803</v>
       </c>
@@ -4564,11 +4276,8 @@
       <c r="E110" s="6">
         <v>-13</v>
       </c>
-      <c r="F110" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="5">
         <v>44804</v>
       </c>
@@ -4585,11 +4294,8 @@
         <f>--0.12</f>
         <v>0.12</v>
       </c>
-      <c r="F111" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="5">
         <v>44804</v>
       </c>
@@ -4605,11 +4311,8 @@
       <c r="E112" s="6">
         <v>-50.52</v>
       </c>
-      <c r="F112" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="5">
         <v>44804</v>
       </c>
@@ -4626,11 +4329,8 @@
         <f>--3116.22</f>
         <v>3116.22</v>
       </c>
-      <c r="F113" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="5">
         <v>44804</v>
       </c>
@@ -4647,11 +4347,8 @@
         <f>--614.79</f>
         <v>614.79</v>
       </c>
-      <c r="F114" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="5">
         <v>44805</v>
       </c>
@@ -4667,11 +4364,8 @@
       <c r="E115" s="6">
         <v>-50</v>
       </c>
-      <c r="F115" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="5">
         <v>44805</v>
       </c>
@@ -4687,11 +4381,8 @@
       <c r="E116" s="6">
         <v>-3000</v>
       </c>
-      <c r="F116" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="5">
         <v>44805</v>
       </c>
@@ -4707,11 +4398,8 @@
       <c r="E117" s="6">
         <v>-300</v>
       </c>
-      <c r="F117" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="5">
         <v>44805</v>
       </c>
@@ -4728,11 +4416,8 @@
         <f>--300</f>
         <v>300</v>
       </c>
-      <c r="F118" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="5">
         <v>44805</v>
       </c>
@@ -4749,11 +4434,8 @@
         <f>--3000</f>
         <v>3000</v>
       </c>
-      <c r="F119" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="5">
         <v>44806</v>
       </c>
@@ -4769,11 +4451,8 @@
       <c r="E120" s="6">
         <v>-25</v>
       </c>
-      <c r="F120" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="5">
         <v>44806</v>
       </c>
@@ -4789,11 +4468,8 @@
       <c r="E121" s="6">
         <v>-18</v>
       </c>
-      <c r="F121" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="5">
         <v>44806</v>
       </c>
@@ -4809,11 +4485,8 @@
       <c r="E122" s="6">
         <v>-10</v>
       </c>
-      <c r="F122" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="5">
         <v>44806</v>
       </c>
@@ -4829,11 +4502,8 @@
       <c r="E123" s="6">
         <v>-6</v>
       </c>
-      <c r="F123" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="5">
         <v>44806</v>
       </c>
@@ -4849,11 +4519,8 @@
       <c r="E124" s="6">
         <v>-13.41</v>
       </c>
-      <c r="F124" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="5">
         <v>44806</v>
       </c>
@@ -4869,11 +4536,8 @@
       <c r="E125" s="6">
         <v>-8.9</v>
       </c>
-      <c r="F125" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="7">
         <v>44808</v>
       </c>
@@ -4881,7 +4545,7 @@
         <v>23</v>
       </c>
       <c r="C126" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D126" t="s">
         <v>58</v>
@@ -4889,11 +4553,8 @@
       <c r="E126">
         <v>-86.8</v>
       </c>
-      <c r="F126" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="7">
         <v>44808</v>
       </c>
@@ -4901,7 +4562,7 @@
         <v>23</v>
       </c>
       <c r="C127" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D127" t="s">
         <v>12</v>
@@ -4909,11 +4570,8 @@
       <c r="E127">
         <v>-5.29</v>
       </c>
-      <c r="F127" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="7">
         <v>44809</v>
       </c>
@@ -4921,7 +4579,7 @@
         <v>23</v>
       </c>
       <c r="C128" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D128" t="s">
         <v>12</v>
@@ -4929,11 +4587,8 @@
       <c r="E128">
         <v>-5.39</v>
       </c>
-      <c r="F128" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="7">
         <v>44809</v>
       </c>
@@ -4941,7 +4596,7 @@
         <v>23</v>
       </c>
       <c r="C129" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D129" t="s">
         <v>31</v>
@@ -4949,11 +4604,8 @@
       <c r="E129">
         <v>-24.81</v>
       </c>
-      <c r="F129" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="5">
         <v>44810</v>
       </c>
@@ -4969,11 +4621,8 @@
       <c r="E130" s="6">
         <v>-70.48</v>
       </c>
-      <c r="F130" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="7">
         <v>44810</v>
       </c>
@@ -4989,11 +4638,8 @@
       <c r="E131">
         <v>-105</v>
       </c>
-      <c r="F131" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="7">
         <v>44810</v>
       </c>
@@ -5001,7 +4647,7 @@
         <v>23</v>
       </c>
       <c r="C132" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D132" t="s">
         <v>43</v>
@@ -5009,11 +4655,8 @@
       <c r="E132">
         <v>-55.91</v>
       </c>
-      <c r="F132" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="5">
         <v>44810</v>
       </c>
@@ -5029,11 +4672,8 @@
       <c r="E133" s="6">
         <v>-30.26</v>
       </c>
-      <c r="F133" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="5">
         <v>44810</v>
       </c>
@@ -5041,7 +4681,7 @@
         <v>7</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D134" s="6" t="s">
         <v>12</v>
@@ -5049,11 +4689,8 @@
       <c r="E134" s="6">
         <v>-94.92</v>
       </c>
-      <c r="F134" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="5">
         <v>44810</v>
       </c>
@@ -5061,7 +4698,7 @@
         <v>7</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D135" s="6" t="s">
         <v>10</v>
@@ -5069,11 +4706,8 @@
       <c r="E135" s="6">
         <v>-154.11000000000001</v>
       </c>
-      <c r="F135" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="7">
         <v>44810</v>
       </c>
@@ -5089,11 +4723,8 @@
       <c r="E136">
         <v>-41.39</v>
       </c>
-      <c r="F136" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="5">
         <v>44811</v>
       </c>
@@ -5101,19 +4732,16 @@
         <v>7</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E137" s="6">
         <v>-415.25</v>
       </c>
-      <c r="F137" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="5">
         <v>44811</v>
       </c>
@@ -5121,19 +4749,16 @@
         <v>7</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E138" s="6">
         <v>-102.44</v>
       </c>
-      <c r="F138" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="7">
         <v>44812</v>
       </c>
@@ -5141,7 +4766,7 @@
         <v>23</v>
       </c>
       <c r="C139" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D139" t="s">
         <v>58</v>
@@ -5149,11 +4774,8 @@
       <c r="E139">
         <v>-59.57</v>
       </c>
-      <c r="F139" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="7">
         <v>44812</v>
       </c>
@@ -5161,7 +4783,7 @@
         <v>23</v>
       </c>
       <c r="C140" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D140" t="s">
         <v>58</v>
@@ -5169,11 +4791,8 @@
       <c r="E140">
         <v>-150.41</v>
       </c>
-      <c r="F140" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="5">
         <v>44813</v>
       </c>
@@ -5181,7 +4800,7 @@
         <v>7</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D141" s="6" t="s">
         <v>11</v>
@@ -5190,11 +4809,8 @@
         <f>--0.01</f>
         <v>0.01</v>
       </c>
-      <c r="F141" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="7">
         <v>44813</v>
       </c>
@@ -5210,11 +4826,8 @@
       <c r="E142">
         <v>-2.99</v>
       </c>
-      <c r="F142" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="7">
         <v>44813</v>
       </c>
@@ -5222,7 +4835,7 @@
         <v>23</v>
       </c>
       <c r="C143" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D143" t="s">
         <v>31</v>
@@ -5230,11 +4843,8 @@
       <c r="E143">
         <v>-18.75</v>
       </c>
-      <c r="F143" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="7">
         <v>44814</v>
       </c>
@@ -5242,7 +4852,7 @@
         <v>23</v>
       </c>
       <c r="C144" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D144" t="s">
         <v>42</v>
@@ -5250,11 +4860,8 @@
       <c r="E144">
         <v>-317.99</v>
       </c>
-      <c r="F144" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="5">
         <v>44815</v>
       </c>
@@ -5262,7 +4869,7 @@
         <v>23</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D145" s="6" t="s">
         <v>12</v>
@@ -5270,11 +4877,8 @@
       <c r="E145" s="6">
         <v>-19.5</v>
       </c>
-      <c r="F145" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="5">
         <v>44815</v>
       </c>
@@ -5282,7 +4886,7 @@
         <v>23</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D146" s="6" t="s">
         <v>12</v>
@@ -5290,11 +4894,8 @@
       <c r="E146" s="6">
         <v>-209.06</v>
       </c>
-      <c r="F146" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="5">
         <v>44815</v>
       </c>
@@ -5302,7 +4903,7 @@
         <v>23</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D147" s="6" t="s">
         <v>55</v>
@@ -5310,11 +4911,8 @@
       <c r="E147" s="6">
         <v>-115.61</v>
       </c>
-      <c r="F147" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="7">
         <v>44816</v>
       </c>
@@ -5322,7 +4920,7 @@
         <v>7</v>
       </c>
       <c r="C148" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D148" t="s">
         <v>39</v>
@@ -5331,11 +4929,8 @@
         <f>--4472.7</f>
         <v>4472.7</v>
       </c>
-      <c r="F148" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="5">
         <v>44816</v>
       </c>
@@ -5343,7 +4938,7 @@
         <v>23</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D149" s="6" t="s">
         <v>41</v>
@@ -5351,11 +4946,8 @@
       <c r="E149" s="6">
         <v>-4.4800000000000004</v>
       </c>
-      <c r="F149" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="5">
         <v>44816</v>
       </c>
@@ -5363,7 +4955,7 @@
         <v>23</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D150" s="6" t="s">
         <v>31</v>
@@ -5371,11 +4963,8 @@
       <c r="E150" s="6">
         <v>-17.059999999999999</v>
       </c>
-      <c r="F150" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="7">
         <v>44816</v>
       </c>
@@ -5392,11 +4981,8 @@
         <f>--400</f>
         <v>400</v>
       </c>
-      <c r="F151" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="5">
         <v>44816</v>
       </c>
@@ -5412,11 +4998,8 @@
       <c r="E152" s="6">
         <v>-400</v>
       </c>
-      <c r="F152" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="5">
         <v>44817</v>
       </c>
@@ -5432,11 +5015,8 @@
       <c r="E153" s="6">
         <v>-105</v>
       </c>
-      <c r="F153" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="5">
         <v>44817</v>
       </c>
@@ -5453,11 +5033,8 @@
         <f>--341.99</f>
         <v>341.99</v>
       </c>
-      <c r="F154" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="5">
         <v>44817</v>
       </c>
@@ -5465,7 +5042,7 @@
         <v>23</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D155" s="6" t="s">
         <v>31</v>
@@ -5473,11 +5050,8 @@
       <c r="E155" s="6">
         <v>-26.66</v>
       </c>
-      <c r="F155" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="7">
         <v>44817</v>
       </c>
@@ -5488,16 +5062,13 @@
         <v>57</v>
       </c>
       <c r="D156" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E156">
         <v>-1697.86</v>
       </c>
-      <c r="F156" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="5">
         <v>44817</v>
       </c>
@@ -5508,17 +5079,14 @@
         <v>65</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E157" s="6">
         <f>--1697.86</f>
         <v>1697.86</v>
       </c>
-      <c r="F157" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="7">
         <v>44818</v>
       </c>
@@ -5526,19 +5094,16 @@
         <v>7</v>
       </c>
       <c r="C158" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D158" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E158">
         <v>-982.28</v>
       </c>
-      <c r="F158" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="7">
         <v>44818</v>
       </c>
@@ -5555,11 +5120,8 @@
         <f>--2954.27</f>
         <v>2954.27</v>
       </c>
-      <c r="F159" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="7">
         <v>44819</v>
       </c>
@@ -5575,11 +5137,8 @@
       <c r="E160">
         <v>-50</v>
       </c>
-      <c r="F160" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="5">
         <v>44819</v>
       </c>
@@ -5587,7 +5146,7 @@
         <v>23</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D161" s="6" t="s">
         <v>66</v>
@@ -5595,11 +5154,8 @@
       <c r="E161" s="6">
         <v>-23.1</v>
       </c>
-      <c r="F161" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="5">
         <v>44819</v>
       </c>
@@ -5607,7 +5163,7 @@
         <v>23</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D162" s="6" t="s">
         <v>31</v>
@@ -5615,11 +5171,8 @@
       <c r="E162" s="6">
         <v>-55.83</v>
       </c>
-      <c r="F162" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="7">
         <v>44819</v>
       </c>
@@ -5635,11 +5188,8 @@
       <c r="E163">
         <v>-300</v>
       </c>
-      <c r="F163" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="5">
         <v>44819</v>
       </c>
@@ -5656,11 +5206,8 @@
         <f>--300</f>
         <v>300</v>
       </c>
-      <c r="F164" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="7">
         <v>44820</v>
       </c>
@@ -5677,11 +5224,8 @@
         <f>--0.02</f>
         <v>0.02</v>
       </c>
-      <c r="F165" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="5">
         <v>44820</v>
       </c>
@@ -5689,7 +5233,7 @@
         <v>18</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D166" s="6" t="s">
         <v>15</v>
@@ -5698,11 +5242,8 @@
         <f>--0.04</f>
         <v>0.04</v>
       </c>
-      <c r="F166" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="5">
         <v>44820</v>
       </c>
@@ -5718,11 +5259,8 @@
       <c r="E167" s="6">
         <v>-19</v>
       </c>
-      <c r="F167" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="7">
         <v>44820</v>
       </c>
@@ -5730,19 +5268,16 @@
         <v>7</v>
       </c>
       <c r="C168" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D168" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E168">
         <v>-110</v>
       </c>
-      <c r="F168" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="5">
         <v>44821</v>
       </c>
@@ -5750,7 +5285,7 @@
         <v>23</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D169" s="6" t="s">
         <v>12</v>
@@ -5758,11 +5293,8 @@
       <c r="E169" s="6">
         <v>-10.18</v>
       </c>
-      <c r="F169" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="5">
         <v>44821</v>
       </c>
@@ -5770,7 +5302,7 @@
         <v>23</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D170" s="6" t="s">
         <v>10</v>
@@ -5778,11 +5310,8 @@
       <c r="E170" s="6">
         <v>-206</v>
       </c>
-      <c r="F170" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="5">
         <v>44821</v>
       </c>
@@ -5790,7 +5319,7 @@
         <v>23</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D171" s="6" t="s">
         <v>31</v>
@@ -5798,11 +5327,8 @@
       <c r="E171" s="6">
         <v>-13.18</v>
       </c>
-      <c r="F171" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="5">
         <v>44822</v>
       </c>
@@ -5810,7 +5336,7 @@
         <v>23</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D172" s="6" t="s">
         <v>41</v>
@@ -5818,11 +5344,8 @@
       <c r="E172" s="6">
         <v>-14.48</v>
       </c>
-      <c r="F172" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="5">
         <v>44822</v>
       </c>
@@ -5838,11 +5361,8 @@
       <c r="E173" s="6">
         <v>-15.82</v>
       </c>
-      <c r="F173" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="7">
         <v>44823</v>
       </c>
@@ -5850,7 +5370,7 @@
         <v>7</v>
       </c>
       <c r="C174" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D174" s="6" t="s">
         <v>58</v>
@@ -5858,11 +5378,8 @@
       <c r="E174" s="6">
         <v>-9.99</v>
       </c>
-      <c r="F174" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="7">
         <v>44823</v>
       </c>
@@ -5870,7 +5387,7 @@
         <v>7</v>
       </c>
       <c r="C175" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D175" s="6" t="s">
         <v>38</v>
@@ -5878,11 +5395,8 @@
       <c r="E175" s="6">
         <v>-43.78</v>
       </c>
-      <c r="F175" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="7">
         <v>44823</v>
       </c>
@@ -5890,7 +5404,7 @@
         <v>7</v>
       </c>
       <c r="C176" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D176" t="s">
         <v>38</v>
@@ -5899,11 +5413,8 @@
         <f>--27.94</f>
         <v>27.94</v>
       </c>
-      <c r="F176" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="7">
         <v>44823</v>
       </c>
@@ -5911,7 +5422,7 @@
         <v>7</v>
       </c>
       <c r="C177" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D177" s="6" t="s">
         <v>12</v>
@@ -5919,11 +5430,8 @@
       <c r="E177" s="6">
         <v>-31.63</v>
       </c>
-      <c r="F177" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="7">
         <v>44823</v>
       </c>
@@ -5931,7 +5439,7 @@
         <v>7</v>
       </c>
       <c r="C178" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D178" t="s">
         <v>12</v>
@@ -5939,11 +5447,8 @@
       <c r="E178">
         <v>-79.52</v>
       </c>
-      <c r="F178" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="7">
         <v>44823</v>
       </c>
@@ -5951,7 +5456,7 @@
         <v>7</v>
       </c>
       <c r="C179" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D179" t="s">
         <v>11</v>
@@ -5960,11 +5465,8 @@
         <f>--11.27</f>
         <v>11.27</v>
       </c>
-      <c r="F179" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="7">
         <v>44823</v>
       </c>
@@ -5972,19 +5474,16 @@
         <v>7</v>
       </c>
       <c r="C180" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E180" s="6">
         <v>-8.48</v>
       </c>
-      <c r="F180" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="7">
         <v>44823</v>
       </c>
@@ -5992,19 +5491,16 @@
         <v>7</v>
       </c>
       <c r="C181" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D181" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E181">
         <v>-28</v>
       </c>
-      <c r="F181" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="7">
         <v>44823</v>
       </c>
@@ -6012,7 +5508,7 @@
         <v>7</v>
       </c>
       <c r="C182" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D182" t="s">
         <v>14</v>
@@ -6020,11 +5516,8 @@
       <c r="E182">
         <v>-80.739999999999995</v>
       </c>
-      <c r="F182" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="5">
         <v>44824</v>
       </c>
@@ -6032,7 +5525,7 @@
         <v>7</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D183" s="6" t="s">
         <v>58</v>
@@ -6040,11 +5533,8 @@
       <c r="E183" s="6">
         <v>-56</v>
       </c>
-      <c r="F183" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="5">
         <v>44824</v>
       </c>
@@ -6060,11 +5550,8 @@
       <c r="E184" s="6">
         <v>-105</v>
       </c>
-      <c r="F184" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="5">
         <v>44824</v>
       </c>
@@ -6072,7 +5559,7 @@
         <v>7</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D185" s="6" t="s">
         <v>12</v>
@@ -6080,11 +5567,8 @@
       <c r="E185" s="6">
         <v>-2.38</v>
       </c>
-      <c r="F185" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="5">
         <v>44824</v>
       </c>
@@ -6092,7 +5576,7 @@
         <v>23</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D186" s="6" t="s">
         <v>64</v>
@@ -6100,11 +5584,8 @@
       <c r="E186" s="6">
         <v>-39.99</v>
       </c>
-      <c r="F186" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="5">
         <v>44824</v>
       </c>
@@ -6112,7 +5593,7 @@
         <v>7</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D187" s="6" t="s">
         <v>11</v>
@@ -6120,11 +5601,8 @@
       <c r="E187" s="6">
         <v>-11.19</v>
       </c>
-      <c r="F187" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="5">
         <v>44824</v>
       </c>
@@ -6132,7 +5610,7 @@
         <v>7</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D188" s="6" t="s">
         <v>41</v>
@@ -6140,11 +5618,8 @@
       <c r="E188" s="6">
         <v>-20.99</v>
       </c>
-      <c r="F188" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="5">
         <v>44824</v>
       </c>
@@ -6152,7 +5627,7 @@
         <v>23</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D189" s="6" t="s">
         <v>31</v>
@@ -6160,11 +5635,8 @@
       <c r="E189" s="6">
         <v>-1.69</v>
       </c>
-      <c r="F189" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="5">
         <v>44826</v>
       </c>
@@ -6172,7 +5644,7 @@
         <v>23</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D190" s="6" t="s">
         <v>12</v>
@@ -6180,11 +5652,8 @@
       <c r="E190" s="6">
         <v>-3.52</v>
       </c>
-      <c r="F190" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="5">
         <v>44826</v>
       </c>
@@ -6200,11 +5669,8 @@
       <c r="E191" s="6">
         <v>-11.45</v>
       </c>
-      <c r="F191" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="5">
         <v>44826</v>
       </c>
@@ -6212,7 +5678,7 @@
         <v>23</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D192" s="6" t="s">
         <v>31</v>
@@ -6220,11 +5686,8 @@
       <c r="E192" s="6">
         <v>-36.5</v>
       </c>
-      <c r="F192" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="5">
         <v>44826</v>
       </c>
@@ -6240,11 +5703,8 @@
       <c r="E193" s="6">
         <v>-17.940000000000001</v>
       </c>
-      <c r="F193" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="5">
         <v>44826</v>
       </c>
@@ -6252,7 +5712,7 @@
         <v>23</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D194" s="6" t="s">
         <v>31</v>
@@ -6260,11 +5720,8 @@
       <c r="E194" s="6">
         <v>-16.2</v>
       </c>
-      <c r="F194" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="5">
         <v>44827</v>
       </c>
@@ -6272,7 +5729,7 @@
         <v>23</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D195" s="6" t="s">
         <v>58</v>
@@ -6280,11 +5737,8 @@
       <c r="E195" s="6">
         <v>-79.41</v>
       </c>
-      <c r="F195" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="5">
         <v>44827</v>
       </c>
@@ -6292,7 +5746,7 @@
         <v>23</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D196" s="6" t="s">
         <v>43</v>
@@ -6300,11 +5754,8 @@
       <c r="E196" s="6">
         <v>-56.5</v>
       </c>
-      <c r="F196" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="5">
         <v>44827</v>
       </c>
@@ -6312,7 +5763,7 @@
         <v>7</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D197" s="6" t="s">
         <v>12</v>
@@ -6320,11 +5771,8 @@
       <c r="E197" s="6">
         <v>-19.78</v>
       </c>
-      <c r="F197" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="5">
         <v>44827</v>
       </c>
@@ -6332,7 +5780,7 @@
         <v>7</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D198" s="6" t="s">
         <v>11</v>
@@ -6340,11 +5788,8 @@
       <c r="E198" s="6">
         <v>-20</v>
       </c>
-      <c r="F198" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="5">
         <v>44827</v>
       </c>
@@ -6352,7 +5797,7 @@
         <v>7</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D199" s="6" t="s">
         <v>111</v>
@@ -6360,11 +5805,8 @@
       <c r="E199" s="6">
         <v>-18.98</v>
       </c>
-      <c r="F199" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="5">
         <v>44827</v>
       </c>
@@ -6372,7 +5814,7 @@
         <v>23</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D200" s="6" t="s">
         <v>31</v>
@@ -6380,11 +5822,8 @@
       <c r="E200" s="6">
         <v>-19.8</v>
       </c>
-      <c r="F200" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="5">
         <v>44828</v>
       </c>
@@ -6400,11 +5839,8 @@
       <c r="E201" s="6">
         <v>-145.75</v>
       </c>
-      <c r="F201" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="5">
         <v>44828</v>
       </c>
@@ -6412,7 +5848,7 @@
         <v>23</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D202" s="6" t="s">
         <v>43</v>
@@ -6420,11 +5856,8 @@
       <c r="E202" s="6">
         <v>-40.31</v>
       </c>
-      <c r="F202" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="5">
         <v>44830</v>
       </c>
@@ -6432,7 +5865,7 @@
         <v>7</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D203" s="6" t="s">
         <v>58</v>
@@ -6440,11 +5873,8 @@
       <c r="E203" s="6">
         <v>-112.5</v>
       </c>
-      <c r="F203" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="5">
         <v>44830</v>
       </c>
@@ -6452,7 +5882,7 @@
         <v>23</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D204" s="6" t="s">
         <v>58</v>
@@ -6461,11 +5891,8 @@
         <f>--112.81</f>
         <v>112.81</v>
       </c>
-      <c r="F204" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="5">
         <v>44830</v>
       </c>
@@ -6473,7 +5900,7 @@
         <v>7</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D205" s="6" t="s">
         <v>38</v>
@@ -6481,11 +5908,8 @@
       <c r="E205" s="6">
         <v>-42.99</v>
       </c>
-      <c r="F205" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="5">
         <v>44830</v>
       </c>
@@ -6493,7 +5917,7 @@
         <v>23</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D206" s="6" t="s">
         <v>43</v>
@@ -6501,11 +5925,8 @@
       <c r="E206" s="6">
         <v>-29.01</v>
       </c>
-      <c r="F206" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="5">
         <v>44830</v>
       </c>
@@ -6513,7 +5934,7 @@
         <v>23</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D207" s="6" t="s">
         <v>43</v>
@@ -6521,11 +5942,8 @@
       <c r="E207" s="6">
         <v>-38.5</v>
       </c>
-      <c r="F207" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="5">
         <v>44830</v>
       </c>
@@ -6533,7 +5951,7 @@
         <v>7</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D208" s="6" t="s">
         <v>12</v>
@@ -6541,11 +5959,8 @@
       <c r="E208" s="6">
         <v>-3.38</v>
       </c>
-      <c r="F208" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="5">
         <v>44830</v>
       </c>
@@ -6553,7 +5968,7 @@
         <v>23</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D209" s="6" t="s">
         <v>12</v>
@@ -6561,11 +5976,8 @@
       <c r="E209" s="6">
         <v>-5.04</v>
       </c>
-      <c r="F209" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="5">
         <v>44830</v>
       </c>
@@ -6573,7 +5985,7 @@
         <v>23</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D210" s="6" t="s">
         <v>42</v>
@@ -6581,11 +5993,8 @@
       <c r="E210" s="6">
         <v>-36.33</v>
       </c>
-      <c r="F210" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="5">
         <v>44830</v>
       </c>
@@ -6593,7 +6002,7 @@
         <v>7</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D211" s="6" t="s">
         <v>11</v>
@@ -6601,11 +6010,8 @@
       <c r="E211" s="6">
         <v>-8.49</v>
       </c>
-      <c r="F211" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="5">
         <v>44830</v>
       </c>
@@ -6613,7 +6019,7 @@
         <v>23</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D212" s="6" t="s">
         <v>11</v>
@@ -6621,11 +6027,8 @@
       <c r="E212" s="6">
         <v>-83.8</v>
       </c>
-      <c r="F212" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="5">
         <v>44830</v>
       </c>
@@ -6633,7 +6036,7 @@
         <v>23</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D213" s="6" t="s">
         <v>11</v>
@@ -6641,11 +6044,8 @@
       <c r="E213" s="6">
         <v>-58.09</v>
       </c>
-      <c r="F213" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="5">
         <v>44831</v>
       </c>
@@ -6653,7 +6053,7 @@
         <v>23</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D214" s="6" t="s">
         <v>30</v>
@@ -6661,11 +6061,8 @@
       <c r="E214" s="6">
         <v>-313.60000000000002</v>
       </c>
-      <c r="F214" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="5">
         <v>44831</v>
       </c>
@@ -6681,11 +6078,8 @@
       <c r="E215" s="6">
         <v>-107.49</v>
       </c>
-      <c r="F215" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="5">
         <v>44832</v>
       </c>
@@ -6693,7 +6087,7 @@
         <v>23</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D216" s="6" t="s">
         <v>30</v>
@@ -6701,11 +6095,8 @@
       <c r="E216" s="6">
         <v>-15.04</v>
       </c>
-      <c r="F216" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="5">
         <v>44832</v>
       </c>
@@ -6713,7 +6104,7 @@
         <v>7</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D217" s="6" t="s">
         <v>39</v>
@@ -6722,11 +6113,8 @@
         <f>--584.5</f>
         <v>584.5</v>
       </c>
-      <c r="F217" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="5">
         <v>44832</v>
       </c>
@@ -6734,7 +6122,7 @@
         <v>23</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D218" s="6" t="s">
         <v>31</v>
@@ -6742,11 +6130,8 @@
       <c r="E218" s="6">
         <v>-85.2</v>
       </c>
-      <c r="F218" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="5">
         <v>44833</v>
       </c>
@@ -6754,7 +6139,7 @@
         <v>23</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D219" s="6" t="s">
         <v>43</v>
@@ -6762,11 +6147,8 @@
       <c r="E219" s="6">
         <v>-19.670000000000002</v>
       </c>
-      <c r="F219" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="5">
         <v>44833</v>
       </c>
@@ -6783,11 +6165,8 @@
         <f>--2953.72</f>
         <v>2953.72</v>
       </c>
-      <c r="F220" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="5">
         <v>44833</v>
       </c>
@@ -6803,11 +6182,8 @@
       <c r="E221" s="6">
         <v>-9.99</v>
       </c>
-      <c r="F221" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="5">
         <v>44834</v>
       </c>
@@ -6824,11 +6200,8 @@
         <f>--0.12</f>
         <v>0.12</v>
       </c>
-      <c r="F222" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="5">
         <v>44834</v>
       </c>
@@ -6836,19 +6209,16 @@
         <v>7</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D223" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E223" s="6">
         <v>-391.34</v>
       </c>
-      <c r="F223" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="5">
         <v>44834</v>
       </c>
@@ -6856,7 +6226,7 @@
         <v>23</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D224" s="6" t="s">
         <v>42</v>
@@ -6864,11 +6234,8 @@
       <c r="E224" s="6">
         <v>-833.4</v>
       </c>
-      <c r="F224" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="5">
         <v>44834</v>
       </c>
@@ -6876,7 +6243,7 @@
         <v>23</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D225" s="6" t="s">
         <v>31</v>
@@ -6884,11 +6251,8 @@
       <c r="E225" s="6">
         <v>-179.69</v>
       </c>
-      <c r="F225" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="5">
         <v>44834</v>
       </c>
@@ -6899,16 +6263,13 @@
         <v>57</v>
       </c>
       <c r="D226" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E226" s="6">
         <v>-1905.64</v>
       </c>
-      <c r="F226" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="5">
         <v>44834</v>
       </c>
@@ -6919,17 +6280,14 @@
         <v>65</v>
       </c>
       <c r="D227" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E227" s="6">
         <f>--1905.64</f>
         <v>1905.64</v>
       </c>
-      <c r="F227" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="5">
         <v>44835</v>
       </c>
@@ -6937,7 +6295,7 @@
         <v>23</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D228" s="6" t="s">
         <v>43</v>
@@ -6945,11 +6303,8 @@
       <c r="E228" s="6">
         <v>-4.26</v>
       </c>
-      <c r="F228" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="5">
         <v>44835</v>
       </c>
@@ -6957,7 +6312,7 @@
         <v>23</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D229" s="6" t="s">
         <v>43</v>
@@ -6965,11 +6320,8 @@
       <c r="E229" s="6">
         <v>-41.12</v>
       </c>
-      <c r="F229" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="5">
         <v>44836</v>
       </c>
@@ -6977,7 +6329,7 @@
         <v>23</v>
       </c>
       <c r="C230" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D230" s="6" t="s">
         <v>12</v>
@@ -6985,11 +6337,8 @@
       <c r="E230">
         <v>-10.56</v>
       </c>
-      <c r="F230" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="5">
         <v>44836</v>
       </c>
@@ -6997,7 +6346,7 @@
         <v>23</v>
       </c>
       <c r="C231" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D231" s="6" t="s">
         <v>11</v>
@@ -7005,11 +6354,8 @@
       <c r="E231">
         <v>-25</v>
       </c>
-      <c r="F231" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="5">
         <v>44836</v>
       </c>
@@ -7017,7 +6363,7 @@
         <v>23</v>
       </c>
       <c r="C232" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D232" s="6" t="s">
         <v>43</v>
@@ -7025,11 +6371,8 @@
       <c r="E232">
         <v>-34.42</v>
       </c>
-      <c r="F232" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="5">
         <v>44836</v>
       </c>
@@ -7037,7 +6380,7 @@
         <v>23</v>
       </c>
       <c r="C233" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D233" s="6" t="s">
         <v>31</v>
@@ -7045,11 +6388,8 @@
       <c r="E233">
         <v>-17.82</v>
       </c>
-      <c r="F233" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="5">
         <v>44837</v>
       </c>
@@ -7065,11 +6405,8 @@
       <c r="E234" s="6">
         <v>-4000</v>
       </c>
-      <c r="F234" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="5">
         <v>44837</v>
       </c>
@@ -7085,11 +6422,8 @@
       <c r="E235" s="6">
         <v>-300</v>
       </c>
-      <c r="F235" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="5">
         <v>44837</v>
       </c>
@@ -7105,11 +6439,8 @@
       <c r="E236" s="6">
         <v>-50</v>
       </c>
-      <c r="F236" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="5">
         <v>44837</v>
       </c>
@@ -7117,7 +6448,7 @@
         <v>23</v>
       </c>
       <c r="C237" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D237" s="6" t="s">
         <v>60</v>
@@ -7125,11 +6456,8 @@
       <c r="E237">
         <v>-9.5299999999999994</v>
       </c>
-      <c r="F237" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="5">
         <v>44837</v>
       </c>
@@ -7137,7 +6465,7 @@
         <v>23</v>
       </c>
       <c r="C238" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D238" s="6" t="s">
         <v>43</v>
@@ -7145,11 +6473,8 @@
       <c r="E238">
         <v>-59.39</v>
       </c>
-      <c r="F238" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="5">
         <v>44837</v>
       </c>
@@ -7157,7 +6482,7 @@
         <v>18</v>
       </c>
       <c r="C239" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D239" s="6" t="s">
         <v>9</v>
@@ -7165,11 +6490,8 @@
       <c r="E239">
         <v>4000</v>
       </c>
-      <c r="F239" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="5">
         <v>44837</v>
       </c>
@@ -7177,7 +6499,7 @@
         <v>18</v>
       </c>
       <c r="C240" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D240" s="6" t="s">
         <v>9</v>
@@ -7185,11 +6507,8 @@
       <c r="E240">
         <v>300</v>
       </c>
-      <c r="F240" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="5">
         <v>44838</v>
       </c>
@@ -7197,7 +6516,7 @@
         <v>7</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D241" s="6" t="s">
         <v>10</v>
@@ -7205,11 +6524,8 @@
       <c r="E241" s="6">
         <v>-156.16</v>
       </c>
-      <c r="F241" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="5">
         <v>44838</v>
       </c>
@@ -7217,7 +6533,7 @@
         <v>23</v>
       </c>
       <c r="C242" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D242" s="6" t="s">
         <v>31</v>
@@ -7225,11 +6541,8 @@
       <c r="E242">
         <v>-40.53</v>
       </c>
-      <c r="F242" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="5">
         <v>44838</v>
       </c>
@@ -7237,7 +6550,7 @@
         <v>23</v>
       </c>
       <c r="C243" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D243" s="6" t="s">
         <v>58</v>
@@ -7245,11 +6558,8 @@
       <c r="E243">
         <v>-12</v>
       </c>
-      <c r="F243" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="5">
         <v>44838</v>
       </c>
@@ -7257,7 +6567,7 @@
         <v>23</v>
       </c>
       <c r="C244" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D244" s="6" t="s">
         <v>12</v>
@@ -7265,11 +6575,8 @@
       <c r="E244">
         <v>-171.89</v>
       </c>
-      <c r="F244" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="5">
         <v>44838</v>
       </c>
@@ -7285,11 +6592,8 @@
       <c r="E245">
         <v>-105</v>
       </c>
-      <c r="F245" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="5">
         <v>44838</v>
       </c>
@@ -7297,7 +6601,7 @@
         <v>18</v>
       </c>
       <c r="C246" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D246" s="6" t="s">
         <v>63</v>
@@ -7305,11 +6609,8 @@
       <c r="E246">
         <v>-3000</v>
       </c>
-      <c r="F246" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="5">
         <v>44839</v>
       </c>
@@ -7317,7 +6618,7 @@
         <v>23</v>
       </c>
       <c r="C247" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D247" s="6" t="s">
         <v>11</v>
@@ -7325,11 +6626,8 @@
       <c r="E247">
         <v>-18</v>
       </c>
-      <c r="F247" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="5">
         <v>44840</v>
       </c>
@@ -7337,19 +6635,16 @@
         <v>7</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E248" s="6">
         <v>-20</v>
       </c>
-      <c r="F248" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="5">
         <v>44840</v>
       </c>
@@ -7357,7 +6652,7 @@
         <v>23</v>
       </c>
       <c r="C249" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D249" s="6" t="s">
         <v>42</v>
@@ -7365,11 +6660,8 @@
       <c r="E249">
         <v>-743.04</v>
       </c>
-      <c r="F249" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="5">
         <v>44841</v>
       </c>
@@ -7377,7 +6669,7 @@
         <v>23</v>
       </c>
       <c r="C250" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D250" s="6" t="s">
         <v>42</v>
@@ -7385,11 +6677,8 @@
       <c r="E250">
         <v>-311.63</v>
       </c>
-      <c r="F250" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="5">
         <v>44841</v>
       </c>
@@ -7397,7 +6686,7 @@
         <v>23</v>
       </c>
       <c r="C251" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D251" s="6" t="s">
         <v>31</v>
@@ -7405,11 +6694,8 @@
       <c r="E251">
         <v>-18.75</v>
       </c>
-      <c r="F251" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="5">
         <v>44841</v>
       </c>
@@ -7417,7 +6703,7 @@
         <v>23</v>
       </c>
       <c r="C252" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D252" s="6" t="s">
         <v>58</v>
@@ -7425,11 +6711,8 @@
       <c r="E252">
         <v>21.94</v>
       </c>
-      <c r="F252" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="5">
         <v>44842</v>
       </c>
@@ -7437,7 +6720,7 @@
         <v>23</v>
       </c>
       <c r="C253" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D253" s="6" t="s">
         <v>55</v>
@@ -7445,11 +6728,8 @@
       <c r="E253">
         <v>-26.48</v>
       </c>
-      <c r="F253" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="5">
         <v>44842</v>
       </c>
@@ -7457,7 +6737,7 @@
         <v>23</v>
       </c>
       <c r="C254" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D254" s="6" t="s">
         <v>41</v>
@@ -7465,11 +6745,8 @@
       <c r="E254">
         <v>-74.98</v>
       </c>
-      <c r="F254" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="5">
         <v>44842</v>
       </c>
@@ -7477,7 +6754,7 @@
         <v>23</v>
       </c>
       <c r="C255" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D255" s="6" t="s">
         <v>11</v>
@@ -7485,11 +6762,8 @@
       <c r="E255">
         <v>-50.97</v>
       </c>
-      <c r="F255" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="5">
         <v>44842</v>
       </c>
@@ -7497,7 +6771,7 @@
         <v>23</v>
       </c>
       <c r="C256" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D256" s="6" t="s">
         <v>14</v>
@@ -7505,11 +6779,8 @@
       <c r="E256">
         <v>-38.979999999999997</v>
       </c>
-      <c r="F256" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="5">
         <v>44842</v>
       </c>
@@ -7517,7 +6788,7 @@
         <v>23</v>
       </c>
       <c r="C257" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D257" s="6" t="s">
         <v>12</v>
@@ -7525,11 +6796,8 @@
       <c r="E257">
         <v>-71.44</v>
       </c>
-      <c r="F257" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="5">
         <v>44842</v>
       </c>
@@ -7537,7 +6805,7 @@
         <v>23</v>
       </c>
       <c r="C258" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D258" s="6" t="s">
         <v>30</v>
@@ -7545,11 +6813,8 @@
       <c r="E258">
         <v>-11</v>
       </c>
-      <c r="F258" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="5">
         <v>44843</v>
       </c>
@@ -7557,7 +6822,7 @@
         <v>23</v>
       </c>
       <c r="C259" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D259" s="6" t="s">
         <v>58</v>
@@ -7565,11 +6830,8 @@
       <c r="E259">
         <v>-59.79</v>
       </c>
-      <c r="F259" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="5">
         <v>44843</v>
       </c>
@@ -7577,7 +6839,7 @@
         <v>23</v>
       </c>
       <c r="C260" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D260" s="6" t="s">
         <v>54</v>
@@ -7585,11 +6847,8 @@
       <c r="E260">
         <v>-2.99</v>
       </c>
-      <c r="F260" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="5">
         <v>44843</v>
       </c>
@@ -7605,11 +6864,8 @@
       <c r="E261">
         <v>-129.32</v>
       </c>
-      <c r="F261" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="5">
         <v>44843</v>
       </c>
@@ -7617,7 +6873,7 @@
         <v>23</v>
       </c>
       <c r="C262" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D262" s="6" t="s">
         <v>42</v>
@@ -7625,8 +6881,532 @@
       <c r="E262">
         <v>317.99</v>
       </c>
-      <c r="F262" s="6" t="s">
-        <v>118</v>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A263" s="5">
+        <v>44845</v>
+      </c>
+      <c r="B263" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C263" t="s">
+        <v>205</v>
+      </c>
+      <c r="D263" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E263">
+        <v>-5.17</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A264" s="5">
+        <v>44845</v>
+      </c>
+      <c r="B264" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C264" t="s">
+        <v>205</v>
+      </c>
+      <c r="D264" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E264">
+        <v>-47.58</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A265" s="5">
+        <v>44845</v>
+      </c>
+      <c r="B265" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C265" t="s">
+        <v>205</v>
+      </c>
+      <c r="D265" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E265">
+        <v>-29.38</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A266" s="5">
+        <v>44845</v>
+      </c>
+      <c r="B266" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C266" t="s">
+        <v>205</v>
+      </c>
+      <c r="D266" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E266">
+        <v>91.83</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A267" s="5">
+        <v>44845</v>
+      </c>
+      <c r="B267" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C267" t="s">
+        <v>216</v>
+      </c>
+      <c r="D267" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E267">
+        <v>-132.97999999999999</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A268" s="5">
+        <v>44845</v>
+      </c>
+      <c r="B268" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C268" t="s">
+        <v>209</v>
+      </c>
+      <c r="D268" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E268">
+        <v>-53.84</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A269" s="5">
+        <v>44845</v>
+      </c>
+      <c r="B269" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C269" t="s">
+        <v>209</v>
+      </c>
+      <c r="D269" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E269">
+        <v>-9.5299999999999994</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A270" s="5">
+        <v>44845</v>
+      </c>
+      <c r="B270" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C270" t="s">
+        <v>73</v>
+      </c>
+      <c r="D270" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E270">
+        <v>-105</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A271" s="5">
+        <v>44845</v>
+      </c>
+      <c r="B271" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C271" t="s">
+        <v>198</v>
+      </c>
+      <c r="D271" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E271">
+        <v>-17.940000000000001</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A272" s="5">
+        <v>44847</v>
+      </c>
+      <c r="B272" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C272" t="s">
+        <v>204</v>
+      </c>
+      <c r="D272" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E272">
+        <v>2954.27</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A273" s="5">
+        <v>44847</v>
+      </c>
+      <c r="B273" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C273" t="s">
+        <v>193</v>
+      </c>
+      <c r="D273" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E273">
+        <v>-10.59</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A274" s="5">
+        <v>44847</v>
+      </c>
+      <c r="B274" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C274" t="s">
+        <v>215</v>
+      </c>
+      <c r="D274" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E274">
+        <v>-23.1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A275" s="5">
+        <v>44848</v>
+      </c>
+      <c r="B275" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C275" t="s">
+        <v>203</v>
+      </c>
+      <c r="D275" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E275">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A276" s="5">
+        <v>44848</v>
+      </c>
+      <c r="B276" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C276" t="s">
+        <v>214</v>
+      </c>
+      <c r="D276" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E276">
+        <v>-4.68</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A277" s="5">
+        <v>44849</v>
+      </c>
+      <c r="B277" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C277" t="s">
+        <v>210</v>
+      </c>
+      <c r="D277" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E277">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A278" s="5">
+        <v>44849</v>
+      </c>
+      <c r="B278" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C278" t="s">
+        <v>211</v>
+      </c>
+      <c r="D278" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E278">
+        <v>-10.6</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A279" s="5">
+        <v>44849</v>
+      </c>
+      <c r="B279" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C279" t="s">
+        <v>212</v>
+      </c>
+      <c r="D279" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E279">
+        <v>-6.5</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A280" s="5">
+        <v>44849</v>
+      </c>
+      <c r="B280" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C280" t="s">
+        <v>213</v>
+      </c>
+      <c r="D280" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E280">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A281" s="5">
+        <v>44850</v>
+      </c>
+      <c r="B281" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C281" t="s">
+        <v>207</v>
+      </c>
+      <c r="D281" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E281">
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A282" s="5">
+        <v>44850</v>
+      </c>
+      <c r="B282" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C282" t="s">
+        <v>208</v>
+      </c>
+      <c r="D282" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E282">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A283" s="5">
+        <v>44850</v>
+      </c>
+      <c r="B283" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C283" t="s">
+        <v>209</v>
+      </c>
+      <c r="D283" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E283">
+        <v>19.059999999999999</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A284" s="5">
+        <v>44851</v>
+      </c>
+      <c r="B284" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C284" t="s">
+        <v>200</v>
+      </c>
+      <c r="D284" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E284">
+        <v>-8.5299999999999994</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A285" s="5">
+        <v>44851</v>
+      </c>
+      <c r="B285" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C285" t="s">
+        <v>201</v>
+      </c>
+      <c r="D285" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E285">
+        <v>-1262.7</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A286" s="5">
+        <v>44851</v>
+      </c>
+      <c r="B286" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C286" t="s">
+        <v>202</v>
+      </c>
+      <c r="D286" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E286">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A287" s="5">
+        <v>44851</v>
+      </c>
+      <c r="B287" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C287" t="s">
+        <v>57</v>
+      </c>
+      <c r="D287" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E287">
+        <v>-2100</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A288" s="5">
+        <v>44851</v>
+      </c>
+      <c r="B288" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C288" t="s">
+        <v>6</v>
+      </c>
+      <c r="D288" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E288">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A289" s="5">
+        <v>44851</v>
+      </c>
+      <c r="B289" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C289" t="s">
+        <v>6</v>
+      </c>
+      <c r="D289" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E289">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A290" s="5">
+        <v>44851</v>
+      </c>
+      <c r="B290" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C290" t="s">
+        <v>17</v>
+      </c>
+      <c r="D290" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E290">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A291" s="5">
+        <v>44851</v>
+      </c>
+      <c r="B291" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C291" t="s">
+        <v>206</v>
+      </c>
+      <c r="D291" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E291">
+        <v>-38.69</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A292" s="5">
+        <v>44851</v>
+      </c>
+      <c r="B292" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C292" t="s">
+        <v>6</v>
+      </c>
+      <c r="D292" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E292" s="6">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A293" s="5">
+        <v>44851</v>
+      </c>
+      <c r="B293" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C293" t="s">
+        <v>17</v>
+      </c>
+      <c r="D293" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E293" s="6">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -7642,7 +7422,7 @@
           <x14:formula1>
             <xm:f>OFFSET(Categories!$A$2,0,0,COUNTIF(Categories!$A$2:$A$99,"&lt;&gt;"))</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D262</xm:sqref>
+          <xm:sqref>D2:D293</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7695,7 +7475,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
@@ -7790,7 +7570,7 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
@@ -7805,7 +7585,7 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
@@ -7830,7 +7610,7 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
@@ -7840,7 +7620,7 @@
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
@@ -7882,7 +7662,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
@@ -7890,7 +7670,7 @@
         <v>116</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
@@ -7898,10 +7678,10 @@
         <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E4" t="s">
         <v>113</v>

--- a/Expenses.xlsx
+++ b/Expenses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffgood/Desktop/R_Studio_Projects/Financial_Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1910C654-8C3A-E843-A311-146233496CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4862100B-F49C-C248-9CA6-10FB1C41624C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1000" windowWidth="27380" windowHeight="15800" xr2:uid="{D9F47917-7B20-384C-878F-0D08681ABD47}"/>
+    <workbookView xWindow="680" yWindow="1260" windowWidth="27380" windowHeight="15800" xr2:uid="{D9F47917-7B20-384C-878F-0D08681ABD47}"/>
   </bookViews>
   <sheets>
     <sheet name="Transactions" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="230">
   <si>
     <t>Date</t>
   </si>
@@ -646,9 +646,6 @@
     <t>Vanguard</t>
   </si>
   <si>
-    <t>STARBUCKS STORE 0896             101722</t>
-  </si>
-  <si>
     <t>CHASE CREDIT CRD EPAY       ***********0822</t>
   </si>
   <si>
@@ -695,6 +692,48 @@
   </si>
   <si>
     <t>Gap</t>
+  </si>
+  <si>
+    <t>ATM Fee Rebate</t>
+  </si>
+  <si>
+    <t>Starbucks</t>
+  </si>
+  <si>
+    <t>Personal transaction</t>
+  </si>
+  <si>
+    <t>UNITED</t>
+  </si>
+  <si>
+    <t>GIUSEPPE'S PIZZA CANTI</t>
+  </si>
+  <si>
+    <t>CVS/PHARMACY #01639</t>
+  </si>
+  <si>
+    <t>HERITAGE P</t>
+  </si>
+  <si>
+    <t>NAVY EXCHANGE 050416</t>
+  </si>
+  <si>
+    <t>Kindle Svcs*H866T29T1    888-802-3080 WA</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>Karns Quality Foods</t>
+  </si>
+  <si>
+    <t>Rite Aid</t>
+  </si>
+  <si>
+    <t>Comcast</t>
+  </si>
+  <si>
+    <t>Travel</t>
   </si>
 </sst>
 </file>
@@ -2064,10 +2103,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}" name="Table1" displayName="Table1" ref="A1:E293" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E293" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E293">
-    <sortCondition ref="A1:A293"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}" name="Table1" displayName="Table1" ref="A1:E314" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E314" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E314">
+    <sortCondition ref="A1:A314"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{36D6B367-4586-164A-BAFD-F61BD8D7B0D8}" name="Date" dataDxfId="4"/>
@@ -2377,10 +2416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BEBEFE-BF8C-CE41-8907-E9633ACA1DDB}">
-  <dimension ref="A1:E293"/>
+  <dimension ref="A1:E314"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E294" sqref="E294"/>
+      <selection activeCell="D315" sqref="D315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6890,7 +6929,7 @@
         <v>7</v>
       </c>
       <c r="C263" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D263" s="6" t="s">
         <v>12</v>
@@ -6907,7 +6946,7 @@
         <v>7</v>
       </c>
       <c r="C264" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D264" s="6" t="s">
         <v>11</v>
@@ -6924,7 +6963,7 @@
         <v>7</v>
       </c>
       <c r="C265" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D265" s="6" t="s">
         <v>58</v>
@@ -6941,7 +6980,7 @@
         <v>7</v>
       </c>
       <c r="C266" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D266" s="6" t="s">
         <v>11</v>
@@ -6958,7 +6997,7 @@
         <v>23</v>
       </c>
       <c r="C267" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D267" s="6" t="s">
         <v>58</v>
@@ -6975,7 +7014,7 @@
         <v>23</v>
       </c>
       <c r="C268" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D268" s="6" t="s">
         <v>42</v>
@@ -6992,7 +7031,7 @@
         <v>23</v>
       </c>
       <c r="C269" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D269" s="6" t="s">
         <v>42</v>
@@ -7043,7 +7082,7 @@
         <v>7</v>
       </c>
       <c r="C272" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D272" s="6" t="s">
         <v>40</v>
@@ -7077,7 +7116,7 @@
         <v>23</v>
       </c>
       <c r="C274" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D274" s="6" t="s">
         <v>66</v>
@@ -7094,7 +7133,7 @@
         <v>7</v>
       </c>
       <c r="C275" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D275" s="6" t="s">
         <v>15</v>
@@ -7111,7 +7150,7 @@
         <v>23</v>
       </c>
       <c r="C276" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D276" s="6" t="s">
         <v>12</v>
@@ -7128,7 +7167,7 @@
         <v>23</v>
       </c>
       <c r="C277" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D277" s="6" t="s">
         <v>31</v>
@@ -7145,7 +7184,7 @@
         <v>23</v>
       </c>
       <c r="C278" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D278" s="6" t="s">
         <v>31</v>
@@ -7162,7 +7201,7 @@
         <v>23</v>
       </c>
       <c r="C279" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D279" s="6" t="s">
         <v>31</v>
@@ -7179,7 +7218,7 @@
         <v>23</v>
       </c>
       <c r="C280" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D280" s="6" t="s">
         <v>11</v>
@@ -7196,7 +7235,7 @@
         <v>23</v>
       </c>
       <c r="C281" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D281" s="6" t="s">
         <v>128</v>
@@ -7213,7 +7252,7 @@
         <v>23</v>
       </c>
       <c r="C282" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D282" s="6" t="s">
         <v>121</v>
@@ -7230,7 +7269,7 @@
         <v>23</v>
       </c>
       <c r="C283" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D283" s="6" t="s">
         <v>42</v>
@@ -7250,10 +7289,10 @@
         <v>200</v>
       </c>
       <c r="D284" s="6" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="E284">
-        <v>-8.5299999999999994</v>
+        <v>-1262.7</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
@@ -7267,10 +7306,10 @@
         <v>201</v>
       </c>
       <c r="D285" s="6" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="E285">
-        <v>-1262.7</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
@@ -7281,13 +7320,13 @@
         <v>7</v>
       </c>
       <c r="C286" t="s">
-        <v>202</v>
+        <v>57</v>
       </c>
       <c r="D286" s="6" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E286">
-        <v>-20</v>
+        <v>-2100</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
@@ -7298,13 +7337,13 @@
         <v>7</v>
       </c>
       <c r="C287" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="D287" s="6" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="E287">
-        <v>-2100</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
@@ -7318,10 +7357,10 @@
         <v>6</v>
       </c>
       <c r="D288" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E288">
-        <v>-300</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
@@ -7332,13 +7371,13 @@
         <v>7</v>
       </c>
       <c r="C289" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D289" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E289">
-        <v>-50</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
@@ -7346,16 +7385,16 @@
         <v>44851</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C290" t="s">
-        <v>17</v>
+        <v>205</v>
       </c>
       <c r="D290" s="6" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E290">
-        <v>2000</v>
+        <v>-38.69</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
@@ -7363,16 +7402,16 @@
         <v>44851</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C291" t="s">
-        <v>206</v>
+        <v>6</v>
       </c>
       <c r="D291" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E291">
-        <v>-38.69</v>
+        <v>9</v>
+      </c>
+      <c r="E291" s="6">
+        <v>-2000</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
@@ -7383,30 +7422,387 @@
         <v>18</v>
       </c>
       <c r="C292" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D292" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E292" s="6">
-        <v>-2000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" s="5">
-        <v>44851</v>
+        <v>44852</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C293" t="s">
-        <v>17</v>
+        <v>217</v>
       </c>
       <c r="D293" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E293" s="6">
-        <v>300</v>
+        <v>31</v>
+      </c>
+      <c r="E293">
+        <v>-8.5299999999999994</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A294" s="5">
+        <v>44852</v>
+      </c>
+      <c r="B294" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C294" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D294" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E294" s="6">
+        <v>-105</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A295" s="5">
+        <v>44853</v>
+      </c>
+      <c r="B295" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C295" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D295" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E295" s="6">
+        <v>-72.14</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A296" s="5">
+        <v>44853</v>
+      </c>
+      <c r="B296" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C296" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D296" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E296" s="6">
+        <v>-78.180000000000007</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A297" s="5">
+        <v>44853</v>
+      </c>
+      <c r="B297" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C297" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D297" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E297" s="6">
+        <v>-19.7</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A298" s="5">
+        <v>44854</v>
+      </c>
+      <c r="B298" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C298" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D298" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E298" s="6">
+        <v>-39.99</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A299" s="5">
+        <v>44856</v>
+      </c>
+      <c r="B299" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C299" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D299" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E299" s="6">
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A300" s="5">
+        <v>44856</v>
+      </c>
+      <c r="B300" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C300" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D300" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E300" s="6">
+        <v>-10.38</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A301" s="5">
+        <v>44856</v>
+      </c>
+      <c r="B301" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C301" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D301" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E301" s="6">
+        <v>-18.64</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A302" s="5">
+        <v>44856</v>
+      </c>
+      <c r="B302" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C302" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D302" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E302" s="6">
+        <v>-21.17</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A303" s="5">
+        <v>44858</v>
+      </c>
+      <c r="B303" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C303" t="s">
+        <v>204</v>
+      </c>
+      <c r="D303" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E303">
+        <v>-59.44</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A304" s="5">
+        <v>44858</v>
+      </c>
+      <c r="B304" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C304" t="s">
+        <v>218</v>
+      </c>
+      <c r="D304" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E304">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A305" s="5">
+        <v>44858</v>
+      </c>
+      <c r="B305" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C305" t="s">
+        <v>216</v>
+      </c>
+      <c r="D305" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E305">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A306" s="5">
+        <v>44858</v>
+      </c>
+      <c r="B306" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C306" t="s">
+        <v>204</v>
+      </c>
+      <c r="D306" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E306">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A307" s="5">
+        <v>44858</v>
+      </c>
+      <c r="B307" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C307" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D307" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E307" s="6">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A308" s="5">
+        <v>44858</v>
+      </c>
+      <c r="B308" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C308" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D308" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E308" s="6">
+        <v>-145.46</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A309" s="5">
+        <v>44858</v>
+      </c>
+      <c r="B309" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C309" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D309" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E309" s="6">
+        <v>339.69</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A310" s="5">
+        <v>44859</v>
+      </c>
+      <c r="B310" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C310" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D310" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E310" s="6">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A311" s="5">
+        <v>44859</v>
+      </c>
+      <c r="B311" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C311" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D311" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E311" s="6">
+        <v>-17.12</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A312" s="5">
+        <v>44859</v>
+      </c>
+      <c r="B312" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C312" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D312" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E312" s="6">
+        <v>-4.9400000000000004</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A313" s="5">
+        <v>44859</v>
+      </c>
+      <c r="B313" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C313" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D313" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E313" s="6">
+        <v>-105</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A314" s="5">
+        <v>44859</v>
+      </c>
+      <c r="B314" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C314" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D314" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E314" s="6">
+        <v>-15.89</v>
       </c>
     </row>
   </sheetData>
@@ -7422,7 +7818,7 @@
           <x14:formula1>
             <xm:f>OFFSET(Categories!$A$2,0,0,COUNTIF(Categories!$A$2:$A$99,"&lt;&gt;"))</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D293</xm:sqref>
+          <xm:sqref>D2:D314</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7432,10 +7828,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A85DC7-AAE6-0D45-BE57-A2D20F484BD4}">
-  <dimension ref="A1:A37"/>
+  <dimension ref="A1:A38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7620,18 +8016,23 @@
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>121</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:A9" xr:uid="{92A85DC7-AAE6-0D45-BE57-A2D20F484BD4}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A37">
-      <sortCondition ref="A1:A37"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A38">
+      <sortCondition ref="A1:A38"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Expenses.xlsx
+++ b/Expenses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffgood/Desktop/R_Studio_Projects/Financial_Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4862100B-F49C-C248-9CA6-10FB1C41624C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4784A651-8667-7946-8988-F42EDC937BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="1260" windowWidth="27380" windowHeight="15800" xr2:uid="{D9F47917-7B20-384C-878F-0D08681ABD47}"/>
+    <workbookView xWindow="680" yWindow="1000" windowWidth="15380" windowHeight="15800" xr2:uid="{D9F47917-7B20-384C-878F-0D08681ABD47}"/>
   </bookViews>
   <sheets>
     <sheet name="Transactions" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="237">
   <si>
     <t>Date</t>
   </si>
@@ -734,6 +734,27 @@
   </si>
   <si>
     <t>Travel</t>
+  </si>
+  <si>
+    <t>USAA SIGNATURE VISA PAYMENT ***********3516</t>
+  </si>
+  <si>
+    <t>MEMBERS 1ST FCU5450 CARLIMECHANICSBURGPA</t>
+  </si>
+  <si>
+    <t>Chase Credit Card</t>
+  </si>
+  <si>
+    <t>VENMO            CASHOUT    ***********4402</t>
+  </si>
+  <si>
+    <t>Hulu</t>
+  </si>
+  <si>
+    <t>Dayton's Coffee, Tea</t>
+  </si>
+  <si>
+    <t>Midst Taco</t>
   </si>
 </sst>
 </file>
@@ -2103,10 +2124,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}" name="Table1" displayName="Table1" ref="A1:E314" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E314" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E314">
-    <sortCondition ref="A1:A314"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}" name="Table1" displayName="Table1" ref="A1:E340" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E340" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E340">
+    <sortCondition ref="A1:A340"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{36D6B367-4586-164A-BAFD-F61BD8D7B0D8}" name="Date" dataDxfId="4"/>
@@ -2416,10 +2437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BEBEFE-BF8C-CE41-8907-E9633ACA1DDB}">
-  <dimension ref="A1:E314"/>
+  <dimension ref="A1:E340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D315" sqref="D315"/>
+      <selection activeCell="D341" sqref="D341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7805,6 +7826,448 @@
         <v>-15.89</v>
       </c>
     </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A315" s="5">
+        <v>44860</v>
+      </c>
+      <c r="B315" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C315" t="s">
+        <v>204</v>
+      </c>
+      <c r="D315" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E315">
+        <v>-34.22</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A316" s="5">
+        <v>44860</v>
+      </c>
+      <c r="B316" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C316" t="s">
+        <v>213</v>
+      </c>
+      <c r="D316" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E316">
+        <v>-12.98</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A317" s="5">
+        <v>44860</v>
+      </c>
+      <c r="B317" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C317" t="s">
+        <v>187</v>
+      </c>
+      <c r="D317" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E317">
+        <v>311.63</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A318" s="5">
+        <v>44861</v>
+      </c>
+      <c r="B318" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C318" t="s">
+        <v>204</v>
+      </c>
+      <c r="D318" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E318">
+        <v>-29.2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A319" s="5">
+        <v>44862</v>
+      </c>
+      <c r="B319" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C319" t="s">
+        <v>234</v>
+      </c>
+      <c r="D319" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E319">
+        <v>-15.04</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A320" s="5">
+        <v>44862</v>
+      </c>
+      <c r="B320" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C320" t="s">
+        <v>182</v>
+      </c>
+      <c r="D320" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E320">
+        <v>-25.79</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A321" s="5">
+        <v>44862</v>
+      </c>
+      <c r="B321" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C321" t="s">
+        <v>182</v>
+      </c>
+      <c r="D321" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E321">
+        <v>-9.99</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A322" s="5">
+        <v>44862</v>
+      </c>
+      <c r="B322" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C322" t="s">
+        <v>235</v>
+      </c>
+      <c r="D322" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E322">
+        <v>-7.25</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A323" s="5">
+        <v>44862</v>
+      </c>
+      <c r="B323" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C323" t="s">
+        <v>236</v>
+      </c>
+      <c r="D323" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E323">
+        <v>-18.89</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A324" s="5">
+        <v>44865</v>
+      </c>
+      <c r="B324" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C324" t="s">
+        <v>232</v>
+      </c>
+      <c r="D324" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E324">
+        <v>-649.46</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A325" s="5">
+        <v>44865</v>
+      </c>
+      <c r="B325" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C325" t="s">
+        <v>204</v>
+      </c>
+      <c r="D325" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E325">
+        <v>-39.590000000000003</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A326" s="5">
+        <v>44865</v>
+      </c>
+      <c r="B326" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C326" t="s">
+        <v>204</v>
+      </c>
+      <c r="D326" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E326">
+        <v>-10.34</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A327" s="5">
+        <v>44865</v>
+      </c>
+      <c r="B327" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C327" t="s">
+        <v>204</v>
+      </c>
+      <c r="D327" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E327">
+        <v>-37.840000000000003</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A328" s="5">
+        <v>44865</v>
+      </c>
+      <c r="B328" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C328" t="s">
+        <v>204</v>
+      </c>
+      <c r="D328" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E328">
+        <v>-10.5</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A329" s="5">
+        <v>44865</v>
+      </c>
+      <c r="B329" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C329" t="s">
+        <v>203</v>
+      </c>
+      <c r="D329" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E329">
+        <v>2953.72</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A330" s="5">
+        <v>44865</v>
+      </c>
+      <c r="B330" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C330" t="s">
+        <v>56</v>
+      </c>
+      <c r="D330" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E330">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A331" s="5">
+        <v>44865</v>
+      </c>
+      <c r="B331" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C331" t="s">
+        <v>233</v>
+      </c>
+      <c r="D331" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E331">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A332" s="5">
+        <v>44865</v>
+      </c>
+      <c r="B332" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C332" t="s">
+        <v>129</v>
+      </c>
+      <c r="D332" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E332">
+        <v>-69.98</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A333" s="5">
+        <v>44866</v>
+      </c>
+      <c r="B333" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C333" t="s">
+        <v>6</v>
+      </c>
+      <c r="D333" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E333">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A334" s="5">
+        <v>44866</v>
+      </c>
+      <c r="B334" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C334" t="s">
+        <v>231</v>
+      </c>
+      <c r="D334" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E334">
+        <v>-203</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A335" s="5">
+        <v>44866</v>
+      </c>
+      <c r="B335" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C335" t="s">
+        <v>6</v>
+      </c>
+      <c r="D335" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E335">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A336" s="5">
+        <v>44866</v>
+      </c>
+      <c r="B336" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C336" t="s">
+        <v>5</v>
+      </c>
+      <c r="D336" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E336">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A337" s="5">
+        <v>44866</v>
+      </c>
+      <c r="B337" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C337" t="s">
+        <v>17</v>
+      </c>
+      <c r="D337" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E337">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A338" s="5">
+        <v>44866</v>
+      </c>
+      <c r="B338" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C338" t="s">
+        <v>222</v>
+      </c>
+      <c r="D338" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E338">
+        <v>-105</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A339" s="5">
+        <v>44867</v>
+      </c>
+      <c r="B339" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C339" t="s">
+        <v>230</v>
+      </c>
+      <c r="D339" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E339">
+        <v>-1576.76</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A340" s="5">
+        <v>44867</v>
+      </c>
+      <c r="B340" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C340" t="s">
+        <v>230</v>
+      </c>
+      <c r="D340" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E340">
+        <v>1576.76</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7818,7 +8281,7 @@
           <x14:formula1>
             <xm:f>OFFSET(Categories!$A$2,0,0,COUNTIF(Categories!$A$2:$A$99,"&lt;&gt;"))</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D314</xm:sqref>
+          <xm:sqref>D2:D340</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Expenses.xlsx
+++ b/Expenses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffgood/Desktop/R_Studio_Projects/Financial_Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4784A651-8667-7946-8988-F42EDC937BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F1761C-FC9B-3141-9712-E96E064344D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="1000" windowWidth="15380" windowHeight="15800" xr2:uid="{D9F47917-7B20-384C-878F-0D08681ABD47}"/>
+    <workbookView xWindow="20" yWindow="1000" windowWidth="15380" windowHeight="15800" xr2:uid="{D9F47917-7B20-384C-878F-0D08681ABD47}"/>
   </bookViews>
   <sheets>
     <sheet name="Transactions" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="241">
   <si>
     <t>Date</t>
   </si>
@@ -755,6 +755,18 @@
   </si>
   <si>
     <t>Midst Taco</t>
+  </si>
+  <si>
+    <t>USAA Property and Casualty Insurance</t>
+  </si>
+  <si>
+    <t>US REEBOK ONLINE STORE</t>
+  </si>
+  <si>
+    <t>Chick-fil-A</t>
+  </si>
+  <si>
+    <t>CVS</t>
   </si>
 </sst>
 </file>
@@ -2124,10 +2136,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}" name="Table1" displayName="Table1" ref="A1:E340" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E340" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E340">
-    <sortCondition ref="A1:A340"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}" name="Table1" displayName="Table1" ref="A1:E355" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E355" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E355">
+    <sortCondition ref="A1:A355"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{36D6B367-4586-164A-BAFD-F61BD8D7B0D8}" name="Date" dataDxfId="4"/>
@@ -2437,10 +2449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BEBEFE-BF8C-CE41-8907-E9633ACA1DDB}">
-  <dimension ref="A1:E340"/>
+  <dimension ref="A1:E355"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D341" sqref="D341"/>
+    <sheetView tabSelected="1" topLeftCell="A339" workbookViewId="0">
+      <selection activeCell="D356" sqref="D356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8268,6 +8280,261 @@
         <v>1576.76</v>
       </c>
     </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A341" s="5">
+        <v>44867</v>
+      </c>
+      <c r="B341" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C341" t="s">
+        <v>61</v>
+      </c>
+      <c r="D341" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E341" s="6">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A342" s="5">
+        <v>44867</v>
+      </c>
+      <c r="B342" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C342" t="s">
+        <v>17</v>
+      </c>
+      <c r="D342" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E342" s="6">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A343" s="5">
+        <v>44867</v>
+      </c>
+      <c r="B343" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C343" t="s">
+        <v>204</v>
+      </c>
+      <c r="D343" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E343">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A344" s="5">
+        <v>44867</v>
+      </c>
+      <c r="B344" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C344" t="s">
+        <v>180</v>
+      </c>
+      <c r="D344" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E344">
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A345" s="5">
+        <v>44867</v>
+      </c>
+      <c r="B345" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C345" t="s">
+        <v>239</v>
+      </c>
+      <c r="D345" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E345">
+        <v>-14.74</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A346" s="5">
+        <v>44867</v>
+      </c>
+      <c r="B346" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C346" t="s">
+        <v>194</v>
+      </c>
+      <c r="D346" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E346">
+        <v>-62.08</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A347" s="5">
+        <v>44867</v>
+      </c>
+      <c r="B347" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C347" t="s">
+        <v>240</v>
+      </c>
+      <c r="D347" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E347">
+        <v>-13.56</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A348" s="5">
+        <v>44868</v>
+      </c>
+      <c r="B348" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C348" t="s">
+        <v>237</v>
+      </c>
+      <c r="D348" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E348">
+        <v>-156.16</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A349" s="5">
+        <v>44868</v>
+      </c>
+      <c r="B349" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C349" t="s">
+        <v>208</v>
+      </c>
+      <c r="D349" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E349">
+        <v>6.88</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A350" s="5">
+        <v>44870</v>
+      </c>
+      <c r="B350" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C350" t="s">
+        <v>238</v>
+      </c>
+      <c r="D350" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E350">
+        <v>-60.5</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A351" s="5">
+        <v>44870</v>
+      </c>
+      <c r="B351" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C351" t="s">
+        <v>71</v>
+      </c>
+      <c r="D351" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E351">
+        <v>-26.8</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A352" s="5">
+        <v>44871</v>
+      </c>
+      <c r="B352" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C352" t="s">
+        <v>110</v>
+      </c>
+      <c r="D352" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E352">
+        <v>-24.29</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A353" s="5">
+        <v>44872</v>
+      </c>
+      <c r="B353" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C353" t="s">
+        <v>137</v>
+      </c>
+      <c r="D353" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E353">
+        <v>-37.1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A354" s="5">
+        <v>44872</v>
+      </c>
+      <c r="B354" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C354" t="s">
+        <v>223</v>
+      </c>
+      <c r="D354" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E354">
+        <v>-14.36</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A355" s="5">
+        <v>44872</v>
+      </c>
+      <c r="B355" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C355" t="s">
+        <v>223</v>
+      </c>
+      <c r="D355" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E355">
+        <v>-14.5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8281,7 +8548,7 @@
           <x14:formula1>
             <xm:f>OFFSET(Categories!$A$2,0,0,COUNTIF(Categories!$A$2:$A$99,"&lt;&gt;"))</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D340</xm:sqref>
+          <xm:sqref>D2:D355</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Expenses.xlsx
+++ b/Expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffgood/Desktop/R_Studio_Projects/Financial_Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F1761C-FC9B-3141-9712-E96E064344D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0C158D-598D-644A-B210-5D038AF14E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="1000" windowWidth="15380" windowHeight="15800" xr2:uid="{D9F47917-7B20-384C-878F-0D08681ABD47}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="248">
   <si>
     <t>Date</t>
   </si>
@@ -767,6 +767,27 @@
   </si>
   <si>
     <t>CVS</t>
+  </si>
+  <si>
+    <t>Jenny's Salon</t>
+  </si>
+  <si>
+    <t>THE HOME DEPOT #4120</t>
+  </si>
+  <si>
+    <t>Bel Sta Icr</t>
+  </si>
+  <si>
+    <t>Shirlington Big Buns</t>
+  </si>
+  <si>
+    <t>Harris Teeter</t>
+  </si>
+  <si>
+    <t>Main Store</t>
+  </si>
+  <si>
+    <t>Reebok</t>
   </si>
 </sst>
 </file>
@@ -2136,10 +2157,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}" name="Table1" displayName="Table1" ref="A1:E355" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E355" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E355">
-    <sortCondition ref="A1:A355"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}" name="Table1" displayName="Table1" ref="A1:E384" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E384" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E384">
+    <sortCondition ref="A1:A384"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{36D6B367-4586-164A-BAFD-F61BD8D7B0D8}" name="Date" dataDxfId="4"/>
@@ -2449,10 +2470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BEBEFE-BF8C-CE41-8907-E9633ACA1DDB}">
-  <dimension ref="A1:E355"/>
+  <dimension ref="A1:E384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A339" workbookViewId="0">
-      <selection activeCell="D356" sqref="D356"/>
+    <sheetView tabSelected="1" topLeftCell="A370" workbookViewId="0">
+      <selection activeCell="D374" sqref="D374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8535,6 +8556,499 @@
         <v>-14.5</v>
       </c>
     </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A356" s="5">
+        <v>44873</v>
+      </c>
+      <c r="B356" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C356" t="s">
+        <v>247</v>
+      </c>
+      <c r="D356" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E356">
+        <v>-60.5</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A357" s="5">
+        <v>44873</v>
+      </c>
+      <c r="B357" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C357" t="s">
+        <v>245</v>
+      </c>
+      <c r="D357" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E357">
+        <v>-50.65</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A358" s="5">
+        <v>44873</v>
+      </c>
+      <c r="B358" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C358" t="s">
+        <v>245</v>
+      </c>
+      <c r="D358" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E358">
+        <v>-6.14</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A359" s="5">
+        <v>44873</v>
+      </c>
+      <c r="B359" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C359" t="s">
+        <v>239</v>
+      </c>
+      <c r="D359" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E359">
+        <v>-15.6</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A360" s="5">
+        <v>44873</v>
+      </c>
+      <c r="B360" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C360" t="s">
+        <v>73</v>
+      </c>
+      <c r="D360" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E360">
+        <v>-105</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A361" s="5">
+        <v>44874</v>
+      </c>
+      <c r="B361" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C361" t="s">
+        <v>217</v>
+      </c>
+      <c r="D361" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E361">
+        <v>-3.25</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A362" s="5">
+        <v>44874</v>
+      </c>
+      <c r="B362" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C362" t="s">
+        <v>244</v>
+      </c>
+      <c r="D362" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E362">
+        <v>-20.97</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A363" s="5">
+        <v>44874</v>
+      </c>
+      <c r="B363" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C363" t="s">
+        <v>245</v>
+      </c>
+      <c r="D363" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E363">
+        <v>-12.22</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A364" s="5">
+        <v>44874</v>
+      </c>
+      <c r="B364" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C364" t="s">
+        <v>246</v>
+      </c>
+      <c r="D364" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E364">
+        <v>-26.99</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A365" s="5">
+        <v>44874</v>
+      </c>
+      <c r="B365" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C365" t="s">
+        <v>194</v>
+      </c>
+      <c r="D365" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E365">
+        <v>-58.58</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A366" s="5">
+        <v>44875</v>
+      </c>
+      <c r="B366" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C366" t="s">
+        <v>182</v>
+      </c>
+      <c r="D366" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E366">
+        <v>-2.99</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A367" s="5">
+        <v>44875</v>
+      </c>
+      <c r="B367" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C367" t="s">
+        <v>214</v>
+      </c>
+      <c r="D367" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E367">
+        <v>-23.1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A368" s="5">
+        <v>44875</v>
+      </c>
+      <c r="B368" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C368" t="s">
+        <v>243</v>
+      </c>
+      <c r="D368" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E368">
+        <v>-41.37</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A369" s="5">
+        <v>44875</v>
+      </c>
+      <c r="B369" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C369" t="s">
+        <v>239</v>
+      </c>
+      <c r="D369" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E369">
+        <v>-16.579999999999998</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A370" s="5">
+        <v>44876</v>
+      </c>
+      <c r="B370" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C370" t="s">
+        <v>192</v>
+      </c>
+      <c r="D370" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E370">
+        <v>-129.93</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A371" s="5">
+        <v>44876</v>
+      </c>
+      <c r="B371" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C371" t="s">
+        <v>226</v>
+      </c>
+      <c r="D371" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E371">
+        <v>-22.45</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A372" s="5">
+        <v>44878</v>
+      </c>
+      <c r="B372" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C372" t="s">
+        <v>242</v>
+      </c>
+      <c r="D372" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E372">
+        <v>-38.07</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A373" s="5">
+        <v>44878</v>
+      </c>
+      <c r="B373" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C373" t="s">
+        <v>242</v>
+      </c>
+      <c r="D373" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E373">
+        <v>-52.99</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A374" s="5">
+        <v>44878</v>
+      </c>
+      <c r="B374" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C374" t="s">
+        <v>146</v>
+      </c>
+      <c r="D374" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E374">
+        <v>-36.020000000000003</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A375" s="5">
+        <v>44878</v>
+      </c>
+      <c r="B375" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C375" t="s">
+        <v>127</v>
+      </c>
+      <c r="D375" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E375">
+        <v>-64.38</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A376" s="5">
+        <v>44879</v>
+      </c>
+      <c r="B376" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C376" t="s">
+        <v>137</v>
+      </c>
+      <c r="D376" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E376" s="6">
+        <v>-5.86</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A377" s="5">
+        <v>44879</v>
+      </c>
+      <c r="B377" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C377" t="s">
+        <v>137</v>
+      </c>
+      <c r="D377" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E377" s="6">
+        <v>-106.4</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A378" s="5">
+        <v>44879</v>
+      </c>
+      <c r="B378" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C378" t="s">
+        <v>137</v>
+      </c>
+      <c r="D378" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E378" s="6">
+        <v>-27.99</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A379" s="5">
+        <v>44879</v>
+      </c>
+      <c r="B379" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C379" t="s">
+        <v>137</v>
+      </c>
+      <c r="D379" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E379">
+        <v>-10.49</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A380" s="5">
+        <v>44879</v>
+      </c>
+      <c r="B380" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C380" t="s">
+        <v>92</v>
+      </c>
+      <c r="D380" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E380">
+        <v>2953.42</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A381" s="5">
+        <v>44879</v>
+      </c>
+      <c r="B381" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C381" t="s">
+        <v>241</v>
+      </c>
+      <c r="D381" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E381">
+        <v>-64</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A382" s="5">
+        <v>44880</v>
+      </c>
+      <c r="B382" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C382" t="s">
+        <v>6</v>
+      </c>
+      <c r="D382" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E382">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A383" s="5">
+        <v>44880</v>
+      </c>
+      <c r="B383" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C383" t="s">
+        <v>6</v>
+      </c>
+      <c r="D383" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E383">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A384" s="5">
+        <v>44880</v>
+      </c>
+      <c r="B384" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C384" t="s">
+        <v>17</v>
+      </c>
+      <c r="D384" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E384" s="6">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8548,7 +9062,7 @@
           <x14:formula1>
             <xm:f>OFFSET(Categories!$A$2,0,0,COUNTIF(Categories!$A$2:$A$99,"&lt;&gt;"))</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D355</xm:sqref>
+          <xm:sqref>D2:D384</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Expenses.xlsx
+++ b/Expenses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffgood/Desktop/R_Studio_Projects/Financial_Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0C158D-598D-644A-B210-5D038AF14E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAFDB17-3D60-0145-8060-6AA11DFAAC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="1000" windowWidth="15380" windowHeight="15800" xr2:uid="{D9F47917-7B20-384C-878F-0D08681ABD47}"/>
+    <workbookView xWindow="20" yWindow="1000" windowWidth="15420" windowHeight="15800" xr2:uid="{D9F47917-7B20-384C-878F-0D08681ABD47}"/>
   </bookViews>
   <sheets>
     <sheet name="Transactions" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="256">
   <si>
     <t>Date</t>
   </si>
@@ -788,6 +788,30 @@
   </si>
   <si>
     <t>Reebok</t>
+  </si>
+  <si>
+    <t>Federal Payment</t>
+  </si>
+  <si>
+    <t>IN *D &amp; M HANES INC.     419-4255550  OH</t>
+  </si>
+  <si>
+    <t>Chipotle</t>
+  </si>
+  <si>
+    <t>Etsy</t>
+  </si>
+  <si>
+    <t>Performasleep</t>
+  </si>
+  <si>
+    <t>Informs.org</t>
+  </si>
+  <si>
+    <t>Ohio Military</t>
+  </si>
+  <si>
+    <t>Lowe's</t>
   </si>
 </sst>
 </file>
@@ -2157,10 +2181,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}" name="Table1" displayName="Table1" ref="A1:E384" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E384" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E384">
-    <sortCondition ref="A1:A384"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}" name="Table1" displayName="Table1" ref="A1:E415" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E415" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E415">
+    <sortCondition ref="A1:A415"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{36D6B367-4586-164A-BAFD-F61BD8D7B0D8}" name="Date" dataDxfId="4"/>
@@ -2470,10 +2494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BEBEFE-BF8C-CE41-8907-E9633ACA1DDB}">
-  <dimension ref="A1:E384"/>
+  <dimension ref="A1:E415"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A370" workbookViewId="0">
-      <selection activeCell="D374" sqref="D374"/>
+    <sheetView tabSelected="1" topLeftCell="A408" workbookViewId="0">
+      <selection activeCell="D408" sqref="D408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9049,6 +9073,533 @@
         <v>300</v>
       </c>
     </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A385" s="5">
+        <v>44880</v>
+      </c>
+      <c r="B385" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C385" t="s">
+        <v>255</v>
+      </c>
+      <c r="D385" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E385">
+        <v>-80.33</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A386" s="5">
+        <v>44880</v>
+      </c>
+      <c r="B386" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C386" t="s">
+        <v>73</v>
+      </c>
+      <c r="D386" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E386">
+        <v>-105</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A387" s="5">
+        <v>44880</v>
+      </c>
+      <c r="B387" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C387" t="s">
+        <v>198</v>
+      </c>
+      <c r="D387" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E387">
+        <v>-19.7</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A388" s="5">
+        <v>44881</v>
+      </c>
+      <c r="B388" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C388" t="s">
+        <v>202</v>
+      </c>
+      <c r="D388" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E388">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A389" s="5">
+        <v>44881</v>
+      </c>
+      <c r="B389" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C389" t="s">
+        <v>248</v>
+      </c>
+      <c r="D389" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E389">
+        <v>347.5</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A390" s="5">
+        <v>44881</v>
+      </c>
+      <c r="B390" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C390" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D390" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E390" s="6">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A391" s="5">
+        <v>44881</v>
+      </c>
+      <c r="B391" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C391" t="s">
+        <v>254</v>
+      </c>
+      <c r="D391" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E391">
+        <v>-26.25</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A392" s="5">
+        <v>44881</v>
+      </c>
+      <c r="B392" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C392" t="s">
+        <v>187</v>
+      </c>
+      <c r="D392" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E392">
+        <v>376.29</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A393" s="5">
+        <v>44882</v>
+      </c>
+      <c r="B393" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C393" t="s">
+        <v>253</v>
+      </c>
+      <c r="D393" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E393">
+        <v>-160</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A394" s="5">
+        <v>44884</v>
+      </c>
+      <c r="B394" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C394" t="s">
+        <v>207</v>
+      </c>
+      <c r="D394" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E394">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A395" s="5">
+        <v>44884</v>
+      </c>
+      <c r="B395" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C395" t="s">
+        <v>185</v>
+      </c>
+      <c r="D395" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E395">
+        <v>-75.48</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A396" s="5">
+        <v>44884</v>
+      </c>
+      <c r="B396" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C396" t="s">
+        <v>185</v>
+      </c>
+      <c r="D396" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E396" s="6">
+        <v>-134.57</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A397" s="5">
+        <v>44884</v>
+      </c>
+      <c r="B397" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C397" t="s">
+        <v>185</v>
+      </c>
+      <c r="D397" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E397" s="6">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A398" s="5">
+        <v>44884</v>
+      </c>
+      <c r="B398" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C398" t="s">
+        <v>185</v>
+      </c>
+      <c r="D398" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E398" s="6">
+        <v>-82.96</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A399" s="5">
+        <v>44884</v>
+      </c>
+      <c r="B399" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C399" t="s">
+        <v>185</v>
+      </c>
+      <c r="D399" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E399" s="6">
+        <v>-53.98</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A400" s="5">
+        <v>44884</v>
+      </c>
+      <c r="B400" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C400" t="s">
+        <v>185</v>
+      </c>
+      <c r="D400" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E400" s="6">
+        <v>-18.989999999999998</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A401" s="5">
+        <v>44884</v>
+      </c>
+      <c r="B401" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C401" t="s">
+        <v>185</v>
+      </c>
+      <c r="D401" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E401" s="6">
+        <v>-48.07</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A402" s="5">
+        <v>44884</v>
+      </c>
+      <c r="B402" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C402" t="s">
+        <v>185</v>
+      </c>
+      <c r="D402" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E402" s="6">
+        <v>-9.99</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A403" s="5">
+        <v>44884</v>
+      </c>
+      <c r="B403" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C403" t="s">
+        <v>251</v>
+      </c>
+      <c r="D403" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E403">
+        <v>-87.21</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A404" s="5">
+        <v>44884</v>
+      </c>
+      <c r="B404" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C404" t="s">
+        <v>252</v>
+      </c>
+      <c r="D404" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E404">
+        <v>-79.5</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A405" s="5">
+        <v>44885</v>
+      </c>
+      <c r="B405" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C405" t="s">
+        <v>249</v>
+      </c>
+      <c r="D405" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E405">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A406" s="5">
+        <v>44885</v>
+      </c>
+      <c r="B406" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C406" t="s">
+        <v>129</v>
+      </c>
+      <c r="D406" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E406">
+        <v>-184.05</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A407" s="5">
+        <v>44885</v>
+      </c>
+      <c r="B407" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C407" t="s">
+        <v>127</v>
+      </c>
+      <c r="D407" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E407">
+        <v>-27.45</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A408" s="5">
+        <v>44885</v>
+      </c>
+      <c r="B408" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C408" t="s">
+        <v>127</v>
+      </c>
+      <c r="D408" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E408">
+        <v>-61.99</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A409" s="5">
+        <v>44885</v>
+      </c>
+      <c r="B409" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C409" t="s">
+        <v>228</v>
+      </c>
+      <c r="D409" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E409">
+        <v>-39.99</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A410" s="5">
+        <v>44885</v>
+      </c>
+      <c r="B410" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C410" t="s">
+        <v>250</v>
+      </c>
+      <c r="D410" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E410">
+        <v>-29.63</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A411" s="5">
+        <v>44886</v>
+      </c>
+      <c r="B411" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C411" t="s">
+        <v>137</v>
+      </c>
+      <c r="D411" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E411">
+        <v>-11.99</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A412" s="5">
+        <v>44886</v>
+      </c>
+      <c r="B412" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C412" t="s">
+        <v>137</v>
+      </c>
+      <c r="D412" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E412" s="6">
+        <v>-24.24</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A413" s="5">
+        <v>44886</v>
+      </c>
+      <c r="B413" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C413" t="s">
+        <v>137</v>
+      </c>
+      <c r="D413" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E413" s="6">
+        <v>-94.13</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A414" s="5">
+        <v>44886</v>
+      </c>
+      <c r="B414" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C414" t="s">
+        <v>137</v>
+      </c>
+      <c r="D414" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E414" s="6">
+        <v>-25.99</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A415" s="5">
+        <v>44886</v>
+      </c>
+      <c r="B415" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C415" t="s">
+        <v>57</v>
+      </c>
+      <c r="D415" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E415">
+        <v>-1218</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9062,7 +9613,7 @@
           <x14:formula1>
             <xm:f>OFFSET(Categories!$A$2,0,0,COUNTIF(Categories!$A$2:$A$99,"&lt;&gt;"))</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D384</xm:sqref>
+          <xm:sqref>D2:D415</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Expenses.xlsx
+++ b/Expenses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffgood/Desktop/R_Studio_Projects/Financial_Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAFDB17-3D60-0145-8060-6AA11DFAAC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C86E5AF-DFC6-A343-BFCC-9FE6F71D6276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="1000" windowWidth="15420" windowHeight="15800" xr2:uid="{D9F47917-7B20-384C-878F-0D08681ABD47}"/>
+    <workbookView xWindow="40" yWindow="980" windowWidth="15420" windowHeight="15800" xr2:uid="{D9F47917-7B20-384C-878F-0D08681ABD47}"/>
   </bookViews>
   <sheets>
     <sheet name="Transactions" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="264">
   <si>
     <t>Date</t>
   </si>
@@ -812,6 +812,30 @@
   </si>
   <si>
     <t>Lowe's</t>
+  </si>
+  <si>
+    <t>HLU*Hulu 844928219984-U</t>
+  </si>
+  <si>
+    <t>PLAZA AZTECA MECHANICSBUR</t>
+  </si>
+  <si>
+    <t>LOWE'S #2223</t>
+  </si>
+  <si>
+    <t>DearFoams B2C</t>
+  </si>
+  <si>
+    <t>ULTA #246                MECHANICSBURGPA</t>
+  </si>
+  <si>
+    <t>AT&amp;T</t>
+  </si>
+  <si>
+    <t>Giant Food</t>
+  </si>
+  <si>
+    <t>Duck Donuts</t>
   </si>
 </sst>
 </file>
@@ -2062,7 +2086,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1870C13B-AC88-4747-AFC0-996355F07F2B}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1870C13B-AC88-4747-AFC0-996355F07F2B}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B3:E7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
@@ -2181,10 +2205,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}" name="Table1" displayName="Table1" ref="A1:E415" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E415" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E415">
-    <sortCondition ref="A1:A415"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}" name="Table1" displayName="Table1" ref="A1:E435" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E435" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E435">
+    <sortCondition ref="A1:A435"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{36D6B367-4586-164A-BAFD-F61BD8D7B0D8}" name="Date" dataDxfId="4"/>
@@ -2494,10 +2518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BEBEFE-BF8C-CE41-8907-E9633ACA1DDB}">
-  <dimension ref="A1:E415"/>
+  <dimension ref="A1:E435"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="D408" sqref="D408"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D436" sqref="D436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9600,6 +9624,346 @@
         <v>-1218</v>
       </c>
     </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A416" s="5">
+        <v>44887</v>
+      </c>
+      <c r="B416" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C416" t="s">
+        <v>263</v>
+      </c>
+      <c r="D416" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E416">
+        <v>-9.56</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A417" s="5">
+        <v>44887</v>
+      </c>
+      <c r="B417" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C417" t="s">
+        <v>239</v>
+      </c>
+      <c r="D417" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E417">
+        <v>-27.76</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A418" s="5">
+        <v>44887</v>
+      </c>
+      <c r="B418" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C418" t="s">
+        <v>192</v>
+      </c>
+      <c r="D418" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E418">
+        <v>-68.849999999999994</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A419" s="5">
+        <v>44887</v>
+      </c>
+      <c r="B419" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C419" t="s">
+        <v>194</v>
+      </c>
+      <c r="D419" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E419">
+        <v>-56.99</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A420" s="5">
+        <v>44888</v>
+      </c>
+      <c r="B420" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C420" t="s">
+        <v>262</v>
+      </c>
+      <c r="D420" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E420">
+        <v>-79.739999999999995</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A421" s="5">
+        <v>44888</v>
+      </c>
+      <c r="B421" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C421" t="s">
+        <v>73</v>
+      </c>
+      <c r="D421" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E421">
+        <v>-105</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A422" s="5">
+        <v>44888</v>
+      </c>
+      <c r="B422" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C422" t="s">
+        <v>198</v>
+      </c>
+      <c r="D422" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E422">
+        <v>-36.96</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A423" s="5">
+        <v>44889</v>
+      </c>
+      <c r="B423" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C423" t="s">
+        <v>261</v>
+      </c>
+      <c r="D423" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E423">
+        <v>-145.46</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A424" s="5">
+        <v>44890</v>
+      </c>
+      <c r="B424" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C424" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D424" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E424" s="6">
+        <v>-47.5</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A425" s="5">
+        <v>44890</v>
+      </c>
+      <c r="B425" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C425" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D425" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E425" s="6">
+        <v>-15.48</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A426" s="5">
+        <v>44890</v>
+      </c>
+      <c r="B426" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C426" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D426" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E426" s="6">
+        <v>-17.86</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A427" s="5">
+        <v>44890</v>
+      </c>
+      <c r="B427" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C427" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D427" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E427" s="6">
+        <v>-28.49</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A428" s="5">
+        <v>44890</v>
+      </c>
+      <c r="B428" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C428" t="s">
+        <v>259</v>
+      </c>
+      <c r="D428" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E428">
+        <v>-27.2</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A429" s="5">
+        <v>44890</v>
+      </c>
+      <c r="B429" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C429" t="s">
+        <v>260</v>
+      </c>
+      <c r="D429" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E429">
+        <v>-21.3</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A430" s="5">
+        <v>44890</v>
+      </c>
+      <c r="B430" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C430" t="s">
+        <v>129</v>
+      </c>
+      <c r="D430" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E430">
+        <v>-19.7</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A431" s="5">
+        <v>44890</v>
+      </c>
+      <c r="B431" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C431" t="s">
+        <v>127</v>
+      </c>
+      <c r="D431" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E431">
+        <v>-66.709999999999994</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A432" s="5">
+        <v>44891</v>
+      </c>
+      <c r="B432" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C432" t="s">
+        <v>257</v>
+      </c>
+      <c r="D432" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E432">
+        <v>-56.92</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A433" s="5">
+        <v>44891</v>
+      </c>
+      <c r="B433" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C433" t="s">
+        <v>258</v>
+      </c>
+      <c r="D433" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E433">
+        <v>-85.26</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A434" s="5">
+        <v>44892</v>
+      </c>
+      <c r="B434" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C434" t="s">
+        <v>205</v>
+      </c>
+      <c r="D434" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E434">
+        <v>-64</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A435" s="5">
+        <v>44893</v>
+      </c>
+      <c r="B435" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C435" t="s">
+        <v>256</v>
+      </c>
+      <c r="D435" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E435">
+        <v>-15.04</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9613,7 +9977,7 @@
           <x14:formula1>
             <xm:f>OFFSET(Categories!$A$2,0,0,COUNTIF(Categories!$A$2:$A$99,"&lt;&gt;"))</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D415</xm:sqref>
+          <xm:sqref>D2:D435</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Expenses.xlsx
+++ b/Expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffgood/Desktop/R_Studio_Projects/Financial_Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C86E5AF-DFC6-A343-BFCC-9FE6F71D6276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA46621-A19F-5947-B59E-3226C98953E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="980" windowWidth="15420" windowHeight="15800" xr2:uid="{D9F47917-7B20-384C-878F-0D08681ABD47}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="296">
   <si>
     <t>Date</t>
   </si>
@@ -836,6 +836,102 @@
   </si>
   <si>
     <t>Duck Donuts</t>
+  </si>
+  <si>
+    <t>Spring Health Receivable</t>
+  </si>
+  <si>
+    <t>Zelle Transfer from Allison Smeresky</t>
+  </si>
+  <si>
+    <t>Elaina_Pay</t>
+  </si>
+  <si>
+    <t>WEGMANS #45</t>
+  </si>
+  <si>
+    <t>BOMBAS LLC</t>
+  </si>
+  <si>
+    <t>HOBBY-LOBBY #823</t>
+  </si>
+  <si>
+    <t>OXO*INTERNATIONAL</t>
+  </si>
+  <si>
+    <t>Kindle Svcs</t>
+  </si>
+  <si>
+    <t>NAVY EXCHANGE 110282</t>
+  </si>
+  <si>
+    <t>Kindle Svcs*CT5FN6Z23    888-802-3080 WA</t>
+  </si>
+  <si>
+    <t>Kindle Svcs*1E5WI5U03    888-802-3080 WA</t>
+  </si>
+  <si>
+    <t>Kindle Svcs*PU2KP7513    888-802-3080 WA</t>
+  </si>
+  <si>
+    <t>Kindle Svcs*0D0XL03H3    888-802-3080 WA</t>
+  </si>
+  <si>
+    <t>Kindle Svcs*RX6YI8T23    888-802-3080 WA</t>
+  </si>
+  <si>
+    <t>DOLLAR TREE              MECHANICSBURGPA</t>
+  </si>
+  <si>
+    <t>IHERB IHERB.COM bA04l    IHERB.COM    CA</t>
+  </si>
+  <si>
+    <t>STARBUCKS 800-782-7282   800-782-7282 WA</t>
+  </si>
+  <si>
+    <t>ONTARIO AIRPORT          ONTARIO      CA</t>
+  </si>
+  <si>
+    <t>INK ST 1876              ONTARIO      CA</t>
+  </si>
+  <si>
+    <t>MCDONALD'S F17274        CHICAGO      IL</t>
+  </si>
+  <si>
+    <t>Koyla Indian Restaurant</t>
+  </si>
+  <si>
+    <t>COFFEE BEAN STORE # 119  RANCHO CUCAMOCA</t>
+  </si>
+  <si>
+    <t>Serranos Coronado</t>
+  </si>
+  <si>
+    <t>Panda Express</t>
+  </si>
+  <si>
+    <t>Sunoco</t>
+  </si>
+  <si>
+    <t>Plaza Azteca Mechanicsbur</t>
+  </si>
+  <si>
+    <t>MyEyeDr.</t>
+  </si>
+  <si>
+    <t>Miguels Cocina Coronado</t>
+  </si>
+  <si>
+    <t>Dunkin'</t>
+  </si>
+  <si>
+    <t>Burger Lounge Coronado</t>
+  </si>
+  <si>
+    <t>The Vitamin Shoppe</t>
+  </si>
+  <si>
+    <t>North Island Nas Comm</t>
   </si>
 </sst>
 </file>
@@ -2086,7 +2182,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1870C13B-AC88-4747-AFC0-996355F07F2B}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1870C13B-AC88-4747-AFC0-996355F07F2B}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B3:E7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
@@ -2205,10 +2301,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}" name="Table1" displayName="Table1" ref="A1:E435" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E435" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E435">
-    <sortCondition ref="A1:A435"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}" name="Table1" displayName="Table1" ref="A1:E488" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E488" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E488">
+    <sortCondition ref="A1:A488"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{36D6B367-4586-164A-BAFD-F61BD8D7B0D8}" name="Date" dataDxfId="4"/>
@@ -2518,10 +2614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BEBEFE-BF8C-CE41-8907-E9633ACA1DDB}">
-  <dimension ref="A1:E435"/>
+  <dimension ref="A1:E488"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D436" sqref="D436"/>
+      <selection activeCell="D444" sqref="D444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9964,6 +10060,907 @@
         <v>-15.04</v>
       </c>
     </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A436" s="5">
+        <v>44893</v>
+      </c>
+      <c r="B436" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C436" t="s">
+        <v>292</v>
+      </c>
+      <c r="D436" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E436">
+        <v>-8.25</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A437" s="5">
+        <v>44893</v>
+      </c>
+      <c r="B437" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C437" t="s">
+        <v>292</v>
+      </c>
+      <c r="D437" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E437">
+        <v>-11.53</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A438" s="5">
+        <v>44893</v>
+      </c>
+      <c r="B438" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C438" t="s">
+        <v>234</v>
+      </c>
+      <c r="D438" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E438">
+        <v>-15.04</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A439" s="5">
+        <v>44893</v>
+      </c>
+      <c r="B439" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C439" t="s">
+        <v>293</v>
+      </c>
+      <c r="D439" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E439">
+        <v>-18.88</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A440" s="5">
+        <v>44893</v>
+      </c>
+      <c r="B440" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C440" t="s">
+        <v>294</v>
+      </c>
+      <c r="D440" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E440">
+        <v>-37.49</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A441" s="5">
+        <v>44893</v>
+      </c>
+      <c r="B441" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C441" t="s">
+        <v>182</v>
+      </c>
+      <c r="D441" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E441">
+        <v>-64</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A442" s="5">
+        <v>44893</v>
+      </c>
+      <c r="B442" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C442" t="s">
+        <v>295</v>
+      </c>
+      <c r="D442" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E442">
+        <v>-12.48</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A443" s="5">
+        <v>44894</v>
+      </c>
+      <c r="B443" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C443" t="s">
+        <v>204</v>
+      </c>
+      <c r="D443" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E443">
+        <v>-27.03</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A444" s="5">
+        <v>44894</v>
+      </c>
+      <c r="B444" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C444" t="s">
+        <v>204</v>
+      </c>
+      <c r="D444" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E444" s="6">
+        <v>-13.99</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A445" s="5">
+        <v>44894</v>
+      </c>
+      <c r="B445" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C445" t="s">
+        <v>204</v>
+      </c>
+      <c r="D445" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E445" s="6">
+        <v>-99.5</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A446" s="5">
+        <v>44894</v>
+      </c>
+      <c r="B446" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C446" t="s">
+        <v>204</v>
+      </c>
+      <c r="D446" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E446" s="6">
+        <v>-26.78</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A447" s="5">
+        <v>44894</v>
+      </c>
+      <c r="B447" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C447" t="s">
+        <v>207</v>
+      </c>
+      <c r="D447" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E447">
+        <v>-1733.86</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A448" s="5">
+        <v>44894</v>
+      </c>
+      <c r="B448" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C448" t="s">
+        <v>264</v>
+      </c>
+      <c r="D448" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="E448">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A449" s="5">
+        <v>44894</v>
+      </c>
+      <c r="B449" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C449" t="s">
+        <v>265</v>
+      </c>
+      <c r="D449" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E449">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A450" s="5">
+        <v>44894</v>
+      </c>
+      <c r="B450" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C450" t="s">
+        <v>207</v>
+      </c>
+      <c r="D450" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E450">
+        <v>1733.86</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A451" s="5">
+        <v>44894</v>
+      </c>
+      <c r="B451" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C451" t="s">
+        <v>182</v>
+      </c>
+      <c r="D451" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E451">
+        <v>-9.99</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A452" s="5">
+        <v>44894</v>
+      </c>
+      <c r="B452" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C452" t="s">
+        <v>290</v>
+      </c>
+      <c r="D452" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E452">
+        <v>-124</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A453" s="5">
+        <v>44894</v>
+      </c>
+      <c r="B453" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C453" t="s">
+        <v>213</v>
+      </c>
+      <c r="D453" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E453">
+        <v>-8.5399999999999991</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A454" s="5">
+        <v>44894</v>
+      </c>
+      <c r="B454" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C454" t="s">
+        <v>73</v>
+      </c>
+      <c r="D454" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E454">
+        <v>-105</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A455" s="5">
+        <v>44894</v>
+      </c>
+      <c r="B455" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C455" t="s">
+        <v>291</v>
+      </c>
+      <c r="D455" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E455">
+        <v>-27.71</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A456" s="5">
+        <v>44895</v>
+      </c>
+      <c r="B456" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C456" t="s">
+        <v>203</v>
+      </c>
+      <c r="D456" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E456">
+        <v>2952.87</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A457" s="5">
+        <v>44895</v>
+      </c>
+      <c r="B457" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C457" t="s">
+        <v>202</v>
+      </c>
+      <c r="D457" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E457">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A458" s="5">
+        <v>44895</v>
+      </c>
+      <c r="B458" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C458" t="s">
+        <v>272</v>
+      </c>
+      <c r="D458" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E458">
+        <v>-2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A459" s="5">
+        <v>44895</v>
+      </c>
+      <c r="B459" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C459" t="s">
+        <v>286</v>
+      </c>
+      <c r="D459" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E459">
+        <v>-27.75</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A460" s="5">
+        <v>44895</v>
+      </c>
+      <c r="B460" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C460" t="s">
+        <v>287</v>
+      </c>
+      <c r="D460" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E460">
+        <v>-12.71</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A461" s="5">
+        <v>44895</v>
+      </c>
+      <c r="B461" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C461" t="s">
+        <v>288</v>
+      </c>
+      <c r="D461" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E461">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A462" s="5">
+        <v>44895</v>
+      </c>
+      <c r="B462" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C462" t="s">
+        <v>289</v>
+      </c>
+      <c r="D462" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E462">
+        <v>-21.36</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A463" s="5">
+        <v>44896</v>
+      </c>
+      <c r="B463" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C463" t="s">
+        <v>204</v>
+      </c>
+      <c r="D463" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E463">
+        <v>-22.79</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A464" s="5">
+        <v>44896</v>
+      </c>
+      <c r="B464" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C464" t="s">
+        <v>180</v>
+      </c>
+      <c r="D464" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E464">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A465" s="5">
+        <v>44896</v>
+      </c>
+      <c r="B465" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C465" t="s">
+        <v>180</v>
+      </c>
+      <c r="D465" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E465">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A466" s="5">
+        <v>44896</v>
+      </c>
+      <c r="B466" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C466" t="s">
+        <v>180</v>
+      </c>
+      <c r="D466" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E466">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A467" s="5">
+        <v>44896</v>
+      </c>
+      <c r="B467" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C467" t="s">
+        <v>284</v>
+      </c>
+      <c r="D467" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E467">
+        <v>-26.2</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A468" s="5">
+        <v>44896</v>
+      </c>
+      <c r="B468" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C468" t="s">
+        <v>285</v>
+      </c>
+      <c r="D468" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E468">
+        <v>-5.15</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A469" s="5">
+        <v>44897</v>
+      </c>
+      <c r="B469" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C469" t="s">
+        <v>199</v>
+      </c>
+      <c r="D469" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E469">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A470" s="5">
+        <v>44897</v>
+      </c>
+      <c r="B470" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C470" t="s">
+        <v>280</v>
+      </c>
+      <c r="D470" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E470">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A471" s="5">
+        <v>44897</v>
+      </c>
+      <c r="B471" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C471" t="s">
+        <v>281</v>
+      </c>
+      <c r="D471" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E471">
+        <v>-11.63</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A472" s="5">
+        <v>44897</v>
+      </c>
+      <c r="B472" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C472" t="s">
+        <v>282</v>
+      </c>
+      <c r="D472" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E472">
+        <v>-12.41</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A473" s="5">
+        <v>44897</v>
+      </c>
+      <c r="B473" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C473" t="s">
+        <v>283</v>
+      </c>
+      <c r="D473" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E473">
+        <v>-12.82</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A474" s="5">
+        <v>44898</v>
+      </c>
+      <c r="B474" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C474" t="s">
+        <v>269</v>
+      </c>
+      <c r="D474" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E474">
+        <v>-66.92</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A475" s="5">
+        <v>44898</v>
+      </c>
+      <c r="B475" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C475" t="s">
+        <v>270</v>
+      </c>
+      <c r="D475" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E475">
+        <v>-28.59</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A476" s="5">
+        <v>44898</v>
+      </c>
+      <c r="B476" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C476" t="s">
+        <v>271</v>
+      </c>
+      <c r="D476" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E476">
+        <v>-10.59</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A477" s="5">
+        <v>44898</v>
+      </c>
+      <c r="B477" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C477" t="s">
+        <v>273</v>
+      </c>
+      <c r="D477" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E477">
+        <v>-10.59</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A478" s="5">
+        <v>44898</v>
+      </c>
+      <c r="B478" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C478" t="s">
+        <v>274</v>
+      </c>
+      <c r="D478" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E478">
+        <v>-15.89</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A479" s="5">
+        <v>44898</v>
+      </c>
+      <c r="B479" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C479" t="s">
+        <v>275</v>
+      </c>
+      <c r="D479" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E479">
+        <v>-15.89</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A480" s="5">
+        <v>44898</v>
+      </c>
+      <c r="B480" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C480" t="s">
+        <v>276</v>
+      </c>
+      <c r="D480" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E480">
+        <v>-10.59</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A481" s="5">
+        <v>44898</v>
+      </c>
+      <c r="B481" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C481" t="s">
+        <v>277</v>
+      </c>
+      <c r="D481" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E481">
+        <v>-15.89</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A482" s="5">
+        <v>44898</v>
+      </c>
+      <c r="B482" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C482" t="s">
+        <v>278</v>
+      </c>
+      <c r="D482" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E482">
+        <v>-66.709999999999994</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A483" s="5">
+        <v>44898</v>
+      </c>
+      <c r="B483" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C483" t="s">
+        <v>151</v>
+      </c>
+      <c r="D483" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E483">
+        <v>-21.68</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A484" s="5">
+        <v>44898</v>
+      </c>
+      <c r="B484" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C484" t="s">
+        <v>279</v>
+      </c>
+      <c r="D484" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E484">
+        <v>-12.47</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A485" s="5">
+        <v>44898</v>
+      </c>
+      <c r="B485" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C485" t="s">
+        <v>279</v>
+      </c>
+      <c r="D485" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E485">
+        <v>-59.81</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A486" s="5">
+        <v>44899</v>
+      </c>
+      <c r="B486" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C486" t="s">
+        <v>34</v>
+      </c>
+      <c r="D486" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E486">
+        <v>-11.65</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A487" s="5">
+        <v>44899</v>
+      </c>
+      <c r="B487" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C487" t="s">
+        <v>267</v>
+      </c>
+      <c r="D487" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E487">
+        <v>-34.08</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A488" s="5">
+        <v>44899</v>
+      </c>
+      <c r="B488" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C488" t="s">
+        <v>268</v>
+      </c>
+      <c r="D488" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E488">
+        <v>-146.88</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9977,7 +10974,7 @@
           <x14:formula1>
             <xm:f>OFFSET(Categories!$A$2,0,0,COUNTIF(Categories!$A$2:$A$99,"&lt;&gt;"))</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D435</xm:sqref>
+          <xm:sqref>D2:D488</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9987,10 +10984,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A85DC7-AAE6-0D45-BE57-A2D20F484BD4}">
-  <dimension ref="A1:A38"/>
+  <dimension ref="A1:A39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10055,143 +11052,148 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>128</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>144</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>111</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>143</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>229</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>121</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:A9" xr:uid="{92A85DC7-AAE6-0D45-BE57-A2D20F484BD4}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A38">
-      <sortCondition ref="A1:A38"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A39">
+      <sortCondition ref="A1:A39"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Expenses.xlsx
+++ b/Expenses.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffgood/Desktop/R_Studio_Projects/Financial_Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C84C081-E157-A24B-BF32-90F68479C353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8412640B-EA13-2C40-A6CE-09384A70A5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="980" windowWidth="14380" windowHeight="15800" xr2:uid="{D9F47917-7B20-384C-878F-0D08681ABD47}"/>
+    <workbookView xWindow="40" yWindow="980" windowWidth="15420" windowHeight="15800" xr2:uid="{D9F47917-7B20-384C-878F-0D08681ABD47}"/>
   </bookViews>
   <sheets>
     <sheet name="Transactions" sheetId="1" r:id="rId1"/>
-    <sheet name="Categories" sheetId="2" r:id="rId2"/>
-    <sheet name="Pivots" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="Categories" sheetId="2" r:id="rId3"/>
+    <sheet name="Pivots" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Categories!$A$1:$A$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Categories!$A$1:$A$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Transactions!$A$1:$E$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="296">
   <si>
     <t>Date</t>
   </si>
@@ -908,6 +909,30 @@
   </si>
   <si>
     <t>Itt Office Nsa</t>
+  </si>
+  <si>
+    <t>COMCAST THREERIVERS,PA   800-COMCAST  PA</t>
+  </si>
+  <si>
+    <t>SQ *SAGE INTEGRATIVE MEDIMechanicsburgPA</t>
+  </si>
+  <si>
+    <t>Discountmags.com</t>
+  </si>
+  <si>
+    <t>Kohl's</t>
+  </si>
+  <si>
+    <t>Metro Diner Mechanicsburg</t>
+  </si>
+  <si>
+    <t>UPS</t>
+  </si>
+  <si>
+    <t>Little Caesars</t>
+  </si>
+  <si>
+    <t>Dukes Bar &amp; Grill We</t>
   </si>
 </sst>
 </file>
@@ -2276,10 +2301,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}" name="Table1" displayName="Table1" ref="A1:E525" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E525" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E525">
-    <sortCondition ref="A1:A525"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}" name="Table1" displayName="Table1" ref="A1:E559" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E559" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E559">
+    <sortCondition ref="A1:A559"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{36D6B367-4586-164A-BAFD-F61BD8D7B0D8}" name="Date" dataDxfId="4"/>
@@ -2293,7 +2318,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2581,7 +2606,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2589,10 +2614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BEBEFE-BF8C-CE41-8907-E9633ACA1DDB}">
-  <dimension ref="A1:E525"/>
+  <dimension ref="A1:E559"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D526" sqref="D526"/>
+      <selection activeCell="D554" sqref="D554"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10937,7 +10962,7 @@
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A489" s="5">
+      <c r="A489" s="4">
         <v>44899</v>
       </c>
       <c r="B489" t="s">
@@ -10946,7 +10971,7 @@
       <c r="C489" t="s">
         <v>169</v>
       </c>
-      <c r="D489" s="6" t="s">
+      <c r="D489" t="s">
         <v>272</v>
       </c>
       <c r="E489">
@@ -10954,7 +10979,7 @@
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A490" s="5">
+      <c r="A490" s="4">
         <v>44900</v>
       </c>
       <c r="B490" t="s">
@@ -10963,7 +10988,7 @@
       <c r="C490" t="s">
         <v>180</v>
       </c>
-      <c r="D490" s="6" t="s">
+      <c r="D490" t="s">
         <v>275</v>
       </c>
       <c r="E490">
@@ -10971,7 +10996,7 @@
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A491" s="5">
+      <c r="A491" s="4">
         <v>44900</v>
       </c>
       <c r="B491" t="s">
@@ -10980,7 +11005,7 @@
       <c r="C491" t="s">
         <v>212</v>
       </c>
-      <c r="D491" s="6" t="s">
+      <c r="D491" t="s">
         <v>10</v>
       </c>
       <c r="E491">
@@ -10988,7 +11013,7 @@
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A492" s="5">
+      <c r="A492" s="4">
         <v>44900</v>
       </c>
       <c r="B492" t="s">
@@ -10997,7 +11022,7 @@
       <c r="C492" t="s">
         <v>180</v>
       </c>
-      <c r="D492" s="6" t="s">
+      <c r="D492" t="s">
         <v>275</v>
       </c>
       <c r="E492">
@@ -11005,7 +11030,7 @@
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A493" s="5">
+      <c r="A493" s="4">
         <v>44900</v>
       </c>
       <c r="B493" t="s">
@@ -11014,7 +11039,7 @@
       <c r="C493" t="s">
         <v>180</v>
       </c>
-      <c r="D493" s="6" t="s">
+      <c r="D493" t="s">
         <v>275</v>
       </c>
       <c r="E493">
@@ -11022,7 +11047,7 @@
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A494" s="5">
+      <c r="A494" s="4">
         <v>44900</v>
       </c>
       <c r="B494" t="s">
@@ -11031,7 +11056,7 @@
       <c r="C494" t="s">
         <v>156</v>
       </c>
-      <c r="D494" s="6" t="s">
+      <c r="D494" t="s">
         <v>9</v>
       </c>
       <c r="E494">
@@ -11039,7 +11064,7 @@
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A495" s="5">
+      <c r="A495" s="4">
         <v>44900</v>
       </c>
       <c r="B495" t="s">
@@ -11048,7 +11073,7 @@
       <c r="C495" t="s">
         <v>180</v>
       </c>
-      <c r="D495" s="6" t="s">
+      <c r="D495" t="s">
         <v>275</v>
       </c>
       <c r="E495">
@@ -11056,24 +11081,24 @@
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A496" s="5">
+      <c r="A496" s="4">
         <v>44900</v>
       </c>
-      <c r="B496" s="6" t="s">
+      <c r="B496" t="s">
         <v>16</v>
       </c>
-      <c r="C496" s="6" t="s">
+      <c r="C496" t="s">
         <v>156</v>
       </c>
-      <c r="D496" s="6" t="s">
+      <c r="D496" t="s">
         <v>9</v>
       </c>
-      <c r="E496" s="6">
+      <c r="E496">
         <v>4000</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A497" s="5">
+      <c r="A497" s="4">
         <v>44900</v>
       </c>
       <c r="B497" t="s">
@@ -11082,7 +11107,7 @@
       <c r="C497" t="s">
         <v>287</v>
       </c>
-      <c r="D497" s="6" t="s">
+      <c r="D497" t="s">
         <v>272</v>
       </c>
       <c r="E497">
@@ -11090,7 +11115,7 @@
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A498" s="5">
+      <c r="A498" s="4">
         <v>44901</v>
       </c>
       <c r="B498" t="s">
@@ -11099,7 +11124,7 @@
       <c r="C498" t="s">
         <v>279</v>
       </c>
-      <c r="D498" s="6" t="s">
+      <c r="D498" t="s">
         <v>275</v>
       </c>
       <c r="E498">
@@ -11107,7 +11132,7 @@
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A499" s="5">
+      <c r="A499" s="4">
         <v>44901</v>
       </c>
       <c r="B499" t="s">
@@ -11116,7 +11141,7 @@
       <c r="C499" t="s">
         <v>169</v>
       </c>
-      <c r="D499" s="6" t="s">
+      <c r="D499" t="s">
         <v>272</v>
       </c>
       <c r="E499">
@@ -11124,7 +11149,7 @@
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A500" s="5">
+      <c r="A500" s="4">
         <v>44901</v>
       </c>
       <c r="B500" t="s">
@@ -11133,7 +11158,7 @@
       <c r="C500" t="s">
         <v>286</v>
       </c>
-      <c r="D500" s="6" t="s">
+      <c r="D500" t="s">
         <v>277</v>
       </c>
       <c r="E500">
@@ -11141,7 +11166,7 @@
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A501" s="5">
+      <c r="A501" s="4">
         <v>44902</v>
       </c>
       <c r="B501" t="s">
@@ -11150,7 +11175,7 @@
       <c r="C501" t="s">
         <v>180</v>
       </c>
-      <c r="D501" s="6" t="s">
+      <c r="D501" t="s">
         <v>275</v>
       </c>
       <c r="E501">
@@ -11158,7 +11183,7 @@
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A502" s="5">
+      <c r="A502" s="4">
         <v>44902</v>
       </c>
       <c r="B502" t="s">
@@ -11167,7 +11192,7 @@
       <c r="C502" t="s">
         <v>223</v>
       </c>
-      <c r="D502" s="6" t="s">
+      <c r="D502" t="s">
         <v>32</v>
       </c>
       <c r="E502">
@@ -11175,7 +11200,7 @@
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A503" s="5">
+      <c r="A503" s="4">
         <v>44902</v>
       </c>
       <c r="B503" t="s">
@@ -11184,7 +11209,7 @@
       <c r="C503" t="s">
         <v>285</v>
       </c>
-      <c r="D503" s="6" t="s">
+      <c r="D503" t="s">
         <v>274</v>
       </c>
       <c r="E503">
@@ -11192,7 +11217,7 @@
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A504" s="5">
+      <c r="A504" s="4">
         <v>44902</v>
       </c>
       <c r="B504" t="s">
@@ -11201,7 +11226,7 @@
       <c r="C504" t="s">
         <v>265</v>
       </c>
-      <c r="D504" s="6" t="s">
+      <c r="D504" t="s">
         <v>271</v>
       </c>
       <c r="E504">
@@ -11209,7 +11234,7 @@
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A505" s="5">
+      <c r="A505" s="4">
         <v>44902</v>
       </c>
       <c r="B505" t="s">
@@ -11218,7 +11243,7 @@
       <c r="C505" t="s">
         <v>168</v>
       </c>
-      <c r="D505" s="6" t="s">
+      <c r="D505" t="s">
         <v>12</v>
       </c>
       <c r="E505">
@@ -11226,7 +11251,7 @@
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A506" s="5">
+      <c r="A506" s="4">
         <v>44902</v>
       </c>
       <c r="B506" t="s">
@@ -11235,7 +11260,7 @@
       <c r="C506" t="s">
         <v>215</v>
       </c>
-      <c r="D506" s="6" t="s">
+      <c r="D506" t="s">
         <v>275</v>
       </c>
       <c r="E506">
@@ -11243,7 +11268,7 @@
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A507" s="5">
+      <c r="A507" s="4">
         <v>44902</v>
       </c>
       <c r="B507" t="s">
@@ -11252,7 +11277,7 @@
       <c r="C507" t="s">
         <v>215</v>
       </c>
-      <c r="D507" s="6" t="s">
+      <c r="D507" t="s">
         <v>275</v>
       </c>
       <c r="E507">
@@ -11260,7 +11285,7 @@
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A508" s="5">
+      <c r="A508" s="4">
         <v>44902</v>
       </c>
       <c r="B508" t="s">
@@ -11269,7 +11294,7 @@
       <c r="C508" t="s">
         <v>53</v>
       </c>
-      <c r="D508" s="6" t="s">
+      <c r="D508" t="s">
         <v>54</v>
       </c>
       <c r="E508">
@@ -11277,7 +11302,7 @@
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A509" s="5">
+      <c r="A509" s="4">
         <v>44903</v>
       </c>
       <c r="B509" t="s">
@@ -11286,7 +11311,7 @@
       <c r="C509" t="s">
         <v>190</v>
       </c>
-      <c r="D509" s="6" t="s">
+      <c r="D509" t="s">
         <v>275</v>
       </c>
       <c r="E509">
@@ -11294,7 +11319,7 @@
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A510" s="5">
+      <c r="A510" s="4">
         <v>44903</v>
       </c>
       <c r="B510" t="s">
@@ -11303,7 +11328,7 @@
       <c r="C510" t="s">
         <v>51</v>
       </c>
-      <c r="D510" s="6" t="s">
+      <c r="D510" t="s">
         <v>12</v>
       </c>
       <c r="E510">
@@ -11311,7 +11336,7 @@
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A511" s="5">
+      <c r="A511" s="4">
         <v>44903</v>
       </c>
       <c r="B511" t="s">
@@ -11320,7 +11345,7 @@
       <c r="C511" t="s">
         <v>51</v>
       </c>
-      <c r="D511" s="6" t="s">
+      <c r="D511" t="s">
         <v>12</v>
       </c>
       <c r="E511">
@@ -11328,7 +11353,7 @@
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A512" s="5">
+      <c r="A512" s="4">
         <v>44903</v>
       </c>
       <c r="B512" t="s">
@@ -11337,7 +11362,7 @@
       <c r="C512" t="s">
         <v>184</v>
       </c>
-      <c r="D512" s="6" t="s">
+      <c r="D512" t="s">
         <v>272</v>
       </c>
       <c r="E512">
@@ -11345,7 +11370,7 @@
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A513" s="5">
+      <c r="A513" s="4">
         <v>44904</v>
       </c>
       <c r="B513" t="s">
@@ -11354,7 +11379,7 @@
       <c r="C513" t="s">
         <v>158</v>
       </c>
-      <c r="D513" s="6" t="s">
+      <c r="D513" t="s">
         <v>274</v>
       </c>
       <c r="E513">
@@ -11362,7 +11387,7 @@
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A514" s="5">
+      <c r="A514" s="4">
         <v>44904</v>
       </c>
       <c r="B514" t="s">
@@ -11371,7 +11396,7 @@
       <c r="C514" t="s">
         <v>283</v>
       </c>
-      <c r="D514" s="6" t="s">
+      <c r="D514" t="s">
         <v>271</v>
       </c>
       <c r="E514">
@@ -11379,7 +11404,7 @@
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A515" s="5">
+      <c r="A515" s="4">
         <v>44904</v>
       </c>
       <c r="B515" t="s">
@@ -11388,7 +11413,7 @@
       <c r="C515" t="s">
         <v>284</v>
       </c>
-      <c r="D515" s="6" t="s">
+      <c r="D515" t="s">
         <v>272</v>
       </c>
       <c r="E515">
@@ -11396,7 +11421,7 @@
       </c>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A516" s="5">
+      <c r="A516" s="4">
         <v>44904</v>
       </c>
       <c r="B516" t="s">
@@ -11405,7 +11430,7 @@
       <c r="C516" t="s">
         <v>202</v>
       </c>
-      <c r="D516" s="6" t="s">
+      <c r="D516" t="s">
         <v>12</v>
       </c>
       <c r="E516">
@@ -11413,7 +11438,7 @@
       </c>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A517" s="5">
+      <c r="A517" s="4">
         <v>44905</v>
       </c>
       <c r="B517" t="s">
@@ -11422,7 +11447,7 @@
       <c r="C517" t="s">
         <v>170</v>
       </c>
-      <c r="D517" s="6" t="s">
+      <c r="D517" t="s">
         <v>12</v>
       </c>
       <c r="E517">
@@ -11430,7 +11455,7 @@
       </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A518" s="5">
+      <c r="A518" s="4">
         <v>44905</v>
       </c>
       <c r="B518" t="s">
@@ -11439,7 +11464,7 @@
       <c r="C518" t="s">
         <v>184</v>
       </c>
-      <c r="D518" s="6" t="s">
+      <c r="D518" t="s">
         <v>12</v>
       </c>
       <c r="E518">
@@ -11447,7 +11472,7 @@
       </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A519" s="5">
+      <c r="A519" s="4">
         <v>44905</v>
       </c>
       <c r="B519" t="s">
@@ -11456,7 +11481,7 @@
       <c r="C519" t="s">
         <v>174</v>
       </c>
-      <c r="D519" s="6" t="s">
+      <c r="D519" t="s">
         <v>277</v>
       </c>
       <c r="E519">
@@ -11464,7 +11489,7 @@
       </c>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A520" s="5">
+      <c r="A520" s="4">
         <v>44907</v>
       </c>
       <c r="B520" t="s">
@@ -11473,7 +11498,7 @@
       <c r="C520" t="s">
         <v>282</v>
       </c>
-      <c r="D520" s="6" t="s">
+      <c r="D520" t="s">
         <v>271</v>
       </c>
       <c r="E520">
@@ -11481,7 +11506,7 @@
       </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A521" s="5">
+      <c r="A521" s="4">
         <v>44908</v>
       </c>
       <c r="B521" t="s">
@@ -11490,7 +11515,7 @@
       <c r="C521" t="s">
         <v>71</v>
       </c>
-      <c r="D521" s="6" t="s">
+      <c r="D521" t="s">
         <v>32</v>
       </c>
       <c r="E521">
@@ -11498,7 +11523,7 @@
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A522" s="5">
+      <c r="A522" s="4">
         <v>44908</v>
       </c>
       <c r="B522" t="s">
@@ -11507,7 +11532,7 @@
       <c r="C522" t="s">
         <v>28</v>
       </c>
-      <c r="D522" s="6" t="s">
+      <c r="D522" t="s">
         <v>277</v>
       </c>
       <c r="E522">
@@ -11515,7 +11540,7 @@
       </c>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A523" s="5">
+      <c r="A523" s="4">
         <v>44908</v>
       </c>
       <c r="B523" t="s">
@@ -11524,7 +11549,7 @@
       <c r="C523" t="s">
         <v>280</v>
       </c>
-      <c r="D523" s="6" t="s">
+      <c r="D523" t="s">
         <v>277</v>
       </c>
       <c r="E523">
@@ -11532,7 +11557,7 @@
       </c>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A524" s="5">
+      <c r="A524" s="4">
         <v>44908</v>
       </c>
       <c r="B524" t="s">
@@ -11541,7 +11566,7 @@
       <c r="C524" t="s">
         <v>198</v>
       </c>
-      <c r="D524" s="6" t="s">
+      <c r="D524" t="s">
         <v>54</v>
       </c>
       <c r="E524">
@@ -11549,7 +11574,7 @@
       </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A525" s="5">
+      <c r="A525" s="4">
         <v>44908</v>
       </c>
       <c r="B525" t="s">
@@ -11558,11 +11583,589 @@
       <c r="C525" t="s">
         <v>281</v>
       </c>
-      <c r="D525" s="6" t="s">
+      <c r="D525" t="s">
         <v>277</v>
       </c>
       <c r="E525">
         <v>-5.05</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A526" s="5">
+        <v>44909</v>
+      </c>
+      <c r="B526" t="s">
+        <v>21</v>
+      </c>
+      <c r="C526" t="s">
+        <v>202</v>
+      </c>
+      <c r="D526" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E526">
+        <v>-40.5</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A527" s="5">
+        <v>44909</v>
+      </c>
+      <c r="B527" t="s">
+        <v>21</v>
+      </c>
+      <c r="C527" t="s">
+        <v>295</v>
+      </c>
+      <c r="D527" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="E527">
+        <v>-17.579999999999998</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A528" s="5">
+        <v>44910</v>
+      </c>
+      <c r="B528" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C528" t="s">
+        <v>156</v>
+      </c>
+      <c r="D528" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E528">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A529" s="5">
+        <v>44910</v>
+      </c>
+      <c r="B529" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C529" t="s">
+        <v>156</v>
+      </c>
+      <c r="D529" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E529">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A530" s="5">
+        <v>44910</v>
+      </c>
+      <c r="B530" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C530" t="s">
+        <v>183</v>
+      </c>
+      <c r="D530" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E530">
+        <v>-2529.34</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A531" s="5">
+        <v>44910</v>
+      </c>
+      <c r="B531" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C531" t="s">
+        <v>156</v>
+      </c>
+      <c r="D531" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E531">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A532" s="5">
+        <v>44910</v>
+      </c>
+      <c r="B532" t="s">
+        <v>21</v>
+      </c>
+      <c r="C532" t="s">
+        <v>183</v>
+      </c>
+      <c r="D532" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E532">
+        <v>2529.34</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A533" s="5">
+        <v>44911</v>
+      </c>
+      <c r="B533" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C533" t="s">
+        <v>178</v>
+      </c>
+      <c r="D533" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E533">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A534" s="5">
+        <v>44911</v>
+      </c>
+      <c r="B534" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C534" t="s">
+        <v>207</v>
+      </c>
+      <c r="D534" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E534">
+        <v>-1255.4100000000001</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A535" s="5">
+        <v>44911</v>
+      </c>
+      <c r="B535" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C535" t="s">
+        <v>175</v>
+      </c>
+      <c r="D535" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="E535">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A536" s="5">
+        <v>44911</v>
+      </c>
+      <c r="B536" t="s">
+        <v>21</v>
+      </c>
+      <c r="C536" t="s">
+        <v>294</v>
+      </c>
+      <c r="D536" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="E536">
+        <v>-10.9</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A537" s="5">
+        <v>44911</v>
+      </c>
+      <c r="B537" t="s">
+        <v>21</v>
+      </c>
+      <c r="C537" t="s">
+        <v>215</v>
+      </c>
+      <c r="D537" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E537">
+        <v>-43.22</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A538" s="5">
+        <v>44912</v>
+      </c>
+      <c r="B538" t="s">
+        <v>21</v>
+      </c>
+      <c r="C538" t="s">
+        <v>184</v>
+      </c>
+      <c r="D538" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E538">
+        <v>-11.45</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A539" s="5">
+        <v>44912</v>
+      </c>
+      <c r="B539" t="s">
+        <v>21</v>
+      </c>
+      <c r="C539" t="s">
+        <v>293</v>
+      </c>
+      <c r="D539" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E539">
+        <v>-24.32</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A540" s="5">
+        <v>44912</v>
+      </c>
+      <c r="B540" t="s">
+        <v>21</v>
+      </c>
+      <c r="C540" t="s">
+        <v>161</v>
+      </c>
+      <c r="D540" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="E540">
+        <v>-4.95</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A541" s="5">
+        <v>44912</v>
+      </c>
+      <c r="B541" t="s">
+        <v>21</v>
+      </c>
+      <c r="C541" t="s">
+        <v>161</v>
+      </c>
+      <c r="D541" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E541">
+        <v>-317.76</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A542" s="5">
+        <v>44912</v>
+      </c>
+      <c r="B542" t="s">
+        <v>21</v>
+      </c>
+      <c r="C542" t="s">
+        <v>166</v>
+      </c>
+      <c r="D542" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="E542">
+        <v>-28.23</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A543" s="5">
+        <v>44913</v>
+      </c>
+      <c r="B543" t="s">
+        <v>21</v>
+      </c>
+      <c r="C543" t="s">
+        <v>166</v>
+      </c>
+      <c r="D543" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="E543">
+        <v>-28.36</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A544" s="5">
+        <v>44913</v>
+      </c>
+      <c r="B544" t="s">
+        <v>21</v>
+      </c>
+      <c r="C544" t="s">
+        <v>290</v>
+      </c>
+      <c r="D544" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E544">
+        <v>-49.96</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A545" s="5">
+        <v>44913</v>
+      </c>
+      <c r="B545" t="s">
+        <v>21</v>
+      </c>
+      <c r="C545" t="s">
+        <v>291</v>
+      </c>
+      <c r="D545" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E545">
+        <v>-34.96</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A546" s="5">
+        <v>44913</v>
+      </c>
+      <c r="B546" t="s">
+        <v>21</v>
+      </c>
+      <c r="C546" t="s">
+        <v>51</v>
+      </c>
+      <c r="D546" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E546">
+        <v>-30.75</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A547" s="5">
+        <v>44913</v>
+      </c>
+      <c r="B547" t="s">
+        <v>21</v>
+      </c>
+      <c r="C547" t="s">
+        <v>292</v>
+      </c>
+      <c r="D547" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="E547">
+        <v>-44.31</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A548" s="5">
+        <v>44913</v>
+      </c>
+      <c r="B548" t="s">
+        <v>21</v>
+      </c>
+      <c r="C548" t="s">
+        <v>161</v>
+      </c>
+      <c r="D548" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="E548">
+        <v>42.39</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A549" s="5">
+        <v>44914</v>
+      </c>
+      <c r="B549" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C549" t="s">
+        <v>180</v>
+      </c>
+      <c r="D549" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E549">
+        <v>-140.36000000000001</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A550" s="5">
+        <v>44914</v>
+      </c>
+      <c r="B550" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C550" t="s">
+        <v>180</v>
+      </c>
+      <c r="D550" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="E550">
+        <v>8.07</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A551" s="5">
+        <v>44914</v>
+      </c>
+      <c r="B551" t="s">
+        <v>21</v>
+      </c>
+      <c r="C551" t="s">
+        <v>159</v>
+      </c>
+      <c r="D551" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E551">
+        <v>35.880000000000003</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A552" s="5">
+        <v>44915</v>
+      </c>
+      <c r="B552" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C552" t="s">
+        <v>133</v>
+      </c>
+      <c r="D552" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E552">
+        <v>-43.66</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A553" s="5">
+        <v>44915</v>
+      </c>
+      <c r="B553" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C553" t="s">
+        <v>43</v>
+      </c>
+      <c r="D553" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E553">
+        <v>-992.26</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A554" s="5">
+        <v>44915</v>
+      </c>
+      <c r="B554" t="s">
+        <v>21</v>
+      </c>
+      <c r="C554" t="s">
+        <v>242</v>
+      </c>
+      <c r="D554" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E554">
+        <v>-30.26</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A555" s="5">
+        <v>44915</v>
+      </c>
+      <c r="B555" t="s">
+        <v>21</v>
+      </c>
+      <c r="C555" t="s">
+        <v>198</v>
+      </c>
+      <c r="D555" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E555">
+        <v>-105</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A556" s="5">
+        <v>44915</v>
+      </c>
+      <c r="B556" t="s">
+        <v>21</v>
+      </c>
+      <c r="C556" t="s">
+        <v>46</v>
+      </c>
+      <c r="D556" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E556">
+        <v>992.26</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A557" s="5">
+        <v>44915</v>
+      </c>
+      <c r="B557" t="s">
+        <v>21</v>
+      </c>
+      <c r="C557" t="s">
+        <v>288</v>
+      </c>
+      <c r="D557" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="E557">
+        <v>-39.99</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A558" s="5">
+        <v>44915</v>
+      </c>
+      <c r="B558" t="s">
+        <v>21</v>
+      </c>
+      <c r="C558" t="s">
+        <v>289</v>
+      </c>
+      <c r="D558" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E558">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A559" s="5">
+        <v>44916</v>
+      </c>
+      <c r="B559" t="s">
+        <v>21</v>
+      </c>
+      <c r="C559" t="s">
+        <v>246</v>
+      </c>
+      <c r="D559" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="E559">
+        <v>-13.77</v>
       </c>
     </row>
   </sheetData>
@@ -11578,7 +12181,7 @@
           <x14:formula1>
             <xm:f>OFFSET(Categories!$A$2,0,0,COUNTIF(Categories!$A$2:$A$99,"&lt;&gt;"))</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D525</xm:sqref>
+          <xm:sqref>D2:D559</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -11587,6 +12190,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2DC8C82-888E-1940-A3F4-195A79287735}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A85DC7-AAE6-0D45-BE57-A2D20F484BD4}">
   <dimension ref="A1:A22"/>
   <sheetViews>
@@ -11719,7 +12334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B52D9C-B85B-8949-9E9F-5F54C35BF5A2}">
   <dimension ref="B1:E7"/>
   <sheetViews>

--- a/Expenses.xlsx
+++ b/Expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffgood/Desktop/R_Studio_Projects/Financial_Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8412640B-EA13-2C40-A6CE-09384A70A5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3F01F4-D5D4-AC43-9919-EBFA34837D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="980" windowWidth="15420" windowHeight="15800" xr2:uid="{D9F47917-7B20-384C-878F-0D08681ABD47}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="303">
   <si>
     <t>Date</t>
   </si>
@@ -933,6 +933,27 @@
   </si>
   <si>
     <t>Dukes Bar &amp; Grill We</t>
+  </si>
+  <si>
+    <t>Wood &amp; Myers</t>
+  </si>
+  <si>
+    <t>Transfer to Venmo</t>
+  </si>
+  <si>
+    <t>Mobile Deposit</t>
+  </si>
+  <si>
+    <t>MEIJER 051</t>
+  </si>
+  <si>
+    <t>CVS/PHARMACY #05813</t>
+  </si>
+  <si>
+    <t>Nfgcity Mission of Fi</t>
+  </si>
+  <si>
+    <t>Love's Travel Stops</t>
   </si>
 </sst>
 </file>
@@ -2301,10 +2322,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}" name="Table1" displayName="Table1" ref="A1:E559" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E559" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E559">
-    <sortCondition ref="A1:A559"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}" name="Table1" displayName="Table1" ref="A1:E571" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E571" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E571">
+    <sortCondition ref="A1:A571"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{36D6B367-4586-164A-BAFD-F61BD8D7B0D8}" name="Date" dataDxfId="4"/>
@@ -2614,10 +2635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BEBEFE-BF8C-CE41-8907-E9633ACA1DDB}">
-  <dimension ref="A1:E559"/>
+  <dimension ref="A1:E571"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D554" sqref="D554"/>
+      <selection activeCell="D572" sqref="D572"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11591,7 +11612,7 @@
       </c>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A526" s="5">
+      <c r="A526" s="4">
         <v>44909</v>
       </c>
       <c r="B526" t="s">
@@ -11600,7 +11621,7 @@
       <c r="C526" t="s">
         <v>202</v>
       </c>
-      <c r="D526" s="6" t="s">
+      <c r="D526" t="s">
         <v>12</v>
       </c>
       <c r="E526">
@@ -11608,7 +11629,7 @@
       </c>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A527" s="5">
+      <c r="A527" s="4">
         <v>44909</v>
       </c>
       <c r="B527" t="s">
@@ -11617,7 +11638,7 @@
       <c r="C527" t="s">
         <v>295</v>
       </c>
-      <c r="D527" s="6" t="s">
+      <c r="D527" t="s">
         <v>277</v>
       </c>
       <c r="E527">
@@ -11625,16 +11646,16 @@
       </c>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A528" s="5">
+      <c r="A528" s="4">
         <v>44910</v>
       </c>
-      <c r="B528" s="6" t="s">
+      <c r="B528" t="s">
         <v>7</v>
       </c>
       <c r="C528" t="s">
         <v>156</v>
       </c>
-      <c r="D528" s="6" t="s">
+      <c r="D528" t="s">
         <v>9</v>
       </c>
       <c r="E528">
@@ -11642,16 +11663,16 @@
       </c>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A529" s="5">
+      <c r="A529" s="4">
         <v>44910</v>
       </c>
-      <c r="B529" s="6" t="s">
+      <c r="B529" t="s">
         <v>7</v>
       </c>
       <c r="C529" t="s">
         <v>156</v>
       </c>
-      <c r="D529" s="6" t="s">
+      <c r="D529" t="s">
         <v>8</v>
       </c>
       <c r="E529">
@@ -11659,16 +11680,16 @@
       </c>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A530" s="5">
+      <c r="A530" s="4">
         <v>44910</v>
       </c>
-      <c r="B530" s="6" t="s">
+      <c r="B530" t="s">
         <v>16</v>
       </c>
       <c r="C530" t="s">
         <v>183</v>
       </c>
-      <c r="D530" s="6" t="s">
+      <c r="D530" t="s">
         <v>100</v>
       </c>
       <c r="E530">
@@ -11676,16 +11697,16 @@
       </c>
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A531" s="5">
+      <c r="A531" s="4">
         <v>44910</v>
       </c>
-      <c r="B531" s="6" t="s">
+      <c r="B531" t="s">
         <v>16</v>
       </c>
       <c r="C531" t="s">
         <v>156</v>
       </c>
-      <c r="D531" s="6" t="s">
+      <c r="D531" t="s">
         <v>9</v>
       </c>
       <c r="E531">
@@ -11693,7 +11714,7 @@
       </c>
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A532" s="5">
+      <c r="A532" s="4">
         <v>44910</v>
       </c>
       <c r="B532" t="s">
@@ -11702,7 +11723,7 @@
       <c r="C532" t="s">
         <v>183</v>
       </c>
-      <c r="D532" s="6" t="s">
+      <c r="D532" t="s">
         <v>100</v>
       </c>
       <c r="E532">
@@ -11710,16 +11731,16 @@
       </c>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A533" s="5">
+      <c r="A533" s="4">
         <v>44911</v>
       </c>
-      <c r="B533" s="6" t="s">
+      <c r="B533" t="s">
         <v>7</v>
       </c>
       <c r="C533" t="s">
         <v>178</v>
       </c>
-      <c r="D533" s="6" t="s">
+      <c r="D533" t="s">
         <v>14</v>
       </c>
       <c r="E533">
@@ -11727,16 +11748,16 @@
       </c>
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A534" s="5">
+      <c r="A534" s="4">
         <v>44911</v>
       </c>
-      <c r="B534" s="6" t="s">
+      <c r="B534" t="s">
         <v>7</v>
       </c>
       <c r="C534" t="s">
         <v>207</v>
       </c>
-      <c r="D534" s="6" t="s">
+      <c r="D534" t="s">
         <v>101</v>
       </c>
       <c r="E534">
@@ -11744,16 +11765,16 @@
       </c>
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A535" s="5">
+      <c r="A535" s="4">
         <v>44911</v>
       </c>
-      <c r="B535" s="6" t="s">
+      <c r="B535" t="s">
         <v>16</v>
       </c>
       <c r="C535" t="s">
         <v>175</v>
       </c>
-      <c r="D535" s="6" t="s">
+      <c r="D535" t="s">
         <v>278</v>
       </c>
       <c r="E535">
@@ -11761,7 +11782,7 @@
       </c>
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A536" s="5">
+      <c r="A536" s="4">
         <v>44911</v>
       </c>
       <c r="B536" t="s">
@@ -11770,7 +11791,7 @@
       <c r="C536" t="s">
         <v>294</v>
       </c>
-      <c r="D536" s="6" t="s">
+      <c r="D536" t="s">
         <v>277</v>
       </c>
       <c r="E536">
@@ -11778,7 +11799,7 @@
       </c>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A537" s="5">
+      <c r="A537" s="4">
         <v>44911</v>
       </c>
       <c r="B537" t="s">
@@ -11787,7 +11808,7 @@
       <c r="C537" t="s">
         <v>215</v>
       </c>
-      <c r="D537" s="6" t="s">
+      <c r="D537" t="s">
         <v>275</v>
       </c>
       <c r="E537">
@@ -11795,7 +11816,7 @@
       </c>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A538" s="5">
+      <c r="A538" s="4">
         <v>44912</v>
       </c>
       <c r="B538" t="s">
@@ -11804,7 +11825,7 @@
       <c r="C538" t="s">
         <v>184</v>
       </c>
-      <c r="D538" s="6" t="s">
+      <c r="D538" t="s">
         <v>275</v>
       </c>
       <c r="E538">
@@ -11812,7 +11833,7 @@
       </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A539" s="5">
+      <c r="A539" s="4">
         <v>44912</v>
       </c>
       <c r="B539" t="s">
@@ -11821,7 +11842,7 @@
       <c r="C539" t="s">
         <v>293</v>
       </c>
-      <c r="D539" s="6" t="s">
+      <c r="D539" t="s">
         <v>275</v>
       </c>
       <c r="E539">
@@ -11829,7 +11850,7 @@
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A540" s="5">
+      <c r="A540" s="4">
         <v>44912</v>
       </c>
       <c r="B540" t="s">
@@ -11838,7 +11859,7 @@
       <c r="C540" t="s">
         <v>161</v>
       </c>
-      <c r="D540" s="6" t="s">
+      <c r="D540" t="s">
         <v>277</v>
       </c>
       <c r="E540">
@@ -11846,7 +11867,7 @@
       </c>
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A541" s="5">
+      <c r="A541" s="4">
         <v>44912</v>
       </c>
       <c r="B541" t="s">
@@ -11855,7 +11876,7 @@
       <c r="C541" t="s">
         <v>161</v>
       </c>
-      <c r="D541" s="6" t="s">
+      <c r="D541" t="s">
         <v>12</v>
       </c>
       <c r="E541">
@@ -11863,7 +11884,7 @@
       </c>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A542" s="5">
+      <c r="A542" s="4">
         <v>44912</v>
       </c>
       <c r="B542" t="s">
@@ -11872,7 +11893,7 @@
       <c r="C542" t="s">
         <v>166</v>
       </c>
-      <c r="D542" s="6" t="s">
+      <c r="D542" t="s">
         <v>277</v>
       </c>
       <c r="E542">
@@ -11880,7 +11901,7 @@
       </c>
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A543" s="5">
+      <c r="A543" s="4">
         <v>44913</v>
       </c>
       <c r="B543" t="s">
@@ -11889,7 +11910,7 @@
       <c r="C543" t="s">
         <v>166</v>
       </c>
-      <c r="D543" s="6" t="s">
+      <c r="D543" t="s">
         <v>277</v>
       </c>
       <c r="E543">
@@ -11897,7 +11918,7 @@
       </c>
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A544" s="5">
+      <c r="A544" s="4">
         <v>44913</v>
       </c>
       <c r="B544" t="s">
@@ -11906,7 +11927,7 @@
       <c r="C544" t="s">
         <v>290</v>
       </c>
-      <c r="D544" s="6" t="s">
+      <c r="D544" t="s">
         <v>11</v>
       </c>
       <c r="E544">
@@ -11914,7 +11935,7 @@
       </c>
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A545" s="5">
+      <c r="A545" s="4">
         <v>44913</v>
       </c>
       <c r="B545" t="s">
@@ -11923,7 +11944,7 @@
       <c r="C545" t="s">
         <v>291</v>
       </c>
-      <c r="D545" s="6" t="s">
+      <c r="D545" t="s">
         <v>275</v>
       </c>
       <c r="E545">
@@ -11931,7 +11952,7 @@
       </c>
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A546" s="5">
+      <c r="A546" s="4">
         <v>44913</v>
       </c>
       <c r="B546" t="s">
@@ -11940,7 +11961,7 @@
       <c r="C546" t="s">
         <v>51</v>
       </c>
-      <c r="D546" s="6" t="s">
+      <c r="D546" t="s">
         <v>12</v>
       </c>
       <c r="E546">
@@ -11948,7 +11969,7 @@
       </c>
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A547" s="5">
+      <c r="A547" s="4">
         <v>44913</v>
       </c>
       <c r="B547" t="s">
@@ -11957,7 +11978,7 @@
       <c r="C547" t="s">
         <v>292</v>
       </c>
-      <c r="D547" s="6" t="s">
+      <c r="D547" t="s">
         <v>277</v>
       </c>
       <c r="E547">
@@ -11965,7 +11986,7 @@
       </c>
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A548" s="5">
+      <c r="A548" s="4">
         <v>44913</v>
       </c>
       <c r="B548" t="s">
@@ -11974,7 +11995,7 @@
       <c r="C548" t="s">
         <v>161</v>
       </c>
-      <c r="D548" s="6" t="s">
+      <c r="D548" t="s">
         <v>274</v>
       </c>
       <c r="E548">
@@ -11982,16 +12003,16 @@
       </c>
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A549" s="5">
+      <c r="A549" s="4">
         <v>44914</v>
       </c>
-      <c r="B549" s="6" t="s">
+      <c r="B549" t="s">
         <v>7</v>
       </c>
       <c r="C549" t="s">
         <v>180</v>
       </c>
-      <c r="D549" s="6" t="s">
+      <c r="D549" t="s">
         <v>275</v>
       </c>
       <c r="E549">
@@ -11999,16 +12020,16 @@
       </c>
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A550" s="5">
+      <c r="A550" s="4">
         <v>44914</v>
       </c>
-      <c r="B550" s="6" t="s">
+      <c r="B550" t="s">
         <v>7</v>
       </c>
       <c r="C550" t="s">
         <v>180</v>
       </c>
-      <c r="D550" s="6" t="s">
+      <c r="D550" t="s">
         <v>274</v>
       </c>
       <c r="E550">
@@ -12016,7 +12037,7 @@
       </c>
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A551" s="5">
+      <c r="A551" s="4">
         <v>44914</v>
       </c>
       <c r="B551" t="s">
@@ -12025,7 +12046,7 @@
       <c r="C551" t="s">
         <v>159</v>
       </c>
-      <c r="D551" s="6" t="s">
+      <c r="D551" t="s">
         <v>275</v>
       </c>
       <c r="E551">
@@ -12033,16 +12054,16 @@
       </c>
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A552" s="5">
+      <c r="A552" s="4">
         <v>44915</v>
       </c>
-      <c r="B552" s="6" t="s">
+      <c r="B552" t="s">
         <v>7</v>
       </c>
       <c r="C552" t="s">
         <v>133</v>
       </c>
-      <c r="D552" s="6" t="s">
+      <c r="D552" t="s">
         <v>275</v>
       </c>
       <c r="E552">
@@ -12050,16 +12071,16 @@
       </c>
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A553" s="5">
+      <c r="A553" s="4">
         <v>44915</v>
       </c>
-      <c r="B553" s="6" t="s">
+      <c r="B553" t="s">
         <v>7</v>
       </c>
       <c r="C553" t="s">
         <v>43</v>
       </c>
-      <c r="D553" s="6" t="s">
+      <c r="D553" t="s">
         <v>100</v>
       </c>
       <c r="E553">
@@ -12067,7 +12088,7 @@
       </c>
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A554" s="5">
+      <c r="A554" s="4">
         <v>44915</v>
       </c>
       <c r="B554" t="s">
@@ -12076,7 +12097,7 @@
       <c r="C554" t="s">
         <v>242</v>
       </c>
-      <c r="D554" s="6" t="s">
+      <c r="D554" t="s">
         <v>12</v>
       </c>
       <c r="E554">
@@ -12084,7 +12105,7 @@
       </c>
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A555" s="5">
+      <c r="A555" s="4">
         <v>44915</v>
       </c>
       <c r="B555" t="s">
@@ -12093,7 +12114,7 @@
       <c r="C555" t="s">
         <v>198</v>
       </c>
-      <c r="D555" s="6" t="s">
+      <c r="D555" t="s">
         <v>54</v>
       </c>
       <c r="E555">
@@ -12101,7 +12122,7 @@
       </c>
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A556" s="5">
+      <c r="A556" s="4">
         <v>44915</v>
       </c>
       <c r="B556" t="s">
@@ -12110,7 +12131,7 @@
       <c r="C556" t="s">
         <v>46</v>
       </c>
-      <c r="D556" s="6" t="s">
+      <c r="D556" t="s">
         <v>100</v>
       </c>
       <c r="E556">
@@ -12118,7 +12139,7 @@
       </c>
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A557" s="5">
+      <c r="A557" s="4">
         <v>44915</v>
       </c>
       <c r="B557" t="s">
@@ -12127,7 +12148,7 @@
       <c r="C557" t="s">
         <v>288</v>
       </c>
-      <c r="D557" s="6" t="s">
+      <c r="D557" t="s">
         <v>274</v>
       </c>
       <c r="E557">
@@ -12135,7 +12156,7 @@
       </c>
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A558" s="5">
+      <c r="A558" s="4">
         <v>44915</v>
       </c>
       <c r="B558" t="s">
@@ -12144,7 +12165,7 @@
       <c r="C558" t="s">
         <v>289</v>
       </c>
-      <c r="D558" s="6" t="s">
+      <c r="D558" t="s">
         <v>271</v>
       </c>
       <c r="E558">
@@ -12152,7 +12173,7 @@
       </c>
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A559" s="5">
+      <c r="A559" s="4">
         <v>44916</v>
       </c>
       <c r="B559" t="s">
@@ -12161,11 +12182,215 @@
       <c r="C559" t="s">
         <v>246</v>
       </c>
-      <c r="D559" s="6" t="s">
+      <c r="D559" t="s">
         <v>272</v>
       </c>
       <c r="E559">
         <v>-13.77</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A560" s="5">
+        <v>44916</v>
+      </c>
+      <c r="B560" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C560" t="s">
+        <v>298</v>
+      </c>
+      <c r="D560" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E560" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A561" s="5">
+        <v>44918</v>
+      </c>
+      <c r="B561" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C561" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="D561" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E561" s="6">
+        <v>-99.99</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A562" s="5">
+        <v>44918</v>
+      </c>
+      <c r="B562" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C562" t="s">
+        <v>297</v>
+      </c>
+      <c r="D562" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E562" s="6">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A563" s="5">
+        <v>44918</v>
+      </c>
+      <c r="B563" t="s">
+        <v>21</v>
+      </c>
+      <c r="C563" t="s">
+        <v>301</v>
+      </c>
+      <c r="D563" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E563">
+        <v>-257.5</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A564" s="5">
+        <v>44918</v>
+      </c>
+      <c r="B564" t="s">
+        <v>21</v>
+      </c>
+      <c r="C564" t="s">
+        <v>302</v>
+      </c>
+      <c r="D564" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="E564">
+        <v>-43.21</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A565" s="5">
+        <v>44918</v>
+      </c>
+      <c r="B565" t="s">
+        <v>21</v>
+      </c>
+      <c r="C565" t="s">
+        <v>302</v>
+      </c>
+      <c r="D565" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E565">
+        <v>-4.78</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A566" s="5">
+        <v>44918</v>
+      </c>
+      <c r="B566" t="s">
+        <v>21</v>
+      </c>
+      <c r="C566" t="s">
+        <v>302</v>
+      </c>
+      <c r="D566" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E566">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A567" s="5">
+        <v>44918</v>
+      </c>
+      <c r="B567" t="s">
+        <v>21</v>
+      </c>
+      <c r="C567" t="s">
+        <v>263</v>
+      </c>
+      <c r="D567" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E567">
+        <v>-11.63</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A568" s="5">
+        <v>44919</v>
+      </c>
+      <c r="B568" t="s">
+        <v>21</v>
+      </c>
+      <c r="C568" t="s">
+        <v>172</v>
+      </c>
+      <c r="D568" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="E568">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A569" s="5">
+        <v>44919</v>
+      </c>
+      <c r="B569" t="s">
+        <v>21</v>
+      </c>
+      <c r="C569" t="s">
+        <v>236</v>
+      </c>
+      <c r="D569" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="E569">
+        <v>-150.07</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A570" s="5">
+        <v>44921</v>
+      </c>
+      <c r="B570" t="s">
+        <v>21</v>
+      </c>
+      <c r="C570" t="s">
+        <v>299</v>
+      </c>
+      <c r="D570" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E570">
+        <v>-5.54</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A571" s="5">
+        <v>44921</v>
+      </c>
+      <c r="B571" t="s">
+        <v>21</v>
+      </c>
+      <c r="C571" t="s">
+        <v>300</v>
+      </c>
+      <c r="D571" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E571">
+        <v>-12.05</v>
       </c>
     </row>
   </sheetData>
@@ -12181,7 +12406,7 @@
           <x14:formula1>
             <xm:f>OFFSET(Categories!$A$2,0,0,COUNTIF(Categories!$A$2:$A$99,"&lt;&gt;"))</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D559</xm:sqref>
+          <xm:sqref>D2:D571</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Expenses.xlsx
+++ b/Expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffgood/Desktop/R_Studio_Projects/Financial_Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3F01F4-D5D4-AC43-9919-EBFA34837D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1CC550-7205-A343-A196-08BE5562081B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="980" windowWidth="15420" windowHeight="15800" xr2:uid="{D9F47917-7B20-384C-878F-0D08681ABD47}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1811" uniqueCount="306">
   <si>
     <t>Date</t>
   </si>
@@ -954,6 +954,15 @@
   </si>
   <si>
     <t>Love's Travel Stops</t>
+  </si>
+  <si>
+    <t>Spring Health Receivable Ufev</t>
+  </si>
+  <si>
+    <t>PANERA BREAD #601155 P</t>
+  </si>
+  <si>
+    <t>Massage Therapy and W</t>
   </si>
 </sst>
 </file>
@@ -2322,10 +2331,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}" name="Table1" displayName="Table1" ref="A1:E571" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E571" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E571">
-    <sortCondition ref="A1:A571"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}" name="Table1" displayName="Table1" ref="A1:E592" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E592" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E592">
+    <sortCondition ref="A1:A592"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{36D6B367-4586-164A-BAFD-F61BD8D7B0D8}" name="Date" dataDxfId="4"/>
@@ -2635,10 +2644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BEBEFE-BF8C-CE41-8907-E9633ACA1DDB}">
-  <dimension ref="A1:E571"/>
+  <dimension ref="A1:E592"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D572" sqref="D572"/>
+      <selection activeCell="D593" sqref="D593"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12190,58 +12199,58 @@
       </c>
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A560" s="5">
+      <c r="A560" s="4">
         <v>44916</v>
       </c>
-      <c r="B560" s="6" t="s">
+      <c r="B560" t="s">
         <v>16</v>
       </c>
       <c r="C560" t="s">
         <v>298</v>
       </c>
-      <c r="D560" s="6" t="s">
+      <c r="D560" t="s">
         <v>31</v>
       </c>
-      <c r="E560" s="6">
+      <c r="E560">
         <v>50</v>
       </c>
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A561" s="5">
+      <c r="A561" s="4">
         <v>44918</v>
       </c>
-      <c r="B561" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C561" s="6" t="s">
+      <c r="B561" t="s">
+        <v>7</v>
+      </c>
+      <c r="C561" t="s">
         <v>296</v>
       </c>
-      <c r="D561" s="6" t="s">
+      <c r="D561" t="s">
         <v>271</v>
       </c>
-      <c r="E561" s="6">
+      <c r="E561">
         <v>-99.99</v>
       </c>
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A562" s="5">
+      <c r="A562" s="4">
         <v>44918</v>
       </c>
-      <c r="B562" s="6" t="s">
+      <c r="B562" t="s">
         <v>16</v>
       </c>
       <c r="C562" t="s">
         <v>297</v>
       </c>
-      <c r="D562" s="6" t="s">
+      <c r="D562" t="s">
         <v>11</v>
       </c>
-      <c r="E562" s="6">
+      <c r="E562">
         <v>-15</v>
       </c>
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A563" s="5">
+      <c r="A563" s="4">
         <v>44918</v>
       </c>
       <c r="B563" t="s">
@@ -12250,7 +12259,7 @@
       <c r="C563" t="s">
         <v>301</v>
       </c>
-      <c r="D563" s="6" t="s">
+      <c r="D563" t="s">
         <v>275</v>
       </c>
       <c r="E563">
@@ -12258,7 +12267,7 @@
       </c>
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A564" s="5">
+      <c r="A564" s="4">
         <v>44918</v>
       </c>
       <c r="B564" t="s">
@@ -12267,7 +12276,7 @@
       <c r="C564" t="s">
         <v>302</v>
       </c>
-      <c r="D564" s="6" t="s">
+      <c r="D564" t="s">
         <v>273</v>
       </c>
       <c r="E564">
@@ -12275,7 +12284,7 @@
       </c>
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A565" s="5">
+      <c r="A565" s="4">
         <v>44918</v>
       </c>
       <c r="B565" t="s">
@@ -12284,7 +12293,7 @@
       <c r="C565" t="s">
         <v>302</v>
       </c>
-      <c r="D565" s="6" t="s">
+      <c r="D565" t="s">
         <v>12</v>
       </c>
       <c r="E565">
@@ -12292,7 +12301,7 @@
       </c>
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A566" s="5">
+      <c r="A566" s="4">
         <v>44918</v>
       </c>
       <c r="B566" t="s">
@@ -12301,7 +12310,7 @@
       <c r="C566" t="s">
         <v>302</v>
       </c>
-      <c r="D566" s="6" t="s">
+      <c r="D566" t="s">
         <v>12</v>
       </c>
       <c r="E566">
@@ -12309,7 +12318,7 @@
       </c>
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A567" s="5">
+      <c r="A567" s="4">
         <v>44918</v>
       </c>
       <c r="B567" t="s">
@@ -12318,7 +12327,7 @@
       <c r="C567" t="s">
         <v>263</v>
       </c>
-      <c r="D567" s="6" t="s">
+      <c r="D567" t="s">
         <v>12</v>
       </c>
       <c r="E567">
@@ -12326,7 +12335,7 @@
       </c>
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A568" s="5">
+      <c r="A568" s="4">
         <v>44919</v>
       </c>
       <c r="B568" t="s">
@@ -12335,7 +12344,7 @@
       <c r="C568" t="s">
         <v>172</v>
       </c>
-      <c r="D568" s="6" t="s">
+      <c r="D568" t="s">
         <v>272</v>
       </c>
       <c r="E568">
@@ -12343,7 +12352,7 @@
       </c>
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A569" s="5">
+      <c r="A569" s="4">
         <v>44919</v>
       </c>
       <c r="B569" t="s">
@@ -12352,7 +12361,7 @@
       <c r="C569" t="s">
         <v>236</v>
       </c>
-      <c r="D569" s="6" t="s">
+      <c r="D569" t="s">
         <v>274</v>
       </c>
       <c r="E569">
@@ -12360,7 +12369,7 @@
       </c>
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A570" s="5">
+      <c r="A570" s="4">
         <v>44921</v>
       </c>
       <c r="B570" t="s">
@@ -12369,7 +12378,7 @@
       <c r="C570" t="s">
         <v>299</v>
       </c>
-      <c r="D570" s="6" t="s">
+      <c r="D570" t="s">
         <v>275</v>
       </c>
       <c r="E570">
@@ -12377,7 +12386,7 @@
       </c>
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A571" s="5">
+      <c r="A571" s="4">
         <v>44921</v>
       </c>
       <c r="B571" t="s">
@@ -12386,11 +12395,368 @@
       <c r="C571" t="s">
         <v>300</v>
       </c>
-      <c r="D571" s="6" t="s">
+      <c r="D571" t="s">
         <v>275</v>
       </c>
       <c r="E571">
         <v>-12.05</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A572" s="5">
+        <v>44923</v>
+      </c>
+      <c r="B572" t="s">
+        <v>7</v>
+      </c>
+      <c r="C572" t="s">
+        <v>179</v>
+      </c>
+      <c r="D572" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E572">
+        <v>3308.81</v>
+      </c>
+    </row>
+    <row r="573" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A573" s="5">
+        <v>44923</v>
+      </c>
+      <c r="B573" t="s">
+        <v>21</v>
+      </c>
+      <c r="C573" t="s">
+        <v>160</v>
+      </c>
+      <c r="D573" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="E573">
+        <v>-148.4</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A574" s="5">
+        <v>44923</v>
+      </c>
+      <c r="B574" t="s">
+        <v>21</v>
+      </c>
+      <c r="C574" t="s">
+        <v>226</v>
+      </c>
+      <c r="D574" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E574">
+        <v>-53.8</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A575" s="5">
+        <v>44923</v>
+      </c>
+      <c r="B575" t="s">
+        <v>21</v>
+      </c>
+      <c r="C575" t="s">
+        <v>209</v>
+      </c>
+      <c r="D575" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="E575">
+        <v>-16.11</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A576" s="5">
+        <v>44923</v>
+      </c>
+      <c r="B576" t="s">
+        <v>21</v>
+      </c>
+      <c r="C576" t="s">
+        <v>158</v>
+      </c>
+      <c r="D576" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E576">
+        <v>-75.239999999999995</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A577" s="5">
+        <v>44923</v>
+      </c>
+      <c r="B577" t="s">
+        <v>21</v>
+      </c>
+      <c r="C577" t="s">
+        <v>305</v>
+      </c>
+      <c r="D577" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E577">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A578" s="5">
+        <v>44923</v>
+      </c>
+      <c r="B578" t="s">
+        <v>21</v>
+      </c>
+      <c r="C578" t="s">
+        <v>158</v>
+      </c>
+      <c r="D578" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="E578">
+        <v>-9.99</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A579" s="5">
+        <v>44923</v>
+      </c>
+      <c r="B579" t="s">
+        <v>21</v>
+      </c>
+      <c r="C579" t="s">
+        <v>302</v>
+      </c>
+      <c r="D579" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="E579">
+        <v>-52.78</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A580" s="5">
+        <v>44923</v>
+      </c>
+      <c r="B580" t="s">
+        <v>21</v>
+      </c>
+      <c r="C580" t="s">
+        <v>302</v>
+      </c>
+      <c r="D580" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E580">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A581" s="5">
+        <v>44923</v>
+      </c>
+      <c r="B581" t="s">
+        <v>21</v>
+      </c>
+      <c r="C581" t="s">
+        <v>225</v>
+      </c>
+      <c r="D581" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="E581">
+        <v>-24.54</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A582" s="5">
+        <v>44923</v>
+      </c>
+      <c r="B582" t="s">
+        <v>21</v>
+      </c>
+      <c r="C582" t="s">
+        <v>170</v>
+      </c>
+      <c r="D582" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="E582">
+        <v>-41.24</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A583" s="5">
+        <v>44924</v>
+      </c>
+      <c r="B583" t="s">
+        <v>7</v>
+      </c>
+      <c r="C583" t="s">
+        <v>183</v>
+      </c>
+      <c r="D583" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E583">
+        <v>-730.53</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A584" s="5">
+        <v>44924</v>
+      </c>
+      <c r="B584" t="s">
+        <v>7</v>
+      </c>
+      <c r="C584" t="s">
+        <v>303</v>
+      </c>
+      <c r="D584" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E584">
+        <v>3870</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A585" s="5">
+        <v>44924</v>
+      </c>
+      <c r="B585" t="s">
+        <v>16</v>
+      </c>
+      <c r="C585" t="s">
+        <v>298</v>
+      </c>
+      <c r="D585" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E585">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A586" s="5">
+        <v>44924</v>
+      </c>
+      <c r="B586" t="s">
+        <v>21</v>
+      </c>
+      <c r="C586" t="s">
+        <v>183</v>
+      </c>
+      <c r="D586" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E586">
+        <v>730.53</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A587" s="5">
+        <v>44924</v>
+      </c>
+      <c r="B587" t="s">
+        <v>21</v>
+      </c>
+      <c r="C587" t="s">
+        <v>202</v>
+      </c>
+      <c r="D587" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E587">
+        <v>-32.090000000000003</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A588" s="5">
+        <v>44924</v>
+      </c>
+      <c r="B588" t="s">
+        <v>21</v>
+      </c>
+      <c r="C588" t="s">
+        <v>160</v>
+      </c>
+      <c r="D588" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="E588">
+        <v>-35.03</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A589" s="5">
+        <v>44925</v>
+      </c>
+      <c r="B589" t="s">
+        <v>16</v>
+      </c>
+      <c r="C589" t="s">
+        <v>178</v>
+      </c>
+      <c r="D589" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E589">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A590" s="5">
+        <v>44925</v>
+      </c>
+      <c r="B590" t="s">
+        <v>21</v>
+      </c>
+      <c r="C590" t="s">
+        <v>225</v>
+      </c>
+      <c r="D590" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="E590">
+        <v>-30.53</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A591" s="5">
+        <v>44925</v>
+      </c>
+      <c r="B591" t="s">
+        <v>21</v>
+      </c>
+      <c r="C591" t="s">
+        <v>202</v>
+      </c>
+      <c r="D591" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E591">
+        <v>-22.49</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A592" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B592" t="s">
+        <v>21</v>
+      </c>
+      <c r="C592" t="s">
+        <v>304</v>
+      </c>
+      <c r="D592" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="E592">
+        <v>-31.52</v>
       </c>
     </row>
   </sheetData>
@@ -12406,7 +12772,7 @@
           <x14:formula1>
             <xm:f>OFFSET(Categories!$A$2,0,0,COUNTIF(Categories!$A$2:$A$99,"&lt;&gt;"))</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D571</xm:sqref>
+          <xm:sqref>D2:D592</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Expenses.xlsx
+++ b/Expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffgood/Desktop/R_Studio_Projects/Financial_Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECC8DD0-7B3A-4540-9CAF-79F2E5BF2B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245E2FAD-B5D7-DA4A-8D9E-427C5427633F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="980" windowWidth="15420" windowHeight="15800" xr2:uid="{D9F47917-7B20-384C-878F-0D08681ABD47}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1909" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="319">
   <si>
     <t>Date</t>
   </si>
@@ -973,6 +973,30 @@
   </si>
   <si>
     <t>Pets</t>
+  </si>
+  <si>
+    <t>NORDSTROM        TRANS      ***********3152</t>
+  </si>
+  <si>
+    <t>Amici Pizza Mechanicsburgpa</t>
+  </si>
+  <si>
+    <t>Palotv Carlisl Mechanicsburgpa</t>
+  </si>
+  <si>
+    <t>HARRIS TEETER #0235</t>
+  </si>
+  <si>
+    <t>RUTTER'S #14</t>
+  </si>
+  <si>
+    <t>SHORES VETERINARY EMERGEN</t>
+  </si>
+  <si>
+    <t>IHERB IHERB.COM H8AeG    IHERB.COM    CA</t>
+  </si>
+  <si>
+    <t>Chewy</t>
   </si>
 </sst>
 </file>
@@ -1102,10 +1126,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}" name="Table1" displayName="Table1" ref="A1:E628" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E628" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E628">
-    <sortCondition ref="A1:A628"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}" name="Table1" displayName="Table1" ref="A1:E656" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E656" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E656">
+    <sortCondition ref="A1:A656"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{36D6B367-4586-164A-BAFD-F61BD8D7B0D8}" name="Date" dataDxfId="4"/>
@@ -1415,10 +1439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BEBEFE-BF8C-CE41-8907-E9633ACA1DDB}">
-  <dimension ref="A1:E628"/>
+  <dimension ref="A1:E656"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D629" sqref="D629"/>
+      <selection activeCell="D657" sqref="D657"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11531,7 +11555,7 @@
       </c>
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A593" s="3">
+      <c r="A593" s="2">
         <v>44927</v>
       </c>
       <c r="B593" t="s">
@@ -11540,7 +11564,7 @@
       <c r="C593" t="s">
         <v>309</v>
       </c>
-      <c r="D593" s="4" t="s">
+      <c r="D593" t="s">
         <v>268</v>
       </c>
       <c r="E593">
@@ -11548,7 +11572,7 @@
       </c>
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A594" s="3">
+      <c r="A594" s="2">
         <v>44927</v>
       </c>
       <c r="B594" t="s">
@@ -11557,7 +11581,7 @@
       <c r="C594" t="s">
         <v>51</v>
       </c>
-      <c r="D594" s="4" t="s">
+      <c r="D594" t="s">
         <v>12</v>
       </c>
       <c r="E594">
@@ -11565,7 +11589,7 @@
       </c>
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A595" s="3">
+      <c r="A595" s="2">
         <v>44928</v>
       </c>
       <c r="B595" t="s">
@@ -11574,7 +11598,7 @@
       <c r="C595" t="s">
         <v>307</v>
       </c>
-      <c r="D595" s="4" t="s">
+      <c r="D595" t="s">
         <v>12</v>
       </c>
       <c r="E595">
@@ -11582,7 +11606,7 @@
       </c>
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A596" s="3">
+      <c r="A596" s="2">
         <v>44928</v>
       </c>
       <c r="B596" t="s">
@@ -11591,7 +11615,7 @@
       <c r="C596" t="s">
         <v>308</v>
       </c>
-      <c r="D596" s="4" t="s">
+      <c r="D596" t="s">
         <v>266</v>
       </c>
       <c r="E596">
@@ -11599,7 +11623,7 @@
       </c>
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A597" s="3">
+      <c r="A597" s="2">
         <v>44929</v>
       </c>
       <c r="B597" t="s">
@@ -11608,7 +11632,7 @@
       <c r="C597" t="s">
         <v>147</v>
       </c>
-      <c r="D597" s="4" t="s">
+      <c r="D597" t="s">
         <v>9</v>
       </c>
       <c r="E597">
@@ -11616,7 +11640,7 @@
       </c>
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A598" s="3">
+      <c r="A598" s="2">
         <v>44929</v>
       </c>
       <c r="B598" t="s">
@@ -11625,7 +11649,7 @@
       <c r="C598" t="s">
         <v>147</v>
       </c>
-      <c r="D598" s="4" t="s">
+      <c r="D598" t="s">
         <v>9</v>
       </c>
       <c r="E598">
@@ -11633,7 +11657,7 @@
       </c>
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A599" s="3">
+      <c r="A599" s="2">
         <v>44929</v>
       </c>
       <c r="B599" t="s">
@@ -11642,7 +11666,7 @@
       <c r="C599" t="s">
         <v>147</v>
       </c>
-      <c r="D599" s="4" t="s">
+      <c r="D599" t="s">
         <v>8</v>
       </c>
       <c r="E599">
@@ -11650,7 +11674,7 @@
       </c>
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A600" s="3">
+      <c r="A600" s="2">
         <v>44929</v>
       </c>
       <c r="B600" t="s">
@@ -11659,7 +11683,7 @@
       <c r="C600" t="s">
         <v>166</v>
       </c>
-      <c r="D600" s="4" t="s">
+      <c r="D600" t="s">
         <v>269</v>
       </c>
       <c r="E600">
@@ -11667,7 +11691,7 @@
       </c>
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A601" s="3">
+      <c r="A601" s="2">
         <v>44929</v>
       </c>
       <c r="B601" t="s">
@@ -11676,7 +11700,7 @@
       <c r="C601" t="s">
         <v>147</v>
       </c>
-      <c r="D601" s="4" t="s">
+      <c r="D601" t="s">
         <v>9</v>
       </c>
       <c r="E601">
@@ -11684,7 +11708,7 @@
       </c>
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A602" s="3">
+      <c r="A602" s="2">
         <v>44929</v>
       </c>
       <c r="B602" t="s">
@@ -11693,7 +11717,7 @@
       <c r="C602" t="s">
         <v>147</v>
       </c>
-      <c r="D602" s="4" t="s">
+      <c r="D602" t="s">
         <v>9</v>
       </c>
       <c r="E602">
@@ -11701,7 +11725,7 @@
       </c>
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A603" s="3">
+      <c r="A603" s="2">
         <v>44929</v>
       </c>
       <c r="B603" t="s">
@@ -11710,7 +11734,7 @@
       <c r="C603" t="s">
         <v>147</v>
       </c>
-      <c r="D603" s="4" t="s">
+      <c r="D603" t="s">
         <v>11</v>
       </c>
       <c r="E603">
@@ -11718,7 +11742,7 @@
       </c>
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A604" s="3">
+      <c r="A604" s="2">
         <v>44929</v>
       </c>
       <c r="B604" t="s">
@@ -11727,7 +11751,7 @@
       <c r="C604" t="s">
         <v>210</v>
       </c>
-      <c r="D604" s="4" t="s">
+      <c r="D604" t="s">
         <v>268</v>
       </c>
       <c r="E604">
@@ -11735,7 +11759,7 @@
       </c>
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A605" s="3">
+      <c r="A605" s="2">
         <v>44930</v>
       </c>
       <c r="B605" t="s">
@@ -11744,7 +11768,7 @@
       <c r="C605" t="s">
         <v>203</v>
       </c>
-      <c r="D605" s="4" t="s">
+      <c r="D605" t="s">
         <v>10</v>
       </c>
       <c r="E605">
@@ -11752,7 +11776,7 @@
       </c>
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A606" s="3">
+      <c r="A606" s="2">
         <v>44930</v>
       </c>
       <c r="B606" t="s">
@@ -11761,7 +11785,7 @@
       <c r="C606" t="s">
         <v>166</v>
       </c>
-      <c r="D606" s="4" t="s">
+      <c r="D606" t="s">
         <v>269</v>
       </c>
       <c r="E606">
@@ -11769,7 +11793,7 @@
       </c>
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A607" s="3">
+      <c r="A607" s="2">
         <v>44930</v>
       </c>
       <c r="B607" t="s">
@@ -11778,7 +11802,7 @@
       <c r="C607" t="s">
         <v>306</v>
       </c>
-      <c r="D607" s="4" t="s">
+      <c r="D607" t="s">
         <v>90</v>
       </c>
       <c r="E607">
@@ -11786,7 +11810,7 @@
       </c>
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A608" s="3">
+      <c r="A608" s="2">
         <v>44930</v>
       </c>
       <c r="B608" t="s">
@@ -11795,7 +11819,7 @@
       <c r="C608" t="s">
         <v>206</v>
       </c>
-      <c r="D608" s="4" t="s">
+      <c r="D608" t="s">
         <v>266</v>
       </c>
       <c r="E608">
@@ -11803,7 +11827,7 @@
       </c>
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A609" s="3">
+      <c r="A609" s="2">
         <v>44930</v>
       </c>
       <c r="B609" t="s">
@@ -11812,7 +11836,7 @@
       <c r="C609" t="s">
         <v>53</v>
       </c>
-      <c r="D609" s="4" t="s">
+      <c r="D609" t="s">
         <v>54</v>
       </c>
       <c r="E609">
@@ -11820,7 +11844,7 @@
       </c>
     </row>
     <row r="610" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A610" s="3">
+      <c r="A610" s="2">
         <v>44931</v>
       </c>
       <c r="B610" t="s">
@@ -11829,7 +11853,7 @@
       <c r="C610" t="s">
         <v>297</v>
       </c>
-      <c r="D610" s="4" t="s">
+      <c r="D610" t="s">
         <v>11</v>
       </c>
       <c r="E610">
@@ -11837,7 +11861,7 @@
       </c>
     </row>
     <row r="611" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A611" s="3">
+      <c r="A611" s="2">
         <v>44931</v>
       </c>
       <c r="B611" t="s">
@@ -11846,7 +11870,7 @@
       <c r="C611" t="s">
         <v>210</v>
       </c>
-      <c r="D611" s="4" t="s">
+      <c r="D611" t="s">
         <v>268</v>
       </c>
       <c r="E611">
@@ -11854,7 +11878,7 @@
       </c>
     </row>
     <row r="612" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A612" s="3">
+      <c r="A612" s="2">
         <v>44931</v>
       </c>
       <c r="B612" t="s">
@@ -11863,7 +11887,7 @@
       <c r="C612" t="s">
         <v>211</v>
       </c>
-      <c r="D612" s="4" t="s">
+      <c r="D612" t="s">
         <v>12</v>
       </c>
       <c r="E612">
@@ -11871,7 +11895,7 @@
       </c>
     </row>
     <row r="613" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A613" s="3">
+      <c r="A613" s="2">
         <v>44931</v>
       </c>
       <c r="B613" t="s">
@@ -11880,7 +11904,7 @@
       <c r="C613" t="s">
         <v>165</v>
       </c>
-      <c r="D613" s="4" t="s">
+      <c r="D613" t="s">
         <v>268</v>
       </c>
       <c r="E613">
@@ -11888,7 +11912,7 @@
       </c>
     </row>
     <row r="614" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A614" s="3">
+      <c r="A614" s="2">
         <v>44932</v>
       </c>
       <c r="B614" t="s">
@@ -11897,7 +11921,7 @@
       <c r="C614" t="s">
         <v>304</v>
       </c>
-      <c r="D614" s="4" t="s">
+      <c r="D614" t="s">
         <v>268</v>
       </c>
       <c r="E614">
@@ -11905,7 +11929,7 @@
       </c>
     </row>
     <row r="615" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A615" s="3">
+      <c r="A615" s="2">
         <v>44932</v>
       </c>
       <c r="B615" t="s">
@@ -11914,7 +11938,7 @@
       <c r="C615" t="s">
         <v>181</v>
       </c>
-      <c r="D615" s="4" t="s">
+      <c r="D615" t="s">
         <v>266</v>
       </c>
       <c r="E615">
@@ -11922,7 +11946,7 @@
       </c>
     </row>
     <row r="616" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A616" s="3">
+      <c r="A616" s="2">
         <v>44932</v>
       </c>
       <c r="B616" t="s">
@@ -11931,7 +11955,7 @@
       <c r="C616" t="s">
         <v>305</v>
       </c>
-      <c r="D616" s="4" t="s">
+      <c r="D616" t="s">
         <v>264</v>
       </c>
       <c r="E616">
@@ -11939,7 +11963,7 @@
       </c>
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A617" s="3">
+      <c r="A617" s="2">
         <v>44933</v>
       </c>
       <c r="B617" t="s">
@@ -11948,7 +11972,7 @@
       <c r="C617" t="s">
         <v>301</v>
       </c>
-      <c r="D617" s="4" t="s">
+      <c r="D617" t="s">
         <v>310</v>
       </c>
       <c r="E617">
@@ -11956,7 +11980,7 @@
       </c>
     </row>
     <row r="618" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A618" s="3">
+      <c r="A618" s="2">
         <v>44933</v>
       </c>
       <c r="B618" t="s">
@@ -11965,7 +11989,7 @@
       <c r="C618" t="s">
         <v>89</v>
       </c>
-      <c r="D618" s="4" t="s">
+      <c r="D618" t="s">
         <v>268</v>
       </c>
       <c r="E618">
@@ -11973,7 +11997,7 @@
       </c>
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A619" s="3">
+      <c r="A619" s="2">
         <v>44933</v>
       </c>
       <c r="B619" t="s">
@@ -11982,7 +12006,7 @@
       <c r="C619" t="s">
         <v>302</v>
       </c>
-      <c r="D619" s="4" t="s">
+      <c r="D619" t="s">
         <v>310</v>
       </c>
       <c r="E619">
@@ -11990,7 +12014,7 @@
       </c>
     </row>
     <row r="620" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A620" s="3">
+      <c r="A620" s="2">
         <v>44933</v>
       </c>
       <c r="B620" t="s">
@@ -11999,7 +12023,7 @@
       <c r="C620" t="s">
         <v>303</v>
       </c>
-      <c r="D620" s="4" t="s">
+      <c r="D620" t="s">
         <v>310</v>
       </c>
       <c r="E620">
@@ -12007,7 +12031,7 @@
       </c>
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A621" s="3">
+      <c r="A621" s="2">
         <v>44933</v>
       </c>
       <c r="B621" t="s">
@@ -12016,7 +12040,7 @@
       <c r="C621" t="s">
         <v>150</v>
       </c>
-      <c r="D621" s="4" t="s">
+      <c r="D621" t="s">
         <v>265</v>
       </c>
       <c r="E621">
@@ -12024,7 +12048,7 @@
       </c>
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A622" s="3">
+      <c r="A622" s="2">
         <v>44934</v>
       </c>
       <c r="B622" t="s">
@@ -12033,7 +12057,7 @@
       <c r="C622" t="s">
         <v>172</v>
       </c>
-      <c r="D622" s="4" t="s">
+      <c r="D622" t="s">
         <v>265</v>
       </c>
       <c r="E622">
@@ -12041,7 +12065,7 @@
       </c>
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A623" s="3">
+      <c r="A623" s="2">
         <v>44934</v>
       </c>
       <c r="B623" t="s">
@@ -12050,7 +12074,7 @@
       <c r="C623" t="s">
         <v>299</v>
       </c>
-      <c r="D623" s="4" t="s">
+      <c r="D623" t="s">
         <v>310</v>
       </c>
       <c r="E623">
@@ -12058,7 +12082,7 @@
       </c>
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A624" s="3">
+      <c r="A624" s="2">
         <v>44934</v>
       </c>
       <c r="B624" t="s">
@@ -12067,7 +12091,7 @@
       <c r="C624" t="s">
         <v>300</v>
       </c>
-      <c r="D624" s="4" t="s">
+      <c r="D624" t="s">
         <v>266</v>
       </c>
       <c r="E624">
@@ -12075,7 +12099,7 @@
       </c>
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A625" s="3">
+      <c r="A625" s="2">
         <v>44934</v>
       </c>
       <c r="B625" t="s">
@@ -12084,7 +12108,7 @@
       <c r="C625" t="s">
         <v>103</v>
       </c>
-      <c r="D625" s="4" t="s">
+      <c r="D625" t="s">
         <v>12</v>
       </c>
       <c r="E625">
@@ -12092,7 +12116,7 @@
       </c>
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A626" s="3">
+      <c r="A626" s="2">
         <v>44935</v>
       </c>
       <c r="B626" t="s">
@@ -12101,7 +12125,7 @@
       <c r="C626" t="s">
         <v>106</v>
       </c>
-      <c r="D626" s="4" t="s">
+      <c r="D626" t="s">
         <v>12</v>
       </c>
       <c r="E626">
@@ -12109,7 +12133,7 @@
       </c>
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A627" s="3">
+      <c r="A627" s="2">
         <v>44935</v>
       </c>
       <c r="B627" t="s">
@@ -12118,15 +12142,15 @@
       <c r="C627" t="s">
         <v>106</v>
       </c>
-      <c r="D627" s="4" t="s">
+      <c r="D627" t="s">
         <v>266</v>
       </c>
-      <c r="E627" s="4">
+      <c r="E627">
         <v>-18</v>
       </c>
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A628" s="3">
+      <c r="A628" s="2">
         <v>44935</v>
       </c>
       <c r="B628" t="s">
@@ -12135,11 +12159,485 @@
       <c r="C628" t="s">
         <v>298</v>
       </c>
-      <c r="D628" s="4" t="s">
+      <c r="D628" t="s">
         <v>268</v>
       </c>
       <c r="E628">
         <v>-7.62</v>
+      </c>
+    </row>
+    <row r="629" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A629" s="3">
+        <v>44936</v>
+      </c>
+      <c r="B629" t="s">
+        <v>7</v>
+      </c>
+      <c r="C629" t="s">
+        <v>313</v>
+      </c>
+      <c r="D629" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E629">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="630" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A630" s="3">
+        <v>44936</v>
+      </c>
+      <c r="B630" t="s">
+        <v>21</v>
+      </c>
+      <c r="C630" t="s">
+        <v>211</v>
+      </c>
+      <c r="D630" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E630">
+        <v>-19.32</v>
+      </c>
+    </row>
+    <row r="631" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A631" s="3">
+        <v>44936</v>
+      </c>
+      <c r="B631" t="s">
+        <v>21</v>
+      </c>
+      <c r="C631" t="s">
+        <v>205</v>
+      </c>
+      <c r="D631" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E631">
+        <v>-17.37</v>
+      </c>
+    </row>
+    <row r="632" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A632" s="3">
+        <v>44936</v>
+      </c>
+      <c r="B632" t="s">
+        <v>21</v>
+      </c>
+      <c r="C632" t="s">
+        <v>161</v>
+      </c>
+      <c r="D632" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E632">
+        <v>-35.39</v>
+      </c>
+    </row>
+    <row r="633" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A633" s="3">
+        <v>44936</v>
+      </c>
+      <c r="B633" t="s">
+        <v>21</v>
+      </c>
+      <c r="C633" t="s">
+        <v>53</v>
+      </c>
+      <c r="D633" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E633">
+        <v>-105</v>
+      </c>
+    </row>
+    <row r="634" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A634" s="3">
+        <v>44937</v>
+      </c>
+      <c r="B634" t="s">
+        <v>7</v>
+      </c>
+      <c r="C634" t="s">
+        <v>171</v>
+      </c>
+      <c r="D634" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E634">
+        <v>-25.28</v>
+      </c>
+    </row>
+    <row r="635" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A635" s="3">
+        <v>44937</v>
+      </c>
+      <c r="B635" t="s">
+        <v>7</v>
+      </c>
+      <c r="C635" t="s">
+        <v>171</v>
+      </c>
+      <c r="D635" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E635" s="4">
+        <v>-20.85</v>
+      </c>
+    </row>
+    <row r="636" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A636" s="3">
+        <v>44937</v>
+      </c>
+      <c r="B636" t="s">
+        <v>7</v>
+      </c>
+      <c r="C636" t="s">
+        <v>171</v>
+      </c>
+      <c r="D636" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E636" s="4">
+        <v>-117.17</v>
+      </c>
+    </row>
+    <row r="637" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A637" s="3">
+        <v>44937</v>
+      </c>
+      <c r="B637" t="s">
+        <v>7</v>
+      </c>
+      <c r="C637" t="s">
+        <v>170</v>
+      </c>
+      <c r="D637" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E637">
+        <v>3106.4</v>
+      </c>
+    </row>
+    <row r="638" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A638" s="3">
+        <v>44937</v>
+      </c>
+      <c r="B638" t="s">
+        <v>7</v>
+      </c>
+      <c r="C638" t="s">
+        <v>214</v>
+      </c>
+      <c r="D638" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E638">
+        <v>512.70000000000005</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A639" s="3">
+        <v>44937</v>
+      </c>
+      <c r="B639" t="s">
+        <v>21</v>
+      </c>
+      <c r="C639" t="s">
+        <v>210</v>
+      </c>
+      <c r="D639" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E639">
+        <v>-21.93</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A640" s="3">
+        <v>44938</v>
+      </c>
+      <c r="B640" t="s">
+        <v>7</v>
+      </c>
+      <c r="C640" t="s">
+        <v>171</v>
+      </c>
+      <c r="D640" s="4"/>
+      <c r="E640">
+        <v>-40.06</v>
+      </c>
+    </row>
+    <row r="641" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A641" s="3">
+        <v>44938</v>
+      </c>
+      <c r="B641" t="s">
+        <v>7</v>
+      </c>
+      <c r="C641" t="s">
+        <v>171</v>
+      </c>
+      <c r="D641" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E641">
+        <v>-32.229999999999997</v>
+      </c>
+    </row>
+    <row r="642" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A642" s="3">
+        <v>44939</v>
+      </c>
+      <c r="B642" t="s">
+        <v>7</v>
+      </c>
+      <c r="C642" t="s">
+        <v>169</v>
+      </c>
+      <c r="D642" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E642">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="643" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A643" s="3">
+        <v>44939</v>
+      </c>
+      <c r="B643" t="s">
+        <v>7</v>
+      </c>
+      <c r="C643" t="s">
+        <v>312</v>
+      </c>
+      <c r="D643" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E643">
+        <v>-14.77</v>
+      </c>
+    </row>
+    <row r="644" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A644" s="3">
+        <v>44939</v>
+      </c>
+      <c r="B644" t="s">
+        <v>21</v>
+      </c>
+      <c r="C644" t="s">
+        <v>209</v>
+      </c>
+      <c r="D644" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E644">
+        <v>-45.76</v>
+      </c>
+    </row>
+    <row r="645" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A645" s="3">
+        <v>44939</v>
+      </c>
+      <c r="B645" t="s">
+        <v>21</v>
+      </c>
+      <c r="C645" t="s">
+        <v>255</v>
+      </c>
+      <c r="D645" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E645">
+        <v>-38.35</v>
+      </c>
+    </row>
+    <row r="646" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A646" s="3">
+        <v>44940</v>
+      </c>
+      <c r="B646" t="s">
+        <v>21</v>
+      </c>
+      <c r="C646" t="s">
+        <v>318</v>
+      </c>
+      <c r="D646" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="E646">
+        <v>-54.34</v>
+      </c>
+    </row>
+    <row r="647" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A647" s="3">
+        <v>44941</v>
+      </c>
+      <c r="B647" t="s">
+        <v>21</v>
+      </c>
+      <c r="C647" t="s">
+        <v>138</v>
+      </c>
+      <c r="D647" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E647">
+        <v>-26.99</v>
+      </c>
+    </row>
+    <row r="648" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A648" s="3">
+        <v>44941</v>
+      </c>
+      <c r="B648" t="s">
+        <v>21</v>
+      </c>
+      <c r="C648" t="s">
+        <v>317</v>
+      </c>
+      <c r="D648" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E648">
+        <v>-53.83</v>
+      </c>
+    </row>
+    <row r="649" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A649" s="3">
+        <v>44942</v>
+      </c>
+      <c r="B649" t="s">
+        <v>21</v>
+      </c>
+      <c r="C649" t="s">
+        <v>314</v>
+      </c>
+      <c r="D649" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E649">
+        <v>-31.77</v>
+      </c>
+    </row>
+    <row r="650" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A650" s="3">
+        <v>44942</v>
+      </c>
+      <c r="B650" t="s">
+        <v>21</v>
+      </c>
+      <c r="C650" t="s">
+        <v>315</v>
+      </c>
+      <c r="D650" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E650">
+        <v>-5.38</v>
+      </c>
+    </row>
+    <row r="651" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A651" s="3">
+        <v>44942</v>
+      </c>
+      <c r="B651" t="s">
+        <v>21</v>
+      </c>
+      <c r="C651" t="s">
+        <v>316</v>
+      </c>
+      <c r="D651" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="E651">
+        <v>-291.58</v>
+      </c>
+    </row>
+    <row r="652" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A652" s="3">
+        <v>44943</v>
+      </c>
+      <c r="B652" t="s">
+        <v>7</v>
+      </c>
+      <c r="C652" t="s">
+        <v>106</v>
+      </c>
+      <c r="D652" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E652">
+        <v>100.48</v>
+      </c>
+    </row>
+    <row r="653" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A653" s="3">
+        <v>44943</v>
+      </c>
+      <c r="B653" t="s">
+        <v>7</v>
+      </c>
+      <c r="C653" t="s">
+        <v>311</v>
+      </c>
+      <c r="D653" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E653">
+        <v>78.400000000000006</v>
+      </c>
+    </row>
+    <row r="654" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A654" s="3">
+        <v>44943</v>
+      </c>
+      <c r="B654" t="s">
+        <v>7</v>
+      </c>
+      <c r="C654" t="s">
+        <v>6</v>
+      </c>
+      <c r="D654" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E654">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="655" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A655" s="3">
+        <v>44943</v>
+      </c>
+      <c r="B655" t="s">
+        <v>7</v>
+      </c>
+      <c r="C655" t="s">
+        <v>6</v>
+      </c>
+      <c r="D655" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E655">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="656" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A656" s="3">
+        <v>44943</v>
+      </c>
+      <c r="B656" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C656" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D656" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E656" s="4">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -12155,7 +12653,7 @@
           <x14:formula1>
             <xm:f>OFFSET(Categories!$A$2,0,0,COUNTIF(Categories!$A$2:$A$99,"&lt;&gt;"))</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D628</xm:sqref>
+          <xm:sqref>D2:D656</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Expenses.xlsx
+++ b/Expenses.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffgood/Desktop/R_Studio_Projects/Financial_Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245E2FAD-B5D7-DA4A-8D9E-427C5427633F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BE595C-58F6-B249-8D7A-5D5BBB7E408B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="980" windowWidth="15420" windowHeight="15800" xr2:uid="{D9F47917-7B20-384C-878F-0D08681ABD47}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2104" uniqueCount="332">
   <si>
     <t>Date</t>
   </si>
@@ -997,6 +997,45 @@
   </si>
   <si>
     <t>Chewy</t>
+  </si>
+  <si>
+    <t>CHASE CREDIT CRD EPAY       ***********3021</t>
+  </si>
+  <si>
+    <t>Navy Federal Crmarine</t>
+  </si>
+  <si>
+    <t>KARNS QUALITY FOODS</t>
+  </si>
+  <si>
+    <t>American Airlines USD</t>
+  </si>
+  <si>
+    <t>CHEWY.COM                800-672-4399 FL</t>
+  </si>
+  <si>
+    <t>EXPEDIA 72476325529462   EXPEDIA.COM  WA</t>
+  </si>
+  <si>
+    <t>CARRABBAS 8909           MECHANICSBURGPA</t>
+  </si>
+  <si>
+    <t>Womens Health</t>
+  </si>
+  <si>
+    <t>Mezza Cafe</t>
+  </si>
+  <si>
+    <t>Tony's Pizzatown</t>
+  </si>
+  <si>
+    <t>Yankee Doodle Family Res</t>
+  </si>
+  <si>
+    <t>Peet's Coffee</t>
+  </si>
+  <si>
+    <t>Danjohnuniversity</t>
   </si>
 </sst>
 </file>
@@ -1126,10 +1165,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}" name="Table1" displayName="Table1" ref="A1:E656" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E656" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E656">
-    <sortCondition ref="A1:A656"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}" name="Table1" displayName="Table1" ref="A1:E693" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E693" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E693">
+    <sortCondition ref="A1:A693"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{36D6B367-4586-164A-BAFD-F61BD8D7B0D8}" name="Date" dataDxfId="4"/>
@@ -1143,7 +1182,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1431,7 +1470,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1439,10 +1478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BEBEFE-BF8C-CE41-8907-E9633ACA1DDB}">
-  <dimension ref="A1:E656"/>
+  <dimension ref="A1:E693"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D657" sqref="D657"/>
+      <selection activeCell="D694" sqref="D694"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12167,7 +12206,7 @@
       </c>
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A629" s="3">
+      <c r="A629" s="2">
         <v>44936</v>
       </c>
       <c r="B629" t="s">
@@ -12176,7 +12215,7 @@
       <c r="C629" t="s">
         <v>313</v>
       </c>
-      <c r="D629" s="4" t="s">
+      <c r="D629" t="s">
         <v>11</v>
       </c>
       <c r="E629">
@@ -12184,7 +12223,7 @@
       </c>
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A630" s="3">
+      <c r="A630" s="2">
         <v>44936</v>
       </c>
       <c r="B630" t="s">
@@ -12193,7 +12232,7 @@
       <c r="C630" t="s">
         <v>211</v>
       </c>
-      <c r="D630" s="4" t="s">
+      <c r="D630" t="s">
         <v>12</v>
       </c>
       <c r="E630">
@@ -12201,7 +12240,7 @@
       </c>
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A631" s="3">
+      <c r="A631" s="2">
         <v>44936</v>
       </c>
       <c r="B631" t="s">
@@ -12210,7 +12249,7 @@
       <c r="C631" t="s">
         <v>205</v>
       </c>
-      <c r="D631" s="4" t="s">
+      <c r="D631" t="s">
         <v>268</v>
       </c>
       <c r="E631">
@@ -12218,7 +12257,7 @@
       </c>
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A632" s="3">
+      <c r="A632" s="2">
         <v>44936</v>
       </c>
       <c r="B632" t="s">
@@ -12227,7 +12266,7 @@
       <c r="C632" t="s">
         <v>161</v>
       </c>
-      <c r="D632" s="4" t="s">
+      <c r="D632" t="s">
         <v>264</v>
       </c>
       <c r="E632">
@@ -12235,7 +12274,7 @@
       </c>
     </row>
     <row r="633" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A633" s="3">
+      <c r="A633" s="2">
         <v>44936</v>
       </c>
       <c r="B633" t="s">
@@ -12244,7 +12283,7 @@
       <c r="C633" t="s">
         <v>53</v>
       </c>
-      <c r="D633" s="4" t="s">
+      <c r="D633" t="s">
         <v>54</v>
       </c>
       <c r="E633">
@@ -12252,7 +12291,7 @@
       </c>
     </row>
     <row r="634" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A634" s="3">
+      <c r="A634" s="2">
         <v>44937</v>
       </c>
       <c r="B634" t="s">
@@ -12261,7 +12300,7 @@
       <c r="C634" t="s">
         <v>171</v>
       </c>
-      <c r="D634" s="4" t="s">
+      <c r="D634" t="s">
         <v>266</v>
       </c>
       <c r="E634">
@@ -12269,7 +12308,7 @@
       </c>
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A635" s="3">
+      <c r="A635" s="2">
         <v>44937</v>
       </c>
       <c r="B635" t="s">
@@ -12278,15 +12317,15 @@
       <c r="C635" t="s">
         <v>171</v>
       </c>
-      <c r="D635" s="4" t="s">
+      <c r="D635" t="s">
         <v>12</v>
       </c>
-      <c r="E635" s="4">
+      <c r="E635">
         <v>-20.85</v>
       </c>
     </row>
     <row r="636" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A636" s="3">
+      <c r="A636" s="2">
         <v>44937</v>
       </c>
       <c r="B636" t="s">
@@ -12295,15 +12334,15 @@
       <c r="C636" t="s">
         <v>171</v>
       </c>
-      <c r="D636" s="4" t="s">
+      <c r="D636" t="s">
         <v>265</v>
       </c>
-      <c r="E636" s="4">
+      <c r="E636">
         <v>-117.17</v>
       </c>
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A637" s="3">
+      <c r="A637" s="2">
         <v>44937</v>
       </c>
       <c r="B637" t="s">
@@ -12312,7 +12351,7 @@
       <c r="C637" t="s">
         <v>170</v>
       </c>
-      <c r="D637" s="4" t="s">
+      <c r="D637" t="s">
         <v>32</v>
       </c>
       <c r="E637">
@@ -12320,7 +12359,7 @@
       </c>
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A638" s="3">
+      <c r="A638" s="2">
         <v>44937</v>
       </c>
       <c r="B638" t="s">
@@ -12329,7 +12368,7 @@
       <c r="C638" t="s">
         <v>214</v>
       </c>
-      <c r="D638" s="4" t="s">
+      <c r="D638" t="s">
         <v>32</v>
       </c>
       <c r="E638">
@@ -12337,7 +12376,7 @@
       </c>
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A639" s="3">
+      <c r="A639" s="2">
         <v>44937</v>
       </c>
       <c r="B639" t="s">
@@ -12346,7 +12385,7 @@
       <c r="C639" t="s">
         <v>210</v>
       </c>
-      <c r="D639" s="4" t="s">
+      <c r="D639" t="s">
         <v>268</v>
       </c>
       <c r="E639">
@@ -12354,7 +12393,7 @@
       </c>
     </row>
     <row r="640" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A640" s="3">
+      <c r="A640" s="2">
         <v>44938</v>
       </c>
       <c r="B640" t="s">
@@ -12363,13 +12402,15 @@
       <c r="C640" t="s">
         <v>171</v>
       </c>
-      <c r="D640" s="4"/>
+      <c r="D640" t="s">
+        <v>11</v>
+      </c>
       <c r="E640">
         <v>-40.06</v>
       </c>
     </row>
     <row r="641" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A641" s="3">
+      <c r="A641" s="2">
         <v>44938</v>
       </c>
       <c r="B641" t="s">
@@ -12378,7 +12419,7 @@
       <c r="C641" t="s">
         <v>171</v>
       </c>
-      <c r="D641" s="4" t="s">
+      <c r="D641" t="s">
         <v>265</v>
       </c>
       <c r="E641">
@@ -12386,7 +12427,7 @@
       </c>
     </row>
     <row r="642" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A642" s="3">
+      <c r="A642" s="2">
         <v>44939</v>
       </c>
       <c r="B642" t="s">
@@ -12395,7 +12436,7 @@
       <c r="C642" t="s">
         <v>169</v>
       </c>
-      <c r="D642" s="4" t="s">
+      <c r="D642" t="s">
         <v>14</v>
       </c>
       <c r="E642">
@@ -12403,7 +12444,7 @@
       </c>
     </row>
     <row r="643" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A643" s="3">
+      <c r="A643" s="2">
         <v>44939</v>
       </c>
       <c r="B643" t="s">
@@ -12412,7 +12453,7 @@
       <c r="C643" t="s">
         <v>312</v>
       </c>
-      <c r="D643" s="4" t="s">
+      <c r="D643" t="s">
         <v>268</v>
       </c>
       <c r="E643">
@@ -12420,7 +12461,7 @@
       </c>
     </row>
     <row r="644" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A644" s="3">
+      <c r="A644" s="2">
         <v>44939</v>
       </c>
       <c r="B644" t="s">
@@ -12429,7 +12470,7 @@
       <c r="C644" t="s">
         <v>209</v>
       </c>
-      <c r="D644" s="4" t="s">
+      <c r="D644" t="s">
         <v>264</v>
       </c>
       <c r="E644">
@@ -12437,7 +12478,7 @@
       </c>
     </row>
     <row r="645" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A645" s="3">
+      <c r="A645" s="2">
         <v>44939</v>
       </c>
       <c r="B645" t="s">
@@ -12446,7 +12487,7 @@
       <c r="C645" t="s">
         <v>255</v>
       </c>
-      <c r="D645" s="4" t="s">
+      <c r="D645" t="s">
         <v>268</v>
       </c>
       <c r="E645">
@@ -12454,7 +12495,7 @@
       </c>
     </row>
     <row r="646" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A646" s="3">
+      <c r="A646" s="2">
         <v>44940</v>
       </c>
       <c r="B646" t="s">
@@ -12463,7 +12504,7 @@
       <c r="C646" t="s">
         <v>318</v>
       </c>
-      <c r="D646" s="4" t="s">
+      <c r="D646" t="s">
         <v>310</v>
       </c>
       <c r="E646">
@@ -12471,7 +12512,7 @@
       </c>
     </row>
     <row r="647" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A647" s="3">
+      <c r="A647" s="2">
         <v>44941</v>
       </c>
       <c r="B647" t="s">
@@ -12480,7 +12521,7 @@
       <c r="C647" t="s">
         <v>138</v>
       </c>
-      <c r="D647" s="4" t="s">
+      <c r="D647" t="s">
         <v>268</v>
       </c>
       <c r="E647">
@@ -12488,7 +12529,7 @@
       </c>
     </row>
     <row r="648" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A648" s="3">
+      <c r="A648" s="2">
         <v>44941</v>
       </c>
       <c r="B648" t="s">
@@ -12497,7 +12538,7 @@
       <c r="C648" t="s">
         <v>317</v>
       </c>
-      <c r="D648" s="4" t="s">
+      <c r="D648" t="s">
         <v>266</v>
       </c>
       <c r="E648">
@@ -12505,7 +12546,7 @@
       </c>
     </row>
     <row r="649" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A649" s="3">
+      <c r="A649" s="2">
         <v>44942</v>
       </c>
       <c r="B649" t="s">
@@ -12514,7 +12555,7 @@
       <c r="C649" t="s">
         <v>314</v>
       </c>
-      <c r="D649" s="4" t="s">
+      <c r="D649" t="s">
         <v>12</v>
       </c>
       <c r="E649">
@@ -12522,7 +12563,7 @@
       </c>
     </row>
     <row r="650" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A650" s="3">
+      <c r="A650" s="2">
         <v>44942</v>
       </c>
       <c r="B650" t="s">
@@ -12531,7 +12572,7 @@
       <c r="C650" t="s">
         <v>315</v>
       </c>
-      <c r="D650" s="4" t="s">
+      <c r="D650" t="s">
         <v>12</v>
       </c>
       <c r="E650">
@@ -12539,7 +12580,7 @@
       </c>
     </row>
     <row r="651" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A651" s="3">
+      <c r="A651" s="2">
         <v>44942</v>
       </c>
       <c r="B651" t="s">
@@ -12548,7 +12589,7 @@
       <c r="C651" t="s">
         <v>316</v>
       </c>
-      <c r="D651" s="4" t="s">
+      <c r="D651" t="s">
         <v>310</v>
       </c>
       <c r="E651">
@@ -12556,7 +12597,7 @@
       </c>
     </row>
     <row r="652" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A652" s="3">
+      <c r="A652" s="2">
         <v>44943</v>
       </c>
       <c r="B652" t="s">
@@ -12565,7 +12606,7 @@
       <c r="C652" t="s">
         <v>106</v>
       </c>
-      <c r="D652" s="4" t="s">
+      <c r="D652" t="s">
         <v>265</v>
       </c>
       <c r="E652">
@@ -12573,7 +12614,7 @@
       </c>
     </row>
     <row r="653" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A653" s="3">
+      <c r="A653" s="2">
         <v>44943</v>
       </c>
       <c r="B653" t="s">
@@ -12582,7 +12623,7 @@
       <c r="C653" t="s">
         <v>311</v>
       </c>
-      <c r="D653" s="4" t="s">
+      <c r="D653" t="s">
         <v>266</v>
       </c>
       <c r="E653">
@@ -12590,7 +12631,7 @@
       </c>
     </row>
     <row r="654" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A654" s="3">
+      <c r="A654" s="2">
         <v>44943</v>
       </c>
       <c r="B654" t="s">
@@ -12599,7 +12640,7 @@
       <c r="C654" t="s">
         <v>6</v>
       </c>
-      <c r="D654" s="4" t="s">
+      <c r="D654" t="s">
         <v>9</v>
       </c>
       <c r="E654">
@@ -12607,7 +12648,7 @@
       </c>
     </row>
     <row r="655" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A655" s="3">
+      <c r="A655" s="2">
         <v>44943</v>
       </c>
       <c r="B655" t="s">
@@ -12616,7 +12657,7 @@
       <c r="C655" t="s">
         <v>6</v>
       </c>
-      <c r="D655" s="4" t="s">
+      <c r="D655" t="s">
         <v>8</v>
       </c>
       <c r="E655">
@@ -12624,20 +12665,649 @@
       </c>
     </row>
     <row r="656" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A656" s="3">
+      <c r="A656" s="2">
         <v>44943</v>
       </c>
-      <c r="B656" s="4" t="s">
+      <c r="B656" t="s">
         <v>16</v>
       </c>
-      <c r="C656" s="4" t="s">
+      <c r="C656" t="s">
         <v>6</v>
       </c>
-      <c r="D656" s="4" t="s">
+      <c r="D656" t="s">
         <v>9</v>
       </c>
-      <c r="E656" s="4">
+      <c r="E656">
         <v>300</v>
+      </c>
+    </row>
+    <row r="657" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A657" s="3">
+        <v>44943</v>
+      </c>
+      <c r="B657" t="s">
+        <v>7</v>
+      </c>
+      <c r="C657" t="s">
+        <v>171</v>
+      </c>
+      <c r="D657" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E657">
+        <v>-44.53</v>
+      </c>
+    </row>
+    <row r="658" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A658" s="3">
+        <v>44943</v>
+      </c>
+      <c r="B658" t="s">
+        <v>7</v>
+      </c>
+      <c r="C658" t="s">
+        <v>171</v>
+      </c>
+      <c r="D658" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E658">
+        <v>-12.8</v>
+      </c>
+    </row>
+    <row r="659" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A659" s="3">
+        <v>44943</v>
+      </c>
+      <c r="B659" t="s">
+        <v>7</v>
+      </c>
+      <c r="C659" t="s">
+        <v>171</v>
+      </c>
+      <c r="D659" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E659">
+        <v>-5.22</v>
+      </c>
+    </row>
+    <row r="660" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A660" s="3">
+        <v>44943</v>
+      </c>
+      <c r="B660" t="s">
+        <v>16</v>
+      </c>
+      <c r="C660" t="s">
+        <v>166</v>
+      </c>
+      <c r="D660" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E660">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="661" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A661" s="3">
+        <v>44943</v>
+      </c>
+      <c r="B661" t="s">
+        <v>21</v>
+      </c>
+      <c r="C661" t="s">
+        <v>254</v>
+      </c>
+      <c r="D661" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E661">
+        <v>-33.090000000000003</v>
+      </c>
+    </row>
+    <row r="662" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A662" s="3">
+        <v>44944</v>
+      </c>
+      <c r="B662" t="s">
+        <v>7</v>
+      </c>
+      <c r="C662" t="s">
+        <v>320</v>
+      </c>
+      <c r="D662" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E662">
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="663" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A663" s="3">
+        <v>44944</v>
+      </c>
+      <c r="B663" t="s">
+        <v>7</v>
+      </c>
+      <c r="C663" t="s">
+        <v>183</v>
+      </c>
+      <c r="D663" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E663">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="664" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A664" s="3">
+        <v>44944</v>
+      </c>
+      <c r="B664" t="s">
+        <v>7</v>
+      </c>
+      <c r="C664" t="s">
+        <v>214</v>
+      </c>
+      <c r="D664" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E664">
+        <v>433.7</v>
+      </c>
+    </row>
+    <row r="665" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A665" s="3">
+        <v>44944</v>
+      </c>
+      <c r="B665" t="s">
+        <v>21</v>
+      </c>
+      <c r="C665" t="s">
+        <v>210</v>
+      </c>
+      <c r="D665" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E665">
+        <v>-23.12</v>
+      </c>
+    </row>
+    <row r="666" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A666" s="3">
+        <v>44944</v>
+      </c>
+      <c r="B666" t="s">
+        <v>21</v>
+      </c>
+      <c r="C666" t="s">
+        <v>211</v>
+      </c>
+      <c r="D666" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E666">
+        <v>-3.52</v>
+      </c>
+    </row>
+    <row r="667" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A667" s="3">
+        <v>44944</v>
+      </c>
+      <c r="B667" t="s">
+        <v>21</v>
+      </c>
+      <c r="C667" t="s">
+        <v>216</v>
+      </c>
+      <c r="D667" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E667">
+        <v>-22.64</v>
+      </c>
+    </row>
+    <row r="668" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A668" s="3">
+        <v>44944</v>
+      </c>
+      <c r="B668" t="s">
+        <v>21</v>
+      </c>
+      <c r="C668" t="s">
+        <v>209</v>
+      </c>
+      <c r="D668" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E668">
+        <v>-18.91</v>
+      </c>
+    </row>
+    <row r="669" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A669" s="3">
+        <v>44944</v>
+      </c>
+      <c r="B669" t="s">
+        <v>21</v>
+      </c>
+      <c r="C669" t="s">
+        <v>53</v>
+      </c>
+      <c r="D669" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E669">
+        <v>-105</v>
+      </c>
+    </row>
+    <row r="670" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A670" s="3">
+        <v>44945</v>
+      </c>
+      <c r="B670" t="s">
+        <v>21</v>
+      </c>
+      <c r="C670" t="s">
+        <v>329</v>
+      </c>
+      <c r="D670" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E670">
+        <v>-35.270000000000003</v>
+      </c>
+    </row>
+    <row r="671" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A671" s="3">
+        <v>44945</v>
+      </c>
+      <c r="B671" t="s">
+        <v>21</v>
+      </c>
+      <c r="C671" t="s">
+        <v>330</v>
+      </c>
+      <c r="D671" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E671">
+        <v>-5.51</v>
+      </c>
+    </row>
+    <row r="672" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A672" s="3">
+        <v>44945</v>
+      </c>
+      <c r="B672" t="s">
+        <v>21</v>
+      </c>
+      <c r="C672" t="s">
+        <v>331</v>
+      </c>
+      <c r="D672" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E672">
+        <v>-29.99</v>
+      </c>
+    </row>
+    <row r="673" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A673" s="3">
+        <v>44945</v>
+      </c>
+      <c r="B673" t="s">
+        <v>21</v>
+      </c>
+      <c r="C673" t="s">
+        <v>205</v>
+      </c>
+      <c r="D673" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E673">
+        <v>-15.67</v>
+      </c>
+    </row>
+    <row r="674" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A674" s="3">
+        <v>44946</v>
+      </c>
+      <c r="B674" t="s">
+        <v>21</v>
+      </c>
+      <c r="C674" t="s">
+        <v>195</v>
+      </c>
+      <c r="D674" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E674">
+        <v>-39.99</v>
+      </c>
+    </row>
+    <row r="675" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A675" s="3">
+        <v>44946</v>
+      </c>
+      <c r="B675" t="s">
+        <v>21</v>
+      </c>
+      <c r="C675" t="s">
+        <v>326</v>
+      </c>
+      <c r="D675" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E675">
+        <v>-17.239999999999998</v>
+      </c>
+    </row>
+    <row r="676" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A676" s="3">
+        <v>44946</v>
+      </c>
+      <c r="B676" t="s">
+        <v>21</v>
+      </c>
+      <c r="C676" t="s">
+        <v>304</v>
+      </c>
+      <c r="D676" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E676">
+        <v>-9.5299999999999994</v>
+      </c>
+    </row>
+    <row r="677" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A677" s="3">
+        <v>44946</v>
+      </c>
+      <c r="B677" t="s">
+        <v>21</v>
+      </c>
+      <c r="C677" t="s">
+        <v>327</v>
+      </c>
+      <c r="D677" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E677">
+        <v>-15.15</v>
+      </c>
+    </row>
+    <row r="678" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A678" s="3">
+        <v>44946</v>
+      </c>
+      <c r="B678" t="s">
+        <v>21</v>
+      </c>
+      <c r="C678" t="s">
+        <v>175</v>
+      </c>
+      <c r="D678" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E678">
+        <v>-8.4600000000000009</v>
+      </c>
+    </row>
+    <row r="679" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A679" s="3">
+        <v>44946</v>
+      </c>
+      <c r="B679" t="s">
+        <v>21</v>
+      </c>
+      <c r="C679" t="s">
+        <v>328</v>
+      </c>
+      <c r="D679" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E679">
+        <v>-22.56</v>
+      </c>
+    </row>
+    <row r="680" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A680" s="3">
+        <v>44948</v>
+      </c>
+      <c r="B680" t="s">
+        <v>21</v>
+      </c>
+      <c r="C680" t="s">
+        <v>322</v>
+      </c>
+      <c r="D680" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E680">
+        <v>-32.56</v>
+      </c>
+    </row>
+    <row r="681" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A681" s="3">
+        <v>44948</v>
+      </c>
+      <c r="B681" t="s">
+        <v>21</v>
+      </c>
+      <c r="C681" t="s">
+        <v>322</v>
+      </c>
+      <c r="D681" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E681">
+        <v>-227.8</v>
+      </c>
+    </row>
+    <row r="682" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A682" s="3">
+        <v>44948</v>
+      </c>
+      <c r="B682" t="s">
+        <v>21</v>
+      </c>
+      <c r="C682" t="s">
+        <v>174</v>
+      </c>
+      <c r="D682" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E682">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="683" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A683" s="3">
+        <v>44948</v>
+      </c>
+      <c r="B683" t="s">
+        <v>21</v>
+      </c>
+      <c r="C683" t="s">
+        <v>174</v>
+      </c>
+      <c r="D683" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E683">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="684" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A684" s="3">
+        <v>44949</v>
+      </c>
+      <c r="B684" t="s">
+        <v>7</v>
+      </c>
+      <c r="C684" t="s">
+        <v>319</v>
+      </c>
+      <c r="D684" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E684">
+        <v>-732.57</v>
+      </c>
+    </row>
+    <row r="685" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A685" s="3">
+        <v>44949</v>
+      </c>
+      <c r="B685" t="s">
+        <v>7</v>
+      </c>
+      <c r="C685" t="s">
+        <v>106</v>
+      </c>
+      <c r="D685" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E685">
+        <v>-69.23</v>
+      </c>
+    </row>
+    <row r="686" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A686" s="3">
+        <v>44949</v>
+      </c>
+      <c r="B686" t="s">
+        <v>7</v>
+      </c>
+      <c r="C686" t="s">
+        <v>43</v>
+      </c>
+      <c r="D686" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E686">
+        <v>-4000</v>
+      </c>
+    </row>
+    <row r="687" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A687" s="3">
+        <v>44949</v>
+      </c>
+      <c r="B687" t="s">
+        <v>7</v>
+      </c>
+      <c r="C687" t="s">
+        <v>106</v>
+      </c>
+      <c r="D687" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E687">
+        <v>16.149999999999999</v>
+      </c>
+    </row>
+    <row r="688" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A688" s="3">
+        <v>44949</v>
+      </c>
+      <c r="B688" t="s">
+        <v>16</v>
+      </c>
+      <c r="C688" t="s">
+        <v>43</v>
+      </c>
+      <c r="D688" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E688">
+        <v>-1602</v>
+      </c>
+    </row>
+    <row r="689" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A689" s="3">
+        <v>44949</v>
+      </c>
+      <c r="B689" t="s">
+        <v>21</v>
+      </c>
+      <c r="C689" t="s">
+        <v>189</v>
+      </c>
+      <c r="D689" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E689">
+        <v>-105</v>
+      </c>
+    </row>
+    <row r="690" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A690" s="3">
+        <v>44949</v>
+      </c>
+      <c r="B690" t="s">
+        <v>21</v>
+      </c>
+      <c r="C690" t="s">
+        <v>321</v>
+      </c>
+      <c r="D690" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E690">
+        <v>-36.92</v>
+      </c>
+    </row>
+    <row r="691" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A691" s="3">
+        <v>44949</v>
+      </c>
+      <c r="B691" t="s">
+        <v>21</v>
+      </c>
+      <c r="C691" t="s">
+        <v>323</v>
+      </c>
+      <c r="D691" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="E691">
+        <v>-60.72</v>
+      </c>
+    </row>
+    <row r="692" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A692" s="3">
+        <v>44949</v>
+      </c>
+      <c r="B692" t="s">
+        <v>21</v>
+      </c>
+      <c r="C692" t="s">
+        <v>324</v>
+      </c>
+      <c r="D692" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E692">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="693" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A693" s="3">
+        <v>44949</v>
+      </c>
+      <c r="B693" t="s">
+        <v>21</v>
+      </c>
+      <c r="C693" t="s">
+        <v>325</v>
+      </c>
+      <c r="D693" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E693">
+        <v>-87.18</v>
       </c>
     </row>
   </sheetData>
@@ -12653,7 +13323,7 @@
           <x14:formula1>
             <xm:f>OFFSET(Categories!$A$2,0,0,COUNTIF(Categories!$A$2:$A$99,"&lt;&gt;"))</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D656</xm:sqref>
+          <xm:sqref>D2:D693</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Expenses.xlsx
+++ b/Expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffgood/Desktop/R_Studio_Projects/Financial_Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BE595C-58F6-B249-8D7A-5D5BBB7E408B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945B7E2A-DC63-9F47-815B-7B090E777D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="980" windowWidth="15420" windowHeight="15800" xr2:uid="{D9F47917-7B20-384C-878F-0D08681ABD47}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2104" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2179" uniqueCount="340">
   <si>
     <t>Date</t>
   </si>
@@ -1036,6 +1036,30 @@
   </si>
   <si>
     <t>Danjohnuniversity</t>
+  </si>
+  <si>
+    <t>P147899900 MARKET ST.    LEMOYNE      PA</t>
+  </si>
+  <si>
+    <t>BASS PRO STORE HARRISBUR HARRISBURG   PA</t>
+  </si>
+  <si>
+    <t>SHEETZ 0374   00003749   HARRISBURG   PA</t>
+  </si>
+  <si>
+    <t>JENNY'S SALON            MECHANICSBURGPA</t>
+  </si>
+  <si>
+    <t>Show</t>
+  </si>
+  <si>
+    <t>Om My Yoga</t>
+  </si>
+  <si>
+    <t>Jimmy John's</t>
+  </si>
+  <si>
+    <t>Ever Grain</t>
   </si>
 </sst>
 </file>
@@ -1165,10 +1189,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}" name="Table1" displayName="Table1" ref="A1:E693" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E693" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E693">
-    <sortCondition ref="A1:A693"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}" name="Table1" displayName="Table1" ref="A1:E718" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E718" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E718">
+    <sortCondition ref="A1:A718"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{36D6B367-4586-164A-BAFD-F61BD8D7B0D8}" name="Date" dataDxfId="4"/>
@@ -1478,10 +1502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BEBEFE-BF8C-CE41-8907-E9633ACA1DDB}">
-  <dimension ref="A1:E693"/>
+  <dimension ref="A1:E718"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D694" sqref="D694"/>
+      <selection activeCell="D719" sqref="D719"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12682,7 +12706,7 @@
       </c>
     </row>
     <row r="657" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A657" s="3">
+      <c r="A657" s="2">
         <v>44943</v>
       </c>
       <c r="B657" t="s">
@@ -12691,7 +12715,7 @@
       <c r="C657" t="s">
         <v>171</v>
       </c>
-      <c r="D657" s="4" t="s">
+      <c r="D657" t="s">
         <v>266</v>
       </c>
       <c r="E657">
@@ -12699,7 +12723,7 @@
       </c>
     </row>
     <row r="658" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A658" s="3">
+      <c r="A658" s="2">
         <v>44943</v>
       </c>
       <c r="B658" t="s">
@@ -12708,7 +12732,7 @@
       <c r="C658" t="s">
         <v>171</v>
       </c>
-      <c r="D658" s="4" t="s">
+      <c r="D658" t="s">
         <v>12</v>
       </c>
       <c r="E658">
@@ -12716,7 +12740,7 @@
       </c>
     </row>
     <row r="659" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A659" s="3">
+      <c r="A659" s="2">
         <v>44943</v>
       </c>
       <c r="B659" t="s">
@@ -12725,7 +12749,7 @@
       <c r="C659" t="s">
         <v>171</v>
       </c>
-      <c r="D659" s="4" t="s">
+      <c r="D659" t="s">
         <v>12</v>
       </c>
       <c r="E659">
@@ -12733,7 +12757,7 @@
       </c>
     </row>
     <row r="660" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A660" s="3">
+      <c r="A660" s="2">
         <v>44943</v>
       </c>
       <c r="B660" t="s">
@@ -12742,7 +12766,7 @@
       <c r="C660" t="s">
         <v>166</v>
       </c>
-      <c r="D660" s="4" t="s">
+      <c r="D660" t="s">
         <v>269</v>
       </c>
       <c r="E660">
@@ -12750,7 +12774,7 @@
       </c>
     </row>
     <row r="661" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A661" s="3">
+      <c r="A661" s="2">
         <v>44943</v>
       </c>
       <c r="B661" t="s">
@@ -12759,7 +12783,7 @@
       <c r="C661" t="s">
         <v>254</v>
       </c>
-      <c r="D661" s="4" t="s">
+      <c r="D661" t="s">
         <v>264</v>
       </c>
       <c r="E661">
@@ -12767,7 +12791,7 @@
       </c>
     </row>
     <row r="662" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A662" s="3">
+      <c r="A662" s="2">
         <v>44944</v>
       </c>
       <c r="B662" t="s">
@@ -12776,7 +12800,7 @@
       <c r="C662" t="s">
         <v>320</v>
       </c>
-      <c r="D662" s="4" t="s">
+      <c r="D662" t="s">
         <v>11</v>
       </c>
       <c r="E662">
@@ -12784,7 +12808,7 @@
       </c>
     </row>
     <row r="663" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A663" s="3">
+      <c r="A663" s="2">
         <v>44944</v>
       </c>
       <c r="B663" t="s">
@@ -12793,7 +12817,7 @@
       <c r="C663" t="s">
         <v>183</v>
       </c>
-      <c r="D663" s="4" t="s">
+      <c r="D663" t="s">
         <v>14</v>
       </c>
       <c r="E663">
@@ -12801,7 +12825,7 @@
       </c>
     </row>
     <row r="664" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A664" s="3">
+      <c r="A664" s="2">
         <v>44944</v>
       </c>
       <c r="B664" t="s">
@@ -12810,7 +12834,7 @@
       <c r="C664" t="s">
         <v>214</v>
       </c>
-      <c r="D664" s="4" t="s">
+      <c r="D664" t="s">
         <v>32</v>
       </c>
       <c r="E664">
@@ -12818,7 +12842,7 @@
       </c>
     </row>
     <row r="665" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A665" s="3">
+      <c r="A665" s="2">
         <v>44944</v>
       </c>
       <c r="B665" t="s">
@@ -12827,7 +12851,7 @@
       <c r="C665" t="s">
         <v>210</v>
       </c>
-      <c r="D665" s="4" t="s">
+      <c r="D665" t="s">
         <v>268</v>
       </c>
       <c r="E665">
@@ -12835,7 +12859,7 @@
       </c>
     </row>
     <row r="666" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A666" s="3">
+      <c r="A666" s="2">
         <v>44944</v>
       </c>
       <c r="B666" t="s">
@@ -12844,7 +12868,7 @@
       <c r="C666" t="s">
         <v>211</v>
       </c>
-      <c r="D666" s="4" t="s">
+      <c r="D666" t="s">
         <v>12</v>
       </c>
       <c r="E666">
@@ -12852,7 +12876,7 @@
       </c>
     </row>
     <row r="667" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A667" s="3">
+      <c r="A667" s="2">
         <v>44944</v>
       </c>
       <c r="B667" t="s">
@@ -12861,7 +12885,7 @@
       <c r="C667" t="s">
         <v>216</v>
       </c>
-      <c r="D667" s="4" t="s">
+      <c r="D667" t="s">
         <v>268</v>
       </c>
       <c r="E667">
@@ -12869,7 +12893,7 @@
       </c>
     </row>
     <row r="668" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A668" s="3">
+      <c r="A668" s="2">
         <v>44944</v>
       </c>
       <c r="B668" t="s">
@@ -12878,7 +12902,7 @@
       <c r="C668" t="s">
         <v>209</v>
       </c>
-      <c r="D668" s="4" t="s">
+      <c r="D668" t="s">
         <v>268</v>
       </c>
       <c r="E668">
@@ -12886,7 +12910,7 @@
       </c>
     </row>
     <row r="669" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A669" s="3">
+      <c r="A669" s="2">
         <v>44944</v>
       </c>
       <c r="B669" t="s">
@@ -12895,7 +12919,7 @@
       <c r="C669" t="s">
         <v>53</v>
       </c>
-      <c r="D669" s="4" t="s">
+      <c r="D669" t="s">
         <v>54</v>
       </c>
       <c r="E669">
@@ -12903,7 +12927,7 @@
       </c>
     </row>
     <row r="670" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A670" s="3">
+      <c r="A670" s="2">
         <v>44945</v>
       </c>
       <c r="B670" t="s">
@@ -12912,7 +12936,7 @@
       <c r="C670" t="s">
         <v>329</v>
       </c>
-      <c r="D670" s="4" t="s">
+      <c r="D670" t="s">
         <v>268</v>
       </c>
       <c r="E670">
@@ -12920,7 +12944,7 @@
       </c>
     </row>
     <row r="671" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A671" s="3">
+      <c r="A671" s="2">
         <v>44945</v>
       </c>
       <c r="B671" t="s">
@@ -12929,7 +12953,7 @@
       <c r="C671" t="s">
         <v>330</v>
       </c>
-      <c r="D671" s="4" t="s">
+      <c r="D671" t="s">
         <v>268</v>
       </c>
       <c r="E671">
@@ -12937,7 +12961,7 @@
       </c>
     </row>
     <row r="672" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A672" s="3">
+      <c r="A672" s="2">
         <v>44945</v>
       </c>
       <c r="B672" t="s">
@@ -12946,7 +12970,7 @@
       <c r="C672" t="s">
         <v>331</v>
       </c>
-      <c r="D672" s="4" t="s">
+      <c r="D672" t="s">
         <v>266</v>
       </c>
       <c r="E672">
@@ -12954,7 +12978,7 @@
       </c>
     </row>
     <row r="673" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A673" s="3">
+      <c r="A673" s="2">
         <v>44945</v>
       </c>
       <c r="B673" t="s">
@@ -12963,7 +12987,7 @@
       <c r="C673" t="s">
         <v>205</v>
       </c>
-      <c r="D673" s="4" t="s">
+      <c r="D673" t="s">
         <v>268</v>
       </c>
       <c r="E673">
@@ -12971,7 +12995,7 @@
       </c>
     </row>
     <row r="674" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A674" s="3">
+      <c r="A674" s="2">
         <v>44946</v>
       </c>
       <c r="B674" t="s">
@@ -12980,7 +13004,7 @@
       <c r="C674" t="s">
         <v>195</v>
       </c>
-      <c r="D674" s="4" t="s">
+      <c r="D674" t="s">
         <v>265</v>
       </c>
       <c r="E674">
@@ -12988,7 +13012,7 @@
       </c>
     </row>
     <row r="675" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A675" s="3">
+      <c r="A675" s="2">
         <v>44946</v>
       </c>
       <c r="B675" t="s">
@@ -12997,7 +13021,7 @@
       <c r="C675" t="s">
         <v>326</v>
       </c>
-      <c r="D675" s="4" t="s">
+      <c r="D675" t="s">
         <v>266</v>
       </c>
       <c r="E675">
@@ -13005,7 +13029,7 @@
       </c>
     </row>
     <row r="676" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A676" s="3">
+      <c r="A676" s="2">
         <v>44946</v>
       </c>
       <c r="B676" t="s">
@@ -13014,7 +13038,7 @@
       <c r="C676" t="s">
         <v>304</v>
       </c>
-      <c r="D676" s="4" t="s">
+      <c r="D676" t="s">
         <v>268</v>
       </c>
       <c r="E676">
@@ -13022,7 +13046,7 @@
       </c>
     </row>
     <row r="677" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A677" s="3">
+      <c r="A677" s="2">
         <v>44946</v>
       </c>
       <c r="B677" t="s">
@@ -13031,7 +13055,7 @@
       <c r="C677" t="s">
         <v>327</v>
       </c>
-      <c r="D677" s="4" t="s">
+      <c r="D677" t="s">
         <v>268</v>
       </c>
       <c r="E677">
@@ -13039,7 +13063,7 @@
       </c>
     </row>
     <row r="678" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A678" s="3">
+      <c r="A678" s="2">
         <v>44946</v>
       </c>
       <c r="B678" t="s">
@@ -13048,7 +13072,7 @@
       <c r="C678" t="s">
         <v>175</v>
       </c>
-      <c r="D678" s="4" t="s">
+      <c r="D678" t="s">
         <v>265</v>
       </c>
       <c r="E678">
@@ -13056,7 +13080,7 @@
       </c>
     </row>
     <row r="679" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A679" s="3">
+      <c r="A679" s="2">
         <v>44946</v>
       </c>
       <c r="B679" t="s">
@@ -13065,7 +13089,7 @@
       <c r="C679" t="s">
         <v>328</v>
       </c>
-      <c r="D679" s="4" t="s">
+      <c r="D679" t="s">
         <v>268</v>
       </c>
       <c r="E679">
@@ -13073,7 +13097,7 @@
       </c>
     </row>
     <row r="680" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A680" s="3">
+      <c r="A680" s="2">
         <v>44948</v>
       </c>
       <c r="B680" t="s">
@@ -13082,7 +13106,7 @@
       <c r="C680" t="s">
         <v>322</v>
       </c>
-      <c r="D680" s="4" t="s">
+      <c r="D680" t="s">
         <v>264</v>
       </c>
       <c r="E680">
@@ -13090,7 +13114,7 @@
       </c>
     </row>
     <row r="681" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A681" s="3">
+      <c r="A681" s="2">
         <v>44948</v>
       </c>
       <c r="B681" t="s">
@@ -13099,7 +13123,7 @@
       <c r="C681" t="s">
         <v>322</v>
       </c>
-      <c r="D681" s="4" t="s">
+      <c r="D681" t="s">
         <v>264</v>
       </c>
       <c r="E681">
@@ -13107,7 +13131,7 @@
       </c>
     </row>
     <row r="682" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A682" s="3">
+      <c r="A682" s="2">
         <v>44948</v>
       </c>
       <c r="B682" t="s">
@@ -13116,7 +13140,7 @@
       <c r="C682" t="s">
         <v>174</v>
       </c>
-      <c r="D682" s="4" t="s">
+      <c r="D682" t="s">
         <v>91</v>
       </c>
       <c r="E682">
@@ -13124,7 +13148,7 @@
       </c>
     </row>
     <row r="683" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A683" s="3">
+      <c r="A683" s="2">
         <v>44948</v>
       </c>
       <c r="B683" t="s">
@@ -13133,7 +13157,7 @@
       <c r="C683" t="s">
         <v>174</v>
       </c>
-      <c r="D683" s="4" t="s">
+      <c r="D683" t="s">
         <v>91</v>
       </c>
       <c r="E683">
@@ -13141,7 +13165,7 @@
       </c>
     </row>
     <row r="684" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A684" s="3">
+      <c r="A684" s="2">
         <v>44949</v>
       </c>
       <c r="B684" t="s">
@@ -13150,7 +13174,7 @@
       <c r="C684" t="s">
         <v>319</v>
       </c>
-      <c r="D684" s="4" t="s">
+      <c r="D684" t="s">
         <v>92</v>
       </c>
       <c r="E684">
@@ -13158,7 +13182,7 @@
       </c>
     </row>
     <row r="685" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A685" s="3">
+      <c r="A685" s="2">
         <v>44949</v>
       </c>
       <c r="B685" t="s">
@@ -13167,7 +13191,7 @@
       <c r="C685" t="s">
         <v>106</v>
       </c>
-      <c r="D685" s="4" t="s">
+      <c r="D685" t="s">
         <v>12</v>
       </c>
       <c r="E685">
@@ -13175,7 +13199,7 @@
       </c>
     </row>
     <row r="686" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A686" s="3">
+      <c r="A686" s="2">
         <v>44949</v>
       </c>
       <c r="B686" t="s">
@@ -13184,7 +13208,7 @@
       <c r="C686" t="s">
         <v>43</v>
       </c>
-      <c r="D686" s="4" t="s">
+      <c r="D686" t="s">
         <v>91</v>
       </c>
       <c r="E686">
@@ -13192,7 +13216,7 @@
       </c>
     </row>
     <row r="687" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A687" s="3">
+      <c r="A687" s="2">
         <v>44949</v>
       </c>
       <c r="B687" t="s">
@@ -13201,7 +13225,7 @@
       <c r="C687" t="s">
         <v>106</v>
       </c>
-      <c r="D687" s="4" t="s">
+      <c r="D687" t="s">
         <v>11</v>
       </c>
       <c r="E687">
@@ -13209,7 +13233,7 @@
       </c>
     </row>
     <row r="688" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A688" s="3">
+      <c r="A688" s="2">
         <v>44949</v>
       </c>
       <c r="B688" t="s">
@@ -13218,7 +13242,7 @@
       <c r="C688" t="s">
         <v>43</v>
       </c>
-      <c r="D688" s="4" t="s">
+      <c r="D688" t="s">
         <v>91</v>
       </c>
       <c r="E688">
@@ -13226,7 +13250,7 @@
       </c>
     </row>
     <row r="689" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A689" s="3">
+      <c r="A689" s="2">
         <v>44949</v>
       </c>
       <c r="B689" t="s">
@@ -13235,7 +13259,7 @@
       <c r="C689" t="s">
         <v>189</v>
       </c>
-      <c r="D689" s="4" t="s">
+      <c r="D689" t="s">
         <v>54</v>
       </c>
       <c r="E689">
@@ -13243,7 +13267,7 @@
       </c>
     </row>
     <row r="690" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A690" s="3">
+      <c r="A690" s="2">
         <v>44949</v>
       </c>
       <c r="B690" t="s">
@@ -13252,7 +13276,7 @@
       <c r="C690" t="s">
         <v>321</v>
       </c>
-      <c r="D690" s="4" t="s">
+      <c r="D690" t="s">
         <v>12</v>
       </c>
       <c r="E690">
@@ -13260,7 +13284,7 @@
       </c>
     </row>
     <row r="691" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A691" s="3">
+      <c r="A691" s="2">
         <v>44949</v>
       </c>
       <c r="B691" t="s">
@@ -13269,7 +13293,7 @@
       <c r="C691" t="s">
         <v>323</v>
       </c>
-      <c r="D691" s="4" t="s">
+      <c r="D691" t="s">
         <v>310</v>
       </c>
       <c r="E691">
@@ -13277,7 +13301,7 @@
       </c>
     </row>
     <row r="692" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A692" s="3">
+      <c r="A692" s="2">
         <v>44949</v>
       </c>
       <c r="B692" t="s">
@@ -13286,7 +13310,7 @@
       <c r="C692" t="s">
         <v>324</v>
       </c>
-      <c r="D692" s="4" t="s">
+      <c r="D692" t="s">
         <v>264</v>
       </c>
       <c r="E692">
@@ -13294,7 +13318,7 @@
       </c>
     </row>
     <row r="693" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A693" s="3">
+      <c r="A693" s="2">
         <v>44949</v>
       </c>
       <c r="B693" t="s">
@@ -13303,11 +13327,436 @@
       <c r="C693" t="s">
         <v>325</v>
       </c>
-      <c r="D693" s="4" t="s">
+      <c r="D693" t="s">
         <v>268</v>
       </c>
       <c r="E693">
         <v>-87.18</v>
+      </c>
+    </row>
+    <row r="694" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A694" s="3">
+        <v>44950</v>
+      </c>
+      <c r="B694" t="s">
+        <v>7</v>
+      </c>
+      <c r="C694" t="s">
+        <v>214</v>
+      </c>
+      <c r="D694" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E694">
+        <v>433.7</v>
+      </c>
+    </row>
+    <row r="695" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A695" s="3">
+        <v>44950</v>
+      </c>
+      <c r="B695" t="s">
+        <v>21</v>
+      </c>
+      <c r="C695" t="s">
+        <v>338</v>
+      </c>
+      <c r="D695" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E695">
+        <v>-8.49</v>
+      </c>
+    </row>
+    <row r="696" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A696" s="3">
+        <v>44950</v>
+      </c>
+      <c r="B696" t="s">
+        <v>21</v>
+      </c>
+      <c r="C696" t="s">
+        <v>227</v>
+      </c>
+      <c r="D696" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E696">
+        <v>-150.30000000000001</v>
+      </c>
+    </row>
+    <row r="697" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A697" s="3">
+        <v>44951</v>
+      </c>
+      <c r="B697" t="s">
+        <v>21</v>
+      </c>
+      <c r="C697" t="s">
+        <v>165</v>
+      </c>
+      <c r="D697" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E697">
+        <v>-33.31</v>
+      </c>
+    </row>
+    <row r="698" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A698" s="3">
+        <v>44952</v>
+      </c>
+      <c r="B698" t="s">
+        <v>21</v>
+      </c>
+      <c r="C698" t="s">
+        <v>51</v>
+      </c>
+      <c r="D698" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E698">
+        <v>-220.65</v>
+      </c>
+    </row>
+    <row r="699" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A699" s="3">
+        <v>44952</v>
+      </c>
+      <c r="B699" t="s">
+        <v>21</v>
+      </c>
+      <c r="C699" t="s">
+        <v>339</v>
+      </c>
+      <c r="D699" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E699">
+        <v>-45.79</v>
+      </c>
+    </row>
+    <row r="700" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A700" s="3">
+        <v>44953</v>
+      </c>
+      <c r="B700" t="s">
+        <v>21</v>
+      </c>
+      <c r="C700" t="s">
+        <v>149</v>
+      </c>
+      <c r="D700" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E700">
+        <v>-85.99</v>
+      </c>
+    </row>
+    <row r="701" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A701" s="3">
+        <v>44953</v>
+      </c>
+      <c r="B701" t="s">
+        <v>21</v>
+      </c>
+      <c r="C701" t="s">
+        <v>337</v>
+      </c>
+      <c r="D701" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E701">
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="702" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A702" s="3">
+        <v>44953</v>
+      </c>
+      <c r="B702" t="s">
+        <v>21</v>
+      </c>
+      <c r="C702" t="s">
+        <v>338</v>
+      </c>
+      <c r="D702" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E702">
+        <v>-10.59</v>
+      </c>
+    </row>
+    <row r="703" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A703" s="3">
+        <v>44953</v>
+      </c>
+      <c r="B703" t="s">
+        <v>21</v>
+      </c>
+      <c r="C703" t="s">
+        <v>278</v>
+      </c>
+      <c r="D703" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E703">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="704" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A704" s="3">
+        <v>44954</v>
+      </c>
+      <c r="B704" t="s">
+        <v>21</v>
+      </c>
+      <c r="C704" t="s">
+        <v>333</v>
+      </c>
+      <c r="D704" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E704">
+        <v>-9.09</v>
+      </c>
+    </row>
+    <row r="705" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A705" s="3">
+        <v>44954</v>
+      </c>
+      <c r="B705" t="s">
+        <v>21</v>
+      </c>
+      <c r="C705" t="s">
+        <v>334</v>
+      </c>
+      <c r="D705" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E705">
+        <v>-59.87</v>
+      </c>
+    </row>
+    <row r="706" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A706" s="3">
+        <v>44954</v>
+      </c>
+      <c r="B706" t="s">
+        <v>21</v>
+      </c>
+      <c r="C706" t="s">
+        <v>335</v>
+      </c>
+      <c r="D706" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E706">
+        <v>-73.599999999999994</v>
+      </c>
+    </row>
+    <row r="707" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A707" s="3">
+        <v>44954</v>
+      </c>
+      <c r="B707" t="s">
+        <v>21</v>
+      </c>
+      <c r="C707" t="s">
+        <v>200</v>
+      </c>
+      <c r="D707" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E707">
+        <v>-16.11</v>
+      </c>
+    </row>
+    <row r="708" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A708" s="3">
+        <v>44954</v>
+      </c>
+      <c r="B708" t="s">
+        <v>21</v>
+      </c>
+      <c r="C708" t="s">
+        <v>336</v>
+      </c>
+      <c r="D708" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E708">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="709" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A709" s="3">
+        <v>44954</v>
+      </c>
+      <c r="B709" t="s">
+        <v>21</v>
+      </c>
+      <c r="C709" t="s">
+        <v>304</v>
+      </c>
+      <c r="D709" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E709">
+        <v>-10.59</v>
+      </c>
+    </row>
+    <row r="710" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A710" s="3">
+        <v>44954</v>
+      </c>
+      <c r="B710" t="s">
+        <v>21</v>
+      </c>
+      <c r="C710" t="s">
+        <v>221</v>
+      </c>
+      <c r="D710" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E710">
+        <v>-36.090000000000003</v>
+      </c>
+    </row>
+    <row r="711" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A711" s="3">
+        <v>44954</v>
+      </c>
+      <c r="B711" t="s">
+        <v>21</v>
+      </c>
+      <c r="C711" t="s">
+        <v>282</v>
+      </c>
+      <c r="D711" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E711">
+        <v>-137.80000000000001</v>
+      </c>
+    </row>
+    <row r="712" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A712" s="3">
+        <v>44954</v>
+      </c>
+      <c r="B712" t="s">
+        <v>21</v>
+      </c>
+      <c r="C712" t="s">
+        <v>283</v>
+      </c>
+      <c r="D712" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E712">
+        <v>-49.61</v>
+      </c>
+    </row>
+    <row r="713" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A713" s="3">
+        <v>44955</v>
+      </c>
+      <c r="B713" t="s">
+        <v>21</v>
+      </c>
+      <c r="C713" t="s">
+        <v>149</v>
+      </c>
+      <c r="D713" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E713">
+        <v>-9.99</v>
+      </c>
+    </row>
+    <row r="714" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A714" s="3">
+        <v>44956</v>
+      </c>
+      <c r="B714" t="s">
+        <v>7</v>
+      </c>
+      <c r="C714" t="s">
+        <v>43</v>
+      </c>
+      <c r="D714" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E714">
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="715" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A715" s="3">
+        <v>44956</v>
+      </c>
+      <c r="B715" t="s">
+        <v>7</v>
+      </c>
+      <c r="C715" t="s">
+        <v>332</v>
+      </c>
+      <c r="D715" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E715">
+        <v>-42.5</v>
+      </c>
+    </row>
+    <row r="716" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A716" s="3">
+        <v>44956</v>
+      </c>
+      <c r="B716" t="s">
+        <v>7</v>
+      </c>
+      <c r="C716" t="s">
+        <v>5</v>
+      </c>
+      <c r="D716" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E716">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="717" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A717" s="3">
+        <v>44956</v>
+      </c>
+      <c r="B717" t="s">
+        <v>7</v>
+      </c>
+      <c r="C717" t="s">
+        <v>71</v>
+      </c>
+      <c r="D717" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E717">
+        <v>3105.84</v>
+      </c>
+    </row>
+    <row r="718" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A718" s="3">
+        <v>44956</v>
+      </c>
+      <c r="B718" t="s">
+        <v>21</v>
+      </c>
+      <c r="C718" t="s">
+        <v>46</v>
+      </c>
+      <c r="D718" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E718">
+        <v>1200</v>
       </c>
     </row>
   </sheetData>
@@ -13323,7 +13772,7 @@
           <x14:formula1>
             <xm:f>OFFSET(Categories!$A$2,0,0,COUNTIF(Categories!$A$2:$A$99,"&lt;&gt;"))</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D693</xm:sqref>
+          <xm:sqref>D2:D718</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Expenses.xlsx
+++ b/Expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffgood/Desktop/R_Studio_Projects/Financial_Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945B7E2A-DC63-9F47-815B-7B090E777D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA20B019-736A-5045-BE05-F5A15264D725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="980" windowWidth="15420" windowHeight="15800" xr2:uid="{D9F47917-7B20-384C-878F-0D08681ABD47}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2179" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2263" uniqueCount="349">
   <si>
     <t>Date</t>
   </si>
@@ -1060,6 +1060,33 @@
   </si>
   <si>
     <t>Ever Grain</t>
+  </si>
+  <si>
+    <t>PayPal Purchase</t>
+  </si>
+  <si>
+    <t>Transfer from Venmo</t>
+  </si>
+  <si>
+    <t>ABERCROMBIE &amp; FITCH</t>
+  </si>
+  <si>
+    <t>MECHANICSBURG VETERINA</t>
+  </si>
+  <si>
+    <t>IN *D &amp; M HANES INC.</t>
+  </si>
+  <si>
+    <t>OLD NAVY ON-LINE</t>
+  </si>
+  <si>
+    <t>Black N Bleu</t>
+  </si>
+  <si>
+    <t>Millennium Way Dental Stu</t>
+  </si>
+  <si>
+    <t>Reward Points Redemption</t>
   </si>
 </sst>
 </file>
@@ -1189,10 +1216,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}" name="Table1" displayName="Table1" ref="A1:E718" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E718" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E718">
-    <sortCondition ref="A1:A718"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}" name="Table1" displayName="Table1" ref="A1:E746" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E746" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E746">
+    <sortCondition ref="A1:A746"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{36D6B367-4586-164A-BAFD-F61BD8D7B0D8}" name="Date" dataDxfId="4"/>
@@ -1502,10 +1529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BEBEFE-BF8C-CE41-8907-E9633ACA1DDB}">
-  <dimension ref="A1:E718"/>
+  <dimension ref="A1:E746"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D719" sqref="D719"/>
+      <selection activeCell="D747" sqref="D747"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13335,7 +13362,7 @@
       </c>
     </row>
     <row r="694" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A694" s="3">
+      <c r="A694" s="2">
         <v>44950</v>
       </c>
       <c r="B694" t="s">
@@ -13344,7 +13371,7 @@
       <c r="C694" t="s">
         <v>214</v>
       </c>
-      <c r="D694" s="4" t="s">
+      <c r="D694" t="s">
         <v>32</v>
       </c>
       <c r="E694">
@@ -13352,7 +13379,7 @@
       </c>
     </row>
     <row r="695" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A695" s="3">
+      <c r="A695" s="2">
         <v>44950</v>
       </c>
       <c r="B695" t="s">
@@ -13361,7 +13388,7 @@
       <c r="C695" t="s">
         <v>338</v>
       </c>
-      <c r="D695" s="4" t="s">
+      <c r="D695" t="s">
         <v>268</v>
       </c>
       <c r="E695">
@@ -13369,7 +13396,7 @@
       </c>
     </row>
     <row r="696" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A696" s="3">
+      <c r="A696" s="2">
         <v>44950</v>
       </c>
       <c r="B696" t="s">
@@ -13378,7 +13405,7 @@
       <c r="C696" t="s">
         <v>227</v>
       </c>
-      <c r="D696" s="4" t="s">
+      <c r="D696" t="s">
         <v>265</v>
       </c>
       <c r="E696">
@@ -13386,7 +13413,7 @@
       </c>
     </row>
     <row r="697" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A697" s="3">
+      <c r="A697" s="2">
         <v>44951</v>
       </c>
       <c r="B697" t="s">
@@ -13395,7 +13422,7 @@
       <c r="C697" t="s">
         <v>165</v>
       </c>
-      <c r="D697" s="4" t="s">
+      <c r="D697" t="s">
         <v>268</v>
       </c>
       <c r="E697">
@@ -13403,7 +13430,7 @@
       </c>
     </row>
     <row r="698" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A698" s="3">
+      <c r="A698" s="2">
         <v>44952</v>
       </c>
       <c r="B698" t="s">
@@ -13412,7 +13439,7 @@
       <c r="C698" t="s">
         <v>51</v>
       </c>
-      <c r="D698" s="4" t="s">
+      <c r="D698" t="s">
         <v>12</v>
       </c>
       <c r="E698">
@@ -13420,7 +13447,7 @@
       </c>
     </row>
     <row r="699" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A699" s="3">
+      <c r="A699" s="2">
         <v>44952</v>
       </c>
       <c r="B699" t="s">
@@ -13429,7 +13456,7 @@
       <c r="C699" t="s">
         <v>339</v>
       </c>
-      <c r="D699" s="4" t="s">
+      <c r="D699" t="s">
         <v>268</v>
       </c>
       <c r="E699">
@@ -13437,7 +13464,7 @@
       </c>
     </row>
     <row r="700" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A700" s="3">
+      <c r="A700" s="2">
         <v>44953</v>
       </c>
       <c r="B700" t="s">
@@ -13446,7 +13473,7 @@
       <c r="C700" t="s">
         <v>149</v>
       </c>
-      <c r="D700" s="4" t="s">
+      <c r="D700" t="s">
         <v>266</v>
       </c>
       <c r="E700">
@@ -13454,7 +13481,7 @@
       </c>
     </row>
     <row r="701" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A701" s="3">
+      <c r="A701" s="2">
         <v>44953</v>
       </c>
       <c r="B701" t="s">
@@ -13463,7 +13490,7 @@
       <c r="C701" t="s">
         <v>337</v>
       </c>
-      <c r="D701" s="4" t="s">
+      <c r="D701" t="s">
         <v>263</v>
       </c>
       <c r="E701">
@@ -13471,7 +13498,7 @@
       </c>
     </row>
     <row r="702" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A702" s="3">
+      <c r="A702" s="2">
         <v>44953</v>
       </c>
       <c r="B702" t="s">
@@ -13480,7 +13507,7 @@
       <c r="C702" t="s">
         <v>338</v>
       </c>
-      <c r="D702" s="4" t="s">
+      <c r="D702" t="s">
         <v>268</v>
       </c>
       <c r="E702">
@@ -13488,7 +13515,7 @@
       </c>
     </row>
     <row r="703" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A703" s="3">
+      <c r="A703" s="2">
         <v>44953</v>
       </c>
       <c r="B703" t="s">
@@ -13497,7 +13524,7 @@
       <c r="C703" t="s">
         <v>278</v>
       </c>
-      <c r="D703" s="4" t="s">
+      <c r="D703" t="s">
         <v>263</v>
       </c>
       <c r="E703">
@@ -13505,7 +13532,7 @@
       </c>
     </row>
     <row r="704" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A704" s="3">
+      <c r="A704" s="2">
         <v>44954</v>
       </c>
       <c r="B704" t="s">
@@ -13514,7 +13541,7 @@
       <c r="C704" t="s">
         <v>333</v>
       </c>
-      <c r="D704" s="4" t="s">
+      <c r="D704" t="s">
         <v>266</v>
       </c>
       <c r="E704">
@@ -13522,7 +13549,7 @@
       </c>
     </row>
     <row r="705" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A705" s="3">
+      <c r="A705" s="2">
         <v>44954</v>
       </c>
       <c r="B705" t="s">
@@ -13531,7 +13558,7 @@
       <c r="C705" t="s">
         <v>334</v>
       </c>
-      <c r="D705" s="4" t="s">
+      <c r="D705" t="s">
         <v>264</v>
       </c>
       <c r="E705">
@@ -13539,7 +13566,7 @@
       </c>
     </row>
     <row r="706" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A706" s="3">
+      <c r="A706" s="2">
         <v>44954</v>
       </c>
       <c r="B706" t="s">
@@ -13548,7 +13575,7 @@
       <c r="C706" t="s">
         <v>335</v>
       </c>
-      <c r="D706" s="4" t="s">
+      <c r="D706" t="s">
         <v>266</v>
       </c>
       <c r="E706">
@@ -13556,7 +13583,7 @@
       </c>
     </row>
     <row r="707" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A707" s="3">
+      <c r="A707" s="2">
         <v>44954</v>
       </c>
       <c r="B707" t="s">
@@ -13565,7 +13592,7 @@
       <c r="C707" t="s">
         <v>200</v>
       </c>
-      <c r="D707" s="4" t="s">
+      <c r="D707" t="s">
         <v>263</v>
       </c>
       <c r="E707">
@@ -13573,7 +13600,7 @@
       </c>
     </row>
     <row r="708" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A708" s="3">
+      <c r="A708" s="2">
         <v>44954</v>
       </c>
       <c r="B708" t="s">
@@ -13582,7 +13609,7 @@
       <c r="C708" t="s">
         <v>336</v>
       </c>
-      <c r="D708" s="4" t="s">
+      <c r="D708" t="s">
         <v>11</v>
       </c>
       <c r="E708">
@@ -13590,7 +13617,7 @@
       </c>
     </row>
     <row r="709" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A709" s="3">
+      <c r="A709" s="2">
         <v>44954</v>
       </c>
       <c r="B709" t="s">
@@ -13599,7 +13626,7 @@
       <c r="C709" t="s">
         <v>304</v>
       </c>
-      <c r="D709" s="4" t="s">
+      <c r="D709" t="s">
         <v>268</v>
       </c>
       <c r="E709">
@@ -13607,7 +13634,7 @@
       </c>
     </row>
     <row r="710" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A710" s="3">
+      <c r="A710" s="2">
         <v>44954</v>
       </c>
       <c r="B710" t="s">
@@ -13616,7 +13643,7 @@
       <c r="C710" t="s">
         <v>221</v>
       </c>
-      <c r="D710" s="4" t="s">
+      <c r="D710" t="s">
         <v>265</v>
       </c>
       <c r="E710">
@@ -13624,7 +13651,7 @@
       </c>
     </row>
     <row r="711" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A711" s="3">
+      <c r="A711" s="2">
         <v>44954</v>
       </c>
       <c r="B711" t="s">
@@ -13633,7 +13660,7 @@
       <c r="C711" t="s">
         <v>282</v>
       </c>
-      <c r="D711" s="4" t="s">
+      <c r="D711" t="s">
         <v>266</v>
       </c>
       <c r="E711">
@@ -13641,7 +13668,7 @@
       </c>
     </row>
     <row r="712" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A712" s="3">
+      <c r="A712" s="2">
         <v>44954</v>
       </c>
       <c r="B712" t="s">
@@ -13650,7 +13677,7 @@
       <c r="C712" t="s">
         <v>283</v>
       </c>
-      <c r="D712" s="4" t="s">
+      <c r="D712" t="s">
         <v>268</v>
       </c>
       <c r="E712">
@@ -13658,7 +13685,7 @@
       </c>
     </row>
     <row r="713" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A713" s="3">
+      <c r="A713" s="2">
         <v>44955</v>
       </c>
       <c r="B713" t="s">
@@ -13667,7 +13694,7 @@
       <c r="C713" t="s">
         <v>149</v>
       </c>
-      <c r="D713" s="4" t="s">
+      <c r="D713" t="s">
         <v>265</v>
       </c>
       <c r="E713">
@@ -13675,7 +13702,7 @@
       </c>
     </row>
     <row r="714" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A714" s="3">
+      <c r="A714" s="2">
         <v>44956</v>
       </c>
       <c r="B714" t="s">
@@ -13684,7 +13711,7 @@
       <c r="C714" t="s">
         <v>43</v>
       </c>
-      <c r="D714" s="4" t="s">
+      <c r="D714" t="s">
         <v>91</v>
       </c>
       <c r="E714">
@@ -13692,7 +13719,7 @@
       </c>
     </row>
     <row r="715" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A715" s="3">
+      <c r="A715" s="2">
         <v>44956</v>
       </c>
       <c r="B715" t="s">
@@ -13701,7 +13728,7 @@
       <c r="C715" t="s">
         <v>332</v>
       </c>
-      <c r="D715" s="4" t="s">
+      <c r="D715" t="s">
         <v>11</v>
       </c>
       <c r="E715">
@@ -13709,7 +13736,7 @@
       </c>
     </row>
     <row r="716" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A716" s="3">
+      <c r="A716" s="2">
         <v>44956</v>
       </c>
       <c r="B716" t="s">
@@ -13718,7 +13745,7 @@
       <c r="C716" t="s">
         <v>5</v>
       </c>
-      <c r="D716" s="4" t="s">
+      <c r="D716" t="s">
         <v>14</v>
       </c>
       <c r="E716">
@@ -13726,7 +13753,7 @@
       </c>
     </row>
     <row r="717" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A717" s="3">
+      <c r="A717" s="2">
         <v>44956</v>
       </c>
       <c r="B717" t="s">
@@ -13735,7 +13762,7 @@
       <c r="C717" t="s">
         <v>71</v>
       </c>
-      <c r="D717" s="4" t="s">
+      <c r="D717" t="s">
         <v>32</v>
       </c>
       <c r="E717">
@@ -13743,7 +13770,7 @@
       </c>
     </row>
     <row r="718" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A718" s="3">
+      <c r="A718" s="2">
         <v>44956</v>
       </c>
       <c r="B718" t="s">
@@ -13752,11 +13779,487 @@
       <c r="C718" t="s">
         <v>46</v>
       </c>
-      <c r="D718" s="4" t="s">
+      <c r="D718" t="s">
         <v>91</v>
       </c>
       <c r="E718">
         <v>1200</v>
+      </c>
+    </row>
+    <row r="719" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A719" s="3">
+        <v>44957</v>
+      </c>
+      <c r="B719" t="s">
+        <v>7</v>
+      </c>
+      <c r="C719" t="s">
+        <v>174</v>
+      </c>
+      <c r="D719" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E719">
+        <v>-449.53</v>
+      </c>
+    </row>
+    <row r="720" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A720" s="3">
+        <v>44957</v>
+      </c>
+      <c r="B720" t="s">
+        <v>7</v>
+      </c>
+      <c r="C720" t="s">
+        <v>230</v>
+      </c>
+      <c r="D720" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E720">
+        <v>3358.8</v>
+      </c>
+    </row>
+    <row r="721" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A721" s="3">
+        <v>44957</v>
+      </c>
+      <c r="B721" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C721" t="s">
+        <v>169</v>
+      </c>
+      <c r="D721" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E721">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="722" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A722" s="3">
+        <v>44957</v>
+      </c>
+      <c r="B722" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C722" t="s">
+        <v>341</v>
+      </c>
+      <c r="D722" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E722">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="723" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A723" s="3">
+        <v>44957</v>
+      </c>
+      <c r="B723" t="s">
+        <v>21</v>
+      </c>
+      <c r="C723" t="s">
+        <v>174</v>
+      </c>
+      <c r="D723" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E723">
+        <v>449.53</v>
+      </c>
+    </row>
+    <row r="724" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A724" s="3">
+        <v>44957</v>
+      </c>
+      <c r="B724" t="s">
+        <v>21</v>
+      </c>
+      <c r="C724" t="s">
+        <v>348</v>
+      </c>
+      <c r="D724" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E724">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="725" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A725" s="3">
+        <v>44957</v>
+      </c>
+      <c r="B725" t="s">
+        <v>21</v>
+      </c>
+      <c r="C725" t="s">
+        <v>53</v>
+      </c>
+      <c r="D725" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E725">
+        <v>-105</v>
+      </c>
+    </row>
+    <row r="726" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A726" s="3">
+        <v>44958</v>
+      </c>
+      <c r="B726" t="s">
+        <v>7</v>
+      </c>
+      <c r="C726" t="s">
+        <v>340</v>
+      </c>
+      <c r="D726" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E726">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="727" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A727" s="3">
+        <v>44958</v>
+      </c>
+      <c r="B727" t="s">
+        <v>7</v>
+      </c>
+      <c r="C727" t="s">
+        <v>147</v>
+      </c>
+      <c r="D727" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E727">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="728" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A728" s="3">
+        <v>44958</v>
+      </c>
+      <c r="B728" t="s">
+        <v>7</v>
+      </c>
+      <c r="C728" t="s">
+        <v>147</v>
+      </c>
+      <c r="D728" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E728">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="729" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A729" s="3">
+        <v>44958</v>
+      </c>
+      <c r="B729" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C729" t="s">
+        <v>147</v>
+      </c>
+      <c r="D729" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E729">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="730" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A730" s="3">
+        <v>44958</v>
+      </c>
+      <c r="B730" t="s">
+        <v>21</v>
+      </c>
+      <c r="C730" t="s">
+        <v>347</v>
+      </c>
+      <c r="D730" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="E730">
+        <v>-475.46</v>
+      </c>
+    </row>
+    <row r="731" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A731" s="3">
+        <v>44958</v>
+      </c>
+      <c r="B731" t="s">
+        <v>21</v>
+      </c>
+      <c r="C731" t="s">
+        <v>206</v>
+      </c>
+      <c r="D731" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="E731">
+        <v>-25.34</v>
+      </c>
+    </row>
+    <row r="732" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A732" s="3">
+        <v>44959</v>
+      </c>
+      <c r="B732" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C732" t="s">
+        <v>166</v>
+      </c>
+      <c r="D732" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E732">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="733" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A733" s="3">
+        <v>44959</v>
+      </c>
+      <c r="B733" t="s">
+        <v>21</v>
+      </c>
+      <c r="C733" t="s">
+        <v>181</v>
+      </c>
+      <c r="D733" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E733">
+        <v>-23.1</v>
+      </c>
+    </row>
+    <row r="734" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A734" s="3">
+        <v>44960</v>
+      </c>
+      <c r="B734" t="s">
+        <v>7</v>
+      </c>
+      <c r="C734" t="s">
+        <v>203</v>
+      </c>
+      <c r="D734" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E734">
+        <v>-135.63</v>
+      </c>
+    </row>
+    <row r="735" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A735" s="3">
+        <v>44960</v>
+      </c>
+      <c r="B735" t="s">
+        <v>21</v>
+      </c>
+      <c r="C735" t="s">
+        <v>151</v>
+      </c>
+      <c r="D735" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E735">
+        <v>-50.2</v>
+      </c>
+    </row>
+    <row r="736" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A736" s="3">
+        <v>44960</v>
+      </c>
+      <c r="B736" t="s">
+        <v>21</v>
+      </c>
+      <c r="C736" t="s">
+        <v>152</v>
+      </c>
+      <c r="D736" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E736">
+        <v>-243.86</v>
+      </c>
+    </row>
+    <row r="737" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A737" s="3">
+        <v>44960</v>
+      </c>
+      <c r="B737" t="s">
+        <v>21</v>
+      </c>
+      <c r="C737" t="s">
+        <v>327</v>
+      </c>
+      <c r="D737" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E737">
+        <v>-16.05</v>
+      </c>
+    </row>
+    <row r="738" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A738" s="3">
+        <v>44961</v>
+      </c>
+      <c r="B738" t="s">
+        <v>21</v>
+      </c>
+      <c r="C738" t="s">
+        <v>345</v>
+      </c>
+      <c r="D738" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E738">
+        <v>-83.08</v>
+      </c>
+    </row>
+    <row r="739" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A739" s="3">
+        <v>44961</v>
+      </c>
+      <c r="B739" t="s">
+        <v>21</v>
+      </c>
+      <c r="C739" t="s">
+        <v>346</v>
+      </c>
+      <c r="D739" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E739">
+        <v>-99.74</v>
+      </c>
+    </row>
+    <row r="740" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A740" s="3">
+        <v>44962</v>
+      </c>
+      <c r="B740" t="s">
+        <v>21</v>
+      </c>
+      <c r="C740" t="s">
+        <v>97</v>
+      </c>
+      <c r="D740" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E740">
+        <v>-51.47</v>
+      </c>
+    </row>
+    <row r="741" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A741" s="3">
+        <v>44963</v>
+      </c>
+      <c r="B741" t="s">
+        <v>7</v>
+      </c>
+      <c r="C741" t="s">
+        <v>124</v>
+      </c>
+      <c r="D741" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E741">
+        <v>-34.909999999999997</v>
+      </c>
+    </row>
+    <row r="742" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A742" s="3">
+        <v>44963</v>
+      </c>
+      <c r="B742" t="s">
+        <v>7</v>
+      </c>
+      <c r="C742" t="s">
+        <v>124</v>
+      </c>
+      <c r="D742" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E742">
+        <v>-28.49</v>
+      </c>
+    </row>
+    <row r="743" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A743" s="3">
+        <v>44963</v>
+      </c>
+      <c r="B743" t="s">
+        <v>21</v>
+      </c>
+      <c r="C743" t="s">
+        <v>342</v>
+      </c>
+      <c r="D743" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E743">
+        <v>-56.43</v>
+      </c>
+    </row>
+    <row r="744" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A744" s="3">
+        <v>44963</v>
+      </c>
+      <c r="B744" t="s">
+        <v>21</v>
+      </c>
+      <c r="C744" t="s">
+        <v>190</v>
+      </c>
+      <c r="D744" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E744">
+        <v>-11.6</v>
+      </c>
+    </row>
+    <row r="745" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A745" s="3">
+        <v>44963</v>
+      </c>
+      <c r="B745" t="s">
+        <v>21</v>
+      </c>
+      <c r="C745" t="s">
+        <v>343</v>
+      </c>
+      <c r="D745" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="E745">
+        <v>-135.63</v>
+      </c>
+    </row>
+    <row r="746" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A746" s="3">
+        <v>44963</v>
+      </c>
+      <c r="B746" t="s">
+        <v>21</v>
+      </c>
+      <c r="C746" t="s">
+        <v>344</v>
+      </c>
+      <c r="D746" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E746">
+        <v>-67</v>
       </c>
     </row>
   </sheetData>
@@ -13772,7 +14275,7 @@
           <x14:formula1>
             <xm:f>OFFSET(Categories!$A$2,0,0,COUNTIF(Categories!$A$2:$A$99,"&lt;&gt;"))</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D718</xm:sqref>
+          <xm:sqref>D2:D746</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Expenses.xlsx
+++ b/Expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffgood/Desktop/R_Studio_Projects/Financial_Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA20B019-736A-5045-BE05-F5A15264D725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACA336A-B9F3-244B-B837-40835F20727E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="980" windowWidth="15420" windowHeight="15800" xr2:uid="{D9F47917-7B20-384C-878F-0D08681ABD47}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2263" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2308" uniqueCount="352">
   <si>
     <t>Date</t>
   </si>
@@ -1087,6 +1087,15 @@
   </si>
   <si>
     <t>Reward Points Redemption</t>
+  </si>
+  <si>
+    <t>GIANT 6269               CAMP HILL    PA</t>
+  </si>
+  <si>
+    <t>Hospitals Online Payme</t>
+  </si>
+  <si>
+    <t>Mechanicsburg Veterinary</t>
   </si>
 </sst>
 </file>
@@ -1216,10 +1225,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}" name="Table1" displayName="Table1" ref="A1:E746" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E746" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E746">
-    <sortCondition ref="A1:A746"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}" name="Table1" displayName="Table1" ref="A1:E761" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E761" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E761">
+    <sortCondition ref="A1:A761"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{36D6B367-4586-164A-BAFD-F61BD8D7B0D8}" name="Date" dataDxfId="4"/>
@@ -1529,10 +1538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BEBEFE-BF8C-CE41-8907-E9633ACA1DDB}">
-  <dimension ref="A1:E746"/>
+  <dimension ref="A1:E761"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D747" sqref="D747"/>
+      <selection activeCell="D762" sqref="D762"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13787,7 +13796,7 @@
       </c>
     </row>
     <row r="719" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A719" s="3">
+      <c r="A719" s="2">
         <v>44957</v>
       </c>
       <c r="B719" t="s">
@@ -13796,7 +13805,7 @@
       <c r="C719" t="s">
         <v>174</v>
       </c>
-      <c r="D719" s="4" t="s">
+      <c r="D719" t="s">
         <v>91</v>
       </c>
       <c r="E719">
@@ -13804,7 +13813,7 @@
       </c>
     </row>
     <row r="720" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A720" s="3">
+      <c r="A720" s="2">
         <v>44957</v>
       </c>
       <c r="B720" t="s">
@@ -13813,7 +13822,7 @@
       <c r="C720" t="s">
         <v>230</v>
       </c>
-      <c r="D720" s="4" t="s">
+      <c r="D720" t="s">
         <v>232</v>
       </c>
       <c r="E720">
@@ -13821,16 +13830,16 @@
       </c>
     </row>
     <row r="721" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A721" s="3">
+      <c r="A721" s="2">
         <v>44957</v>
       </c>
-      <c r="B721" s="4" t="s">
+      <c r="B721" t="s">
         <v>16</v>
       </c>
       <c r="C721" t="s">
         <v>169</v>
       </c>
-      <c r="D721" s="4" t="s">
+      <c r="D721" t="s">
         <v>14</v>
       </c>
       <c r="E721">
@@ -13838,16 +13847,16 @@
       </c>
     </row>
     <row r="722" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A722" s="3">
+      <c r="A722" s="2">
         <v>44957</v>
       </c>
-      <c r="B722" s="4" t="s">
+      <c r="B722" t="s">
         <v>16</v>
       </c>
       <c r="C722" t="s">
         <v>341</v>
       </c>
-      <c r="D722" s="4" t="s">
+      <c r="D722" t="s">
         <v>31</v>
       </c>
       <c r="E722">
@@ -13855,7 +13864,7 @@
       </c>
     </row>
     <row r="723" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A723" s="3">
+      <c r="A723" s="2">
         <v>44957</v>
       </c>
       <c r="B723" t="s">
@@ -13864,7 +13873,7 @@
       <c r="C723" t="s">
         <v>174</v>
       </c>
-      <c r="D723" s="4" t="s">
+      <c r="D723" t="s">
         <v>91</v>
       </c>
       <c r="E723">
@@ -13872,7 +13881,7 @@
       </c>
     </row>
     <row r="724" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A724" s="3">
+      <c r="A724" s="2">
         <v>44957</v>
       </c>
       <c r="B724" t="s">
@@ -13881,7 +13890,7 @@
       <c r="C724" t="s">
         <v>348</v>
       </c>
-      <c r="D724" s="4" t="s">
+      <c r="D724" t="s">
         <v>14</v>
       </c>
       <c r="E724">
@@ -13889,7 +13898,7 @@
       </c>
     </row>
     <row r="725" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A725" s="3">
+      <c r="A725" s="2">
         <v>44957</v>
       </c>
       <c r="B725" t="s">
@@ -13898,7 +13907,7 @@
       <c r="C725" t="s">
         <v>53</v>
       </c>
-      <c r="D725" s="4" t="s">
+      <c r="D725" t="s">
         <v>54</v>
       </c>
       <c r="E725">
@@ -13906,7 +13915,7 @@
       </c>
     </row>
     <row r="726" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A726" s="3">
+      <c r="A726" s="2">
         <v>44958</v>
       </c>
       <c r="B726" t="s">
@@ -13915,7 +13924,7 @@
       <c r="C726" t="s">
         <v>340</v>
       </c>
-      <c r="D726" s="4" t="s">
+      <c r="D726" t="s">
         <v>90</v>
       </c>
       <c r="E726">
@@ -13923,7 +13932,7 @@
       </c>
     </row>
     <row r="727" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A727" s="3">
+      <c r="A727" s="2">
         <v>44958</v>
       </c>
       <c r="B727" t="s">
@@ -13932,7 +13941,7 @@
       <c r="C727" t="s">
         <v>147</v>
       </c>
-      <c r="D727" s="4" t="s">
+      <c r="D727" t="s">
         <v>9</v>
       </c>
       <c r="E727">
@@ -13940,7 +13949,7 @@
       </c>
     </row>
     <row r="728" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A728" s="3">
+      <c r="A728" s="2">
         <v>44958</v>
       </c>
       <c r="B728" t="s">
@@ -13949,7 +13958,7 @@
       <c r="C728" t="s">
         <v>147</v>
       </c>
-      <c r="D728" s="4" t="s">
+      <c r="D728" t="s">
         <v>8</v>
       </c>
       <c r="E728">
@@ -13957,16 +13966,16 @@
       </c>
     </row>
     <row r="729" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A729" s="3">
+      <c r="A729" s="2">
         <v>44958</v>
       </c>
-      <c r="B729" s="4" t="s">
+      <c r="B729" t="s">
         <v>16</v>
       </c>
       <c r="C729" t="s">
         <v>147</v>
       </c>
-      <c r="D729" s="4" t="s">
+      <c r="D729" t="s">
         <v>9</v>
       </c>
       <c r="E729">
@@ -13974,7 +13983,7 @@
       </c>
     </row>
     <row r="730" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A730" s="3">
+      <c r="A730" s="2">
         <v>44958</v>
       </c>
       <c r="B730" t="s">
@@ -13983,7 +13992,7 @@
       <c r="C730" t="s">
         <v>347</v>
       </c>
-      <c r="D730" s="4" t="s">
+      <c r="D730" t="s">
         <v>262</v>
       </c>
       <c r="E730">
@@ -13991,7 +14000,7 @@
       </c>
     </row>
     <row r="731" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A731" s="3">
+      <c r="A731" s="2">
         <v>44958</v>
       </c>
       <c r="B731" t="s">
@@ -14000,7 +14009,7 @@
       <c r="C731" t="s">
         <v>206</v>
       </c>
-      <c r="D731" s="4" t="s">
+      <c r="D731" t="s">
         <v>262</v>
       </c>
       <c r="E731">
@@ -14008,16 +14017,16 @@
       </c>
     </row>
     <row r="732" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A732" s="3">
+      <c r="A732" s="2">
         <v>44959</v>
       </c>
-      <c r="B732" s="4" t="s">
+      <c r="B732" t="s">
         <v>16</v>
       </c>
       <c r="C732" t="s">
         <v>166</v>
       </c>
-      <c r="D732" s="4" t="s">
+      <c r="D732" t="s">
         <v>269</v>
       </c>
       <c r="E732">
@@ -14025,7 +14034,7 @@
       </c>
     </row>
     <row r="733" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A733" s="3">
+      <c r="A733" s="2">
         <v>44959</v>
       </c>
       <c r="B733" t="s">
@@ -14034,7 +14043,7 @@
       <c r="C733" t="s">
         <v>181</v>
       </c>
-      <c r="D733" s="4" t="s">
+      <c r="D733" t="s">
         <v>266</v>
       </c>
       <c r="E733">
@@ -14042,7 +14051,7 @@
       </c>
     </row>
     <row r="734" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A734" s="3">
+      <c r="A734" s="2">
         <v>44960</v>
       </c>
       <c r="B734" t="s">
@@ -14051,7 +14060,7 @@
       <c r="C734" t="s">
         <v>203</v>
       </c>
-      <c r="D734" s="4" t="s">
+      <c r="D734" t="s">
         <v>10</v>
       </c>
       <c r="E734">
@@ -14059,7 +14068,7 @@
       </c>
     </row>
     <row r="735" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A735" s="3">
+      <c r="A735" s="2">
         <v>44960</v>
       </c>
       <c r="B735" t="s">
@@ -14068,7 +14077,7 @@
       <c r="C735" t="s">
         <v>151</v>
       </c>
-      <c r="D735" s="4" t="s">
+      <c r="D735" t="s">
         <v>265</v>
       </c>
       <c r="E735">
@@ -14076,7 +14085,7 @@
       </c>
     </row>
     <row r="736" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A736" s="3">
+      <c r="A736" s="2">
         <v>44960</v>
       </c>
       <c r="B736" t="s">
@@ -14085,7 +14094,7 @@
       <c r="C736" t="s">
         <v>152</v>
       </c>
-      <c r="D736" s="4" t="s">
+      <c r="D736" t="s">
         <v>12</v>
       </c>
       <c r="E736">
@@ -14093,7 +14102,7 @@
       </c>
     </row>
     <row r="737" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A737" s="3">
+      <c r="A737" s="2">
         <v>44960</v>
       </c>
       <c r="B737" t="s">
@@ -14102,7 +14111,7 @@
       <c r="C737" t="s">
         <v>327</v>
       </c>
-      <c r="D737" s="4" t="s">
+      <c r="D737" t="s">
         <v>268</v>
       </c>
       <c r="E737">
@@ -14110,7 +14119,7 @@
       </c>
     </row>
     <row r="738" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A738" s="3">
+      <c r="A738" s="2">
         <v>44961</v>
       </c>
       <c r="B738" t="s">
@@ -14119,7 +14128,7 @@
       <c r="C738" t="s">
         <v>345</v>
       </c>
-      <c r="D738" s="4" t="s">
+      <c r="D738" t="s">
         <v>266</v>
       </c>
       <c r="E738">
@@ -14127,7 +14136,7 @@
       </c>
     </row>
     <row r="739" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A739" s="3">
+      <c r="A739" s="2">
         <v>44961</v>
       </c>
       <c r="B739" t="s">
@@ -14136,7 +14145,7 @@
       <c r="C739" t="s">
         <v>346</v>
       </c>
-      <c r="D739" s="4" t="s">
+      <c r="D739" t="s">
         <v>268</v>
       </c>
       <c r="E739">
@@ -14144,7 +14153,7 @@
       </c>
     </row>
     <row r="740" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A740" s="3">
+      <c r="A740" s="2">
         <v>44962</v>
       </c>
       <c r="B740" t="s">
@@ -14153,7 +14162,7 @@
       <c r="C740" t="s">
         <v>97</v>
       </c>
-      <c r="D740" s="4" t="s">
+      <c r="D740" t="s">
         <v>12</v>
       </c>
       <c r="E740">
@@ -14161,7 +14170,7 @@
       </c>
     </row>
     <row r="741" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A741" s="3">
+      <c r="A741" s="2">
         <v>44963</v>
       </c>
       <c r="B741" t="s">
@@ -14170,7 +14179,7 @@
       <c r="C741" t="s">
         <v>124</v>
       </c>
-      <c r="D741" s="4" t="s">
+      <c r="D741" t="s">
         <v>266</v>
       </c>
       <c r="E741">
@@ -14178,7 +14187,7 @@
       </c>
     </row>
     <row r="742" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A742" s="3">
+      <c r="A742" s="2">
         <v>44963</v>
       </c>
       <c r="B742" t="s">
@@ -14187,7 +14196,7 @@
       <c r="C742" t="s">
         <v>124</v>
       </c>
-      <c r="D742" s="4" t="s">
+      <c r="D742" t="s">
         <v>266</v>
       </c>
       <c r="E742">
@@ -14195,7 +14204,7 @@
       </c>
     </row>
     <row r="743" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A743" s="3">
+      <c r="A743" s="2">
         <v>44963</v>
       </c>
       <c r="B743" t="s">
@@ -14204,7 +14213,7 @@
       <c r="C743" t="s">
         <v>342</v>
       </c>
-      <c r="D743" s="4" t="s">
+      <c r="D743" t="s">
         <v>266</v>
       </c>
       <c r="E743">
@@ -14212,7 +14221,7 @@
       </c>
     </row>
     <row r="744" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A744" s="3">
+      <c r="A744" s="2">
         <v>44963</v>
       </c>
       <c r="B744" t="s">
@@ -14221,7 +14230,7 @@
       <c r="C744" t="s">
         <v>190</v>
       </c>
-      <c r="D744" s="4" t="s">
+      <c r="D744" t="s">
         <v>266</v>
       </c>
       <c r="E744">
@@ -14229,7 +14238,7 @@
       </c>
     </row>
     <row r="745" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A745" s="3">
+      <c r="A745" s="2">
         <v>44963</v>
       </c>
       <c r="B745" t="s">
@@ -14238,7 +14247,7 @@
       <c r="C745" t="s">
         <v>343</v>
       </c>
-      <c r="D745" s="4" t="s">
+      <c r="D745" t="s">
         <v>310</v>
       </c>
       <c r="E745">
@@ -14246,7 +14255,7 @@
       </c>
     </row>
     <row r="746" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A746" s="3">
+      <c r="A746" s="2">
         <v>44963</v>
       </c>
       <c r="B746" t="s">
@@ -14255,11 +14264,266 @@
       <c r="C746" t="s">
         <v>344</v>
       </c>
-      <c r="D746" s="4" t="s">
+      <c r="D746" t="s">
         <v>12</v>
       </c>
       <c r="E746">
         <v>-67</v>
+      </c>
+    </row>
+    <row r="747" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A747" s="3">
+        <v>44964</v>
+      </c>
+      <c r="B747" t="s">
+        <v>7</v>
+      </c>
+      <c r="C747" t="s">
+        <v>270</v>
+      </c>
+      <c r="D747" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E747">
+        <v>-41.34</v>
+      </c>
+    </row>
+    <row r="748" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A748" s="3">
+        <v>44964</v>
+      </c>
+      <c r="B748" t="s">
+        <v>7</v>
+      </c>
+      <c r="C748" t="s">
+        <v>147</v>
+      </c>
+      <c r="D748" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E748">
+        <v>-3500</v>
+      </c>
+    </row>
+    <row r="749" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A749" s="3">
+        <v>44964</v>
+      </c>
+      <c r="B749" t="s">
+        <v>7</v>
+      </c>
+      <c r="C749" t="s">
+        <v>289</v>
+      </c>
+      <c r="D749" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E749">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="750" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A750" s="3">
+        <v>44964</v>
+      </c>
+      <c r="B750" t="s">
+        <v>16</v>
+      </c>
+      <c r="C750" t="s">
+        <v>288</v>
+      </c>
+      <c r="D750" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E750">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="751" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A751" s="3">
+        <v>44964</v>
+      </c>
+      <c r="B751" t="s">
+        <v>16</v>
+      </c>
+      <c r="C751" t="s">
+        <v>147</v>
+      </c>
+      <c r="D751" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E751">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="752" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A752" s="3">
+        <v>44964</v>
+      </c>
+      <c r="B752" t="s">
+        <v>21</v>
+      </c>
+      <c r="C752" t="s">
+        <v>351</v>
+      </c>
+      <c r="D752" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="E752">
+        <v>-50.8</v>
+      </c>
+    </row>
+    <row r="753" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A753" s="3">
+        <v>44964</v>
+      </c>
+      <c r="B753" t="s">
+        <v>21</v>
+      </c>
+      <c r="C753" t="s">
+        <v>51</v>
+      </c>
+      <c r="D753" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E753">
+        <v>-71.209999999999994</v>
+      </c>
+    </row>
+    <row r="754" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A754" s="3">
+        <v>44964</v>
+      </c>
+      <c r="B754" t="s">
+        <v>21</v>
+      </c>
+      <c r="C754" t="s">
+        <v>53</v>
+      </c>
+      <c r="D754" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E754">
+        <v>-105</v>
+      </c>
+    </row>
+    <row r="755" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A755" s="3">
+        <v>44964</v>
+      </c>
+      <c r="B755" t="s">
+        <v>21</v>
+      </c>
+      <c r="C755" t="s">
+        <v>180</v>
+      </c>
+      <c r="D755" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E755">
+        <v>-31.98</v>
+      </c>
+    </row>
+    <row r="756" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A756" s="3">
+        <v>44965</v>
+      </c>
+      <c r="B756" t="s">
+        <v>21</v>
+      </c>
+      <c r="C756" t="s">
+        <v>156</v>
+      </c>
+      <c r="D756" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E756">
+        <v>-83.08</v>
+      </c>
+    </row>
+    <row r="757" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A757" s="3">
+        <v>44966</v>
+      </c>
+      <c r="B757" t="s">
+        <v>21</v>
+      </c>
+      <c r="C757" t="s">
+        <v>149</v>
+      </c>
+      <c r="D757" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E757">
+        <v>-2.99</v>
+      </c>
+    </row>
+    <row r="758" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A758" s="3">
+        <v>44967</v>
+      </c>
+      <c r="B758" t="s">
+        <v>21</v>
+      </c>
+      <c r="C758" t="s">
+        <v>350</v>
+      </c>
+      <c r="D758" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="E758">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="759" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A759" s="3">
+        <v>44967</v>
+      </c>
+      <c r="B759" t="s">
+        <v>21</v>
+      </c>
+      <c r="C759" t="s">
+        <v>351</v>
+      </c>
+      <c r="D759" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="E759">
+        <v>-146.02000000000001</v>
+      </c>
+    </row>
+    <row r="760" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A760" s="3">
+        <v>44969</v>
+      </c>
+      <c r="B760" t="s">
+        <v>21</v>
+      </c>
+      <c r="C760" t="s">
+        <v>349</v>
+      </c>
+      <c r="D760" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E760">
+        <v>-59</v>
+      </c>
+    </row>
+    <row r="761" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A761" s="3">
+        <v>44970</v>
+      </c>
+      <c r="B761" t="s">
+        <v>7</v>
+      </c>
+      <c r="C761" t="s">
+        <v>71</v>
+      </c>
+      <c r="D761" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E761">
+        <v>3106.39</v>
       </c>
     </row>
   </sheetData>
@@ -14275,7 +14539,7 @@
           <x14:formula1>
             <xm:f>OFFSET(Categories!$A$2,0,0,COUNTIF(Categories!$A$2:$A$99,"&lt;&gt;"))</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D746</xm:sqref>
+          <xm:sqref>D2:D761</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Expenses.xlsx
+++ b/Expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffgood/Desktop/R_Studio_Projects/Financial_Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACA336A-B9F3-244B-B837-40835F20727E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9C1CF7-CFF1-1A46-A46A-F224EF1A3970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="980" windowWidth="15420" windowHeight="15800" xr2:uid="{D9F47917-7B20-384C-878F-0D08681ABD47}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2308" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="359">
   <si>
     <t>Date</t>
   </si>
@@ -1096,6 +1096,27 @@
   </si>
   <si>
     <t>Mechanicsburg Veterinary</t>
+  </si>
+  <si>
+    <t>Check #1636</t>
+  </si>
+  <si>
+    <t>CARRABBAS 8909 ONLINE</t>
+  </si>
+  <si>
+    <t>CVS/PHARMACY #00228</t>
+  </si>
+  <si>
+    <t>WOODBURY NISSAN INC</t>
+  </si>
+  <si>
+    <t>TACO BELL 724412         717-310-7959 PA</t>
+  </si>
+  <si>
+    <t>AutoZone</t>
+  </si>
+  <si>
+    <t>Urban Churn Llc</t>
   </si>
 </sst>
 </file>
@@ -1225,10 +1246,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}" name="Table1" displayName="Table1" ref="A1:E761" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E761" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E761">
-    <sortCondition ref="A1:A761"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}" name="Table1" displayName="Table1" ref="A1:E781" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E781" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E781">
+    <sortCondition ref="A1:A781"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{36D6B367-4586-164A-BAFD-F61BD8D7B0D8}" name="Date" dataDxfId="4"/>
@@ -1538,10 +1559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BEBEFE-BF8C-CE41-8907-E9633ACA1DDB}">
-  <dimension ref="A1:E761"/>
+  <dimension ref="A1:E781"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D762" sqref="D762"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D782" sqref="D782"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14272,7 +14293,7 @@
       </c>
     </row>
     <row r="747" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A747" s="3">
+      <c r="A747" s="2">
         <v>44964</v>
       </c>
       <c r="B747" t="s">
@@ -14281,7 +14302,7 @@
       <c r="C747" t="s">
         <v>270</v>
       </c>
-      <c r="D747" s="4" t="s">
+      <c r="D747" t="s">
         <v>266</v>
       </c>
       <c r="E747">
@@ -14289,7 +14310,7 @@
       </c>
     </row>
     <row r="748" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A748" s="3">
+      <c r="A748" s="2">
         <v>44964</v>
       </c>
       <c r="B748" t="s">
@@ -14298,7 +14319,7 @@
       <c r="C748" t="s">
         <v>147</v>
       </c>
-      <c r="D748" s="4" t="s">
+      <c r="D748" t="s">
         <v>9</v>
       </c>
       <c r="E748">
@@ -14306,7 +14327,7 @@
       </c>
     </row>
     <row r="749" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A749" s="3">
+      <c r="A749" s="2">
         <v>44964</v>
       </c>
       <c r="B749" t="s">
@@ -14315,7 +14336,7 @@
       <c r="C749" t="s">
         <v>289</v>
       </c>
-      <c r="D749" s="4" t="s">
+      <c r="D749" t="s">
         <v>31</v>
       </c>
       <c r="E749">
@@ -14323,7 +14344,7 @@
       </c>
     </row>
     <row r="750" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A750" s="3">
+      <c r="A750" s="2">
         <v>44964</v>
       </c>
       <c r="B750" t="s">
@@ -14332,7 +14353,7 @@
       <c r="C750" t="s">
         <v>288</v>
       </c>
-      <c r="D750" s="4" t="s">
+      <c r="D750" t="s">
         <v>11</v>
       </c>
       <c r="E750">
@@ -14340,7 +14361,7 @@
       </c>
     </row>
     <row r="751" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A751" s="3">
+      <c r="A751" s="2">
         <v>44964</v>
       </c>
       <c r="B751" t="s">
@@ -14349,7 +14370,7 @@
       <c r="C751" t="s">
         <v>147</v>
       </c>
-      <c r="D751" s="4" t="s">
+      <c r="D751" t="s">
         <v>9</v>
       </c>
       <c r="E751">
@@ -14357,7 +14378,7 @@
       </c>
     </row>
     <row r="752" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A752" s="3">
+      <c r="A752" s="2">
         <v>44964</v>
       </c>
       <c r="B752" t="s">
@@ -14366,7 +14387,7 @@
       <c r="C752" t="s">
         <v>351</v>
       </c>
-      <c r="D752" s="4" t="s">
+      <c r="D752" t="s">
         <v>310</v>
       </c>
       <c r="E752">
@@ -14374,7 +14395,7 @@
       </c>
     </row>
     <row r="753" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A753" s="3">
+      <c r="A753" s="2">
         <v>44964</v>
       </c>
       <c r="B753" t="s">
@@ -14383,7 +14404,7 @@
       <c r="C753" t="s">
         <v>51</v>
       </c>
-      <c r="D753" s="4" t="s">
+      <c r="D753" t="s">
         <v>12</v>
       </c>
       <c r="E753">
@@ -14391,7 +14412,7 @@
       </c>
     </row>
     <row r="754" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A754" s="3">
+      <c r="A754" s="2">
         <v>44964</v>
       </c>
       <c r="B754" t="s">
@@ -14400,7 +14421,7 @@
       <c r="C754" t="s">
         <v>53</v>
       </c>
-      <c r="D754" s="4" t="s">
+      <c r="D754" t="s">
         <v>54</v>
       </c>
       <c r="E754">
@@ -14408,7 +14429,7 @@
       </c>
     </row>
     <row r="755" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A755" s="3">
+      <c r="A755" s="2">
         <v>44964</v>
       </c>
       <c r="B755" t="s">
@@ -14417,7 +14438,7 @@
       <c r="C755" t="s">
         <v>180</v>
       </c>
-      <c r="D755" s="4" t="s">
+      <c r="D755" t="s">
         <v>90</v>
       </c>
       <c r="E755">
@@ -14425,7 +14446,7 @@
       </c>
     </row>
     <row r="756" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A756" s="3">
+      <c r="A756" s="2">
         <v>44965</v>
       </c>
       <c r="B756" t="s">
@@ -14434,7 +14455,7 @@
       <c r="C756" t="s">
         <v>156</v>
       </c>
-      <c r="D756" s="4" t="s">
+      <c r="D756" t="s">
         <v>266</v>
       </c>
       <c r="E756">
@@ -14442,7 +14463,7 @@
       </c>
     </row>
     <row r="757" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A757" s="3">
+      <c r="A757" s="2">
         <v>44966</v>
       </c>
       <c r="B757" t="s">
@@ -14451,7 +14472,7 @@
       <c r="C757" t="s">
         <v>149</v>
       </c>
-      <c r="D757" s="4" t="s">
+      <c r="D757" t="s">
         <v>265</v>
       </c>
       <c r="E757">
@@ -14459,7 +14480,7 @@
       </c>
     </row>
     <row r="758" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A758" s="3">
+      <c r="A758" s="2">
         <v>44967</v>
       </c>
       <c r="B758" t="s">
@@ -14468,7 +14489,7 @@
       <c r="C758" t="s">
         <v>350</v>
       </c>
-      <c r="D758" s="4" t="s">
+      <c r="D758" t="s">
         <v>262</v>
       </c>
       <c r="E758">
@@ -14476,7 +14497,7 @@
       </c>
     </row>
     <row r="759" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A759" s="3">
+      <c r="A759" s="2">
         <v>44967</v>
       </c>
       <c r="B759" t="s">
@@ -14485,7 +14506,7 @@
       <c r="C759" t="s">
         <v>351</v>
       </c>
-      <c r="D759" s="4" t="s">
+      <c r="D759" t="s">
         <v>310</v>
       </c>
       <c r="E759">
@@ -14493,7 +14514,7 @@
       </c>
     </row>
     <row r="760" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A760" s="3">
+      <c r="A760" s="2">
         <v>44969</v>
       </c>
       <c r="B760" t="s">
@@ -14502,7 +14523,7 @@
       <c r="C760" t="s">
         <v>349</v>
       </c>
-      <c r="D760" s="4" t="s">
+      <c r="D760" t="s">
         <v>12</v>
       </c>
       <c r="E760">
@@ -14510,7 +14531,7 @@
       </c>
     </row>
     <row r="761" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A761" s="3">
+      <c r="A761" s="2">
         <v>44970</v>
       </c>
       <c r="B761" t="s">
@@ -14519,11 +14540,351 @@
       <c r="C761" t="s">
         <v>71</v>
       </c>
-      <c r="D761" s="4" t="s">
+      <c r="D761" t="s">
         <v>32</v>
       </c>
       <c r="E761">
         <v>3106.39</v>
+      </c>
+    </row>
+    <row r="762" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A762" s="3">
+        <v>44971</v>
+      </c>
+      <c r="B762" t="s">
+        <v>7</v>
+      </c>
+      <c r="C762" t="s">
+        <v>352</v>
+      </c>
+      <c r="D762" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="E762">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="763" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A763" s="3">
+        <v>44971</v>
+      </c>
+      <c r="B763" t="s">
+        <v>7</v>
+      </c>
+      <c r="C763" t="s">
+        <v>174</v>
+      </c>
+      <c r="D763" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E763">
+        <v>-1690.79</v>
+      </c>
+    </row>
+    <row r="764" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A764" s="3">
+        <v>44971</v>
+      </c>
+      <c r="B764" t="s">
+        <v>21</v>
+      </c>
+      <c r="C764" t="s">
+        <v>46</v>
+      </c>
+      <c r="D764" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E764">
+        <v>1690.79</v>
+      </c>
+    </row>
+    <row r="765" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A765" s="3">
+        <v>44971</v>
+      </c>
+      <c r="B765" t="s">
+        <v>21</v>
+      </c>
+      <c r="C765" t="s">
+        <v>351</v>
+      </c>
+      <c r="D765" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="E765">
+        <v>-19.46</v>
+      </c>
+    </row>
+    <row r="766" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A766" s="3">
+        <v>44972</v>
+      </c>
+      <c r="B766" t="s">
+        <v>7</v>
+      </c>
+      <c r="C766" t="s">
+        <v>147</v>
+      </c>
+      <c r="D766" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E766">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="767" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A767" s="3">
+        <v>44972</v>
+      </c>
+      <c r="B767" t="s">
+        <v>7</v>
+      </c>
+      <c r="C767" t="s">
+        <v>147</v>
+      </c>
+      <c r="D767" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E767">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="768" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A768" s="3">
+        <v>44972</v>
+      </c>
+      <c r="B768" t="s">
+        <v>16</v>
+      </c>
+      <c r="C768" t="s">
+        <v>147</v>
+      </c>
+      <c r="D768" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E768">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="769" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A769" s="3">
+        <v>44972</v>
+      </c>
+      <c r="B769" t="s">
+        <v>21</v>
+      </c>
+      <c r="C769" t="s">
+        <v>149</v>
+      </c>
+      <c r="D769" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E769">
+        <v>-21.49</v>
+      </c>
+    </row>
+    <row r="770" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A770" s="3">
+        <v>44973</v>
+      </c>
+      <c r="B770" t="s">
+        <v>7</v>
+      </c>
+      <c r="C770" t="s">
+        <v>169</v>
+      </c>
+      <c r="D770" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E770">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="771" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A771" s="3">
+        <v>44973</v>
+      </c>
+      <c r="B771" t="s">
+        <v>16</v>
+      </c>
+      <c r="C771" t="s">
+        <v>166</v>
+      </c>
+      <c r="D771" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E771">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="772" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A772" s="3">
+        <v>44974</v>
+      </c>
+      <c r="B772" t="s">
+        <v>21</v>
+      </c>
+      <c r="C772" t="s">
+        <v>358</v>
+      </c>
+      <c r="D772" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E772">
+        <v>-22.5</v>
+      </c>
+    </row>
+    <row r="773" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A773" s="3">
+        <v>44975</v>
+      </c>
+      <c r="B773" t="s">
+        <v>21</v>
+      </c>
+      <c r="C773" t="s">
+        <v>357</v>
+      </c>
+      <c r="D773" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E773">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="774" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A774" s="3">
+        <v>44977</v>
+      </c>
+      <c r="B774" t="s">
+        <v>21</v>
+      </c>
+      <c r="C774" t="s">
+        <v>353</v>
+      </c>
+      <c r="D774" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E774">
+        <v>-30.23</v>
+      </c>
+    </row>
+    <row r="775" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A775" s="3">
+        <v>44977</v>
+      </c>
+      <c r="B775" t="s">
+        <v>21</v>
+      </c>
+      <c r="C775" t="s">
+        <v>354</v>
+      </c>
+      <c r="D775" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E775">
+        <v>-35.75</v>
+      </c>
+    </row>
+    <row r="776" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A776" s="3">
+        <v>44977</v>
+      </c>
+      <c r="B776" t="s">
+        <v>21</v>
+      </c>
+      <c r="C776" t="s">
+        <v>355</v>
+      </c>
+      <c r="D776" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E776">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="777" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A777" s="3">
+        <v>44977</v>
+      </c>
+      <c r="B777" t="s">
+        <v>21</v>
+      </c>
+      <c r="C777" t="s">
+        <v>279</v>
+      </c>
+      <c r="D777" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E777">
+        <v>-39.99</v>
+      </c>
+    </row>
+    <row r="778" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A778" s="3">
+        <v>44977</v>
+      </c>
+      <c r="B778" t="s">
+        <v>21</v>
+      </c>
+      <c r="C778" t="s">
+        <v>323</v>
+      </c>
+      <c r="D778" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="E778">
+        <v>-43.82</v>
+      </c>
+    </row>
+    <row r="779" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A779" s="3">
+        <v>44977</v>
+      </c>
+      <c r="B779" t="s">
+        <v>21</v>
+      </c>
+      <c r="C779" t="s">
+        <v>356</v>
+      </c>
+      <c r="D779" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E779">
+        <v>-29.71</v>
+      </c>
+    </row>
+    <row r="780" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A780" s="3">
+        <v>44978</v>
+      </c>
+      <c r="B780" t="s">
+        <v>7</v>
+      </c>
+      <c r="C780" t="s">
+        <v>15</v>
+      </c>
+      <c r="D780" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E780">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="781" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A781" s="3">
+        <v>44978</v>
+      </c>
+      <c r="B781" t="s">
+        <v>16</v>
+      </c>
+      <c r="C781" t="s">
+        <v>6</v>
+      </c>
+      <c r="D781" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E781">
+        <v>-8000</v>
       </c>
     </row>
   </sheetData>
@@ -14539,7 +14900,7 @@
           <x14:formula1>
             <xm:f>OFFSET(Categories!$A$2,0,0,COUNTIF(Categories!$A$2:$A$99,"&lt;&gt;"))</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D761</xm:sqref>
+          <xm:sqref>D2:D781</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Expenses.xlsx
+++ b/Expenses.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffgood/Desktop/R_Studio_Projects/Financial_Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9C1CF7-CFF1-1A46-A46A-F224EF1A3970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA43A75-CD90-CF44-9C68-7DA76E7CE695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="980" windowWidth="15420" windowHeight="15800" xr2:uid="{D9F47917-7B20-384C-878F-0D08681ABD47}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2461" uniqueCount="365">
   <si>
     <t>Date</t>
   </si>
@@ -1117,13 +1117,31 @@
   </si>
   <si>
     <t>Urban Churn Llc</t>
+  </si>
+  <si>
+    <t>Spring Health    Receivable ***********LWCE</t>
+  </si>
+  <si>
+    <t>CHASE CREDIT CRD EPAY       ***********3224</t>
+  </si>
+  <si>
+    <t>Check #1637</t>
+  </si>
+  <si>
+    <t>Sweet Velvet Macarons</t>
+  </si>
+  <si>
+    <t>Philadelphia Steak &amp; Hoag</t>
+  </si>
+  <si>
+    <t>Auntie Anne's</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1133,6 +1151,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1152,7 +1177,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1160,16 +1185,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA5A5A5"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFA5A5A5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFA5A5A5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1246,10 +1295,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}" name="Table1" displayName="Table1" ref="A1:E781" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E781" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E781">
-    <sortCondition ref="A1:A781"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}" name="Table1" displayName="Table1" ref="A1:E812" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E812" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E812">
+    <sortCondition ref="A1:A812"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{36D6B367-4586-164A-BAFD-F61BD8D7B0D8}" name="Date" dataDxfId="4"/>
@@ -1559,10 +1608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BEBEFE-BF8C-CE41-8907-E9633ACA1DDB}">
-  <dimension ref="A1:E781"/>
+  <dimension ref="A1:E812"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D782" sqref="D782"/>
+      <selection activeCell="D813" sqref="D813"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14548,7 +14597,7 @@
       </c>
     </row>
     <row r="762" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A762" s="3">
+      <c r="A762" s="2">
         <v>44971</v>
       </c>
       <c r="B762" t="s">
@@ -14557,7 +14606,7 @@
       <c r="C762" t="s">
         <v>352</v>
       </c>
-      <c r="D762" s="4" t="s">
+      <c r="D762" t="s">
         <v>262</v>
       </c>
       <c r="E762">
@@ -14565,7 +14614,7 @@
       </c>
     </row>
     <row r="763" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A763" s="3">
+      <c r="A763" s="2">
         <v>44971</v>
       </c>
       <c r="B763" t="s">
@@ -14574,7 +14623,7 @@
       <c r="C763" t="s">
         <v>174</v>
       </c>
-      <c r="D763" s="4" t="s">
+      <c r="D763" t="s">
         <v>91</v>
       </c>
       <c r="E763">
@@ -14582,7 +14631,7 @@
       </c>
     </row>
     <row r="764" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A764" s="3">
+      <c r="A764" s="2">
         <v>44971</v>
       </c>
       <c r="B764" t="s">
@@ -14591,7 +14640,7 @@
       <c r="C764" t="s">
         <v>46</v>
       </c>
-      <c r="D764" s="4" t="s">
+      <c r="D764" t="s">
         <v>91</v>
       </c>
       <c r="E764">
@@ -14599,7 +14648,7 @@
       </c>
     </row>
     <row r="765" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A765" s="3">
+      <c r="A765" s="2">
         <v>44971</v>
       </c>
       <c r="B765" t="s">
@@ -14608,7 +14657,7 @@
       <c r="C765" t="s">
         <v>351</v>
       </c>
-      <c r="D765" s="4" t="s">
+      <c r="D765" t="s">
         <v>310</v>
       </c>
       <c r="E765">
@@ -14616,7 +14665,7 @@
       </c>
     </row>
     <row r="766" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A766" s="3">
+      <c r="A766" s="2">
         <v>44972</v>
       </c>
       <c r="B766" t="s">
@@ -14625,7 +14674,7 @@
       <c r="C766" t="s">
         <v>147</v>
       </c>
-      <c r="D766" s="4" t="s">
+      <c r="D766" t="s">
         <v>9</v>
       </c>
       <c r="E766">
@@ -14633,7 +14682,7 @@
       </c>
     </row>
     <row r="767" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A767" s="3">
+      <c r="A767" s="2">
         <v>44972</v>
       </c>
       <c r="B767" t="s">
@@ -14642,7 +14691,7 @@
       <c r="C767" t="s">
         <v>147</v>
       </c>
-      <c r="D767" s="4" t="s">
+      <c r="D767" t="s">
         <v>8</v>
       </c>
       <c r="E767">
@@ -14650,7 +14699,7 @@
       </c>
     </row>
     <row r="768" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A768" s="3">
+      <c r="A768" s="2">
         <v>44972</v>
       </c>
       <c r="B768" t="s">
@@ -14659,7 +14708,7 @@
       <c r="C768" t="s">
         <v>147</v>
       </c>
-      <c r="D768" s="4" t="s">
+      <c r="D768" t="s">
         <v>9</v>
       </c>
       <c r="E768">
@@ -14667,7 +14716,7 @@
       </c>
     </row>
     <row r="769" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A769" s="3">
+      <c r="A769" s="2">
         <v>44972</v>
       </c>
       <c r="B769" t="s">
@@ -14676,7 +14725,7 @@
       <c r="C769" t="s">
         <v>149</v>
       </c>
-      <c r="D769" s="4" t="s">
+      <c r="D769" t="s">
         <v>263</v>
       </c>
       <c r="E769">
@@ -14684,7 +14733,7 @@
       </c>
     </row>
     <row r="770" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A770" s="3">
+      <c r="A770" s="2">
         <v>44973</v>
       </c>
       <c r="B770" t="s">
@@ -14693,7 +14742,7 @@
       <c r="C770" t="s">
         <v>169</v>
       </c>
-      <c r="D770" s="4" t="s">
+      <c r="D770" t="s">
         <v>14</v>
       </c>
       <c r="E770">
@@ -14701,7 +14750,7 @@
       </c>
     </row>
     <row r="771" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A771" s="3">
+      <c r="A771" s="2">
         <v>44973</v>
       </c>
       <c r="B771" t="s">
@@ -14710,7 +14759,7 @@
       <c r="C771" t="s">
         <v>166</v>
       </c>
-      <c r="D771" s="4" t="s">
+      <c r="D771" t="s">
         <v>269</v>
       </c>
       <c r="E771">
@@ -14718,7 +14767,7 @@
       </c>
     </row>
     <row r="772" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A772" s="3">
+      <c r="A772" s="2">
         <v>44974</v>
       </c>
       <c r="B772" t="s">
@@ -14727,7 +14776,7 @@
       <c r="C772" t="s">
         <v>358</v>
       </c>
-      <c r="D772" s="4" t="s">
+      <c r="D772" t="s">
         <v>268</v>
       </c>
       <c r="E772">
@@ -14735,7 +14784,7 @@
       </c>
     </row>
     <row r="773" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A773" s="3">
+      <c r="A773" s="2">
         <v>44975</v>
       </c>
       <c r="B773" t="s">
@@ -14744,7 +14793,7 @@
       <c r="C773" t="s">
         <v>357</v>
       </c>
-      <c r="D773" s="4" t="s">
+      <c r="D773" t="s">
         <v>264</v>
       </c>
       <c r="E773">
@@ -14752,7 +14801,7 @@
       </c>
     </row>
     <row r="774" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A774" s="3">
+      <c r="A774" s="2">
         <v>44977</v>
       </c>
       <c r="B774" t="s">
@@ -14761,7 +14810,7 @@
       <c r="C774" t="s">
         <v>353</v>
       </c>
-      <c r="D774" s="4" t="s">
+      <c r="D774" t="s">
         <v>268</v>
       </c>
       <c r="E774">
@@ -14769,7 +14818,7 @@
       </c>
     </row>
     <row r="775" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A775" s="3">
+      <c r="A775" s="2">
         <v>44977</v>
       </c>
       <c r="B775" t="s">
@@ -14778,7 +14827,7 @@
       <c r="C775" t="s">
         <v>354</v>
       </c>
-      <c r="D775" s="4" t="s">
+      <c r="D775" t="s">
         <v>12</v>
       </c>
       <c r="E775">
@@ -14786,7 +14835,7 @@
       </c>
     </row>
     <row r="776" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A776" s="3">
+      <c r="A776" s="2">
         <v>44977</v>
       </c>
       <c r="B776" t="s">
@@ -14795,7 +14844,7 @@
       <c r="C776" t="s">
         <v>355</v>
       </c>
-      <c r="D776" s="4" t="s">
+      <c r="D776" t="s">
         <v>264</v>
       </c>
       <c r="E776">
@@ -14803,7 +14852,7 @@
       </c>
     </row>
     <row r="777" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A777" s="3">
+      <c r="A777" s="2">
         <v>44977</v>
       </c>
       <c r="B777" t="s">
@@ -14812,7 +14861,7 @@
       <c r="C777" t="s">
         <v>279</v>
       </c>
-      <c r="D777" s="4" t="s">
+      <c r="D777" t="s">
         <v>265</v>
       </c>
       <c r="E777">
@@ -14820,7 +14869,7 @@
       </c>
     </row>
     <row r="778" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A778" s="3">
+      <c r="A778" s="2">
         <v>44977</v>
       </c>
       <c r="B778" t="s">
@@ -14829,7 +14878,7 @@
       <c r="C778" t="s">
         <v>323</v>
       </c>
-      <c r="D778" s="4" t="s">
+      <c r="D778" t="s">
         <v>310</v>
       </c>
       <c r="E778">
@@ -14837,7 +14886,7 @@
       </c>
     </row>
     <row r="779" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A779" s="3">
+      <c r="A779" s="2">
         <v>44977</v>
       </c>
       <c r="B779" t="s">
@@ -14846,7 +14895,7 @@
       <c r="C779" t="s">
         <v>356</v>
       </c>
-      <c r="D779" s="4" t="s">
+      <c r="D779" t="s">
         <v>268</v>
       </c>
       <c r="E779">
@@ -14855,36 +14904,563 @@
     </row>
     <row r="780" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A780" s="3">
-        <v>44978</v>
+        <v>44977</v>
       </c>
       <c r="B780" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C780" t="s">
-        <v>15</v>
+        <v>161</v>
       </c>
       <c r="D780" s="4" t="s">
-        <v>9</v>
+        <v>264</v>
       </c>
       <c r="E780">
-        <v>8000</v>
+        <v>-46.23</v>
       </c>
     </row>
     <row r="781" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A781" s="3">
+        <v>44977</v>
+      </c>
+      <c r="B781" t="s">
+        <v>21</v>
+      </c>
+      <c r="C781" t="s">
+        <v>254</v>
+      </c>
+      <c r="D781" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E781">
+        <v>-29.02</v>
+      </c>
+    </row>
+    <row r="782" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A782" s="2">
         <v>44978</v>
       </c>
-      <c r="B781" t="s">
+      <c r="B782" t="s">
+        <v>7</v>
+      </c>
+      <c r="C782" t="s">
+        <v>15</v>
+      </c>
+      <c r="D782" t="s">
+        <v>9</v>
+      </c>
+      <c r="E782">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="783" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A783" s="2">
+        <v>44978</v>
+      </c>
+      <c r="B783" t="s">
         <v>16</v>
       </c>
-      <c r="C781" t="s">
+      <c r="C783" t="s">
         <v>6</v>
       </c>
-      <c r="D781" s="4" t="s">
+      <c r="D783" t="s">
         <v>9</v>
       </c>
-      <c r="E781">
+      <c r="E783">
         <v>-8000</v>
+      </c>
+    </row>
+    <row r="784" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A784" s="2">
+        <v>44978</v>
+      </c>
+      <c r="B784" t="s">
+        <v>7</v>
+      </c>
+      <c r="C784" t="s">
+        <v>171</v>
+      </c>
+      <c r="D784" t="s">
+        <v>12</v>
+      </c>
+      <c r="E784">
+        <v>-158.41</v>
+      </c>
+    </row>
+    <row r="785" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A785" s="3">
+        <v>44978</v>
+      </c>
+      <c r="B785" t="s">
+        <v>21</v>
+      </c>
+      <c r="C785" t="s">
+        <v>364</v>
+      </c>
+      <c r="D785" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E785">
+        <v>-11.13</v>
+      </c>
+    </row>
+    <row r="786" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A786" s="3">
+        <v>44978</v>
+      </c>
+      <c r="B786" t="s">
+        <v>21</v>
+      </c>
+      <c r="C786" t="s">
+        <v>53</v>
+      </c>
+      <c r="D786" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E786">
+        <v>-210</v>
+      </c>
+    </row>
+    <row r="787" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A787" s="3">
+        <v>44978</v>
+      </c>
+      <c r="B787" t="s">
+        <v>21</v>
+      </c>
+      <c r="C787" t="s">
+        <v>282</v>
+      </c>
+      <c r="D787" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E787">
+        <v>104.31</v>
+      </c>
+    </row>
+    <row r="788" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A788" s="2">
+        <v>44979</v>
+      </c>
+      <c r="B788" t="s">
+        <v>7</v>
+      </c>
+      <c r="C788" t="s">
+        <v>361</v>
+      </c>
+      <c r="D788" t="s">
+        <v>264</v>
+      </c>
+      <c r="E788">
+        <v>-8000</v>
+      </c>
+    </row>
+    <row r="789" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A789" s="3">
+        <v>44979</v>
+      </c>
+      <c r="B789" t="s">
+        <v>21</v>
+      </c>
+      <c r="C789" t="s">
+        <v>351</v>
+      </c>
+      <c r="D789" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="E789">
+        <v>-20.149999999999999</v>
+      </c>
+    </row>
+    <row r="790" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A790" s="3">
+        <v>44980</v>
+      </c>
+      <c r="B790" t="s">
+        <v>21</v>
+      </c>
+      <c r="C790" t="s">
+        <v>160</v>
+      </c>
+      <c r="D790" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E790">
+        <v>-15.89</v>
+      </c>
+    </row>
+    <row r="791" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A791" s="3">
+        <v>44980</v>
+      </c>
+      <c r="B791" t="s">
+        <v>21</v>
+      </c>
+      <c r="C791" t="s">
+        <v>161</v>
+      </c>
+      <c r="D791" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E791">
+        <v>-84.37</v>
+      </c>
+    </row>
+    <row r="792" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A792" s="3">
+        <v>44980</v>
+      </c>
+      <c r="B792" t="s">
+        <v>21</v>
+      </c>
+      <c r="C792" t="s">
+        <v>363</v>
+      </c>
+      <c r="D792" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E792">
+        <v>-11.68</v>
+      </c>
+    </row>
+    <row r="793" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A793" s="7">
+        <v>44981</v>
+      </c>
+      <c r="B793" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C793" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D793" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E793">
+        <v>-13.77</v>
+      </c>
+    </row>
+    <row r="794" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A794" s="7">
+        <v>44981</v>
+      </c>
+      <c r="B794" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C794" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="D794" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="E794">
+        <v>-21.38</v>
+      </c>
+    </row>
+    <row r="795" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A795" s="3">
+        <v>44981</v>
+      </c>
+      <c r="B795" t="s">
+        <v>21</v>
+      </c>
+      <c r="C795" t="s">
+        <v>206</v>
+      </c>
+      <c r="D795" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E795">
+        <v>-8.9</v>
+      </c>
+    </row>
+    <row r="796" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A796" s="3">
+        <v>44981</v>
+      </c>
+      <c r="B796" t="s">
+        <v>21</v>
+      </c>
+      <c r="C796" t="s">
+        <v>227</v>
+      </c>
+      <c r="D796" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E796">
+        <v>-150.08000000000001</v>
+      </c>
+    </row>
+    <row r="797" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A797" s="3">
+        <v>44982</v>
+      </c>
+      <c r="B797" t="s">
+        <v>21</v>
+      </c>
+      <c r="C797" t="s">
+        <v>152</v>
+      </c>
+      <c r="D797" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E797">
+        <v>-229.49</v>
+      </c>
+    </row>
+    <row r="798" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A798" s="6">
+        <v>44982</v>
+      </c>
+      <c r="B798" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C798" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D798" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E798" s="4">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="799" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A799" s="6">
+        <v>44982</v>
+      </c>
+      <c r="B799" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C799" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D799" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E799" s="4">
+        <v>-16.5</v>
+      </c>
+    </row>
+    <row r="800" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A800" s="3">
+        <v>44982</v>
+      </c>
+      <c r="B800" t="s">
+        <v>21</v>
+      </c>
+      <c r="C800" t="s">
+        <v>156</v>
+      </c>
+      <c r="D800" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E800">
+        <v>-16.98</v>
+      </c>
+    </row>
+    <row r="801" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A801" s="3">
+        <v>44982</v>
+      </c>
+      <c r="B801" t="s">
+        <v>21</v>
+      </c>
+      <c r="C801" t="s">
+        <v>156</v>
+      </c>
+      <c r="D801" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E801">
+        <v>-31.26</v>
+      </c>
+    </row>
+    <row r="802" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A802" s="3">
+        <v>44982</v>
+      </c>
+      <c r="B802" t="s">
+        <v>21</v>
+      </c>
+      <c r="C802" t="s">
+        <v>157</v>
+      </c>
+      <c r="D802" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E802">
+        <v>-36.840000000000003</v>
+      </c>
+    </row>
+    <row r="803" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A803" s="3">
+        <v>44982</v>
+      </c>
+      <c r="B803" t="s">
+        <v>21</v>
+      </c>
+      <c r="C803" t="s">
+        <v>362</v>
+      </c>
+      <c r="D803" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E803">
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="804" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A804" s="3">
+        <v>44982</v>
+      </c>
+      <c r="B804" t="s">
+        <v>21</v>
+      </c>
+      <c r="C804" t="s">
+        <v>357</v>
+      </c>
+      <c r="D804" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E804">
+        <v>-12.71</v>
+      </c>
+    </row>
+    <row r="805" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A805" s="3">
+        <v>44983</v>
+      </c>
+      <c r="B805" t="s">
+        <v>21</v>
+      </c>
+      <c r="C805" t="s">
+        <v>156</v>
+      </c>
+      <c r="D805" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E805">
+        <v>31.26</v>
+      </c>
+    </row>
+    <row r="806" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A806" s="2">
+        <v>44984</v>
+      </c>
+      <c r="B806" t="s">
+        <v>7</v>
+      </c>
+      <c r="C806" t="s">
+        <v>360</v>
+      </c>
+      <c r="D806" t="s">
+        <v>92</v>
+      </c>
+      <c r="E806">
+        <v>-534.54999999999995</v>
+      </c>
+    </row>
+    <row r="807" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A807" s="2">
+        <v>44984</v>
+      </c>
+      <c r="B807" t="s">
+        <v>7</v>
+      </c>
+      <c r="C807" t="s">
+        <v>106</v>
+      </c>
+      <c r="D807" t="s">
+        <v>265</v>
+      </c>
+      <c r="E807">
+        <v>-33.53</v>
+      </c>
+    </row>
+    <row r="808" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A808" s="2">
+        <v>44984</v>
+      </c>
+      <c r="B808" t="s">
+        <v>7</v>
+      </c>
+      <c r="C808" t="s">
+        <v>71</v>
+      </c>
+      <c r="D808" t="s">
+        <v>32</v>
+      </c>
+      <c r="E808">
+        <v>3105.85</v>
+      </c>
+    </row>
+    <row r="809" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A809" s="3">
+        <v>44984</v>
+      </c>
+      <c r="B809" t="s">
+        <v>21</v>
+      </c>
+      <c r="C809" t="s">
+        <v>343</v>
+      </c>
+      <c r="D809" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="E809">
+        <v>-62.63</v>
+      </c>
+    </row>
+    <row r="810" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A810" s="2">
+        <v>44985</v>
+      </c>
+      <c r="B810" t="s">
+        <v>7</v>
+      </c>
+      <c r="C810" t="s">
+        <v>359</v>
+      </c>
+      <c r="D810" t="s">
+        <v>232</v>
+      </c>
+      <c r="E810">
+        <v>3510</v>
+      </c>
+    </row>
+    <row r="811" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A811" s="2">
+        <v>44985</v>
+      </c>
+      <c r="B811" t="s">
+        <v>7</v>
+      </c>
+      <c r="C811" t="s">
+        <v>43</v>
+      </c>
+      <c r="D811" t="s">
+        <v>91</v>
+      </c>
+      <c r="E811">
+        <v>-3126.76</v>
+      </c>
+    </row>
+    <row r="812" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A812" s="3">
+        <v>44985</v>
+      </c>
+      <c r="B812" t="s">
+        <v>21</v>
+      </c>
+      <c r="C812" t="s">
+        <v>43</v>
+      </c>
+      <c r="D812" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E812">
+        <v>3126.76</v>
       </c>
     </row>
   </sheetData>
@@ -14900,7 +15476,7 @@
           <x14:formula1>
             <xm:f>OFFSET(Categories!$A$2,0,0,COUNTIF(Categories!$A$2:$A$99,"&lt;&gt;"))</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D781</xm:sqref>
+          <xm:sqref>D2:D812</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Expenses.xlsx
+++ b/Expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffgood/Desktop/R_Studio_Projects/Financial_Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA43A75-CD90-CF44-9C68-7DA76E7CE695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868A3E80-B1A7-424A-BC13-B2CEEF097CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="980" windowWidth="15420" windowHeight="15800" xr2:uid="{D9F47917-7B20-384C-878F-0D08681ABD47}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2461" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2527" uniqueCount="368">
   <si>
     <t>Date</t>
   </si>
@@ -1135,6 +1135,15 @@
   </si>
   <si>
     <t>Auntie Anne's</t>
+  </si>
+  <si>
+    <t>IHERB IHERB.COM wtyEN</t>
+  </si>
+  <si>
+    <t>TRINDLE BOWL</t>
+  </si>
+  <si>
+    <t>ALDI 71146</t>
   </si>
 </sst>
 </file>
@@ -1213,12 +1222,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1295,10 +1304,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}" name="Table1" displayName="Table1" ref="A1:E812" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E812" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E812">
-    <sortCondition ref="A1:A812"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}" name="Table1" displayName="Table1" ref="A1:E834" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E834" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E834">
+    <sortCondition ref="A1:A834"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{36D6B367-4586-164A-BAFD-F61BD8D7B0D8}" name="Date" dataDxfId="4"/>
@@ -1608,10 +1617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BEBEFE-BF8C-CE41-8907-E9633ACA1DDB}">
-  <dimension ref="A1:E812"/>
+  <dimension ref="A1:E834"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D813" sqref="D813"/>
+      <selection activeCell="D835" sqref="D835"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14903,7 +14912,7 @@
       </c>
     </row>
     <row r="780" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A780" s="3">
+      <c r="A780" s="2">
         <v>44977</v>
       </c>
       <c r="B780" t="s">
@@ -14912,7 +14921,7 @@
       <c r="C780" t="s">
         <v>161</v>
       </c>
-      <c r="D780" s="4" t="s">
+      <c r="D780" t="s">
         <v>264</v>
       </c>
       <c r="E780">
@@ -14920,7 +14929,7 @@
       </c>
     </row>
     <row r="781" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A781" s="3">
+      <c r="A781" s="2">
         <v>44977</v>
       </c>
       <c r="B781" t="s">
@@ -14929,7 +14938,7 @@
       <c r="C781" t="s">
         <v>254</v>
       </c>
-      <c r="D781" s="4" t="s">
+      <c r="D781" t="s">
         <v>264</v>
       </c>
       <c r="E781">
@@ -14988,7 +14997,7 @@
       </c>
     </row>
     <row r="785" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A785" s="3">
+      <c r="A785" s="2">
         <v>44978</v>
       </c>
       <c r="B785" t="s">
@@ -14997,7 +15006,7 @@
       <c r="C785" t="s">
         <v>364</v>
       </c>
-      <c r="D785" s="4" t="s">
+      <c r="D785" t="s">
         <v>268</v>
       </c>
       <c r="E785">
@@ -15005,7 +15014,7 @@
       </c>
     </row>
     <row r="786" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A786" s="3">
+      <c r="A786" s="2">
         <v>44978</v>
       </c>
       <c r="B786" t="s">
@@ -15014,7 +15023,7 @@
       <c r="C786" t="s">
         <v>53</v>
       </c>
-      <c r="D786" s="4" t="s">
+      <c r="D786" t="s">
         <v>54</v>
       </c>
       <c r="E786">
@@ -15022,7 +15031,7 @@
       </c>
     </row>
     <row r="787" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A787" s="3">
+      <c r="A787" s="2">
         <v>44978</v>
       </c>
       <c r="B787" t="s">
@@ -15031,7 +15040,7 @@
       <c r="C787" t="s">
         <v>282</v>
       </c>
-      <c r="D787" s="4" t="s">
+      <c r="D787" t="s">
         <v>266</v>
       </c>
       <c r="E787">
@@ -15056,7 +15065,7 @@
       </c>
     </row>
     <row r="789" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A789" s="3">
+      <c r="A789" s="2">
         <v>44979</v>
       </c>
       <c r="B789" t="s">
@@ -15065,7 +15074,7 @@
       <c r="C789" t="s">
         <v>351</v>
       </c>
-      <c r="D789" s="4" t="s">
+      <c r="D789" t="s">
         <v>310</v>
       </c>
       <c r="E789">
@@ -15073,7 +15082,7 @@
       </c>
     </row>
     <row r="790" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A790" s="3">
+      <c r="A790" s="2">
         <v>44980</v>
       </c>
       <c r="B790" t="s">
@@ -15082,7 +15091,7 @@
       <c r="C790" t="s">
         <v>160</v>
       </c>
-      <c r="D790" s="4" t="s">
+      <c r="D790" t="s">
         <v>263</v>
       </c>
       <c r="E790">
@@ -15090,7 +15099,7 @@
       </c>
     </row>
     <row r="791" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A791" s="3">
+      <c r="A791" s="2">
         <v>44980</v>
       </c>
       <c r="B791" t="s">
@@ -15099,7 +15108,7 @@
       <c r="C791" t="s">
         <v>161</v>
       </c>
-      <c r="D791" s="4" t="s">
+      <c r="D791" t="s">
         <v>264</v>
       </c>
       <c r="E791">
@@ -15107,7 +15116,7 @@
       </c>
     </row>
     <row r="792" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A792" s="3">
+      <c r="A792" s="2">
         <v>44980</v>
       </c>
       <c r="B792" t="s">
@@ -15116,7 +15125,7 @@
       <c r="C792" t="s">
         <v>363</v>
       </c>
-      <c r="D792" s="4" t="s">
+      <c r="D792" t="s">
         <v>268</v>
       </c>
       <c r="E792">
@@ -15124,16 +15133,16 @@
       </c>
     </row>
     <row r="793" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A793" s="7">
+      <c r="A793" s="5">
         <v>44981</v>
       </c>
-      <c r="B793" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C793" s="5" t="s">
+      <c r="B793" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C793" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D793" s="4" t="s">
+      <c r="D793" t="s">
         <v>263</v>
       </c>
       <c r="E793">
@@ -15141,16 +15150,16 @@
       </c>
     </row>
     <row r="794" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A794" s="7">
+      <c r="A794" s="5">
         <v>44981</v>
       </c>
-      <c r="B794" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C794" s="5" t="s">
+      <c r="B794" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C794" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="D794" s="4" t="s">
+      <c r="D794" t="s">
         <v>310</v>
       </c>
       <c r="E794">
@@ -15158,7 +15167,7 @@
       </c>
     </row>
     <row r="795" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A795" s="3">
+      <c r="A795" s="2">
         <v>44981</v>
       </c>
       <c r="B795" t="s">
@@ -15167,7 +15176,7 @@
       <c r="C795" t="s">
         <v>206</v>
       </c>
-      <c r="D795" s="4" t="s">
+      <c r="D795" t="s">
         <v>266</v>
       </c>
       <c r="E795">
@@ -15175,7 +15184,7 @@
       </c>
     </row>
     <row r="796" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A796" s="3">
+      <c r="A796" s="2">
         <v>44981</v>
       </c>
       <c r="B796" t="s">
@@ -15184,7 +15193,7 @@
       <c r="C796" t="s">
         <v>227</v>
       </c>
-      <c r="D796" s="4" t="s">
+      <c r="D796" t="s">
         <v>265</v>
       </c>
       <c r="E796">
@@ -15192,7 +15201,7 @@
       </c>
     </row>
     <row r="797" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A797" s="3">
+      <c r="A797" s="2">
         <v>44982</v>
       </c>
       <c r="B797" t="s">
@@ -15201,7 +15210,7 @@
       <c r="C797" t="s">
         <v>152</v>
       </c>
-      <c r="D797" s="4" t="s">
+      <c r="D797" t="s">
         <v>12</v>
       </c>
       <c r="E797">
@@ -15209,41 +15218,41 @@
       </c>
     </row>
     <row r="798" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A798" s="6">
+      <c r="A798" s="4">
         <v>44982</v>
       </c>
-      <c r="B798" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C798" s="8" t="s">
+      <c r="B798" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C798" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D798" s="4" t="s">
+      <c r="D798" t="s">
         <v>264</v>
       </c>
-      <c r="E798" s="4">
+      <c r="E798">
         <v>-20</v>
       </c>
     </row>
     <row r="799" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A799" s="6">
+      <c r="A799" s="4">
         <v>44982</v>
       </c>
-      <c r="B799" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C799" s="8" t="s">
+      <c r="B799" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C799" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D799" s="4" t="s">
+      <c r="D799" t="s">
         <v>265</v>
       </c>
-      <c r="E799" s="4">
+      <c r="E799">
         <v>-16.5</v>
       </c>
     </row>
     <row r="800" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A800" s="3">
+      <c r="A800" s="2">
         <v>44982</v>
       </c>
       <c r="B800" t="s">
@@ -15252,7 +15261,7 @@
       <c r="C800" t="s">
         <v>156</v>
       </c>
-      <c r="D800" s="4" t="s">
+      <c r="D800" t="s">
         <v>266</v>
       </c>
       <c r="E800">
@@ -15260,7 +15269,7 @@
       </c>
     </row>
     <row r="801" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A801" s="3">
+      <c r="A801" s="2">
         <v>44982</v>
       </c>
       <c r="B801" t="s">
@@ -15269,7 +15278,7 @@
       <c r="C801" t="s">
         <v>156</v>
       </c>
-      <c r="D801" s="4" t="s">
+      <c r="D801" t="s">
         <v>266</v>
       </c>
       <c r="E801">
@@ -15277,7 +15286,7 @@
       </c>
     </row>
     <row r="802" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A802" s="3">
+      <c r="A802" s="2">
         <v>44982</v>
       </c>
       <c r="B802" t="s">
@@ -15286,7 +15295,7 @@
       <c r="C802" t="s">
         <v>157</v>
       </c>
-      <c r="D802" s="4" t="s">
+      <c r="D802" t="s">
         <v>268</v>
       </c>
       <c r="E802">
@@ -15294,7 +15303,7 @@
       </c>
     </row>
     <row r="803" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A803" s="3">
+      <c r="A803" s="2">
         <v>44982</v>
       </c>
       <c r="B803" t="s">
@@ -15303,7 +15312,7 @@
       <c r="C803" t="s">
         <v>362</v>
       </c>
-      <c r="D803" s="4" t="s">
+      <c r="D803" t="s">
         <v>268</v>
       </c>
       <c r="E803">
@@ -15311,7 +15320,7 @@
       </c>
     </row>
     <row r="804" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A804" s="3">
+      <c r="A804" s="2">
         <v>44982</v>
       </c>
       <c r="B804" t="s">
@@ -15320,7 +15329,7 @@
       <c r="C804" t="s">
         <v>357</v>
       </c>
-      <c r="D804" s="4" t="s">
+      <c r="D804" t="s">
         <v>264</v>
       </c>
       <c r="E804">
@@ -15328,7 +15337,7 @@
       </c>
     </row>
     <row r="805" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A805" s="3">
+      <c r="A805" s="2">
         <v>44983</v>
       </c>
       <c r="B805" t="s">
@@ -15337,7 +15346,7 @@
       <c r="C805" t="s">
         <v>156</v>
       </c>
-      <c r="D805" s="4" t="s">
+      <c r="D805" t="s">
         <v>266</v>
       </c>
       <c r="E805">
@@ -15396,7 +15405,7 @@
       </c>
     </row>
     <row r="809" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A809" s="3">
+      <c r="A809" s="2">
         <v>44984</v>
       </c>
       <c r="B809" t="s">
@@ -15405,7 +15414,7 @@
       <c r="C809" t="s">
         <v>343</v>
       </c>
-      <c r="D809" s="4" t="s">
+      <c r="D809" t="s">
         <v>310</v>
       </c>
       <c r="E809">
@@ -15447,7 +15456,7 @@
       </c>
     </row>
     <row r="812" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A812" s="3">
+      <c r="A812" s="2">
         <v>44985</v>
       </c>
       <c r="B812" t="s">
@@ -15456,11 +15465,385 @@
       <c r="C812" t="s">
         <v>43</v>
       </c>
-      <c r="D812" s="4" t="s">
+      <c r="D812" t="s">
         <v>91</v>
       </c>
       <c r="E812">
         <v>3126.76</v>
+      </c>
+    </row>
+    <row r="813" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A813" s="7">
+        <v>44985</v>
+      </c>
+      <c r="B813" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C813" t="s">
+        <v>169</v>
+      </c>
+      <c r="D813" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E813">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="814" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A814" s="7">
+        <v>44985</v>
+      </c>
+      <c r="B814" t="s">
+        <v>21</v>
+      </c>
+      <c r="C814" t="s">
+        <v>200</v>
+      </c>
+      <c r="D814" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="E814">
+        <v>-16.11</v>
+      </c>
+    </row>
+    <row r="815" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A815" s="7">
+        <v>44985</v>
+      </c>
+      <c r="B815" t="s">
+        <v>21</v>
+      </c>
+      <c r="C815" t="s">
+        <v>229</v>
+      </c>
+      <c r="D815" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E815">
+        <v>-9.56</v>
+      </c>
+    </row>
+    <row r="816" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A816" s="7">
+        <v>44985</v>
+      </c>
+      <c r="B816" t="s">
+        <v>21</v>
+      </c>
+      <c r="C816" t="s">
+        <v>157</v>
+      </c>
+      <c r="D816" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E816">
+        <v>-19.8</v>
+      </c>
+    </row>
+    <row r="817" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A817" s="7">
+        <v>44985</v>
+      </c>
+      <c r="B817" t="s">
+        <v>21</v>
+      </c>
+      <c r="C817" t="s">
+        <v>51</v>
+      </c>
+      <c r="D817" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E817">
+        <v>-11.55</v>
+      </c>
+    </row>
+    <row r="818" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A818" s="7">
+        <v>44985</v>
+      </c>
+      <c r="B818" t="s">
+        <v>21</v>
+      </c>
+      <c r="C818" t="s">
+        <v>53</v>
+      </c>
+      <c r="D818" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E818">
+        <v>-105</v>
+      </c>
+    </row>
+    <row r="819" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A819" s="7">
+        <v>44985</v>
+      </c>
+      <c r="B819" t="s">
+        <v>21</v>
+      </c>
+      <c r="C819" t="s">
+        <v>156</v>
+      </c>
+      <c r="D819" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="E819">
+        <v>13.13</v>
+      </c>
+    </row>
+    <row r="820" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A820" s="7">
+        <v>44986</v>
+      </c>
+      <c r="B820" t="s">
+        <v>7</v>
+      </c>
+      <c r="C820" t="s">
+        <v>147</v>
+      </c>
+      <c r="D820" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E820">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="821" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A821" s="7">
+        <v>44986</v>
+      </c>
+      <c r="B821" t="s">
+        <v>7</v>
+      </c>
+      <c r="C821" t="s">
+        <v>147</v>
+      </c>
+      <c r="D821" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E821">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="822" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A822" s="7">
+        <v>44986</v>
+      </c>
+      <c r="B822" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C822" t="s">
+        <v>147</v>
+      </c>
+      <c r="D822" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E822">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="823" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A823" s="7">
+        <v>44986</v>
+      </c>
+      <c r="B823" t="s">
+        <v>21</v>
+      </c>
+      <c r="C823" t="s">
+        <v>149</v>
+      </c>
+      <c r="D823" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E823">
+        <v>-9.99</v>
+      </c>
+    </row>
+    <row r="824" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A824" s="7">
+        <v>44986</v>
+      </c>
+      <c r="B824" t="s">
+        <v>21</v>
+      </c>
+      <c r="C824" t="s">
+        <v>351</v>
+      </c>
+      <c r="D824" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="E824">
+        <v>-52.99</v>
+      </c>
+    </row>
+    <row r="825" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A825" s="7">
+        <v>44987</v>
+      </c>
+      <c r="B825" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C825" t="s">
+        <v>166</v>
+      </c>
+      <c r="D825" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E825">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="826" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A826" s="7">
+        <v>44987</v>
+      </c>
+      <c r="B826" t="s">
+        <v>21</v>
+      </c>
+      <c r="C826" t="s">
+        <v>367</v>
+      </c>
+      <c r="D826" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E826">
+        <v>-123.62</v>
+      </c>
+    </row>
+    <row r="827" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A827" s="7">
+        <v>44987</v>
+      </c>
+      <c r="B827" t="s">
+        <v>21</v>
+      </c>
+      <c r="C827" t="s">
+        <v>181</v>
+      </c>
+      <c r="D827" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="E827">
+        <v>-23.1</v>
+      </c>
+    </row>
+    <row r="828" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A828" s="7">
+        <v>44987</v>
+      </c>
+      <c r="B828" t="s">
+        <v>21</v>
+      </c>
+      <c r="C828" t="s">
+        <v>51</v>
+      </c>
+      <c r="D828" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E828">
+        <v>-78.319999999999993</v>
+      </c>
+    </row>
+    <row r="829" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A829" s="7">
+        <v>44988</v>
+      </c>
+      <c r="B829" t="s">
+        <v>7</v>
+      </c>
+      <c r="C829" t="s">
+        <v>203</v>
+      </c>
+      <c r="D829" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E829">
+        <v>-120.3</v>
+      </c>
+    </row>
+    <row r="830" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A830" s="7">
+        <v>44989</v>
+      </c>
+      <c r="B830" t="s">
+        <v>21</v>
+      </c>
+      <c r="C830" t="s">
+        <v>28</v>
+      </c>
+      <c r="D830" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E830">
+        <v>-30.71</v>
+      </c>
+    </row>
+    <row r="831" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A831" s="7">
+        <v>44989</v>
+      </c>
+      <c r="B831" t="s">
+        <v>21</v>
+      </c>
+      <c r="C831" t="s">
+        <v>366</v>
+      </c>
+      <c r="D831" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="E831">
+        <v>-15.75</v>
+      </c>
+    </row>
+    <row r="832" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A832" s="7">
+        <v>44989</v>
+      </c>
+      <c r="B832" t="s">
+        <v>21</v>
+      </c>
+      <c r="C832" t="s">
+        <v>366</v>
+      </c>
+      <c r="D832" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="E832">
+        <v>-26.25</v>
+      </c>
+    </row>
+    <row r="833" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A833" s="7">
+        <v>44989</v>
+      </c>
+      <c r="B833" t="s">
+        <v>21</v>
+      </c>
+      <c r="C833" t="s">
+        <v>366</v>
+      </c>
+      <c r="D833" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E833">
+        <v>-9.75</v>
+      </c>
+    </row>
+    <row r="834" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A834" s="7">
+        <v>44990</v>
+      </c>
+      <c r="B834" t="s">
+        <v>21</v>
+      </c>
+      <c r="C834" t="s">
+        <v>365</v>
+      </c>
+      <c r="D834" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="E834">
+        <v>-55.54</v>
       </c>
     </row>
   </sheetData>
@@ -15476,7 +15859,7 @@
           <x14:formula1>
             <xm:f>OFFSET(Categories!$A$2,0,0,COUNTIF(Categories!$A$2:$A$99,"&lt;&gt;"))</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D812</xm:sqref>
+          <xm:sqref>D2:D834</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Expenses.xlsx
+++ b/Expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffgood/Desktop/R_Studio_Projects/Financial_Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868A3E80-B1A7-424A-BC13-B2CEEF097CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79AF698-D301-2940-82F5-DA94C3F316F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="980" windowWidth="15420" windowHeight="15800" xr2:uid="{D9F47917-7B20-384C-878F-0D08681ABD47}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2527" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2619" uniqueCount="378">
   <si>
     <t>Date</t>
   </si>
@@ -1144,6 +1144,36 @@
   </si>
   <si>
     <t>ALDI 71146</t>
+  </si>
+  <si>
+    <t>Sky Zone Harrisburg      MechanicsburgPA</t>
+  </si>
+  <si>
+    <t>CHIPOTLE 1813            CAMP HILL    PA</t>
+  </si>
+  <si>
+    <t>CAPITAL AUTO GLASS       ENOLA        PA</t>
+  </si>
+  <si>
+    <t>PANERA BREAD #601155 K   MECHANICSBURGPA</t>
+  </si>
+  <si>
+    <t>SHAKE SHACK - 1126A      646-747-7178 VA</t>
+  </si>
+  <si>
+    <t>CHICK-FIL-A #03884       ROCKVILLE    MD</t>
+  </si>
+  <si>
+    <t>MECHANICSBURG VETERINARY MECHANISCSBURPA</t>
+  </si>
+  <si>
+    <t>SQ *SHAKE SHACK          Tysons       VA</t>
+  </si>
+  <si>
+    <t>PANDA EXPRESS #190       MCLEAN       VA</t>
+  </si>
+  <si>
+    <t>HARRIS TEETER #0302      MCLEAN       VA</t>
   </si>
 </sst>
 </file>
@@ -1304,10 +1334,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}" name="Table1" displayName="Table1" ref="A1:E834" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E834" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E834">
-    <sortCondition ref="A1:A834"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}" name="Table1" displayName="Table1" ref="A1:E865" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E865" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E865">
+    <sortCondition ref="A1:A865"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{36D6B367-4586-164A-BAFD-F61BD8D7B0D8}" name="Date" dataDxfId="4"/>
@@ -1617,10 +1647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BEBEFE-BF8C-CE41-8907-E9633ACA1DDB}">
-  <dimension ref="A1:E834"/>
+  <dimension ref="A1:E865"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D835" sqref="D835"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15473,16 +15503,16 @@
       </c>
     </row>
     <row r="813" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A813" s="7">
+      <c r="A813" s="2">
         <v>44985</v>
       </c>
-      <c r="B813" s="8" t="s">
+      <c r="B813" t="s">
         <v>16</v>
       </c>
       <c r="C813" t="s">
         <v>169</v>
       </c>
-      <c r="D813" s="8" t="s">
+      <c r="D813" t="s">
         <v>14</v>
       </c>
       <c r="E813">
@@ -15490,7 +15520,7 @@
       </c>
     </row>
     <row r="814" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A814" s="7">
+      <c r="A814" s="2">
         <v>44985</v>
       </c>
       <c r="B814" t="s">
@@ -15499,7 +15529,7 @@
       <c r="C814" t="s">
         <v>200</v>
       </c>
-      <c r="D814" s="8" t="s">
+      <c r="D814" t="s">
         <v>263</v>
       </c>
       <c r="E814">
@@ -15507,7 +15537,7 @@
       </c>
     </row>
     <row r="815" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A815" s="7">
+      <c r="A815" s="2">
         <v>44985</v>
       </c>
       <c r="B815" t="s">
@@ -15516,7 +15546,7 @@
       <c r="C815" t="s">
         <v>229</v>
       </c>
-      <c r="D815" s="8" t="s">
+      <c r="D815" t="s">
         <v>268</v>
       </c>
       <c r="E815">
@@ -15524,7 +15554,7 @@
       </c>
     </row>
     <row r="816" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A816" s="7">
+      <c r="A816" s="2">
         <v>44985</v>
       </c>
       <c r="B816" t="s">
@@ -15533,7 +15563,7 @@
       <c r="C816" t="s">
         <v>157</v>
       </c>
-      <c r="D816" s="8" t="s">
+      <c r="D816" t="s">
         <v>268</v>
       </c>
       <c r="E816">
@@ -15541,7 +15571,7 @@
       </c>
     </row>
     <row r="817" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A817" s="7">
+      <c r="A817" s="2">
         <v>44985</v>
       </c>
       <c r="B817" t="s">
@@ -15550,7 +15580,7 @@
       <c r="C817" t="s">
         <v>51</v>
       </c>
-      <c r="D817" s="8" t="s">
+      <c r="D817" t="s">
         <v>268</v>
       </c>
       <c r="E817">
@@ -15558,7 +15588,7 @@
       </c>
     </row>
     <row r="818" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A818" s="7">
+      <c r="A818" s="2">
         <v>44985</v>
       </c>
       <c r="B818" t="s">
@@ -15567,7 +15597,7 @@
       <c r="C818" t="s">
         <v>53</v>
       </c>
-      <c r="D818" s="8" t="s">
+      <c r="D818" t="s">
         <v>54</v>
       </c>
       <c r="E818">
@@ -15575,7 +15605,7 @@
       </c>
     </row>
     <row r="819" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A819" s="7">
+      <c r="A819" s="2">
         <v>44985</v>
       </c>
       <c r="B819" t="s">
@@ -15584,7 +15614,7 @@
       <c r="C819" t="s">
         <v>156</v>
       </c>
-      <c r="D819" s="8" t="s">
+      <c r="D819" t="s">
         <v>266</v>
       </c>
       <c r="E819">
@@ -15592,7 +15622,7 @@
       </c>
     </row>
     <row r="820" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A820" s="7">
+      <c r="A820" s="2">
         <v>44986</v>
       </c>
       <c r="B820" t="s">
@@ -15601,7 +15631,7 @@
       <c r="C820" t="s">
         <v>147</v>
       </c>
-      <c r="D820" s="8" t="s">
+      <c r="D820" t="s">
         <v>9</v>
       </c>
       <c r="E820">
@@ -15609,7 +15639,7 @@
       </c>
     </row>
     <row r="821" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A821" s="7">
+      <c r="A821" s="2">
         <v>44986</v>
       </c>
       <c r="B821" t="s">
@@ -15618,7 +15648,7 @@
       <c r="C821" t="s">
         <v>147</v>
       </c>
-      <c r="D821" s="8" t="s">
+      <c r="D821" t="s">
         <v>8</v>
       </c>
       <c r="E821">
@@ -15626,16 +15656,16 @@
       </c>
     </row>
     <row r="822" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A822" s="7">
+      <c r="A822" s="2">
         <v>44986</v>
       </c>
-      <c r="B822" s="8" t="s">
+      <c r="B822" t="s">
         <v>16</v>
       </c>
       <c r="C822" t="s">
         <v>147</v>
       </c>
-      <c r="D822" s="8" t="s">
+      <c r="D822" t="s">
         <v>9</v>
       </c>
       <c r="E822">
@@ -15643,7 +15673,7 @@
       </c>
     </row>
     <row r="823" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A823" s="7">
+      <c r="A823" s="2">
         <v>44986</v>
       </c>
       <c r="B823" t="s">
@@ -15652,7 +15682,7 @@
       <c r="C823" t="s">
         <v>149</v>
       </c>
-      <c r="D823" s="8" t="s">
+      <c r="D823" t="s">
         <v>265</v>
       </c>
       <c r="E823">
@@ -15660,7 +15690,7 @@
       </c>
     </row>
     <row r="824" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A824" s="7">
+      <c r="A824" s="2">
         <v>44986</v>
       </c>
       <c r="B824" t="s">
@@ -15669,7 +15699,7 @@
       <c r="C824" t="s">
         <v>351</v>
       </c>
-      <c r="D824" s="8" t="s">
+      <c r="D824" t="s">
         <v>310</v>
       </c>
       <c r="E824">
@@ -15677,16 +15707,16 @@
       </c>
     </row>
     <row r="825" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A825" s="7">
+      <c r="A825" s="2">
         <v>44987</v>
       </c>
-      <c r="B825" s="8" t="s">
+      <c r="B825" t="s">
         <v>16</v>
       </c>
       <c r="C825" t="s">
         <v>166</v>
       </c>
-      <c r="D825" s="8" t="s">
+      <c r="D825" t="s">
         <v>269</v>
       </c>
       <c r="E825">
@@ -15694,7 +15724,7 @@
       </c>
     </row>
     <row r="826" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A826" s="7">
+      <c r="A826" s="2">
         <v>44987</v>
       </c>
       <c r="B826" t="s">
@@ -15703,7 +15733,7 @@
       <c r="C826" t="s">
         <v>367</v>
       </c>
-      <c r="D826" s="8" t="s">
+      <c r="D826" t="s">
         <v>12</v>
       </c>
       <c r="E826">
@@ -15711,7 +15741,7 @@
       </c>
     </row>
     <row r="827" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A827" s="7">
+      <c r="A827" s="2">
         <v>44987</v>
       </c>
       <c r="B827" t="s">
@@ -15720,7 +15750,7 @@
       <c r="C827" t="s">
         <v>181</v>
       </c>
-      <c r="D827" s="8" t="s">
+      <c r="D827" t="s">
         <v>266</v>
       </c>
       <c r="E827">
@@ -15728,7 +15758,7 @@
       </c>
     </row>
     <row r="828" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A828" s="7">
+      <c r="A828" s="2">
         <v>44987</v>
       </c>
       <c r="B828" t="s">
@@ -15737,7 +15767,7 @@
       <c r="C828" t="s">
         <v>51</v>
       </c>
-      <c r="D828" s="8" t="s">
+      <c r="D828" t="s">
         <v>12</v>
       </c>
       <c r="E828">
@@ -15745,7 +15775,7 @@
       </c>
     </row>
     <row r="829" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A829" s="7">
+      <c r="A829" s="2">
         <v>44988</v>
       </c>
       <c r="B829" t="s">
@@ -15754,7 +15784,7 @@
       <c r="C829" t="s">
         <v>203</v>
       </c>
-      <c r="D829" s="8" t="s">
+      <c r="D829" t="s">
         <v>10</v>
       </c>
       <c r="E829">
@@ -15762,7 +15792,7 @@
       </c>
     </row>
     <row r="830" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A830" s="7">
+      <c r="A830" s="2">
         <v>44989</v>
       </c>
       <c r="B830" t="s">
@@ -15771,7 +15801,7 @@
       <c r="C830" t="s">
         <v>28</v>
       </c>
-      <c r="D830" s="8" t="s">
+      <c r="D830" t="s">
         <v>268</v>
       </c>
       <c r="E830">
@@ -15779,7 +15809,7 @@
       </c>
     </row>
     <row r="831" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A831" s="7">
+      <c r="A831" s="2">
         <v>44989</v>
       </c>
       <c r="B831" t="s">
@@ -15788,7 +15818,7 @@
       <c r="C831" t="s">
         <v>366</v>
       </c>
-      <c r="D831" s="8" t="s">
+      <c r="D831" t="s">
         <v>263</v>
       </c>
       <c r="E831">
@@ -15796,7 +15826,7 @@
       </c>
     </row>
     <row r="832" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A832" s="7">
+      <c r="A832" s="2">
         <v>44989</v>
       </c>
       <c r="B832" t="s">
@@ -15805,7 +15835,7 @@
       <c r="C832" t="s">
         <v>366</v>
       </c>
-      <c r="D832" s="8" t="s">
+      <c r="D832" t="s">
         <v>263</v>
       </c>
       <c r="E832">
@@ -15813,7 +15843,7 @@
       </c>
     </row>
     <row r="833" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A833" s="7">
+      <c r="A833" s="2">
         <v>44989</v>
       </c>
       <c r="B833" t="s">
@@ -15822,7 +15852,7 @@
       <c r="C833" t="s">
         <v>366</v>
       </c>
-      <c r="D833" s="8" t="s">
+      <c r="D833" t="s">
         <v>268</v>
       </c>
       <c r="E833">
@@ -15831,19 +15861,544 @@
     </row>
     <row r="834" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A834" s="7">
+        <v>44989</v>
+      </c>
+      <c r="B834" t="s">
+        <v>21</v>
+      </c>
+      <c r="C834" t="s">
+        <v>101</v>
+      </c>
+      <c r="D834" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E834">
+        <v>-32.42</v>
+      </c>
+    </row>
+    <row r="835" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A835" s="2">
         <v>44990</v>
       </c>
-      <c r="B834" t="s">
-        <v>21</v>
-      </c>
-      <c r="C834" t="s">
+      <c r="B835" t="s">
+        <v>21</v>
+      </c>
+      <c r="C835" t="s">
         <v>365</v>
       </c>
-      <c r="D834" s="8" t="s">
+      <c r="D835" t="s">
         <v>266</v>
       </c>
-      <c r="E834">
+      <c r="E835">
         <v>-55.54</v>
+      </c>
+    </row>
+    <row r="836" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A836" s="7">
+        <v>44990</v>
+      </c>
+      <c r="B836" t="s">
+        <v>21</v>
+      </c>
+      <c r="C836" t="s">
+        <v>375</v>
+      </c>
+      <c r="D836" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E836">
+        <v>-17.46</v>
+      </c>
+    </row>
+    <row r="837" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A837" s="7">
+        <v>44990</v>
+      </c>
+      <c r="B837" t="s">
+        <v>21</v>
+      </c>
+      <c r="C837" t="s">
+        <v>377</v>
+      </c>
+      <c r="D837" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E837">
+        <v>-64.790000000000006</v>
+      </c>
+    </row>
+    <row r="838" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A838" s="7">
+        <v>44991</v>
+      </c>
+      <c r="B838" t="s">
+        <v>21</v>
+      </c>
+      <c r="C838" t="s">
+        <v>356</v>
+      </c>
+      <c r="D838" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E838">
+        <v>-18.93</v>
+      </c>
+    </row>
+    <row r="839" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A839" s="7">
+        <v>44991</v>
+      </c>
+      <c r="B839" t="s">
+        <v>21</v>
+      </c>
+      <c r="C839" t="s">
+        <v>376</v>
+      </c>
+      <c r="D839" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E839">
+        <v>-10.28</v>
+      </c>
+    </row>
+    <row r="840" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A840" s="7">
+        <v>44991</v>
+      </c>
+      <c r="B840" t="s">
+        <v>21</v>
+      </c>
+      <c r="C840" t="s">
+        <v>76</v>
+      </c>
+      <c r="D840" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E840">
+        <v>-5.89</v>
+      </c>
+    </row>
+    <row r="841" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A841" s="7">
+        <v>44991</v>
+      </c>
+      <c r="B841" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C841" t="s">
+        <v>147</v>
+      </c>
+      <c r="D841" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E841">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="842" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A842" s="7">
+        <v>44991</v>
+      </c>
+      <c r="B842" t="s">
+        <v>7</v>
+      </c>
+      <c r="C842" t="s">
+        <v>147</v>
+      </c>
+      <c r="D842" s="8"/>
+      <c r="E842">
+        <v>-2500</v>
+      </c>
+    </row>
+    <row r="843" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A843" s="7">
+        <v>44992</v>
+      </c>
+      <c r="B843" t="s">
+        <v>21</v>
+      </c>
+      <c r="C843" t="s">
+        <v>375</v>
+      </c>
+      <c r="D843" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E843">
+        <v>-18.62</v>
+      </c>
+    </row>
+    <row r="844" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A844" s="7">
+        <v>44992</v>
+      </c>
+      <c r="B844" t="s">
+        <v>21</v>
+      </c>
+      <c r="C844" t="s">
+        <v>81</v>
+      </c>
+      <c r="D844" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E844">
+        <v>-105</v>
+      </c>
+    </row>
+    <row r="845" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A845" s="7">
+        <v>44993</v>
+      </c>
+      <c r="B845" t="s">
+        <v>21</v>
+      </c>
+      <c r="C845" t="s">
+        <v>372</v>
+      </c>
+      <c r="D845" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E845">
+        <v>-6.14</v>
+      </c>
+    </row>
+    <row r="846" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A846" s="7">
+        <v>44993</v>
+      </c>
+      <c r="B846" t="s">
+        <v>21</v>
+      </c>
+      <c r="C846" t="s">
+        <v>373</v>
+      </c>
+      <c r="D846" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E846">
+        <v>-20.34</v>
+      </c>
+    </row>
+    <row r="847" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A847" s="7">
+        <v>44993</v>
+      </c>
+      <c r="B847" t="s">
+        <v>21</v>
+      </c>
+      <c r="C847" t="s">
+        <v>374</v>
+      </c>
+      <c r="D847" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="E847">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="848" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A848" s="7">
+        <v>44993</v>
+      </c>
+      <c r="B848" t="s">
+        <v>21</v>
+      </c>
+      <c r="C848" t="s">
+        <v>113</v>
+      </c>
+      <c r="D848" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E848">
+        <v>-14.59</v>
+      </c>
+    </row>
+    <row r="849" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A849" s="7">
+        <v>44994</v>
+      </c>
+      <c r="B849" t="s">
+        <v>21</v>
+      </c>
+      <c r="C849" t="s">
+        <v>370</v>
+      </c>
+      <c r="D849" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E849">
+        <v>-111.3</v>
+      </c>
+    </row>
+    <row r="850" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A850" s="7">
+        <v>44994</v>
+      </c>
+      <c r="B850" t="s">
+        <v>21</v>
+      </c>
+      <c r="C850" t="s">
+        <v>371</v>
+      </c>
+      <c r="D850" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E850">
+        <v>-25.72</v>
+      </c>
+    </row>
+    <row r="851" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A851" s="7">
+        <v>44994</v>
+      </c>
+      <c r="B851" t="s">
+        <v>21</v>
+      </c>
+      <c r="C851" t="s">
+        <v>84</v>
+      </c>
+      <c r="D851" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E851">
+        <v>-2.99</v>
+      </c>
+    </row>
+    <row r="852" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A852" s="7">
+        <v>44994</v>
+      </c>
+      <c r="B852" t="s">
+        <v>21</v>
+      </c>
+      <c r="C852" t="s">
+        <v>101</v>
+      </c>
+      <c r="D852" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E852">
+        <v>-58.71</v>
+      </c>
+    </row>
+    <row r="853" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A853" s="7">
+        <v>44995</v>
+      </c>
+      <c r="B853" t="s">
+        <v>21</v>
+      </c>
+      <c r="C853" t="s">
+        <v>87</v>
+      </c>
+      <c r="D853" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E853">
+        <v>-46.3</v>
+      </c>
+    </row>
+    <row r="854" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A854" s="7">
+        <v>44995</v>
+      </c>
+      <c r="B854" t="s">
+        <v>21</v>
+      </c>
+      <c r="C854" t="s">
+        <v>369</v>
+      </c>
+      <c r="D854" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E854">
+        <v>-26.88</v>
+      </c>
+    </row>
+    <row r="855" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A855" s="7">
+        <v>44995</v>
+      </c>
+      <c r="B855" t="s">
+        <v>21</v>
+      </c>
+      <c r="C855" t="s">
+        <v>76</v>
+      </c>
+      <c r="D855" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E855">
+        <v>-23.75</v>
+      </c>
+    </row>
+    <row r="856" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A856" s="7">
+        <v>44995</v>
+      </c>
+      <c r="B856" t="s">
+        <v>21</v>
+      </c>
+      <c r="C856" t="s">
+        <v>76</v>
+      </c>
+      <c r="D856" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E856">
+        <v>-15.42</v>
+      </c>
+    </row>
+    <row r="857" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A857" s="7">
+        <v>44995</v>
+      </c>
+      <c r="B857" t="s">
+        <v>21</v>
+      </c>
+      <c r="C857" t="s">
+        <v>101</v>
+      </c>
+      <c r="D857" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E857">
+        <v>-54.36</v>
+      </c>
+    </row>
+    <row r="858" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A858" s="7">
+        <v>44995</v>
+      </c>
+      <c r="B858" t="s">
+        <v>7</v>
+      </c>
+      <c r="C858" t="s">
+        <v>171</v>
+      </c>
+      <c r="D858" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E858" s="8">
+        <v>-40.42</v>
+      </c>
+    </row>
+    <row r="859" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A859" s="7">
+        <v>44995</v>
+      </c>
+      <c r="B859" t="s">
+        <v>7</v>
+      </c>
+      <c r="C859" t="s">
+        <v>171</v>
+      </c>
+      <c r="D859" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="E859">
+        <v>-12.98</v>
+      </c>
+    </row>
+    <row r="860" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A860" s="7">
+        <v>44995</v>
+      </c>
+      <c r="B860" t="s">
+        <v>7</v>
+      </c>
+      <c r="C860" t="s">
+        <v>171</v>
+      </c>
+      <c r="D860" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="E860" s="8">
+        <v>-51.13</v>
+      </c>
+    </row>
+    <row r="861" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A861" s="7">
+        <v>44995</v>
+      </c>
+      <c r="B861" t="s">
+        <v>7</v>
+      </c>
+      <c r="C861" t="s">
+        <v>171</v>
+      </c>
+      <c r="D861" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E861">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="862" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A862" s="7">
+        <v>44995</v>
+      </c>
+      <c r="B862" t="s">
+        <v>7</v>
+      </c>
+      <c r="C862" t="s">
+        <v>171</v>
+      </c>
+      <c r="D862" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E862">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="863" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A863" s="7">
+        <v>44996</v>
+      </c>
+      <c r="B863" t="s">
+        <v>21</v>
+      </c>
+      <c r="C863" t="s">
+        <v>368</v>
+      </c>
+      <c r="D863" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="E863">
+        <v>-54.54</v>
+      </c>
+    </row>
+    <row r="864" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A864" s="7">
+        <v>44996</v>
+      </c>
+      <c r="B864" t="s">
+        <v>21</v>
+      </c>
+      <c r="C864" t="s">
+        <v>97</v>
+      </c>
+      <c r="D864" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E864">
+        <v>-56.31</v>
+      </c>
+    </row>
+    <row r="865" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A865" s="7">
+        <v>44998</v>
+      </c>
+      <c r="B865" t="s">
+        <v>7</v>
+      </c>
+      <c r="C865" t="s">
+        <v>71</v>
+      </c>
+      <c r="D865" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E865">
+        <v>3106.39</v>
       </c>
     </row>
   </sheetData>
@@ -15859,7 +16414,7 @@
           <x14:formula1>
             <xm:f>OFFSET(Categories!$A$2,0,0,COUNTIF(Categories!$A$2:$A$99,"&lt;&gt;"))</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D834</xm:sqref>
+          <xm:sqref>D2:D865</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Expenses.xlsx
+++ b/Expenses.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffgood/Desktop/R_Studio_Projects/Financial_Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79AF698-D301-2940-82F5-DA94C3F316F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FC8104-260D-D748-9B39-099AED5E2AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="980" windowWidth="15420" windowHeight="15800" xr2:uid="{D9F47917-7B20-384C-878F-0D08681ABD47}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2619" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2676" uniqueCount="383">
   <si>
     <t>Date</t>
   </si>
@@ -1174,6 +1174,21 @@
   </si>
   <si>
     <t>HARRIS TEETER #0302      MCLEAN       VA</t>
+  </si>
+  <si>
+    <t>Casero's</t>
+  </si>
+  <si>
+    <t>Abercrombie &amp; Fitch</t>
+  </si>
+  <si>
+    <t>The Pizza Grill Camp</t>
+  </si>
+  <si>
+    <t>Capital Vending</t>
+  </si>
+  <si>
+    <t>ModWash</t>
   </si>
 </sst>
 </file>
@@ -1334,10 +1349,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}" name="Table1" displayName="Table1" ref="A1:E865" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E865" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E865">
-    <sortCondition ref="A1:A865"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}" name="Table1" displayName="Table1" ref="A1:E884" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E884" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E884">
+    <sortCondition ref="A1:A884"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{36D6B367-4586-164A-BAFD-F61BD8D7B0D8}" name="Date" dataDxfId="4"/>
@@ -1647,10 +1662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BEBEFE-BF8C-CE41-8907-E9633ACA1DDB}">
-  <dimension ref="A1:E865"/>
+  <dimension ref="A1:E884"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D885" sqref="D885"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15860,7 +15875,7 @@
       </c>
     </row>
     <row r="834" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A834" s="7">
+      <c r="A834" s="2">
         <v>44989</v>
       </c>
       <c r="B834" t="s">
@@ -15869,7 +15884,7 @@
       <c r="C834" t="s">
         <v>101</v>
       </c>
-      <c r="D834" s="8" t="s">
+      <c r="D834" t="s">
         <v>264</v>
       </c>
       <c r="E834">
@@ -15894,7 +15909,7 @@
       </c>
     </row>
     <row r="836" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A836" s="7">
+      <c r="A836" s="2">
         <v>44990</v>
       </c>
       <c r="B836" t="s">
@@ -15903,7 +15918,7 @@
       <c r="C836" t="s">
         <v>375</v>
       </c>
-      <c r="D836" s="8" t="s">
+      <c r="D836" t="s">
         <v>268</v>
       </c>
       <c r="E836">
@@ -15911,7 +15926,7 @@
       </c>
     </row>
     <row r="837" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A837" s="7">
+      <c r="A837" s="2">
         <v>44990</v>
       </c>
       <c r="B837" t="s">
@@ -15920,7 +15935,7 @@
       <c r="C837" t="s">
         <v>377</v>
       </c>
-      <c r="D837" s="8" t="s">
+      <c r="D837" t="s">
         <v>12</v>
       </c>
       <c r="E837">
@@ -15928,7 +15943,7 @@
       </c>
     </row>
     <row r="838" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A838" s="7">
+      <c r="A838" s="2">
         <v>44991</v>
       </c>
       <c r="B838" t="s">
@@ -15937,7 +15952,7 @@
       <c r="C838" t="s">
         <v>356</v>
       </c>
-      <c r="D838" s="8" t="s">
+      <c r="D838" t="s">
         <v>268</v>
       </c>
       <c r="E838">
@@ -15945,7 +15960,7 @@
       </c>
     </row>
     <row r="839" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A839" s="7">
+      <c r="A839" s="2">
         <v>44991</v>
       </c>
       <c r="B839" t="s">
@@ -15954,7 +15969,7 @@
       <c r="C839" t="s">
         <v>376</v>
       </c>
-      <c r="D839" s="8" t="s">
+      <c r="D839" t="s">
         <v>268</v>
       </c>
       <c r="E839">
@@ -15962,7 +15977,7 @@
       </c>
     </row>
     <row r="840" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A840" s="7">
+      <c r="A840" s="2">
         <v>44991</v>
       </c>
       <c r="B840" t="s">
@@ -15971,7 +15986,7 @@
       <c r="C840" t="s">
         <v>76</v>
       </c>
-      <c r="D840" s="8" t="s">
+      <c r="D840" t="s">
         <v>268</v>
       </c>
       <c r="E840">
@@ -15979,16 +15994,16 @@
       </c>
     </row>
     <row r="841" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A841" s="7">
+      <c r="A841" s="2">
         <v>44991</v>
       </c>
-      <c r="B841" s="8" t="s">
+      <c r="B841" t="s">
         <v>16</v>
       </c>
       <c r="C841" t="s">
         <v>147</v>
       </c>
-      <c r="D841" s="8" t="s">
+      <c r="D841" t="s">
         <v>9</v>
       </c>
       <c r="E841">
@@ -15996,7 +16011,7 @@
       </c>
     </row>
     <row r="842" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A842" s="7">
+      <c r="A842" s="2">
         <v>44991</v>
       </c>
       <c r="B842" t="s">
@@ -16005,13 +16020,12 @@
       <c r="C842" t="s">
         <v>147</v>
       </c>
-      <c r="D842" s="8"/>
       <c r="E842">
         <v>-2500</v>
       </c>
     </row>
     <row r="843" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A843" s="7">
+      <c r="A843" s="2">
         <v>44992</v>
       </c>
       <c r="B843" t="s">
@@ -16020,7 +16034,7 @@
       <c r="C843" t="s">
         <v>375</v>
       </c>
-      <c r="D843" s="8" t="s">
+      <c r="D843" t="s">
         <v>268</v>
       </c>
       <c r="E843">
@@ -16028,7 +16042,7 @@
       </c>
     </row>
     <row r="844" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A844" s="7">
+      <c r="A844" s="2">
         <v>44992</v>
       </c>
       <c r="B844" t="s">
@@ -16037,7 +16051,7 @@
       <c r="C844" t="s">
         <v>81</v>
       </c>
-      <c r="D844" s="8" t="s">
+      <c r="D844" t="s">
         <v>54</v>
       </c>
       <c r="E844">
@@ -16045,7 +16059,7 @@
       </c>
     </row>
     <row r="845" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A845" s="7">
+      <c r="A845" s="2">
         <v>44993</v>
       </c>
       <c r="B845" t="s">
@@ -16054,7 +16068,7 @@
       <c r="C845" t="s">
         <v>372</v>
       </c>
-      <c r="D845" s="8" t="s">
+      <c r="D845" t="s">
         <v>268</v>
       </c>
       <c r="E845">
@@ -16062,7 +16076,7 @@
       </c>
     </row>
     <row r="846" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A846" s="7">
+      <c r="A846" s="2">
         <v>44993</v>
       </c>
       <c r="B846" t="s">
@@ -16071,7 +16085,7 @@
       <c r="C846" t="s">
         <v>373</v>
       </c>
-      <c r="D846" s="8" t="s">
+      <c r="D846" t="s">
         <v>268</v>
       </c>
       <c r="E846">
@@ -16079,7 +16093,7 @@
       </c>
     </row>
     <row r="847" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A847" s="7">
+      <c r="A847" s="2">
         <v>44993</v>
       </c>
       <c r="B847" t="s">
@@ -16088,7 +16102,7 @@
       <c r="C847" t="s">
         <v>374</v>
       </c>
-      <c r="D847" s="8" t="s">
+      <c r="D847" t="s">
         <v>310</v>
       </c>
       <c r="E847">
@@ -16096,7 +16110,7 @@
       </c>
     </row>
     <row r="848" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A848" s="7">
+      <c r="A848" s="2">
         <v>44993</v>
       </c>
       <c r="B848" t="s">
@@ -16105,7 +16119,7 @@
       <c r="C848" t="s">
         <v>113</v>
       </c>
-      <c r="D848" s="8" t="s">
+      <c r="D848" t="s">
         <v>262</v>
       </c>
       <c r="E848">
@@ -16113,7 +16127,7 @@
       </c>
     </row>
     <row r="849" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A849" s="7">
+      <c r="A849" s="2">
         <v>44994</v>
       </c>
       <c r="B849" t="s">
@@ -16122,7 +16136,7 @@
       <c r="C849" t="s">
         <v>370</v>
       </c>
-      <c r="D849" s="8" t="s">
+      <c r="D849" t="s">
         <v>264</v>
       </c>
       <c r="E849">
@@ -16130,7 +16144,7 @@
       </c>
     </row>
     <row r="850" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A850" s="7">
+      <c r="A850" s="2">
         <v>44994</v>
       </c>
       <c r="B850" t="s">
@@ -16139,7 +16153,7 @@
       <c r="C850" t="s">
         <v>371</v>
       </c>
-      <c r="D850" s="8" t="s">
+      <c r="D850" t="s">
         <v>268</v>
       </c>
       <c r="E850">
@@ -16147,7 +16161,7 @@
       </c>
     </row>
     <row r="851" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A851" s="7">
+      <c r="A851" s="2">
         <v>44994</v>
       </c>
       <c r="B851" t="s">
@@ -16156,7 +16170,7 @@
       <c r="C851" t="s">
         <v>84</v>
       </c>
-      <c r="D851" s="8" t="s">
+      <c r="D851" t="s">
         <v>265</v>
       </c>
       <c r="E851">
@@ -16164,7 +16178,7 @@
       </c>
     </row>
     <row r="852" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A852" s="7">
+      <c r="A852" s="2">
         <v>44994</v>
       </c>
       <c r="B852" t="s">
@@ -16173,7 +16187,7 @@
       <c r="C852" t="s">
         <v>101</v>
       </c>
-      <c r="D852" s="8" t="s">
+      <c r="D852" t="s">
         <v>264</v>
       </c>
       <c r="E852">
@@ -16181,7 +16195,7 @@
       </c>
     </row>
     <row r="853" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A853" s="7">
+      <c r="A853" s="2">
         <v>44995</v>
       </c>
       <c r="B853" t="s">
@@ -16190,7 +16204,7 @@
       <c r="C853" t="s">
         <v>87</v>
       </c>
-      <c r="D853" s="8" t="s">
+      <c r="D853" t="s">
         <v>268</v>
       </c>
       <c r="E853">
@@ -16198,7 +16212,7 @@
       </c>
     </row>
     <row r="854" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A854" s="7">
+      <c r="A854" s="2">
         <v>44995</v>
       </c>
       <c r="B854" t="s">
@@ -16207,7 +16221,7 @@
       <c r="C854" t="s">
         <v>369</v>
       </c>
-      <c r="D854" s="8" t="s">
+      <c r="D854" t="s">
         <v>268</v>
       </c>
       <c r="E854">
@@ -16215,7 +16229,7 @@
       </c>
     </row>
     <row r="855" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A855" s="7">
+      <c r="A855" s="2">
         <v>44995</v>
       </c>
       <c r="B855" t="s">
@@ -16224,7 +16238,7 @@
       <c r="C855" t="s">
         <v>76</v>
       </c>
-      <c r="D855" s="8" t="s">
+      <c r="D855" t="s">
         <v>268</v>
       </c>
       <c r="E855">
@@ -16232,7 +16246,7 @@
       </c>
     </row>
     <row r="856" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A856" s="7">
+      <c r="A856" s="2">
         <v>44995</v>
       </c>
       <c r="B856" t="s">
@@ -16241,7 +16255,7 @@
       <c r="C856" t="s">
         <v>76</v>
       </c>
-      <c r="D856" s="8" t="s">
+      <c r="D856" t="s">
         <v>268</v>
       </c>
       <c r="E856">
@@ -16249,7 +16263,7 @@
       </c>
     </row>
     <row r="857" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A857" s="7">
+      <c r="A857" s="2">
         <v>44995</v>
       </c>
       <c r="B857" t="s">
@@ -16258,7 +16272,7 @@
       <c r="C857" t="s">
         <v>101</v>
       </c>
-      <c r="D857" s="8" t="s">
+      <c r="D857" t="s">
         <v>264</v>
       </c>
       <c r="E857">
@@ -16266,7 +16280,7 @@
       </c>
     </row>
     <row r="858" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A858" s="7">
+      <c r="A858" s="2">
         <v>44995</v>
       </c>
       <c r="B858" t="s">
@@ -16275,15 +16289,15 @@
       <c r="C858" t="s">
         <v>171</v>
       </c>
-      <c r="D858" s="8" t="s">
+      <c r="D858" t="s">
         <v>12</v>
       </c>
-      <c r="E858" s="8">
+      <c r="E858">
         <v>-40.42</v>
       </c>
     </row>
     <row r="859" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A859" s="7">
+      <c r="A859" s="2">
         <v>44995</v>
       </c>
       <c r="B859" t="s">
@@ -16292,7 +16306,7 @@
       <c r="C859" t="s">
         <v>171</v>
       </c>
-      <c r="D859" s="8" t="s">
+      <c r="D859" t="s">
         <v>310</v>
       </c>
       <c r="E859">
@@ -16300,7 +16314,7 @@
       </c>
     </row>
     <row r="860" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A860" s="7">
+      <c r="A860" s="2">
         <v>44995</v>
       </c>
       <c r="B860" t="s">
@@ -16309,15 +16323,15 @@
       <c r="C860" t="s">
         <v>171</v>
       </c>
-      <c r="D860" s="8" t="s">
+      <c r="D860" t="s">
         <v>266</v>
       </c>
-      <c r="E860" s="8">
+      <c r="E860">
         <v>-51.13</v>
       </c>
     </row>
     <row r="861" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A861" s="7">
+      <c r="A861" s="2">
         <v>44995</v>
       </c>
       <c r="B861" t="s">
@@ -16326,7 +16340,7 @@
       <c r="C861" t="s">
         <v>171</v>
       </c>
-      <c r="D861" s="8" t="s">
+      <c r="D861" t="s">
         <v>11</v>
       </c>
       <c r="E861">
@@ -16334,7 +16348,7 @@
       </c>
     </row>
     <row r="862" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A862" s="7">
+      <c r="A862" s="2">
         <v>44995</v>
       </c>
       <c r="B862" t="s">
@@ -16343,7 +16357,7 @@
       <c r="C862" t="s">
         <v>171</v>
       </c>
-      <c r="D862" s="8" t="s">
+      <c r="D862" t="s">
         <v>11</v>
       </c>
       <c r="E862">
@@ -16351,7 +16365,7 @@
       </c>
     </row>
     <row r="863" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A863" s="7">
+      <c r="A863" s="2">
         <v>44996</v>
       </c>
       <c r="B863" t="s">
@@ -16360,7 +16374,7 @@
       <c r="C863" t="s">
         <v>368</v>
       </c>
-      <c r="D863" s="8" t="s">
+      <c r="D863" t="s">
         <v>263</v>
       </c>
       <c r="E863">
@@ -16368,7 +16382,7 @@
       </c>
     </row>
     <row r="864" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A864" s="7">
+      <c r="A864" s="2">
         <v>44996</v>
       </c>
       <c r="B864" t="s">
@@ -16377,7 +16391,7 @@
       <c r="C864" t="s">
         <v>97</v>
       </c>
-      <c r="D864" s="8" t="s">
+      <c r="D864" t="s">
         <v>12</v>
       </c>
       <c r="E864">
@@ -16385,7 +16399,7 @@
       </c>
     </row>
     <row r="865" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A865" s="7">
+      <c r="A865" s="2">
         <v>44998</v>
       </c>
       <c r="B865" t="s">
@@ -16394,11 +16408,334 @@
       <c r="C865" t="s">
         <v>71</v>
       </c>
-      <c r="D865" s="8" t="s">
+      <c r="D865" t="s">
         <v>32</v>
       </c>
       <c r="E865">
         <v>3106.39</v>
+      </c>
+    </row>
+    <row r="866" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A866" s="7">
+        <v>44998</v>
+      </c>
+      <c r="B866" t="s">
+        <v>21</v>
+      </c>
+      <c r="C866" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D866" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E866">
+        <v>-77.03</v>
+      </c>
+    </row>
+    <row r="867" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A867" s="7">
+        <v>44999</v>
+      </c>
+      <c r="B867" t="s">
+        <v>21</v>
+      </c>
+      <c r="C867" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="D867" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E867">
+        <v>-25.48</v>
+      </c>
+    </row>
+    <row r="868" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A868" s="7">
+        <v>44999</v>
+      </c>
+      <c r="B868" t="s">
+        <v>21</v>
+      </c>
+      <c r="C868" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="D868" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E868">
+        <v>-10.6</v>
+      </c>
+    </row>
+    <row r="869" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A869" s="7">
+        <v>44999</v>
+      </c>
+      <c r="B869" t="s">
+        <v>21</v>
+      </c>
+      <c r="C869" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D869" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E869">
+        <v>-35.97</v>
+      </c>
+    </row>
+    <row r="870" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A870" s="7">
+        <v>44999</v>
+      </c>
+      <c r="B870" t="s">
+        <v>21</v>
+      </c>
+      <c r="C870" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D870" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E870">
+        <v>-105</v>
+      </c>
+    </row>
+    <row r="871" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A871" s="7">
+        <v>44999</v>
+      </c>
+      <c r="B871" t="s">
+        <v>21</v>
+      </c>
+      <c r="C871" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="D871" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E871">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="872" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A872" s="7">
+        <v>45000</v>
+      </c>
+      <c r="B872" t="s">
+        <v>7</v>
+      </c>
+      <c r="C872" t="s">
+        <v>147</v>
+      </c>
+      <c r="D872" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E872">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="873" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A873" s="7">
+        <v>45000</v>
+      </c>
+      <c r="B873" t="s">
+        <v>16</v>
+      </c>
+      <c r="C873" t="s">
+        <v>147</v>
+      </c>
+      <c r="D873" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E873">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="874" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A874" s="7">
+        <v>45000</v>
+      </c>
+      <c r="B874" t="s">
+        <v>21</v>
+      </c>
+      <c r="C874" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D874" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E874">
+        <v>-13.65</v>
+      </c>
+    </row>
+    <row r="875" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A875" s="7">
+        <v>45000</v>
+      </c>
+      <c r="B875" t="s">
+        <v>21</v>
+      </c>
+      <c r="C875" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="D875" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E875">
+        <v>-9.5299999999999994</v>
+      </c>
+    </row>
+    <row r="876" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A876" s="7">
+        <v>45001</v>
+      </c>
+      <c r="B876" t="s">
+        <v>7</v>
+      </c>
+      <c r="C876" t="s">
+        <v>169</v>
+      </c>
+      <c r="D876" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E876">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="877" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A877" s="7">
+        <v>45001</v>
+      </c>
+      <c r="B877" t="s">
+        <v>7</v>
+      </c>
+      <c r="C877" t="s">
+        <v>214</v>
+      </c>
+      <c r="D877" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E877">
+        <v>424.54</v>
+      </c>
+    </row>
+    <row r="878" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A878" s="7">
+        <v>45001</v>
+      </c>
+      <c r="B878" t="s">
+        <v>16</v>
+      </c>
+      <c r="C878" t="s">
+        <v>166</v>
+      </c>
+      <c r="D878" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E878">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="879" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A879" s="7">
+        <v>45001</v>
+      </c>
+      <c r="B879" t="s">
+        <v>21</v>
+      </c>
+      <c r="C879" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="D879" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E879">
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="880" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A880" s="7">
+        <v>45001</v>
+      </c>
+      <c r="B880" t="s">
+        <v>21</v>
+      </c>
+      <c r="C880" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="D880" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="E880">
+        <v>56.43</v>
+      </c>
+    </row>
+    <row r="881" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A881" s="7">
+        <v>45003</v>
+      </c>
+      <c r="B881" t="s">
+        <v>21</v>
+      </c>
+      <c r="C881" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D881" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E881">
+        <v>-19.04</v>
+      </c>
+    </row>
+    <row r="882" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A882" s="7">
+        <v>45003</v>
+      </c>
+      <c r="B882" t="s">
+        <v>21</v>
+      </c>
+      <c r="C882" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D882" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E882">
+        <v>-4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="883" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A883" s="7">
+        <v>45003</v>
+      </c>
+      <c r="B883" t="s">
+        <v>21</v>
+      </c>
+      <c r="C883" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="D883" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E883">
+        <v>-7.08</v>
+      </c>
+    </row>
+    <row r="884" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A884" s="7">
+        <v>45003</v>
+      </c>
+      <c r="B884" t="s">
+        <v>21</v>
+      </c>
+      <c r="C884" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="D884" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="E884">
+        <v>-22.24</v>
       </c>
     </row>
   </sheetData>
@@ -16414,7 +16751,7 @@
           <x14:formula1>
             <xm:f>OFFSET(Categories!$A$2,0,0,COUNTIF(Categories!$A$2:$A$99,"&lt;&gt;"))</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D865</xm:sqref>
+          <xm:sqref>D2:D884</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Expenses.xlsx
+++ b/Expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffgood/Desktop/R_Studio_Projects/Financial_Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FC8104-260D-D748-9B39-099AED5E2AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEDAA3A-A562-CC4B-AF0D-F0ED9182024F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="980" windowWidth="15420" windowHeight="15800" xr2:uid="{D9F47917-7B20-384C-878F-0D08681ABD47}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2676" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2748" uniqueCount="387">
   <si>
     <t>Date</t>
   </si>
@@ -1189,6 +1189,18 @@
   </si>
   <si>
     <t>ModWash</t>
+  </si>
+  <si>
+    <t>FIRST NAT BANK4860 CARLISMECHANICSBURGPA</t>
+  </si>
+  <si>
+    <t>Leapfrog Academy</t>
+  </si>
+  <si>
+    <t>Appalachian Brewing</t>
+  </si>
+  <si>
+    <t>WeatherTech</t>
   </si>
 </sst>
 </file>
@@ -1349,10 +1361,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}" name="Table1" displayName="Table1" ref="A1:E884" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E884" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E884">
-    <sortCondition ref="A1:A884"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}" name="Table1" displayName="Table1" ref="A1:E908" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E908" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E908">
+    <sortCondition ref="A1:A908"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{36D6B367-4586-164A-BAFD-F61BD8D7B0D8}" name="Date" dataDxfId="4"/>
@@ -1662,10 +1674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BEBEFE-BF8C-CE41-8907-E9633ACA1DDB}">
-  <dimension ref="A1:E884"/>
+  <dimension ref="A1:E908"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D885" sqref="D885"/>
+      <selection activeCell="D909" sqref="D909"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16416,16 +16428,16 @@
       </c>
     </row>
     <row r="866" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A866" s="7">
+      <c r="A866" s="2">
         <v>44998</v>
       </c>
       <c r="B866" t="s">
         <v>21</v>
       </c>
-      <c r="C866" s="8" t="s">
+      <c r="C866" t="s">
         <v>51</v>
       </c>
-      <c r="D866" s="8" t="s">
+      <c r="D866" t="s">
         <v>12</v>
       </c>
       <c r="E866">
@@ -16433,16 +16445,16 @@
       </c>
     </row>
     <row r="867" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A867" s="7">
+      <c r="A867" s="2">
         <v>44999</v>
       </c>
       <c r="B867" t="s">
         <v>21</v>
       </c>
-      <c r="C867" s="8" t="s">
+      <c r="C867" t="s">
         <v>380</v>
       </c>
-      <c r="D867" s="8" t="s">
+      <c r="D867" t="s">
         <v>268</v>
       </c>
       <c r="E867">
@@ -16450,16 +16462,16 @@
       </c>
     </row>
     <row r="868" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A868" s="7">
+      <c r="A868" s="2">
         <v>44999</v>
       </c>
       <c r="B868" t="s">
         <v>21</v>
       </c>
-      <c r="C868" s="8" t="s">
+      <c r="C868" t="s">
         <v>338</v>
       </c>
-      <c r="D868" s="8" t="s">
+      <c r="D868" t="s">
         <v>268</v>
       </c>
       <c r="E868">
@@ -16467,16 +16479,16 @@
       </c>
     </row>
     <row r="869" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A869" s="7">
+      <c r="A869" s="2">
         <v>44999</v>
       </c>
       <c r="B869" t="s">
         <v>21</v>
       </c>
-      <c r="C869" s="8" t="s">
+      <c r="C869" t="s">
         <v>51</v>
       </c>
-      <c r="D869" s="8" t="s">
+      <c r="D869" t="s">
         <v>12</v>
       </c>
       <c r="E869">
@@ -16484,16 +16496,16 @@
       </c>
     </row>
     <row r="870" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A870" s="7">
+      <c r="A870" s="2">
         <v>44999</v>
       </c>
       <c r="B870" t="s">
         <v>21</v>
       </c>
-      <c r="C870" s="8" t="s">
+      <c r="C870" t="s">
         <v>53</v>
       </c>
-      <c r="D870" s="8" t="s">
+      <c r="D870" t="s">
         <v>54</v>
       </c>
       <c r="E870">
@@ -16501,16 +16513,16 @@
       </c>
     </row>
     <row r="871" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A871" s="7">
+      <c r="A871" s="2">
         <v>44999</v>
       </c>
       <c r="B871" t="s">
         <v>21</v>
       </c>
-      <c r="C871" s="8" t="s">
+      <c r="C871" t="s">
         <v>381</v>
       </c>
-      <c r="D871" s="8" t="s">
+      <c r="D871" t="s">
         <v>268</v>
       </c>
       <c r="E871">
@@ -16518,7 +16530,7 @@
       </c>
     </row>
     <row r="872" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A872" s="7">
+      <c r="A872" s="2">
         <v>45000</v>
       </c>
       <c r="B872" t="s">
@@ -16527,7 +16539,7 @@
       <c r="C872" t="s">
         <v>147</v>
       </c>
-      <c r="D872" s="8" t="s">
+      <c r="D872" t="s">
         <v>9</v>
       </c>
       <c r="E872">
@@ -16535,7 +16547,7 @@
       </c>
     </row>
     <row r="873" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A873" s="7">
+      <c r="A873" s="2">
         <v>45000</v>
       </c>
       <c r="B873" t="s">
@@ -16544,7 +16556,7 @@
       <c r="C873" t="s">
         <v>147</v>
       </c>
-      <c r="D873" s="8" t="s">
+      <c r="D873" t="s">
         <v>9</v>
       </c>
       <c r="E873">
@@ -16552,16 +16564,16 @@
       </c>
     </row>
     <row r="874" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A874" s="7">
+      <c r="A874" s="2">
         <v>45000</v>
       </c>
       <c r="B874" t="s">
         <v>21</v>
       </c>
-      <c r="C874" s="8" t="s">
+      <c r="C874" t="s">
         <v>157</v>
       </c>
-      <c r="D874" s="8" t="s">
+      <c r="D874" t="s">
         <v>268</v>
       </c>
       <c r="E874">
@@ -16569,16 +16581,16 @@
       </c>
     </row>
     <row r="875" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A875" s="7">
+      <c r="A875" s="2">
         <v>45000</v>
       </c>
       <c r="B875" t="s">
         <v>21</v>
       </c>
-      <c r="C875" s="8" t="s">
+      <c r="C875" t="s">
         <v>338</v>
       </c>
-      <c r="D875" s="8" t="s">
+      <c r="D875" t="s">
         <v>268</v>
       </c>
       <c r="E875">
@@ -16586,7 +16598,7 @@
       </c>
     </row>
     <row r="876" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A876" s="7">
+      <c r="A876" s="2">
         <v>45001</v>
       </c>
       <c r="B876" t="s">
@@ -16595,7 +16607,7 @@
       <c r="C876" t="s">
         <v>169</v>
       </c>
-      <c r="D876" s="8" t="s">
+      <c r="D876" t="s">
         <v>14</v>
       </c>
       <c r="E876">
@@ -16603,7 +16615,7 @@
       </c>
     </row>
     <row r="877" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A877" s="7">
+      <c r="A877" s="2">
         <v>45001</v>
       </c>
       <c r="B877" t="s">
@@ -16612,7 +16624,7 @@
       <c r="C877" t="s">
         <v>214</v>
       </c>
-      <c r="D877" s="8" t="s">
+      <c r="D877" t="s">
         <v>32</v>
       </c>
       <c r="E877">
@@ -16620,7 +16632,7 @@
       </c>
     </row>
     <row r="878" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A878" s="7">
+      <c r="A878" s="2">
         <v>45001</v>
       </c>
       <c r="B878" t="s">
@@ -16629,7 +16641,7 @@
       <c r="C878" t="s">
         <v>166</v>
       </c>
-      <c r="D878" s="8" t="s">
+      <c r="D878" t="s">
         <v>269</v>
       </c>
       <c r="E878">
@@ -16637,16 +16649,16 @@
       </c>
     </row>
     <row r="879" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A879" s="7">
+      <c r="A879" s="2">
         <v>45001</v>
       </c>
       <c r="B879" t="s">
         <v>21</v>
       </c>
-      <c r="C879" s="8" t="s">
+      <c r="C879" t="s">
         <v>382</v>
       </c>
-      <c r="D879" s="8" t="s">
+      <c r="D879" t="s">
         <v>264</v>
       </c>
       <c r="E879">
@@ -16654,16 +16666,16 @@
       </c>
     </row>
     <row r="880" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A880" s="7">
+      <c r="A880" s="2">
         <v>45001</v>
       </c>
       <c r="B880" t="s">
         <v>21</v>
       </c>
-      <c r="C880" s="8" t="s">
+      <c r="C880" t="s">
         <v>379</v>
       </c>
-      <c r="D880" s="8" t="s">
+      <c r="D880" t="s">
         <v>266</v>
       </c>
       <c r="E880">
@@ -16671,16 +16683,16 @@
       </c>
     </row>
     <row r="881" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A881" s="7">
+      <c r="A881" s="2">
         <v>45003</v>
       </c>
       <c r="B881" t="s">
         <v>21</v>
       </c>
-      <c r="C881" s="8" t="s">
+      <c r="C881" t="s">
         <v>221</v>
       </c>
-      <c r="D881" s="8" t="s">
+      <c r="D881" t="s">
         <v>265</v>
       </c>
       <c r="E881">
@@ -16688,16 +16700,16 @@
       </c>
     </row>
     <row r="882" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A882" s="7">
+      <c r="A882" s="2">
         <v>45003</v>
       </c>
       <c r="B882" t="s">
         <v>21</v>
       </c>
-      <c r="C882" s="8" t="s">
+      <c r="C882" t="s">
         <v>201</v>
       </c>
-      <c r="D882" s="8" t="s">
+      <c r="D882" t="s">
         <v>268</v>
       </c>
       <c r="E882">
@@ -16705,16 +16717,16 @@
       </c>
     </row>
     <row r="883" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A883" s="7">
+      <c r="A883" s="2">
         <v>45003</v>
       </c>
       <c r="B883" t="s">
         <v>21</v>
       </c>
-      <c r="C883" s="8" t="s">
+      <c r="C883" t="s">
         <v>378</v>
       </c>
-      <c r="D883" s="8" t="s">
+      <c r="D883" t="s">
         <v>12</v>
       </c>
       <c r="E883">
@@ -16722,20 +16734,428 @@
       </c>
     </row>
     <row r="884" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A884" s="7">
+      <c r="A884" s="2">
         <v>45003</v>
       </c>
       <c r="B884" t="s">
         <v>21</v>
       </c>
-      <c r="C884" s="8" t="s">
+      <c r="C884" t="s">
         <v>303</v>
       </c>
-      <c r="D884" s="8" t="s">
+      <c r="D884" t="s">
         <v>310</v>
       </c>
       <c r="E884">
         <v>-22.24</v>
+      </c>
+    </row>
+    <row r="885" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A885" s="7">
+        <v>45004</v>
+      </c>
+      <c r="B885" t="s">
+        <v>21</v>
+      </c>
+      <c r="C885" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D885" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E885">
+        <v>-61.74</v>
+      </c>
+    </row>
+    <row r="886" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A886" s="7">
+        <v>45005</v>
+      </c>
+      <c r="B886" t="s">
+        <v>21</v>
+      </c>
+      <c r="C886" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D886" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E886">
+        <v>-105</v>
+      </c>
+    </row>
+    <row r="887" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A887" s="7">
+        <v>45005</v>
+      </c>
+      <c r="B887" t="s">
+        <v>21</v>
+      </c>
+      <c r="C887" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D887" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E887">
+        <v>-39.99</v>
+      </c>
+    </row>
+    <row r="888" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A888" s="7">
+        <v>45005</v>
+      </c>
+      <c r="B888" t="s">
+        <v>21</v>
+      </c>
+      <c r="C888" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="D888" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="E888">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="889" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A889" s="7">
+        <v>45005</v>
+      </c>
+      <c r="B889" t="s">
+        <v>21</v>
+      </c>
+      <c r="C889" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="D889" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E889">
+        <v>-21.19</v>
+      </c>
+    </row>
+    <row r="890" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A890" s="7">
+        <v>45005</v>
+      </c>
+      <c r="B890" t="s">
+        <v>21</v>
+      </c>
+      <c r="C890" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="D890" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E890">
+        <v>-100.65</v>
+      </c>
+    </row>
+    <row r="891" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A891" s="7">
+        <v>45005</v>
+      </c>
+      <c r="B891" t="s">
+        <v>21</v>
+      </c>
+      <c r="C891" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="D891" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E891">
+        <v>-319.95999999999998</v>
+      </c>
+    </row>
+    <row r="892" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A892" s="7">
+        <v>45006</v>
+      </c>
+      <c r="B892" t="s">
+        <v>7</v>
+      </c>
+      <c r="C892" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D892" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E892">
+        <v>-437.21</v>
+      </c>
+    </row>
+    <row r="893" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A893" s="7">
+        <v>45006</v>
+      </c>
+      <c r="B893" t="s">
+        <v>21</v>
+      </c>
+      <c r="C893" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="D893" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E893">
+        <v>-132.76</v>
+      </c>
+    </row>
+    <row r="894" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A894" s="7">
+        <v>45007</v>
+      </c>
+      <c r="B894" t="s">
+        <v>21</v>
+      </c>
+      <c r="C894" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D894" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E894">
+        <v>-18.309999999999999</v>
+      </c>
+    </row>
+    <row r="895" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A895" s="7">
+        <v>45008</v>
+      </c>
+      <c r="B895" t="s">
+        <v>21</v>
+      </c>
+      <c r="C895" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D895" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E895">
+        <v>-33.840000000000003</v>
+      </c>
+    </row>
+    <row r="896" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A896" s="7">
+        <v>45008</v>
+      </c>
+      <c r="B896" t="s">
+        <v>21</v>
+      </c>
+      <c r="C896" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="D896" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E896">
+        <v>-47.68</v>
+      </c>
+    </row>
+    <row r="897" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A897" s="7">
+        <v>45008</v>
+      </c>
+      <c r="B897" t="s">
+        <v>21</v>
+      </c>
+      <c r="C897" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D897" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E897">
+        <v>-11.37</v>
+      </c>
+    </row>
+    <row r="898" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A898" s="7">
+        <v>45009</v>
+      </c>
+      <c r="B898" t="s">
+        <v>21</v>
+      </c>
+      <c r="C898" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D898" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E898">
+        <v>-10.15</v>
+      </c>
+    </row>
+    <row r="899" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A899" s="7">
+        <v>45009</v>
+      </c>
+      <c r="B899" t="s">
+        <v>21</v>
+      </c>
+      <c r="C899" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D899" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E899">
+        <v>-150.08000000000001</v>
+      </c>
+    </row>
+    <row r="900" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A900" s="7">
+        <v>45010</v>
+      </c>
+      <c r="B900" t="s">
+        <v>21</v>
+      </c>
+      <c r="C900" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D900" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E900">
+        <v>-36.28</v>
+      </c>
+    </row>
+    <row r="901" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A901" s="7">
+        <v>45010</v>
+      </c>
+      <c r="B901" t="s">
+        <v>21</v>
+      </c>
+      <c r="C901" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D901" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="E901">
+        <v>-10.59</v>
+      </c>
+    </row>
+    <row r="902" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A902" s="7">
+        <v>45010</v>
+      </c>
+      <c r="B902" t="s">
+        <v>21</v>
+      </c>
+      <c r="C902" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="D902" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="E902">
+        <v>-31.79</v>
+      </c>
+    </row>
+    <row r="903" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A903" s="7">
+        <v>45010</v>
+      </c>
+      <c r="B903" t="s">
+        <v>21</v>
+      </c>
+      <c r="C903" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D903" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="E903">
+        <v>-4.29</v>
+      </c>
+    </row>
+    <row r="904" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A904" s="7">
+        <v>45010</v>
+      </c>
+      <c r="B904" t="s">
+        <v>21</v>
+      </c>
+      <c r="C904" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D904" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E904">
+        <v>-86.57</v>
+      </c>
+    </row>
+    <row r="905" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A905" s="7">
+        <v>45012</v>
+      </c>
+      <c r="B905" t="s">
+        <v>7</v>
+      </c>
+      <c r="C905" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D905" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="E905">
+        <v>-64.34</v>
+      </c>
+    </row>
+    <row r="906" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A906" s="7">
+        <v>45012</v>
+      </c>
+      <c r="B906" t="s">
+        <v>7</v>
+      </c>
+      <c r="C906" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D906" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E906">
+        <v>-3062.72</v>
+      </c>
+    </row>
+    <row r="907" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A907" s="7">
+        <v>45012</v>
+      </c>
+      <c r="B907" t="s">
+        <v>7</v>
+      </c>
+      <c r="C907" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="D907" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E907">
+        <v>-63.95</v>
+      </c>
+    </row>
+    <row r="908" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A908" s="7">
+        <v>45012</v>
+      </c>
+      <c r="B908" t="s">
+        <v>7</v>
+      </c>
+      <c r="C908" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D908" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E908">
+        <v>3.95</v>
       </c>
     </row>
   </sheetData>
@@ -16751,7 +17171,7 @@
           <x14:formula1>
             <xm:f>OFFSET(Categories!$A$2,0,0,COUNTIF(Categories!$A$2:$A$99,"&lt;&gt;"))</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D884</xm:sqref>
+          <xm:sqref>D2:D908</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Expenses.xlsx
+++ b/Expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffgood/Desktop/R_Studio_Projects/Financial_Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEDAA3A-A562-CC4B-AF0D-F0ED9182024F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4C8DE1-0A93-9E44-B749-1E0C3F7C6F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="980" windowWidth="15420" windowHeight="15800" xr2:uid="{D9F47917-7B20-384C-878F-0D08681ABD47}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2748" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2850" uniqueCount="390">
   <si>
     <t>Date</t>
   </si>
@@ -1201,6 +1201,15 @@
   </si>
   <si>
     <t>WeatherTech</t>
+  </si>
+  <si>
+    <t>LOWES #02223*            MECHANICSBURGPA</t>
+  </si>
+  <si>
+    <t>Act Hampden Rec</t>
+  </si>
+  <si>
+    <t>Giant Landover</t>
   </si>
 </sst>
 </file>
@@ -1361,10 +1370,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}" name="Table1" displayName="Table1" ref="A1:E908" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E908" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E908">
-    <sortCondition ref="A1:A908"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}" name="Table1" displayName="Table1" ref="A1:E942" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E942" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E942">
+    <sortCondition ref="A1:A942"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{36D6B367-4586-164A-BAFD-F61BD8D7B0D8}" name="Date" dataDxfId="4"/>
@@ -1674,10 +1683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BEBEFE-BF8C-CE41-8907-E9633ACA1DDB}">
-  <dimension ref="A1:E908"/>
+  <dimension ref="A1:E942"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D909" sqref="D909"/>
+      <selection activeCell="D927" sqref="D927"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16751,16 +16760,16 @@
       </c>
     </row>
     <row r="885" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A885" s="7">
+      <c r="A885" s="2">
         <v>45004</v>
       </c>
       <c r="B885" t="s">
         <v>21</v>
       </c>
-      <c r="C885" s="8" t="s">
+      <c r="C885" t="s">
         <v>51</v>
       </c>
-      <c r="D885" s="8" t="s">
+      <c r="D885" t="s">
         <v>12</v>
       </c>
       <c r="E885">
@@ -16768,16 +16777,16 @@
       </c>
     </row>
     <row r="886" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A886" s="7">
+      <c r="A886" s="2">
         <v>45005</v>
       </c>
       <c r="B886" t="s">
         <v>21</v>
       </c>
-      <c r="C886" s="8" t="s">
+      <c r="C886" t="s">
         <v>53</v>
       </c>
-      <c r="D886" s="8" t="s">
+      <c r="D886" t="s">
         <v>54</v>
       </c>
       <c r="E886">
@@ -16785,16 +16794,16 @@
       </c>
     </row>
     <row r="887" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A887" s="7">
+      <c r="A887" s="2">
         <v>45005</v>
       </c>
       <c r="B887" t="s">
         <v>21</v>
       </c>
-      <c r="C887" s="8" t="s">
+      <c r="C887" t="s">
         <v>195</v>
       </c>
-      <c r="D887" s="8" t="s">
+      <c r="D887" t="s">
         <v>265</v>
       </c>
       <c r="E887">
@@ -16802,16 +16811,16 @@
       </c>
     </row>
     <row r="888" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A888" s="7">
+      <c r="A888" s="2">
         <v>45005</v>
       </c>
       <c r="B888" t="s">
         <v>21</v>
       </c>
-      <c r="C888" s="8" t="s">
+      <c r="C888" t="s">
         <v>278</v>
       </c>
-      <c r="D888" s="8" t="s">
+      <c r="D888" t="s">
         <v>263</v>
       </c>
       <c r="E888">
@@ -16819,16 +16828,16 @@
       </c>
     </row>
     <row r="889" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A889" s="7">
+      <c r="A889" s="2">
         <v>45005</v>
       </c>
       <c r="B889" t="s">
         <v>21</v>
       </c>
-      <c r="C889" s="8" t="s">
+      <c r="C889" t="s">
         <v>328</v>
       </c>
-      <c r="D889" s="8" t="s">
+      <c r="D889" t="s">
         <v>268</v>
       </c>
       <c r="E889">
@@ -16836,16 +16845,16 @@
       </c>
     </row>
     <row r="890" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A890" s="7">
+      <c r="A890" s="2">
         <v>45005</v>
       </c>
       <c r="B890" t="s">
         <v>21</v>
       </c>
-      <c r="C890" s="8" t="s">
+      <c r="C890" t="s">
         <v>386</v>
       </c>
-      <c r="D890" s="8" t="s">
+      <c r="D890" t="s">
         <v>264</v>
       </c>
       <c r="E890">
@@ -16853,16 +16862,16 @@
       </c>
     </row>
     <row r="891" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A891" s="7">
+      <c r="A891" s="2">
         <v>45005</v>
       </c>
       <c r="B891" t="s">
         <v>21</v>
       </c>
-      <c r="C891" s="8" t="s">
+      <c r="C891" t="s">
         <v>386</v>
       </c>
-      <c r="D891" s="8" t="s">
+      <c r="D891" t="s">
         <v>264</v>
       </c>
       <c r="E891">
@@ -16870,16 +16879,16 @@
       </c>
     </row>
     <row r="892" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A892" s="7">
+      <c r="A892" s="2">
         <v>45006</v>
       </c>
       <c r="B892" t="s">
         <v>7</v>
       </c>
-      <c r="C892" s="8" t="s">
+      <c r="C892" t="s">
         <v>198</v>
       </c>
-      <c r="D892" s="8" t="s">
+      <c r="D892" t="s">
         <v>92</v>
       </c>
       <c r="E892">
@@ -16887,16 +16896,16 @@
       </c>
     </row>
     <row r="893" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A893" s="7">
+      <c r="A893" s="2">
         <v>45006</v>
       </c>
       <c r="B893" t="s">
         <v>21</v>
       </c>
-      <c r="C893" s="8" t="s">
+      <c r="C893" t="s">
         <v>350</v>
       </c>
-      <c r="D893" s="8" t="s">
+      <c r="D893" t="s">
         <v>262</v>
       </c>
       <c r="E893">
@@ -16904,16 +16913,16 @@
       </c>
     </row>
     <row r="894" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A894" s="7">
+      <c r="A894" s="2">
         <v>45007</v>
       </c>
       <c r="B894" t="s">
         <v>21</v>
       </c>
-      <c r="C894" s="8" t="s">
+      <c r="C894" t="s">
         <v>157</v>
       </c>
-      <c r="D894" s="8" t="s">
+      <c r="D894" t="s">
         <v>268</v>
       </c>
       <c r="E894">
@@ -16921,16 +16930,16 @@
       </c>
     </row>
     <row r="895" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A895" s="7">
+      <c r="A895" s="2">
         <v>45008</v>
       </c>
       <c r="B895" t="s">
         <v>21</v>
       </c>
-      <c r="C895" s="8" t="s">
+      <c r="C895" t="s">
         <v>51</v>
       </c>
-      <c r="D895" s="8" t="s">
+      <c r="D895" t="s">
         <v>12</v>
       </c>
       <c r="E895">
@@ -16938,16 +16947,16 @@
       </c>
     </row>
     <row r="896" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A896" s="7">
+      <c r="A896" s="2">
         <v>45008</v>
       </c>
       <c r="B896" t="s">
         <v>21</v>
       </c>
-      <c r="C896" s="8" t="s">
+      <c r="C896" t="s">
         <v>385</v>
       </c>
-      <c r="D896" s="8" t="s">
+      <c r="D896" t="s">
         <v>268</v>
       </c>
       <c r="E896">
@@ -16955,16 +16964,16 @@
       </c>
     </row>
     <row r="897" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A897" s="7">
+      <c r="A897" s="2">
         <v>45008</v>
       </c>
       <c r="B897" t="s">
         <v>21</v>
       </c>
-      <c r="C897" s="8" t="s">
+      <c r="C897" t="s">
         <v>180</v>
       </c>
-      <c r="D897" s="8" t="s">
+      <c r="D897" t="s">
         <v>12</v>
       </c>
       <c r="E897">
@@ -16972,16 +16981,16 @@
       </c>
     </row>
     <row r="898" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A898" s="7">
+      <c r="A898" s="2">
         <v>45009</v>
       </c>
       <c r="B898" t="s">
         <v>21</v>
       </c>
-      <c r="C898" s="8" t="s">
+      <c r="C898" t="s">
         <v>157</v>
       </c>
-      <c r="D898" s="8" t="s">
+      <c r="D898" t="s">
         <v>268</v>
       </c>
       <c r="E898">
@@ -16989,16 +16998,16 @@
       </c>
     </row>
     <row r="899" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A899" s="7">
+      <c r="A899" s="2">
         <v>45009</v>
       </c>
       <c r="B899" t="s">
         <v>21</v>
       </c>
-      <c r="C899" s="8" t="s">
+      <c r="C899" t="s">
         <v>227</v>
       </c>
-      <c r="D899" s="8" t="s">
+      <c r="D899" t="s">
         <v>265</v>
       </c>
       <c r="E899">
@@ -17006,16 +17015,16 @@
       </c>
     </row>
     <row r="900" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A900" s="7">
+      <c r="A900" s="2">
         <v>45010</v>
       </c>
       <c r="B900" t="s">
         <v>21</v>
       </c>
-      <c r="C900" s="8" t="s">
+      <c r="C900" t="s">
         <v>157</v>
       </c>
-      <c r="D900" s="8" t="s">
+      <c r="D900" t="s">
         <v>268</v>
       </c>
       <c r="E900">
@@ -17023,16 +17032,16 @@
       </c>
     </row>
     <row r="901" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A901" s="7">
+      <c r="A901" s="2">
         <v>45010</v>
       </c>
       <c r="B901" t="s">
         <v>21</v>
       </c>
-      <c r="C901" s="8" t="s">
+      <c r="C901" t="s">
         <v>160</v>
       </c>
-      <c r="D901" s="8" t="s">
+      <c r="D901" t="s">
         <v>263</v>
       </c>
       <c r="E901">
@@ -17040,16 +17049,16 @@
       </c>
     </row>
     <row r="902" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A902" s="7">
+      <c r="A902" s="2">
         <v>45010</v>
       </c>
       <c r="B902" t="s">
         <v>21</v>
       </c>
-      <c r="C902" s="8" t="s">
+      <c r="C902" t="s">
         <v>384</v>
       </c>
-      <c r="D902" s="8" t="s">
+      <c r="D902" t="s">
         <v>263</v>
       </c>
       <c r="E902">
@@ -17057,16 +17066,16 @@
       </c>
     </row>
     <row r="903" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A903" s="7">
+      <c r="A903" s="2">
         <v>45010</v>
       </c>
       <c r="B903" t="s">
         <v>21</v>
       </c>
-      <c r="C903" s="8" t="s">
+      <c r="C903" t="s">
         <v>149</v>
       </c>
-      <c r="D903" s="8" t="s">
+      <c r="D903" t="s">
         <v>263</v>
       </c>
       <c r="E903">
@@ -17074,16 +17083,16 @@
       </c>
     </row>
     <row r="904" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A904" s="7">
+      <c r="A904" s="2">
         <v>45010</v>
       </c>
       <c r="B904" t="s">
         <v>21</v>
       </c>
-      <c r="C904" s="8" t="s">
+      <c r="C904" t="s">
         <v>51</v>
       </c>
-      <c r="D904" s="8" t="s">
+      <c r="D904" t="s">
         <v>12</v>
       </c>
       <c r="E904">
@@ -17092,70 +17101,648 @@
     </row>
     <row r="905" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A905" s="7">
-        <v>45012</v>
-      </c>
-      <c r="B905" t="s">
-        <v>7</v>
+        <v>45010</v>
+      </c>
+      <c r="B905" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="C905" s="8" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="D905" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="E905">
-        <v>-64.34</v>
+        <v>12</v>
+      </c>
+      <c r="E905" s="8">
+        <v>-63.71</v>
       </c>
     </row>
     <row r="906" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A906" s="7">
+        <v>45011</v>
+      </c>
+      <c r="B906" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C906" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="D906" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E906" s="8">
+        <v>-19.5</v>
+      </c>
+    </row>
+    <row r="907" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A907" s="2">
         <v>45012</v>
       </c>
-      <c r="B906" t="s">
-        <v>7</v>
-      </c>
-      <c r="C906" s="8" t="s">
+      <c r="B907" t="s">
+        <v>7</v>
+      </c>
+      <c r="C907" t="s">
+        <v>106</v>
+      </c>
+      <c r="D907" t="s">
+        <v>266</v>
+      </c>
+      <c r="E907">
+        <v>-64.34</v>
+      </c>
+    </row>
+    <row r="908" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A908" s="2">
+        <v>45012</v>
+      </c>
+      <c r="B908" t="s">
+        <v>7</v>
+      </c>
+      <c r="C908" t="s">
         <v>43</v>
       </c>
-      <c r="D906" s="8" t="s">
+      <c r="D908" t="s">
         <v>91</v>
       </c>
-      <c r="E906">
+      <c r="E908">
         <v>-3062.72</v>
       </c>
     </row>
-    <row r="907" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A907" s="7">
+    <row r="909" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A909" s="2">
         <v>45012</v>
       </c>
-      <c r="B907" t="s">
-        <v>7</v>
-      </c>
-      <c r="C907" s="8" t="s">
+      <c r="B909" t="s">
+        <v>7</v>
+      </c>
+      <c r="C909" t="s">
         <v>383</v>
       </c>
-      <c r="D907" s="8" t="s">
+      <c r="D909" t="s">
         <v>14</v>
       </c>
-      <c r="E907">
+      <c r="E909">
         <v>-63.95</v>
       </c>
     </row>
-    <row r="908" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A908" s="7">
+    <row r="910" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A910" s="2">
         <v>45012</v>
       </c>
-      <c r="B908" t="s">
-        <v>7</v>
-      </c>
-      <c r="C908" s="8" t="s">
+      <c r="B910" t="s">
+        <v>7</v>
+      </c>
+      <c r="C910" t="s">
         <v>5</v>
       </c>
-      <c r="D908" s="8" t="s">
+      <c r="D910" t="s">
         <v>14</v>
       </c>
-      <c r="E908">
+      <c r="E910">
         <v>3.95</v>
+      </c>
+    </row>
+    <row r="911" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A911" s="7">
+        <v>45012</v>
+      </c>
+      <c r="B911" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C911" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D911" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E911" s="8">
+        <v>3062.72</v>
+      </c>
+    </row>
+    <row r="912" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A912" s="7">
+        <v>45013</v>
+      </c>
+      <c r="B912" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C912" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D912" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="E912" s="8">
+        <v>-16.11</v>
+      </c>
+    </row>
+    <row r="913" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A913" s="7">
+        <v>45013</v>
+      </c>
+      <c r="B913" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C913" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="D913" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E913" s="8">
+        <v>-61.23</v>
+      </c>
+    </row>
+    <row r="914" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A914" s="7">
+        <v>45013</v>
+      </c>
+      <c r="B914" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C914" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D914" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E914" s="8">
+        <v>-51.6</v>
+      </c>
+    </row>
+    <row r="915" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A915" s="7">
+        <v>45013</v>
+      </c>
+      <c r="B915" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C915" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D915" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E915" s="8">
+        <v>-105</v>
+      </c>
+    </row>
+    <row r="916" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A916" s="7">
+        <v>45014</v>
+      </c>
+      <c r="B916" t="s">
+        <v>7</v>
+      </c>
+      <c r="C916" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D916" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E916" s="6">
+        <v>-479.16</v>
+      </c>
+    </row>
+    <row r="917" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A917" s="7">
+        <v>45014</v>
+      </c>
+      <c r="B917" t="s">
+        <v>7</v>
+      </c>
+      <c r="C917" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D917" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E917" s="6">
+        <v>3105.85</v>
+      </c>
+    </row>
+    <row r="918" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A918" s="7">
+        <v>45014</v>
+      </c>
+      <c r="B918" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C918" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D918" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E918" s="8">
+        <v>-9.99</v>
+      </c>
+    </row>
+    <row r="919" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A919" s="7">
+        <v>45014</v>
+      </c>
+      <c r="B919" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C919" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="D919" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E919" s="8">
+        <v>-10.28</v>
+      </c>
+    </row>
+    <row r="920" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A920" s="7">
+        <v>45015</v>
+      </c>
+      <c r="B920" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C920" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="D920" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="E920" s="8">
+        <v>-113.25</v>
+      </c>
+    </row>
+    <row r="921" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A921" s="7">
+        <v>45015</v>
+      </c>
+      <c r="B921" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C921" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D921" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="E921" s="8">
+        <v>-23.1</v>
+      </c>
+    </row>
+    <row r="922" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A922" s="7">
+        <v>45015</v>
+      </c>
+      <c r="B922" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C922" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="D922" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="E922" s="8">
+        <v>-145</v>
+      </c>
+    </row>
+    <row r="923" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A923" s="7">
+        <v>45015</v>
+      </c>
+      <c r="B923" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C923" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D923" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E923" s="8">
+        <v>-17.79</v>
+      </c>
+    </row>
+    <row r="924" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A924" s="7">
+        <v>45015</v>
+      </c>
+      <c r="B924" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C924" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D924" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E924" s="8">
+        <v>-71.37</v>
+      </c>
+    </row>
+    <row r="925" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A925" s="7">
+        <v>45016</v>
+      </c>
+      <c r="B925" t="s">
+        <v>7</v>
+      </c>
+      <c r="C925" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D925" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E925" s="6">
+        <v>-80.95</v>
+      </c>
+    </row>
+    <row r="926" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A926" s="7">
+        <v>45016</v>
+      </c>
+      <c r="B926" t="s">
+        <v>7</v>
+      </c>
+      <c r="C926" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="D926" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="E926" s="6">
+        <v>-27</v>
+      </c>
+    </row>
+    <row r="927" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A927" s="7">
+        <v>45016</v>
+      </c>
+      <c r="B927" t="s">
+        <v>7</v>
+      </c>
+      <c r="C927" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D927" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E927" s="6">
+        <v>-2.48</v>
+      </c>
+    </row>
+    <row r="928" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A928" s="7">
+        <v>45016</v>
+      </c>
+      <c r="B928" t="s">
+        <v>7</v>
+      </c>
+      <c r="C928" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D928" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E928" s="6">
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="929" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A929" s="7">
+        <v>45016</v>
+      </c>
+      <c r="B929" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C929" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D929" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E929" s="8">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="930" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A930" s="7">
+        <v>45016</v>
+      </c>
+      <c r="B930" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C930" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D930" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E930" s="8">
+        <v>-22.32</v>
+      </c>
+    </row>
+    <row r="931" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A931" s="7">
+        <v>45016</v>
+      </c>
+      <c r="B931" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C931" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D931" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="E931" s="8">
+        <v>-38.69</v>
+      </c>
+    </row>
+    <row r="932" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A932" s="7">
+        <v>45016</v>
+      </c>
+      <c r="B932" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C932" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D932" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E932" s="8">
+        <v>-22.5</v>
+      </c>
+    </row>
+    <row r="933" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A933" s="7">
+        <v>45017</v>
+      </c>
+      <c r="B933" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C933" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D933" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E933" s="8">
+        <v>-284.48</v>
+      </c>
+    </row>
+    <row r="934" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A934" s="7">
+        <v>45017</v>
+      </c>
+      <c r="B934" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C934" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D934" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E934" s="8">
+        <v>-116.88</v>
+      </c>
+    </row>
+    <row r="935" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A935" s="7">
+        <v>45017</v>
+      </c>
+      <c r="B935" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C935" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D935" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="E935" s="8">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="936" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A936" s="7">
+        <v>45018</v>
+      </c>
+      <c r="B936" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C936" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="D936" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E936" s="8">
+        <v>-122.83</v>
+      </c>
+    </row>
+    <row r="937" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A937" s="7">
+        <v>45018</v>
+      </c>
+      <c r="B937" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C937" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D937" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E937" s="8">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="938" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A938" s="7">
+        <v>45018</v>
+      </c>
+      <c r="B938" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C938" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D938" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="E938" s="8">
+        <v>12.49</v>
+      </c>
+    </row>
+    <row r="939" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A939" s="7">
+        <v>45019</v>
+      </c>
+      <c r="B939" t="s">
+        <v>7</v>
+      </c>
+      <c r="C939" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D939" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E939" s="6">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="940" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A940" s="7">
+        <v>45019</v>
+      </c>
+      <c r="B940" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C940" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D940" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E940" s="8">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="941" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A941" s="7">
+        <v>45019</v>
+      </c>
+      <c r="B941" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C941" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D941" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E941" s="8">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="942" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A942" s="7">
+        <v>45019</v>
+      </c>
+      <c r="B942" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C942" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D942" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E942" s="8">
+        <v>-29.07</v>
       </c>
     </row>
   </sheetData>
@@ -17171,7 +17758,7 @@
           <x14:formula1>
             <xm:f>OFFSET(Categories!$A$2,0,0,COUNTIF(Categories!$A$2:$A$99,"&lt;&gt;"))</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D908</xm:sqref>
+          <xm:sqref>D2:D942</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Expenses.xlsx
+++ b/Expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffgood/Desktop/R_Studio_Projects/Financial_Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4C8DE1-0A93-9E44-B749-1E0C3F7C6F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54443CB-B5C2-AC49-BC8C-D865A5185283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="980" windowWidth="15420" windowHeight="15800" xr2:uid="{D9F47917-7B20-384C-878F-0D08681ABD47}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2850" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2920" uniqueCount="395">
   <si>
     <t>Date</t>
   </si>
@@ -1210,6 +1210,21 @@
   </si>
   <si>
     <t>Giant Landover</t>
+  </si>
+  <si>
+    <t>USAA Loan Payment</t>
+  </si>
+  <si>
+    <t>Sweetreats Bakery</t>
+  </si>
+  <si>
+    <t>Harrisburg University</t>
+  </si>
+  <si>
+    <t>Kwik Fill</t>
+  </si>
+  <si>
+    <t>Loan_Repayment</t>
   </si>
 </sst>
 </file>
@@ -1252,7 +1267,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1280,11 +1295,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1292,8 +1316,7 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1370,10 +1393,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}" name="Table1" displayName="Table1" ref="A1:E942" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E942" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E942">
-    <sortCondition ref="A1:A942"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}" name="Table1" displayName="Table1" ref="A1:E965" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E965" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E965">
+    <sortCondition ref="A1:A965"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{36D6B367-4586-164A-BAFD-F61BD8D7B0D8}" name="Date" dataDxfId="4"/>
@@ -1683,10 +1706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BEBEFE-BF8C-CE41-8907-E9633ACA1DDB}">
-  <dimension ref="A1:E942"/>
+  <dimension ref="A1:E965"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D927" sqref="D927"/>
+    <sheetView tabSelected="1" topLeftCell="A942" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D946" sqref="D946"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17100,36 +17123,36 @@
       </c>
     </row>
     <row r="905" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A905" s="7">
+      <c r="A905" s="2">
         <v>45010</v>
       </c>
-      <c r="B905" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C905" s="8" t="s">
+      <c r="B905" t="s">
+        <v>21</v>
+      </c>
+      <c r="C905" t="s">
         <v>159</v>
       </c>
-      <c r="D905" s="8" t="s">
+      <c r="D905" t="s">
         <v>12</v>
       </c>
-      <c r="E905" s="8">
+      <c r="E905">
         <v>-63.71</v>
       </c>
     </row>
     <row r="906" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A906" s="7">
+      <c r="A906" s="2">
         <v>45011</v>
       </c>
-      <c r="B906" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C906" s="8" t="s">
+      <c r="B906" t="s">
+        <v>21</v>
+      </c>
+      <c r="C906" t="s">
         <v>228</v>
       </c>
-      <c r="D906" s="8" t="s">
+      <c r="D906" t="s">
         <v>12</v>
       </c>
-      <c r="E906" s="8">
+      <c r="E906">
         <v>-19.5</v>
       </c>
     </row>
@@ -17202,101 +17225,101 @@
       </c>
     </row>
     <row r="911" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A911" s="7">
+      <c r="A911" s="2">
         <v>45012</v>
       </c>
-      <c r="B911" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C911" s="8" t="s">
+      <c r="B911" t="s">
+        <v>21</v>
+      </c>
+      <c r="C911" t="s">
         <v>174</v>
       </c>
-      <c r="D911" s="8" t="s">
+      <c r="D911" t="s">
         <v>91</v>
       </c>
-      <c r="E911" s="8">
+      <c r="E911">
         <v>3062.72</v>
       </c>
     </row>
     <row r="912" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A912" s="7">
+      <c r="A912" s="2">
         <v>45013</v>
       </c>
-      <c r="B912" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C912" s="8" t="s">
+      <c r="B912" t="s">
+        <v>21</v>
+      </c>
+      <c r="C912" t="s">
         <v>200</v>
       </c>
-      <c r="D912" s="8" t="s">
+      <c r="D912" t="s">
         <v>263</v>
       </c>
-      <c r="E912" s="8">
+      <c r="E912">
         <v>-16.11</v>
       </c>
     </row>
     <row r="913" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A913" s="7">
+      <c r="A913" s="2">
         <v>45013</v>
       </c>
-      <c r="B913" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C913" s="8" t="s">
+      <c r="B913" t="s">
+        <v>21</v>
+      </c>
+      <c r="C913" t="s">
         <v>389</v>
       </c>
-      <c r="D913" s="8" t="s">
+      <c r="D913" t="s">
         <v>12</v>
       </c>
-      <c r="E913" s="8">
+      <c r="E913">
         <v>-61.23</v>
       </c>
     </row>
     <row r="914" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A914" s="7">
+      <c r="A914" s="2">
         <v>45013</v>
       </c>
-      <c r="B914" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C914" s="8" t="s">
+      <c r="B914" t="s">
+        <v>21</v>
+      </c>
+      <c r="C914" t="s">
         <v>161</v>
       </c>
-      <c r="D914" s="8" t="s">
+      <c r="D914" t="s">
         <v>264</v>
       </c>
-      <c r="E914" s="8">
+      <c r="E914">
         <v>-51.6</v>
       </c>
     </row>
     <row r="915" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A915" s="7">
+      <c r="A915" s="2">
         <v>45013</v>
       </c>
-      <c r="B915" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C915" s="8" t="s">
+      <c r="B915" t="s">
+        <v>21</v>
+      </c>
+      <c r="C915" t="s">
         <v>53</v>
       </c>
-      <c r="D915" s="8" t="s">
+      <c r="D915" t="s">
         <v>54</v>
       </c>
-      <c r="E915" s="8">
+      <c r="E915">
         <v>-105</v>
       </c>
     </row>
     <row r="916" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A916" s="7">
+      <c r="A916" s="2">
         <v>45014</v>
       </c>
       <c r="B916" t="s">
         <v>7</v>
       </c>
-      <c r="C916" s="8" t="s">
+      <c r="C916" t="s">
         <v>198</v>
       </c>
-      <c r="D916" s="8" t="s">
+      <c r="D916" t="s">
         <v>92</v>
       </c>
       <c r="E916" s="6">
@@ -17304,16 +17327,16 @@
       </c>
     </row>
     <row r="917" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A917" s="7">
+      <c r="A917" s="2">
         <v>45014</v>
       </c>
       <c r="B917" t="s">
         <v>7</v>
       </c>
-      <c r="C917" s="8" t="s">
+      <c r="C917" t="s">
         <v>170</v>
       </c>
-      <c r="D917" s="8" t="s">
+      <c r="D917" t="s">
         <v>32</v>
       </c>
       <c r="E917" s="6">
@@ -17321,135 +17344,135 @@
       </c>
     </row>
     <row r="918" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A918" s="7">
+      <c r="A918" s="2">
         <v>45014</v>
       </c>
-      <c r="B918" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C918" s="8" t="s">
+      <c r="B918" t="s">
+        <v>21</v>
+      </c>
+      <c r="C918" t="s">
         <v>149</v>
       </c>
-      <c r="D918" s="8" t="s">
+      <c r="D918" t="s">
         <v>265</v>
       </c>
-      <c r="E918" s="8">
+      <c r="E918">
         <v>-9.99</v>
       </c>
     </row>
     <row r="919" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A919" s="7">
+      <c r="A919" s="2">
         <v>45014</v>
       </c>
-      <c r="B919" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C919" s="8" t="s">
+      <c r="B919" t="s">
+        <v>21</v>
+      </c>
+      <c r="C919" t="s">
         <v>253</v>
       </c>
-      <c r="D919" s="8" t="s">
+      <c r="D919" t="s">
         <v>268</v>
       </c>
-      <c r="E919" s="8">
+      <c r="E919">
         <v>-10.28</v>
       </c>
     </row>
     <row r="920" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A920" s="7">
+      <c r="A920" s="2">
         <v>45015</v>
       </c>
-      <c r="B920" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C920" s="8" t="s">
+      <c r="B920" t="s">
+        <v>21</v>
+      </c>
+      <c r="C920" t="s">
         <v>345</v>
       </c>
-      <c r="D920" s="8" t="s">
+      <c r="D920" t="s">
         <v>266</v>
       </c>
-      <c r="E920" s="8">
+      <c r="E920">
         <v>-113.25</v>
       </c>
     </row>
     <row r="921" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A921" s="7">
+      <c r="A921" s="2">
         <v>45015</v>
       </c>
-      <c r="B921" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C921" s="8" t="s">
+      <c r="B921" t="s">
+        <v>21</v>
+      </c>
+      <c r="C921" t="s">
         <v>181</v>
       </c>
-      <c r="D921" s="8" t="s">
+      <c r="D921" t="s">
         <v>266</v>
       </c>
-      <c r="E921" s="8">
+      <c r="E921">
         <v>-23.1</v>
       </c>
     </row>
     <row r="922" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A922" s="7">
+      <c r="A922" s="2">
         <v>45015</v>
       </c>
-      <c r="B922" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C922" s="8" t="s">
+      <c r="B922" t="s">
+        <v>21</v>
+      </c>
+      <c r="C922" t="s">
         <v>388</v>
       </c>
-      <c r="D922" s="8" t="s">
+      <c r="D922" t="s">
         <v>263</v>
       </c>
-      <c r="E922" s="8">
+      <c r="E922">
         <v>-145</v>
       </c>
     </row>
     <row r="923" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A923" s="7">
+      <c r="A923" s="2">
         <v>45015</v>
       </c>
-      <c r="B923" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C923" s="8" t="s">
+      <c r="B923" t="s">
+        <v>21</v>
+      </c>
+      <c r="C923" t="s">
         <v>205</v>
       </c>
-      <c r="D923" s="8" t="s">
+      <c r="D923" t="s">
         <v>268</v>
       </c>
-      <c r="E923" s="8">
+      <c r="E923">
         <v>-17.79</v>
       </c>
     </row>
     <row r="924" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A924" s="7">
+      <c r="A924" s="2">
         <v>45015</v>
       </c>
-      <c r="B924" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C924" s="8" t="s">
+      <c r="B924" t="s">
+        <v>21</v>
+      </c>
+      <c r="C924" t="s">
         <v>161</v>
       </c>
-      <c r="D924" s="8" t="s">
+      <c r="D924" t="s">
         <v>264</v>
       </c>
-      <c r="E924" s="8">
+      <c r="E924">
         <v>-71.37</v>
       </c>
     </row>
     <row r="925" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A925" s="7">
+      <c r="A925" s="2">
         <v>45016</v>
       </c>
       <c r="B925" t="s">
         <v>7</v>
       </c>
-      <c r="C925" s="8" t="s">
+      <c r="C925" t="s">
         <v>171</v>
       </c>
-      <c r="D925" s="8" t="s">
+      <c r="D925" t="s">
         <v>12</v>
       </c>
       <c r="E925" s="6">
@@ -17457,16 +17480,16 @@
       </c>
     </row>
     <row r="926" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A926" s="7">
+      <c r="A926" s="2">
         <v>45016</v>
       </c>
       <c r="B926" t="s">
         <v>7</v>
       </c>
-      <c r="C926" s="8" t="s">
+      <c r="C926" t="s">
         <v>340</v>
       </c>
-      <c r="D926" s="8" t="s">
+      <c r="D926" t="s">
         <v>266</v>
       </c>
       <c r="E926" s="6">
@@ -17474,16 +17497,16 @@
       </c>
     </row>
     <row r="927" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A927" s="7">
+      <c r="A927" s="2">
         <v>45016</v>
       </c>
       <c r="B927" t="s">
         <v>7</v>
       </c>
-      <c r="C927" s="8" t="s">
+      <c r="C927" t="s">
         <v>171</v>
       </c>
-      <c r="D927" s="8" t="s">
+      <c r="D927" t="s">
         <v>12</v>
       </c>
       <c r="E927" s="6">
@@ -17491,16 +17514,16 @@
       </c>
     </row>
     <row r="928" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A928" s="7">
+      <c r="A928" s="2">
         <v>45016</v>
       </c>
       <c r="B928" t="s">
         <v>7</v>
       </c>
-      <c r="C928" s="8" t="s">
+      <c r="C928" t="s">
         <v>230</v>
       </c>
-      <c r="D928" s="8" t="s">
+      <c r="D928" t="s">
         <v>232</v>
       </c>
       <c r="E928" s="6">
@@ -17508,186 +17531,186 @@
       </c>
     </row>
     <row r="929" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A929" s="7">
+      <c r="A929" s="2">
         <v>45016</v>
       </c>
-      <c r="B929" s="8" t="s">
+      <c r="B929" t="s">
         <v>16</v>
       </c>
-      <c r="C929" s="8" t="s">
+      <c r="C929" t="s">
         <v>169</v>
       </c>
-      <c r="D929" s="8" t="s">
+      <c r="D929" t="s">
         <v>14</v>
       </c>
-      <c r="E929" s="8">
+      <c r="E929">
         <v>0.09</v>
       </c>
     </row>
     <row r="930" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A930" s="7">
+      <c r="A930" s="2">
         <v>45016</v>
       </c>
-      <c r="B930" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C930" s="8" t="s">
+      <c r="B930" t="s">
+        <v>21</v>
+      </c>
+      <c r="C930" t="s">
         <v>157</v>
       </c>
-      <c r="D930" s="8" t="s">
+      <c r="D930" t="s">
         <v>268</v>
       </c>
-      <c r="E930" s="8">
+      <c r="E930">
         <v>-22.32</v>
       </c>
     </row>
     <row r="931" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A931" s="7">
+      <c r="A931" s="2">
         <v>45016</v>
       </c>
-      <c r="B931" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C931" s="8" t="s">
+      <c r="B931" t="s">
+        <v>21</v>
+      </c>
+      <c r="C931" t="s">
         <v>149</v>
       </c>
-      <c r="D931" s="8" t="s">
+      <c r="D931" t="s">
         <v>266</v>
       </c>
-      <c r="E931" s="8">
+      <c r="E931">
         <v>-38.69</v>
       </c>
     </row>
     <row r="932" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A932" s="7">
+      <c r="A932" s="2">
         <v>45016</v>
       </c>
-      <c r="B932" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C932" s="8" t="s">
+      <c r="B932" t="s">
+        <v>21</v>
+      </c>
+      <c r="C932" t="s">
         <v>163</v>
       </c>
-      <c r="D932" s="8" t="s">
+      <c r="D932" t="s">
         <v>264</v>
       </c>
-      <c r="E932" s="8">
+      <c r="E932">
         <v>-22.5</v>
       </c>
     </row>
     <row r="933" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A933" s="7">
+      <c r="A933" s="2">
         <v>45017</v>
       </c>
-      <c r="B933" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C933" s="8" t="s">
+      <c r="B933" t="s">
+        <v>21</v>
+      </c>
+      <c r="C933" t="s">
         <v>152</v>
       </c>
-      <c r="D933" s="8" t="s">
+      <c r="D933" t="s">
         <v>12</v>
       </c>
-      <c r="E933" s="8">
+      <c r="E933">
         <v>-284.48</v>
       </c>
     </row>
     <row r="934" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A934" s="7">
+      <c r="A934" s="2">
         <v>45017</v>
       </c>
-      <c r="B934" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C934" s="8" t="s">
+      <c r="B934" t="s">
+        <v>21</v>
+      </c>
+      <c r="C934" t="s">
         <v>152</v>
       </c>
-      <c r="D934" s="8" t="s">
+      <c r="D934" t="s">
         <v>265</v>
       </c>
-      <c r="E934" s="8">
+      <c r="E934">
         <v>-116.88</v>
       </c>
     </row>
     <row r="935" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A935" s="7">
+      <c r="A935" s="2">
         <v>45017</v>
       </c>
-      <c r="B935" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C935" s="8" t="s">
+      <c r="B935" t="s">
+        <v>21</v>
+      </c>
+      <c r="C935" t="s">
         <v>152</v>
       </c>
-      <c r="D935" s="8" t="s">
+      <c r="D935" t="s">
         <v>266</v>
       </c>
-      <c r="E935" s="8">
+      <c r="E935">
         <v>-75</v>
       </c>
     </row>
     <row r="936" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A936" s="7">
+      <c r="A936" s="2">
         <v>45018</v>
       </c>
-      <c r="B936" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C936" s="8" t="s">
+      <c r="B936" t="s">
+        <v>21</v>
+      </c>
+      <c r="C936" t="s">
         <v>387</v>
       </c>
-      <c r="D936" s="8" t="s">
+      <c r="D936" t="s">
         <v>265</v>
       </c>
-      <c r="E936" s="8">
+      <c r="E936">
         <v>-122.83</v>
       </c>
     </row>
     <row r="937" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A937" s="7">
+      <c r="A937" s="2">
         <v>45018</v>
       </c>
-      <c r="B937" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C937" s="8" t="s">
+      <c r="B937" t="s">
+        <v>21</v>
+      </c>
+      <c r="C937" t="s">
         <v>88</v>
       </c>
-      <c r="D937" s="8" t="s">
+      <c r="D937" t="s">
         <v>264</v>
       </c>
-      <c r="E937" s="8">
+      <c r="E937">
         <v>-25</v>
       </c>
     </row>
     <row r="938" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A938" s="7">
+      <c r="A938" s="2">
         <v>45018</v>
       </c>
-      <c r="B938" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C938" s="8" t="s">
+      <c r="B938" t="s">
+        <v>21</v>
+      </c>
+      <c r="C938" t="s">
         <v>152</v>
       </c>
-      <c r="D938" s="8" t="s">
+      <c r="D938" t="s">
         <v>266</v>
       </c>
-      <c r="E938" s="8">
+      <c r="E938">
         <v>12.49</v>
       </c>
     </row>
     <row r="939" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A939" s="7">
+      <c r="A939" s="2">
         <v>45019</v>
       </c>
       <c r="B939" t="s">
         <v>7</v>
       </c>
-      <c r="C939" s="8" t="s">
+      <c r="C939" t="s">
         <v>6</v>
       </c>
-      <c r="D939" s="8" t="s">
+      <c r="D939" t="s">
         <v>9</v>
       </c>
       <c r="E939" s="6">
@@ -17695,54 +17718,445 @@
       </c>
     </row>
     <row r="940" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A940" s="7">
+      <c r="A940" s="2">
         <v>45019</v>
       </c>
-      <c r="B940" s="8" t="s">
+      <c r="B940" t="s">
         <v>16</v>
       </c>
-      <c r="C940" s="8" t="s">
+      <c r="C940" t="s">
         <v>44</v>
       </c>
-      <c r="D940" s="8" t="s">
+      <c r="D940" t="s">
         <v>269</v>
       </c>
-      <c r="E940" s="8">
+      <c r="E940">
         <v>-300</v>
       </c>
     </row>
     <row r="941" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A941" s="7">
+      <c r="A941" s="2">
         <v>45019</v>
       </c>
-      <c r="B941" s="8" t="s">
+      <c r="B941" t="s">
         <v>16</v>
       </c>
-      <c r="C941" s="8" t="s">
+      <c r="C941" t="s">
         <v>15</v>
       </c>
-      <c r="D941" s="8" t="s">
+      <c r="D941" t="s">
         <v>9</v>
       </c>
-      <c r="E941" s="8">
+      <c r="E941">
         <v>300</v>
       </c>
     </row>
     <row r="942" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A942" s="7">
+      <c r="A942" s="2">
         <v>45019</v>
       </c>
-      <c r="B942" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C942" s="8" t="s">
+      <c r="B942" t="s">
+        <v>21</v>
+      </c>
+      <c r="C942" t="s">
         <v>233</v>
       </c>
-      <c r="D942" s="8" t="s">
+      <c r="D942" t="s">
         <v>12</v>
       </c>
-      <c r="E942" s="8">
+      <c r="E942">
         <v>-29.07</v>
+      </c>
+    </row>
+    <row r="943" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A943" s="2">
+        <v>45019</v>
+      </c>
+      <c r="B943" t="s">
+        <v>21</v>
+      </c>
+      <c r="C943" t="s">
+        <v>156</v>
+      </c>
+      <c r="D943" t="s">
+        <v>266</v>
+      </c>
+      <c r="E943">
+        <v>-113.25</v>
+      </c>
+    </row>
+    <row r="944" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A944" s="2">
+        <v>45020</v>
+      </c>
+      <c r="B944" t="s">
+        <v>7</v>
+      </c>
+      <c r="C944" t="s">
+        <v>203</v>
+      </c>
+      <c r="D944" t="s">
+        <v>10</v>
+      </c>
+      <c r="E944">
+        <v>-181.96</v>
+      </c>
+    </row>
+    <row r="945" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A945" s="2">
+        <v>45020</v>
+      </c>
+      <c r="B945" t="s">
+        <v>7</v>
+      </c>
+      <c r="C945" t="s">
+        <v>390</v>
+      </c>
+      <c r="D945" t="s">
+        <v>394</v>
+      </c>
+      <c r="E945">
+        <v>-1650</v>
+      </c>
+    </row>
+    <row r="946" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A946" s="2">
+        <v>45020</v>
+      </c>
+      <c r="B946" t="s">
+        <v>7</v>
+      </c>
+      <c r="C946" t="s">
+        <v>147</v>
+      </c>
+      <c r="D946" t="s">
+        <v>9</v>
+      </c>
+      <c r="E946">
+        <v>-1650</v>
+      </c>
+    </row>
+    <row r="947" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A947" s="2">
+        <v>45020</v>
+      </c>
+      <c r="B947" t="s">
+        <v>7</v>
+      </c>
+      <c r="C947" t="s">
+        <v>174</v>
+      </c>
+      <c r="D947" t="s">
+        <v>91</v>
+      </c>
+      <c r="E947">
+        <v>-1289.94</v>
+      </c>
+    </row>
+    <row r="948" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A948" s="2">
+        <v>45020</v>
+      </c>
+      <c r="B948" t="s">
+        <v>16</v>
+      </c>
+      <c r="C948" t="s">
+        <v>147</v>
+      </c>
+      <c r="D948" t="s">
+        <v>9</v>
+      </c>
+      <c r="E948">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="949" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A949" s="2">
+        <v>45020</v>
+      </c>
+      <c r="B949" t="s">
+        <v>21</v>
+      </c>
+      <c r="C949" t="s">
+        <v>174</v>
+      </c>
+      <c r="D949" t="s">
+        <v>91</v>
+      </c>
+      <c r="E949">
+        <v>1289.94</v>
+      </c>
+    </row>
+    <row r="950" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A950" s="2">
+        <v>45020</v>
+      </c>
+      <c r="B950" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C950" t="s">
+        <v>53</v>
+      </c>
+      <c r="D950" t="s">
+        <v>54</v>
+      </c>
+      <c r="E950">
+        <v>-105</v>
+      </c>
+    </row>
+    <row r="951" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A951" s="2">
+        <v>45021</v>
+      </c>
+      <c r="B951" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C951" t="s">
+        <v>385</v>
+      </c>
+      <c r="D951" t="s">
+        <v>268</v>
+      </c>
+      <c r="E951">
+        <v>-67.010000000000005</v>
+      </c>
+    </row>
+    <row r="952" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A952" s="2">
+        <v>45021</v>
+      </c>
+      <c r="B952" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C952" t="s">
+        <v>206</v>
+      </c>
+      <c r="D952" t="s">
+        <v>262</v>
+      </c>
+      <c r="E952">
+        <v>-67.08</v>
+      </c>
+    </row>
+    <row r="953" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A953" s="2">
+        <v>45021</v>
+      </c>
+      <c r="B953" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C953" t="s">
+        <v>393</v>
+      </c>
+      <c r="D953" t="s">
+        <v>264</v>
+      </c>
+      <c r="E953">
+        <v>-64.69</v>
+      </c>
+    </row>
+    <row r="954" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A954" s="2">
+        <v>45022</v>
+      </c>
+      <c r="B954" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C954" t="s">
+        <v>318</v>
+      </c>
+      <c r="D954" t="s">
+        <v>310</v>
+      </c>
+      <c r="E954">
+        <v>-173.6</v>
+      </c>
+    </row>
+    <row r="955" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A955" s="2">
+        <v>45022</v>
+      </c>
+      <c r="B955" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C955" t="s">
+        <v>150</v>
+      </c>
+      <c r="D955" t="s">
+        <v>266</v>
+      </c>
+      <c r="E955">
+        <v>-41.45</v>
+      </c>
+    </row>
+    <row r="956" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A956" s="2">
+        <v>45022</v>
+      </c>
+      <c r="B956" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C956" t="s">
+        <v>165</v>
+      </c>
+      <c r="D956" t="s">
+        <v>268</v>
+      </c>
+      <c r="E956">
+        <v>-17.48</v>
+      </c>
+    </row>
+    <row r="957" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A957" s="2">
+        <v>45023</v>
+      </c>
+      <c r="B957" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C957" t="s">
+        <v>392</v>
+      </c>
+      <c r="D957" t="s">
+        <v>90</v>
+      </c>
+      <c r="E957">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="958" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A958" s="2">
+        <v>45024</v>
+      </c>
+      <c r="B958" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C958" t="s">
+        <v>391</v>
+      </c>
+      <c r="D958" t="s">
+        <v>268</v>
+      </c>
+      <c r="E958">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="959" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A959" s="2">
+        <v>45024</v>
+      </c>
+      <c r="B959" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C959" t="s">
+        <v>201</v>
+      </c>
+      <c r="D959" t="s">
+        <v>268</v>
+      </c>
+      <c r="E959">
+        <v>-4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="960" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A960" s="2">
+        <v>45024</v>
+      </c>
+      <c r="B960" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C960" t="s">
+        <v>304</v>
+      </c>
+      <c r="D960" t="s">
+        <v>268</v>
+      </c>
+      <c r="E960">
+        <v>-10.59</v>
+      </c>
+    </row>
+    <row r="961" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A961" s="2">
+        <v>45024</v>
+      </c>
+      <c r="B961" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C961" t="s">
+        <v>378</v>
+      </c>
+      <c r="D961" t="s">
+        <v>268</v>
+      </c>
+      <c r="E961">
+        <v>-4.16</v>
+      </c>
+    </row>
+    <row r="962" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A962" s="2">
+        <v>45025</v>
+      </c>
+      <c r="B962" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C962" t="s">
+        <v>149</v>
+      </c>
+      <c r="D962" t="s">
+        <v>265</v>
+      </c>
+      <c r="E962">
+        <v>-2.99</v>
+      </c>
+    </row>
+    <row r="963" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A963" s="2">
+        <v>45025</v>
+      </c>
+      <c r="B963" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C963" t="s">
+        <v>160</v>
+      </c>
+      <c r="D963" t="s">
+        <v>263</v>
+      </c>
+      <c r="E963">
+        <v>-15.89</v>
+      </c>
+    </row>
+    <row r="964" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A964" s="2">
+        <v>45026</v>
+      </c>
+      <c r="B964" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C964" t="s">
+        <v>106</v>
+      </c>
+      <c r="D964" t="s">
+        <v>265</v>
+      </c>
+      <c r="E964">
+        <v>-36.49</v>
+      </c>
+    </row>
+    <row r="965" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A965" s="2">
+        <v>45026</v>
+      </c>
+      <c r="B965" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C965" t="s">
+        <v>106</v>
+      </c>
+      <c r="D965" t="s">
+        <v>265</v>
+      </c>
+      <c r="E965">
+        <v>6.34</v>
       </c>
     </row>
   </sheetData>
@@ -17758,7 +18172,7 @@
           <x14:formula1>
             <xm:f>OFFSET(Categories!$A$2,0,0,COUNTIF(Categories!$A$2:$A$99,"&lt;&gt;"))</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D942</xm:sqref>
+          <xm:sqref>D2:D965</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -17768,10 +18182,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A85DC7-AAE6-0D45-BE57-A2D20F484BD4}">
-  <dimension ref="A1:A23"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17846,58 +18260,63 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>394</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>266</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>310</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>310</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>263</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>264</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>91</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:A9" xr:uid="{92A85DC7-AAE6-0D45-BE57-A2D20F484BD4}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A23">
-      <sortCondition ref="A1:A23"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A24">
+      <sortCondition ref="A1:A24"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Expenses.xlsx
+++ b/Expenses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffgood/Desktop/R_Studio_Projects/Financial_Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54443CB-B5C2-AC49-BC8C-D865A5185283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AC9600-FC7B-6440-A739-2BC046964D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="980" windowWidth="15420" windowHeight="15800" xr2:uid="{D9F47917-7B20-384C-878F-0D08681ABD47}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14940" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transactions" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2920" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3095" uniqueCount="408">
   <si>
     <t>Date</t>
   </si>
@@ -1225,6 +1226,45 @@
   </si>
   <si>
     <t>Loan_Repayment</t>
+  </si>
+  <si>
+    <t>IRS              USATAXPYMT ***********8946</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Barnes &amp; Noble</t>
+  </si>
+  <si>
+    <t>DSW</t>
+  </si>
+  <si>
+    <t>Dick's Sporting Goods</t>
+  </si>
+  <si>
+    <t>Ohincometx</t>
+  </si>
+  <si>
+    <t>ICPayment</t>
+  </si>
+  <si>
+    <t>Market</t>
+  </si>
+  <si>
+    <t>Ohio Opitest Ohincometx</t>
+  </si>
+  <si>
+    <t>D &amp; M Hanes Inc</t>
+  </si>
+  <si>
+    <t>Hellenic Kouzina</t>
+  </si>
+  <si>
+    <t>Quick Chick</t>
+  </si>
+  <si>
+    <t>Mechani (MODWASH)</t>
   </si>
 </sst>
 </file>
@@ -1308,7 +1348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1317,6 +1357,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1393,17 +1437,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}" name="Table1" displayName="Table1" ref="A1:E965" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E965" xr:uid="{873B626F-84B1-204D-BA29-18F956DFEC2E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E965">
-    <sortCondition ref="A1:A965"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E1023" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E1023" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E1023">
+    <sortCondition ref="A1:A1023"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{36D6B367-4586-164A-BAFD-F61BD8D7B0D8}" name="Date" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{163A618F-4E2A-CF42-8DEE-891E741B2D57}" name="Source" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{49FF6B6D-B6DF-3C46-990B-4A21BE1D1B1E}" name="Transaction" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{84AF5D09-AAE0-8848-B5A8-C38A5769933E}" name="Category" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{0A1EF426-6D1D-AF40-9C65-9FAE6E780C77}" name="Amount" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Source" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Transaction" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Category" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Amount" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1705,14 +1749,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BEBEFE-BF8C-CE41-8907-E9633ACA1DDB}">
-  <dimension ref="A1:E965"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E1023"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A942" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D946" sqref="D946"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1024" sqref="C1024"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.83203125" bestFit="1" customWidth="1"/>
@@ -18127,36 +18171,1022 @@
     </row>
     <row r="964" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A964" s="2">
-        <v>45026</v>
+        <v>45025</v>
       </c>
       <c r="B964" s="7" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C964" t="s">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="D964" t="s">
         <v>265</v>
       </c>
       <c r="E964">
-        <v>-36.49</v>
+        <v>-93.19</v>
       </c>
     </row>
     <row r="965" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A965" s="2">
+        <v>45025</v>
+      </c>
+      <c r="B965" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C965" t="s">
+        <v>149</v>
+      </c>
+      <c r="D965" t="s">
+        <v>263</v>
+      </c>
+      <c r="E965">
+        <v>-2.99</v>
+      </c>
+    </row>
+    <row r="966" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A966" s="2">
+        <v>45025</v>
+      </c>
+      <c r="B966" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C966" t="s">
+        <v>160</v>
+      </c>
+      <c r="D966" t="s">
+        <v>263</v>
+      </c>
+      <c r="E966">
+        <v>-15.89</v>
+      </c>
+    </row>
+    <row r="967" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A967" s="2">
         <v>45026</v>
       </c>
-      <c r="B965" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C965" t="s">
+      <c r="B967" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C967" t="s">
         <v>106</v>
       </c>
-      <c r="D965" t="s">
+      <c r="D967" t="s">
         <v>265</v>
       </c>
-      <c r="E965">
+      <c r="E967">
+        <v>-36.49</v>
+      </c>
+    </row>
+    <row r="968" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A968" s="2">
+        <v>45026</v>
+      </c>
+      <c r="B968" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C968" t="s">
+        <v>106</v>
+      </c>
+      <c r="D968" t="s">
+        <v>265</v>
+      </c>
+      <c r="E968">
         <v>6.34</v>
+      </c>
+    </row>
+    <row r="969" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A969" s="2">
+        <v>45026</v>
+      </c>
+      <c r="B969" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C969" t="s">
+        <v>157</v>
+      </c>
+      <c r="D969" t="s">
+        <v>268</v>
+      </c>
+      <c r="E969">
+        <v>-28.04</v>
+      </c>
+    </row>
+    <row r="970" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A970" s="2">
+        <v>45026</v>
+      </c>
+      <c r="B970" t="s">
+        <v>21</v>
+      </c>
+      <c r="C970" t="s">
+        <v>216</v>
+      </c>
+      <c r="D970" t="s">
+        <v>268</v>
+      </c>
+      <c r="E970">
+        <v>-30.84</v>
+      </c>
+    </row>
+    <row r="971" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A971" s="2">
+        <v>45026</v>
+      </c>
+      <c r="B971" t="s">
+        <v>21</v>
+      </c>
+      <c r="C971" t="s">
+        <v>159</v>
+      </c>
+      <c r="D971" t="s">
+        <v>12</v>
+      </c>
+      <c r="E971">
+        <v>-117.99</v>
+      </c>
+    </row>
+    <row r="972" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A972" s="2">
+        <v>45026</v>
+      </c>
+      <c r="B972" t="s">
+        <v>21</v>
+      </c>
+      <c r="C972" t="s">
+        <v>51</v>
+      </c>
+      <c r="D972" t="s">
+        <v>12</v>
+      </c>
+      <c r="E972">
+        <v>-79.78</v>
+      </c>
+    </row>
+    <row r="973" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A973" s="2">
+        <v>45027</v>
+      </c>
+      <c r="B973" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C973" t="s">
+        <v>174</v>
+      </c>
+      <c r="D973" t="s">
+        <v>91</v>
+      </c>
+      <c r="E973">
+        <v>-786.41</v>
+      </c>
+    </row>
+    <row r="974" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A974" s="2">
+        <v>45027</v>
+      </c>
+      <c r="B974" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C974" t="s">
+        <v>214</v>
+      </c>
+      <c r="D974" t="s">
+        <v>32</v>
+      </c>
+      <c r="E974">
+        <v>379.7</v>
+      </c>
+    </row>
+    <row r="975" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A975" s="2">
+        <v>45027</v>
+      </c>
+      <c r="B975" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C975" t="s">
+        <v>174</v>
+      </c>
+      <c r="D975" t="s">
+        <v>91</v>
+      </c>
+      <c r="E975">
+        <v>786.41</v>
+      </c>
+    </row>
+    <row r="976" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A976" s="2">
+        <v>45027</v>
+      </c>
+      <c r="B976" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C976" t="s">
+        <v>399</v>
+      </c>
+      <c r="D976" t="s">
+        <v>263</v>
+      </c>
+      <c r="E976">
+        <v>-174.41</v>
+      </c>
+    </row>
+    <row r="977" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A977" s="2">
+        <v>45027</v>
+      </c>
+      <c r="B977" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C977" t="s">
+        <v>156</v>
+      </c>
+      <c r="D977" t="s">
+        <v>266</v>
+      </c>
+      <c r="E977">
+        <v>-62.56</v>
+      </c>
+    </row>
+    <row r="978" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A978" s="2">
+        <v>45027</v>
+      </c>
+      <c r="B978" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C978" t="s">
+        <v>221</v>
+      </c>
+      <c r="D978" t="s">
+        <v>265</v>
+      </c>
+      <c r="E978">
+        <v>-46.82</v>
+      </c>
+    </row>
+    <row r="979" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A979" s="2">
+        <v>45027</v>
+      </c>
+      <c r="B979" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C979" t="s">
+        <v>53</v>
+      </c>
+      <c r="D979" t="s">
+        <v>54</v>
+      </c>
+      <c r="E979">
+        <v>-105</v>
+      </c>
+    </row>
+    <row r="980" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A980" s="2">
+        <v>45028</v>
+      </c>
+      <c r="B980" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C980" t="s">
+        <v>170</v>
+      </c>
+      <c r="D980" t="s">
+        <v>32</v>
+      </c>
+      <c r="E980">
+        <v>3102.85</v>
+      </c>
+    </row>
+    <row r="981" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A981" s="2">
+        <v>45028</v>
+      </c>
+      <c r="B981" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C981" t="s">
+        <v>151</v>
+      </c>
+      <c r="D981" t="s">
+        <v>265</v>
+      </c>
+      <c r="E981">
+        <v>-63.75</v>
+      </c>
+    </row>
+    <row r="982" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A982" s="2">
+        <v>45028</v>
+      </c>
+      <c r="B982" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C982" t="s">
+        <v>398</v>
+      </c>
+      <c r="D982" t="s">
+        <v>266</v>
+      </c>
+      <c r="E982">
+        <v>-35.380000000000003</v>
+      </c>
+    </row>
+    <row r="983" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A983" s="2">
+        <v>45028</v>
+      </c>
+      <c r="B983" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C983" t="s">
+        <v>160</v>
+      </c>
+      <c r="D983" t="s">
+        <v>263</v>
+      </c>
+      <c r="E983">
+        <v>-14.83</v>
+      </c>
+    </row>
+    <row r="984" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A984" s="2">
+        <v>45028</v>
+      </c>
+      <c r="B984" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C984" t="s">
+        <v>180</v>
+      </c>
+      <c r="D984" t="s">
+        <v>12</v>
+      </c>
+      <c r="E984">
+        <v>-26.28</v>
+      </c>
+    </row>
+    <row r="985" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A985" s="2">
+        <v>45028</v>
+      </c>
+      <c r="B985" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C985" t="s">
+        <v>156</v>
+      </c>
+      <c r="D985" t="s">
+        <v>266</v>
+      </c>
+      <c r="E985">
+        <v>56.55</v>
+      </c>
+    </row>
+    <row r="986" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A986" s="2">
+        <v>45029</v>
+      </c>
+      <c r="B986" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C986" t="s">
+        <v>398</v>
+      </c>
+      <c r="D986" t="s">
+        <v>266</v>
+      </c>
+      <c r="E986">
+        <v>-28.79</v>
+      </c>
+    </row>
+    <row r="987" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A987" s="2">
+        <v>45029</v>
+      </c>
+      <c r="B987" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C987" t="s">
+        <v>165</v>
+      </c>
+      <c r="D987" t="s">
+        <v>268</v>
+      </c>
+      <c r="E987">
+        <v>-25.26</v>
+      </c>
+    </row>
+    <row r="988" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A988" s="2">
+        <v>45030</v>
+      </c>
+      <c r="B988" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C988" t="s">
+        <v>169</v>
+      </c>
+      <c r="D988" t="s">
+        <v>14</v>
+      </c>
+      <c r="E988">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="989" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A989" s="2">
+        <v>45030</v>
+      </c>
+      <c r="B989" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C989" t="s">
+        <v>398</v>
+      </c>
+      <c r="D989" t="s">
+        <v>266</v>
+      </c>
+      <c r="E989">
+        <v>-28.78</v>
+      </c>
+    </row>
+    <row r="990" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A990" s="2">
+        <v>45030</v>
+      </c>
+      <c r="B990" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C990" t="s">
+        <v>282</v>
+      </c>
+      <c r="D990" t="s">
+        <v>266</v>
+      </c>
+      <c r="E990">
+        <v>-74.400000000000006</v>
+      </c>
+    </row>
+    <row r="991" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A991" s="2">
+        <v>45031</v>
+      </c>
+      <c r="B991" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C991" t="s">
+        <v>397</v>
+      </c>
+      <c r="D991" t="s">
+        <v>263</v>
+      </c>
+      <c r="E991">
+        <v>-15.84</v>
+      </c>
+    </row>
+    <row r="992" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A992" s="2">
+        <v>45031</v>
+      </c>
+      <c r="B992" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C992" t="s">
+        <v>378</v>
+      </c>
+      <c r="D992" t="s">
+        <v>268</v>
+      </c>
+      <c r="E992">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="993" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A993" s="2">
+        <v>45031</v>
+      </c>
+      <c r="B993" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C993" t="s">
+        <v>391</v>
+      </c>
+      <c r="D993" t="s">
+        <v>268</v>
+      </c>
+      <c r="E993">
+        <v>-6.5</v>
+      </c>
+    </row>
+    <row r="994" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A994" s="2">
+        <v>45032</v>
+      </c>
+      <c r="B994" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C994" t="s">
+        <v>282</v>
+      </c>
+      <c r="D994" t="s">
+        <v>266</v>
+      </c>
+      <c r="E994">
+        <v>-73.88</v>
+      </c>
+    </row>
+    <row r="995" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A995" s="8">
+        <v>45032</v>
+      </c>
+      <c r="B995" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C995" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="D995" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E995" s="9">
+        <v>-44.51</v>
+      </c>
+    </row>
+    <row r="996" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A996" s="2">
+        <v>45033</v>
+      </c>
+      <c r="B996" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C996" t="s">
+        <v>395</v>
+      </c>
+      <c r="D996" t="s">
+        <v>396</v>
+      </c>
+      <c r="E996">
+        <v>-2100</v>
+      </c>
+    </row>
+    <row r="997" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A997" s="2">
+        <v>45033</v>
+      </c>
+      <c r="B997" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C997" t="s">
+        <v>44</v>
+      </c>
+      <c r="D997" t="s">
+        <v>269</v>
+      </c>
+      <c r="E997">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="998" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A998" s="2">
+        <v>45033</v>
+      </c>
+      <c r="B998" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C998" t="s">
+        <v>15</v>
+      </c>
+      <c r="D998" t="s">
+        <v>9</v>
+      </c>
+      <c r="E998">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="999" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A999" s="8">
+        <v>45033</v>
+      </c>
+      <c r="B999" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C999" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="D999" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E999" s="9">
+        <v>-814.04</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1000" s="8">
+        <v>45033</v>
+      </c>
+      <c r="B1000" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1000" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1000" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1000" s="9">
+        <v>-208.44</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1001" s="8">
+        <v>45033</v>
+      </c>
+      <c r="B1001" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1001" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1001" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1001" s="9">
+        <v>-38.979999999999997</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1002" s="8">
+        <v>45033</v>
+      </c>
+      <c r="B1002" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1002" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1002" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1002" s="9">
+        <v>-95.74</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1003" s="8">
+        <v>45033</v>
+      </c>
+      <c r="B1003" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1003" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1003" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1003" s="9">
+        <v>-54.98</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1004" s="8">
+        <v>45033</v>
+      </c>
+      <c r="B1004" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1004" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1004" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1004" s="9">
+        <v>-166.28</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1005" s="8">
+        <v>45033</v>
+      </c>
+      <c r="B1005" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1005" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1005" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1005" s="9">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1006" s="8">
+        <v>45033</v>
+      </c>
+      <c r="B1006" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1006" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="D1006" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1006" s="9">
+        <v>-42.5</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1007" s="8">
+        <v>45033</v>
+      </c>
+      <c r="B1007" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1007" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1007" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1007" s="9">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1008" s="8">
+        <v>45033</v>
+      </c>
+      <c r="B1008" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1008" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1008" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1008" s="9">
+        <v>208.44</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1009" s="8">
+        <v>45033</v>
+      </c>
+      <c r="B1009" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1009" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="D1009" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1009" s="9">
+        <v>-25.41</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1010" s="8">
+        <v>45033</v>
+      </c>
+      <c r="B1010" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1010" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1010" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1010" s="9">
+        <v>-65.67</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1011" s="8">
+        <v>45034</v>
+      </c>
+      <c r="B1011" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1011" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1011" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1011" s="9">
+        <v>-847.18</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1012" s="8">
+        <v>45034</v>
+      </c>
+      <c r="B1012" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1012" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="D1012" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1012" s="9">
+        <v>-768</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1013" s="8">
+        <v>45034</v>
+      </c>
+      <c r="B1013" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1013" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1013" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1013" s="9">
+        <v>-105</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1014" s="8">
+        <v>45034</v>
+      </c>
+      <c r="B1014" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1014" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="D1014" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1014" s="9">
+        <v>-30.48</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1015" s="8">
+        <v>45034</v>
+      </c>
+      <c r="B1015" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1015" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1015" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1015" s="9">
+        <v>-10.59</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1016" s="8">
+        <v>45034</v>
+      </c>
+      <c r="B1016" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1016" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="D1016" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E1016" s="9">
+        <v>-327.61</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1017" s="8">
+        <v>45035</v>
+      </c>
+      <c r="B1017" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1017" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="D1017" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1017" s="9">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1018" s="8">
+        <v>45035</v>
+      </c>
+      <c r="B1018" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1018" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1018" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1018" s="9">
+        <v>-22.34</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1019" s="8">
+        <v>45035</v>
+      </c>
+      <c r="B1019" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1019" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="D1019" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1019" s="9">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1020" s="8">
+        <v>45035</v>
+      </c>
+      <c r="B1020" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1020" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1020" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1020" s="9">
+        <v>-54.16</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1021" s="8">
+        <v>45036</v>
+      </c>
+      <c r="B1021" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1021" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="D1021" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E1021" s="9">
+        <v>-16.25</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1022" s="8">
+        <v>45036</v>
+      </c>
+      <c r="B1022" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1022" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1022" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1022" s="9">
+        <v>-39.99</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1023" s="8">
+        <v>45037</v>
+      </c>
+      <c r="B1023" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1023" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="D1023" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1023" s="9">
+        <v>63.6</v>
       </c>
     </row>
   </sheetData>
@@ -18168,11 +19198,11 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2CC4E65F-6742-3441-B8A5-210F2912AB41}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>OFFSET(Categories!$A$2,0,0,COUNTIF(Categories!$A$2:$A$99,"&lt;&gt;"))</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D965</xm:sqref>
+          <xm:sqref>D2:D1023</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -18181,14 +19211,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A85DC7-AAE6-0D45-BE57-A2D20F484BD4}">
-  <dimension ref="A1:A24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
   </cols>
@@ -18305,18 +19335,23 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>264</v>
+        <v>396</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>91</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A9" xr:uid="{92A85DC7-AAE6-0D45-BE57-A2D20F484BD4}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A24">
-      <sortCondition ref="A1:A24"/>
+  <autoFilter ref="A1:A9" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A25">
+      <sortCondition ref="A1:A9"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Expenses.xlsx
+++ b/Expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffgood/Desktop/R_Studio_Projects/Financial_Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AC9600-FC7B-6440-A739-2BC046964D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39A8B6B-E74A-204A-802A-8FE39AFB9E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="14940" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3095" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3209" uniqueCount="417">
   <si>
     <t>Date</t>
   </si>
@@ -1265,6 +1265,33 @@
   </si>
   <si>
     <t>Mechani (MODWASH)</t>
+  </si>
+  <si>
+    <t>Federal Tax Refund</t>
+  </si>
+  <si>
+    <t>MCALISTERS #103982       HARRISBURG   PA</t>
+  </si>
+  <si>
+    <t>COSTCO WHSE #0327        HARRISBURG   PA</t>
+  </si>
+  <si>
+    <t>SEPHORA SHOPS AT SUSQU   HARRISBURG   PA</t>
+  </si>
+  <si>
+    <t>Hulu 877-8244858 CA      HULU.COM/BILLCA</t>
+  </si>
+  <si>
+    <t>Tykes Teens</t>
+  </si>
+  <si>
+    <t>Jersey Mike's Subs</t>
+  </si>
+  <si>
+    <t>Stauffers of Kissel</t>
+  </si>
+  <si>
+    <t>iHerb.com</t>
   </si>
 </sst>
 </file>
@@ -1348,7 +1375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1357,10 +1384,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1437,10 +1460,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E1023" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E1023" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E1023">
-    <sortCondition ref="A1:A1023"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E1061" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E1061" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E1061">
+    <sortCondition ref="A1:A1061"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="4"/>
@@ -1750,10 +1773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1023"/>
+  <dimension ref="A1:E1061"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1024" sqref="C1024"/>
+    <sheetView tabSelected="1" topLeftCell="A973" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E980" sqref="E980"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18697,19 +18720,19 @@
       </c>
     </row>
     <row r="995" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A995" s="8">
+      <c r="A995" s="2">
         <v>45032</v>
       </c>
-      <c r="B995" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C995" s="9" t="s">
+      <c r="B995" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C995" t="s">
         <v>407</v>
       </c>
-      <c r="D995" s="9" t="s">
+      <c r="D995" t="s">
         <v>264</v>
       </c>
-      <c r="E995" s="9">
+      <c r="E995">
         <v>-44.51</v>
       </c>
     </row>
@@ -18765,428 +18788,1074 @@
       </c>
     </row>
     <row r="999" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A999" s="8">
+      <c r="A999" s="2">
         <v>45033</v>
       </c>
       <c r="B999" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C999" s="9" t="s">
+      <c r="C999" t="s">
         <v>401</v>
       </c>
-      <c r="D999" s="9" t="s">
+      <c r="D999" t="s">
         <v>264</v>
       </c>
-      <c r="E999" s="9">
+      <c r="E999">
         <v>-814.04</v>
       </c>
     </row>
     <row r="1000" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1000" s="8">
+      <c r="A1000" s="2">
         <v>45033</v>
       </c>
       <c r="B1000" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C1000" s="9" t="s">
+      <c r="C1000" t="s">
         <v>171</v>
       </c>
-      <c r="D1000" s="9" t="s">
+      <c r="D1000" t="s">
         <v>266</v>
       </c>
-      <c r="E1000" s="9">
+      <c r="E1000">
         <v>-208.44</v>
       </c>
     </row>
     <row r="1001" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1001" s="8">
+      <c r="A1001" s="2">
         <v>45033</v>
       </c>
       <c r="B1001" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C1001" s="9" t="s">
+      <c r="C1001" t="s">
         <v>171</v>
       </c>
-      <c r="D1001" s="9" t="s">
+      <c r="D1001" t="s">
         <v>265</v>
       </c>
-      <c r="E1001" s="9">
+      <c r="E1001">
         <v>-38.979999999999997</v>
       </c>
     </row>
     <row r="1002" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1002" s="8">
+      <c r="A1002" s="2">
         <v>45033</v>
       </c>
       <c r="B1002" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C1002" s="9" t="s">
+      <c r="C1002" t="s">
         <v>171</v>
       </c>
-      <c r="D1002" s="9" t="s">
+      <c r="D1002" t="s">
         <v>266</v>
       </c>
-      <c r="E1002" s="9">
+      <c r="E1002">
         <v>-95.74</v>
       </c>
     </row>
     <row r="1003" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1003" s="8">
+      <c r="A1003" s="2">
         <v>45033</v>
       </c>
       <c r="B1003" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C1003" s="9" t="s">
+      <c r="C1003" t="s">
         <v>171</v>
       </c>
-      <c r="D1003" s="9" t="s">
+      <c r="D1003" t="s">
         <v>12</v>
       </c>
-      <c r="E1003" s="9">
+      <c r="E1003">
         <v>-54.98</v>
       </c>
     </row>
     <row r="1004" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1004" s="8">
+      <c r="A1004" s="2">
         <v>45033</v>
       </c>
       <c r="B1004" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C1004" s="9" t="s">
+      <c r="C1004" t="s">
         <v>171</v>
       </c>
-      <c r="D1004" s="9" t="s">
+      <c r="D1004" t="s">
         <v>266</v>
       </c>
-      <c r="E1004" s="9">
+      <c r="E1004">
         <v>-166.28</v>
       </c>
     </row>
     <row r="1005" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1005" s="8">
+      <c r="A1005" s="2">
         <v>45033</v>
       </c>
       <c r="B1005" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C1005" s="9" t="s">
+      <c r="C1005" t="s">
         <v>147</v>
       </c>
-      <c r="D1005" s="9" t="s">
+      <c r="D1005" t="s">
         <v>9</v>
       </c>
-      <c r="E1005" s="9">
+      <c r="E1005">
         <v>-300</v>
       </c>
     </row>
     <row r="1006" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1006" s="8">
+      <c r="A1006" s="2">
         <v>45033</v>
       </c>
       <c r="B1006" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C1006" s="9" t="s">
+      <c r="C1006" t="s">
         <v>402</v>
       </c>
-      <c r="D1006" s="9" t="s">
+      <c r="D1006" t="s">
         <v>14</v>
       </c>
-      <c r="E1006" s="9">
+      <c r="E1006">
         <v>-42.5</v>
       </c>
     </row>
     <row r="1007" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1007" s="8">
+      <c r="A1007" s="2">
         <v>45033</v>
       </c>
       <c r="B1007" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C1007" s="9" t="s">
+      <c r="C1007" t="s">
         <v>183</v>
       </c>
-      <c r="D1007" s="9" t="s">
+      <c r="D1007" t="s">
         <v>14</v>
       </c>
-      <c r="E1007" s="9">
+      <c r="E1007">
         <v>2.5</v>
       </c>
     </row>
     <row r="1008" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1008" s="8">
+      <c r="A1008" s="2">
         <v>45033</v>
       </c>
       <c r="B1008" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C1008" s="9" t="s">
+      <c r="C1008" t="s">
         <v>171</v>
       </c>
-      <c r="D1008" s="9" t="s">
+      <c r="D1008" t="s">
         <v>266</v>
       </c>
-      <c r="E1008" s="9">
+      <c r="E1008">
         <v>208.44</v>
       </c>
     </row>
     <row r="1009" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1009" s="8">
+      <c r="A1009" s="2">
         <v>45033</v>
       </c>
-      <c r="B1009" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1009" s="9" t="s">
+      <c r="B1009" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1009" t="s">
         <v>406</v>
       </c>
-      <c r="D1009" s="9" t="s">
+      <c r="D1009" t="s">
         <v>268</v>
       </c>
-      <c r="E1009" s="9">
+      <c r="E1009">
         <v>-25.41</v>
       </c>
     </row>
     <row r="1010" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1010" s="8">
+      <c r="A1010" s="2">
         <v>45033</v>
       </c>
-      <c r="B1010" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1010" s="9" t="s">
+      <c r="B1010" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1010" t="s">
         <v>161</v>
       </c>
-      <c r="D1010" s="9" t="s">
+      <c r="D1010" t="s">
         <v>264</v>
       </c>
-      <c r="E1010" s="9">
+      <c r="E1010">
         <v>-65.67</v>
       </c>
     </row>
     <row r="1011" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1011" s="8">
+      <c r="A1011" s="2">
         <v>45034</v>
       </c>
-      <c r="B1011" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1011" s="9" t="s">
+      <c r="B1011" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1011" t="s">
         <v>198</v>
       </c>
-      <c r="D1011" s="9" t="s">
+      <c r="D1011" t="s">
         <v>92</v>
       </c>
-      <c r="E1011" s="9">
+      <c r="E1011">
         <v>-847.18</v>
       </c>
     </row>
     <row r="1012" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1012" s="8">
+      <c r="A1012" s="2">
         <v>45034</v>
       </c>
-      <c r="B1012" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1012" s="9" t="s">
+      <c r="B1012" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1012" t="s">
         <v>400</v>
       </c>
-      <c r="D1012" s="9" t="s">
+      <c r="D1012" t="s">
         <v>396</v>
       </c>
-      <c r="E1012" s="9">
+      <c r="E1012">
         <v>-768</v>
       </c>
     </row>
     <row r="1013" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1013" s="8">
+      <c r="A1013" s="2">
         <v>45034</v>
       </c>
-      <c r="B1013" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1013" s="9" t="s">
+      <c r="B1013" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1013" t="s">
         <v>53</v>
       </c>
-      <c r="D1013" s="9" t="s">
+      <c r="D1013" t="s">
         <v>54</v>
       </c>
-      <c r="E1013" s="9">
+      <c r="E1013">
         <v>-105</v>
       </c>
     </row>
     <row r="1014" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1014" s="8">
+      <c r="A1014" s="2">
         <v>45034</v>
       </c>
-      <c r="B1014" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1014" s="9" t="s">
+      <c r="B1014" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1014" t="s">
         <v>405</v>
       </c>
-      <c r="D1014" s="9" t="s">
+      <c r="D1014" t="s">
         <v>268</v>
       </c>
-      <c r="E1014" s="9">
+      <c r="E1014">
         <v>-30.48</v>
       </c>
     </row>
     <row r="1015" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1015" s="8">
+      <c r="A1015" s="2">
         <v>45034</v>
       </c>
-      <c r="B1015" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1015" s="9" t="s">
+      <c r="B1015" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1015" t="s">
         <v>160</v>
       </c>
-      <c r="D1015" s="9" t="s">
+      <c r="D1015" t="s">
         <v>263</v>
       </c>
-      <c r="E1015" s="9">
+      <c r="E1015">
         <v>-10.59</v>
       </c>
     </row>
     <row r="1016" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1016" s="8">
+      <c r="A1016" s="2">
         <v>45034</v>
       </c>
-      <c r="B1016" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1016" s="9" t="s">
+      <c r="B1016" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1016" t="s">
         <v>351</v>
       </c>
-      <c r="D1016" s="9" t="s">
+      <c r="D1016" t="s">
         <v>310</v>
       </c>
-      <c r="E1016" s="9">
+      <c r="E1016">
         <v>-327.61</v>
       </c>
     </row>
     <row r="1017" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1017" s="8">
+      <c r="A1017" s="2">
         <v>45035</v>
       </c>
-      <c r="B1017" s="9" t="s">
+      <c r="B1017" t="s">
         <v>16</v>
       </c>
-      <c r="C1017" s="9" t="s">
+      <c r="C1017" t="s">
         <v>403</v>
       </c>
-      <c r="D1017" s="9" t="s">
+      <c r="D1017" t="s">
         <v>396</v>
       </c>
-      <c r="E1017" s="9">
+      <c r="E1017">
         <v>-200</v>
       </c>
     </row>
     <row r="1018" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1018" s="8">
+      <c r="A1018" s="2">
         <v>45035</v>
       </c>
-      <c r="B1018" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1018" s="9" t="s">
+      <c r="B1018" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1018" t="s">
         <v>51</v>
       </c>
-      <c r="D1018" s="9" t="s">
+      <c r="D1018" t="s">
         <v>12</v>
       </c>
-      <c r="E1018" s="9">
+      <c r="E1018">
         <v>-22.34</v>
       </c>
     </row>
     <row r="1019" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1019" s="8">
+      <c r="A1019" s="2">
         <v>45035</v>
       </c>
-      <c r="B1019" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1019" s="9" t="s">
+      <c r="B1019" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1019" t="s">
         <v>404</v>
       </c>
-      <c r="D1019" s="9" t="s">
+      <c r="D1019" t="s">
         <v>12</v>
       </c>
-      <c r="E1019" s="9">
+      <c r="E1019">
         <v>-35</v>
       </c>
     </row>
     <row r="1020" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1020" s="8">
+      <c r="A1020" s="2">
         <v>45035</v>
       </c>
-      <c r="B1020" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1020" s="9" t="s">
+      <c r="B1020" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1020" t="s">
         <v>165</v>
       </c>
-      <c r="D1020" s="9" t="s">
+      <c r="D1020" t="s">
         <v>268</v>
       </c>
-      <c r="E1020" s="9">
+      <c r="E1020">
         <v>-54.16</v>
       </c>
     </row>
     <row r="1021" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1021" s="8">
+      <c r="A1021" s="2">
         <v>45036</v>
       </c>
-      <c r="B1021" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1021" s="9" t="s">
+      <c r="B1021" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1021" t="s">
         <v>351</v>
       </c>
-      <c r="D1021" s="9" t="s">
+      <c r="D1021" t="s">
         <v>310</v>
       </c>
-      <c r="E1021" s="9">
+      <c r="E1021">
         <v>-16.25</v>
       </c>
     </row>
     <row r="1022" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1022" s="8">
+      <c r="A1022" s="2">
         <v>45036</v>
       </c>
-      <c r="B1022" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1022" s="9" t="s">
+      <c r="B1022" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1022" t="s">
         <v>195</v>
       </c>
-      <c r="D1022" s="9" t="s">
+      <c r="D1022" t="s">
         <v>265</v>
       </c>
-      <c r="E1022" s="9">
+      <c r="E1022">
         <v>-39.99</v>
       </c>
     </row>
     <row r="1023" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1023" s="8">
+      <c r="A1023" s="2">
         <v>45037</v>
       </c>
-      <c r="B1023" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1023" s="9" t="s">
+      <c r="B1023" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1023" t="s">
         <v>282</v>
       </c>
-      <c r="D1023" s="9" t="s">
+      <c r="D1023" t="s">
         <v>266</v>
       </c>
-      <c r="E1023" s="9">
+      <c r="E1023">
         <v>63.6</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1024" s="2">
+        <v>45038</v>
+      </c>
+      <c r="B1024" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1024" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1024" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1024">
+        <v>-71.38</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1025" s="2">
+        <v>45038</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1025" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1025" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1025">
+        <v>-100.72</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1026" s="2">
+        <v>45038</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1026" t="s">
+        <v>415</v>
+      </c>
+      <c r="D1026" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1026">
+        <v>-8.4700000000000006</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1027" s="2">
+        <v>45038</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1027" t="s">
+        <v>416</v>
+      </c>
+      <c r="D1027" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1027">
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1028" s="2">
+        <v>45038</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1028" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1028" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1028">
+        <v>-85.98</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1029" s="2">
+        <v>45038</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1029" t="s">
+        <v>391</v>
+      </c>
+      <c r="D1029" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1029">
+        <v>-12.65</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1030" s="2">
+        <v>45038</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1030" t="s">
+        <v>282</v>
+      </c>
+      <c r="D1030" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1030">
+        <v>-29.11</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1031" s="2">
+        <v>45039</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1031" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1031" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1031">
+        <v>-20.05</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1032" s="2">
+        <v>45039</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1032" t="s">
+        <v>221</v>
+      </c>
+      <c r="D1032" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1032">
+        <v>-128.19</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1033" s="2">
+        <v>45040</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1033" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1033" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1033">
+        <v>-77.61</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1034" s="2">
+        <v>45040</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1034" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1034" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1034">
+        <v>-25.17</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1035" s="2">
+        <v>45040</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1035" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1035" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1035">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1036" s="2">
+        <v>45040</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1036" t="s">
+        <v>227</v>
+      </c>
+      <c r="D1036" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1036">
+        <v>-149.9</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1037" s="2">
+        <v>45041</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1037" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1037" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1037">
+        <v>-22.3</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1038" s="2">
+        <v>45041</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1038" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1038" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1038">
+        <v>25.16</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1039" s="2">
+        <v>45041</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1039" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1039" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1039">
+        <v>-15.44</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1040" s="2">
+        <v>45041</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1040" t="s">
+        <v>282</v>
+      </c>
+      <c r="D1040" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1040">
+        <v>-218.91</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1041" s="2">
+        <v>45041</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1041" t="s">
+        <v>282</v>
+      </c>
+      <c r="D1041" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1041">
+        <v>-44</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1042" s="2">
+        <v>45041</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1042" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1042" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1042">
+        <v>-105</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1043" s="2">
+        <v>45042</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1043" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1043" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1043">
+        <v>-9.48</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1044" s="2">
+        <v>45042</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1044" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1044" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1044">
+        <v>-33.700000000000003</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1045" s="2">
+        <v>45043</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1045" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1045" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1045">
+        <v>3102.3</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1046" s="2">
+        <v>45043</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1046" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1046" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1046">
+        <v>-78.2</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1047" s="2">
+        <v>45043</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1047" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1047" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1047">
+        <v>-23.1</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1048" s="2">
+        <v>45044</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1048" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1048" t="s">
+        <v>232</v>
+      </c>
+      <c r="E1048">
+        <v>3870</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1049" s="2">
+        <v>45044</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1049" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1049" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1049">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1050" s="2">
+        <v>45044</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1050" t="s">
+        <v>412</v>
+      </c>
+      <c r="D1050" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1050">
+        <v>-16.11</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1051" s="2">
+        <v>45044</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1051" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1051" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1051">
+        <v>-87.32</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1052" s="2">
+        <v>45045</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1052" t="s">
+        <v>410</v>
+      </c>
+      <c r="D1052" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1052">
+        <v>-0.73</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1053" s="2">
+        <v>45045</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1053" t="s">
+        <v>410</v>
+      </c>
+      <c r="D1053" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1053">
+        <v>-4.22</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1054" s="2">
+        <v>45045</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1054" t="s">
+        <v>410</v>
+      </c>
+      <c r="D1054" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1054">
+        <v>-192.3</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1055" s="2">
+        <v>45045</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1055" t="s">
+        <v>410</v>
+      </c>
+      <c r="D1055" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1055">
+        <v>-46.38</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1056" s="2">
+        <v>45045</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1056" t="s">
+        <v>411</v>
+      </c>
+      <c r="D1056" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1056">
+        <v>-16.96</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1057" s="2">
+        <v>45045</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1057" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1057" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1057">
+        <v>-9.99</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1058" s="2">
+        <v>45046</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1058" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1058" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1058">
+        <v>-14.39</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1059" s="2">
+        <v>45046</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1059" t="s">
+        <v>410</v>
+      </c>
+      <c r="D1059" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1059">
+        <v>31.99</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1060" s="2">
+        <v>45047</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1060" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1060" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1060">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1061" s="2">
+        <v>45047</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1061" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1061" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1061">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -19202,7 +19871,7 @@
           <x14:formula1>
             <xm:f>OFFSET(Categories!$A$2,0,0,COUNTIF(Categories!$A$2:$A$99,"&lt;&gt;"))</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D1023</xm:sqref>
+          <xm:sqref>D2:D1061</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Expenses.xlsx
+++ b/Expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffgood/Desktop/R_Studio_Projects/Financial_Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39A8B6B-E74A-204A-802A-8FE39AFB9E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A3F4E1-E7CB-604C-BC9A-8EEB9618BC8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="14940" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3209" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3344" uniqueCount="429">
   <si>
     <t>Date</t>
   </si>
@@ -1292,6 +1292,42 @@
   </si>
   <si>
     <t>iHerb.com</t>
+  </si>
+  <si>
+    <t>VENMO            PAYMENT    ***********3941</t>
+  </si>
+  <si>
+    <t>PANERA BREAD #601155 O</t>
+  </si>
+  <si>
+    <t>LOVE'S #358</t>
+  </si>
+  <si>
+    <t>TST* Little Flower</t>
+  </si>
+  <si>
+    <t>MTA*NYCT PAYGO</t>
+  </si>
+  <si>
+    <t>TST* Barachou</t>
+  </si>
+  <si>
+    <t>FRED'S</t>
+  </si>
+  <si>
+    <t>IKRAVEIT FOODS MARKET    ASTORIA      NY</t>
+  </si>
+  <si>
+    <t>SQ *MAGPIE               New York     NY</t>
+  </si>
+  <si>
+    <t>Grimaldi's Online</t>
+  </si>
+  <si>
+    <t>SpotHero</t>
+  </si>
+  <si>
+    <t>Hilton Alexandria</t>
   </si>
 </sst>
 </file>
@@ -1375,7 +1411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1384,6 +1420,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1460,10 +1498,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E1061" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E1061" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E1061">
-    <sortCondition ref="A1:A1061"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E1106" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E1106" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E1106">
+    <sortCondition ref="A1:A1106"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="4"/>
@@ -1773,10 +1811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1061"/>
+  <dimension ref="A1:E1106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A973" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E980" sqref="E980"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1107" sqref="D1107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19858,6 +19896,771 @@
         <v>300</v>
       </c>
     </row>
+    <row r="1062" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1062" s="8">
+        <v>45047</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1062" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1062" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1062" s="9">
+        <v>-3305.66</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1063" s="8">
+        <v>45047</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1063" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="D1063" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="E1063" s="9">
+        <v>-1500</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1064" s="8">
+        <v>45047</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1064" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1064" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1064" s="9">
+        <v>-1500</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1065" s="8">
+        <v>45047</v>
+      </c>
+      <c r="B1065" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1065" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="D1065" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1065" s="9">
+        <v>-137</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1066" s="8">
+        <v>45047</v>
+      </c>
+      <c r="B1066" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1066" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1066" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1066" s="9">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1067" s="8">
+        <v>45047</v>
+      </c>
+      <c r="B1067" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1067" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1067" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1067" s="9">
+        <v>3305.66</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1068" s="8">
+        <v>45048</v>
+      </c>
+      <c r="B1068" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1068" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1068" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="E1068" s="9">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1069" s="8">
+        <v>45048</v>
+      </c>
+      <c r="B1069" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1069" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1069" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1069" s="9">
+        <v>-14.38</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1070" s="8">
+        <v>45048</v>
+      </c>
+      <c r="B1070" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1070" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1070" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1070" s="9">
+        <v>-10.79</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1071" s="8">
+        <v>45048</v>
+      </c>
+      <c r="B1071" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1071" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1071" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1071" s="9">
+        <v>-6.48</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1072" s="8">
+        <v>45048</v>
+      </c>
+      <c r="B1072" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1072" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1072" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1072" s="9">
+        <v>-60.02</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1073" s="8">
+        <v>45049</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1073" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1073" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1073" s="9">
+        <v>-194.31</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1074" s="8">
+        <v>45049</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1074" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1074" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1074" s="9">
+        <v>-29.94</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1075" s="8">
+        <v>45049</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1075" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1075" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1075" s="9">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1076" s="8">
+        <v>45049</v>
+      </c>
+      <c r="B1076" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1076" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="D1076" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1076" s="9">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1077" s="8">
+        <v>45049</v>
+      </c>
+      <c r="B1077" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1077" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D1077" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1077" s="9">
+        <v>-21.93</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1078" s="8">
+        <v>45049</v>
+      </c>
+      <c r="B1078" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1078" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1078" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1078" s="9">
+        <v>-8.83</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1079" s="8">
+        <v>45050</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1079" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1079" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1079" s="9">
+        <v>-82.8</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1080" s="8">
+        <v>45050</v>
+      </c>
+      <c r="B1080" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1080" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1080" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1080" s="9">
+        <v>-11.41</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1081" s="8">
+        <v>45050</v>
+      </c>
+      <c r="B1081" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1081" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1081" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1081" s="9">
+        <v>-2.99</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1082" s="8">
+        <v>45051</v>
+      </c>
+      <c r="B1082" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1082" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1082" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1082" s="9">
+        <v>-37.090000000000003</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1083" s="8">
+        <v>45051</v>
+      </c>
+      <c r="B1083" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1083" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1083" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1083" s="9">
+        <v>-65.72</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1084" s="8">
+        <v>45051</v>
+      </c>
+      <c r="B1084" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1084" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="D1084" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1084" s="9">
+        <v>-24.27</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1085" s="8">
+        <v>45051</v>
+      </c>
+      <c r="B1085" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1085" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="D1085" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1085" s="9">
+        <v>35.380000000000003</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1086" s="8">
+        <v>45052</v>
+      </c>
+      <c r="B1086" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1086" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1086" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1086" s="9">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1087" s="8">
+        <v>45052</v>
+      </c>
+      <c r="B1087" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1087" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="D1087" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1087" s="9">
+        <v>-90.21</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1088" s="8">
+        <v>45052</v>
+      </c>
+      <c r="B1088" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1088" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1088" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1088" s="9">
+        <v>-39.43</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1089" s="8">
+        <v>45053</v>
+      </c>
+      <c r="B1089" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1089" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="D1089" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1089" s="9">
+        <v>-6.42</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1090" s="8">
+        <v>45053</v>
+      </c>
+      <c r="B1090" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1090" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="D1090" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1090" s="9">
+        <v>-21.18</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1091" s="8">
+        <v>45053</v>
+      </c>
+      <c r="B1091" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1091" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="D1091" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1091" s="9">
+        <v>-129.56</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1092" s="8">
+        <v>45053</v>
+      </c>
+      <c r="B1092" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1092" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="D1092" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1092" s="9">
+        <v>-37.229999999999997</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1093" s="8">
+        <v>45053</v>
+      </c>
+      <c r="B1093" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1093" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="D1093" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1093" s="9">
+        <v>-9.15</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1094" s="8">
+        <v>45053</v>
+      </c>
+      <c r="B1094" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1094" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1094" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1094" s="9">
+        <v>58.78</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1095" s="8">
+        <v>45053</v>
+      </c>
+      <c r="B1095" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1095" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1095" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1095" s="9">
+        <v>19.989999999999998</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1096" s="8">
+        <v>45054</v>
+      </c>
+      <c r="B1096" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1096" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1096" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1096" s="9">
+        <v>-48.94</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1097" s="8">
+        <v>45054</v>
+      </c>
+      <c r="B1097" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1097" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1097" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1097" s="9">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1098" s="8">
+        <v>45054</v>
+      </c>
+      <c r="B1098" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1098" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1098" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1098" s="9">
+        <v>-36.1</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1099" s="8">
+        <v>45054</v>
+      </c>
+      <c r="B1099" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1099" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1099" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1099" s="9">
+        <v>-83</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1100" s="8">
+        <v>45054</v>
+      </c>
+      <c r="B1100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1100" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1100" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1100" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1101" s="8">
+        <v>45054</v>
+      </c>
+      <c r="B1101" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1101" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="D1101" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1101" s="9">
+        <v>-78</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1102" s="8">
+        <v>45054</v>
+      </c>
+      <c r="B1102" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1102" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1102" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1102" s="9">
+        <v>-2.99</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1103" s="8">
+        <v>45054</v>
+      </c>
+      <c r="B1103" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1103" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="D1103" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1103" s="9">
+        <v>-35.130000000000003</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1104" s="8">
+        <v>45054</v>
+      </c>
+      <c r="B1104" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1104" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="D1104" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1104" s="9">
+        <v>-5.38</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1105" s="8">
+        <v>45054</v>
+      </c>
+      <c r="B1105" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1105" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="D1105" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1105" s="9">
+        <v>-33.74</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1106" s="8">
+        <v>45054</v>
+      </c>
+      <c r="B1106" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1106" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="D1106" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1106" s="9">
+        <v>-2.75</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19871,7 +20674,7 @@
           <x14:formula1>
             <xm:f>OFFSET(Categories!$A$2,0,0,COUNTIF(Categories!$A$2:$A$99,"&lt;&gt;"))</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D1061</xm:sqref>
+          <xm:sqref>D2:D1106</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Expenses.xlsx
+++ b/Expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffgood/Desktop/R_Studio_Projects/Financial_Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A3F4E1-E7CB-604C-BC9A-8EEB9618BC8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9605EE44-29BF-A94B-B838-2DC5F4431D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="14940" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3344" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3410" uniqueCount="437">
   <si>
     <t>Date</t>
   </si>
@@ -1328,6 +1328,30 @@
   </si>
   <si>
     <t>Hilton Alexandria</t>
+  </si>
+  <si>
+    <t>SHEETZ 0518</t>
+  </si>
+  <si>
+    <t>WWW COSTCO COM</t>
+  </si>
+  <si>
+    <t>CHICK-FIL-A #02167</t>
+  </si>
+  <si>
+    <t>JERSEY MIKES 8030        PORT MATILDA PA</t>
+  </si>
+  <si>
+    <t>USPS PO 4152480055       MECHANICSBURGPA</t>
+  </si>
+  <si>
+    <t>JERSEY MIKES 8037        PORT MATILDA PA</t>
+  </si>
+  <si>
+    <t>97612 - ON-STREET METERS HARRISBURG   PA</t>
+  </si>
+  <si>
+    <t>Country Side Puppies</t>
   </si>
 </sst>
 </file>
@@ -1498,10 +1522,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E1106" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E1106" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E1106">
-    <sortCondition ref="A1:A1106"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E1128" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E1128" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E1128">
+    <sortCondition ref="A1:A1128"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="4"/>
@@ -1811,10 +1835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1106"/>
+  <dimension ref="A1:E1128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1107" sqref="D1107"/>
+      <selection activeCell="D843" sqref="D843"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19897,768 +19921,1142 @@
       </c>
     </row>
     <row r="1062" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1062" s="8">
+      <c r="A1062" s="2">
         <v>45047</v>
       </c>
       <c r="B1062" t="s">
         <v>7</v>
       </c>
-      <c r="C1062" s="9" t="s">
+      <c r="C1062" t="s">
         <v>174</v>
       </c>
-      <c r="D1062" s="9" t="s">
+      <c r="D1062" t="s">
         <v>91</v>
       </c>
-      <c r="E1062" s="9">
+      <c r="E1062">
         <v>-3305.66</v>
       </c>
     </row>
     <row r="1063" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1063" s="8">
+      <c r="A1063" s="2">
         <v>45047</v>
       </c>
       <c r="B1063" t="s">
         <v>7</v>
       </c>
-      <c r="C1063" s="9" t="s">
+      <c r="C1063" t="s">
         <v>390</v>
       </c>
-      <c r="D1063" s="9" t="s">
+      <c r="D1063" t="s">
         <v>394</v>
       </c>
-      <c r="E1063" s="9">
+      <c r="E1063">
         <v>-1500</v>
       </c>
     </row>
     <row r="1064" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1064" s="8">
+      <c r="A1064" s="2">
         <v>45047</v>
       </c>
       <c r="B1064" t="s">
         <v>7</v>
       </c>
-      <c r="C1064" s="9" t="s">
+      <c r="C1064" t="s">
         <v>147</v>
       </c>
-      <c r="D1064" s="9" t="s">
+      <c r="D1064" t="s">
         <v>9</v>
       </c>
-      <c r="E1064" s="9">
+      <c r="E1064">
         <v>-1500</v>
       </c>
     </row>
     <row r="1065" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1065" s="8">
+      <c r="A1065" s="2">
         <v>45047</v>
       </c>
-      <c r="B1065" s="9" t="s">
+      <c r="B1065" t="s">
         <v>16</v>
       </c>
-      <c r="C1065" s="9" t="s">
+      <c r="C1065" t="s">
         <v>288</v>
       </c>
-      <c r="D1065" s="9" t="s">
+      <c r="D1065" t="s">
         <v>263</v>
       </c>
-      <c r="E1065" s="9">
+      <c r="E1065">
         <v>-137</v>
       </c>
     </row>
     <row r="1066" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1066" s="8">
+      <c r="A1066" s="2">
         <v>45047</v>
       </c>
-      <c r="B1066" s="9" t="s">
+      <c r="B1066" t="s">
         <v>16</v>
       </c>
-      <c r="C1066" s="9" t="s">
+      <c r="C1066" t="s">
         <v>147</v>
       </c>
-      <c r="D1066" s="9" t="s">
+      <c r="D1066" t="s">
         <v>9</v>
       </c>
-      <c r="E1066" s="9">
+      <c r="E1066">
         <v>1500</v>
       </c>
     </row>
     <row r="1067" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1067" s="8">
+      <c r="A1067" s="2">
         <v>45047</v>
       </c>
-      <c r="B1067" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1067" s="9" t="s">
+      <c r="B1067" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1067" t="s">
         <v>174</v>
       </c>
-      <c r="D1067" s="9" t="s">
+      <c r="D1067" t="s">
         <v>91</v>
       </c>
-      <c r="E1067" s="9">
+      <c r="E1067">
         <v>3305.66</v>
       </c>
     </row>
     <row r="1068" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1068" s="8">
+      <c r="A1068" s="2">
         <v>45048</v>
       </c>
-      <c r="B1068" s="9" t="s">
+      <c r="B1068" t="s">
         <v>16</v>
       </c>
-      <c r="C1068" s="9" t="s">
+      <c r="C1068" t="s">
         <v>166</v>
       </c>
-      <c r="D1068" s="9" t="s">
+      <c r="D1068" t="s">
         <v>269</v>
       </c>
-      <c r="E1068" s="9">
+      <c r="E1068">
         <v>-300</v>
       </c>
     </row>
     <row r="1069" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1069" s="8">
+      <c r="A1069" s="2">
         <v>45048</v>
       </c>
-      <c r="B1069" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1069" s="9" t="s">
+      <c r="B1069" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1069" t="s">
         <v>157</v>
       </c>
-      <c r="D1069" s="9" t="s">
+      <c r="D1069" t="s">
         <v>268</v>
       </c>
-      <c r="E1069" s="9">
+      <c r="E1069">
         <v>-14.38</v>
       </c>
     </row>
     <row r="1070" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1070" s="8">
+      <c r="A1070" s="2">
         <v>45048</v>
       </c>
-      <c r="B1070" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1070" s="9" t="s">
+      <c r="B1070" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1070" t="s">
         <v>205</v>
       </c>
-      <c r="D1070" s="9" t="s">
+      <c r="D1070" t="s">
         <v>268</v>
       </c>
-      <c r="E1070" s="9">
+      <c r="E1070">
         <v>-10.79</v>
       </c>
     </row>
     <row r="1071" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1071" s="8">
+      <c r="A1071" s="2">
         <v>45048</v>
       </c>
-      <c r="B1071" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1071" s="9" t="s">
+      <c r="B1071" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1071" t="s">
         <v>161</v>
       </c>
-      <c r="D1071" s="9" t="s">
+      <c r="D1071" t="s">
         <v>12</v>
       </c>
-      <c r="E1071" s="9">
+      <c r="E1071">
         <v>-6.48</v>
       </c>
     </row>
     <row r="1072" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1072" s="8">
+      <c r="A1072" s="2">
         <v>45048</v>
       </c>
-      <c r="B1072" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1072" s="9" t="s">
+      <c r="B1072" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1072" t="s">
         <v>161</v>
       </c>
-      <c r="D1072" s="9" t="s">
+      <c r="D1072" t="s">
         <v>264</v>
       </c>
-      <c r="E1072" s="9">
+      <c r="E1072">
         <v>-60.02</v>
       </c>
     </row>
     <row r="1073" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1073" s="8">
+      <c r="A1073" s="2">
         <v>45049</v>
       </c>
       <c r="B1073" t="s">
         <v>7</v>
       </c>
-      <c r="C1073" s="9" t="s">
+      <c r="C1073" t="s">
         <v>203</v>
       </c>
-      <c r="D1073" s="9" t="s">
+      <c r="D1073" t="s">
         <v>10</v>
       </c>
-      <c r="E1073" s="9">
+      <c r="E1073">
         <v>-194.31</v>
       </c>
     </row>
     <row r="1074" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1074" s="8">
+      <c r="A1074" s="2">
         <v>45049</v>
       </c>
       <c r="B1074" t="s">
         <v>7</v>
       </c>
-      <c r="C1074" s="9" t="s">
+      <c r="C1074" t="s">
         <v>171</v>
       </c>
-      <c r="D1074" s="9" t="s">
+      <c r="D1074" t="s">
         <v>266</v>
       </c>
-      <c r="E1074" s="9">
+      <c r="E1074">
         <v>-29.94</v>
       </c>
     </row>
     <row r="1075" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1075" s="8">
+      <c r="A1075" s="2">
         <v>45049</v>
       </c>
       <c r="B1075" t="s">
         <v>7</v>
       </c>
-      <c r="C1075" s="9" t="s">
+      <c r="C1075" t="s">
         <v>171</v>
       </c>
-      <c r="D1075" s="9" t="s">
+      <c r="D1075" t="s">
         <v>266</v>
       </c>
-      <c r="E1075" s="9">
+      <c r="E1075">
         <v>2.52</v>
       </c>
     </row>
     <row r="1076" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1076" s="8">
+      <c r="A1076" s="2">
         <v>45049</v>
       </c>
-      <c r="B1076" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1076" s="9" t="s">
+      <c r="B1076" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1076" t="s">
         <v>428</v>
       </c>
-      <c r="D1076" s="9" t="s">
+      <c r="D1076" t="s">
         <v>12</v>
       </c>
-      <c r="E1076" s="9">
+      <c r="E1076">
         <v>-5</v>
       </c>
     </row>
     <row r="1077" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1077" s="8">
+      <c r="A1077" s="2">
         <v>45049</v>
       </c>
-      <c r="B1077" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1077" s="9" t="s">
+      <c r="B1077" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1077" t="s">
         <v>210</v>
       </c>
-      <c r="D1077" s="9" t="s">
+      <c r="D1077" t="s">
         <v>268</v>
       </c>
-      <c r="E1077" s="9">
+      <c r="E1077">
         <v>-21.93</v>
       </c>
     </row>
     <row r="1078" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1078" s="8">
+      <c r="A1078" s="2">
         <v>45049</v>
       </c>
-      <c r="B1078" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1078" s="9" t="s">
+      <c r="B1078" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1078" t="s">
         <v>211</v>
       </c>
-      <c r="D1078" s="9" t="s">
+      <c r="D1078" t="s">
         <v>12</v>
       </c>
-      <c r="E1078" s="9">
+      <c r="E1078">
         <v>-8.83</v>
       </c>
     </row>
     <row r="1079" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1079" s="8">
+      <c r="A1079" s="2">
         <v>45050</v>
       </c>
       <c r="B1079" t="s">
         <v>7</v>
       </c>
-      <c r="C1079" s="9" t="s">
+      <c r="C1079" t="s">
         <v>171</v>
       </c>
-      <c r="D1079" s="9" t="s">
+      <c r="D1079" t="s">
         <v>266</v>
       </c>
-      <c r="E1079" s="9">
+      <c r="E1079">
         <v>-82.8</v>
       </c>
     </row>
     <row r="1080" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1080" s="8">
+      <c r="A1080" s="2">
         <v>45050</v>
       </c>
-      <c r="B1080" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1080" s="9" t="s">
+      <c r="B1080" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1080" t="s">
         <v>414</v>
       </c>
-      <c r="D1080" s="9" t="s">
+      <c r="D1080" t="s">
         <v>268</v>
       </c>
-      <c r="E1080" s="9">
+      <c r="E1080">
         <v>-11.41</v>
       </c>
     </row>
     <row r="1081" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1081" s="8">
+      <c r="A1081" s="2">
         <v>45050</v>
       </c>
-      <c r="B1081" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1081" s="9" t="s">
+      <c r="B1081" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1081" t="s">
         <v>161</v>
       </c>
-      <c r="D1081" s="9" t="s">
+      <c r="D1081" t="s">
         <v>268</v>
       </c>
-      <c r="E1081" s="9">
+      <c r="E1081">
         <v>-2.99</v>
       </c>
     </row>
     <row r="1082" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1082" s="8">
+      <c r="A1082" s="2">
         <v>45051</v>
       </c>
-      <c r="B1082" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1082" s="9" t="s">
+      <c r="B1082" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1082" t="s">
         <v>89</v>
       </c>
-      <c r="D1082" s="9" t="s">
+      <c r="D1082" t="s">
         <v>268</v>
       </c>
-      <c r="E1082" s="9">
+      <c r="E1082">
         <v>-37.090000000000003</v>
       </c>
     </row>
     <row r="1083" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1083" s="8">
+      <c r="A1083" s="2">
         <v>45051</v>
       </c>
-      <c r="B1083" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1083" s="9" t="s">
+      <c r="B1083" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1083" t="s">
         <v>161</v>
       </c>
-      <c r="D1083" s="9" t="s">
+      <c r="D1083" t="s">
         <v>264</v>
       </c>
-      <c r="E1083" s="9">
+      <c r="E1083">
         <v>-65.72</v>
       </c>
     </row>
     <row r="1084" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1084" s="8">
+      <c r="A1084" s="2">
         <v>45051</v>
       </c>
-      <c r="B1084" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1084" s="9" t="s">
+      <c r="B1084" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1084" t="s">
         <v>427</v>
       </c>
-      <c r="D1084" s="9" t="s">
+      <c r="D1084" t="s">
         <v>264</v>
       </c>
-      <c r="E1084" s="9">
+      <c r="E1084">
         <v>-24.27</v>
       </c>
     </row>
     <row r="1085" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1085" s="8">
+      <c r="A1085" s="2">
         <v>45051</v>
       </c>
-      <c r="B1085" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1085" s="9" t="s">
+      <c r="B1085" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1085" t="s">
         <v>398</v>
       </c>
-      <c r="D1085" s="9" t="s">
+      <c r="D1085" t="s">
         <v>266</v>
       </c>
-      <c r="E1085" s="9">
+      <c r="E1085">
         <v>35.380000000000003</v>
       </c>
     </row>
     <row r="1086" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1086" s="8">
+      <c r="A1086" s="2">
         <v>45052</v>
       </c>
-      <c r="B1086" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1086" s="9" t="s">
+      <c r="B1086" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1086" t="s">
         <v>246</v>
       </c>
-      <c r="D1086" s="9" t="s">
+      <c r="D1086" t="s">
         <v>268</v>
       </c>
-      <c r="E1086" s="9">
+      <c r="E1086">
         <v>-25</v>
       </c>
     </row>
     <row r="1087" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1087" s="8">
+      <c r="A1087" s="2">
         <v>45052</v>
       </c>
-      <c r="B1087" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1087" s="9" t="s">
+      <c r="B1087" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1087" t="s">
         <v>426</v>
       </c>
-      <c r="D1087" s="9" t="s">
+      <c r="D1087" t="s">
         <v>268</v>
       </c>
-      <c r="E1087" s="9">
+      <c r="E1087">
         <v>-90.21</v>
       </c>
     </row>
     <row r="1088" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1088" s="8">
+      <c r="A1088" s="2">
         <v>45052</v>
       </c>
-      <c r="B1088" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1088" s="9" t="s">
+      <c r="B1088" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1088" t="s">
         <v>206</v>
       </c>
-      <c r="D1088" s="9" t="s">
+      <c r="D1088" t="s">
         <v>266</v>
       </c>
-      <c r="E1088" s="9">
+      <c r="E1088">
         <v>-39.43</v>
       </c>
     </row>
     <row r="1089" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1089" s="8">
+      <c r="A1089" s="2">
         <v>45053</v>
       </c>
-      <c r="B1089" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1089" s="9" t="s">
+      <c r="B1089" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1089" t="s">
         <v>422</v>
       </c>
-      <c r="D1089" s="9" t="s">
+      <c r="D1089" t="s">
         <v>268</v>
       </c>
-      <c r="E1089" s="9">
+      <c r="E1089">
         <v>-6.42</v>
       </c>
     </row>
     <row r="1090" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1090" s="8">
+      <c r="A1090" s="2">
         <v>45053</v>
       </c>
-      <c r="B1090" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1090" s="9" t="s">
+      <c r="B1090" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1090" t="s">
         <v>422</v>
       </c>
-      <c r="D1090" s="9" t="s">
+      <c r="D1090" t="s">
         <v>268</v>
       </c>
-      <c r="E1090" s="9">
+      <c r="E1090">
         <v>-21.18</v>
       </c>
     </row>
     <row r="1091" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1091" s="8">
+      <c r="A1091" s="2">
         <v>45053</v>
       </c>
-      <c r="B1091" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1091" s="9" t="s">
+      <c r="B1091" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1091" t="s">
         <v>423</v>
       </c>
-      <c r="D1091" s="9" t="s">
+      <c r="D1091" t="s">
         <v>268</v>
       </c>
-      <c r="E1091" s="9">
+      <c r="E1091">
         <v>-129.56</v>
       </c>
     </row>
     <row r="1092" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1092" s="8">
+      <c r="A1092" s="2">
         <v>45053</v>
       </c>
-      <c r="B1092" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1092" s="9" t="s">
+      <c r="B1092" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1092" t="s">
         <v>424</v>
       </c>
-      <c r="D1092" s="9" t="s">
+      <c r="D1092" t="s">
         <v>12</v>
       </c>
-      <c r="E1092" s="9">
+      <c r="E1092">
         <v>-37.229999999999997</v>
       </c>
     </row>
     <row r="1093" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1093" s="8">
+      <c r="A1093" s="2">
         <v>45053</v>
       </c>
-      <c r="B1093" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1093" s="9" t="s">
+      <c r="B1093" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1093" t="s">
         <v>425</v>
       </c>
-      <c r="D1093" s="9" t="s">
+      <c r="D1093" t="s">
         <v>266</v>
       </c>
-      <c r="E1093" s="9">
+      <c r="E1093">
         <v>-9.15</v>
       </c>
     </row>
     <row r="1094" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1094" s="8">
+      <c r="A1094" s="2">
         <v>45053</v>
       </c>
-      <c r="B1094" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1094" s="9" t="s">
+      <c r="B1094" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1094" t="s">
         <v>156</v>
       </c>
-      <c r="D1094" s="9" t="s">
+      <c r="D1094" t="s">
         <v>266</v>
       </c>
-      <c r="E1094" s="9">
+      <c r="E1094">
         <v>58.78</v>
       </c>
     </row>
     <row r="1095" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1095" s="8">
+      <c r="A1095" s="2">
         <v>45053</v>
       </c>
-      <c r="B1095" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1095" s="9" t="s">
+      <c r="B1095" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1095" t="s">
         <v>150</v>
       </c>
-      <c r="D1095" s="9" t="s">
+      <c r="D1095" t="s">
         <v>266</v>
       </c>
-      <c r="E1095" s="9">
+      <c r="E1095">
         <v>19.989999999999998</v>
       </c>
     </row>
     <row r="1096" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1096" s="8">
+      <c r="A1096" s="2">
         <v>45054</v>
       </c>
       <c r="B1096" t="s">
         <v>7</v>
       </c>
-      <c r="C1096" s="9" t="s">
+      <c r="C1096" t="s">
         <v>106</v>
       </c>
-      <c r="D1096" s="9" t="s">
+      <c r="D1096" t="s">
         <v>12</v>
       </c>
-      <c r="E1096" s="9">
+      <c r="E1096">
         <v>-48.94</v>
       </c>
     </row>
     <row r="1097" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1097" s="8">
+      <c r="A1097" s="2">
         <v>45054</v>
       </c>
       <c r="B1097" t="s">
         <v>7</v>
       </c>
-      <c r="C1097" s="9" t="s">
+      <c r="C1097" t="s">
         <v>106</v>
       </c>
-      <c r="D1097" s="9" t="s">
+      <c r="D1097" t="s">
         <v>14</v>
       </c>
-      <c r="E1097" s="9">
+      <c r="E1097">
         <v>-40</v>
       </c>
     </row>
     <row r="1098" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1098" s="8">
+      <c r="A1098" s="2">
         <v>45054</v>
       </c>
       <c r="B1098" t="s">
         <v>7</v>
       </c>
-      <c r="C1098" s="9" t="s">
+      <c r="C1098" t="s">
         <v>106</v>
       </c>
-      <c r="D1098" s="9" t="s">
+      <c r="D1098" t="s">
         <v>265</v>
       </c>
-      <c r="E1098" s="9">
+      <c r="E1098">
         <v>-36.1</v>
       </c>
     </row>
     <row r="1099" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1099" s="8">
+      <c r="A1099" s="2">
         <v>45054</v>
       </c>
       <c r="B1099" t="s">
         <v>7</v>
       </c>
-      <c r="C1099" s="9" t="s">
+      <c r="C1099" t="s">
         <v>197</v>
       </c>
-      <c r="D1099" s="9" t="s">
+      <c r="D1099" t="s">
         <v>14</v>
       </c>
-      <c r="E1099" s="9">
+      <c r="E1099">
         <v>-83</v>
       </c>
     </row>
     <row r="1100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1100" s="8">
+      <c r="A1100" s="2">
         <v>45054</v>
       </c>
       <c r="B1100" t="s">
         <v>7</v>
       </c>
-      <c r="C1100" s="9" t="s">
+      <c r="C1100" t="s">
         <v>5</v>
       </c>
-      <c r="D1100" s="9" t="s">
+      <c r="D1100" t="s">
         <v>14</v>
       </c>
-      <c r="E1100" s="9">
+      <c r="E1100">
         <v>3</v>
       </c>
     </row>
     <row r="1101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1101" s="8">
+      <c r="A1101" s="2">
         <v>45054</v>
       </c>
-      <c r="B1101" s="9" t="s">
+      <c r="B1101" t="s">
         <v>16</v>
       </c>
-      <c r="C1101" s="9" t="s">
+      <c r="C1101" t="s">
         <v>417</v>
       </c>
-      <c r="D1101" s="9" t="s">
+      <c r="D1101" t="s">
         <v>268</v>
       </c>
-      <c r="E1101" s="9">
+      <c r="E1101">
         <v>-78</v>
       </c>
     </row>
     <row r="1102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1102" s="8">
+      <c r="A1102" s="2">
         <v>45054</v>
       </c>
-      <c r="B1102" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1102" s="9" t="s">
+      <c r="B1102" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1102" t="s">
         <v>172</v>
       </c>
-      <c r="D1102" s="9" t="s">
+      <c r="D1102" t="s">
         <v>265</v>
       </c>
-      <c r="E1102" s="9">
+      <c r="E1102">
         <v>-2.99</v>
       </c>
     </row>
     <row r="1103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1103" s="8">
+      <c r="A1103" s="2">
         <v>45054</v>
       </c>
-      <c r="B1103" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1103" s="9" t="s">
+      <c r="B1103" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1103" t="s">
         <v>418</v>
       </c>
-      <c r="D1103" s="9" t="s">
+      <c r="D1103" t="s">
         <v>268</v>
       </c>
-      <c r="E1103" s="9">
+      <c r="E1103">
         <v>-35.130000000000003</v>
       </c>
     </row>
     <row r="1104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1104" s="8">
+      <c r="A1104" s="2">
         <v>45054</v>
       </c>
-      <c r="B1104" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1104" s="9" t="s">
+      <c r="B1104" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1104" t="s">
         <v>419</v>
       </c>
-      <c r="D1104" s="9" t="s">
+      <c r="D1104" t="s">
         <v>12</v>
       </c>
-      <c r="E1104" s="9">
+      <c r="E1104">
         <v>-5.38</v>
       </c>
     </row>
     <row r="1105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1105" s="8">
+      <c r="A1105" s="2">
         <v>45054</v>
       </c>
-      <c r="B1105" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1105" s="9" t="s">
+      <c r="B1105" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1105" t="s">
         <v>420</v>
       </c>
-      <c r="D1105" s="9" t="s">
+      <c r="D1105" t="s">
         <v>268</v>
       </c>
-      <c r="E1105" s="9">
+      <c r="E1105">
         <v>-33.74</v>
       </c>
     </row>
     <row r="1106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1106" s="8">
+      <c r="A1106" s="2">
         <v>45054</v>
       </c>
-      <c r="B1106" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1106" s="9" t="s">
+      <c r="B1106" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1106" t="s">
         <v>421</v>
       </c>
-      <c r="D1106" s="9" t="s">
+      <c r="D1106" t="s">
         <v>264</v>
       </c>
-      <c r="E1106" s="9">
+      <c r="E1106">
         <v>-2.75</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1107" s="8">
+        <v>45054</v>
+      </c>
+      <c r="B1107" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1107" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="D1107" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1107" s="9">
+        <v>-66.08</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1108" s="8">
+        <v>45055</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1108" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="D1108" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E1108" s="9">
+        <v>-15.89</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1109" s="8">
+        <v>45055</v>
+      </c>
+      <c r="B1109" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1109" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="D1109" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E1109" s="9">
+        <v>-902.92</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1110" s="8">
+        <v>45056</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1110" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1110" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1110" s="9">
+        <v>-29.9</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1111" s="8">
+        <v>45056</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1111" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="D1111" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1111" s="9">
+        <v>-11.08</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1112" s="8">
+        <v>45056</v>
+      </c>
+      <c r="B1112" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1112" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1112" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1112" s="9">
+        <v>-214.72</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1113" s="8">
+        <v>45057</v>
+      </c>
+      <c r="B1113" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1113" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1113" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1113" s="9">
+        <v>3102.85</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1114" s="8">
+        <v>45057</v>
+      </c>
+      <c r="B1114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1114" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1114" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1114" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1115" s="8">
+        <v>45057</v>
+      </c>
+      <c r="B1115" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1115" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1115" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1115" s="9">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1116" s="8">
+        <v>45058</v>
+      </c>
+      <c r="B1116" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1116" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="D1116" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E1116" s="9">
+        <v>-83.35</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1117" s="8">
+        <v>45058</v>
+      </c>
+      <c r="B1117" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1117" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="D1117" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1117" s="9">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1118" s="8">
+        <v>45058</v>
+      </c>
+      <c r="B1118" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1118" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="D1118" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1118" s="9">
+        <v>-7.3</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1119" s="8">
+        <v>45059</v>
+      </c>
+      <c r="B1119" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1119" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="D1119" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1119" s="9">
+        <v>-47.4</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1120" s="8">
+        <v>45059</v>
+      </c>
+      <c r="B1120" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1120" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="D1120" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1120" s="9">
+        <v>-13.37</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1121" s="8">
+        <v>45059</v>
+      </c>
+      <c r="B1121" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1121" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="D1121" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1121" s="9">
+        <v>-10.01</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1122" s="8">
+        <v>45059</v>
+      </c>
+      <c r="B1122" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1122" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="D1122" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E1122" s="9">
+        <v>-55.11</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1123" s="8">
+        <v>45059</v>
+      </c>
+      <c r="B1123" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1123" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="D1123" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1123" s="9">
+        <v>-7.54</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1124" s="8">
+        <v>45060</v>
+      </c>
+      <c r="B1124" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1124" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1124" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1124" s="9">
+        <v>-36.17</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1125" s="8">
+        <v>45060</v>
+      </c>
+      <c r="B1125" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1125" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="D1125" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1125" s="9">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1126" s="8">
+        <v>45061</v>
+      </c>
+      <c r="B1126" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1126" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1126" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1126" s="9">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1127" s="8">
+        <v>45061</v>
+      </c>
+      <c r="B1127" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1127" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1127" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1127" s="9">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1128" s="8">
+        <v>45061</v>
+      </c>
+      <c r="B1128" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1128" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1128" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1128" s="9">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -20674,7 +21072,7 @@
           <x14:formula1>
             <xm:f>OFFSET(Categories!$A$2,0,0,COUNTIF(Categories!$A$2:$A$99,"&lt;&gt;"))</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D1106</xm:sqref>
+          <xm:sqref>D2:D1128</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Expenses.xlsx
+++ b/Expenses.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffgood/Desktop/R_Studio_Projects/Financial_Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9605EE44-29BF-A94B-B838-2DC5F4431D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D57B933-1819-8241-96C2-FC0C8720D50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="14940" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3410" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3482" uniqueCount="442">
   <si>
     <t>Date</t>
   </si>
@@ -1352,6 +1352,21 @@
   </si>
   <si>
     <t>Country Side Puppies</t>
+  </si>
+  <si>
+    <t>TST* Valley Bistro</t>
+  </si>
+  <si>
+    <t>IHERB IHERB.COM Zyjj9    IHERB.COM    CA</t>
+  </si>
+  <si>
+    <t>UPMC PINNACLE BUSINESS OF717-2318989  PA</t>
+  </si>
+  <si>
+    <t>ALDI 71146               MECHANICSBURGPA</t>
+  </si>
+  <si>
+    <t>Mechanicsburg</t>
   </si>
 </sst>
 </file>
@@ -1522,10 +1537,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E1128" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E1128" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E1128">
-    <sortCondition ref="A1:A1128"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E1152" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E1152" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E1152">
+    <sortCondition ref="A1:A1152"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="4"/>
@@ -1835,10 +1850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1128"/>
+  <dimension ref="A1:E1152"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D843" sqref="D843"/>
+      <selection activeCell="D1152" sqref="D1152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20686,377 +20701,785 @@
       </c>
     </row>
     <row r="1107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1107" s="8">
+      <c r="A1107" s="2">
         <v>45054</v>
       </c>
       <c r="B1107" t="s">
         <v>21</v>
       </c>
-      <c r="C1107" s="9" t="s">
+      <c r="C1107" t="s">
         <v>293</v>
       </c>
-      <c r="D1107" s="9" t="s">
+      <c r="D1107" t="s">
         <v>264</v>
       </c>
-      <c r="E1107" s="9">
+      <c r="E1107">
         <v>-66.08</v>
       </c>
     </row>
     <row r="1108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1108" s="8">
+      <c r="A1108" s="2">
         <v>45055</v>
       </c>
       <c r="B1108" t="s">
         <v>21</v>
       </c>
-      <c r="C1108" s="9" t="s">
+      <c r="C1108" t="s">
         <v>303</v>
       </c>
-      <c r="D1108" s="9" t="s">
+      <c r="D1108" t="s">
         <v>310</v>
       </c>
-      <c r="E1108" s="9">
+      <c r="E1108">
         <v>-15.89</v>
       </c>
     </row>
     <row r="1109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1109" s="8">
+      <c r="A1109" s="2">
         <v>45055</v>
       </c>
       <c r="B1109" t="s">
         <v>21</v>
       </c>
-      <c r="C1109" s="9" t="s">
+      <c r="C1109" t="s">
         <v>436</v>
       </c>
-      <c r="D1109" s="9" t="s">
+      <c r="D1109" t="s">
         <v>310</v>
       </c>
-      <c r="E1109" s="9">
+      <c r="E1109">
         <v>-902.92</v>
       </c>
     </row>
     <row r="1110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1110" s="8">
+      <c r="A1110" s="2">
         <v>45056</v>
       </c>
       <c r="B1110" t="s">
         <v>21</v>
       </c>
-      <c r="C1110" s="9" t="s">
+      <c r="C1110" t="s">
         <v>216</v>
       </c>
-      <c r="D1110" s="9" t="s">
+      <c r="D1110" t="s">
         <v>268</v>
       </c>
-      <c r="E1110" s="9">
+      <c r="E1110">
         <v>-29.9</v>
       </c>
     </row>
     <row r="1111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1111" s="8">
+      <c r="A1111" s="2">
         <v>45056</v>
       </c>
       <c r="B1111" t="s">
         <v>21</v>
       </c>
-      <c r="C1111" s="9" t="s">
+      <c r="C1111" t="s">
         <v>338</v>
       </c>
-      <c r="D1111" s="9" t="s">
+      <c r="D1111" t="s">
         <v>268</v>
       </c>
-      <c r="E1111" s="9">
+      <c r="E1111">
         <v>-11.08</v>
       </c>
     </row>
     <row r="1112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1112" s="8">
+      <c r="A1112" s="2">
         <v>45056</v>
       </c>
       <c r="B1112" t="s">
         <v>21</v>
       </c>
-      <c r="C1112" s="9" t="s">
+      <c r="C1112" t="s">
         <v>51</v>
       </c>
-      <c r="D1112" s="9" t="s">
+      <c r="D1112" t="s">
         <v>12</v>
       </c>
-      <c r="E1112" s="9">
+      <c r="E1112">
         <v>-214.72</v>
       </c>
     </row>
     <row r="1113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1113" s="8">
+      <c r="A1113" s="2">
         <v>45057</v>
       </c>
       <c r="B1113" t="s">
         <v>7</v>
       </c>
-      <c r="C1113" s="9" t="s">
+      <c r="C1113" t="s">
         <v>170</v>
       </c>
-      <c r="D1113" s="9" t="s">
+      <c r="D1113" t="s">
         <v>32</v>
       </c>
-      <c r="E1113" s="9">
+      <c r="E1113">
         <v>3102.85</v>
       </c>
     </row>
     <row r="1114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1114" s="8">
+      <c r="A1114" s="2">
         <v>45057</v>
       </c>
       <c r="B1114" t="s">
         <v>7</v>
       </c>
-      <c r="C1114" s="9" t="s">
+      <c r="C1114" t="s">
         <v>231</v>
       </c>
-      <c r="D1114" s="9" t="s">
+      <c r="D1114" t="s">
         <v>266</v>
       </c>
-      <c r="E1114" s="9">
+      <c r="E1114">
         <v>10</v>
       </c>
     </row>
     <row r="1115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1115" s="8">
+      <c r="A1115" s="2">
         <v>45057</v>
       </c>
       <c r="B1115" t="s">
         <v>21</v>
       </c>
-      <c r="C1115" s="9" t="s">
+      <c r="C1115" t="s">
         <v>163</v>
       </c>
-      <c r="D1115" s="9" t="s">
+      <c r="D1115" t="s">
         <v>264</v>
       </c>
-      <c r="E1115" s="9">
+      <c r="E1115">
         <v>-25</v>
       </c>
     </row>
     <row r="1116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1116" s="8">
+      <c r="A1116" s="2">
         <v>45058</v>
       </c>
       <c r="B1116" t="s">
         <v>21</v>
       </c>
-      <c r="C1116" s="9" t="s">
+      <c r="C1116" t="s">
         <v>318</v>
       </c>
-      <c r="D1116" s="9" t="s">
+      <c r="D1116" t="s">
         <v>310</v>
       </c>
-      <c r="E1116" s="9">
+      <c r="E1116">
         <v>-83.35</v>
       </c>
     </row>
     <row r="1117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1117" s="8">
+      <c r="A1117" s="2">
         <v>45058</v>
       </c>
       <c r="B1117" t="s">
         <v>21</v>
       </c>
-      <c r="C1117" s="9" t="s">
+      <c r="C1117" t="s">
         <v>434</v>
       </c>
-      <c r="D1117" s="9" t="s">
+      <c r="D1117" t="s">
         <v>268</v>
       </c>
-      <c r="E1117" s="9">
+      <c r="E1117">
         <v>-17</v>
       </c>
     </row>
     <row r="1118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1118" s="8">
+      <c r="A1118" s="2">
         <v>45058</v>
       </c>
       <c r="B1118" t="s">
         <v>21</v>
       </c>
-      <c r="C1118" s="9" t="s">
+      <c r="C1118" t="s">
         <v>435</v>
       </c>
-      <c r="D1118" s="9" t="s">
+      <c r="D1118" t="s">
         <v>264</v>
       </c>
-      <c r="E1118" s="9">
+      <c r="E1118">
         <v>-7.3</v>
       </c>
     </row>
     <row r="1119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1119" s="8">
+      <c r="A1119" s="2">
         <v>45059</v>
       </c>
       <c r="B1119" t="s">
         <v>21</v>
       </c>
-      <c r="C1119" s="9" t="s">
+      <c r="C1119" t="s">
         <v>430</v>
       </c>
-      <c r="D1119" s="9" t="s">
+      <c r="D1119" t="s">
         <v>266</v>
       </c>
-      <c r="E1119" s="9">
+      <c r="E1119">
         <v>-47.4</v>
       </c>
     </row>
     <row r="1120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1120" s="8">
+      <c r="A1120" s="2">
         <v>45059</v>
       </c>
       <c r="B1120" t="s">
         <v>21</v>
       </c>
-      <c r="C1120" s="9" t="s">
+      <c r="C1120" t="s">
         <v>431</v>
       </c>
-      <c r="D1120" s="9" t="s">
+      <c r="D1120" t="s">
         <v>268</v>
       </c>
-      <c r="E1120" s="9">
+      <c r="E1120">
         <v>-13.37</v>
       </c>
     </row>
     <row r="1121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1121" s="8">
+      <c r="A1121" s="2">
         <v>45059</v>
       </c>
       <c r="B1121" t="s">
         <v>21</v>
       </c>
-      <c r="C1121" s="9" t="s">
+      <c r="C1121" t="s">
         <v>432</v>
       </c>
-      <c r="D1121" s="9" t="s">
+      <c r="D1121" t="s">
         <v>268</v>
       </c>
-      <c r="E1121" s="9">
+      <c r="E1121">
         <v>-10.01</v>
       </c>
     </row>
     <row r="1122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1122" s="8">
+      <c r="A1122" s="2">
         <v>45059</v>
       </c>
       <c r="B1122" t="s">
         <v>21</v>
       </c>
-      <c r="C1122" s="9" t="s">
+      <c r="C1122" t="s">
         <v>374</v>
       </c>
-      <c r="D1122" s="9" t="s">
+      <c r="D1122" t="s">
         <v>310</v>
       </c>
-      <c r="E1122" s="9">
+      <c r="E1122">
         <v>-55.11</v>
       </c>
     </row>
     <row r="1123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1123" s="8">
+      <c r="A1123" s="2">
         <v>45059</v>
       </c>
       <c r="B1123" t="s">
         <v>21</v>
       </c>
-      <c r="C1123" s="9" t="s">
+      <c r="C1123" t="s">
         <v>433</v>
       </c>
-      <c r="D1123" s="9" t="s">
+      <c r="D1123" t="s">
         <v>264</v>
       </c>
-      <c r="E1123" s="9">
+      <c r="E1123">
         <v>-7.54</v>
       </c>
     </row>
     <row r="1124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1124" s="8">
+      <c r="A1124" s="2">
         <v>45060</v>
       </c>
       <c r="B1124" t="s">
         <v>21</v>
       </c>
-      <c r="C1124" s="9" t="s">
+      <c r="C1124" t="s">
         <v>208</v>
       </c>
-      <c r="D1124" s="9" t="s">
+      <c r="D1124" t="s">
         <v>265</v>
       </c>
-      <c r="E1124" s="9">
+      <c r="E1124">
         <v>-36.17</v>
       </c>
     </row>
     <row r="1125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1125" s="8">
+      <c r="A1125" s="2">
         <v>45060</v>
       </c>
       <c r="B1125" t="s">
         <v>21</v>
       </c>
-      <c r="C1125" s="9" t="s">
+      <c r="C1125" t="s">
         <v>429</v>
       </c>
-      <c r="D1125" s="9" t="s">
+      <c r="D1125" t="s">
         <v>264</v>
       </c>
-      <c r="E1125" s="9">
+      <c r="E1125">
         <v>-15</v>
       </c>
     </row>
     <row r="1126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1126" s="8">
+      <c r="A1126" s="2">
         <v>45061</v>
       </c>
       <c r="B1126" t="s">
         <v>7</v>
       </c>
-      <c r="C1126" s="9" t="s">
+      <c r="C1126" t="s">
         <v>6</v>
       </c>
-      <c r="D1126" s="9" t="s">
+      <c r="D1126" t="s">
         <v>9</v>
       </c>
-      <c r="E1126" s="9">
+      <c r="E1126">
         <v>-300</v>
       </c>
     </row>
     <row r="1127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1127" s="8">
+      <c r="A1127" s="2">
         <v>45061</v>
       </c>
       <c r="B1127" t="s">
         <v>7</v>
       </c>
-      <c r="C1127" s="9" t="s">
+      <c r="C1127" t="s">
         <v>45</v>
       </c>
-      <c r="D1127" s="9" t="s">
+      <c r="D1127" t="s">
         <v>265</v>
       </c>
-      <c r="E1127" s="9">
+      <c r="E1127">
         <v>150</v>
       </c>
     </row>
     <row r="1128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1128" s="8">
+      <c r="A1128" s="2">
         <v>45061</v>
       </c>
-      <c r="B1128" s="9" t="s">
+      <c r="B1128" t="s">
         <v>16</v>
       </c>
-      <c r="C1128" s="9" t="s">
+      <c r="C1128" t="s">
         <v>15</v>
       </c>
-      <c r="D1128" s="9" t="s">
+      <c r="D1128" t="s">
         <v>9</v>
       </c>
-      <c r="E1128" s="9">
+      <c r="E1128">
         <v>300</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1129" s="8">
+        <v>45061</v>
+      </c>
+      <c r="B1129" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1129" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="D1129" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1129" s="9">
+        <v>-814.04</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1130" s="8">
+        <v>45061</v>
+      </c>
+      <c r="B1130" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1130" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1130" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1130" s="9">
+        <v>-52.11</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1131" s="8">
+        <v>45061</v>
+      </c>
+      <c r="B1131" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1131" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1131" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1131" s="9">
+        <v>-2065.58</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1132" s="8">
+        <v>45061</v>
+      </c>
+      <c r="B1132" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1132" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1132" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1132" s="9">
+        <v>354.7</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1133" s="8">
+        <v>45061</v>
+      </c>
+      <c r="B1133" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1133" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1133" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1133" s="9">
+        <v>48.8</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1134" s="8">
+        <v>45061</v>
+      </c>
+      <c r="B1134" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1134" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1134" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1134" s="9">
+        <v>2065.58</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1135" s="8">
+        <v>45061</v>
+      </c>
+      <c r="B1135" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1135" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1135" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1135" s="9">
+        <v>-315</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1136" s="8">
+        <v>45061</v>
+      </c>
+      <c r="B1136" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1136" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="D1136" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1136" s="9">
+        <v>96.03</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1137" s="8">
+        <v>45062</v>
+      </c>
+      <c r="B1137" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1137" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1137" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1137" s="9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1138" s="8">
+        <v>45062</v>
+      </c>
+      <c r="B1138" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1138" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1138" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="E1138" s="9">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1139" s="8">
+        <v>45062</v>
+      </c>
+      <c r="B1139" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1139" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1139" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1139" s="9">
+        <v>-12.49</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1140" s="8">
+        <v>45062</v>
+      </c>
+      <c r="B1140" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1140" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1140" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1140" s="9">
+        <v>-47.4</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1141" s="8">
+        <v>45062</v>
+      </c>
+      <c r="B1141" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1141" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="D1141" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E1141" s="9">
+        <v>-54.04</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1142" s="8">
+        <v>45062</v>
+      </c>
+      <c r="B1142" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1142" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1142" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1142" s="9">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1143" s="8">
+        <v>45062</v>
+      </c>
+      <c r="B1143" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1143" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1143" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1143" s="9">
+        <v>-16.27</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1144" s="8">
+        <v>45063</v>
+      </c>
+      <c r="B1144" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1144" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1144" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1144" s="9">
+        <v>-15.89</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1145" s="8">
+        <v>45063</v>
+      </c>
+      <c r="B1145" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1145" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1145" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1145" s="9">
+        <v>-15.89</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1146" s="8">
+        <v>45063</v>
+      </c>
+      <c r="B1146" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1146" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="D1146" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1146" s="9">
+        <v>-63</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1147" s="8">
+        <v>45065</v>
+      </c>
+      <c r="B1147" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1147" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="D1147" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1147" s="9">
+        <v>-120.1</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1148" s="8">
+        <v>45065</v>
+      </c>
+      <c r="B1148" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1148" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="D1148" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1148" s="9">
+        <v>-128.63</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1149" s="8">
+        <v>45065</v>
+      </c>
+      <c r="B1149" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1149" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1149" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1149" s="9">
+        <v>-142.46</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1150" s="8">
+        <v>45066</v>
+      </c>
+      <c r="B1150" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1150" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="D1150" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1150" s="9">
+        <v>-39.99</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1151" s="8">
+        <v>45066</v>
+      </c>
+      <c r="B1151" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1151" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="D1151" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1151" s="9">
+        <v>-32.799999999999997</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1152" s="8">
+        <v>45067</v>
+      </c>
+      <c r="B1152" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1152" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="D1152" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1152" s="9">
+        <v>-40.659999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -21072,7 +21495,7 @@
           <x14:formula1>
             <xm:f>OFFSET(Categories!$A$2,0,0,COUNTIF(Categories!$A$2:$A$99,"&lt;&gt;"))</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D1128</xm:sqref>
+          <xm:sqref>D2:D1152</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Expenses.xlsx
+++ b/Expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffgood/Desktop/R_Studio_Projects/Financial_Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D57B933-1819-8241-96C2-FC0C8720D50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461AD1AC-0A4D-FE42-A920-C3A6C67DF3AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="14940" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3482" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3551" uniqueCount="446">
   <si>
     <t>Date</t>
   </si>
@@ -1367,6 +1367,18 @@
   </si>
   <si>
     <t>Mechanicsburg</t>
+  </si>
+  <si>
+    <t>Spring Health    Receivable ***********LWA4</t>
+  </si>
+  <si>
+    <t>HAMPDEN TOWNSHIP PARKS AN</t>
+  </si>
+  <si>
+    <t>GIANT FUEL 6269          CAMP HILL    PA</t>
+  </si>
+  <si>
+    <t>REI</t>
   </si>
 </sst>
 </file>
@@ -1537,10 +1549,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E1152" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E1152" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E1152">
-    <sortCondition ref="A1:A1152"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E1175" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E1175" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E1175">
+    <sortCondition ref="A1:A1175"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="4"/>
@@ -1850,10 +1862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1152"/>
+  <dimension ref="A1:E1175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1152" sqref="D1152"/>
+      <selection activeCell="D843" sqref="D843"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21075,411 +21087,802 @@
       </c>
     </row>
     <row r="1129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1129" s="8">
+      <c r="A1129" s="2">
         <v>45061</v>
       </c>
       <c r="B1129" t="s">
         <v>7</v>
       </c>
-      <c r="C1129" s="9" t="s">
+      <c r="C1129" t="s">
         <v>401</v>
       </c>
-      <c r="D1129" s="9" t="s">
+      <c r="D1129" t="s">
         <v>264</v>
       </c>
-      <c r="E1129" s="9">
+      <c r="E1129">
         <v>-814.04</v>
       </c>
     </row>
     <row r="1130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1130" s="8">
+      <c r="A1130" s="2">
         <v>45061</v>
       </c>
       <c r="B1130" t="s">
         <v>7</v>
       </c>
-      <c r="C1130" s="9" t="s">
+      <c r="C1130" t="s">
         <v>171</v>
       </c>
-      <c r="D1130" s="9" t="s">
+      <c r="D1130" t="s">
         <v>12</v>
       </c>
-      <c r="E1130" s="9">
+      <c r="E1130">
         <v>-52.11</v>
       </c>
     </row>
     <row r="1131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1131" s="8">
+      <c r="A1131" s="2">
         <v>45061</v>
       </c>
       <c r="B1131" t="s">
         <v>7</v>
       </c>
-      <c r="C1131" s="9" t="s">
+      <c r="C1131" t="s">
         <v>174</v>
       </c>
-      <c r="D1131" s="9" t="s">
+      <c r="D1131" t="s">
         <v>91</v>
       </c>
-      <c r="E1131" s="9">
+      <c r="E1131">
         <v>-2065.58</v>
       </c>
     </row>
     <row r="1132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1132" s="8">
+      <c r="A1132" s="2">
         <v>45061</v>
       </c>
       <c r="B1132" t="s">
         <v>7</v>
       </c>
-      <c r="C1132" s="9" t="s">
+      <c r="C1132" t="s">
         <v>214</v>
       </c>
-      <c r="D1132" s="9" t="s">
+      <c r="D1132" t="s">
         <v>32</v>
       </c>
-      <c r="E1132" s="9">
+      <c r="E1132">
         <v>354.7</v>
       </c>
     </row>
     <row r="1133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1133" s="8">
+      <c r="A1133" s="2">
         <v>45061</v>
       </c>
       <c r="B1133" t="s">
         <v>7</v>
       </c>
-      <c r="C1133" s="9" t="s">
+      <c r="C1133" t="s">
         <v>171</v>
       </c>
-      <c r="D1133" s="9" t="s">
+      <c r="D1133" t="s">
         <v>266</v>
       </c>
-      <c r="E1133" s="9">
+      <c r="E1133">
         <v>48.8</v>
       </c>
     </row>
     <row r="1134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1134" s="8">
+      <c r="A1134" s="2">
         <v>45061</v>
       </c>
       <c r="B1134" t="s">
         <v>21</v>
       </c>
-      <c r="C1134" s="9" t="s">
+      <c r="C1134" t="s">
         <v>174</v>
       </c>
-      <c r="D1134" s="9" t="s">
+      <c r="D1134" t="s">
         <v>91</v>
       </c>
-      <c r="E1134" s="9">
+      <c r="E1134">
         <v>2065.58</v>
       </c>
     </row>
     <row r="1135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1135" s="8">
+      <c r="A1135" s="2">
         <v>45061</v>
       </c>
       <c r="B1135" t="s">
         <v>21</v>
       </c>
-      <c r="C1135" s="9" t="s">
+      <c r="C1135" t="s">
         <v>53</v>
       </c>
-      <c r="D1135" s="9" t="s">
+      <c r="D1135" t="s">
         <v>54</v>
       </c>
-      <c r="E1135" s="9">
+      <c r="E1135">
         <v>-315</v>
       </c>
     </row>
     <row r="1136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1136" s="8">
+      <c r="A1136" s="2">
         <v>45061</v>
       </c>
       <c r="B1136" t="s">
         <v>21</v>
       </c>
-      <c r="C1136" s="9" t="s">
+      <c r="C1136" t="s">
         <v>282</v>
       </c>
-      <c r="D1136" s="9" t="s">
+      <c r="D1136" t="s">
         <v>266</v>
       </c>
-      <c r="E1136" s="9">
+      <c r="E1136">
         <v>96.03</v>
       </c>
     </row>
     <row r="1137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1137" s="8">
+      <c r="A1137" s="2">
         <v>45062</v>
       </c>
       <c r="B1137" t="s">
         <v>7</v>
       </c>
-      <c r="C1137" s="9" t="s">
+      <c r="C1137" t="s">
         <v>169</v>
       </c>
-      <c r="D1137" s="9" t="s">
+      <c r="D1137" t="s">
         <v>14</v>
       </c>
-      <c r="E1137" s="9">
+      <c r="E1137">
         <v>0.02</v>
       </c>
     </row>
     <row r="1138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1138" s="8">
+      <c r="A1138" s="2">
         <v>45062</v>
       </c>
-      <c r="B1138" s="9" t="s">
+      <c r="B1138" t="s">
         <v>16</v>
       </c>
-      <c r="C1138" s="9" t="s">
+      <c r="C1138" t="s">
         <v>166</v>
       </c>
-      <c r="D1138" s="9" t="s">
+      <c r="D1138" t="s">
         <v>269</v>
       </c>
-      <c r="E1138" s="9">
+      <c r="E1138">
         <v>-300</v>
       </c>
     </row>
     <row r="1139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1139" s="8">
+      <c r="A1139" s="2">
         <v>45062</v>
       </c>
       <c r="B1139" t="s">
         <v>21</v>
       </c>
-      <c r="C1139" s="9" t="s">
+      <c r="C1139" t="s">
         <v>414</v>
       </c>
-      <c r="D1139" s="9" t="s">
+      <c r="D1139" t="s">
         <v>268</v>
       </c>
-      <c r="E1139" s="9">
+      <c r="E1139">
         <v>-12.49</v>
       </c>
     </row>
     <row r="1140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1140" s="8">
+      <c r="A1140" s="2">
         <v>45062</v>
       </c>
       <c r="B1140" t="s">
         <v>21</v>
       </c>
-      <c r="C1140" s="9" t="s">
+      <c r="C1140" t="s">
         <v>152</v>
       </c>
-      <c r="D1140" s="9" t="s">
+      <c r="D1140" t="s">
         <v>266</v>
       </c>
-      <c r="E1140" s="9">
+      <c r="E1140">
         <v>-47.4</v>
       </c>
     </row>
     <row r="1141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1141" s="8">
+      <c r="A1141" s="2">
         <v>45062</v>
       </c>
       <c r="B1141" t="s">
         <v>21</v>
       </c>
-      <c r="C1141" s="9" t="s">
+      <c r="C1141" t="s">
         <v>303</v>
       </c>
-      <c r="D1141" s="9" t="s">
+      <c r="D1141" t="s">
         <v>310</v>
       </c>
-      <c r="E1141" s="9">
+      <c r="E1141">
         <v>-54.04</v>
       </c>
     </row>
     <row r="1142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1142" s="8">
+      <c r="A1142" s="2">
         <v>45062</v>
       </c>
       <c r="B1142" t="s">
         <v>21</v>
       </c>
-      <c r="C1142" s="9" t="s">
+      <c r="C1142" t="s">
         <v>161</v>
       </c>
-      <c r="D1142" s="9" t="s">
+      <c r="D1142" t="s">
         <v>264</v>
       </c>
-      <c r="E1142" s="9">
+      <c r="E1142">
         <v>-15</v>
       </c>
     </row>
     <row r="1143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1143" s="8">
+      <c r="A1143" s="2">
         <v>45062</v>
       </c>
       <c r="B1143" t="s">
         <v>21</v>
       </c>
-      <c r="C1143" s="9" t="s">
+      <c r="C1143" t="s">
         <v>180</v>
       </c>
-      <c r="D1143" s="9" t="s">
+      <c r="D1143" t="s">
         <v>12</v>
       </c>
-      <c r="E1143" s="9">
+      <c r="E1143">
         <v>-16.27</v>
       </c>
     </row>
     <row r="1144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1144" s="8">
+      <c r="A1144" s="2">
         <v>45063</v>
       </c>
       <c r="B1144" t="s">
         <v>21</v>
       </c>
-      <c r="C1144" s="9" t="s">
+      <c r="C1144" t="s">
         <v>160</v>
       </c>
-      <c r="D1144" s="9" t="s">
+      <c r="D1144" t="s">
         <v>263</v>
       </c>
-      <c r="E1144" s="9">
+      <c r="E1144">
         <v>-15.89</v>
       </c>
     </row>
     <row r="1145" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1145" s="8">
+      <c r="A1145" s="2">
         <v>45063</v>
       </c>
       <c r="B1145" t="s">
         <v>21</v>
       </c>
-      <c r="C1145" s="9" t="s">
+      <c r="C1145" t="s">
         <v>160</v>
       </c>
-      <c r="D1145" s="9" t="s">
+      <c r="D1145" t="s">
         <v>263</v>
       </c>
-      <c r="E1145" s="9">
+      <c r="E1145">
         <v>-15.89</v>
       </c>
     </row>
     <row r="1146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1146" s="8">
+      <c r="A1146" s="2">
         <v>45063</v>
       </c>
       <c r="B1146" t="s">
         <v>21</v>
       </c>
-      <c r="C1146" s="9" t="s">
+      <c r="C1146" t="s">
         <v>441</v>
       </c>
-      <c r="D1146" s="9" t="s">
+      <c r="D1146" t="s">
         <v>14</v>
       </c>
-      <c r="E1146" s="9">
+      <c r="E1146">
         <v>-63</v>
       </c>
     </row>
     <row r="1147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1147" s="8">
+      <c r="A1147" s="2">
         <v>45065</v>
       </c>
       <c r="B1147" t="s">
         <v>21</v>
       </c>
-      <c r="C1147" s="9" t="s">
+      <c r="C1147" t="s">
         <v>439</v>
       </c>
-      <c r="D1147" s="9" t="s">
+      <c r="D1147" t="s">
         <v>262</v>
       </c>
-      <c r="E1147" s="9">
+      <c r="E1147">
         <v>-120.1</v>
       </c>
     </row>
     <row r="1148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1148" s="8">
+      <c r="A1148" s="2">
         <v>45065</v>
       </c>
       <c r="B1148" t="s">
         <v>21</v>
       </c>
-      <c r="C1148" s="9" t="s">
+      <c r="C1148" t="s">
         <v>440</v>
       </c>
-      <c r="D1148" s="9" t="s">
+      <c r="D1148" t="s">
         <v>12</v>
       </c>
-      <c r="E1148" s="9">
+      <c r="E1148">
         <v>-128.63</v>
       </c>
     </row>
     <row r="1149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1149" s="8">
+      <c r="A1149" s="2">
         <v>45065</v>
       </c>
       <c r="B1149" t="s">
         <v>21</v>
       </c>
-      <c r="C1149" s="9" t="s">
+      <c r="C1149" t="s">
         <v>97</v>
       </c>
-      <c r="D1149" s="9" t="s">
+      <c r="D1149" t="s">
         <v>12</v>
       </c>
-      <c r="E1149" s="9">
+      <c r="E1149">
         <v>-142.46</v>
       </c>
     </row>
     <row r="1150" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1150" s="8">
+      <c r="A1150" s="2">
         <v>45066</v>
       </c>
       <c r="B1150" t="s">
         <v>21</v>
       </c>
-      <c r="C1150" s="9" t="s">
+      <c r="C1150" t="s">
         <v>279</v>
       </c>
-      <c r="D1150" s="9" t="s">
+      <c r="D1150" t="s">
         <v>265</v>
       </c>
-      <c r="E1150" s="9">
+      <c r="E1150">
         <v>-39.99</v>
       </c>
     </row>
     <row r="1151" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1151" s="8">
+      <c r="A1151" s="2">
         <v>45066</v>
       </c>
       <c r="B1151" t="s">
         <v>21</v>
       </c>
-      <c r="C1151" s="9" t="s">
+      <c r="C1151" t="s">
         <v>438</v>
       </c>
-      <c r="D1151" s="9" t="s">
+      <c r="D1151" t="s">
         <v>266</v>
       </c>
-      <c r="E1151" s="9">
+      <c r="E1151">
         <v>-32.799999999999997</v>
       </c>
     </row>
     <row r="1152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1152" s="8">
+      <c r="A1152" s="2">
         <v>45067</v>
       </c>
       <c r="B1152" t="s">
         <v>21</v>
       </c>
-      <c r="C1152" s="9" t="s">
+      <c r="C1152" t="s">
         <v>437</v>
       </c>
-      <c r="D1152" s="9" t="s">
+      <c r="D1152" t="s">
         <v>268</v>
       </c>
-      <c r="E1152" s="9">
+      <c r="E1152">
         <v>-40.659999999999997</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1153" s="8">
+        <v>45069</v>
+      </c>
+      <c r="B1153" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1153" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="D1153" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E1153" s="9">
+        <v>-60.36</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1154" s="8">
+        <v>45069</v>
+      </c>
+      <c r="B1154" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1154" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1154" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1154" s="9">
+        <v>-11.27</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1155" s="8">
+        <v>45069</v>
+      </c>
+      <c r="B1155" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1155" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1155" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1155" s="9">
+        <v>-105</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1156" s="8">
+        <v>45070</v>
+      </c>
+      <c r="B1156" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1156" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1156" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1156" s="9">
+        <v>-198.66</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1157" s="8">
+        <v>45070</v>
+      </c>
+      <c r="B1157" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1157" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1157" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1157" s="9">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1158" s="8">
+        <v>45070</v>
+      </c>
+      <c r="B1158" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1158" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1158" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1158" s="9">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1159" s="8">
+        <v>45070</v>
+      </c>
+      <c r="B1159" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1159" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1159" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1159" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1160" s="8">
+        <v>45070</v>
+      </c>
+      <c r="B1160" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1160" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="D1160" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1160" s="9">
+        <v>-11.66</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1161" s="8">
+        <v>45070</v>
+      </c>
+      <c r="B1161" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1161" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1161" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1161" s="9">
+        <v>-20.52</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1162" s="8">
+        <v>45070</v>
+      </c>
+      <c r="B1162" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1162" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="D1162" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1162" s="9">
+        <v>-149.9</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1163" s="8">
+        <v>45071</v>
+      </c>
+      <c r="B1163" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1163" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1163" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1163" s="9">
+        <v>-23.1</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1164" s="8">
+        <v>45071</v>
+      </c>
+      <c r="B1164" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1164" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1164" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1164" s="9">
+        <v>-17.39</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1165" s="8">
+        <v>45072</v>
+      </c>
+      <c r="B1165" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1165" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1165" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1165" s="9">
+        <v>-11.41</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1166" s="8">
+        <v>45072</v>
+      </c>
+      <c r="B1166" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1166" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="D1166" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E1166" s="9">
+        <v>-52.9</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1167" s="8">
+        <v>45073</v>
+      </c>
+      <c r="B1167" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1167" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1167" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1167" s="9">
+        <v>-200.36</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1168" s="8">
+        <v>45074</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1168" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1168" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1168" s="9">
+        <v>-9.99</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1169" s="8">
+        <v>45074</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1169" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="D1169" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1169" s="9">
+        <v>-16.11</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1170" s="8">
+        <v>45074</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1170" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="D1170" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1170" s="9">
+        <v>-71.75</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1171" s="8">
+        <v>45075</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1171" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="D1171" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1171" s="9">
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1172" s="8">
+        <v>45075</v>
+      </c>
+      <c r="B1172" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1172" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1172" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1172" s="9">
+        <v>-96.45</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1173" s="8">
+        <v>45076</v>
+      </c>
+      <c r="B1173" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1173" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1173" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1173" s="9">
+        <v>-160.65</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1174" s="8">
+        <v>45076</v>
+      </c>
+      <c r="B1174" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1174" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1174" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E1174" s="9">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1175" s="8">
+        <v>45076</v>
+      </c>
+      <c r="B1175" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1175" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1175" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1175" s="9">
+        <v>3102.3</v>
       </c>
     </row>
   </sheetData>
@@ -21495,7 +21898,7 @@
           <x14:formula1>
             <xm:f>OFFSET(Categories!$A$2,0,0,COUNTIF(Categories!$A$2:$A$99,"&lt;&gt;"))</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D1152</xm:sqref>
+          <xm:sqref>D2:D1175</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Expenses.xlsx
+++ b/Expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffgood/Desktop/R_Studio_Projects/Financial_Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461AD1AC-0A4D-FE42-A920-C3A6C67DF3AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C0807F-8B37-E34F-AF8B-9AB3DBB4D61C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="14940" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3551" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3629" uniqueCount="455">
   <si>
     <t>Date</t>
   </si>
@@ -1379,6 +1379,33 @@
   </si>
   <si>
     <t>REI</t>
+  </si>
+  <si>
+    <t>Brightwheel</t>
+  </si>
+  <si>
+    <t>SAFEWAY 1048</t>
+  </si>
+  <si>
+    <t>9036 GREAT CLIPS AT WINDS</t>
+  </si>
+  <si>
+    <t>SQ *DOUBLE VISION ACRE</t>
+  </si>
+  <si>
+    <t>SQ *CREMA</t>
+  </si>
+  <si>
+    <t>E-Z*PASSNY TOLLBYMAIL</t>
+  </si>
+  <si>
+    <t>HOBBY-LOBBY #823         MECHANICSBURGPA</t>
+  </si>
+  <si>
+    <t>Five Guys</t>
+  </si>
+  <si>
+    <t>Dancevibe</t>
   </si>
 </sst>
 </file>
@@ -1549,10 +1576,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E1175" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E1175" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E1175">
-    <sortCondition ref="A1:A1175"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E1201" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E1201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E1201">
+    <sortCondition ref="A1:A1201"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="4"/>
@@ -1862,7 +1889,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1175"/>
+  <dimension ref="A1:E1201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D843" sqref="D843"/>
@@ -21495,394 +21522,836 @@
       </c>
     </row>
     <row r="1153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1153" s="8">
+      <c r="A1153" s="2">
         <v>45069</v>
       </c>
       <c r="B1153" t="s">
         <v>21</v>
       </c>
-      <c r="C1153" s="9" t="s">
+      <c r="C1153" t="s">
         <v>318</v>
       </c>
-      <c r="D1153" s="9" t="s">
+      <c r="D1153" t="s">
         <v>310</v>
       </c>
-      <c r="E1153" s="9">
+      <c r="E1153">
         <v>-60.36</v>
       </c>
     </row>
     <row r="1154" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1154" s="8">
+      <c r="A1154" s="2">
         <v>45069</v>
       </c>
       <c r="B1154" t="s">
         <v>21</v>
       </c>
-      <c r="C1154" s="9" t="s">
+      <c r="C1154" t="s">
         <v>180</v>
       </c>
-      <c r="D1154" s="9" t="s">
+      <c r="D1154" t="s">
         <v>12</v>
       </c>
-      <c r="E1154" s="9">
+      <c r="E1154">
         <v>-11.27</v>
       </c>
     </row>
     <row r="1155" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1155" s="8">
+      <c r="A1155" s="2">
         <v>45069</v>
       </c>
       <c r="B1155" t="s">
         <v>21</v>
       </c>
-      <c r="C1155" s="9" t="s">
+      <c r="C1155" t="s">
         <v>53</v>
       </c>
-      <c r="D1155" s="9" t="s">
+      <c r="D1155" t="s">
         <v>54</v>
       </c>
-      <c r="E1155" s="9">
+      <c r="E1155">
         <v>-105</v>
       </c>
     </row>
     <row r="1156" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1156" s="8">
+      <c r="A1156" s="2">
         <v>45070</v>
       </c>
-      <c r="B1156" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1156" s="9" t="s">
+      <c r="B1156" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1156" t="s">
         <v>171</v>
       </c>
-      <c r="D1156" s="9" t="s">
+      <c r="D1156" t="s">
         <v>266</v>
       </c>
-      <c r="E1156" s="9">
+      <c r="E1156">
         <v>-198.66</v>
       </c>
     </row>
     <row r="1157" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1157" s="8">
+      <c r="A1157" s="2">
         <v>45070</v>
       </c>
-      <c r="B1157" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1157" s="9" t="s">
+      <c r="B1157" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1157" t="s">
         <v>171</v>
       </c>
-      <c r="D1157" s="9" t="s">
+      <c r="D1157" t="s">
         <v>266</v>
       </c>
-      <c r="E1157" s="9">
+      <c r="E1157">
         <v>-120</v>
       </c>
     </row>
     <row r="1158" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1158" s="8">
+      <c r="A1158" s="2">
         <v>45070</v>
       </c>
-      <c r="B1158" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1158" s="9" t="s">
+      <c r="B1158" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1158" t="s">
         <v>171</v>
       </c>
-      <c r="D1158" s="9" t="s">
+      <c r="D1158" t="s">
         <v>266</v>
       </c>
-      <c r="E1158" s="9">
+      <c r="E1158">
         <v>26.6</v>
       </c>
     </row>
     <row r="1159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1159" s="8">
+      <c r="A1159" s="2">
         <v>45070</v>
       </c>
-      <c r="B1159" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1159" s="9" t="s">
+      <c r="B1159" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1159" t="s">
         <v>171</v>
       </c>
-      <c r="D1159" s="9" t="s">
+      <c r="D1159" t="s">
         <v>266</v>
       </c>
-      <c r="E1159" s="9">
+      <c r="E1159">
         <v>3</v>
       </c>
     </row>
     <row r="1160" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1160" s="8">
+      <c r="A1160" s="2">
         <v>45070</v>
       </c>
       <c r="B1160" t="s">
         <v>21</v>
       </c>
-      <c r="C1160" s="9" t="s">
+      <c r="C1160" t="s">
         <v>445</v>
       </c>
-      <c r="D1160" s="9" t="s">
+      <c r="D1160" t="s">
         <v>266</v>
       </c>
-      <c r="E1160" s="9">
+      <c r="E1160">
         <v>-11.66</v>
       </c>
     </row>
     <row r="1161" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1161" s="8">
+      <c r="A1161" s="2">
         <v>45070</v>
       </c>
       <c r="B1161" t="s">
         <v>21</v>
       </c>
-      <c r="C1161" s="9" t="s">
+      <c r="C1161" t="s">
         <v>157</v>
       </c>
-      <c r="D1161" s="9" t="s">
+      <c r="D1161" t="s">
         <v>268</v>
       </c>
-      <c r="E1161" s="9">
+      <c r="E1161">
         <v>-20.52</v>
       </c>
     </row>
     <row r="1162" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1162" s="8">
+      <c r="A1162" s="2">
         <v>45070</v>
       </c>
       <c r="B1162" t="s">
         <v>21</v>
       </c>
-      <c r="C1162" s="9" t="s">
+      <c r="C1162" t="s">
         <v>227</v>
       </c>
-      <c r="D1162" s="9" t="s">
+      <c r="D1162" t="s">
         <v>265</v>
       </c>
-      <c r="E1162" s="9">
+      <c r="E1162">
         <v>-149.9</v>
       </c>
     </row>
     <row r="1163" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1163" s="8">
+      <c r="A1163" s="2">
         <v>45071</v>
       </c>
       <c r="B1163" t="s">
         <v>21</v>
       </c>
-      <c r="C1163" s="9" t="s">
+      <c r="C1163" t="s">
         <v>181</v>
       </c>
-      <c r="D1163" s="9" t="s">
+      <c r="D1163" t="s">
         <v>263</v>
       </c>
-      <c r="E1163" s="9">
+      <c r="E1163">
         <v>-23.1</v>
       </c>
     </row>
     <row r="1164" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1164" s="8">
+      <c r="A1164" s="2">
         <v>45071</v>
       </c>
       <c r="B1164" t="s">
         <v>21</v>
       </c>
-      <c r="C1164" s="9" t="s">
+      <c r="C1164" t="s">
         <v>165</v>
       </c>
-      <c r="D1164" s="9" t="s">
+      <c r="D1164" t="s">
         <v>268</v>
       </c>
-      <c r="E1164" s="9">
+      <c r="E1164">
         <v>-17.39</v>
       </c>
     </row>
     <row r="1165" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1165" s="8">
+      <c r="A1165" s="2">
         <v>45072</v>
       </c>
       <c r="B1165" t="s">
         <v>21</v>
       </c>
-      <c r="C1165" s="9" t="s">
+      <c r="C1165" t="s">
         <v>414</v>
       </c>
-      <c r="D1165" s="9" t="s">
+      <c r="D1165" t="s">
         <v>268</v>
       </c>
-      <c r="E1165" s="9">
+      <c r="E1165">
         <v>-11.41</v>
       </c>
     </row>
     <row r="1166" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1166" s="8">
+      <c r="A1166" s="2">
         <v>45072</v>
       </c>
       <c r="B1166" t="s">
         <v>21</v>
       </c>
-      <c r="C1166" s="9" t="s">
+      <c r="C1166" t="s">
         <v>318</v>
       </c>
-      <c r="D1166" s="9" t="s">
+      <c r="D1166" t="s">
         <v>310</v>
       </c>
-      <c r="E1166" s="9">
+      <c r="E1166">
         <v>-52.9</v>
       </c>
     </row>
     <row r="1167" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1167" s="8">
+      <c r="A1167" s="2">
         <v>45073</v>
       </c>
       <c r="B1167" t="s">
         <v>21</v>
       </c>
-      <c r="C1167" s="9" t="s">
+      <c r="C1167" t="s">
         <v>152</v>
       </c>
-      <c r="D1167" s="9" t="s">
+      <c r="D1167" t="s">
         <v>12</v>
       </c>
-      <c r="E1167" s="9">
+      <c r="E1167">
         <v>-200.36</v>
       </c>
     </row>
     <row r="1168" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1168" s="8">
+      <c r="A1168" s="2">
         <v>45074</v>
       </c>
       <c r="B1168" t="s">
         <v>21</v>
       </c>
-      <c r="C1168" s="9" t="s">
+      <c r="C1168" t="s">
         <v>172</v>
       </c>
-      <c r="D1168" s="9" t="s">
+      <c r="D1168" t="s">
         <v>263</v>
       </c>
-      <c r="E1168" s="9">
+      <c r="E1168">
         <v>-9.99</v>
       </c>
     </row>
     <row r="1169" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1169" s="8">
+      <c r="A1169" s="2">
         <v>45074</v>
       </c>
       <c r="B1169" t="s">
         <v>21</v>
       </c>
-      <c r="C1169" s="9" t="s">
+      <c r="C1169" t="s">
         <v>412</v>
       </c>
-      <c r="D1169" s="9" t="s">
+      <c r="D1169" t="s">
         <v>263</v>
       </c>
-      <c r="E1169" s="9">
+      <c r="E1169">
         <v>-16.11</v>
       </c>
     </row>
     <row r="1170" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1170" s="8">
+      <c r="A1170" s="2">
         <v>45074</v>
       </c>
       <c r="B1170" t="s">
         <v>21</v>
       </c>
-      <c r="C1170" s="9" t="s">
+      <c r="C1170" t="s">
         <v>444</v>
       </c>
-      <c r="D1170" s="9" t="s">
+      <c r="D1170" t="s">
         <v>264</v>
       </c>
-      <c r="E1170" s="9">
+      <c r="E1170">
         <v>-71.75</v>
       </c>
     </row>
     <row r="1171" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1171" s="8">
+      <c r="A1171" s="2">
         <v>45075</v>
       </c>
       <c r="B1171" t="s">
         <v>21</v>
       </c>
-      <c r="C1171" s="9" t="s">
+      <c r="C1171" t="s">
         <v>443</v>
       </c>
-      <c r="D1171" s="9" t="s">
+      <c r="D1171" t="s">
         <v>263</v>
       </c>
-      <c r="E1171" s="9">
+      <c r="E1171">
         <v>-23</v>
       </c>
     </row>
     <row r="1172" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1172" s="8">
+      <c r="A1172" s="2">
         <v>45075</v>
       </c>
       <c r="B1172" t="s">
         <v>21</v>
       </c>
-      <c r="C1172" s="9" t="s">
+      <c r="C1172" t="s">
         <v>224</v>
       </c>
-      <c r="D1172" s="9" t="s">
+      <c r="D1172" t="s">
         <v>265</v>
       </c>
-      <c r="E1172" s="9">
+      <c r="E1172">
         <v>-96.45</v>
       </c>
     </row>
     <row r="1173" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1173" s="8">
+      <c r="A1173" s="2">
         <v>45076</v>
       </c>
-      <c r="B1173" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1173" s="9" t="s">
+      <c r="B1173" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1173" t="s">
         <v>106</v>
       </c>
-      <c r="D1173" s="9" t="s">
+      <c r="D1173" t="s">
         <v>266</v>
       </c>
-      <c r="E1173" s="9">
+      <c r="E1173">
         <v>-160.65</v>
       </c>
     </row>
     <row r="1174" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1174" s="8">
+      <c r="A1174" s="2">
         <v>45076</v>
       </c>
-      <c r="B1174" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1174" s="9" t="s">
+      <c r="B1174" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1174" t="s">
         <v>442</v>
       </c>
-      <c r="D1174" s="9" t="s">
+      <c r="D1174" t="s">
         <v>232</v>
       </c>
-      <c r="E1174" s="9">
+      <c r="E1174">
         <v>2250</v>
       </c>
     </row>
     <row r="1175" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1175" s="8">
+      <c r="A1175" s="2">
         <v>45076</v>
       </c>
-      <c r="B1175" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1175" s="9" t="s">
+      <c r="B1175" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1175" t="s">
         <v>71</v>
       </c>
-      <c r="D1175" s="9" t="s">
+      <c r="D1175" t="s">
         <v>32</v>
       </c>
-      <c r="E1175" s="9">
+      <c r="E1175">
         <v>3102.3</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1176" s="8">
+        <v>45076</v>
+      </c>
+      <c r="B1176" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1176" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="D1176" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1176" s="9">
+        <v>-38.81</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1177" s="8">
+        <v>45076</v>
+      </c>
+      <c r="B1177" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1177" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="D1177" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1177" s="9">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1178" s="8">
+        <v>45077</v>
+      </c>
+      <c r="B1178" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1178" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="D1178" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1178" s="9">
+        <v>-150.9</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1179" s="8">
+        <v>45077</v>
+      </c>
+      <c r="B1179" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1179" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1179" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1179" s="9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1180" s="8">
+        <v>45077</v>
+      </c>
+      <c r="B1180" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1180" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D1180" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1180" s="9">
+        <v>-5.71</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1181" s="8">
+        <v>45077</v>
+      </c>
+      <c r="B1181" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1181" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="D1181" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E1181" s="9">
+        <v>-126.15</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1182" s="8">
+        <v>45078</v>
+      </c>
+      <c r="B1182" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1182" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1182" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1182" s="9">
+        <v>-2063.79</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1183" s="8">
+        <v>45078</v>
+      </c>
+      <c r="B1183" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1183" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="D1183" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="E1183" s="9">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1184" s="8">
+        <v>45078</v>
+      </c>
+      <c r="B1184" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1184" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1184" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1184" s="9">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1185" s="8">
+        <v>45078</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1185" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1185" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1185" s="9">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1186" s="8">
+        <v>45078</v>
+      </c>
+      <c r="B1186" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1186" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1186" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1186" s="9">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1187" s="8">
+        <v>45078</v>
+      </c>
+      <c r="B1187" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1187" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1187" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1187" s="9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1188" s="8">
+        <v>45078</v>
+      </c>
+      <c r="B1188" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1188" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1188" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1188" s="9">
+        <v>2063.79</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1189" s="8">
+        <v>45078</v>
+      </c>
+      <c r="B1189" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1189" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1189" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1189" s="9">
+        <v>-57.2</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1190" s="8">
+        <v>45078</v>
+      </c>
+      <c r="B1190" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1190" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="D1190" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1190" s="9">
+        <v>-13.33</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1191" s="8">
+        <v>45079</v>
+      </c>
+      <c r="B1191" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1191" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="D1191" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1191" s="9">
+        <v>-42.5</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1192" s="8">
+        <v>45079</v>
+      </c>
+      <c r="B1192" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1192" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1192" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1192" s="9">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1193" s="8">
+        <v>45079</v>
+      </c>
+      <c r="B1193" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1193" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1193" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="E1193" s="9">
+        <v>-3000</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1194" s="8">
+        <v>45079</v>
+      </c>
+      <c r="B1194" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1194" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1194" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="E1194" s="9">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1195" s="8">
+        <v>45080</v>
+      </c>
+      <c r="B1195" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1195" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="D1195" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1195" s="9">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1196" s="8">
+        <v>45081</v>
+      </c>
+      <c r="B1196" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1196" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="D1196" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1196" s="9">
+        <v>-53.39</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1197" s="8">
+        <v>45081</v>
+      </c>
+      <c r="B1197" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1197" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="D1197" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1197" s="9">
+        <v>-14.99</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1198" s="8">
+        <v>45081</v>
+      </c>
+      <c r="B1198" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1198" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="D1198" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1198" s="9">
+        <v>-6.18</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1199" s="8">
+        <v>45081</v>
+      </c>
+      <c r="B1199" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1199" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="D1199" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1199" s="9">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1200" s="8">
+        <v>45081</v>
+      </c>
+      <c r="B1200" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1200" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="D1200" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1200" s="9">
+        <v>-8.24</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1201" s="8">
+        <v>45081</v>
+      </c>
+      <c r="B1201" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1201" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="D1201" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1201" s="9">
+        <v>-53.97</v>
       </c>
     </row>
   </sheetData>
@@ -21898,7 +22367,7 @@
           <x14:formula1>
             <xm:f>OFFSET(Categories!$A$2,0,0,COUNTIF(Categories!$A$2:$A$99,"&lt;&gt;"))</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D1175</xm:sqref>
+          <xm:sqref>D2:D1201</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Expenses.xlsx
+++ b/Expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffgood/Desktop/R_Studio_Projects/Financial_Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C0807F-8B37-E34F-AF8B-9AB3DBB4D61C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92D8141-4324-9D4E-B121-3BE1C2706262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="14940" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3629" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3743" uniqueCount="464">
   <si>
     <t>Date</t>
   </si>
@@ -1406,6 +1406,33 @@
   </si>
   <si>
     <t>Dancevibe</t>
+  </si>
+  <si>
+    <t>brightwheel      BRGHTWHL*  ***********O2J6</t>
+  </si>
+  <si>
+    <t>HARRIS TEETER #413</t>
+  </si>
+  <si>
+    <t>HILTON ALEXANDRIA MC FB</t>
+  </si>
+  <si>
+    <t>Canteen Vending</t>
+  </si>
+  <si>
+    <t>MED*FOR SELECT MEDICAL PT</t>
+  </si>
+  <si>
+    <t>STARBUCKS 800-782-7282</t>
+  </si>
+  <si>
+    <t>The Mane Studio, Llc</t>
+  </si>
+  <si>
+    <t>Safeway</t>
+  </si>
+  <si>
+    <t>Thai Select</t>
   </si>
 </sst>
 </file>
@@ -1576,10 +1603,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E1201" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E1201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E1201">
-    <sortCondition ref="A1:A1201"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E1239" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E1239" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E1239">
+    <sortCondition ref="A1:A1239"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="4"/>
@@ -1889,7 +1916,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1201"/>
+  <dimension ref="A1:E1239"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D843" sqref="D843"/>
@@ -21913,445 +21940,1091 @@
       </c>
     </row>
     <row r="1176" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1176" s="8">
+      <c r="A1176" s="2">
         <v>45076</v>
       </c>
-      <c r="B1176" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1176" s="9" t="s">
+      <c r="B1176" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1176" t="s">
         <v>453</v>
       </c>
-      <c r="D1176" s="9" t="s">
+      <c r="D1176" t="s">
         <v>268</v>
       </c>
-      <c r="E1176" s="9">
+      <c r="E1176">
         <v>-38.81</v>
       </c>
     </row>
     <row r="1177" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1177" s="8">
+      <c r="A1177" s="2">
         <v>45076</v>
       </c>
-      <c r="B1177" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1177" s="9" t="s">
+      <c r="B1177" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1177" t="s">
         <v>454</v>
       </c>
-      <c r="D1177" s="9" t="s">
+      <c r="D1177" t="s">
         <v>263</v>
       </c>
-      <c r="E1177" s="9">
+      <c r="E1177">
         <v>-60</v>
       </c>
     </row>
     <row r="1178" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1178" s="8">
+      <c r="A1178" s="2">
         <v>45077</v>
       </c>
       <c r="B1178" t="s">
         <v>7</v>
       </c>
-      <c r="C1178" s="9" t="s">
+      <c r="C1178" t="s">
         <v>446</v>
       </c>
-      <c r="D1178" s="9" t="s">
+      <c r="D1178" t="s">
         <v>54</v>
       </c>
-      <c r="E1178" s="9">
+      <c r="E1178">
         <v>-150.9</v>
       </c>
     </row>
     <row r="1179" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1179" s="8">
+      <c r="A1179" s="2">
         <v>45077</v>
       </c>
-      <c r="B1179" s="9" t="s">
+      <c r="B1179" t="s">
         <v>16</v>
       </c>
-      <c r="C1179" s="9" t="s">
+      <c r="C1179" t="s">
         <v>169</v>
       </c>
-      <c r="D1179" s="9" t="s">
+      <c r="D1179" t="s">
         <v>14</v>
       </c>
-      <c r="E1179" s="9">
+      <c r="E1179">
         <v>0.1</v>
       </c>
     </row>
     <row r="1180" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1180" s="8">
+      <c r="A1180" s="2">
         <v>45077</v>
       </c>
-      <c r="B1180" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1180" s="9" t="s">
+      <c r="B1180" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1180" t="s">
         <v>221</v>
       </c>
-      <c r="D1180" s="9" t="s">
+      <c r="D1180" t="s">
         <v>265</v>
       </c>
-      <c r="E1180" s="9">
+      <c r="E1180">
         <v>-5.71</v>
       </c>
     </row>
     <row r="1181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1181" s="8">
+      <c r="A1181" s="2">
         <v>45077</v>
       </c>
-      <c r="B1181" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1181" s="9" t="s">
+      <c r="B1181" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1181" t="s">
         <v>351</v>
       </c>
-      <c r="D1181" s="9" t="s">
+      <c r="D1181" t="s">
         <v>310</v>
       </c>
-      <c r="E1181" s="9">
+      <c r="E1181">
         <v>-126.15</v>
       </c>
     </row>
     <row r="1182" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1182" s="8">
+      <c r="A1182" s="2">
         <v>45078</v>
       </c>
       <c r="B1182" t="s">
         <v>7</v>
       </c>
-      <c r="C1182" s="9" t="s">
+      <c r="C1182" t="s">
         <v>174</v>
       </c>
-      <c r="D1182" s="9" t="s">
+      <c r="D1182" t="s">
         <v>91</v>
       </c>
-      <c r="E1182" s="9">
+      <c r="E1182">
         <v>-2063.79</v>
       </c>
     </row>
     <row r="1183" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1183" s="8">
+      <c r="A1183" s="2">
         <v>45078</v>
       </c>
       <c r="B1183" t="s">
         <v>7</v>
       </c>
-      <c r="C1183" s="9" t="s">
+      <c r="C1183" t="s">
         <v>390</v>
       </c>
-      <c r="D1183" s="9" t="s">
+      <c r="D1183" t="s">
         <v>394</v>
       </c>
-      <c r="E1183" s="9">
+      <c r="E1183">
         <v>-1400</v>
       </c>
     </row>
     <row r="1184" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1184" s="8">
+      <c r="A1184" s="2">
         <v>45078</v>
       </c>
       <c r="B1184" t="s">
         <v>7</v>
       </c>
-      <c r="C1184" s="9" t="s">
+      <c r="C1184" t="s">
         <v>147</v>
       </c>
-      <c r="D1184" s="9" t="s">
+      <c r="D1184" t="s">
         <v>9</v>
       </c>
-      <c r="E1184" s="9">
+      <c r="E1184">
         <v>-1400</v>
       </c>
     </row>
     <row r="1185" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1185" s="8">
+      <c r="A1185" s="2">
         <v>45078</v>
       </c>
       <c r="B1185" t="s">
         <v>7</v>
       </c>
-      <c r="C1185" s="9" t="s">
+      <c r="C1185" t="s">
         <v>147</v>
       </c>
-      <c r="D1185" s="9" t="s">
+      <c r="D1185" t="s">
         <v>9</v>
       </c>
-      <c r="E1185" s="9">
+      <c r="E1185">
         <v>-300</v>
       </c>
     </row>
     <row r="1186" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1186" s="8">
+      <c r="A1186" s="2">
         <v>45078</v>
       </c>
-      <c r="B1186" s="9" t="s">
+      <c r="B1186" t="s">
         <v>16</v>
       </c>
-      <c r="C1186" s="9" t="s">
+      <c r="C1186" t="s">
         <v>147</v>
       </c>
-      <c r="D1186" s="9" t="s">
+      <c r="D1186" t="s">
         <v>9</v>
       </c>
-      <c r="E1186" s="9">
+      <c r="E1186">
         <v>1400</v>
       </c>
     </row>
     <row r="1187" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1187" s="8">
+      <c r="A1187" s="2">
         <v>45078</v>
       </c>
-      <c r="B1187" s="9" t="s">
+      <c r="B1187" t="s">
         <v>16</v>
       </c>
-      <c r="C1187" s="9" t="s">
+      <c r="C1187" t="s">
         <v>147</v>
       </c>
-      <c r="D1187" s="9" t="s">
+      <c r="D1187" t="s">
         <v>9</v>
       </c>
-      <c r="E1187" s="9">
+      <c r="E1187">
         <v>300</v>
       </c>
     </row>
     <row r="1188" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1188" s="8">
+      <c r="A1188" s="2">
         <v>45078</v>
       </c>
-      <c r="B1188" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1188" s="9" t="s">
+      <c r="B1188" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1188" t="s">
         <v>174</v>
       </c>
-      <c r="D1188" s="9" t="s">
+      <c r="D1188" t="s">
         <v>91</v>
       </c>
-      <c r="E1188" s="9">
+      <c r="E1188">
         <v>2063.79</v>
       </c>
     </row>
     <row r="1189" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1189" s="8">
+      <c r="A1189" s="2">
         <v>45078</v>
       </c>
-      <c r="B1189" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1189" s="9" t="s">
+      <c r="B1189" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1189" t="s">
         <v>51</v>
       </c>
-      <c r="D1189" s="9" t="s">
+      <c r="D1189" t="s">
         <v>12</v>
       </c>
-      <c r="E1189" s="9">
+      <c r="E1189">
         <v>-57.2</v>
       </c>
     </row>
     <row r="1190" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1190" s="8">
+      <c r="A1190" s="2">
         <v>45078</v>
       </c>
-      <c r="B1190" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1190" s="9" t="s">
+      <c r="B1190" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1190" t="s">
         <v>452</v>
       </c>
-      <c r="D1190" s="9" t="s">
+      <c r="D1190" t="s">
         <v>263</v>
       </c>
-      <c r="E1190" s="9">
+      <c r="E1190">
         <v>-13.33</v>
       </c>
     </row>
     <row r="1191" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1191" s="8">
+      <c r="A1191" s="2">
         <v>45079</v>
       </c>
       <c r="B1191" t="s">
         <v>7</v>
       </c>
-      <c r="C1191" s="9" t="s">
+      <c r="C1191" t="s">
         <v>402</v>
       </c>
-      <c r="D1191" s="9" t="s">
+      <c r="D1191" t="s">
         <v>14</v>
       </c>
-      <c r="E1191" s="9">
+      <c r="E1191">
         <v>-42.5</v>
       </c>
     </row>
     <row r="1192" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1192" s="8">
+      <c r="A1192" s="2">
         <v>45079</v>
       </c>
       <c r="B1192" t="s">
         <v>7</v>
       </c>
-      <c r="C1192" s="9" t="s">
+      <c r="C1192" t="s">
         <v>183</v>
       </c>
-      <c r="D1192" s="9" t="s">
+      <c r="D1192" t="s">
         <v>14</v>
       </c>
-      <c r="E1192" s="9">
+      <c r="E1192">
         <v>2.5</v>
       </c>
     </row>
     <row r="1193" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1193" s="8">
+      <c r="A1193" s="2">
         <v>45079</v>
       </c>
-      <c r="B1193" s="9" t="s">
+      <c r="B1193" t="s">
         <v>16</v>
       </c>
-      <c r="C1193" s="9" t="s">
+      <c r="C1193" t="s">
         <v>166</v>
       </c>
-      <c r="D1193" s="9" t="s">
+      <c r="D1193" t="s">
         <v>269</v>
       </c>
-      <c r="E1193" s="9">
+      <c r="E1193">
         <v>-3000</v>
       </c>
     </row>
     <row r="1194" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1194" s="8">
+      <c r="A1194" s="2">
         <v>45079</v>
       </c>
-      <c r="B1194" s="9" t="s">
+      <c r="B1194" t="s">
         <v>16</v>
       </c>
-      <c r="C1194" s="9" t="s">
+      <c r="C1194" t="s">
         <v>166</v>
       </c>
-      <c r="D1194" s="9" t="s">
+      <c r="D1194" t="s">
         <v>269</v>
       </c>
-      <c r="E1194" s="9">
+      <c r="E1194">
         <v>-300</v>
       </c>
     </row>
     <row r="1195" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1195" s="8">
+      <c r="A1195" s="2">
         <v>45080</v>
       </c>
-      <c r="B1195" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1195" s="9" t="s">
+      <c r="B1195" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1195" t="s">
         <v>451</v>
       </c>
-      <c r="D1195" s="9" t="s">
+      <c r="D1195" t="s">
         <v>264</v>
       </c>
-      <c r="E1195" s="9">
+      <c r="E1195">
         <v>-17</v>
       </c>
     </row>
     <row r="1196" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1196" s="8">
+      <c r="A1196" s="2">
         <v>45081</v>
       </c>
-      <c r="B1196" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1196" s="9" t="s">
+      <c r="B1196" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1196" t="s">
         <v>447</v>
       </c>
-      <c r="D1196" s="9" t="s">
+      <c r="D1196" t="s">
         <v>12</v>
       </c>
-      <c r="E1196" s="9">
+      <c r="E1196">
         <v>-53.39</v>
       </c>
     </row>
     <row r="1197" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1197" s="8">
+      <c r="A1197" s="2">
         <v>45081</v>
       </c>
-      <c r="B1197" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1197" s="9" t="s">
+      <c r="B1197" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1197" t="s">
         <v>448</v>
       </c>
-      <c r="D1197" s="9" t="s">
+      <c r="D1197" t="s">
         <v>266</v>
       </c>
-      <c r="E1197" s="9">
+      <c r="E1197">
         <v>-14.99</v>
       </c>
     </row>
     <row r="1198" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1198" s="8">
+      <c r="A1198" s="2">
         <v>45081</v>
       </c>
-      <c r="B1198" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1198" s="9" t="s">
+      <c r="B1198" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1198" t="s">
         <v>449</v>
       </c>
-      <c r="D1198" s="9" t="s">
+      <c r="D1198" t="s">
         <v>12</v>
       </c>
-      <c r="E1198" s="9">
+      <c r="E1198">
         <v>-6.18</v>
       </c>
     </row>
     <row r="1199" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1199" s="8">
+      <c r="A1199" s="2">
         <v>45081</v>
       </c>
-      <c r="B1199" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1199" s="9" t="s">
+      <c r="B1199" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1199" t="s">
         <v>450</v>
       </c>
-      <c r="D1199" s="9" t="s">
+      <c r="D1199" t="s">
         <v>268</v>
       </c>
-      <c r="E1199" s="9">
+      <c r="E1199">
         <v>-7</v>
       </c>
     </row>
     <row r="1200" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1200" s="8">
+      <c r="A1200" s="2">
         <v>45081</v>
       </c>
-      <c r="B1200" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1200" s="9" t="s">
+      <c r="B1200" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1200" t="s">
         <v>449</v>
       </c>
-      <c r="D1200" s="9" t="s">
+      <c r="D1200" t="s">
         <v>263</v>
       </c>
-      <c r="E1200" s="9">
+      <c r="E1200">
         <v>-8.24</v>
       </c>
     </row>
     <row r="1201" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1201" s="8">
+      <c r="A1201" s="2">
         <v>45081</v>
       </c>
-      <c r="B1201" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1201" s="9" t="s">
+      <c r="B1201" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1201" t="s">
         <v>437</v>
       </c>
-      <c r="D1201" s="9" t="s">
+      <c r="D1201" t="s">
         <v>268</v>
       </c>
-      <c r="E1201" s="9">
+      <c r="E1201">
         <v>-53.97</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1202" s="8">
+        <v>45081</v>
+      </c>
+      <c r="B1202" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1202" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1202" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1202" s="9">
+        <v>-29.21</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1203" s="8">
+        <v>45082</v>
+      </c>
+      <c r="B1203" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1203" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1203" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1203" s="9">
+        <v>-183.7</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1204" s="8">
+        <v>45082</v>
+      </c>
+      <c r="B1204" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1204" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1204" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1204" s="9">
+        <v>-480.1</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1205" s="8">
+        <v>45083</v>
+      </c>
+      <c r="B1205" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1205" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="D1205" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1205" s="9">
+        <v>-150.9</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1206" s="8">
+        <v>45083</v>
+      </c>
+      <c r="B1206" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1206" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="D1206" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E1206" s="9">
+        <v>-65.290000000000006</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1207" s="8">
+        <v>45083</v>
+      </c>
+      <c r="B1207" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1207" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="D1207" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1207" s="9">
+        <v>-20.47</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1208" s="8">
+        <v>45083</v>
+      </c>
+      <c r="B1208" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1208" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="D1208" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1208" s="9">
+        <v>-22.77</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1209" s="8">
+        <v>45084</v>
+      </c>
+      <c r="B1209" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1209" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1209" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1209" s="9">
+        <v>-12.67</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1210" s="8">
+        <v>45084</v>
+      </c>
+      <c r="B1210" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1210" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1210" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1210" s="9">
+        <v>-17.54</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1211" s="8">
+        <v>45084</v>
+      </c>
+      <c r="B1211" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1211" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="D1211" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E1211" s="9">
+        <v>-47.9</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1212" s="8">
+        <v>45085</v>
+      </c>
+      <c r="B1212" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1212" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1212" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1212" s="9">
+        <v>-26.6</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1213" s="8">
+        <v>45086</v>
+      </c>
+      <c r="B1213" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1213" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="D1213" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1213" s="9">
+        <v>-285</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1214" s="8">
+        <v>45086</v>
+      </c>
+      <c r="B1214" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1214" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D1214" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1214" s="9">
+        <v>-13.77</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1215" s="8">
+        <v>45086</v>
+      </c>
+      <c r="B1215" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1215" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="D1215" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E1215" s="9">
+        <v>-50.11</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1216" s="8">
+        <v>45086</v>
+      </c>
+      <c r="B1216" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1216" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="D1216" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E1216" s="9">
+        <v>-23.31</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1217" s="8">
+        <v>45086</v>
+      </c>
+      <c r="B1217" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1217" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1217" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1217" s="9">
+        <v>-7.22</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1218" s="8">
+        <v>45087</v>
+      </c>
+      <c r="B1218" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1218" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="D1218" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1218" s="9">
+        <v>-42.66</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1219" s="8">
+        <v>45087</v>
+      </c>
+      <c r="B1219" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1219" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1219" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1219" s="9">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1220" s="8">
+        <v>45087</v>
+      </c>
+      <c r="B1220" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1220" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1220" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1220" s="9">
+        <v>-46.88</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1221" s="8">
+        <v>45087</v>
+      </c>
+      <c r="B1221" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1221" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1221" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1221" s="9">
+        <v>-34.17</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1222" s="8">
+        <v>45087</v>
+      </c>
+      <c r="B1222" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1222" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1222" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1222" s="9">
+        <v>-26.86</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1223" s="8">
+        <v>45087</v>
+      </c>
+      <c r="B1223" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1223" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1223" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1223" s="9">
+        <v>-2.99</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1224" s="8">
+        <v>45087</v>
+      </c>
+      <c r="B1224" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1224" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="D1224" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E1224" s="9">
+        <v>-33.65</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1225" s="8">
+        <v>45087</v>
+      </c>
+      <c r="B1225" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1225" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1225" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1225" s="9">
+        <v>-171.71</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1226" s="8">
+        <v>45088</v>
+      </c>
+      <c r="B1226" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1226" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="D1226" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1226" s="9">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1227" s="8">
+        <v>45088</v>
+      </c>
+      <c r="B1227" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1227" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="D1227" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1227" s="9">
+        <v>-8.9</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1228" s="8">
+        <v>45088</v>
+      </c>
+      <c r="B1228" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1228" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1228" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1228" s="9">
+        <v>-29.25</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1229" s="8">
+        <v>45089</v>
+      </c>
+      <c r="B1229" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1229" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1229" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1229" s="9">
+        <v>-51.68</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1230" s="8">
+        <v>45089</v>
+      </c>
+      <c r="B1230" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1230" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="D1230" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1230" s="9">
+        <v>-12.54</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1231" s="8">
+        <v>45089</v>
+      </c>
+      <c r="B1231" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1231" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="D1231" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1231" s="9">
+        <v>-6.66</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1232" s="8">
+        <v>45089</v>
+      </c>
+      <c r="B1232" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1232" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="D1232" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1232" s="9">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1233" s="8">
+        <v>45089</v>
+      </c>
+      <c r="B1233" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1233" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="D1233" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1233" s="9">
+        <v>-37</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1234" s="8">
+        <v>45089</v>
+      </c>
+      <c r="B1234" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1234" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1234" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1234" s="9">
+        <v>-2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1235" s="8">
+        <v>45090</v>
+      </c>
+      <c r="B1235" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1235" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1235" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1235" s="9">
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1236" s="8">
+        <v>45090</v>
+      </c>
+      <c r="B1236" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1236" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1236" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1236" s="9">
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1237" s="8">
+        <v>45090</v>
+      </c>
+      <c r="B1237" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1237" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1237" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1237" s="9">
+        <v>-24.16</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1238" s="8">
+        <v>45090</v>
+      </c>
+      <c r="B1238" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1238" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="D1238" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1238" s="9">
+        <v>-150.9</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1239" s="8">
+        <v>45090</v>
+      </c>
+      <c r="B1239" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1239" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1239" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1239" s="9">
+        <v>3102.85</v>
       </c>
     </row>
   </sheetData>
@@ -22367,7 +23040,7 @@
           <x14:formula1>
             <xm:f>OFFSET(Categories!$A$2,0,0,COUNTIF(Categories!$A$2:$A$99,"&lt;&gt;"))</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D1201</xm:sqref>
+          <xm:sqref>D2:D1239</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Expenses.xlsx
+++ b/Expenses.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffgood/Desktop/R_Studio_Projects/Financial_Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92D8141-4324-9D4E-B121-3BE1C2706262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3C077A-400C-4642-8687-18E56F0F44C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="14940" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3743" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3818" uniqueCount="472">
   <si>
     <t>Date</t>
   </si>
@@ -1433,6 +1433,30 @@
   </si>
   <si>
     <t>Thai Select</t>
+  </si>
+  <si>
+    <t>Overdraft Advance Transfer In</t>
+  </si>
+  <si>
+    <t>Overdraft Advance Transfer Out</t>
+  </si>
+  <si>
+    <t>IRS Tax Payment</t>
+  </si>
+  <si>
+    <t>COMCAST THREERIVERS,PA</t>
+  </si>
+  <si>
+    <t>97612 - ON-STREET</t>
+  </si>
+  <si>
+    <t>VIOC AN3102              CAMP HILL    PA</t>
+  </si>
+  <si>
+    <t>BP Gas</t>
+  </si>
+  <si>
+    <t>Canteen Vending Machine</t>
   </si>
 </sst>
 </file>
@@ -1603,10 +1627,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E1239" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E1239" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E1239">
-    <sortCondition ref="A1:A1239"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E1264" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E1264" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E1264">
+    <sortCondition ref="A1:A1264"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="4"/>
@@ -1916,11 +1940,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1239"/>
+  <dimension ref="A1:E1264"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D843" sqref="D843"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -22382,649 +22404,1074 @@
       </c>
     </row>
     <row r="1202" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1202" s="8">
+      <c r="A1202" s="2">
         <v>45081</v>
       </c>
       <c r="B1202" t="s">
         <v>21</v>
       </c>
-      <c r="C1202" s="9" t="s">
+      <c r="C1202" t="s">
         <v>161</v>
       </c>
-      <c r="D1202" s="9" t="s">
+      <c r="D1202" t="s">
         <v>264</v>
       </c>
-      <c r="E1202" s="9">
+      <c r="E1202">
         <v>-29.21</v>
       </c>
     </row>
     <row r="1203" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1203" s="8">
+      <c r="A1203" s="2">
         <v>45082</v>
       </c>
       <c r="B1203" t="s">
         <v>7</v>
       </c>
-      <c r="C1203" s="9" t="s">
+      <c r="C1203" t="s">
         <v>203</v>
       </c>
-      <c r="D1203" s="9" t="s">
+      <c r="D1203" t="s">
         <v>10</v>
       </c>
-      <c r="E1203" s="9">
+      <c r="E1203">
         <v>-183.7</v>
       </c>
     </row>
     <row r="1204" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1204" s="8">
+      <c r="A1204" s="2">
         <v>45082</v>
       </c>
       <c r="B1204" t="s">
         <v>21</v>
       </c>
-      <c r="C1204" s="9" t="s">
+      <c r="C1204" t="s">
         <v>180</v>
       </c>
-      <c r="D1204" s="9" t="s">
+      <c r="D1204" t="s">
         <v>90</v>
       </c>
-      <c r="E1204" s="9">
+      <c r="E1204">
         <v>-480.1</v>
       </c>
     </row>
     <row r="1205" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1205" s="8">
+      <c r="A1205" s="2">
         <v>45083</v>
       </c>
       <c r="B1205" t="s">
         <v>7</v>
       </c>
-      <c r="C1205" s="9" t="s">
+      <c r="C1205" t="s">
         <v>446</v>
       </c>
-      <c r="D1205" s="9" t="s">
+      <c r="D1205" t="s">
         <v>54</v>
       </c>
-      <c r="E1205" s="9">
+      <c r="E1205">
         <v>-150.9</v>
       </c>
     </row>
     <row r="1206" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1206" s="8">
+      <c r="A1206" s="2">
         <v>45083</v>
       </c>
       <c r="B1206" t="s">
         <v>21</v>
       </c>
-      <c r="C1206" s="9" t="s">
+      <c r="C1206" t="s">
         <v>351</v>
       </c>
-      <c r="D1206" s="9" t="s">
+      <c r="D1206" t="s">
         <v>310</v>
       </c>
-      <c r="E1206" s="9">
+      <c r="E1206">
         <v>-65.290000000000006</v>
       </c>
     </row>
     <row r="1207" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1207" s="8">
+      <c r="A1207" s="2">
         <v>45083</v>
       </c>
       <c r="B1207" t="s">
         <v>21</v>
       </c>
-      <c r="C1207" s="9" t="s">
+      <c r="C1207" t="s">
         <v>462</v>
       </c>
-      <c r="D1207" s="9" t="s">
+      <c r="D1207" t="s">
         <v>12</v>
       </c>
-      <c r="E1207" s="9">
+      <c r="E1207">
         <v>-20.47</v>
       </c>
     </row>
     <row r="1208" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1208" s="8">
+      <c r="A1208" s="2">
         <v>45083</v>
       </c>
       <c r="B1208" t="s">
         <v>21</v>
       </c>
-      <c r="C1208" s="9" t="s">
+      <c r="C1208" t="s">
         <v>463</v>
       </c>
-      <c r="D1208" s="9" t="s">
+      <c r="D1208" t="s">
         <v>268</v>
       </c>
-      <c r="E1208" s="9">
+      <c r="E1208">
         <v>-22.77</v>
       </c>
     </row>
     <row r="1209" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1209" s="8">
+      <c r="A1209" s="2">
         <v>45084</v>
       </c>
       <c r="B1209" t="s">
         <v>21</v>
       </c>
-      <c r="C1209" s="9" t="s">
+      <c r="C1209" t="s">
         <v>184</v>
       </c>
-      <c r="D1209" s="9" t="s">
+      <c r="D1209" t="s">
         <v>268</v>
       </c>
-      <c r="E1209" s="9">
+      <c r="E1209">
         <v>-12.67</v>
       </c>
     </row>
     <row r="1210" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1210" s="8">
+      <c r="A1210" s="2">
         <v>45084</v>
       </c>
       <c r="B1210" t="s">
         <v>21</v>
       </c>
-      <c r="C1210" s="9" t="s">
+      <c r="C1210" t="s">
         <v>205</v>
       </c>
-      <c r="D1210" s="9" t="s">
+      <c r="D1210" t="s">
         <v>268</v>
       </c>
-      <c r="E1210" s="9">
+      <c r="E1210">
         <v>-17.54</v>
       </c>
     </row>
     <row r="1211" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1211" s="8">
+      <c r="A1211" s="2">
         <v>45084</v>
       </c>
       <c r="B1211" t="s">
         <v>21</v>
       </c>
-      <c r="C1211" s="9" t="s">
+      <c r="C1211" t="s">
         <v>351</v>
       </c>
-      <c r="D1211" s="9" t="s">
+      <c r="D1211" t="s">
         <v>310</v>
       </c>
-      <c r="E1211" s="9">
+      <c r="E1211">
         <v>-47.9</v>
       </c>
     </row>
     <row r="1212" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1212" s="8">
+      <c r="A1212" s="2">
         <v>45085</v>
       </c>
       <c r="B1212" t="s">
         <v>21</v>
       </c>
-      <c r="C1212" s="9" t="s">
+      <c r="C1212" t="s">
         <v>216</v>
       </c>
-      <c r="D1212" s="9" t="s">
+      <c r="D1212" t="s">
         <v>268</v>
       </c>
-      <c r="E1212" s="9">
+      <c r="E1212">
         <v>-26.6</v>
       </c>
     </row>
     <row r="1213" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1213" s="8">
+      <c r="A1213" s="2">
         <v>45086</v>
       </c>
       <c r="B1213" t="s">
         <v>21</v>
       </c>
-      <c r="C1213" s="9" t="s">
+      <c r="C1213" t="s">
         <v>461</v>
       </c>
-      <c r="D1213" s="9" t="s">
+      <c r="D1213" t="s">
         <v>266</v>
       </c>
-      <c r="E1213" s="9">
+      <c r="E1213">
         <v>-285</v>
       </c>
     </row>
     <row r="1214" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1214" s="8">
+      <c r="A1214" s="2">
         <v>45086</v>
       </c>
       <c r="B1214" t="s">
         <v>21</v>
       </c>
-      <c r="C1214" s="9" t="s">
+      <c r="C1214" t="s">
         <v>285</v>
       </c>
-      <c r="D1214" s="9" t="s">
+      <c r="D1214" t="s">
         <v>268</v>
       </c>
-      <c r="E1214" s="9">
+      <c r="E1214">
         <v>-13.77</v>
       </c>
     </row>
     <row r="1215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1215" s="8">
+      <c r="A1215" s="2">
         <v>45086</v>
       </c>
       <c r="B1215" t="s">
         <v>21</v>
       </c>
-      <c r="C1215" s="9" t="s">
+      <c r="C1215" t="s">
         <v>351</v>
       </c>
-      <c r="D1215" s="9" t="s">
+      <c r="D1215" t="s">
         <v>310</v>
       </c>
-      <c r="E1215" s="9">
+      <c r="E1215">
         <v>-50.11</v>
       </c>
     </row>
     <row r="1216" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1216" s="8">
+      <c r="A1216" s="2">
         <v>45086</v>
       </c>
       <c r="B1216" t="s">
         <v>21</v>
       </c>
-      <c r="C1216" s="9" t="s">
+      <c r="C1216" t="s">
         <v>303</v>
       </c>
-      <c r="D1216" s="9" t="s">
+      <c r="D1216" t="s">
         <v>310</v>
       </c>
-      <c r="E1216" s="9">
+      <c r="E1216">
         <v>-23.31</v>
       </c>
     </row>
     <row r="1217" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1217" s="8">
+      <c r="A1217" s="2">
         <v>45086</v>
       </c>
       <c r="B1217" t="s">
         <v>21</v>
       </c>
-      <c r="C1217" s="9" t="s">
+      <c r="C1217" t="s">
         <v>206</v>
       </c>
-      <c r="D1217" s="9" t="s">
+      <c r="D1217" t="s">
         <v>262</v>
       </c>
-      <c r="E1217" s="9">
+      <c r="E1217">
         <v>-7.22</v>
       </c>
     </row>
     <row r="1218" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1218" s="8">
+      <c r="A1218" s="2">
         <v>45087</v>
       </c>
       <c r="B1218" t="s">
         <v>21</v>
       </c>
-      <c r="C1218" s="9" t="s">
+      <c r="C1218" t="s">
         <v>387</v>
       </c>
-      <c r="D1218" s="9" t="s">
+      <c r="D1218" t="s">
         <v>265</v>
       </c>
-      <c r="E1218" s="9">
+      <c r="E1218">
         <v>-42.66</v>
       </c>
     </row>
     <row r="1219" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1219" s="8">
+      <c r="A1219" s="2">
         <v>45087</v>
       </c>
       <c r="B1219" t="s">
         <v>21</v>
       </c>
-      <c r="C1219" s="9" t="s">
+      <c r="C1219" t="s">
         <v>101</v>
       </c>
-      <c r="D1219" s="9" t="s">
+      <c r="D1219" t="s">
         <v>264</v>
       </c>
-      <c r="E1219" s="9">
+      <c r="E1219">
         <v>-15</v>
       </c>
     </row>
     <row r="1220" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1220" s="8">
+      <c r="A1220" s="2">
         <v>45087</v>
       </c>
       <c r="B1220" t="s">
         <v>21</v>
       </c>
-      <c r="C1220" s="9" t="s">
+      <c r="C1220" t="s">
         <v>101</v>
       </c>
-      <c r="D1220" s="9" t="s">
+      <c r="D1220" t="s">
         <v>264</v>
       </c>
-      <c r="E1220" s="9">
+      <c r="E1220">
         <v>-46.88</v>
       </c>
     </row>
     <row r="1221" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1221" s="8">
+      <c r="A1221" s="2">
         <v>45087</v>
       </c>
       <c r="B1221" t="s">
         <v>21</v>
       </c>
-      <c r="C1221" s="9" t="s">
+      <c r="C1221" t="s">
         <v>157</v>
       </c>
-      <c r="D1221" s="9" t="s">
+      <c r="D1221" t="s">
         <v>268</v>
       </c>
-      <c r="E1221" s="9">
+      <c r="E1221">
         <v>-34.17</v>
       </c>
     </row>
     <row r="1222" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1222" s="8">
+      <c r="A1222" s="2">
         <v>45087</v>
       </c>
       <c r="B1222" t="s">
         <v>21</v>
       </c>
-      <c r="C1222" s="9" t="s">
+      <c r="C1222" t="s">
         <v>149</v>
       </c>
-      <c r="D1222" s="9" t="s">
+      <c r="D1222" t="s">
         <v>266</v>
       </c>
-      <c r="E1222" s="9">
+      <c r="E1222">
         <v>-26.86</v>
       </c>
     </row>
     <row r="1223" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1223" s="8">
+      <c r="A1223" s="2">
         <v>45087</v>
       </c>
       <c r="B1223" t="s">
         <v>21</v>
       </c>
-      <c r="C1223" s="9" t="s">
+      <c r="C1223" t="s">
         <v>149</v>
       </c>
-      <c r="D1223" s="9" t="s">
+      <c r="D1223" t="s">
         <v>266</v>
       </c>
-      <c r="E1223" s="9">
+      <c r="E1223">
         <v>-2.99</v>
       </c>
     </row>
     <row r="1224" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1224" s="8">
+      <c r="A1224" s="2">
         <v>45087</v>
       </c>
       <c r="B1224" t="s">
         <v>21</v>
       </c>
-      <c r="C1224" s="9" t="s">
+      <c r="C1224" t="s">
         <v>351</v>
       </c>
-      <c r="D1224" s="9" t="s">
+      <c r="D1224" t="s">
         <v>310</v>
       </c>
-      <c r="E1224" s="9">
+      <c r="E1224">
         <v>-33.65</v>
       </c>
     </row>
     <row r="1225" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1225" s="8">
+      <c r="A1225" s="2">
         <v>45087</v>
       </c>
       <c r="B1225" t="s">
         <v>21</v>
       </c>
-      <c r="C1225" s="9" t="s">
+      <c r="C1225" t="s">
         <v>51</v>
       </c>
-      <c r="D1225" s="9" t="s">
+      <c r="D1225" t="s">
         <v>12</v>
       </c>
-      <c r="E1225" s="9">
+      <c r="E1225">
         <v>-171.71</v>
       </c>
     </row>
     <row r="1226" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1226" s="8">
+      <c r="A1226" s="2">
         <v>45088</v>
       </c>
       <c r="B1226" t="s">
         <v>21</v>
       </c>
-      <c r="C1226" s="9" t="s">
+      <c r="C1226" t="s">
         <v>460</v>
       </c>
-      <c r="D1226" s="9" t="s">
+      <c r="D1226" t="s">
         <v>268</v>
       </c>
-      <c r="E1226" s="9">
+      <c r="E1226">
         <v>-25</v>
       </c>
     </row>
     <row r="1227" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1227" s="8">
+      <c r="A1227" s="2">
         <v>45088</v>
       </c>
       <c r="B1227" t="s">
         <v>21</v>
       </c>
-      <c r="C1227" s="9" t="s">
+      <c r="C1227" t="s">
         <v>432</v>
       </c>
-      <c r="D1227" s="9" t="s">
+      <c r="D1227" t="s">
         <v>268</v>
       </c>
-      <c r="E1227" s="9">
+      <c r="E1227">
         <v>-8.9</v>
       </c>
     </row>
     <row r="1228" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1228" s="8">
+      <c r="A1228" s="2">
         <v>45088</v>
       </c>
       <c r="B1228" t="s">
         <v>21</v>
       </c>
-      <c r="C1228" s="9" t="s">
+      <c r="C1228" t="s">
         <v>143</v>
       </c>
-      <c r="D1228" s="9" t="s">
+      <c r="D1228" t="s">
         <v>12</v>
       </c>
-      <c r="E1228" s="9">
+      <c r="E1228">
         <v>-29.25</v>
       </c>
     </row>
     <row r="1229" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1229" s="8">
+      <c r="A1229" s="2">
         <v>45089</v>
       </c>
       <c r="B1229" t="s">
         <v>7</v>
       </c>
-      <c r="C1229" s="9" t="s">
+      <c r="C1229" t="s">
         <v>106</v>
       </c>
-      <c r="D1229" s="9" t="s">
+      <c r="D1229" t="s">
         <v>266</v>
       </c>
-      <c r="E1229" s="9">
+      <c r="E1229">
         <v>-51.68</v>
       </c>
     </row>
     <row r="1230" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1230" s="8">
+      <c r="A1230" s="2">
         <v>45089</v>
       </c>
       <c r="B1230" t="s">
         <v>21</v>
       </c>
-      <c r="C1230" s="9" t="s">
+      <c r="C1230" t="s">
         <v>456</v>
       </c>
-      <c r="D1230" s="9" t="s">
+      <c r="D1230" t="s">
         <v>12</v>
       </c>
-      <c r="E1230" s="9">
+      <c r="E1230">
         <v>-12.54</v>
       </c>
     </row>
     <row r="1231" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1231" s="8">
+      <c r="A1231" s="2">
         <v>45089</v>
       </c>
       <c r="B1231" t="s">
         <v>21</v>
       </c>
-      <c r="C1231" s="9" t="s">
+      <c r="C1231" t="s">
         <v>457</v>
       </c>
-      <c r="D1231" s="9" t="s">
+      <c r="D1231" t="s">
         <v>12</v>
       </c>
-      <c r="E1231" s="9">
+      <c r="E1231">
         <v>-6.66</v>
       </c>
     </row>
     <row r="1232" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1232" s="8">
+      <c r="A1232" s="2">
         <v>45089</v>
       </c>
       <c r="B1232" t="s">
         <v>21</v>
       </c>
-      <c r="C1232" s="9" t="s">
+      <c r="C1232" t="s">
         <v>458</v>
       </c>
-      <c r="D1232" s="9" t="s">
+      <c r="D1232" t="s">
         <v>12</v>
       </c>
-      <c r="E1232" s="9">
+      <c r="E1232">
         <v>-1.5</v>
       </c>
     </row>
     <row r="1233" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1233" s="8">
+      <c r="A1233" s="2">
         <v>45089</v>
       </c>
       <c r="B1233" t="s">
         <v>21</v>
       </c>
-      <c r="C1233" s="9" t="s">
+      <c r="C1233" t="s">
         <v>459</v>
       </c>
-      <c r="D1233" s="9" t="s">
+      <c r="D1233" t="s">
         <v>262</v>
       </c>
-      <c r="E1233" s="9">
+      <c r="E1233">
         <v>-37</v>
       </c>
     </row>
     <row r="1234" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1234" s="8">
+      <c r="A1234" s="2">
         <v>45089</v>
       </c>
       <c r="B1234" t="s">
         <v>21</v>
       </c>
-      <c r="C1234" s="9" t="s">
+      <c r="C1234" t="s">
         <v>188</v>
       </c>
-      <c r="D1234" s="9" t="s">
+      <c r="D1234" t="s">
         <v>262</v>
       </c>
-      <c r="E1234" s="9">
+      <c r="E1234">
         <v>-2.0299999999999998</v>
       </c>
     </row>
     <row r="1235" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1235" s="8">
+      <c r="A1235" s="2">
         <v>45090</v>
       </c>
       <c r="B1235" t="s">
         <v>7</v>
       </c>
-      <c r="C1235" s="9" t="s">
+      <c r="C1235" t="s">
         <v>106</v>
       </c>
-      <c r="D1235" s="9" t="s">
+      <c r="D1235" t="s">
         <v>263</v>
       </c>
-      <c r="E1235" s="9">
+      <c r="E1235">
         <v>-23</v>
       </c>
     </row>
     <row r="1236" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1236" s="8">
+      <c r="A1236" s="2">
         <v>45090</v>
       </c>
       <c r="B1236" t="s">
         <v>7</v>
       </c>
-      <c r="C1236" s="9" t="s">
+      <c r="C1236" t="s">
         <v>106</v>
       </c>
-      <c r="D1236" s="9" t="s">
+      <c r="D1236" t="s">
         <v>12</v>
       </c>
-      <c r="E1236" s="9">
+      <c r="E1236">
         <v>-28</v>
       </c>
     </row>
     <row r="1237" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1237" s="8">
+      <c r="A1237" s="2">
         <v>45090</v>
       </c>
       <c r="B1237" t="s">
         <v>7</v>
       </c>
-      <c r="C1237" s="9" t="s">
+      <c r="C1237" t="s">
         <v>107</v>
       </c>
-      <c r="D1237" s="9" t="s">
+      <c r="D1237" t="s">
         <v>265</v>
       </c>
-      <c r="E1237" s="9">
+      <c r="E1237">
         <v>-24.16</v>
       </c>
     </row>
     <row r="1238" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1238" s="8">
+      <c r="A1238" s="2">
         <v>45090</v>
       </c>
       <c r="B1238" t="s">
         <v>7</v>
       </c>
-      <c r="C1238" s="9" t="s">
+      <c r="C1238" t="s">
         <v>455</v>
       </c>
-      <c r="D1238" s="9" t="s">
+      <c r="D1238" t="s">
         <v>54</v>
       </c>
-      <c r="E1238" s="9">
+      <c r="E1238">
         <v>-150.9</v>
       </c>
     </row>
     <row r="1239" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1239" s="8">
+      <c r="A1239" s="2">
         <v>45090</v>
       </c>
       <c r="B1239" t="s">
         <v>7</v>
       </c>
-      <c r="C1239" s="9" t="s">
+      <c r="C1239" t="s">
         <v>71</v>
       </c>
-      <c r="D1239" s="9" t="s">
+      <c r="D1239" t="s">
         <v>32</v>
       </c>
-      <c r="E1239" s="9">
+      <c r="E1239">
         <v>3102.85</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1240" s="8">
+        <v>45090</v>
+      </c>
+      <c r="B1240" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1240" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D1240" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1240" s="9">
+        <v>-21.93</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1241" s="8">
+        <v>45090</v>
+      </c>
+      <c r="B1241" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1241" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="D1241" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1241" s="9">
+        <v>-1.85</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1242" s="8">
+        <v>45091</v>
+      </c>
+      <c r="B1242" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1242" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1242" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1242" s="9">
+        <v>-94.57</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1243" s="8">
+        <v>45091</v>
+      </c>
+      <c r="B1243" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1243" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1243" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1243" s="9">
+        <v>-17.29</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1244" s="8">
+        <v>45091</v>
+      </c>
+      <c r="B1244" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1244" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="D1244" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1244" s="9">
+        <v>-69.739999999999995</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1245" s="8">
+        <v>45091</v>
+      </c>
+      <c r="B1245" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1245" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1245" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1245" s="9">
+        <v>-16.23</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1246" s="8">
+        <v>45092</v>
+      </c>
+      <c r="B1246" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1246" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="D1246" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1246" s="9">
+        <v>-814.04</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1247" s="8">
+        <v>45092</v>
+      </c>
+      <c r="B1247" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1247" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1247" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1247" s="9">
+        <v>-2139.75</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1248" s="8">
+        <v>45092</v>
+      </c>
+      <c r="B1248" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1248" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1248" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1248" s="9">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1249" s="8">
+        <v>45092</v>
+      </c>
+      <c r="B1249" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1249" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="D1249" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1249" s="9">
+        <v>-2100</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1250" s="8">
+        <v>45092</v>
+      </c>
+      <c r="B1250" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1250" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1250" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1250" s="9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1251" s="8">
+        <v>45092</v>
+      </c>
+      <c r="B1251" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1251" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1251" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1251" s="9">
+        <v>2139.75</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1252" s="8">
+        <v>45093</v>
+      </c>
+      <c r="B1252" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1252" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1252" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1252" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1253" s="8">
+        <v>45093</v>
+      </c>
+      <c r="B1253" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1253" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1253" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1253" s="9">
+        <v>-753.47</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1254" s="8">
+        <v>45093</v>
+      </c>
+      <c r="B1254" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1254" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="D1254" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1254" s="9">
+        <v>40.299999999999997</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1255" s="8">
+        <v>45093</v>
+      </c>
+      <c r="B1255" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1255" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1255" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="E1255" s="9">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1256" s="8">
+        <v>45093</v>
+      </c>
+      <c r="B1256" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1256" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="D1256" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1256" s="9">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1257" s="8">
+        <v>45093</v>
+      </c>
+      <c r="B1257" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1257" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="D1257" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1257" s="9">
+        <v>-40.299999999999997</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1258" s="8">
+        <v>45093</v>
+      </c>
+      <c r="B1258" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1258" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="D1258" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1258" s="9">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1259" s="8">
+        <v>45093</v>
+      </c>
+      <c r="B1259" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1259" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1259" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1259" s="9">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1260" s="8">
+        <v>45093</v>
+      </c>
+      <c r="B1260" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1260" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1260" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1260" s="9">
+        <v>-7.99</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1261" s="8">
+        <v>45094</v>
+      </c>
+      <c r="B1261" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1261" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1261" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1261" s="9">
+        <v>-9.2799999999999994</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1262" s="8">
+        <v>45094</v>
+      </c>
+      <c r="B1262" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1262" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="D1262" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1262" s="9">
+        <v>-141.9</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1263" s="8">
+        <v>45095</v>
+      </c>
+      <c r="B1263" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1263" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="D1263" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1263" s="9">
+        <v>-30.58</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1264" s="8">
+        <v>45096</v>
+      </c>
+      <c r="B1264" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1264" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="D1264" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1264" s="9">
+        <v>-39.99</v>
       </c>
     </row>
   </sheetData>
@@ -23040,7 +23487,7 @@
           <x14:formula1>
             <xm:f>OFFSET(Categories!$A$2,0,0,COUNTIF(Categories!$A$2:$A$99,"&lt;&gt;"))</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D1239</xm:sqref>
+          <xm:sqref>D2:D1264</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Expenses.xlsx
+++ b/Expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffgood/Desktop/R_Studio_Projects/Financial_Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3C077A-400C-4642-8687-18E56F0F44C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45440A7F-47A5-BC4F-94FD-E68E171327D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="14940" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3818" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3911" uniqueCount="477">
   <si>
     <t>Date</t>
   </si>
@@ -1457,6 +1457,21 @@
   </si>
   <si>
     <t>Canteen Vending Machine</t>
+  </si>
+  <si>
+    <t>NJ EZPASS</t>
+  </si>
+  <si>
+    <t>LITTLE CAESARS 3717-00</t>
+  </si>
+  <si>
+    <t>SHEETZ 0527   00005272   MECHANICSBURGPA</t>
+  </si>
+  <si>
+    <t>Med for Select Medical</t>
+  </si>
+  <si>
+    <t>Pink Blush</t>
   </si>
 </sst>
 </file>
@@ -1627,10 +1642,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E1264" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E1264" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E1264">
-    <sortCondition ref="A1:A1264"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E1295" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E1295" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E1295">
+    <sortCondition ref="A1:A1295"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="4"/>
@@ -1940,7 +1955,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1264"/>
+  <dimension ref="A1:E1295"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -23050,428 +23065,955 @@
       </c>
     </row>
     <row r="1240" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1240" s="8">
+      <c r="A1240" s="2">
         <v>45090</v>
       </c>
-      <c r="B1240" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1240" s="9" t="s">
+      <c r="B1240" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1240" t="s">
         <v>210</v>
       </c>
-      <c r="D1240" s="9" t="s">
+      <c r="D1240" t="s">
         <v>268</v>
       </c>
-      <c r="E1240" s="9">
+      <c r="E1240">
         <v>-21.93</v>
       </c>
     </row>
     <row r="1241" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1241" s="8">
+      <c r="A1241" s="2">
         <v>45090</v>
       </c>
-      <c r="B1241" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1241" s="9" t="s">
+      <c r="B1241" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1241" t="s">
         <v>471</v>
       </c>
-      <c r="D1241" s="9" t="s">
+      <c r="D1241" t="s">
         <v>268</v>
       </c>
-      <c r="E1241" s="9">
+      <c r="E1241">
         <v>-1.85</v>
       </c>
     </row>
     <row r="1242" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1242" s="8">
+      <c r="A1242" s="2">
         <v>45091</v>
       </c>
       <c r="B1242" t="s">
         <v>7</v>
       </c>
-      <c r="C1242" s="9" t="s">
+      <c r="C1242" t="s">
         <v>106</v>
       </c>
-      <c r="D1242" s="9" t="s">
+      <c r="D1242" t="s">
         <v>265</v>
       </c>
-      <c r="E1242" s="9">
+      <c r="E1242">
         <v>-94.57</v>
       </c>
     </row>
     <row r="1243" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1243" s="8">
+      <c r="A1243" s="2">
         <v>45091</v>
       </c>
-      <c r="B1243" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1243" s="9" t="s">
+      <c r="B1243" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1243" t="s">
         <v>205</v>
       </c>
-      <c r="D1243" s="9" t="s">
+      <c r="D1243" t="s">
         <v>268</v>
       </c>
-      <c r="E1243" s="9">
+      <c r="E1243">
         <v>-17.29</v>
       </c>
     </row>
     <row r="1244" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1244" s="8">
+      <c r="A1244" s="2">
         <v>45091</v>
       </c>
-      <c r="B1244" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1244" s="9" t="s">
+      <c r="B1244" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1244" t="s">
         <v>470</v>
       </c>
-      <c r="D1244" s="9" t="s">
+      <c r="D1244" t="s">
         <v>264</v>
       </c>
-      <c r="E1244" s="9">
+      <c r="E1244">
         <v>-69.739999999999995</v>
       </c>
     </row>
     <row r="1245" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1245" s="8">
+      <c r="A1245" s="2">
         <v>45091</v>
       </c>
-      <c r="B1245" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1245" s="9" t="s">
+      <c r="B1245" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1245" t="s">
         <v>165</v>
       </c>
-      <c r="D1245" s="9" t="s">
+      <c r="D1245" t="s">
         <v>268</v>
       </c>
-      <c r="E1245" s="9">
+      <c r="E1245">
         <v>-16.23</v>
       </c>
     </row>
     <row r="1246" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1246" s="8">
+      <c r="A1246" s="2">
         <v>45092</v>
       </c>
       <c r="B1246" t="s">
         <v>7</v>
       </c>
-      <c r="C1246" s="9" t="s">
+      <c r="C1246" t="s">
         <v>401</v>
       </c>
-      <c r="D1246" s="9" t="s">
+      <c r="D1246" t="s">
         <v>264</v>
       </c>
-      <c r="E1246" s="9">
+      <c r="E1246">
         <v>-814.04</v>
       </c>
     </row>
     <row r="1247" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1247" s="8">
+      <c r="A1247" s="2">
         <v>45092</v>
       </c>
       <c r="B1247" t="s">
         <v>7</v>
       </c>
-      <c r="C1247" s="9" t="s">
+      <c r="C1247" t="s">
         <v>174</v>
       </c>
-      <c r="D1247" s="9" t="s">
+      <c r="D1247" t="s">
         <v>91</v>
       </c>
-      <c r="E1247" s="9">
+      <c r="E1247">
         <v>-2139.75</v>
       </c>
     </row>
     <row r="1248" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1248" s="8">
+      <c r="A1248" s="2">
         <v>45092</v>
       </c>
       <c r="B1248" t="s">
         <v>7</v>
       </c>
-      <c r="C1248" s="9" t="s">
+      <c r="C1248" t="s">
         <v>147</v>
       </c>
-      <c r="D1248" s="9" t="s">
+      <c r="D1248" t="s">
         <v>9</v>
       </c>
-      <c r="E1248" s="9">
+      <c r="E1248">
         <v>-300</v>
       </c>
     </row>
     <row r="1249" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1249" s="8">
+      <c r="A1249" s="2">
         <v>45092</v>
       </c>
-      <c r="B1249" s="9" t="s">
+      <c r="B1249" t="s">
         <v>16</v>
       </c>
-      <c r="C1249" s="9" t="s">
+      <c r="C1249" t="s">
         <v>466</v>
       </c>
-      <c r="D1249" s="9" t="s">
+      <c r="D1249" t="s">
         <v>396</v>
       </c>
-      <c r="E1249" s="9">
+      <c r="E1249">
         <v>-2100</v>
       </c>
     </row>
     <row r="1250" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1250" s="8">
+      <c r="A1250" s="2">
         <v>45092</v>
       </c>
-      <c r="B1250" s="9" t="s">
+      <c r="B1250" t="s">
         <v>16</v>
       </c>
-      <c r="C1250" s="9" t="s">
+      <c r="C1250" t="s">
         <v>147</v>
       </c>
-      <c r="D1250" s="9" t="s">
+      <c r="D1250" t="s">
         <v>9</v>
       </c>
-      <c r="E1250" s="9">
+      <c r="E1250">
         <v>300</v>
       </c>
     </row>
     <row r="1251" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1251" s="8">
+      <c r="A1251" s="2">
         <v>45092</v>
       </c>
-      <c r="B1251" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1251" s="9" t="s">
+      <c r="B1251" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1251" t="s">
         <v>174</v>
       </c>
-      <c r="D1251" s="9" t="s">
+      <c r="D1251" t="s">
         <v>91</v>
       </c>
-      <c r="E1251" s="9">
+      <c r="E1251">
         <v>2139.75</v>
       </c>
     </row>
     <row r="1252" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1252" s="8">
+      <c r="A1252" s="2">
         <v>45093</v>
       </c>
       <c r="B1252" t="s">
         <v>7</v>
       </c>
-      <c r="C1252" s="9" t="s">
+      <c r="C1252" t="s">
         <v>169</v>
       </c>
-      <c r="D1252" s="9" t="s">
+      <c r="D1252" t="s">
         <v>14</v>
       </c>
-      <c r="E1252" s="9">
+      <c r="E1252">
         <v>0.01</v>
       </c>
     </row>
     <row r="1253" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1253" s="8">
+      <c r="A1253" s="2">
         <v>45093</v>
       </c>
       <c r="B1253" t="s">
         <v>7</v>
       </c>
-      <c r="C1253" s="9" t="s">
+      <c r="C1253" t="s">
         <v>198</v>
       </c>
-      <c r="D1253" s="9" t="s">
+      <c r="D1253" t="s">
         <v>92</v>
       </c>
-      <c r="E1253" s="9">
+      <c r="E1253">
         <v>-753.47</v>
       </c>
     </row>
     <row r="1254" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1254" s="8">
+      <c r="A1254" s="2">
         <v>45093</v>
       </c>
       <c r="B1254" t="s">
         <v>7</v>
       </c>
-      <c r="C1254" s="9" t="s">
+      <c r="C1254" t="s">
         <v>464</v>
       </c>
-      <c r="D1254" s="9" t="s">
+      <c r="D1254" t="s">
         <v>14</v>
       </c>
-      <c r="E1254" s="9">
+      <c r="E1254">
         <v>40.299999999999997</v>
       </c>
     </row>
     <row r="1255" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1255" s="8">
+      <c r="A1255" s="2">
         <v>45093</v>
       </c>
-      <c r="B1255" s="9" t="s">
+      <c r="B1255" t="s">
         <v>16</v>
       </c>
-      <c r="C1255" s="9" t="s">
+      <c r="C1255" t="s">
         <v>166</v>
       </c>
-      <c r="D1255" s="9" t="s">
+      <c r="D1255" t="s">
         <v>269</v>
       </c>
-      <c r="E1255" s="9">
+      <c r="E1255">
         <v>-300</v>
       </c>
     </row>
     <row r="1256" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1256" s="8">
+      <c r="A1256" s="2">
         <v>45093</v>
       </c>
-      <c r="B1256" s="9" t="s">
+      <c r="B1256" t="s">
         <v>16</v>
       </c>
-      <c r="C1256" s="9" t="s">
+      <c r="C1256" t="s">
         <v>403</v>
       </c>
-      <c r="D1256" s="9" t="s">
+      <c r="D1256" t="s">
         <v>396</v>
       </c>
-      <c r="E1256" s="9">
+      <c r="E1256">
         <v>-200</v>
       </c>
     </row>
     <row r="1257" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1257" s="8">
+      <c r="A1257" s="2">
         <v>45093</v>
       </c>
-      <c r="B1257" s="9" t="s">
+      <c r="B1257" t="s">
         <v>16</v>
       </c>
-      <c r="C1257" s="9" t="s">
+      <c r="C1257" t="s">
         <v>465</v>
       </c>
-      <c r="D1257" s="9" t="s">
+      <c r="D1257" t="s">
         <v>14</v>
       </c>
-      <c r="E1257" s="9">
+      <c r="E1257">
         <v>-40.299999999999997</v>
       </c>
     </row>
     <row r="1258" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1258" s="8">
+      <c r="A1258" s="2">
         <v>45093</v>
       </c>
-      <c r="B1258" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1258" s="9" t="s">
+      <c r="B1258" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1258" t="s">
         <v>468</v>
       </c>
-      <c r="D1258" s="9" t="s">
+      <c r="D1258" t="s">
         <v>266</v>
       </c>
-      <c r="E1258" s="9">
+      <c r="E1258">
         <v>-12</v>
       </c>
     </row>
     <row r="1259" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1259" s="8">
+      <c r="A1259" s="2">
         <v>45093</v>
       </c>
-      <c r="B1259" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1259" s="9" t="s">
+      <c r="B1259" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1259" t="s">
         <v>80</v>
       </c>
-      <c r="D1259" s="9" t="s">
+      <c r="D1259" t="s">
         <v>90</v>
       </c>
-      <c r="E1259" s="9">
+      <c r="E1259">
         <v>-15</v>
       </c>
     </row>
     <row r="1260" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1260" s="8">
+      <c r="A1260" s="2">
         <v>45093</v>
       </c>
-      <c r="B1260" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1260" s="9" t="s">
+      <c r="B1260" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1260" t="s">
         <v>98</v>
       </c>
-      <c r="D1260" s="9" t="s">
+      <c r="D1260" t="s">
         <v>266</v>
       </c>
-      <c r="E1260" s="9">
+      <c r="E1260">
         <v>-7.99</v>
       </c>
     </row>
     <row r="1261" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1261" s="8">
+      <c r="A1261" s="2">
         <v>45094</v>
       </c>
-      <c r="B1261" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1261" s="9" t="s">
+      <c r="B1261" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1261" t="s">
         <v>103</v>
       </c>
-      <c r="D1261" s="9" t="s">
+      <c r="D1261" t="s">
         <v>12</v>
       </c>
-      <c r="E1261" s="9">
+      <c r="E1261">
         <v>-9.2799999999999994</v>
       </c>
     </row>
     <row r="1262" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1262" s="8">
+      <c r="A1262" s="2">
         <v>45094</v>
       </c>
-      <c r="B1262" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1262" s="9" t="s">
+      <c r="B1262" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1262" t="s">
         <v>469</v>
       </c>
-      <c r="D1262" s="9" t="s">
+      <c r="D1262" t="s">
         <v>264</v>
       </c>
-      <c r="E1262" s="9">
+      <c r="E1262">
         <v>-141.9</v>
       </c>
     </row>
     <row r="1263" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1263" s="8">
+      <c r="A1263" s="2">
         <v>45095</v>
       </c>
-      <c r="B1263" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1263" s="9" t="s">
+      <c r="B1263" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1263" t="s">
         <v>418</v>
       </c>
-      <c r="D1263" s="9" t="s">
+      <c r="D1263" t="s">
         <v>268</v>
       </c>
-      <c r="E1263" s="9">
+      <c r="E1263">
         <v>-30.58</v>
       </c>
     </row>
     <row r="1264" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1264" s="8">
+      <c r="A1264" s="2">
         <v>45096</v>
       </c>
-      <c r="B1264" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1264" s="9" t="s">
+      <c r="B1264" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1264" t="s">
         <v>467</v>
       </c>
-      <c r="D1264" s="9" t="s">
+      <c r="D1264" t="s">
         <v>265</v>
       </c>
-      <c r="E1264" s="9">
+      <c r="E1264">
         <v>-39.99</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1265" s="8">
+        <v>45096</v>
+      </c>
+      <c r="B1265" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1265" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1265" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1265" s="9">
+        <v>-16.399999999999999</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1266" s="8">
+        <v>45096</v>
+      </c>
+      <c r="B1266" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1266" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="D1266" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1266" s="9">
+        <v>-18.850000000000001</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1267" s="8">
+        <v>45096</v>
+      </c>
+      <c r="B1267" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1267" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1267" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1267" s="9">
+        <v>-61.19</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1268" s="8">
+        <v>45097</v>
+      </c>
+      <c r="B1268" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1268" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="D1268" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1268" s="9">
+        <v>-150.9</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1269" s="8">
+        <v>45097</v>
+      </c>
+      <c r="B1269" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1269" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1269" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1269" s="9">
+        <v>-33.31</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1270" s="8">
+        <v>45097</v>
+      </c>
+      <c r="B1270" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1270" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1270" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1270" s="9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1271" s="8">
+        <v>45097</v>
+      </c>
+      <c r="B1271" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1271" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1271" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1271" s="9">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1272" s="8">
+        <v>45099</v>
+      </c>
+      <c r="B1272" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1272" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="D1272" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1272" s="9">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1273" s="8">
+        <v>45099</v>
+      </c>
+      <c r="B1273" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1273" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D1273" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1273" s="9">
+        <v>-37</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1274" s="8">
+        <v>45099</v>
+      </c>
+      <c r="B1274" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1274" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1274" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1274" s="9">
+        <v>-6.67</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1275" s="8">
+        <v>45099</v>
+      </c>
+      <c r="B1275" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1275" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="D1275" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1275" s="9">
+        <v>-236.25</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1276" s="8">
+        <v>45099</v>
+      </c>
+      <c r="B1276" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1276" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1276" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1276" s="9">
+        <v>-23.1</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1277" s="8">
+        <v>45099</v>
+      </c>
+      <c r="B1277" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1277" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1277" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1277" s="9">
+        <v>-14.94</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1278" s="8">
+        <v>45099</v>
+      </c>
+      <c r="B1278" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1278" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1278" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1278" s="9">
+        <v>-27.86</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1279" s="8">
+        <v>45099</v>
+      </c>
+      <c r="B1279" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1279" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1279" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1279" s="9">
+        <v>-9.5500000000000007</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1280" s="8">
+        <v>45099</v>
+      </c>
+      <c r="B1280" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1280" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1280" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1280" s="9">
+        <v>-17.54</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1281" s="8">
+        <v>45099</v>
+      </c>
+      <c r="B1281" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1281" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1281" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1281" s="9">
+        <v>-140.81</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1282" s="8">
+        <v>45100</v>
+      </c>
+      <c r="B1282" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1282" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1282" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1282" s="9">
+        <v>433.7</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1283" s="8">
+        <v>45100</v>
+      </c>
+      <c r="B1283" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1283" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1283" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1283" s="9">
+        <v>-23.11</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1284" s="8">
+        <v>45100</v>
+      </c>
+      <c r="B1284" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1284" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="D1284" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1284" s="9">
+        <v>-75.31</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1285" s="8">
+        <v>45100</v>
+      </c>
+      <c r="B1285" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1285" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="D1285" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1285" s="9">
+        <v>-59.04</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1286" s="8">
+        <v>45100</v>
+      </c>
+      <c r="B1286" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1286" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1286" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1286" s="9">
+        <v>-21.52</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1287" s="8">
+        <v>45100</v>
+      </c>
+      <c r="B1287" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1287" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1287" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1287" s="9">
+        <v>-2.64</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1288" s="8">
+        <v>45100</v>
+      </c>
+      <c r="B1288" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1288" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1288" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1288" s="9">
+        <v>-1.99</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1289" s="8">
+        <v>45100</v>
+      </c>
+      <c r="B1289" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1289" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1289" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1289" s="9">
+        <v>-138.27000000000001</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1290" s="8">
+        <v>45100</v>
+      </c>
+      <c r="B1290" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1290" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="D1290" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1290" s="9">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1291" s="8">
+        <v>45101</v>
+      </c>
+      <c r="B1291" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1291" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1291" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1291" s="9">
+        <v>-42.81</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1292" s="8">
+        <v>45101</v>
+      </c>
+      <c r="B1292" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1292" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="D1292" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1292" s="9">
+        <v>-12.49</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1293" s="8">
+        <v>45101</v>
+      </c>
+      <c r="B1293" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1293" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1293" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1293" s="9">
+        <v>-149.9</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1294" s="8">
+        <v>45102</v>
+      </c>
+      <c r="B1294" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1294" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="D1294" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1294" s="9">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1295" s="8">
+        <v>45102</v>
+      </c>
+      <c r="B1295" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1295" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="D1295" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E1295" s="9">
+        <v>52.9</v>
       </c>
     </row>
   </sheetData>
@@ -23487,7 +24029,7 @@
           <x14:formula1>
             <xm:f>OFFSET(Categories!$A$2,0,0,COUNTIF(Categories!$A$2:$A$99,"&lt;&gt;"))</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D1264</xm:sqref>
+          <xm:sqref>D2:D1295</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Expenses.xlsx
+++ b/Expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffgood/Desktop/R_Studio_Projects/Financial_Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45440A7F-47A5-BC4F-94FD-E68E171327D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3073A742-62C7-1645-9E15-A5DA33C52A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="14940" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3911" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4016" uniqueCount="480">
   <si>
     <t>Date</t>
   </si>
@@ -1472,6 +1472,15 @@
   </si>
   <si>
     <t>Pink Blush</t>
+  </si>
+  <si>
+    <t>BASIL LEAF THAI RESTAU</t>
+  </si>
+  <si>
+    <t>ULTA #246</t>
+  </si>
+  <si>
+    <t>Rita's</t>
   </si>
 </sst>
 </file>
@@ -1642,10 +1651,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E1295" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E1295" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E1295">
-    <sortCondition ref="A1:A1295"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E1330" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E1330" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E1330">
+    <sortCondition ref="A1:A1330"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="4"/>
@@ -1955,7 +1964,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1295"/>
+  <dimension ref="A1:E1330"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -23490,530 +23499,1125 @@
       </c>
     </row>
     <row r="1265" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1265" s="8">
+      <c r="A1265" s="2">
         <v>45096</v>
       </c>
       <c r="B1265" t="s">
         <v>21</v>
       </c>
-      <c r="C1265" s="9" t="s">
+      <c r="C1265" t="s">
         <v>205</v>
       </c>
-      <c r="D1265" s="9" t="s">
+      <c r="D1265" t="s">
         <v>268</v>
       </c>
-      <c r="E1265" s="9">
+      <c r="E1265">
         <v>-16.399999999999999</v>
       </c>
     </row>
     <row r="1266" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1266" s="8">
+      <c r="A1266" s="2">
         <v>45096</v>
       </c>
       <c r="B1266" t="s">
         <v>21</v>
       </c>
-      <c r="C1266" s="9" t="s">
+      <c r="C1266" t="s">
         <v>462</v>
       </c>
-      <c r="D1266" s="9" t="s">
+      <c r="D1266" t="s">
         <v>12</v>
       </c>
-      <c r="E1266" s="9">
+      <c r="E1266">
         <v>-18.850000000000001</v>
       </c>
     </row>
     <row r="1267" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1267" s="8">
+      <c r="A1267" s="2">
         <v>45096</v>
       </c>
       <c r="B1267" t="s">
         <v>21</v>
       </c>
-      <c r="C1267" s="9" t="s">
+      <c r="C1267" t="s">
         <v>161</v>
       </c>
-      <c r="D1267" s="9" t="s">
+      <c r="D1267" t="s">
         <v>264</v>
       </c>
-      <c r="E1267" s="9">
+      <c r="E1267">
         <v>-61.19</v>
       </c>
     </row>
     <row r="1268" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1268" s="8">
+      <c r="A1268" s="2">
         <v>45097</v>
       </c>
       <c r="B1268" t="s">
         <v>7</v>
       </c>
-      <c r="C1268" s="9" t="s">
+      <c r="C1268" t="s">
         <v>446</v>
       </c>
-      <c r="D1268" s="9" t="s">
+      <c r="D1268" t="s">
         <v>54</v>
       </c>
-      <c r="E1268" s="9">
+      <c r="E1268">
         <v>-150.9</v>
       </c>
     </row>
     <row r="1269" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1269" s="8">
+      <c r="A1269" s="2">
         <v>45097</v>
       </c>
       <c r="B1269" t="s">
         <v>7</v>
       </c>
-      <c r="C1269" s="9" t="s">
+      <c r="C1269" t="s">
         <v>171</v>
       </c>
-      <c r="D1269" s="9" t="s">
+      <c r="D1269" t="s">
         <v>265</v>
       </c>
-      <c r="E1269" s="9">
+      <c r="E1269">
         <v>-33.31</v>
       </c>
     </row>
     <row r="1270" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1270" s="8">
+      <c r="A1270" s="2">
         <v>45097</v>
       </c>
       <c r="B1270" t="s">
         <v>7</v>
       </c>
-      <c r="C1270" s="9" t="s">
+      <c r="C1270" t="s">
         <v>147</v>
       </c>
-      <c r="D1270" s="9" t="s">
+      <c r="D1270" t="s">
         <v>9</v>
       </c>
-      <c r="E1270" s="9">
+      <c r="E1270">
         <v>1000</v>
       </c>
     </row>
     <row r="1271" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1271" s="8">
+      <c r="A1271" s="2">
         <v>45097</v>
       </c>
-      <c r="B1271" s="9" t="s">
+      <c r="B1271" t="s">
         <v>16</v>
       </c>
-      <c r="C1271" s="9" t="s">
+      <c r="C1271" t="s">
         <v>147</v>
       </c>
-      <c r="D1271" s="9" t="s">
+      <c r="D1271" t="s">
         <v>9</v>
       </c>
-      <c r="E1271" s="9">
+      <c r="E1271">
         <v>-1000</v>
       </c>
     </row>
     <row r="1272" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1272" s="8">
+      <c r="A1272" s="2">
         <v>45099</v>
       </c>
-      <c r="B1272" s="9" t="s">
+      <c r="B1272" t="s">
         <v>16</v>
       </c>
-      <c r="C1272" s="9" t="s">
+      <c r="C1272" t="s">
         <v>288</v>
       </c>
-      <c r="D1272" s="9" t="s">
+      <c r="D1272" t="s">
         <v>11</v>
       </c>
-      <c r="E1272" s="9">
+      <c r="E1272">
         <v>-50</v>
       </c>
     </row>
     <row r="1273" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1273" s="8">
+      <c r="A1273" s="2">
         <v>45099</v>
       </c>
       <c r="B1273" t="s">
         <v>21</v>
       </c>
-      <c r="C1273" s="9" t="s">
+      <c r="C1273" t="s">
         <v>475</v>
       </c>
-      <c r="D1273" s="9" t="s">
+      <c r="D1273" t="s">
         <v>262</v>
       </c>
-      <c r="E1273" s="9">
+      <c r="E1273">
         <v>-37</v>
       </c>
     </row>
     <row r="1274" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1274" s="8">
+      <c r="A1274" s="2">
         <v>45099</v>
       </c>
       <c r="B1274" t="s">
         <v>21</v>
       </c>
-      <c r="C1274" s="9" t="s">
+      <c r="C1274" t="s">
         <v>157</v>
       </c>
-      <c r="D1274" s="9" t="s">
+      <c r="D1274" t="s">
         <v>268</v>
       </c>
-      <c r="E1274" s="9">
+      <c r="E1274">
         <v>-6.67</v>
       </c>
     </row>
     <row r="1275" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1275" s="8">
+      <c r="A1275" s="2">
         <v>45099</v>
       </c>
       <c r="B1275" t="s">
         <v>21</v>
       </c>
-      <c r="C1275" s="9" t="s">
+      <c r="C1275" t="s">
         <v>476</v>
       </c>
-      <c r="D1275" s="9" t="s">
+      <c r="D1275" t="s">
         <v>266</v>
       </c>
-      <c r="E1275" s="9">
+      <c r="E1275">
         <v>-236.25</v>
       </c>
     </row>
     <row r="1276" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1276" s="8">
+      <c r="A1276" s="2">
         <v>45099</v>
       </c>
       <c r="B1276" t="s">
         <v>21</v>
       </c>
-      <c r="C1276" s="9" t="s">
+      <c r="C1276" t="s">
         <v>181</v>
       </c>
-      <c r="D1276" s="9" t="s">
+      <c r="D1276" t="s">
         <v>266</v>
       </c>
-      <c r="E1276" s="9">
+      <c r="E1276">
         <v>-23.1</v>
       </c>
     </row>
     <row r="1277" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1277" s="8">
+      <c r="A1277" s="2">
         <v>45099</v>
       </c>
       <c r="B1277" t="s">
         <v>21</v>
       </c>
-      <c r="C1277" s="9" t="s">
+      <c r="C1277" t="s">
         <v>184</v>
       </c>
-      <c r="D1277" s="9" t="s">
+      <c r="D1277" t="s">
         <v>268</v>
       </c>
-      <c r="E1277" s="9">
+      <c r="E1277">
         <v>-14.94</v>
       </c>
     </row>
     <row r="1278" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1278" s="8">
+      <c r="A1278" s="2">
         <v>45099</v>
       </c>
       <c r="B1278" t="s">
         <v>21</v>
       </c>
-      <c r="C1278" s="9" t="s">
+      <c r="C1278" t="s">
         <v>165</v>
       </c>
-      <c r="D1278" s="9" t="s">
+      <c r="D1278" t="s">
         <v>268</v>
       </c>
-      <c r="E1278" s="9">
+      <c r="E1278">
         <v>-27.86</v>
       </c>
     </row>
     <row r="1279" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1279" s="8">
+      <c r="A1279" s="2">
         <v>45099</v>
       </c>
       <c r="B1279" t="s">
         <v>21</v>
       </c>
-      <c r="C1279" s="9" t="s">
+      <c r="C1279" t="s">
         <v>414</v>
       </c>
-      <c r="D1279" s="9" t="s">
+      <c r="D1279" t="s">
         <v>268</v>
       </c>
-      <c r="E1279" s="9">
+      <c r="E1279">
         <v>-9.5500000000000007</v>
       </c>
     </row>
     <row r="1280" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1280" s="8">
+      <c r="A1280" s="2">
         <v>45099</v>
       </c>
       <c r="B1280" t="s">
         <v>21</v>
       </c>
-      <c r="C1280" s="9" t="s">
+      <c r="C1280" t="s">
         <v>205</v>
       </c>
-      <c r="D1280" s="9" t="s">
+      <c r="D1280" t="s">
         <v>268</v>
       </c>
-      <c r="E1280" s="9">
+      <c r="E1280">
         <v>-17.54</v>
       </c>
     </row>
     <row r="1281" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1281" s="8">
+      <c r="A1281" s="2">
         <v>45099</v>
       </c>
       <c r="B1281" t="s">
         <v>21</v>
       </c>
-      <c r="C1281" s="9" t="s">
+      <c r="C1281" t="s">
         <v>180</v>
       </c>
-      <c r="D1281" s="9" t="s">
+      <c r="D1281" t="s">
         <v>90</v>
       </c>
-      <c r="E1281" s="9">
+      <c r="E1281">
         <v>-140.81</v>
       </c>
     </row>
     <row r="1282" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1282" s="8">
+      <c r="A1282" s="2">
         <v>45100</v>
       </c>
       <c r="B1282" t="s">
         <v>7</v>
       </c>
-      <c r="C1282" s="9" t="s">
+      <c r="C1282" t="s">
         <v>214</v>
       </c>
-      <c r="D1282" s="9" t="s">
+      <c r="D1282" t="s">
         <v>32</v>
       </c>
-      <c r="E1282" s="9">
+      <c r="E1282">
         <v>433.7</v>
       </c>
     </row>
     <row r="1283" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1283" s="8">
+      <c r="A1283" s="2">
         <v>45100</v>
       </c>
       <c r="B1283" t="s">
         <v>21</v>
       </c>
-      <c r="C1283" s="9" t="s">
+      <c r="C1283" t="s">
         <v>118</v>
       </c>
-      <c r="D1283" s="9" t="s">
+      <c r="D1283" t="s">
         <v>268</v>
       </c>
-      <c r="E1283" s="9">
+      <c r="E1283">
         <v>-23.11</v>
       </c>
     </row>
     <row r="1284" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1284" s="8">
+      <c r="A1284" s="2">
         <v>45100</v>
       </c>
       <c r="B1284" t="s">
         <v>21</v>
       </c>
-      <c r="C1284" s="9" t="s">
+      <c r="C1284" t="s">
         <v>440</v>
       </c>
-      <c r="D1284" s="9" t="s">
+      <c r="D1284" t="s">
         <v>12</v>
       </c>
-      <c r="E1284" s="9">
+      <c r="E1284">
         <v>-75.31</v>
       </c>
     </row>
     <row r="1285" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1285" s="8">
+      <c r="A1285" s="2">
         <v>45100</v>
       </c>
       <c r="B1285" t="s">
         <v>21</v>
       </c>
-      <c r="C1285" s="9" t="s">
+      <c r="C1285" t="s">
         <v>474</v>
       </c>
-      <c r="D1285" s="9" t="s">
+      <c r="D1285" t="s">
         <v>264</v>
       </c>
-      <c r="E1285" s="9">
+      <c r="E1285">
         <v>-59.04</v>
       </c>
     </row>
     <row r="1286" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1286" s="8">
+      <c r="A1286" s="2">
         <v>45100</v>
       </c>
       <c r="B1286" t="s">
         <v>21</v>
       </c>
-      <c r="C1286" s="9" t="s">
+      <c r="C1286" t="s">
         <v>113</v>
       </c>
-      <c r="D1286" s="9" t="s">
+      <c r="D1286" t="s">
         <v>262</v>
       </c>
-      <c r="E1286" s="9">
+      <c r="E1286">
         <v>-21.52</v>
       </c>
     </row>
     <row r="1287" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1287" s="8">
+      <c r="A1287" s="2">
         <v>45100</v>
       </c>
       <c r="B1287" t="s">
         <v>21</v>
       </c>
-      <c r="C1287" s="9" t="s">
+      <c r="C1287" t="s">
         <v>97</v>
       </c>
-      <c r="D1287" s="9" t="s">
+      <c r="D1287" t="s">
         <v>12</v>
       </c>
-      <c r="E1287" s="9">
+      <c r="E1287">
         <v>-2.64</v>
       </c>
     </row>
     <row r="1288" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1288" s="8">
+      <c r="A1288" s="2">
         <v>45100</v>
       </c>
       <c r="B1288" t="s">
         <v>21</v>
       </c>
-      <c r="C1288" s="9" t="s">
+      <c r="C1288" t="s">
         <v>97</v>
       </c>
-      <c r="D1288" s="9" t="s">
+      <c r="D1288" t="s">
         <v>12</v>
       </c>
-      <c r="E1288" s="9">
+      <c r="E1288">
         <v>-1.99</v>
       </c>
     </row>
     <row r="1289" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1289" s="8">
+      <c r="A1289" s="2">
         <v>45100</v>
       </c>
       <c r="B1289" t="s">
         <v>21</v>
       </c>
-      <c r="C1289" s="9" t="s">
+      <c r="C1289" t="s">
         <v>97</v>
       </c>
-      <c r="D1289" s="9" t="s">
+      <c r="D1289" t="s">
         <v>12</v>
       </c>
-      <c r="E1289" s="9">
+      <c r="E1289">
         <v>-138.27000000000001</v>
       </c>
     </row>
     <row r="1290" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1290" s="8">
+      <c r="A1290" s="2">
         <v>45100</v>
       </c>
       <c r="B1290" t="s">
         <v>21</v>
       </c>
-      <c r="C1290" s="9" t="s">
+      <c r="C1290" t="s">
         <v>435</v>
       </c>
-      <c r="D1290" s="9" t="s">
+      <c r="D1290" t="s">
         <v>264</v>
       </c>
-      <c r="E1290" s="9">
+      <c r="E1290">
         <v>-4</v>
       </c>
     </row>
     <row r="1291" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1291" s="8">
+      <c r="A1291" s="2">
         <v>45101</v>
       </c>
       <c r="B1291" t="s">
         <v>21</v>
       </c>
-      <c r="C1291" s="9" t="s">
+      <c r="C1291" t="s">
         <v>224</v>
       </c>
-      <c r="D1291" s="9" t="s">
+      <c r="D1291" t="s">
         <v>265</v>
       </c>
-      <c r="E1291" s="9">
+      <c r="E1291">
         <v>-42.81</v>
       </c>
     </row>
     <row r="1292" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1292" s="8">
+      <c r="A1292" s="2">
         <v>45101</v>
       </c>
       <c r="B1292" t="s">
         <v>21</v>
       </c>
-      <c r="C1292" s="9" t="s">
+      <c r="C1292" t="s">
         <v>473</v>
       </c>
-      <c r="D1292" s="9" t="s">
+      <c r="D1292" t="s">
         <v>268</v>
       </c>
-      <c r="E1292" s="9">
+      <c r="E1292">
         <v>-12.49</v>
       </c>
     </row>
     <row r="1293" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1293" s="8">
+      <c r="A1293" s="2">
         <v>45101</v>
       </c>
       <c r="B1293" t="s">
         <v>21</v>
       </c>
-      <c r="C1293" s="9" t="s">
+      <c r="C1293" t="s">
         <v>69</v>
       </c>
-      <c r="D1293" s="9" t="s">
+      <c r="D1293" t="s">
         <v>265</v>
       </c>
-      <c r="E1293" s="9">
+      <c r="E1293">
         <v>-149.9</v>
       </c>
     </row>
     <row r="1294" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1294" s="8">
+      <c r="A1294" s="2">
         <v>45102</v>
       </c>
       <c r="B1294" t="s">
         <v>21</v>
       </c>
-      <c r="C1294" s="9" t="s">
+      <c r="C1294" t="s">
         <v>472</v>
       </c>
-      <c r="D1294" s="9" t="s">
+      <c r="D1294" t="s">
         <v>264</v>
       </c>
-      <c r="E1294" s="9">
+      <c r="E1294">
         <v>-25</v>
       </c>
     </row>
     <row r="1295" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1295" s="8">
+      <c r="A1295" s="2">
         <v>45102</v>
       </c>
       <c r="B1295" t="s">
         <v>21</v>
       </c>
-      <c r="C1295" s="9" t="s">
+      <c r="C1295" t="s">
         <v>323</v>
       </c>
-      <c r="D1295" s="9" t="s">
+      <c r="D1295" t="s">
         <v>310</v>
       </c>
-      <c r="E1295" s="9">
+      <c r="E1295">
         <v>52.9</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1296" s="8">
+        <v>45103</v>
+      </c>
+      <c r="B1296" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1296" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1296" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1296" s="9">
+        <v>-27</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1297" s="8">
+        <v>45103</v>
+      </c>
+      <c r="B1297" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1297" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1297" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1297" s="9">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1298" s="8">
+        <v>45103</v>
+      </c>
+      <c r="B1298" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1298" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1298" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1298" s="9">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1299" s="8">
+        <v>45104</v>
+      </c>
+      <c r="B1299" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1299" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="D1299" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1299" s="9">
+        <v>-150.9</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1300" s="8">
+        <v>45104</v>
+      </c>
+      <c r="B1300" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1300" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1300" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1300" s="9">
+        <v>-14.34</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1301" s="8">
+        <v>45104</v>
+      </c>
+      <c r="B1301" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1301" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1301" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1301" s="9">
+        <v>-2.89</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1302" s="8">
+        <v>45104</v>
+      </c>
+      <c r="B1302" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1302" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="D1302" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E1302" s="9">
+        <v>-20.66</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1303" s="8">
+        <v>45105</v>
+      </c>
+      <c r="B1303" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1303" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1303" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1303" s="9">
+        <v>3102.8</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1304" s="8">
+        <v>45105</v>
+      </c>
+      <c r="B1304" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1304" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1304" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1304" s="9">
+        <v>275.7</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1305" s="8">
+        <v>45105</v>
+      </c>
+      <c r="B1305" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1305" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1305" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1305" s="9">
+        <v>-16.11</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1306" s="8">
+        <v>45105</v>
+      </c>
+      <c r="B1306" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1306" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="D1306" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1306" s="9">
+        <v>-9.83</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1307" s="8">
+        <v>45105</v>
+      </c>
+      <c r="B1307" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1307" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1307" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1307" s="9">
+        <v>-9.99</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1308" s="8">
+        <v>45105</v>
+      </c>
+      <c r="B1308" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1308" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1308" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1308" s="9">
+        <v>-24.71</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1309" s="8">
+        <v>45105</v>
+      </c>
+      <c r="B1309" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1309" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D1309" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1309" s="9">
+        <v>-69.83</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1310" s="8">
+        <v>45106</v>
+      </c>
+      <c r="B1310" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1310" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1310" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E1310" s="9">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1311" s="8">
+        <v>45106</v>
+      </c>
+      <c r="B1311" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1311" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1311" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1311" s="9">
+        <v>-3.29</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1312" s="8">
+        <v>45106</v>
+      </c>
+      <c r="B1312" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1312" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="D1312" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1312" s="9">
+        <v>-67.989999999999995</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1313" s="8">
+        <v>45106</v>
+      </c>
+      <c r="B1313" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1313" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="D1313" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E1313" s="9">
+        <v>-100.21</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1314" s="8">
+        <v>45106</v>
+      </c>
+      <c r="B1314" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1314" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1314" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1314" s="9">
+        <v>-8.14</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1315" s="8">
+        <v>45107</v>
+      </c>
+      <c r="B1315" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1315" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1315" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1315" s="9">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1316" s="8">
+        <v>45107</v>
+      </c>
+      <c r="B1316" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1316" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1316" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E1316" s="9">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1317" s="8">
+        <v>45107</v>
+      </c>
+      <c r="B1317" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1317" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1317" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1317" s="9">
+        <v>-87</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1318" s="8">
+        <v>45107</v>
+      </c>
+      <c r="B1318" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1318" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1318" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1318" s="9">
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1319" s="8">
+        <v>45107</v>
+      </c>
+      <c r="B1319" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1319" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1319" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1319" s="9">
+        <v>-25.5</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1320" s="8">
+        <v>45107</v>
+      </c>
+      <c r="B1320" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1320" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1320" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1320" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1321" s="8">
+        <v>45107</v>
+      </c>
+      <c r="B1321" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1321" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1321" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1321" s="9">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1322" s="8">
+        <v>45108</v>
+      </c>
+      <c r="B1322" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1322" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1322" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1322" s="9">
+        <v>-11.65</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1323" s="8">
+        <v>45108</v>
+      </c>
+      <c r="B1323" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1323" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="D1323" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1323" s="9">
+        <v>-19.07</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1324" s="8">
+        <v>45108</v>
+      </c>
+      <c r="B1324" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1324" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="D1324" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1324" s="9">
+        <v>-31.63</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1325" s="8">
+        <v>45108</v>
+      </c>
+      <c r="B1325" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1325" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1325" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1325" s="9">
+        <v>-9.2799999999999994</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1326" s="8">
+        <v>45109</v>
+      </c>
+      <c r="B1326" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1326" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="D1326" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1326" s="9">
+        <v>-41.06</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1327" s="8">
+        <v>45109</v>
+      </c>
+      <c r="B1327" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1327" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1327" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1327" s="9">
+        <v>-210.27</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1328" s="8">
+        <v>45109</v>
+      </c>
+      <c r="B1328" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1328" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1328" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1328" s="9">
+        <v>-33.33</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1329" s="8">
+        <v>45110</v>
+      </c>
+      <c r="B1329" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1329" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1329" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1329" s="9">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1330" s="8">
+        <v>45110</v>
+      </c>
+      <c r="B1330" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1330" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1330" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1330" s="9">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -24029,7 +24633,7 @@
           <x14:formula1>
             <xm:f>OFFSET(Categories!$A$2,0,0,COUNTIF(Categories!$A$2:$A$99,"&lt;&gt;"))</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D1295</xm:sqref>
+          <xm:sqref>D2:D1330</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Expenses.xlsx
+++ b/Expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffgood/Desktop/R_Studio_Projects/Financial_Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3073A742-62C7-1645-9E15-A5DA33C52A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D666B71-6E37-974B-8372-B1578212B5A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="14940" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4016" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4091" uniqueCount="487">
   <si>
     <t>Date</t>
   </si>
@@ -1481,6 +1481,27 @@
   </si>
   <si>
     <t>Rita's</t>
+  </si>
+  <si>
+    <t>BRICKER'S FRENCH FRIES</t>
+  </si>
+  <si>
+    <t>PANERA BREAD #601155 O   717-766-3960 PA</t>
+  </si>
+  <si>
+    <t>SP PINKBLUSHMATERNIT     HTTPSPINKBLUSCA</t>
+  </si>
+  <si>
+    <t>PRETZEL SPOT CAFE 2      CARLISLE     PA</t>
+  </si>
+  <si>
+    <t>SQ *MAD DASH TRUCKS LLC  Harrisburg   PA</t>
+  </si>
+  <si>
+    <t>IHERB IHERB.COM HadlI    IHERB.COM    CA</t>
+  </si>
+  <si>
+    <t>Owletbaby</t>
   </si>
 </sst>
 </file>
@@ -1651,10 +1672,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E1330" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E1330" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E1330">
-    <sortCondition ref="A1:A1330"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E1355" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E1355" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E1355">
+    <sortCondition ref="A1:A1355"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="4"/>
@@ -1964,9 +1985,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1330"/>
+  <dimension ref="A1:E1355"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D843" sqref="D843"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -24026,598 +24049,1023 @@
       </c>
     </row>
     <row r="1296" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1296" s="8">
+      <c r="A1296" s="2">
         <v>45103</v>
       </c>
-      <c r="B1296" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1296" s="9" t="s">
+      <c r="B1296" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1296" t="s">
         <v>171</v>
       </c>
-      <c r="D1296" s="9" t="s">
+      <c r="D1296" t="s">
         <v>12</v>
       </c>
-      <c r="E1296" s="9">
+      <c r="E1296">
         <v>-27</v>
       </c>
     </row>
     <row r="1297" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1297" s="8">
+      <c r="A1297" s="2">
         <v>45103</v>
       </c>
-      <c r="B1297" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1297" s="9" t="s">
+      <c r="B1297" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1297" t="s">
         <v>171</v>
       </c>
-      <c r="D1297" s="9" t="s">
+      <c r="D1297" t="s">
         <v>266</v>
       </c>
-      <c r="E1297" s="9">
+      <c r="E1297">
         <v>-18</v>
       </c>
     </row>
     <row r="1298" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1298" s="8">
+      <c r="A1298" s="2">
         <v>45103</v>
       </c>
-      <c r="B1298" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1298" s="9" t="s">
+      <c r="B1298" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1298" t="s">
         <v>171</v>
       </c>
-      <c r="D1298" s="9" t="s">
+      <c r="D1298" t="s">
         <v>265</v>
       </c>
-      <c r="E1298" s="9">
+      <c r="E1298">
         <v>-30</v>
       </c>
     </row>
     <row r="1299" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1299" s="8">
+      <c r="A1299" s="2">
         <v>45104</v>
       </c>
-      <c r="B1299" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1299" s="9" t="s">
+      <c r="B1299" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1299" t="s">
         <v>446</v>
       </c>
-      <c r="D1299" s="9" t="s">
+      <c r="D1299" t="s">
         <v>54</v>
       </c>
-      <c r="E1299" s="9">
+      <c r="E1299">
         <v>-150.9</v>
       </c>
     </row>
     <row r="1300" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1300" s="8">
+      <c r="A1300" s="2">
         <v>45104</v>
       </c>
-      <c r="B1300" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1300" s="9" t="s">
+      <c r="B1300" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1300" t="s">
         <v>414</v>
       </c>
-      <c r="D1300" s="9" t="s">
+      <c r="D1300" t="s">
         <v>268</v>
       </c>
-      <c r="E1300" s="9">
+      <c r="E1300">
         <v>-14.34</v>
       </c>
     </row>
     <row r="1301" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1301" s="8">
+      <c r="A1301" s="2">
         <v>45104</v>
       </c>
-      <c r="B1301" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1301" s="9" t="s">
+      <c r="B1301" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1301" t="s">
         <v>157</v>
       </c>
-      <c r="D1301" s="9" t="s">
+      <c r="D1301" t="s">
         <v>268</v>
       </c>
-      <c r="E1301" s="9">
+      <c r="E1301">
         <v>-2.89</v>
       </c>
     </row>
     <row r="1302" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1302" s="8">
+      <c r="A1302" s="2">
         <v>45104</v>
       </c>
-      <c r="B1302" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1302" s="9" t="s">
+      <c r="B1302" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1302" t="s">
         <v>303</v>
       </c>
-      <c r="D1302" s="9" t="s">
+      <c r="D1302" t="s">
         <v>310</v>
       </c>
-      <c r="E1302" s="9">
+      <c r="E1302">
         <v>-20.66</v>
       </c>
     </row>
     <row r="1303" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1303" s="8">
+      <c r="A1303" s="2">
         <v>45105</v>
       </c>
-      <c r="B1303" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1303" s="9" t="s">
+      <c r="B1303" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1303" t="s">
         <v>170</v>
       </c>
-      <c r="D1303" s="9" t="s">
+      <c r="D1303" t="s">
         <v>32</v>
       </c>
-      <c r="E1303" s="9">
+      <c r="E1303">
         <v>3102.8</v>
       </c>
     </row>
     <row r="1304" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1304" s="8">
+      <c r="A1304" s="2">
         <v>45105</v>
       </c>
-      <c r="B1304" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1304" s="9" t="s">
+      <c r="B1304" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1304" t="s">
         <v>214</v>
       </c>
-      <c r="D1304" s="9" t="s">
+      <c r="D1304" t="s">
         <v>32</v>
       </c>
-      <c r="E1304" s="9">
+      <c r="E1304">
         <v>275.7</v>
       </c>
     </row>
     <row r="1305" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1305" s="8">
+      <c r="A1305" s="2">
         <v>45105</v>
       </c>
-      <c r="B1305" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1305" s="9" t="s">
+      <c r="B1305" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1305" t="s">
         <v>200</v>
       </c>
-      <c r="D1305" s="9" t="s">
+      <c r="D1305" t="s">
         <v>263</v>
       </c>
-      <c r="E1305" s="9">
+      <c r="E1305">
         <v>-16.11</v>
       </c>
     </row>
     <row r="1306" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1306" s="8">
+      <c r="A1306" s="2">
         <v>45105</v>
       </c>
-      <c r="B1306" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1306" s="9" t="s">
+      <c r="B1306" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1306" t="s">
         <v>479</v>
       </c>
-      <c r="D1306" s="9" t="s">
+      <c r="D1306" t="s">
         <v>268</v>
       </c>
-      <c r="E1306" s="9">
+      <c r="E1306">
         <v>-9.83</v>
       </c>
     </row>
     <row r="1307" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1307" s="8">
+      <c r="A1307" s="2">
         <v>45105</v>
       </c>
-      <c r="B1307" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1307" s="9" t="s">
+      <c r="B1307" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1307" t="s">
         <v>149</v>
       </c>
-      <c r="D1307" s="9" t="s">
+      <c r="D1307" t="s">
         <v>263</v>
       </c>
-      <c r="E1307" s="9">
+      <c r="E1307">
         <v>-9.99</v>
       </c>
     </row>
     <row r="1308" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1308" s="8">
+      <c r="A1308" s="2">
         <v>45105</v>
       </c>
-      <c r="B1308" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1308" s="9" t="s">
+      <c r="B1308" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1308" t="s">
         <v>380</v>
       </c>
-      <c r="D1308" s="9" t="s">
+      <c r="D1308" t="s">
         <v>268</v>
       </c>
-      <c r="E1308" s="9">
+      <c r="E1308">
         <v>-24.71</v>
       </c>
     </row>
     <row r="1309" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1309" s="8">
+      <c r="A1309" s="2">
         <v>45105</v>
       </c>
-      <c r="B1309" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1309" s="9" t="s">
+      <c r="B1309" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1309" t="s">
         <v>254</v>
       </c>
-      <c r="D1309" s="9" t="s">
+      <c r="D1309" t="s">
         <v>264</v>
       </c>
-      <c r="E1309" s="9">
+      <c r="E1309">
         <v>-69.83</v>
       </c>
     </row>
     <row r="1310" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1310" s="8">
+      <c r="A1310" s="2">
         <v>45106</v>
       </c>
-      <c r="B1310" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1310" s="9" t="s">
+      <c r="B1310" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1310" t="s">
         <v>230</v>
       </c>
-      <c r="D1310" s="9" t="s">
+      <c r="D1310" t="s">
         <v>232</v>
       </c>
-      <c r="E1310" s="9">
+      <c r="E1310">
         <v>2070</v>
       </c>
     </row>
     <row r="1311" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1311" s="8">
+      <c r="A1311" s="2">
         <v>45106</v>
       </c>
-      <c r="B1311" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1311" s="9" t="s">
+      <c r="B1311" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1311" t="s">
         <v>157</v>
       </c>
-      <c r="D1311" s="9" t="s">
+      <c r="D1311" t="s">
         <v>268</v>
       </c>
-      <c r="E1311" s="9">
+      <c r="E1311">
         <v>-3.29</v>
       </c>
     </row>
     <row r="1312" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1312" s="8">
+      <c r="A1312" s="2">
         <v>45106</v>
       </c>
-      <c r="B1312" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1312" s="9" t="s">
+      <c r="B1312" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1312" t="s">
         <v>282</v>
       </c>
-      <c r="D1312" s="9" t="s">
+      <c r="D1312" t="s">
         <v>266</v>
       </c>
-      <c r="E1312" s="9">
+      <c r="E1312">
         <v>-67.989999999999995</v>
       </c>
     </row>
     <row r="1313" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1313" s="8">
+      <c r="A1313" s="2">
         <v>45106</v>
       </c>
-      <c r="B1313" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1313" s="9" t="s">
+      <c r="B1313" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1313" t="s">
         <v>351</v>
       </c>
-      <c r="D1313" s="9" t="s">
+      <c r="D1313" t="s">
         <v>310</v>
       </c>
-      <c r="E1313" s="9">
+      <c r="E1313">
         <v>-100.21</v>
       </c>
     </row>
     <row r="1314" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1314" s="8">
+      <c r="A1314" s="2">
         <v>45106</v>
       </c>
-      <c r="B1314" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1314" s="9" t="s">
+      <c r="B1314" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1314" t="s">
         <v>171</v>
       </c>
-      <c r="D1314" s="9" t="s">
+      <c r="D1314" t="s">
         <v>266</v>
       </c>
-      <c r="E1314" s="9">
+      <c r="E1314">
         <v>-8.14</v>
       </c>
     </row>
     <row r="1315" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1315" s="8">
+      <c r="A1315" s="2">
         <v>45107</v>
       </c>
-      <c r="B1315" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1315" s="9" t="s">
+      <c r="B1315" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1315" t="s">
         <v>171</v>
       </c>
-      <c r="D1315" s="9" t="s">
+      <c r="D1315" t="s">
         <v>12</v>
       </c>
-      <c r="E1315" s="9">
+      <c r="E1315">
         <v>-11</v>
       </c>
     </row>
     <row r="1316" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1316" s="8">
+      <c r="A1316" s="2">
         <v>45107</v>
       </c>
-      <c r="B1316" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1316" s="9" t="s">
+      <c r="B1316" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1316" t="s">
         <v>171</v>
       </c>
-      <c r="D1316" s="9" t="s">
+      <c r="D1316" t="s">
         <v>310</v>
       </c>
-      <c r="E1316" s="9">
+      <c r="E1316">
         <v>-18</v>
       </c>
     </row>
     <row r="1317" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1317" s="8">
+      <c r="A1317" s="2">
         <v>45107</v>
       </c>
-      <c r="B1317" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1317" s="9" t="s">
+      <c r="B1317" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1317" t="s">
         <v>171</v>
       </c>
-      <c r="D1317" s="9" t="s">
+      <c r="D1317" t="s">
         <v>266</v>
       </c>
-      <c r="E1317" s="9">
+      <c r="E1317">
         <v>-87</v>
       </c>
     </row>
     <row r="1318" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1318" s="8">
+      <c r="A1318" s="2">
         <v>45107</v>
       </c>
-      <c r="B1318" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1318" s="9" t="s">
+      <c r="B1318" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1318" t="s">
         <v>171</v>
       </c>
-      <c r="D1318" s="9" t="s">
+      <c r="D1318" t="s">
         <v>265</v>
       </c>
-      <c r="E1318" s="9">
+      <c r="E1318">
         <v>-24</v>
       </c>
     </row>
     <row r="1319" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1319" s="8">
+      <c r="A1319" s="2">
         <v>45107</v>
       </c>
-      <c r="B1319" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1319" s="9" t="s">
+      <c r="B1319" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1319" t="s">
         <v>171</v>
       </c>
-      <c r="D1319" s="9" t="s">
+      <c r="D1319" t="s">
         <v>263</v>
       </c>
-      <c r="E1319" s="9">
+      <c r="E1319">
         <v>-25.5</v>
       </c>
     </row>
     <row r="1320" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1320" s="8">
+      <c r="A1320" s="2">
         <v>45107</v>
       </c>
-      <c r="B1320" s="9" t="s">
+      <c r="B1320" t="s">
         <v>16</v>
       </c>
-      <c r="C1320" s="9" t="s">
+      <c r="C1320" t="s">
         <v>169</v>
       </c>
-      <c r="D1320" s="9" t="s">
+      <c r="D1320" t="s">
         <v>14</v>
       </c>
-      <c r="E1320" s="9">
+      <c r="E1320">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="1321" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1321" s="8">
+      <c r="A1321" s="2">
         <v>45107</v>
       </c>
-      <c r="B1321" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1321" s="9" t="s">
+      <c r="B1321" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1321" t="s">
         <v>88</v>
       </c>
-      <c r="D1321" s="9" t="s">
+      <c r="D1321" t="s">
         <v>264</v>
       </c>
-      <c r="E1321" s="9">
+      <c r="E1321">
         <v>-25</v>
       </c>
     </row>
     <row r="1322" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1322" s="8">
+      <c r="A1322" s="2">
         <v>45108</v>
       </c>
-      <c r="B1322" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1322" s="9" t="s">
+      <c r="B1322" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1322" t="s">
         <v>28</v>
       </c>
-      <c r="D1322" s="9" t="s">
+      <c r="D1322" t="s">
         <v>268</v>
       </c>
-      <c r="E1322" s="9">
+      <c r="E1322">
         <v>-11.65</v>
       </c>
     </row>
     <row r="1323" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1323" s="8">
+      <c r="A1323" s="2">
         <v>45108</v>
       </c>
-      <c r="B1323" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1323" s="9" t="s">
+      <c r="B1323" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1323" t="s">
         <v>478</v>
       </c>
-      <c r="D1323" s="9" t="s">
+      <c r="D1323" t="s">
         <v>266</v>
       </c>
-      <c r="E1323" s="9">
+      <c r="E1323">
         <v>-19.07</v>
       </c>
     </row>
     <row r="1324" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1324" s="8">
+      <c r="A1324" s="2">
         <v>45108</v>
       </c>
-      <c r="B1324" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1324" s="9" t="s">
+      <c r="B1324" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1324" t="s">
         <v>371</v>
       </c>
-      <c r="D1324" s="9" t="s">
+      <c r="D1324" t="s">
         <v>268</v>
       </c>
-      <c r="E1324" s="9">
+      <c r="E1324">
         <v>-31.63</v>
       </c>
     </row>
     <row r="1325" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1325" s="8">
+      <c r="A1325" s="2">
         <v>45108</v>
       </c>
-      <c r="B1325" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1325" s="9" t="s">
+      <c r="B1325" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1325" t="s">
         <v>103</v>
       </c>
-      <c r="D1325" s="9" t="s">
+      <c r="D1325" t="s">
         <v>12</v>
       </c>
-      <c r="E1325" s="9">
+      <c r="E1325">
         <v>-9.2799999999999994</v>
       </c>
     </row>
     <row r="1326" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1326" s="8">
+      <c r="A1326" s="2">
         <v>45109</v>
       </c>
-      <c r="B1326" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1326" s="9" t="s">
+      <c r="B1326" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1326" t="s">
         <v>477</v>
       </c>
-      <c r="D1326" s="9" t="s">
+      <c r="D1326" t="s">
         <v>268</v>
       </c>
-      <c r="E1326" s="9">
+      <c r="E1326">
         <v>-41.06</v>
       </c>
     </row>
     <row r="1327" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1327" s="8">
+      <c r="A1327" s="2">
         <v>45109</v>
       </c>
-      <c r="B1327" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1327" s="9" t="s">
+      <c r="B1327" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1327" t="s">
         <v>233</v>
       </c>
-      <c r="D1327" s="9" t="s">
+      <c r="D1327" t="s">
         <v>12</v>
       </c>
-      <c r="E1327" s="9">
+      <c r="E1327">
         <v>-210.27</v>
       </c>
     </row>
     <row r="1328" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1328" s="8">
+      <c r="A1328" s="2">
         <v>45109</v>
       </c>
-      <c r="B1328" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1328" s="9" t="s">
+      <c r="B1328" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1328" t="s">
         <v>224</v>
       </c>
-      <c r="D1328" s="9" t="s">
+      <c r="D1328" t="s">
         <v>265</v>
       </c>
-      <c r="E1328" s="9">
+      <c r="E1328">
         <v>-33.33</v>
       </c>
     </row>
     <row r="1329" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1329" s="8">
+      <c r="A1329" s="2">
         <v>45110</v>
       </c>
-      <c r="B1329" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1329" s="9" t="s">
+      <c r="B1329" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1329" t="s">
         <v>6</v>
       </c>
-      <c r="D1329" s="9" t="s">
+      <c r="D1329" t="s">
         <v>9</v>
       </c>
-      <c r="E1329" s="9">
+      <c r="E1329">
         <v>-300</v>
       </c>
     </row>
     <row r="1330" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1330" s="8">
+      <c r="A1330" s="2">
         <v>45110</v>
       </c>
-      <c r="B1330" s="9" t="s">
+      <c r="B1330" t="s">
         <v>16</v>
       </c>
-      <c r="C1330" s="9" t="s">
+      <c r="C1330" t="s">
         <v>15</v>
       </c>
-      <c r="D1330" s="9" t="s">
+      <c r="D1330" t="s">
         <v>9</v>
       </c>
-      <c r="E1330" s="9">
+      <c r="E1330">
         <v>300</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1331" s="8">
+        <v>45110</v>
+      </c>
+      <c r="B1331" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1331" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1331" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1331" s="9">
+        <v>-1875.24</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1332" s="8">
+        <v>45110</v>
+      </c>
+      <c r="B1332" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1332" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1332" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1332" s="9">
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1333" s="8">
+        <v>45110</v>
+      </c>
+      <c r="B1333" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1333" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="D1333" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="E1333" s="9">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1334" s="8">
+        <v>45110</v>
+      </c>
+      <c r="B1334" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1334" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1334" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="E1334" s="9">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1335" s="8">
+        <v>45110</v>
+      </c>
+      <c r="B1335" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1335" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="D1335" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1335" s="9">
+        <v>-175</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1336" s="8">
+        <v>45110</v>
+      </c>
+      <c r="B1336" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1336" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1336" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1336" s="9">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1337" s="8">
+        <v>45110</v>
+      </c>
+      <c r="B1337" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1337" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1337" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1337" s="9">
+        <v>1875.24</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1338" s="8">
+        <v>45111</v>
+      </c>
+      <c r="B1338" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1338" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1338" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1338" s="9">
+        <v>-25.2</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1339" s="8">
+        <v>45111</v>
+      </c>
+      <c r="B1339" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1339" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="D1339" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1339" s="9">
+        <v>-356.94</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1340" s="8">
+        <v>45112</v>
+      </c>
+      <c r="B1340" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1340" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1340" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1340" s="9">
+        <v>-516.38</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1341" s="8">
+        <v>45112</v>
+      </c>
+      <c r="B1341" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1341" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1341" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1341" s="9">
+        <v>-183.71</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1342" s="8">
+        <v>45112</v>
+      </c>
+      <c r="B1342" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1342" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="D1342" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1342" s="9">
+        <v>-150.9</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1343" s="8">
+        <v>45112</v>
+      </c>
+      <c r="B1343" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1343" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="D1343" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1343" s="9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1344" s="8">
+        <v>45112</v>
+      </c>
+      <c r="B1344" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1344" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="D1344" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1344" s="9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1345" s="8">
+        <v>45113</v>
+      </c>
+      <c r="B1345" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1345" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1345" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1345" s="9">
+        <v>-15.78</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1346" s="8">
+        <v>45114</v>
+      </c>
+      <c r="B1346" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1346" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1346" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1346" s="9">
+        <v>-32.17</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1347" s="8">
+        <v>45114</v>
+      </c>
+      <c r="B1347" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1347" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="D1347" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1347" s="9">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1348" s="8">
+        <v>45115</v>
+      </c>
+      <c r="B1348" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1348" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="D1348" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1348" s="9">
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1349" s="8">
+        <v>45115</v>
+      </c>
+      <c r="B1349" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1349" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="D1349" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1349" s="9">
+        <v>-9.44</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1350" s="8">
+        <v>45115</v>
+      </c>
+      <c r="B1350" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1350" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D1350" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1350" s="9">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1351" s="8">
+        <v>45116</v>
+      </c>
+      <c r="B1351" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1351" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1351" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1351" s="9">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1352" s="8">
+        <v>45116</v>
+      </c>
+      <c r="B1352" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1352" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="D1352" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1352" s="9">
+        <v>-14.6</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1353" s="8">
+        <v>45116</v>
+      </c>
+      <c r="B1353" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1353" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1353" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1353" s="9">
+        <v>-192.04</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1354" s="8">
+        <v>45116</v>
+      </c>
+      <c r="B1354" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1354" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="D1354" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1354" s="9">
+        <v>-27.93</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1355" s="8">
+        <v>45116</v>
+      </c>
+      <c r="B1355" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1355" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="D1355" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1355" s="9">
+        <v>182.7</v>
       </c>
     </row>
   </sheetData>
@@ -24633,7 +25081,7 @@
           <x14:formula1>
             <xm:f>OFFSET(Categories!$A$2,0,0,COUNTIF(Categories!$A$2:$A$99,"&lt;&gt;"))</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D1330</xm:sqref>
+          <xm:sqref>D2:D1355</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Expenses.xlsx
+++ b/Expenses.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffgood/Desktop/R_Studio_Projects/Financial_Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D666B71-6E37-974B-8372-B1578212B5A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4882C7A-8D05-3B4B-B048-B37938F78643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="14940" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4091" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4202" uniqueCount="495">
   <si>
     <t>Date</t>
   </si>
@@ -1502,6 +1502,30 @@
   </si>
   <si>
     <t>Owletbaby</t>
+  </si>
+  <si>
+    <t>Members 1st FCU Carlimechanicsburgpa</t>
+  </si>
+  <si>
+    <t>AMAZON.COM AMZN.COM/BI</t>
+  </si>
+  <si>
+    <t>TST* Als of Hampden</t>
+  </si>
+  <si>
+    <t>LUXURY LOUNGE NAILS AND S</t>
+  </si>
+  <si>
+    <t>AT&amp;T YLTD 59197</t>
+  </si>
+  <si>
+    <t>WEIS MARKETS 225         ENOLA        PA</t>
+  </si>
+  <si>
+    <t>Upmc Pinnacle Business</t>
+  </si>
+  <si>
+    <t>Quantum Imaging and Thera</t>
   </si>
 </sst>
 </file>
@@ -1672,10 +1696,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E1355" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E1355" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E1355">
-    <sortCondition ref="A1:A1355"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E1392" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E1392" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E1392">
+    <sortCondition ref="A1:A1392"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="4"/>
@@ -1985,10 +2009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1355"/>
+  <dimension ref="A1:E1392"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D843" sqref="D843"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24644,428 +24668,1057 @@
       </c>
     </row>
     <row r="1331" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1331" s="8">
+      <c r="A1331" s="2">
         <v>45110</v>
       </c>
       <c r="B1331" t="s">
         <v>7</v>
       </c>
-      <c r="C1331" s="9" t="s">
+      <c r="C1331" t="s">
         <v>174</v>
       </c>
-      <c r="D1331" s="9" t="s">
+      <c r="D1331" t="s">
         <v>91</v>
       </c>
-      <c r="E1331" s="9">
+      <c r="E1331">
         <v>-1875.24</v>
       </c>
     </row>
     <row r="1332" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1332" s="8">
+      <c r="A1332" s="2">
         <v>45110</v>
       </c>
       <c r="B1332" t="s">
         <v>7</v>
       </c>
-      <c r="C1332" s="9" t="s">
+      <c r="C1332" t="s">
         <v>147</v>
       </c>
-      <c r="D1332" s="9" t="s">
+      <c r="D1332" t="s">
         <v>9</v>
       </c>
-      <c r="E1332" s="9">
+      <c r="E1332">
         <v>-1200</v>
       </c>
     </row>
     <row r="1333" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1333" s="8">
+      <c r="A1333" s="2">
         <v>45110</v>
       </c>
       <c r="B1333" t="s">
         <v>7</v>
       </c>
-      <c r="C1333" s="9" t="s">
+      <c r="C1333" t="s">
         <v>390</v>
       </c>
-      <c r="D1333" s="9" t="s">
+      <c r="D1333" t="s">
         <v>394</v>
       </c>
-      <c r="E1333" s="9">
+      <c r="E1333">
         <v>-1000</v>
       </c>
     </row>
     <row r="1334" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1334" s="8">
+      <c r="A1334" s="2">
         <v>45110</v>
       </c>
-      <c r="B1334" s="9" t="s">
+      <c r="B1334" t="s">
         <v>16</v>
       </c>
-      <c r="C1334" s="9" t="s">
+      <c r="C1334" t="s">
         <v>166</v>
       </c>
-      <c r="D1334" s="9" t="s">
+      <c r="D1334" t="s">
         <v>269</v>
       </c>
-      <c r="E1334" s="9">
+      <c r="E1334">
         <v>-300</v>
       </c>
     </row>
     <row r="1335" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1335" s="8">
+      <c r="A1335" s="2">
         <v>45110</v>
       </c>
-      <c r="B1335" s="9" t="s">
+      <c r="B1335" t="s">
         <v>16</v>
       </c>
-      <c r="C1335" s="9" t="s">
+      <c r="C1335" t="s">
         <v>288</v>
       </c>
-      <c r="D1335" s="9" t="s">
+      <c r="D1335" t="s">
         <v>11</v>
       </c>
-      <c r="E1335" s="9">
+      <c r="E1335">
         <v>-175</v>
       </c>
     </row>
     <row r="1336" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1336" s="8">
+      <c r="A1336" s="2">
         <v>45110</v>
       </c>
-      <c r="B1336" s="9" t="s">
+      <c r="B1336" t="s">
         <v>16</v>
       </c>
-      <c r="C1336" s="9" t="s">
+      <c r="C1336" t="s">
         <v>147</v>
       </c>
-      <c r="D1336" s="9" t="s">
+      <c r="D1336" t="s">
         <v>9</v>
       </c>
-      <c r="E1336" s="9">
+      <c r="E1336">
         <v>1200</v>
       </c>
     </row>
     <row r="1337" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1337" s="8">
+      <c r="A1337" s="2">
         <v>45110</v>
       </c>
       <c r="B1337" t="s">
         <v>21</v>
       </c>
-      <c r="C1337" s="9" t="s">
+      <c r="C1337" t="s">
         <v>174</v>
       </c>
-      <c r="D1337" s="9" t="s">
+      <c r="D1337" t="s">
         <v>91</v>
       </c>
-      <c r="E1337" s="9">
+      <c r="E1337">
         <v>1875.24</v>
       </c>
     </row>
     <row r="1338" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1338" s="8">
+      <c r="A1338" s="2">
         <v>45111</v>
       </c>
       <c r="B1338" t="s">
         <v>21</v>
       </c>
-      <c r="C1338" s="9" t="s">
+      <c r="C1338" t="s">
         <v>414</v>
       </c>
-      <c r="D1338" s="9" t="s">
+      <c r="D1338" t="s">
         <v>268</v>
       </c>
-      <c r="E1338" s="9">
+      <c r="E1338">
         <v>-25.2</v>
       </c>
     </row>
     <row r="1339" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1339" s="8">
+      <c r="A1339" s="2">
         <v>45111</v>
       </c>
       <c r="B1339" t="s">
         <v>21</v>
       </c>
-      <c r="C1339" s="9" t="s">
+      <c r="C1339" t="s">
         <v>486</v>
       </c>
-      <c r="D1339" s="9" t="s">
+      <c r="D1339" t="s">
         <v>266</v>
       </c>
-      <c r="E1339" s="9">
+      <c r="E1339">
         <v>-356.94</v>
       </c>
     </row>
     <row r="1340" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1340" s="8">
+      <c r="A1340" s="2">
         <v>45112</v>
       </c>
       <c r="B1340" t="s">
         <v>7</v>
       </c>
-      <c r="C1340" s="9" t="s">
+      <c r="C1340" t="s">
         <v>198</v>
       </c>
-      <c r="D1340" s="9" t="s">
+      <c r="D1340" t="s">
         <v>92</v>
       </c>
-      <c r="E1340" s="9">
+      <c r="E1340">
         <v>-516.38</v>
       </c>
     </row>
     <row r="1341" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1341" s="8">
+      <c r="A1341" s="2">
         <v>45112</v>
       </c>
       <c r="B1341" t="s">
         <v>7</v>
       </c>
-      <c r="C1341" s="9" t="s">
+      <c r="C1341" t="s">
         <v>203</v>
       </c>
-      <c r="D1341" s="9" t="s">
+      <c r="D1341" t="s">
         <v>10</v>
       </c>
-      <c r="E1341" s="9">
+      <c r="E1341">
         <v>-183.71</v>
       </c>
     </row>
     <row r="1342" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1342" s="8">
+      <c r="A1342" s="2">
         <v>45112</v>
       </c>
       <c r="B1342" t="s">
         <v>7</v>
       </c>
-      <c r="C1342" s="9" t="s">
+      <c r="C1342" t="s">
         <v>446</v>
       </c>
-      <c r="D1342" s="9" t="s">
+      <c r="D1342" t="s">
         <v>54</v>
       </c>
-      <c r="E1342" s="9">
+      <c r="E1342">
         <v>-150.9</v>
       </c>
     </row>
     <row r="1343" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1343" s="8">
+      <c r="A1343" s="2">
         <v>45112</v>
       </c>
       <c r="B1343" t="s">
         <v>7</v>
       </c>
-      <c r="C1343" s="9" t="s">
+      <c r="C1343" t="s">
         <v>289</v>
       </c>
-      <c r="D1343" s="9" t="s">
+      <c r="D1343" t="s">
         <v>31</v>
       </c>
-      <c r="E1343" s="9">
+      <c r="E1343">
         <v>300</v>
       </c>
     </row>
     <row r="1344" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1344" s="8">
+      <c r="A1344" s="2">
         <v>45112</v>
       </c>
       <c r="B1344" t="s">
         <v>7</v>
       </c>
-      <c r="C1344" s="9" t="s">
+      <c r="C1344" t="s">
         <v>289</v>
       </c>
-      <c r="D1344" s="9" t="s">
+      <c r="D1344" t="s">
         <v>31</v>
       </c>
-      <c r="E1344" s="9">
+      <c r="E1344">
         <v>300</v>
       </c>
     </row>
     <row r="1345" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1345" s="8">
+      <c r="A1345" s="2">
         <v>45113</v>
       </c>
       <c r="B1345" t="s">
         <v>21</v>
       </c>
-      <c r="C1345" s="9" t="s">
+      <c r="C1345" t="s">
         <v>206</v>
       </c>
-      <c r="D1345" s="9" t="s">
+      <c r="D1345" t="s">
         <v>262</v>
       </c>
-      <c r="E1345" s="9">
+      <c r="E1345">
         <v>-15.78</v>
       </c>
     </row>
     <row r="1346" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1346" s="8">
+      <c r="A1346" s="2">
         <v>45114</v>
       </c>
       <c r="B1346" t="s">
         <v>21</v>
       </c>
-      <c r="C1346" s="9" t="s">
+      <c r="C1346" t="s">
         <v>190</v>
       </c>
-      <c r="D1346" s="9" t="s">
+      <c r="D1346" t="s">
         <v>12</v>
       </c>
-      <c r="E1346" s="9">
+      <c r="E1346">
         <v>-32.17</v>
       </c>
     </row>
     <row r="1347" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1347" s="8">
+      <c r="A1347" s="2">
         <v>45114</v>
       </c>
       <c r="B1347" t="s">
         <v>21</v>
       </c>
-      <c r="C1347" s="9" t="s">
+      <c r="C1347" t="s">
         <v>485</v>
       </c>
-      <c r="D1347" s="9" t="s">
+      <c r="D1347" t="s">
         <v>266</v>
       </c>
-      <c r="E1347" s="9">
+      <c r="E1347">
         <v>-40</v>
       </c>
     </row>
     <row r="1348" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1348" s="8">
+      <c r="A1348" s="2">
         <v>45115</v>
       </c>
       <c r="B1348" t="s">
         <v>21</v>
       </c>
-      <c r="C1348" s="9" t="s">
+      <c r="C1348" t="s">
         <v>480</v>
       </c>
-      <c r="D1348" s="9" t="s">
+      <c r="D1348" t="s">
         <v>268</v>
       </c>
-      <c r="E1348" s="9">
+      <c r="E1348">
         <v>-13</v>
       </c>
     </row>
     <row r="1349" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1349" s="8">
+      <c r="A1349" s="2">
         <v>45115</v>
       </c>
       <c r="B1349" t="s">
         <v>21</v>
       </c>
-      <c r="C1349" s="9" t="s">
+      <c r="C1349" t="s">
         <v>483</v>
       </c>
-      <c r="D1349" s="9" t="s">
+      <c r="D1349" t="s">
         <v>268</v>
       </c>
-      <c r="E1349" s="9">
+      <c r="E1349">
         <v>-9.44</v>
       </c>
     </row>
     <row r="1350" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1350" s="8">
+      <c r="A1350" s="2">
         <v>45115</v>
       </c>
       <c r="B1350" t="s">
         <v>21</v>
       </c>
-      <c r="C1350" s="9" t="s">
+      <c r="C1350" t="s">
         <v>484</v>
       </c>
-      <c r="D1350" s="9" t="s">
+      <c r="D1350" t="s">
         <v>268</v>
       </c>
-      <c r="E1350" s="9">
+      <c r="E1350">
         <v>-9</v>
       </c>
     </row>
     <row r="1351" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1351" s="8">
+      <c r="A1351" s="2">
         <v>45116</v>
       </c>
       <c r="B1351" t="s">
         <v>21</v>
       </c>
-      <c r="C1351" s="9" t="s">
+      <c r="C1351" t="s">
         <v>188</v>
       </c>
-      <c r="D1351" s="9" t="s">
+      <c r="D1351" t="s">
         <v>262</v>
       </c>
-      <c r="E1351" s="9">
+      <c r="E1351">
         <v>-14</v>
       </c>
     </row>
     <row r="1352" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1352" s="8">
+      <c r="A1352" s="2">
         <v>45116</v>
       </c>
       <c r="B1352" t="s">
         <v>21</v>
       </c>
-      <c r="C1352" s="9" t="s">
+      <c r="C1352" t="s">
         <v>473</v>
       </c>
-      <c r="D1352" s="9" t="s">
+      <c r="D1352" t="s">
         <v>268</v>
       </c>
-      <c r="E1352" s="9">
+      <c r="E1352">
         <v>-14.6</v>
       </c>
     </row>
     <row r="1353" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1353" s="8">
+      <c r="A1353" s="2">
         <v>45116</v>
       </c>
       <c r="B1353" t="s">
         <v>21</v>
       </c>
-      <c r="C1353" s="9" t="s">
+      <c r="C1353" t="s">
         <v>233</v>
       </c>
-      <c r="D1353" s="9" t="s">
+      <c r="D1353" t="s">
         <v>12</v>
       </c>
-      <c r="E1353" s="9">
+      <c r="E1353">
         <v>-192.04</v>
       </c>
     </row>
     <row r="1354" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1354" s="8">
+      <c r="A1354" s="2">
         <v>45116</v>
       </c>
       <c r="B1354" t="s">
         <v>21</v>
       </c>
-      <c r="C1354" s="9" t="s">
+      <c r="C1354" t="s">
         <v>481</v>
       </c>
-      <c r="D1354" s="9" t="s">
+      <c r="D1354" t="s">
         <v>268</v>
       </c>
-      <c r="E1354" s="9">
+      <c r="E1354">
         <v>-27.93</v>
       </c>
     </row>
     <row r="1355" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1355" s="8">
+      <c r="A1355" s="2">
         <v>45116</v>
       </c>
       <c r="B1355" t="s">
         <v>21</v>
       </c>
-      <c r="C1355" s="9" t="s">
+      <c r="C1355" t="s">
         <v>482</v>
       </c>
-      <c r="D1355" s="9" t="s">
+      <c r="D1355" t="s">
         <v>266</v>
       </c>
-      <c r="E1355" s="9">
+      <c r="E1355">
         <v>182.7</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1356" s="8">
+        <v>45116</v>
+      </c>
+      <c r="B1356" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1356" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1356" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1356" s="9">
+        <v>-53.62</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1357" s="8">
+        <v>45117</v>
+      </c>
+      <c r="B1357" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1357" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1357" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1357" s="9">
+        <v>-48.33</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1358" s="8">
+        <v>45117</v>
+      </c>
+      <c r="B1358" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1358" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1358" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1358" s="9">
+        <v>16.14</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1359" s="8">
+        <v>45117</v>
+      </c>
+      <c r="B1359" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1359" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1359" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1359" s="9">
+        <v>-10.119999999999999</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1360" s="8">
+        <v>45117</v>
+      </c>
+      <c r="B1360" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1360" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1360" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1360" s="9">
+        <v>-9.8699999999999992</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1361" s="8">
+        <v>45117</v>
+      </c>
+      <c r="B1361" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1361" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1361" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1361" s="9">
+        <v>-2.99</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1362" s="8">
+        <v>45117</v>
+      </c>
+      <c r="B1362" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1362" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="D1362" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1362" s="9">
+        <v>29.31</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1363" s="8">
+        <v>45118</v>
+      </c>
+      <c r="B1363" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1363" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="D1363" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1363" s="9">
+        <v>-150.9</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1364" s="8">
+        <v>45118</v>
+      </c>
+      <c r="B1364" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1364" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1364" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1364" s="9">
+        <v>-58.76</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1365" s="8">
+        <v>45118</v>
+      </c>
+      <c r="B1365" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1365" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="D1365" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1365" s="9">
+        <v>-61.81</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1366" s="8">
+        <v>45118</v>
+      </c>
+      <c r="B1366" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1366" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="D1366" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1366" s="9">
+        <v>-12.86</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1367" s="8">
+        <v>45118</v>
+      </c>
+      <c r="B1367" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1367" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D1367" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1367" s="9">
+        <v>-37</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1368" s="8">
+        <v>45118</v>
+      </c>
+      <c r="B1368" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1368" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1368" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1368" s="9">
+        <v>-6.99</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1369" s="8">
+        <v>45118</v>
+      </c>
+      <c r="B1369" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1369" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="D1369" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1369" s="9">
+        <v>-62.54</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1370" s="8">
+        <v>45118</v>
+      </c>
+      <c r="B1370" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1370" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1370" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1370" s="9">
+        <v>-62.77</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1371" s="8">
+        <v>45119</v>
+      </c>
+      <c r="B1371" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1371" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1371" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1371" s="9">
+        <v>3102.85</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1372" s="8">
+        <v>45120</v>
+      </c>
+      <c r="B1372" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1372" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="D1372" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1372" s="9">
+        <v>-83</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1373" s="8">
+        <v>45120</v>
+      </c>
+      <c r="B1373" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1373" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1373" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1373" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1374" s="8">
+        <v>45120</v>
+      </c>
+      <c r="B1374" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1374" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1374" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1374" s="9">
+        <v>-31.66</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1375" s="8">
+        <v>45121</v>
+      </c>
+      <c r="B1375" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1375" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1375" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1375" s="9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1376" s="8">
+        <v>45121</v>
+      </c>
+      <c r="B1376" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1376" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1376" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1376" s="9">
+        <v>-71.44</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1377" s="8">
+        <v>45122</v>
+      </c>
+      <c r="B1377" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1377" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="D1377" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1377" s="9">
+        <v>-32.74</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1378" s="8">
+        <v>45122</v>
+      </c>
+      <c r="B1378" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1378" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="D1378" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1378" s="9">
+        <v>-64</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1379" s="8">
+        <v>45122</v>
+      </c>
+      <c r="B1379" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1379" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="D1379" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1379" s="9">
+        <v>-66</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1380" s="8">
+        <v>45122</v>
+      </c>
+      <c r="B1380" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1380" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="D1380" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1380" s="9">
+        <v>-66</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1381" s="8">
+        <v>45122</v>
+      </c>
+      <c r="B1381" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1381" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="D1381" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1381" s="9">
+        <v>-25.8</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1382" s="8">
+        <v>45122</v>
+      </c>
+      <c r="B1382" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1382" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="D1382" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1382" s="9">
+        <v>-25.8</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1383" s="8">
+        <v>45122</v>
+      </c>
+      <c r="B1383" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1383" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="D1383" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1383" s="9">
+        <v>-48.08</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1384" s="8">
+        <v>45122</v>
+      </c>
+      <c r="B1384" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1384" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="D1384" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1384" s="9">
+        <v>-3.69</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1385" s="8">
+        <v>45123</v>
+      </c>
+      <c r="B1385" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1385" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="D1385" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1385" s="9">
+        <v>-34.19</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1386" s="8">
+        <v>45123</v>
+      </c>
+      <c r="B1386" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1386" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1386" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1386" s="9">
+        <v>-186.48</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1387" s="8">
+        <v>45123</v>
+      </c>
+      <c r="B1387" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1387" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="D1387" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1387" s="9">
+        <v>-7.48</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1388" s="8">
+        <v>45123</v>
+      </c>
+      <c r="B1388" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1388" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="D1388" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1388" s="9">
+        <v>-9.49</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1389" s="8">
+        <v>45123</v>
+      </c>
+      <c r="B1389" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1389" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="D1389" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1389" s="9">
+        <v>-17.5</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1390" s="8">
+        <v>45123</v>
+      </c>
+      <c r="B1390" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1390" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="D1390" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1390" s="9">
+        <v>-31.77</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1391" s="8">
+        <v>45124</v>
+      </c>
+      <c r="B1391" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1391" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1391" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1391" s="9">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1392" s="8">
+        <v>45124</v>
+      </c>
+      <c r="B1392" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1392" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1392" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1392" s="9">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -25081,7 +25734,7 @@
           <x14:formula1>
             <xm:f>OFFSET(Categories!$A$2,0,0,COUNTIF(Categories!$A$2:$A$99,"&lt;&gt;"))</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D1355</xm:sqref>
+          <xm:sqref>D2:D1392</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Expenses.xlsx
+++ b/Expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffgood/Desktop/R_Studio_Projects/Financial_Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4882C7A-8D05-3B4B-B048-B37938F78643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BF3984-4A97-7C47-BE96-D2D77F3BDD75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="14940" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4202" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4283" uniqueCount="500">
   <si>
     <t>Date</t>
   </si>
@@ -1526,6 +1526,21 @@
   </si>
   <si>
     <t>Quantum Imaging and Thera</t>
+  </si>
+  <si>
+    <t>The Pizza Grill Carl</t>
+  </si>
+  <si>
+    <t>Upmc Carlisle Cafe</t>
+  </si>
+  <si>
+    <t>Fresh Clean Tees</t>
+  </si>
+  <si>
+    <t>GIANT 6269</t>
+  </si>
+  <si>
+    <t>ATT* BILL PAYMENT</t>
   </si>
 </sst>
 </file>
@@ -1696,10 +1711,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E1392" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E1392" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E1392">
-    <sortCondition ref="A1:A1392"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E1419" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E1419" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E1419">
+    <sortCondition ref="A1:A1419"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="4"/>
@@ -2009,11 +2024,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1392"/>
+  <dimension ref="A1:E1419"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2041,346 +2054,346 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="A2" s="8">
         <v>44774</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="9">
         <v>-50</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="A3" s="8">
         <v>44774</v>
       </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="9">
         <v>-12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="A4" s="8">
         <v>44774</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="9">
         <v>-300</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="A5" s="8">
         <v>44774</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="9">
         <f>--300</f>
         <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="A6" s="8">
         <v>44776</v>
       </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="9">
         <v>-36</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="A7" s="8">
         <v>44776</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="9">
         <v>-26.34</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+      <c r="A8" s="8">
         <v>44776</v>
       </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="9">
         <v>-24</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+      <c r="A9" s="8">
         <v>44776</v>
       </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="9">
         <v>-847.99</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="A10" s="8">
         <v>44776</v>
       </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="9">
         <v>-35.880000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+      <c r="A11" s="8">
         <v>44776</v>
       </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="9">
         <f>--3.19</f>
         <v>3.19</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+      <c r="A12" s="8">
         <v>44776</v>
       </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="9">
         <v>-5.93</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="A13" s="8">
         <v>44776</v>
       </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="9">
         <f>-85.23-E12</f>
         <v>-79.300000000000011</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+      <c r="A14" s="8">
         <v>44778</v>
       </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="9">
         <f>--2.5</f>
         <v>2.5</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+      <c r="A15" s="8">
         <v>44778</v>
       </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="9">
         <v>-9.5299999999999994</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+      <c r="A16" s="8">
         <v>44778</v>
       </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="9">
         <v>-7.21</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+      <c r="A17" s="8">
         <v>44778</v>
       </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="9">
         <v>-22.5</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+      <c r="A18" s="8">
         <v>44778</v>
       </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="9">
         <v>-117</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+      <c r="A19" s="8">
         <v>44779</v>
       </c>
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="9">
         <v>-19.71</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+      <c r="A20" s="8">
         <v>44779</v>
       </c>
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="9">
         <v>-47.94</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+      <c r="A21" s="8">
         <v>44780</v>
       </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B21" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="9">
         <v>-97.9</v>
       </c>
     </row>
@@ -25093,632 +25106,1091 @@
       </c>
     </row>
     <row r="1356" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1356" s="8">
+      <c r="A1356" s="2">
         <v>45116</v>
       </c>
-      <c r="B1356" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1356" s="9" t="s">
+      <c r="B1356" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1356" t="s">
         <v>161</v>
       </c>
-      <c r="D1356" s="9" t="s">
+      <c r="D1356" t="s">
         <v>264</v>
       </c>
-      <c r="E1356" s="9">
+      <c r="E1356">
         <v>-53.62</v>
       </c>
     </row>
     <row r="1357" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1357" s="8">
+      <c r="A1357" s="2">
         <v>45117</v>
       </c>
       <c r="B1357" t="s">
         <v>7</v>
       </c>
-      <c r="C1357" s="9" t="s">
+      <c r="C1357" t="s">
         <v>171</v>
       </c>
-      <c r="D1357" s="9" t="s">
+      <c r="D1357" t="s">
         <v>12</v>
       </c>
-      <c r="E1357" s="9">
+      <c r="E1357">
         <v>-48.33</v>
       </c>
     </row>
     <row r="1358" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1358" s="8">
+      <c r="A1358" s="2">
         <v>45117</v>
       </c>
       <c r="B1358" t="s">
         <v>7</v>
       </c>
-      <c r="C1358" s="9" t="s">
+      <c r="C1358" t="s">
         <v>171</v>
       </c>
-      <c r="D1358" s="9" t="s">
+      <c r="D1358" t="s">
         <v>266</v>
       </c>
-      <c r="E1358" s="9">
+      <c r="E1358">
         <v>16.14</v>
       </c>
     </row>
     <row r="1359" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1359" s="8">
+      <c r="A1359" s="2">
         <v>45117</v>
       </c>
-      <c r="B1359" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1359" s="9" t="s">
+      <c r="B1359" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1359" t="s">
         <v>414</v>
       </c>
-      <c r="D1359" s="9" t="s">
+      <c r="D1359" t="s">
         <v>268</v>
       </c>
-      <c r="E1359" s="9">
+      <c r="E1359">
         <v>-10.119999999999999</v>
       </c>
     </row>
     <row r="1360" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1360" s="8">
+      <c r="A1360" s="2">
         <v>45117</v>
       </c>
-      <c r="B1360" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1360" s="9" t="s">
+      <c r="B1360" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1360" t="s">
         <v>414</v>
       </c>
-      <c r="D1360" s="9" t="s">
+      <c r="D1360" t="s">
         <v>268</v>
       </c>
-      <c r="E1360" s="9">
+      <c r="E1360">
         <v>-9.8699999999999992</v>
       </c>
     </row>
     <row r="1361" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1361" s="8">
+      <c r="A1361" s="2">
         <v>45117</v>
       </c>
-      <c r="B1361" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1361" s="9" t="s">
+      <c r="B1361" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1361" t="s">
         <v>149</v>
       </c>
-      <c r="D1361" s="9" t="s">
+      <c r="D1361" t="s">
         <v>265</v>
       </c>
-      <c r="E1361" s="9">
+      <c r="E1361">
         <v>-2.99</v>
       </c>
     </row>
     <row r="1362" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1362" s="8">
+      <c r="A1362" s="2">
         <v>45117</v>
       </c>
-      <c r="B1362" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1362" s="9" t="s">
+      <c r="B1362" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1362" t="s">
         <v>282</v>
       </c>
-      <c r="D1362" s="9" t="s">
+      <c r="D1362" t="s">
         <v>266</v>
       </c>
-      <c r="E1362" s="9">
+      <c r="E1362">
         <v>29.31</v>
       </c>
     </row>
     <row r="1363" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1363" s="8">
+      <c r="A1363" s="2">
         <v>45118</v>
       </c>
       <c r="B1363" t="s">
         <v>7</v>
       </c>
-      <c r="C1363" s="9" t="s">
+      <c r="C1363" t="s">
         <v>446</v>
       </c>
-      <c r="D1363" s="9" t="s">
+      <c r="D1363" t="s">
         <v>54</v>
       </c>
-      <c r="E1363" s="9">
+      <c r="E1363">
         <v>-150.9</v>
       </c>
     </row>
     <row r="1364" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1364" s="8">
+      <c r="A1364" s="2">
         <v>45118</v>
       </c>
       <c r="B1364" t="s">
         <v>7</v>
       </c>
-      <c r="C1364" s="9" t="s">
+      <c r="C1364" t="s">
         <v>171</v>
       </c>
-      <c r="D1364" s="9" t="s">
+      <c r="D1364" t="s">
         <v>266</v>
       </c>
-      <c r="E1364" s="9">
+      <c r="E1364">
         <v>-58.76</v>
       </c>
     </row>
     <row r="1365" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1365" s="8">
+      <c r="A1365" s="2">
         <v>45118</v>
       </c>
-      <c r="B1365" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1365" s="9" t="s">
+      <c r="B1365" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1365" t="s">
         <v>493</v>
       </c>
-      <c r="D1365" s="9" t="s">
+      <c r="D1365" t="s">
         <v>262</v>
       </c>
-      <c r="E1365" s="9">
+      <c r="E1365">
         <v>-61.81</v>
       </c>
     </row>
     <row r="1366" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1366" s="8">
+      <c r="A1366" s="2">
         <v>45118</v>
       </c>
-      <c r="B1366" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1366" s="9" t="s">
+      <c r="B1366" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1366" t="s">
         <v>494</v>
       </c>
-      <c r="D1366" s="9" t="s">
+      <c r="D1366" t="s">
         <v>262</v>
       </c>
-      <c r="E1366" s="9">
+      <c r="E1366">
         <v>-12.86</v>
       </c>
     </row>
     <row r="1367" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1367" s="8">
+      <c r="A1367" s="2">
         <v>45118</v>
       </c>
-      <c r="B1367" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1367" s="9" t="s">
+      <c r="B1367" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1367" t="s">
         <v>475</v>
       </c>
-      <c r="D1367" s="9" t="s">
+      <c r="D1367" t="s">
         <v>262</v>
       </c>
-      <c r="E1367" s="9">
+      <c r="E1367">
         <v>-37</v>
       </c>
     </row>
     <row r="1368" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1368" s="8">
+      <c r="A1368" s="2">
         <v>45118</v>
       </c>
-      <c r="B1368" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1368" s="9" t="s">
+      <c r="B1368" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1368" t="s">
         <v>157</v>
       </c>
-      <c r="D1368" s="9" t="s">
+      <c r="D1368" t="s">
         <v>268</v>
       </c>
-      <c r="E1368" s="9">
+      <c r="E1368">
         <v>-6.99</v>
       </c>
     </row>
     <row r="1369" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1369" s="8">
+      <c r="A1369" s="2">
         <v>45118</v>
       </c>
-      <c r="B1369" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1369" s="9" t="s">
+      <c r="B1369" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1369" t="s">
         <v>282</v>
       </c>
-      <c r="D1369" s="9" t="s">
+      <c r="D1369" t="s">
         <v>266</v>
       </c>
-      <c r="E1369" s="9">
+      <c r="E1369">
         <v>-62.54</v>
       </c>
     </row>
     <row r="1370" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1370" s="8">
+      <c r="A1370" s="2">
         <v>45118</v>
       </c>
-      <c r="B1370" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1370" s="9" t="s">
+      <c r="B1370" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1370" t="s">
         <v>161</v>
       </c>
-      <c r="D1370" s="9" t="s">
+      <c r="D1370" t="s">
         <v>264</v>
       </c>
-      <c r="E1370" s="9">
+      <c r="E1370">
         <v>-62.77</v>
       </c>
     </row>
     <row r="1371" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1371" s="8">
+      <c r="A1371" s="2">
         <v>45119</v>
       </c>
       <c r="B1371" t="s">
         <v>7</v>
       </c>
-      <c r="C1371" s="9" t="s">
+      <c r="C1371" t="s">
         <v>170</v>
       </c>
-      <c r="D1371" s="9" t="s">
+      <c r="D1371" t="s">
         <v>32</v>
       </c>
-      <c r="E1371" s="9">
+      <c r="E1371">
         <v>3102.85</v>
       </c>
     </row>
     <row r="1372" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1372" s="8">
+      <c r="A1372" s="2">
         <v>45120</v>
       </c>
       <c r="B1372" t="s">
         <v>7</v>
       </c>
-      <c r="C1372" s="9" t="s">
+      <c r="C1372" t="s">
         <v>487</v>
       </c>
-      <c r="D1372" s="9" t="s">
+      <c r="D1372" t="s">
         <v>14</v>
       </c>
-      <c r="E1372" s="9">
+      <c r="E1372">
         <v>-83</v>
       </c>
     </row>
     <row r="1373" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1373" s="8">
+      <c r="A1373" s="2">
         <v>45120</v>
       </c>
       <c r="B1373" t="s">
         <v>7</v>
       </c>
-      <c r="C1373" s="9" t="s">
+      <c r="C1373" t="s">
         <v>183</v>
       </c>
-      <c r="D1373" s="9" t="s">
+      <c r="D1373" t="s">
         <v>14</v>
       </c>
-      <c r="E1373" s="9">
+      <c r="E1373">
         <v>3</v>
       </c>
     </row>
     <row r="1374" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1374" s="8">
+      <c r="A1374" s="2">
         <v>45120</v>
       </c>
-      <c r="B1374" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1374" s="9" t="s">
+      <c r="B1374" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1374" t="s">
         <v>165</v>
       </c>
-      <c r="D1374" s="9" t="s">
+      <c r="D1374" t="s">
         <v>268</v>
       </c>
-      <c r="E1374" s="9">
+      <c r="E1374">
         <v>-31.66</v>
       </c>
     </row>
     <row r="1375" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1375" s="8">
+      <c r="A1375" s="2">
         <v>45121</v>
       </c>
       <c r="B1375" t="s">
         <v>7</v>
       </c>
-      <c r="C1375" s="9" t="s">
+      <c r="C1375" t="s">
         <v>169</v>
       </c>
-      <c r="D1375" s="9" t="s">
+      <c r="D1375" t="s">
         <v>14</v>
       </c>
-      <c r="E1375" s="9">
+      <c r="E1375">
         <v>0.02</v>
       </c>
     </row>
     <row r="1376" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1376" s="8">
+      <c r="A1376" s="2">
         <v>45121</v>
       </c>
       <c r="B1376" t="s">
         <v>7</v>
       </c>
-      <c r="C1376" s="9" t="s">
+      <c r="C1376" t="s">
         <v>171</v>
       </c>
-      <c r="D1376" s="9" t="s">
+      <c r="D1376" t="s">
         <v>266</v>
       </c>
-      <c r="E1376" s="9">
+      <c r="E1376">
         <v>-71.44</v>
       </c>
     </row>
     <row r="1377" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1377" s="8">
+      <c r="A1377" s="2">
         <v>45122</v>
       </c>
-      <c r="B1377" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1377" s="9" t="s">
+      <c r="B1377" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1377" t="s">
         <v>489</v>
       </c>
-      <c r="D1377" s="9" t="s">
+      <c r="D1377" t="s">
         <v>268</v>
       </c>
-      <c r="E1377" s="9">
+      <c r="E1377">
         <v>-32.74</v>
       </c>
     </row>
     <row r="1378" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1378" s="8">
+      <c r="A1378" s="2">
         <v>45122</v>
       </c>
-      <c r="B1378" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1378" s="9" t="s">
+      <c r="B1378" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1378" t="s">
         <v>490</v>
       </c>
-      <c r="D1378" s="9" t="s">
+      <c r="D1378" t="s">
         <v>266</v>
       </c>
-      <c r="E1378" s="9">
+      <c r="E1378">
         <v>-64</v>
       </c>
     </row>
     <row r="1379" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1379" s="8">
+      <c r="A1379" s="2">
         <v>45122</v>
       </c>
-      <c r="B1379" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1379" s="9" t="s">
+      <c r="B1379" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1379" t="s">
         <v>491</v>
       </c>
-      <c r="D1379" s="9" t="s">
+      <c r="D1379" t="s">
         <v>265</v>
       </c>
-      <c r="E1379" s="9">
+      <c r="E1379">
         <v>-66</v>
       </c>
     </row>
     <row r="1380" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1380" s="8">
+      <c r="A1380" s="2">
         <v>45122</v>
       </c>
-      <c r="B1380" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1380" s="9" t="s">
+      <c r="B1380" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1380" t="s">
         <v>491</v>
       </c>
-      <c r="D1380" s="9" t="s">
+      <c r="D1380" t="s">
         <v>265</v>
       </c>
-      <c r="E1380" s="9">
+      <c r="E1380">
         <v>-66</v>
       </c>
     </row>
     <row r="1381" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1381" s="8">
+      <c r="A1381" s="2">
         <v>45122</v>
       </c>
-      <c r="B1381" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1381" s="9" t="s">
+      <c r="B1381" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1381" t="s">
         <v>491</v>
       </c>
-      <c r="D1381" s="9" t="s">
+      <c r="D1381" t="s">
         <v>265</v>
       </c>
-      <c r="E1381" s="9">
+      <c r="E1381">
         <v>-25.8</v>
       </c>
     </row>
     <row r="1382" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1382" s="8">
+      <c r="A1382" s="2">
         <v>45122</v>
       </c>
-      <c r="B1382" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1382" s="9" t="s">
+      <c r="B1382" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1382" t="s">
         <v>491</v>
       </c>
-      <c r="D1382" s="9" t="s">
+      <c r="D1382" t="s">
         <v>265</v>
       </c>
-      <c r="E1382" s="9">
+      <c r="E1382">
         <v>-25.8</v>
       </c>
     </row>
     <row r="1383" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1383" s="8">
+      <c r="A1383" s="2">
         <v>45122</v>
       </c>
-      <c r="B1383" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1383" s="9" t="s">
+      <c r="B1383" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1383" t="s">
         <v>437</v>
       </c>
-      <c r="D1383" s="9" t="s">
+      <c r="D1383" t="s">
         <v>268</v>
       </c>
-      <c r="E1383" s="9">
+      <c r="E1383">
         <v>-48.08</v>
       </c>
     </row>
     <row r="1384" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1384" s="8">
+      <c r="A1384" s="2">
         <v>45122</v>
       </c>
-      <c r="B1384" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1384" s="9" t="s">
+      <c r="B1384" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1384" t="s">
         <v>492</v>
       </c>
-      <c r="D1384" s="9" t="s">
+      <c r="D1384" t="s">
         <v>12</v>
       </c>
-      <c r="E1384" s="9">
+      <c r="E1384">
         <v>-3.69</v>
       </c>
     </row>
     <row r="1385" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1385" s="8">
+      <c r="A1385" s="2">
         <v>45123</v>
       </c>
-      <c r="B1385" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1385" s="9" t="s">
+      <c r="B1385" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1385" t="s">
         <v>418</v>
       </c>
-      <c r="D1385" s="9" t="s">
+      <c r="D1385" t="s">
         <v>268</v>
       </c>
-      <c r="E1385" s="9">
+      <c r="E1385">
         <v>-34.19</v>
       </c>
     </row>
     <row r="1386" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1386" s="8">
+      <c r="A1386" s="2">
         <v>45123</v>
       </c>
-      <c r="B1386" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1386" s="9" t="s">
+      <c r="B1386" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1386" t="s">
         <v>233</v>
       </c>
-      <c r="D1386" s="9" t="s">
+      <c r="D1386" t="s">
         <v>12</v>
       </c>
-      <c r="E1386" s="9">
+      <c r="E1386">
         <v>-186.48</v>
       </c>
     </row>
     <row r="1387" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1387" s="8">
+      <c r="A1387" s="2">
         <v>45123</v>
       </c>
-      <c r="B1387" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1387" s="9" t="s">
+      <c r="B1387" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1387" t="s">
         <v>366</v>
       </c>
-      <c r="D1387" s="9" t="s">
+      <c r="D1387" t="s">
         <v>263</v>
       </c>
-      <c r="E1387" s="9">
+      <c r="E1387">
         <v>-7.48</v>
       </c>
     </row>
     <row r="1388" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1388" s="8">
+      <c r="A1388" s="2">
         <v>45123</v>
       </c>
-      <c r="B1388" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1388" s="9" t="s">
+      <c r="B1388" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1388" t="s">
         <v>366</v>
       </c>
-      <c r="D1388" s="9" t="s">
+      <c r="D1388" t="s">
         <v>263</v>
       </c>
-      <c r="E1388" s="9">
+      <c r="E1388">
         <v>-9.49</v>
       </c>
     </row>
     <row r="1389" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1389" s="8">
+      <c r="A1389" s="2">
         <v>45123</v>
       </c>
-      <c r="B1389" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1389" s="9" t="s">
+      <c r="B1389" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1389" t="s">
         <v>366</v>
       </c>
-      <c r="D1389" s="9" t="s">
+      <c r="D1389" t="s">
         <v>263</v>
       </c>
-      <c r="E1389" s="9">
+      <c r="E1389">
         <v>-17.5</v>
       </c>
     </row>
     <row r="1390" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1390" s="8">
+      <c r="A1390" s="2">
         <v>45123</v>
       </c>
-      <c r="B1390" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1390" s="9" t="s">
+      <c r="B1390" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1390" t="s">
         <v>488</v>
       </c>
-      <c r="D1390" s="9" t="s">
+      <c r="D1390" t="s">
         <v>266</v>
       </c>
-      <c r="E1390" s="9">
+      <c r="E1390">
         <v>-31.77</v>
       </c>
     </row>
     <row r="1391" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1391" s="8">
+      <c r="A1391" s="2">
         <v>45124</v>
       </c>
       <c r="B1391" t="s">
         <v>7</v>
       </c>
-      <c r="C1391" s="9" t="s">
+      <c r="C1391" t="s">
         <v>6</v>
       </c>
-      <c r="D1391" s="9" t="s">
+      <c r="D1391" t="s">
         <v>9</v>
       </c>
-      <c r="E1391" s="9">
+      <c r="E1391">
         <v>-300</v>
       </c>
     </row>
     <row r="1392" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1392" s="8">
+      <c r="A1392" s="2">
         <v>45124</v>
       </c>
-      <c r="B1392" s="9" t="s">
+      <c r="B1392" t="s">
         <v>16</v>
       </c>
-      <c r="C1392" s="9" t="s">
+      <c r="C1392" t="s">
         <v>15</v>
       </c>
-      <c r="D1392" s="9" t="s">
+      <c r="D1392" t="s">
         <v>9</v>
       </c>
-      <c r="E1392" s="9">
+      <c r="E1392">
         <v>300</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1393" s="8">
+        <v>45124</v>
+      </c>
+      <c r="B1393" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1393" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="D1393" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1393" s="9">
+        <v>-814.04</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1394" s="8">
+        <v>45124</v>
+      </c>
+      <c r="B1394" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1394" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1394" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="E1394" s="9">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1395" s="8">
+        <v>45124</v>
+      </c>
+      <c r="B1395" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1395" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="D1395" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E1395" s="9">
+        <v>-107.69</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1396" s="8">
+        <v>45124</v>
+      </c>
+      <c r="B1396" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1396" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1396" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1396" s="9">
+        <v>-34.19</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1397" s="8">
+        <v>45124</v>
+      </c>
+      <c r="B1397" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1397" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1397" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1397" s="9">
+        <v>-5.67</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1398" s="8">
+        <v>45125</v>
+      </c>
+      <c r="B1398" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1398" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="D1398" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1398" s="9">
+        <v>-150.9</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1399" s="8">
+        <v>45125</v>
+      </c>
+      <c r="B1399" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1399" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="D1399" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1399" s="9">
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1400" s="8">
+        <v>45125</v>
+      </c>
+      <c r="B1400" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1400" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1400" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1400" s="9">
+        <v>-20.97</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1401" s="8">
+        <v>45126</v>
+      </c>
+      <c r="B1401" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1401" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="D1401" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1401" s="9">
+        <v>-8.33</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1402" s="8">
+        <v>45126</v>
+      </c>
+      <c r="B1402" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1402" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="D1402" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1402" s="9">
+        <v>-21.41</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1403" s="8">
+        <v>45126</v>
+      </c>
+      <c r="B1403" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1403" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="D1403" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1403" s="9">
+        <v>-3.95</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1404" s="8">
+        <v>45127</v>
+      </c>
+      <c r="B1404" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1404" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1404" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1404" s="9">
+        <v>-53.58</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1405" s="8">
+        <v>45127</v>
+      </c>
+      <c r="B1405" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1405" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1405" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1405" s="9">
+        <v>-39.99</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1406" s="8">
+        <v>45127</v>
+      </c>
+      <c r="B1406" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1406" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1406" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1406" s="9">
+        <v>-23.1</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1407" s="8">
+        <v>45128</v>
+      </c>
+      <c r="B1407" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1407" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1407" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1407" s="9">
+        <v>-77.55</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1408" s="8">
+        <v>45128</v>
+      </c>
+      <c r="B1408" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1408" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1408" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1408" s="9">
+        <v>-40.270000000000003</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1409" s="8">
+        <v>45128</v>
+      </c>
+      <c r="B1409" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1409" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1409" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1409" s="9">
+        <v>-22.97</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1410" s="8">
+        <v>45129</v>
+      </c>
+      <c r="B1410" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1410" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="D1410" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1410" s="9">
+        <v>-51.16</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1411" s="8">
+        <v>45129</v>
+      </c>
+      <c r="B1411" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1411" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="D1411" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1411" s="9">
+        <v>-175</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1412" s="8">
+        <v>45129</v>
+      </c>
+      <c r="B1412" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1412" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1412" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1412" s="9">
+        <v>-3.21</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1413" s="8">
+        <v>45129</v>
+      </c>
+      <c r="B1413" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1413" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D1413" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1413" s="9">
+        <v>-13.55</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1414" s="8">
+        <v>45129</v>
+      </c>
+      <c r="B1414" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1414" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="D1414" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1414" s="9">
+        <v>-4.54</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1415" s="8">
+        <v>45129</v>
+      </c>
+      <c r="B1415" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1415" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1415" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1415" s="9">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1416" s="8">
+        <v>45130</v>
+      </c>
+      <c r="B1416" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1416" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1416" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1416" s="9">
+        <v>-3.88</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1417" s="8">
+        <v>45130</v>
+      </c>
+      <c r="B1417" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1417" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="D1417" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1417" s="9">
+        <v>346.94</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1418" s="8">
+        <v>45131</v>
+      </c>
+      <c r="B1418" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1418" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="D1418" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1418" s="9">
+        <v>-433.65</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1419" s="8">
+        <v>45131</v>
+      </c>
+      <c r="B1419" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1419" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="D1419" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1419" s="9">
+        <v>-285.13</v>
       </c>
     </row>
   </sheetData>
@@ -25734,7 +26206,7 @@
           <x14:formula1>
             <xm:f>OFFSET(Categories!$A$2,0,0,COUNTIF(Categories!$A$2:$A$99,"&lt;&gt;"))</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D1392</xm:sqref>
+          <xm:sqref>D2:D1419</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Expenses.xlsx
+++ b/Expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffgood/Desktop/R_Studio_Projects/Financial_Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BF3984-4A97-7C47-BE96-D2D77F3BDD75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF727473-55B7-A04A-84B4-B3571F9846F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="14940" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4283" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4391" uniqueCount="505">
   <si>
     <t>Date</t>
   </si>
@@ -1541,6 +1541,21 @@
   </si>
   <si>
     <t>ATT* BILL PAYMENT</t>
+  </si>
+  <si>
+    <t>Spring Health    Receivable ***********WALP</t>
+  </si>
+  <si>
+    <t>Spring Health Receivable Qez</t>
+  </si>
+  <si>
+    <t>DOLLAR TREE</t>
+  </si>
+  <si>
+    <t>SQ *SWEET VELVET MACAR</t>
+  </si>
+  <si>
+    <t>Weis Markets</t>
   </si>
 </sst>
 </file>
@@ -1711,10 +1726,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E1419" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E1419" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E1419">
-    <sortCondition ref="A1:A1419"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E1455" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E1455" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E1455">
+    <sortCondition ref="A1:A1455"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="4"/>
@@ -2024,7 +2039,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1419"/>
+  <dimension ref="A1:E1455"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -2054,346 +2069,346 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
+      <c r="A2" s="2">
         <v>44774</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2">
         <v>-50</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
+      <c r="A3" s="2">
         <v>44774</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" t="s">
         <v>263</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3">
         <v>-12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
+      <c r="A4" s="2">
         <v>44774</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4">
         <v>-300</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
+      <c r="A5" s="2">
         <v>44774</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5">
         <f>--300</f>
         <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
+      <c r="A6" s="2">
         <v>44776</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6">
         <v>-36</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
+      <c r="A7" s="2">
         <v>44776</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7">
         <v>-26.34</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
+      <c r="A8" s="2">
         <v>44776</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" t="s">
         <v>262</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8">
         <v>-24</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
+      <c r="A9" s="2">
         <v>44776</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" t="s">
         <v>267</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9">
         <v>-847.99</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
+      <c r="A10" s="2">
         <v>44776</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10">
         <v>-35.880000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
+      <c r="A11" s="2">
         <v>44776</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11">
         <f>--3.19</f>
         <v>3.19</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
+      <c r="A12" s="2">
         <v>44776</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" t="s">
         <v>266</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12">
         <v>-5.93</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
+      <c r="A13" s="2">
         <v>44776</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" t="s">
         <v>266</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13">
         <f>-85.23-E12</f>
         <v>-79.300000000000011</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
+      <c r="A14" s="2">
         <v>44778</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="9" t="s">
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14">
         <f>--2.5</f>
         <v>2.5</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="8">
+      <c r="A15" s="2">
         <v>44778</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="9" t="s">
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15">
         <v>-9.5299999999999994</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="8">
+      <c r="A16" s="2">
         <v>44778</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16">
         <v>-7.21</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="8">
+      <c r="A17" s="2">
         <v>44778</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="9" t="s">
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17">
         <v>-22.5</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
+      <c r="A18" s="2">
         <v>44778</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="9" t="s">
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" t="s">
         <v>263</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18">
         <v>-117</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="8">
+      <c r="A19" s="2">
         <v>44779</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="9" t="s">
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" t="s">
         <v>263</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19">
         <v>-19.71</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
+      <c r="A20" s="2">
         <v>44779</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="9" t="s">
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" t="s">
         <v>268</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20">
         <v>-47.94</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="8">
+      <c r="A21" s="2">
         <v>44780</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="9" t="s">
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" t="s">
         <v>265</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21">
         <v>-97.9</v>
       </c>
     </row>
@@ -25735,462 +25750,1074 @@
       </c>
     </row>
     <row r="1393" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1393" s="8">
+      <c r="A1393" s="2">
         <v>45124</v>
       </c>
       <c r="B1393" t="s">
         <v>7</v>
       </c>
-      <c r="C1393" s="9" t="s">
+      <c r="C1393" t="s">
         <v>401</v>
       </c>
-      <c r="D1393" s="9" t="s">
+      <c r="D1393" t="s">
         <v>264</v>
       </c>
-      <c r="E1393" s="9">
+      <c r="E1393">
         <v>-814.04</v>
       </c>
     </row>
     <row r="1394" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1394" s="8">
+      <c r="A1394" s="2">
         <v>45124</v>
       </c>
       <c r="B1394" t="s">
         <v>16</v>
       </c>
-      <c r="C1394" s="9" t="s">
+      <c r="C1394" t="s">
         <v>166</v>
       </c>
-      <c r="D1394" s="9" t="s">
+      <c r="D1394" t="s">
         <v>269</v>
       </c>
-      <c r="E1394" s="9">
+      <c r="E1394">
         <v>-300</v>
       </c>
     </row>
     <row r="1395" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1395" s="8">
+      <c r="A1395" s="2">
         <v>45124</v>
       </c>
       <c r="B1395" t="s">
         <v>21</v>
       </c>
-      <c r="C1395" s="9" t="s">
+      <c r="C1395" t="s">
         <v>351</v>
       </c>
-      <c r="D1395" s="9" t="s">
+      <c r="D1395" t="s">
         <v>310</v>
       </c>
-      <c r="E1395" s="9">
+      <c r="E1395">
         <v>-107.69</v>
       </c>
     </row>
     <row r="1396" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1396" s="8">
+      <c r="A1396" s="2">
         <v>45124</v>
       </c>
       <c r="B1396" t="s">
         <v>21</v>
       </c>
-      <c r="C1396" s="9" t="s">
+      <c r="C1396" t="s">
         <v>157</v>
       </c>
-      <c r="D1396" s="9" t="s">
+      <c r="D1396" t="s">
         <v>268</v>
       </c>
-      <c r="E1396" s="9">
+      <c r="E1396">
         <v>-34.19</v>
       </c>
     </row>
     <row r="1397" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1397" s="8">
+      <c r="A1397" s="2">
         <v>45124</v>
       </c>
       <c r="B1397" t="s">
         <v>21</v>
       </c>
-      <c r="C1397" s="9" t="s">
+      <c r="C1397" t="s">
         <v>180</v>
       </c>
-      <c r="D1397" s="9" t="s">
+      <c r="D1397" t="s">
         <v>12</v>
       </c>
-      <c r="E1397" s="9">
+      <c r="E1397">
         <v>-5.67</v>
       </c>
     </row>
     <row r="1398" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1398" s="8">
+      <c r="A1398" s="2">
         <v>45125</v>
       </c>
       <c r="B1398" t="s">
         <v>7</v>
       </c>
-      <c r="C1398" s="9" t="s">
+      <c r="C1398" t="s">
         <v>446</v>
       </c>
-      <c r="D1398" s="9" t="s">
+      <c r="D1398" t="s">
         <v>54</v>
       </c>
-      <c r="E1398" s="9">
+      <c r="E1398">
         <v>-150.9</v>
       </c>
     </row>
     <row r="1399" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1399" s="8">
+      <c r="A1399" s="2">
         <v>45125</v>
       </c>
       <c r="B1399" t="s">
         <v>16</v>
       </c>
-      <c r="C1399" s="9" t="s">
+      <c r="C1399" t="s">
         <v>288</v>
       </c>
-      <c r="D1399" s="9" t="s">
+      <c r="D1399" t="s">
         <v>11</v>
       </c>
-      <c r="E1399" s="9">
+      <c r="E1399">
         <v>-45</v>
       </c>
     </row>
     <row r="1400" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1400" s="8">
+      <c r="A1400" s="2">
         <v>45125</v>
       </c>
       <c r="B1400" t="s">
         <v>21</v>
       </c>
-      <c r="C1400" s="9" t="s">
+      <c r="C1400" t="s">
         <v>414</v>
       </c>
-      <c r="D1400" s="9" t="s">
+      <c r="D1400" t="s">
         <v>268</v>
       </c>
-      <c r="E1400" s="9">
+      <c r="E1400">
         <v>-20.97</v>
       </c>
     </row>
     <row r="1401" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1401" s="8">
+      <c r="A1401" s="2">
         <v>45126</v>
       </c>
       <c r="B1401" t="s">
         <v>21</v>
       </c>
-      <c r="C1401" s="9" t="s">
+      <c r="C1401" t="s">
         <v>496</v>
       </c>
-      <c r="D1401" s="9" t="s">
+      <c r="D1401" t="s">
         <v>268</v>
       </c>
-      <c r="E1401" s="9">
+      <c r="E1401">
         <v>-8.33</v>
       </c>
     </row>
     <row r="1402" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1402" s="8">
+      <c r="A1402" s="2">
         <v>45126</v>
       </c>
       <c r="B1402" t="s">
         <v>21</v>
       </c>
-      <c r="C1402" s="9" t="s">
+      <c r="C1402" t="s">
         <v>495</v>
       </c>
-      <c r="D1402" s="9" t="s">
+      <c r="D1402" t="s">
         <v>268</v>
       </c>
-      <c r="E1402" s="9">
+      <c r="E1402">
         <v>-21.41</v>
       </c>
     </row>
     <row r="1403" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1403" s="8">
+      <c r="A1403" s="2">
         <v>45126</v>
       </c>
       <c r="B1403" t="s">
         <v>21</v>
       </c>
-      <c r="C1403" s="9" t="s">
+      <c r="C1403" t="s">
         <v>471</v>
       </c>
-      <c r="D1403" s="9" t="s">
+      <c r="D1403" t="s">
         <v>268</v>
       </c>
-      <c r="E1403" s="9">
+      <c r="E1403">
         <v>-3.95</v>
       </c>
     </row>
     <row r="1404" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1404" s="8">
+      <c r="A1404" s="2">
         <v>45127</v>
       </c>
       <c r="B1404" t="s">
         <v>7</v>
       </c>
-      <c r="C1404" s="9" t="s">
+      <c r="C1404" t="s">
         <v>171</v>
       </c>
-      <c r="D1404" s="9" t="s">
+      <c r="D1404" t="s">
         <v>266</v>
       </c>
-      <c r="E1404" s="9">
+      <c r="E1404">
         <v>-53.58</v>
       </c>
     </row>
     <row r="1405" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1405" s="8">
+      <c r="A1405" s="2">
         <v>45127</v>
       </c>
       <c r="B1405" t="s">
         <v>21</v>
       </c>
-      <c r="C1405" s="9" t="s">
+      <c r="C1405" t="s">
         <v>195</v>
       </c>
-      <c r="D1405" s="9" t="s">
+      <c r="D1405" t="s">
         <v>265</v>
       </c>
-      <c r="E1405" s="9">
+      <c r="E1405">
         <v>-39.99</v>
       </c>
     </row>
     <row r="1406" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1406" s="8">
+      <c r="A1406" s="2">
         <v>45127</v>
       </c>
       <c r="B1406" t="s">
         <v>21</v>
       </c>
-      <c r="C1406" s="9" t="s">
+      <c r="C1406" t="s">
         <v>181</v>
       </c>
-      <c r="D1406" s="9" t="s">
+      <c r="D1406" t="s">
         <v>266</v>
       </c>
-      <c r="E1406" s="9">
+      <c r="E1406">
         <v>-23.1</v>
       </c>
     </row>
     <row r="1407" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1407" s="8">
+      <c r="A1407" s="2">
         <v>45128</v>
       </c>
       <c r="B1407" t="s">
         <v>7</v>
       </c>
-      <c r="C1407" s="9" t="s">
+      <c r="C1407" t="s">
         <v>171</v>
       </c>
-      <c r="D1407" s="9" t="s">
+      <c r="D1407" t="s">
         <v>12</v>
       </c>
-      <c r="E1407" s="9">
+      <c r="E1407">
         <v>-77.55</v>
       </c>
     </row>
     <row r="1408" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1408" s="8">
+      <c r="A1408" s="2">
         <v>45128</v>
       </c>
       <c r="B1408" t="s">
         <v>7</v>
       </c>
-      <c r="C1408" s="9" t="s">
+      <c r="C1408" t="s">
         <v>171</v>
       </c>
-      <c r="D1408" s="9" t="s">
+      <c r="D1408" t="s">
         <v>265</v>
       </c>
-      <c r="E1408" s="9">
+      <c r="E1408">
         <v>-40.270000000000003</v>
       </c>
     </row>
     <row r="1409" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1409" s="8">
+      <c r="A1409" s="2">
         <v>45128</v>
       </c>
       <c r="B1409" t="s">
         <v>21</v>
       </c>
-      <c r="C1409" s="9" t="s">
+      <c r="C1409" t="s">
         <v>157</v>
       </c>
-      <c r="D1409" s="9" t="s">
+      <c r="D1409" t="s">
         <v>268</v>
       </c>
-      <c r="E1409" s="9">
+      <c r="E1409">
         <v>-22.97</v>
       </c>
     </row>
     <row r="1410" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1410" s="8">
+      <c r="A1410" s="2">
         <v>45129</v>
       </c>
       <c r="B1410" t="s">
         <v>21</v>
       </c>
-      <c r="C1410" s="9" t="s">
+      <c r="C1410" t="s">
         <v>353</v>
       </c>
-      <c r="D1410" s="9" t="s">
+      <c r="D1410" t="s">
         <v>268</v>
       </c>
-      <c r="E1410" s="9">
+      <c r="E1410">
         <v>-51.16</v>
       </c>
     </row>
     <row r="1411" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1411" s="8">
+      <c r="A1411" s="2">
         <v>45129</v>
       </c>
       <c r="B1411" t="s">
         <v>21</v>
       </c>
-      <c r="C1411" s="9" t="s">
+      <c r="C1411" t="s">
         <v>497</v>
       </c>
-      <c r="D1411" s="9" t="s">
+      <c r="D1411" t="s">
         <v>266</v>
       </c>
-      <c r="E1411" s="9">
+      <c r="E1411">
         <v>-175</v>
       </c>
     </row>
     <row r="1412" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1412" s="8">
+      <c r="A1412" s="2">
         <v>45129</v>
       </c>
       <c r="B1412" t="s">
         <v>21</v>
       </c>
-      <c r="C1412" s="9" t="s">
+      <c r="C1412" t="s">
         <v>149</v>
       </c>
-      <c r="D1412" s="9" t="s">
+      <c r="D1412" t="s">
         <v>265</v>
       </c>
-      <c r="E1412" s="9">
+      <c r="E1412">
         <v>-3.21</v>
       </c>
     </row>
     <row r="1413" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1413" s="8">
+      <c r="A1413" s="2">
         <v>45129</v>
       </c>
       <c r="B1413" t="s">
         <v>21</v>
       </c>
-      <c r="C1413" s="9" t="s">
+      <c r="C1413" t="s">
         <v>285</v>
       </c>
-      <c r="D1413" s="9" t="s">
+      <c r="D1413" t="s">
         <v>268</v>
       </c>
-      <c r="E1413" s="9">
+      <c r="E1413">
         <v>-13.55</v>
       </c>
     </row>
     <row r="1414" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1414" s="8">
+      <c r="A1414" s="2">
         <v>45129</v>
       </c>
       <c r="B1414" t="s">
         <v>21</v>
       </c>
-      <c r="C1414" s="9" t="s">
+      <c r="C1414" t="s">
         <v>496</v>
       </c>
-      <c r="D1414" s="9" t="s">
+      <c r="D1414" t="s">
         <v>268</v>
       </c>
-      <c r="E1414" s="9">
+      <c r="E1414">
         <v>-4.54</v>
       </c>
     </row>
     <row r="1415" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1415" s="8">
+      <c r="A1415" s="2">
         <v>45129</v>
       </c>
       <c r="B1415" t="s">
         <v>21</v>
       </c>
-      <c r="C1415" s="9" t="s">
+      <c r="C1415" t="s">
         <v>184</v>
       </c>
-      <c r="D1415" s="9" t="s">
+      <c r="D1415" t="s">
         <v>268</v>
       </c>
-      <c r="E1415" s="9">
+      <c r="E1415">
         <v>-25</v>
       </c>
     </row>
     <row r="1416" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1416" s="8">
+      <c r="A1416" s="2">
         <v>45130</v>
       </c>
       <c r="B1416" t="s">
         <v>21</v>
       </c>
-      <c r="C1416" s="9" t="s">
+      <c r="C1416" t="s">
         <v>149</v>
       </c>
-      <c r="D1416" s="9" t="s">
+      <c r="D1416" t="s">
         <v>265</v>
       </c>
-      <c r="E1416" s="9">
+      <c r="E1416">
         <v>-3.88</v>
       </c>
     </row>
     <row r="1417" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1417" s="8">
+      <c r="A1417" s="2">
         <v>45130</v>
       </c>
       <c r="B1417" t="s">
         <v>21</v>
       </c>
-      <c r="C1417" s="9" t="s">
+      <c r="C1417" t="s">
         <v>486</v>
       </c>
-      <c r="D1417" s="9" t="s">
+      <c r="D1417" t="s">
         <v>266</v>
       </c>
-      <c r="E1417" s="9">
+      <c r="E1417">
         <v>346.94</v>
       </c>
     </row>
     <row r="1418" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1418" s="8">
+      <c r="A1418" s="2">
         <v>45131</v>
       </c>
       <c r="B1418" t="s">
         <v>21</v>
       </c>
-      <c r="C1418" s="9" t="s">
+      <c r="C1418" t="s">
         <v>499</v>
       </c>
-      <c r="D1418" s="9" t="s">
+      <c r="D1418" t="s">
         <v>265</v>
       </c>
-      <c r="E1418" s="9">
+      <c r="E1418">
         <v>-433.65</v>
       </c>
     </row>
     <row r="1419" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1419" s="8">
+      <c r="A1419" s="2">
         <v>45131</v>
       </c>
       <c r="B1419" t="s">
         <v>21</v>
       </c>
-      <c r="C1419" s="9" t="s">
+      <c r="C1419" t="s">
         <v>498</v>
       </c>
-      <c r="D1419" s="9" t="s">
+      <c r="D1419" t="s">
         <v>12</v>
       </c>
-      <c r="E1419" s="9">
+      <c r="E1419">
         <v>-285.13</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1420" s="8">
+        <v>45132</v>
+      </c>
+      <c r="B1420" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1420" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="D1420" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1420" s="9">
+        <v>-150.9</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1421" s="8">
+        <v>45132</v>
+      </c>
+      <c r="B1421" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1421" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="D1421" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1421" s="9">
+        <v>-25.44</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1422" s="8">
+        <v>45132</v>
+      </c>
+      <c r="B1422" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1422" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1422" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1422" s="9">
+        <v>-52.25</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1423" s="8">
+        <v>45133</v>
+      </c>
+      <c r="B1423" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1423" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1423" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1423" s="9">
+        <v>-92.2</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1424" s="8">
+        <v>45133</v>
+      </c>
+      <c r="B1424" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1424" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="D1424" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E1424" s="9">
+        <v>993.6</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1425" s="8">
+        <v>45133</v>
+      </c>
+      <c r="B1425" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1425" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1425" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1425" s="9">
+        <v>19.649999999999999</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1426" s="8">
+        <v>45133</v>
+      </c>
+      <c r="B1426" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1426" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1426" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1426" s="9">
+        <v>-15.89</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1427" s="8">
+        <v>45133</v>
+      </c>
+      <c r="B1427" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1427" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1427" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1427" s="9">
+        <v>-8.4700000000000006</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1428" s="8">
+        <v>45133</v>
+      </c>
+      <c r="B1428" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1428" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1428" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1428" s="9">
+        <v>-9.74</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1429" s="8">
+        <v>45133</v>
+      </c>
+      <c r="B1429" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1429" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="D1429" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E1429" s="9">
+        <v>-23.31</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1430" s="8">
+        <v>45133</v>
+      </c>
+      <c r="B1430" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1430" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1430" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1430" s="9">
+        <v>-16.829999999999998</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1431" s="8">
+        <v>45134</v>
+      </c>
+      <c r="B1431" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1431" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1431" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1431" s="9">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1432" s="8">
+        <v>45134</v>
+      </c>
+      <c r="B1432" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1432" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="D1432" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1432" s="9">
+        <v>-553.89</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1433" s="8">
+        <v>45134</v>
+      </c>
+      <c r="B1433" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1433" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="D1433" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1433" s="9">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1434" s="8">
+        <v>45134</v>
+      </c>
+      <c r="B1434" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1434" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="D1434" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1434" s="9">
+        <v>-8.02</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1435" s="8">
+        <v>45134</v>
+      </c>
+      <c r="B1435" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1435" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="D1435" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1435" s="9">
+        <v>28.62</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1436" s="8">
+        <v>45135</v>
+      </c>
+      <c r="B1436" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1436" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1436" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1436" s="9">
+        <v>-93.24</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1437" s="8">
+        <v>45135</v>
+      </c>
+      <c r="B1437" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1437" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1437" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1437" s="9">
+        <v>3102.8</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1438" s="8">
+        <v>45135</v>
+      </c>
+      <c r="B1438" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1438" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1438" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1438" s="9">
+        <v>40.270000000000003</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1439" s="8">
+        <v>45135</v>
+      </c>
+      <c r="B1439" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1439" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1439" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1439" s="9">
+        <v>-16.11</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1440" s="8">
+        <v>45135</v>
+      </c>
+      <c r="B1440" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1440" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1440" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1440" s="9">
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1441" s="8">
+        <v>45135</v>
+      </c>
+      <c r="B1441" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1441" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1441" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1441" s="9">
+        <v>-9.99</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1442" s="8">
+        <v>45135</v>
+      </c>
+      <c r="B1442" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1442" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="D1442" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1442" s="9">
+        <v>-4.78</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1443" s="8">
+        <v>45135</v>
+      </c>
+      <c r="B1443" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1443" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1443" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1443" s="9">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1444" s="8">
+        <v>45136</v>
+      </c>
+      <c r="B1444" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1444" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D1444" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1444" s="9">
+        <v>-3.38</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1445" s="8">
+        <v>45136</v>
+      </c>
+      <c r="B1445" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1445" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D1445" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1445" s="9">
+        <v>-1.59</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1446" s="8">
+        <v>45136</v>
+      </c>
+      <c r="B1446" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1446" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="D1446" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1446" s="9">
+        <v>-29.2</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1447" s="8">
+        <v>45137</v>
+      </c>
+      <c r="B1447" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1447" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="D1447" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E1447" s="9">
+        <v>-40.36</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1448" s="8">
+        <v>45138</v>
+      </c>
+      <c r="B1448" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1448" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="D1448" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E1448" s="9">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1449" s="8">
+        <v>45138</v>
+      </c>
+      <c r="B1449" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1449" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1449" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1449" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1450" s="8">
+        <v>45138</v>
+      </c>
+      <c r="B1450" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1450" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1450" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1450" s="9">
+        <v>-124.52</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1451" s="8">
+        <v>45138</v>
+      </c>
+      <c r="B1451" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1451" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1451" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1451" s="9">
+        <v>-40.69</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1452" s="8">
+        <v>45138</v>
+      </c>
+      <c r="B1452" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1452" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="D1452" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1452" s="9">
+        <v>-6.63</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1453" s="8">
+        <v>45138</v>
+      </c>
+      <c r="B1453" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1453" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="D1453" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1453" s="9">
+        <v>-58.4</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1454" s="8">
+        <v>45139</v>
+      </c>
+      <c r="B1454" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1454" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1454" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1454" s="9">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1455" s="8">
+        <v>45139</v>
+      </c>
+      <c r="B1455" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1455" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1455" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1455" s="9">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -26206,7 +26833,7 @@
           <x14:formula1>
             <xm:f>OFFSET(Categories!$A$2,0,0,COUNTIF(Categories!$A$2:$A$99,"&lt;&gt;"))</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D1419</xm:sqref>
+          <xm:sqref>D2:D1455</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Expenses.xlsx
+++ b/Expenses.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffgood/Desktop/R_Studio_Projects/Financial_Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF727473-55B7-A04A-84B4-B3571F9846F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDEA3E21-3684-2644-BAAD-79ACDD593A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="14940" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4391" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4466" uniqueCount="508">
   <si>
     <t>Date</t>
   </si>
@@ -1556,6 +1556,15 @@
   </si>
   <si>
     <t>Weis Markets</t>
+  </si>
+  <si>
+    <t>3180 GREAT CLIPS AT CAMP</t>
+  </si>
+  <si>
+    <t>Amore Pizza</t>
+  </si>
+  <si>
+    <t>Cornerstone Coffeehou</t>
   </si>
 </sst>
 </file>
@@ -1726,10 +1735,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E1455" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E1455" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E1455">
-    <sortCondition ref="A1:A1455"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E1480" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E1480" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E1480">
+    <sortCondition ref="A1:A1480"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="4"/>
@@ -2039,9 +2048,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1455"/>
+  <dimension ref="A1:E1480"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D843" sqref="D843"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -26209,615 +26220,1040 @@
       </c>
     </row>
     <row r="1420" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1420" s="8">
+      <c r="A1420" s="2">
         <v>45132</v>
       </c>
       <c r="B1420" t="s">
         <v>7</v>
       </c>
-      <c r="C1420" s="9" t="s">
+      <c r="C1420" t="s">
         <v>446</v>
       </c>
-      <c r="D1420" s="9" t="s">
+      <c r="D1420" t="s">
         <v>54</v>
       </c>
-      <c r="E1420" s="9">
+      <c r="E1420">
         <v>-150.9</v>
       </c>
     </row>
     <row r="1421" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1421" s="8">
+      <c r="A1421" s="2">
         <v>45132</v>
       </c>
       <c r="B1421" t="s">
         <v>21</v>
       </c>
-      <c r="C1421" s="9" t="s">
+      <c r="C1421" t="s">
         <v>282</v>
       </c>
-      <c r="D1421" s="9" t="s">
+      <c r="D1421" t="s">
         <v>266</v>
       </c>
-      <c r="E1421" s="9">
+      <c r="E1421">
         <v>-25.44</v>
       </c>
     </row>
     <row r="1422" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1422" s="8">
+      <c r="A1422" s="2">
         <v>45132</v>
       </c>
       <c r="B1422" t="s">
         <v>21</v>
       </c>
-      <c r="C1422" s="9" t="s">
+      <c r="C1422" t="s">
         <v>161</v>
       </c>
-      <c r="D1422" s="9" t="s">
+      <c r="D1422" t="s">
         <v>264</v>
       </c>
-      <c r="E1422" s="9">
+      <c r="E1422">
         <v>-52.25</v>
       </c>
     </row>
     <row r="1423" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1423" s="8">
+      <c r="A1423" s="2">
         <v>45133</v>
       </c>
       <c r="B1423" t="s">
         <v>7</v>
       </c>
-      <c r="C1423" s="9" t="s">
+      <c r="C1423" t="s">
         <v>171</v>
       </c>
-      <c r="D1423" s="9" t="s">
+      <c r="D1423" t="s">
         <v>266</v>
       </c>
-      <c r="E1423" s="9">
+      <c r="E1423">
         <v>-92.2</v>
       </c>
     </row>
     <row r="1424" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1424" s="8">
+      <c r="A1424" s="2">
         <v>45133</v>
       </c>
       <c r="B1424" t="s">
         <v>7</v>
       </c>
-      <c r="C1424" s="9" t="s">
+      <c r="C1424" t="s">
         <v>501</v>
       </c>
-      <c r="D1424" s="9" t="s">
+      <c r="D1424" t="s">
         <v>232</v>
       </c>
-      <c r="E1424" s="9">
+      <c r="E1424">
         <v>993.6</v>
       </c>
     </row>
     <row r="1425" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1425" s="8">
+      <c r="A1425" s="2">
         <v>45133</v>
       </c>
       <c r="B1425" t="s">
         <v>7</v>
       </c>
-      <c r="C1425" s="9" t="s">
+      <c r="C1425" t="s">
         <v>171</v>
       </c>
-      <c r="D1425" s="9" t="s">
+      <c r="D1425" t="s">
         <v>266</v>
       </c>
-      <c r="E1425" s="9">
+      <c r="E1425">
         <v>19.649999999999999</v>
       </c>
     </row>
     <row r="1426" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1426" s="8">
+      <c r="A1426" s="2">
         <v>45133</v>
       </c>
       <c r="B1426" t="s">
         <v>21</v>
       </c>
-      <c r="C1426" s="9" t="s">
+      <c r="C1426" t="s">
         <v>160</v>
       </c>
-      <c r="D1426" s="9" t="s">
+      <c r="D1426" t="s">
         <v>263</v>
       </c>
-      <c r="E1426" s="9">
+      <c r="E1426">
         <v>-15.89</v>
       </c>
     </row>
     <row r="1427" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1427" s="8">
+      <c r="A1427" s="2">
         <v>45133</v>
       </c>
       <c r="B1427" t="s">
         <v>21</v>
       </c>
-      <c r="C1427" s="9" t="s">
+      <c r="C1427" t="s">
         <v>160</v>
       </c>
-      <c r="D1427" s="9" t="s">
+      <c r="D1427" t="s">
         <v>263</v>
       </c>
-      <c r="E1427" s="9">
+      <c r="E1427">
         <v>-8.4700000000000006</v>
       </c>
     </row>
     <row r="1428" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1428" s="8">
+      <c r="A1428" s="2">
         <v>45133</v>
       </c>
       <c r="B1428" t="s">
         <v>21</v>
       </c>
-      <c r="C1428" s="9" t="s">
+      <c r="C1428" t="s">
         <v>160</v>
       </c>
-      <c r="D1428" s="9" t="s">
+      <c r="D1428" t="s">
         <v>263</v>
       </c>
-      <c r="E1428" s="9">
+      <c r="E1428">
         <v>-9.74</v>
       </c>
     </row>
     <row r="1429" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1429" s="8">
+      <c r="A1429" s="2">
         <v>45133</v>
       </c>
       <c r="B1429" t="s">
         <v>21</v>
       </c>
-      <c r="C1429" s="9" t="s">
+      <c r="C1429" t="s">
         <v>303</v>
       </c>
-      <c r="D1429" s="9" t="s">
+      <c r="D1429" t="s">
         <v>310</v>
       </c>
-      <c r="E1429" s="9">
+      <c r="E1429">
         <v>-23.31</v>
       </c>
     </row>
     <row r="1430" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1430" s="8">
+      <c r="A1430" s="2">
         <v>45133</v>
       </c>
       <c r="B1430" t="s">
         <v>21</v>
       </c>
-      <c r="C1430" s="9" t="s">
+      <c r="C1430" t="s">
         <v>165</v>
       </c>
-      <c r="D1430" s="9" t="s">
+      <c r="D1430" t="s">
         <v>268</v>
       </c>
-      <c r="E1430" s="9">
+      <c r="E1430">
         <v>-16.829999999999998</v>
       </c>
     </row>
     <row r="1431" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1431" s="8">
+      <c r="A1431" s="2">
         <v>45134</v>
       </c>
       <c r="B1431" t="s">
         <v>7</v>
       </c>
-      <c r="C1431" s="9" t="s">
+      <c r="C1431" t="s">
         <v>171</v>
       </c>
-      <c r="D1431" s="9" t="s">
+      <c r="D1431" t="s">
         <v>266</v>
       </c>
-      <c r="E1431" s="9">
+      <c r="E1431">
         <v>-20</v>
       </c>
     </row>
     <row r="1432" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1432" s="8">
+      <c r="A1432" s="2">
         <v>45134</v>
       </c>
-      <c r="B1432" s="9" t="s">
+      <c r="B1432" t="s">
         <v>16</v>
       </c>
-      <c r="C1432" s="9" t="s">
+      <c r="C1432" t="s">
         <v>288</v>
       </c>
-      <c r="D1432" s="9" t="s">
+      <c r="D1432" t="s">
         <v>266</v>
       </c>
-      <c r="E1432" s="9">
+      <c r="E1432">
         <v>-553.89</v>
       </c>
     </row>
     <row r="1433" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1433" s="8">
+      <c r="A1433" s="2">
         <v>45134</v>
       </c>
-      <c r="B1433" s="9" t="s">
+      <c r="B1433" t="s">
         <v>16</v>
       </c>
-      <c r="C1433" s="9" t="s">
+      <c r="C1433" t="s">
         <v>288</v>
       </c>
-      <c r="D1433" s="9" t="s">
+      <c r="D1433" t="s">
         <v>266</v>
       </c>
-      <c r="E1433" s="9">
+      <c r="E1433">
         <v>-12</v>
       </c>
     </row>
     <row r="1434" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1434" s="8">
+      <c r="A1434" s="2">
         <v>45134</v>
       </c>
       <c r="B1434" t="s">
         <v>21</v>
       </c>
-      <c r="C1434" s="9" t="s">
+      <c r="C1434" t="s">
         <v>496</v>
       </c>
-      <c r="D1434" s="9" t="s">
+      <c r="D1434" t="s">
         <v>268</v>
       </c>
-      <c r="E1434" s="9">
+      <c r="E1434">
         <v>-8.02</v>
       </c>
     </row>
     <row r="1435" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1435" s="8">
+      <c r="A1435" s="2">
         <v>45134</v>
       </c>
       <c r="B1435" t="s">
         <v>21</v>
       </c>
-      <c r="C1435" s="9" t="s">
+      <c r="C1435" t="s">
         <v>282</v>
       </c>
-      <c r="D1435" s="9" t="s">
+      <c r="D1435" t="s">
         <v>266</v>
       </c>
-      <c r="E1435" s="9">
+      <c r="E1435">
         <v>28.62</v>
       </c>
     </row>
     <row r="1436" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1436" s="8">
+      <c r="A1436" s="2">
         <v>45135</v>
       </c>
       <c r="B1436" t="s">
         <v>7</v>
       </c>
-      <c r="C1436" s="9" t="s">
+      <c r="C1436" t="s">
         <v>171</v>
       </c>
-      <c r="D1436" s="9" t="s">
+      <c r="D1436" t="s">
         <v>265</v>
       </c>
-      <c r="E1436" s="9">
+      <c r="E1436">
         <v>-93.24</v>
       </c>
     </row>
     <row r="1437" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1437" s="8">
+      <c r="A1437" s="2">
         <v>45135</v>
       </c>
       <c r="B1437" t="s">
         <v>7</v>
       </c>
-      <c r="C1437" s="9" t="s">
+      <c r="C1437" t="s">
         <v>170</v>
       </c>
-      <c r="D1437" s="9" t="s">
+      <c r="D1437" t="s">
         <v>32</v>
       </c>
-      <c r="E1437" s="9">
+      <c r="E1437">
         <v>3102.8</v>
       </c>
     </row>
     <row r="1438" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1438" s="8">
+      <c r="A1438" s="2">
         <v>45135</v>
       </c>
       <c r="B1438" t="s">
         <v>7</v>
       </c>
-      <c r="C1438" s="9" t="s">
+      <c r="C1438" t="s">
         <v>171</v>
       </c>
-      <c r="D1438" s="9" t="s">
+      <c r="D1438" t="s">
         <v>266</v>
       </c>
-      <c r="E1438" s="9">
+      <c r="E1438">
         <v>40.270000000000003</v>
       </c>
     </row>
     <row r="1439" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1439" s="8">
+      <c r="A1439" s="2">
         <v>45135</v>
       </c>
       <c r="B1439" t="s">
         <v>21</v>
       </c>
-      <c r="C1439" s="9" t="s">
+      <c r="C1439" t="s">
         <v>200</v>
       </c>
-      <c r="D1439" s="9" t="s">
+      <c r="D1439" t="s">
         <v>263</v>
       </c>
-      <c r="E1439" s="9">
+      <c r="E1439">
         <v>-16.11</v>
       </c>
     </row>
     <row r="1440" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1440" s="8">
+      <c r="A1440" s="2">
         <v>45135</v>
       </c>
       <c r="B1440" t="s">
         <v>21</v>
       </c>
-      <c r="C1440" s="9" t="s">
+      <c r="C1440" t="s">
         <v>157</v>
       </c>
-      <c r="D1440" s="9" t="s">
+      <c r="D1440" t="s">
         <v>268</v>
       </c>
-      <c r="E1440" s="9">
+      <c r="E1440">
         <v>-29</v>
       </c>
     </row>
     <row r="1441" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1441" s="8">
+      <c r="A1441" s="2">
         <v>45135</v>
       </c>
       <c r="B1441" t="s">
         <v>21</v>
       </c>
-      <c r="C1441" s="9" t="s">
+      <c r="C1441" t="s">
         <v>149</v>
       </c>
-      <c r="D1441" s="9" t="s">
+      <c r="D1441" t="s">
         <v>265</v>
       </c>
-      <c r="E1441" s="9">
+      <c r="E1441">
         <v>-9.99</v>
       </c>
     </row>
     <row r="1442" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1442" s="8">
+      <c r="A1442" s="2">
         <v>45135</v>
       </c>
       <c r="B1442" t="s">
         <v>21</v>
       </c>
-      <c r="C1442" s="9" t="s">
+      <c r="C1442" t="s">
         <v>504</v>
       </c>
-      <c r="D1442" s="9" t="s">
+      <c r="D1442" t="s">
         <v>12</v>
       </c>
-      <c r="E1442" s="9">
+      <c r="E1442">
         <v>-4.78</v>
       </c>
     </row>
     <row r="1443" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1443" s="8">
+      <c r="A1443" s="2">
         <v>45135</v>
       </c>
       <c r="B1443" t="s">
         <v>21</v>
       </c>
-      <c r="C1443" s="9" t="s">
+      <c r="C1443" t="s">
         <v>206</v>
       </c>
-      <c r="D1443" s="9" t="s">
+      <c r="D1443" t="s">
         <v>262</v>
       </c>
-      <c r="E1443" s="9">
+      <c r="E1443">
         <v>-7</v>
       </c>
     </row>
     <row r="1444" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1444" s="8">
+      <c r="A1444" s="2">
         <v>45136</v>
       </c>
       <c r="B1444" t="s">
         <v>21</v>
       </c>
-      <c r="C1444" s="9" t="s">
+      <c r="C1444" t="s">
         <v>258</v>
       </c>
-      <c r="D1444" s="9" t="s">
+      <c r="D1444" t="s">
         <v>268</v>
       </c>
-      <c r="E1444" s="9">
+      <c r="E1444">
         <v>-3.38</v>
       </c>
     </row>
     <row r="1445" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1445" s="8">
+      <c r="A1445" s="2">
         <v>45136</v>
       </c>
       <c r="B1445" t="s">
         <v>21</v>
       </c>
-      <c r="C1445" s="9" t="s">
+      <c r="C1445" t="s">
         <v>258</v>
       </c>
-      <c r="D1445" s="9" t="s">
+      <c r="D1445" t="s">
         <v>268</v>
       </c>
-      <c r="E1445" s="9">
+      <c r="E1445">
         <v>-1.59</v>
       </c>
     </row>
     <row r="1446" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1446" s="8">
+      <c r="A1446" s="2">
         <v>45136</v>
       </c>
       <c r="B1446" t="s">
         <v>21</v>
       </c>
-      <c r="C1446" s="9" t="s">
+      <c r="C1446" t="s">
         <v>227</v>
       </c>
-      <c r="D1446" s="9" t="s">
+      <c r="D1446" t="s">
         <v>265</v>
       </c>
-      <c r="E1446" s="9">
+      <c r="E1446">
         <v>-29.2</v>
       </c>
     </row>
     <row r="1447" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1447" s="8">
+      <c r="A1447" s="2">
         <v>45137</v>
       </c>
       <c r="B1447" t="s">
         <v>21</v>
       </c>
-      <c r="C1447" s="9" t="s">
+      <c r="C1447" t="s">
         <v>323</v>
       </c>
-      <c r="D1447" s="9" t="s">
+      <c r="D1447" t="s">
         <v>310</v>
       </c>
-      <c r="E1447" s="9">
+      <c r="E1447">
         <v>-40.36</v>
       </c>
     </row>
     <row r="1448" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1448" s="8">
+      <c r="A1448" s="2">
         <v>45138</v>
       </c>
       <c r="B1448" t="s">
         <v>7</v>
       </c>
-      <c r="C1448" s="9" t="s">
+      <c r="C1448" t="s">
         <v>500</v>
       </c>
-      <c r="D1448" s="9" t="s">
+      <c r="D1448" t="s">
         <v>232</v>
       </c>
-      <c r="E1448" s="9">
+      <c r="E1448">
         <v>1980</v>
       </c>
     </row>
     <row r="1449" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1449" s="8">
+      <c r="A1449" s="2">
         <v>45138</v>
       </c>
-      <c r="B1449" s="9" t="s">
+      <c r="B1449" t="s">
         <v>16</v>
       </c>
-      <c r="C1449" s="9" t="s">
+      <c r="C1449" t="s">
         <v>42</v>
       </c>
-      <c r="D1449" s="9" t="s">
+      <c r="D1449" t="s">
         <v>14</v>
       </c>
-      <c r="E1449" s="9">
+      <c r="E1449">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="1450" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1450" s="8">
+      <c r="A1450" s="2">
         <v>45138</v>
       </c>
       <c r="B1450" t="s">
         <v>21</v>
       </c>
-      <c r="C1450" s="9" t="s">
+      <c r="C1450" t="s">
         <v>233</v>
       </c>
-      <c r="D1450" s="9" t="s">
+      <c r="D1450" t="s">
         <v>12</v>
       </c>
-      <c r="E1450" s="9">
+      <c r="E1450">
         <v>-124.52</v>
       </c>
     </row>
     <row r="1451" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1451" s="8">
+      <c r="A1451" s="2">
         <v>45138</v>
       </c>
       <c r="B1451" t="s">
         <v>21</v>
       </c>
-      <c r="C1451" s="9" t="s">
+      <c r="C1451" t="s">
         <v>188</v>
       </c>
-      <c r="D1451" s="9" t="s">
+      <c r="D1451" t="s">
         <v>262</v>
       </c>
-      <c r="E1451" s="9">
+      <c r="E1451">
         <v>-40.69</v>
       </c>
     </row>
     <row r="1452" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1452" s="8">
+      <c r="A1452" s="2">
         <v>45138</v>
       </c>
       <c r="B1452" t="s">
         <v>21</v>
       </c>
-      <c r="C1452" s="9" t="s">
+      <c r="C1452" t="s">
         <v>502</v>
       </c>
-      <c r="D1452" s="9" t="s">
+      <c r="D1452" t="s">
         <v>266</v>
       </c>
-      <c r="E1452" s="9">
+      <c r="E1452">
         <v>-6.63</v>
       </c>
     </row>
     <row r="1453" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1453" s="8">
+      <c r="A1453" s="2">
         <v>45138</v>
       </c>
       <c r="B1453" t="s">
         <v>21</v>
       </c>
-      <c r="C1453" s="9" t="s">
+      <c r="C1453" t="s">
         <v>503</v>
       </c>
-      <c r="D1453" s="9" t="s">
+      <c r="D1453" t="s">
         <v>266</v>
       </c>
-      <c r="E1453" s="9">
+      <c r="E1453">
         <v>-58.4</v>
       </c>
     </row>
     <row r="1454" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1454" s="8">
+      <c r="A1454" s="2">
         <v>45139</v>
       </c>
       <c r="B1454" t="s">
         <v>7</v>
       </c>
-      <c r="C1454" s="9" t="s">
+      <c r="C1454" t="s">
         <v>6</v>
       </c>
-      <c r="D1454" s="9" t="s">
+      <c r="D1454" t="s">
         <v>9</v>
       </c>
-      <c r="E1454" s="9">
+      <c r="E1454">
         <v>-300</v>
       </c>
     </row>
     <row r="1455" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1455" s="8">
+      <c r="A1455" s="2">
         <v>45139</v>
       </c>
-      <c r="B1455" s="9" t="s">
+      <c r="B1455" t="s">
         <v>16</v>
       </c>
-      <c r="C1455" s="9" t="s">
+      <c r="C1455" t="s">
         <v>15</v>
       </c>
-      <c r="D1455" s="9" t="s">
+      <c r="D1455" t="s">
         <v>9</v>
       </c>
-      <c r="E1455" s="9">
+      <c r="E1455">
         <v>300</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1456" s="8">
+        <v>45139</v>
+      </c>
+      <c r="B1456" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1456" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1456" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1456" s="9">
+        <v>-439.78</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1457" s="8">
+        <v>45139</v>
+      </c>
+      <c r="B1457" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1457" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="D1457" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1457" s="9">
+        <v>-150.9</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1458" s="8">
+        <v>45139</v>
+      </c>
+      <c r="B1458" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1458" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1458" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1458" s="9">
+        <v>-3000.82</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1459" s="8">
+        <v>45139</v>
+      </c>
+      <c r="B1459" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1459" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="D1459" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="E1459" s="9">
+        <v>-1500</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1460" s="8">
+        <v>45139</v>
+      </c>
+      <c r="B1460" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1460" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1460" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1460" s="9">
+        <v>-1500</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1461" s="8">
+        <v>45139</v>
+      </c>
+      <c r="B1461" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1461" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1461" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1461" s="9">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1462" s="8">
+        <v>45139</v>
+      </c>
+      <c r="B1462" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1462" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1462" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1462" s="9">
+        <v>3000.82</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1463" s="8">
+        <v>45139</v>
+      </c>
+      <c r="B1463" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1463" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="D1463" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1463" s="9">
+        <v>-4.45</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1464" s="8">
+        <v>45140</v>
+      </c>
+      <c r="B1464" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1464" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1464" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="E1464" s="9">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1465" s="8">
+        <v>45140</v>
+      </c>
+      <c r="B1465" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1465" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1465" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1465" s="9">
+        <v>-29.2</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1466" s="8">
+        <v>45140</v>
+      </c>
+      <c r="B1466" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1466" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="D1466" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1466" s="9">
+        <v>-26.5</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1467" s="8">
+        <v>45141</v>
+      </c>
+      <c r="B1467" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1467" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1467" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1467" s="9">
+        <v>-191.26</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1468" s="8">
+        <v>45141</v>
+      </c>
+      <c r="B1468" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1468" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1468" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1468" s="9">
+        <v>-50.36</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1469" s="8">
+        <v>45141</v>
+      </c>
+      <c r="B1469" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1469" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1469" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1469" s="9">
+        <v>-26.35</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1470" s="8">
+        <v>45141</v>
+      </c>
+      <c r="B1470" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1470" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1470" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1470" s="9">
+        <v>-49.34</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1471" s="8">
+        <v>45142</v>
+      </c>
+      <c r="B1471" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1471" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1471" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1471" s="9">
+        <v>-85.38</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1472" s="8">
+        <v>45142</v>
+      </c>
+      <c r="B1472" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1472" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1472" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1472" s="9">
+        <v>8.07</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1473" s="8">
+        <v>45142</v>
+      </c>
+      <c r="B1473" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1473" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1473" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1473" s="9">
+        <v>-4.29</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1474" s="8">
+        <v>45142</v>
+      </c>
+      <c r="B1474" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1474" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="D1474" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1474" s="9">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1475" s="8">
+        <v>45142</v>
+      </c>
+      <c r="B1475" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1475" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="D1475" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1475" s="9">
+        <v>-16.96</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1476" s="8">
+        <v>45144</v>
+      </c>
+      <c r="B1476" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1476" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1476" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1476" s="9">
+        <v>-44.09</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1477" s="8">
+        <v>45145</v>
+      </c>
+      <c r="B1477" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1477" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1477" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1477" s="9">
+        <v>-298.83999999999997</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1478" s="8">
+        <v>45145</v>
+      </c>
+      <c r="B1478" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1478" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1478" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1478" s="9">
+        <v>-191.48</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1479" s="8">
+        <v>45145</v>
+      </c>
+      <c r="B1479" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1479" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1479" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1479" s="9">
+        <v>-17.100000000000001</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1480" s="8">
+        <v>45145</v>
+      </c>
+      <c r="B1480" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1480" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="D1480" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1480" s="9">
+        <v>-21</v>
       </c>
     </row>
   </sheetData>
@@ -26833,7 +27269,7 @@
           <x14:formula1>
             <xm:f>OFFSET(Categories!$A$2,0,0,COUNTIF(Categories!$A$2:$A$99,"&lt;&gt;"))</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D1455</xm:sqref>
+          <xm:sqref>D2:D1480</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Expenses.xlsx
+++ b/Expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffgood/Desktop/R_Studio_Projects/Financial_Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDEA3E21-3684-2644-BAAD-79ACDD593A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D782FBE-2CBC-2845-9D7A-422CE52EF196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="14940" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4466" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4502" uniqueCount="513">
   <si>
     <t>Date</t>
   </si>
@@ -1565,6 +1565,21 @@
   </si>
   <si>
     <t>Cornerstone Coffeehou</t>
+  </si>
+  <si>
+    <t>CROCS INC                crocs.com    CO</t>
+  </si>
+  <si>
+    <t>DICK'S SPORTING GOODS    CAMP HILL    PA</t>
+  </si>
+  <si>
+    <t>SQ *THE MARKET STREET DELLemoyne      PA</t>
+  </si>
+  <si>
+    <t>SUNOCO 0100280700        MECHANICSBURGPA</t>
+  </si>
+  <si>
+    <t>Stonehill Kennel and Farm</t>
   </si>
 </sst>
 </file>
@@ -1735,10 +1750,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E1480" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E1480" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E1480">
-    <sortCondition ref="A1:A1480"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E1492" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E1492" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E1492">
+    <sortCondition ref="A1:A1492"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="4"/>
@@ -2048,11 +2063,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1480"/>
+  <dimension ref="A1:E1492"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D843" sqref="D843"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -26832,428 +26845,632 @@
       </c>
     </row>
     <row r="1456" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1456" s="8">
+      <c r="A1456" s="2">
         <v>45139</v>
       </c>
       <c r="B1456" t="s">
         <v>7</v>
       </c>
-      <c r="C1456" s="9" t="s">
+      <c r="C1456" t="s">
         <v>198</v>
       </c>
-      <c r="D1456" s="9" t="s">
+      <c r="D1456" t="s">
         <v>92</v>
       </c>
-      <c r="E1456" s="9">
+      <c r="E1456">
         <v>-439.78</v>
       </c>
     </row>
     <row r="1457" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1457" s="8">
+      <c r="A1457" s="2">
         <v>45139</v>
       </c>
       <c r="B1457" t="s">
         <v>7</v>
       </c>
-      <c r="C1457" s="9" t="s">
+      <c r="C1457" t="s">
         <v>446</v>
       </c>
-      <c r="D1457" s="9" t="s">
+      <c r="D1457" t="s">
         <v>54</v>
       </c>
-      <c r="E1457" s="9">
+      <c r="E1457">
         <v>-150.9</v>
       </c>
     </row>
     <row r="1458" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1458" s="8">
+      <c r="A1458" s="2">
         <v>45139</v>
       </c>
       <c r="B1458" t="s">
         <v>7</v>
       </c>
-      <c r="C1458" s="9" t="s">
+      <c r="C1458" t="s">
         <v>174</v>
       </c>
-      <c r="D1458" s="9" t="s">
+      <c r="D1458" t="s">
         <v>91</v>
       </c>
-      <c r="E1458" s="9">
+      <c r="E1458">
         <v>-3000.82</v>
       </c>
     </row>
     <row r="1459" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1459" s="8">
+      <c r="A1459" s="2">
         <v>45139</v>
       </c>
       <c r="B1459" t="s">
         <v>7</v>
       </c>
-      <c r="C1459" s="9" t="s">
+      <c r="C1459" t="s">
         <v>390</v>
       </c>
-      <c r="D1459" s="9" t="s">
+      <c r="D1459" t="s">
         <v>394</v>
       </c>
-      <c r="E1459" s="9">
+      <c r="E1459">
         <v>-1500</v>
       </c>
     </row>
     <row r="1460" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1460" s="8">
+      <c r="A1460" s="2">
         <v>45139</v>
       </c>
       <c r="B1460" t="s">
         <v>7</v>
       </c>
-      <c r="C1460" s="9" t="s">
+      <c r="C1460" t="s">
         <v>147</v>
       </c>
-      <c r="D1460" s="9" t="s">
+      <c r="D1460" t="s">
         <v>9</v>
       </c>
-      <c r="E1460" s="9">
+      <c r="E1460">
         <v>-1500</v>
       </c>
     </row>
     <row r="1461" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1461" s="8">
+      <c r="A1461" s="2">
         <v>45139</v>
       </c>
-      <c r="B1461" s="9" t="s">
+      <c r="B1461" t="s">
         <v>16</v>
       </c>
-      <c r="C1461" s="9" t="s">
+      <c r="C1461" t="s">
         <v>147</v>
       </c>
-      <c r="D1461" s="9" t="s">
+      <c r="D1461" t="s">
         <v>9</v>
       </c>
-      <c r="E1461" s="9">
+      <c r="E1461">
         <v>1500</v>
       </c>
     </row>
     <row r="1462" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1462" s="8">
+      <c r="A1462" s="2">
         <v>45139</v>
       </c>
-      <c r="B1462" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1462" s="9" t="s">
+      <c r="B1462" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1462" t="s">
         <v>174</v>
       </c>
-      <c r="D1462" s="9" t="s">
+      <c r="D1462" t="s">
         <v>91</v>
       </c>
-      <c r="E1462" s="9">
+      <c r="E1462">
         <v>3000.82</v>
       </c>
     </row>
     <row r="1463" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1463" s="8">
+      <c r="A1463" s="2">
         <v>45139</v>
       </c>
-      <c r="B1463" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1463" s="9" t="s">
+      <c r="B1463" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1463" t="s">
         <v>507</v>
       </c>
-      <c r="D1463" s="9" t="s">
+      <c r="D1463" t="s">
         <v>268</v>
       </c>
-      <c r="E1463" s="9">
+      <c r="E1463">
         <v>-4.45</v>
       </c>
     </row>
     <row r="1464" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1464" s="8">
+      <c r="A1464" s="2">
         <v>45140</v>
       </c>
-      <c r="B1464" s="9" t="s">
+      <c r="B1464" t="s">
         <v>16</v>
       </c>
-      <c r="C1464" s="9" t="s">
+      <c r="C1464" t="s">
         <v>166</v>
       </c>
-      <c r="D1464" s="9" t="s">
+      <c r="D1464" t="s">
         <v>269</v>
       </c>
-      <c r="E1464" s="9">
+      <c r="E1464">
         <v>-300</v>
       </c>
     </row>
     <row r="1465" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1465" s="8">
+      <c r="A1465" s="2">
         <v>45140</v>
       </c>
-      <c r="B1465" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1465" s="9" t="s">
+      <c r="B1465" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1465" t="s">
         <v>362</v>
       </c>
-      <c r="D1465" s="9" t="s">
+      <c r="D1465" t="s">
         <v>266</v>
       </c>
-      <c r="E1465" s="9">
+      <c r="E1465">
         <v>-29.2</v>
       </c>
     </row>
     <row r="1466" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1466" s="8">
+      <c r="A1466" s="2">
         <v>45140</v>
       </c>
-      <c r="B1466" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1466" s="9" t="s">
+      <c r="B1466" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1466" t="s">
         <v>282</v>
       </c>
-      <c r="D1466" s="9" t="s">
+      <c r="D1466" t="s">
         <v>266</v>
       </c>
-      <c r="E1466" s="9">
+      <c r="E1466">
         <v>-26.5</v>
       </c>
     </row>
     <row r="1467" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1467" s="8">
+      <c r="A1467" s="2">
         <v>45141</v>
       </c>
       <c r="B1467" t="s">
         <v>7</v>
       </c>
-      <c r="C1467" s="9" t="s">
+      <c r="C1467" t="s">
         <v>203</v>
       </c>
-      <c r="D1467" s="9" t="s">
+      <c r="D1467" t="s">
         <v>10</v>
       </c>
-      <c r="E1467" s="9">
+      <c r="E1467">
         <v>-191.26</v>
       </c>
     </row>
     <row r="1468" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1468" s="8">
+      <c r="A1468" s="2">
         <v>45141</v>
       </c>
       <c r="B1468" t="s">
         <v>7</v>
       </c>
-      <c r="C1468" s="9" t="s">
+      <c r="C1468" t="s">
         <v>171</v>
       </c>
-      <c r="D1468" s="9" t="s">
+      <c r="D1468" t="s">
         <v>266</v>
       </c>
-      <c r="E1468" s="9">
+      <c r="E1468">
         <v>-50.36</v>
       </c>
     </row>
     <row r="1469" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1469" s="8">
+      <c r="A1469" s="2">
         <v>45141</v>
       </c>
-      <c r="B1469" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1469" s="9" t="s">
+      <c r="B1469" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1469" t="s">
         <v>216</v>
       </c>
-      <c r="D1469" s="9" t="s">
+      <c r="D1469" t="s">
         <v>268</v>
       </c>
-      <c r="E1469" s="9">
+      <c r="E1469">
         <v>-26.35</v>
       </c>
     </row>
     <row r="1470" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1470" s="8">
+      <c r="A1470" s="2">
         <v>45141</v>
       </c>
-      <c r="B1470" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1470" s="9" t="s">
+      <c r="B1470" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1470" t="s">
         <v>161</v>
       </c>
-      <c r="D1470" s="9" t="s">
+      <c r="D1470" t="s">
         <v>264</v>
       </c>
-      <c r="E1470" s="9">
+      <c r="E1470">
         <v>-49.34</v>
       </c>
     </row>
     <row r="1471" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1471" s="8">
+      <c r="A1471" s="2">
         <v>45142</v>
       </c>
       <c r="B1471" t="s">
         <v>7</v>
       </c>
-      <c r="C1471" s="9" t="s">
+      <c r="C1471" t="s">
         <v>171</v>
       </c>
-      <c r="D1471" s="9" t="s">
+      <c r="D1471" t="s">
         <v>266</v>
       </c>
-      <c r="E1471" s="9">
+      <c r="E1471">
         <v>-85.38</v>
       </c>
     </row>
     <row r="1472" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1472" s="8">
+      <c r="A1472" s="2">
         <v>45142</v>
       </c>
       <c r="B1472" t="s">
         <v>7</v>
       </c>
-      <c r="C1472" s="9" t="s">
+      <c r="C1472" t="s">
         <v>171</v>
       </c>
-      <c r="D1472" s="9" t="s">
+      <c r="D1472" t="s">
         <v>266</v>
       </c>
-      <c r="E1472" s="9">
+      <c r="E1472">
         <v>8.07</v>
       </c>
     </row>
     <row r="1473" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1473" s="8">
+      <c r="A1473" s="2">
         <v>45142</v>
       </c>
-      <c r="B1473" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1473" s="9" t="s">
+      <c r="B1473" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1473" t="s">
         <v>149</v>
       </c>
-      <c r="D1473" s="9" t="s">
+      <c r="D1473" t="s">
         <v>265</v>
       </c>
-      <c r="E1473" s="9">
+      <c r="E1473">
         <v>-4.29</v>
       </c>
     </row>
     <row r="1474" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1474" s="8">
+      <c r="A1474" s="2">
         <v>45142</v>
       </c>
-      <c r="B1474" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1474" s="9" t="s">
+      <c r="B1474" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1474" t="s">
         <v>461</v>
       </c>
-      <c r="D1474" s="9" t="s">
+      <c r="D1474" t="s">
         <v>266</v>
       </c>
-      <c r="E1474" s="9">
+      <c r="E1474">
         <v>-100</v>
       </c>
     </row>
     <row r="1475" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1475" s="8">
+      <c r="A1475" s="2">
         <v>45142</v>
       </c>
-      <c r="B1475" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1475" s="9" t="s">
+      <c r="B1475" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1475" t="s">
         <v>506</v>
       </c>
-      <c r="D1475" s="9" t="s">
+      <c r="D1475" t="s">
         <v>268</v>
       </c>
-      <c r="E1475" s="9">
+      <c r="E1475">
         <v>-16.96</v>
       </c>
     </row>
     <row r="1476" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1476" s="8">
+      <c r="A1476" s="2">
         <v>45144</v>
       </c>
-      <c r="B1476" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1476" s="9" t="s">
+      <c r="B1476" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1476" t="s">
         <v>139</v>
       </c>
-      <c r="D1476" s="9" t="s">
+      <c r="D1476" t="s">
         <v>266</v>
       </c>
-      <c r="E1476" s="9">
+      <c r="E1476">
         <v>-44.09</v>
       </c>
     </row>
     <row r="1477" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1477" s="8">
+      <c r="A1477" s="2">
         <v>45145</v>
       </c>
       <c r="B1477" t="s">
         <v>7</v>
       </c>
-      <c r="C1477" s="9" t="s">
+      <c r="C1477" t="s">
         <v>106</v>
       </c>
-      <c r="D1477" s="9" t="s">
+      <c r="D1477" t="s">
         <v>265</v>
       </c>
-      <c r="E1477" s="9">
+      <c r="E1477">
         <v>-298.83999999999997</v>
       </c>
     </row>
     <row r="1478" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1478" s="8">
+      <c r="A1478" s="2">
         <v>45145</v>
       </c>
       <c r="B1478" t="s">
         <v>7</v>
       </c>
-      <c r="C1478" s="9" t="s">
+      <c r="C1478" t="s">
         <v>106</v>
       </c>
-      <c r="D1478" s="9" t="s">
+      <c r="D1478" t="s">
         <v>266</v>
       </c>
-      <c r="E1478" s="9">
+      <c r="E1478">
         <v>-191.48</v>
       </c>
     </row>
     <row r="1479" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1479" s="8">
+      <c r="A1479" s="2">
         <v>45145</v>
       </c>
       <c r="B1479" t="s">
         <v>7</v>
       </c>
-      <c r="C1479" s="9" t="s">
+      <c r="C1479" t="s">
         <v>106</v>
       </c>
-      <c r="D1479" s="9" t="s">
+      <c r="D1479" t="s">
         <v>266</v>
       </c>
-      <c r="E1479" s="9">
+      <c r="E1479">
         <v>-17.100000000000001</v>
       </c>
     </row>
     <row r="1480" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1480" s="8">
+      <c r="A1480" s="2">
         <v>45145</v>
       </c>
-      <c r="B1480" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1480" s="9" t="s">
+      <c r="B1480" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1480" t="s">
         <v>505</v>
       </c>
-      <c r="D1480" s="9" t="s">
+      <c r="D1480" t="s">
         <v>266</v>
       </c>
-      <c r="E1480" s="9">
+      <c r="E1480">
         <v>-21</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1481" s="8">
+        <v>45146</v>
+      </c>
+      <c r="B1481" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1481" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1481" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1481" s="9">
+        <v>-303.67</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1482" s="8">
+        <v>45146</v>
+      </c>
+      <c r="B1482" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1482" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="D1482" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E1482" s="9">
+        <v>-39.549999999999997</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1483" s="8">
+        <v>45146</v>
+      </c>
+      <c r="B1483" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1483" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1483" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1483" s="9">
+        <v>-20.05</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1484" s="8">
+        <v>45147</v>
+      </c>
+      <c r="B1484" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1484" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1484" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1484" s="9">
+        <v>-2.99</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1485" s="8">
+        <v>45149</v>
+      </c>
+      <c r="B1485" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1485" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1485" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1485" s="9">
+        <v>3102.85</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1486" s="8">
+        <v>45149</v>
+      </c>
+      <c r="B1486" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1486" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1486" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1486" s="9">
+        <v>-78.06</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1487" s="8">
+        <v>45149</v>
+      </c>
+      <c r="B1487" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1487" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D1487" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1487" s="9">
+        <v>-49.99</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1488" s="8">
+        <v>45149</v>
+      </c>
+      <c r="B1488" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1488" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="D1488" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1488" s="9">
+        <v>-10.59</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1489" s="8">
+        <v>45149</v>
+      </c>
+      <c r="B1489" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1489" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="D1489" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1489" s="9">
+        <v>-86.63</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1490" s="8">
+        <v>45151</v>
+      </c>
+      <c r="B1490" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1490" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="D1490" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1490" s="9">
+        <v>-38.24</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1491" s="8">
+        <v>45152</v>
+      </c>
+      <c r="B1491" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1491" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1491" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1491" s="9">
+        <v>-282.2</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1492" s="8">
+        <v>45152</v>
+      </c>
+      <c r="B1492" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1492" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1492" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1492" s="9">
+        <v>-16.05</v>
       </c>
     </row>
   </sheetData>
@@ -27269,7 +27486,7 @@
           <x14:formula1>
             <xm:f>OFFSET(Categories!$A$2,0,0,COUNTIF(Categories!$A$2:$A$99,"&lt;&gt;"))</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D1480</xm:sqref>
+          <xm:sqref>D2:D1492</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Expenses.xlsx
+++ b/Expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffgood/Desktop/R_Studio_Projects/Financial_Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D782FBE-2CBC-2845-9D7A-422CE52EF196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5FA455-91D3-3341-8A49-56693632B22A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="14940" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4502" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4577" uniqueCount="519">
   <si>
     <t>Date</t>
   </si>
@@ -1580,6 +1580,24 @@
   </si>
   <si>
     <t>Stonehill Kennel and Farm</t>
+  </si>
+  <si>
+    <t>AMZN Mktp US</t>
+  </si>
+  <si>
+    <t>AMZN Mktp US*TQ9BD9401   Amzn.com/billWA</t>
+  </si>
+  <si>
+    <t>PETSMART # 0583          MECHANICSBURGPA</t>
+  </si>
+  <si>
+    <t>TST* Valley Bistro       Enola        PA</t>
+  </si>
+  <si>
+    <t>uBreakiFix</t>
+  </si>
+  <si>
+    <t>Als of Hampden</t>
   </si>
 </sst>
 </file>
@@ -1663,7 +1681,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1674,6 +1692,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1750,10 +1770,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E1492" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E1492" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E1492">
-    <sortCondition ref="A1:A1492"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E1517" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E1517" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E1517">
+    <sortCondition ref="A1:A1517"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="4"/>
@@ -2063,9 +2083,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1492"/>
+  <dimension ref="A1:E1517"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D843" sqref="D843"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -27270,207 +27292,632 @@
       </c>
     </row>
     <row r="1481" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1481" s="8">
+      <c r="A1481" s="2">
         <v>45146</v>
       </c>
       <c r="B1481" t="s">
         <v>21</v>
       </c>
-      <c r="C1481" s="9" t="s">
+      <c r="C1481" t="s">
         <v>51</v>
       </c>
-      <c r="D1481" s="9" t="s">
+      <c r="D1481" t="s">
         <v>12</v>
       </c>
-      <c r="E1481" s="9">
+      <c r="E1481">
         <v>-303.67</v>
       </c>
     </row>
     <row r="1482" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1482" s="8">
+      <c r="A1482" s="2">
         <v>45146</v>
       </c>
       <c r="B1482" t="s">
         <v>21</v>
       </c>
-      <c r="C1482" s="9" t="s">
+      <c r="C1482" t="s">
         <v>512</v>
       </c>
-      <c r="D1482" s="9" t="s">
+      <c r="D1482" t="s">
         <v>310</v>
       </c>
-      <c r="E1482" s="9">
+      <c r="E1482">
         <v>-39.549999999999997</v>
       </c>
     </row>
     <row r="1483" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1483" s="8">
+      <c r="A1483" s="2">
         <v>45146</v>
       </c>
       <c r="B1483" t="s">
         <v>21</v>
       </c>
-      <c r="C1483" s="9" t="s">
+      <c r="C1483" t="s">
         <v>165</v>
       </c>
-      <c r="D1483" s="9" t="s">
+      <c r="D1483" t="s">
         <v>268</v>
       </c>
-      <c r="E1483" s="9">
+      <c r="E1483">
         <v>-20.05</v>
       </c>
     </row>
     <row r="1484" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1484" s="8">
+      <c r="A1484" s="2">
         <v>45147</v>
       </c>
       <c r="B1484" t="s">
         <v>21</v>
       </c>
-      <c r="C1484" s="9" t="s">
+      <c r="C1484" t="s">
         <v>149</v>
       </c>
-      <c r="D1484" s="9" t="s">
+      <c r="D1484" t="s">
         <v>265</v>
       </c>
-      <c r="E1484" s="9">
+      <c r="E1484">
         <v>-2.99</v>
       </c>
     </row>
     <row r="1485" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1485" s="8">
+      <c r="A1485" s="2">
         <v>45149</v>
       </c>
       <c r="B1485" t="s">
         <v>7</v>
       </c>
-      <c r="C1485" s="9" t="s">
+      <c r="C1485" t="s">
         <v>170</v>
       </c>
-      <c r="D1485" s="9" t="s">
+      <c r="D1485" t="s">
         <v>32</v>
       </c>
-      <c r="E1485" s="9">
+      <c r="E1485">
         <v>3102.85</v>
       </c>
     </row>
     <row r="1486" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1486" s="8">
+      <c r="A1486" s="2">
         <v>45149</v>
       </c>
       <c r="B1486" t="s">
         <v>21</v>
       </c>
-      <c r="C1486" s="9" t="s">
+      <c r="C1486" t="s">
         <v>120</v>
       </c>
-      <c r="D1486" s="9" t="s">
+      <c r="D1486" t="s">
         <v>265</v>
       </c>
-      <c r="E1486" s="9">
+      <c r="E1486">
         <v>-78.06</v>
       </c>
     </row>
     <row r="1487" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1487" s="8">
+      <c r="A1487" s="2">
         <v>45149</v>
       </c>
       <c r="B1487" t="s">
         <v>21</v>
       </c>
-      <c r="C1487" s="9" t="s">
+      <c r="C1487" t="s">
         <v>509</v>
       </c>
-      <c r="D1487" s="9" t="s">
+      <c r="D1487" t="s">
         <v>266</v>
       </c>
-      <c r="E1487" s="9">
+      <c r="E1487">
         <v>-49.99</v>
       </c>
     </row>
     <row r="1488" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1488" s="8">
+      <c r="A1488" s="2">
         <v>45149</v>
       </c>
       <c r="B1488" t="s">
         <v>21</v>
       </c>
-      <c r="C1488" s="9" t="s">
+      <c r="C1488" t="s">
         <v>510</v>
       </c>
-      <c r="D1488" s="9" t="s">
+      <c r="D1488" t="s">
         <v>268</v>
       </c>
-      <c r="E1488" s="9">
+      <c r="E1488">
         <v>-10.59</v>
       </c>
     </row>
     <row r="1489" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1489" s="8">
+      <c r="A1489" s="2">
         <v>45149</v>
       </c>
       <c r="B1489" t="s">
         <v>21</v>
       </c>
-      <c r="C1489" s="9" t="s">
+      <c r="C1489" t="s">
         <v>511</v>
       </c>
-      <c r="D1489" s="9" t="s">
+      <c r="D1489" t="s">
         <v>264</v>
       </c>
-      <c r="E1489" s="9">
+      <c r="E1489">
         <v>-86.63</v>
       </c>
     </row>
     <row r="1490" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1490" s="8">
+      <c r="A1490" s="2">
         <v>45151</v>
       </c>
       <c r="B1490" t="s">
         <v>21</v>
       </c>
-      <c r="C1490" s="9" t="s">
+      <c r="C1490" t="s">
         <v>508</v>
       </c>
-      <c r="D1490" s="9" t="s">
+      <c r="D1490" t="s">
         <v>266</v>
       </c>
-      <c r="E1490" s="9">
+      <c r="E1490">
         <v>-38.24</v>
       </c>
     </row>
     <row r="1491" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1491" s="8">
+      <c r="A1491" s="2">
         <v>45152</v>
       </c>
       <c r="B1491" t="s">
         <v>7</v>
       </c>
-      <c r="C1491" s="9" t="s">
+      <c r="C1491" t="s">
         <v>106</v>
       </c>
-      <c r="D1491" s="9" t="s">
+      <c r="D1491" t="s">
         <v>265</v>
       </c>
-      <c r="E1491" s="9">
+      <c r="E1491">
         <v>-282.2</v>
       </c>
     </row>
     <row r="1492" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1492" s="8">
+      <c r="A1492" s="2">
         <v>45152</v>
       </c>
       <c r="B1492" t="s">
         <v>7</v>
       </c>
-      <c r="C1492" s="9" t="s">
+      <c r="C1492" t="s">
         <v>124</v>
       </c>
-      <c r="D1492" s="9" t="s">
+      <c r="D1492" t="s">
         <v>266</v>
       </c>
-      <c r="E1492" s="9">
+      <c r="E1492">
         <v>-16.05</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1493" s="8">
+        <v>45152</v>
+      </c>
+      <c r="B1493" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1493" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="D1493" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1493" s="9">
+        <v>-26.66</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1494" s="8">
+        <v>45152</v>
+      </c>
+      <c r="B1494" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1494" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="D1494" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1494" s="9">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1495" s="8">
+        <v>45152</v>
+      </c>
+      <c r="B1495" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1495" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="D1495" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1495" s="9">
+        <v>49.99</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1496" s="8">
+        <v>45153</v>
+      </c>
+      <c r="B1496" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1496" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="D1496" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1496" s="9">
+        <v>-814.04</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1497" s="8">
+        <v>45153</v>
+      </c>
+      <c r="B1497" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1497" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1497" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1497" s="9">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1498" s="10">
+        <v>45153</v>
+      </c>
+      <c r="B1498" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1498" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1498" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1498" s="11">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1499" s="8">
+        <v>45153</v>
+      </c>
+      <c r="B1499" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1499" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="D1499" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1499" s="9">
+        <v>33.92</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1500" s="8">
+        <v>45154</v>
+      </c>
+      <c r="B1500" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1500" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1500" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1500" s="9">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1501" s="8">
+        <v>45154</v>
+      </c>
+      <c r="B1501" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1501" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="D1501" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1501" s="9">
+        <v>-160.9</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1502" s="10">
+        <v>45154</v>
+      </c>
+      <c r="B1502" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1502" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1502" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="E1502" s="11">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1503" s="8">
+        <v>45154</v>
+      </c>
+      <c r="B1503" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1503" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="D1503" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1503" s="9">
+        <v>-38.14</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1504" s="8">
+        <v>45154</v>
+      </c>
+      <c r="B1504" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1504" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1504" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1504" s="9">
+        <v>-47.37</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1505" s="8">
+        <v>45155</v>
+      </c>
+      <c r="B1505" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1505" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1505" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1505" s="9">
+        <v>-23.1</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1506" s="8">
+        <v>45155</v>
+      </c>
+      <c r="B1506" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1506" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="D1506" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1506" s="9">
+        <v>-34.979999999999997</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1507" s="8">
+        <v>45155</v>
+      </c>
+      <c r="B1507" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1507" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1507" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1507" s="9">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1508" s="8">
+        <v>45156</v>
+      </c>
+      <c r="B1508" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1508" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1508" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1508" s="9">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1509" s="8">
+        <v>45157</v>
+      </c>
+      <c r="B1509" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1509" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="D1509" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1509" s="9">
+        <v>-13.55</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1510" s="8">
+        <v>45157</v>
+      </c>
+      <c r="B1510" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1510" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="D1510" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1510" s="9">
+        <v>-15.05</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1511" s="8">
+        <v>45157</v>
+      </c>
+      <c r="B1511" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1511" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="D1511" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1511" s="9">
+        <v>-12.4</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1512" s="8">
+        <v>45157</v>
+      </c>
+      <c r="B1512" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1512" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1512" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1512" s="9">
+        <v>-91.69</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1513" s="8">
+        <v>45157</v>
+      </c>
+      <c r="B1513" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1513" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="D1513" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E1513" s="9">
+        <v>-49.9</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1514" s="8">
+        <v>45158</v>
+      </c>
+      <c r="B1514" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1514" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="D1514" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1514" s="9">
+        <v>-39.99</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1515" s="8">
+        <v>45158</v>
+      </c>
+      <c r="B1515" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1515" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="D1515" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1515" s="9">
+        <v>-10.59</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1516" s="8">
+        <v>45159</v>
+      </c>
+      <c r="B1516" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1516" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1516" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1516" s="9">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1517" s="8">
+        <v>45159</v>
+      </c>
+      <c r="B1517" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1517" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1517" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1517" s="9">
+        <v>-33.25</v>
       </c>
     </row>
   </sheetData>
@@ -27486,7 +27933,7 @@
           <x14:formula1>
             <xm:f>OFFSET(Categories!$A$2,0,0,COUNTIF(Categories!$A$2:$A$99,"&lt;&gt;"))</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D1492</xm:sqref>
+          <xm:sqref>D2:D1517</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Expenses.xlsx
+++ b/Expenses.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffgood/Desktop/R_Studio_Projects/Financial_Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5FA455-91D3-3341-8A49-56693632B22A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C58972-2615-CC4C-B0B8-377B63821C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="14940" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4577" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4635" uniqueCount="526">
   <si>
     <t>Date</t>
   </si>
@@ -1598,6 +1598,27 @@
   </si>
   <si>
     <t>Als of Hampden</t>
+  </si>
+  <si>
+    <t>CHASE CREDIT CRD EPAY       ***********5167</t>
+  </si>
+  <si>
+    <t>Internet Withdrawal</t>
+  </si>
+  <si>
+    <t>Adeline_Savings</t>
+  </si>
+  <si>
+    <t>Hulu 877-8244858 CA</t>
+  </si>
+  <si>
+    <t>ICP*Central PA Gymnastics717-7661030  PA</t>
+  </si>
+  <si>
+    <t>Work Board</t>
+  </si>
+  <si>
+    <t>Amazon</t>
   </si>
 </sst>
 </file>
@@ -1681,7 +1702,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1692,8 +1713,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1770,10 +1789,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E1517" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E1517" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E1517">
-    <sortCondition ref="A1:A1517"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E1536" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E1536" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E1536">
+    <sortCondition ref="A1:A1536"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="4"/>
@@ -2083,11 +2102,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1517"/>
+  <dimension ref="A1:E1536"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D843" sqref="D843"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -27496,428 +27513,751 @@
       </c>
     </row>
     <row r="1493" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1493" s="8">
+      <c r="A1493" s="2">
         <v>45152</v>
       </c>
       <c r="B1493" t="s">
         <v>21</v>
       </c>
-      <c r="C1493" s="9" t="s">
+      <c r="C1493" t="s">
         <v>518</v>
       </c>
-      <c r="D1493" s="9" t="s">
+      <c r="D1493" t="s">
         <v>268</v>
       </c>
-      <c r="E1493" s="9">
+      <c r="E1493">
         <v>-26.66</v>
       </c>
     </row>
     <row r="1494" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1494" s="8">
+      <c r="A1494" s="2">
         <v>45152</v>
       </c>
       <c r="B1494" t="s">
         <v>21</v>
       </c>
-      <c r="C1494" s="9" t="s">
+      <c r="C1494" t="s">
         <v>504</v>
       </c>
-      <c r="D1494" s="9" t="s">
+      <c r="D1494" t="s">
         <v>12</v>
       </c>
-      <c r="E1494" s="9">
+      <c r="E1494">
         <v>-10</v>
       </c>
     </row>
     <row r="1495" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1495" s="8">
+      <c r="A1495" s="2">
         <v>45152</v>
       </c>
       <c r="B1495" t="s">
         <v>21</v>
       </c>
-      <c r="C1495" s="9" t="s">
+      <c r="C1495" t="s">
         <v>399</v>
       </c>
-      <c r="D1495" s="9" t="s">
+      <c r="D1495" t="s">
         <v>266</v>
       </c>
-      <c r="E1495" s="9">
+      <c r="E1495">
         <v>49.99</v>
       </c>
     </row>
     <row r="1496" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1496" s="8">
+      <c r="A1496" s="2">
         <v>45153</v>
       </c>
       <c r="B1496" t="s">
         <v>7</v>
       </c>
-      <c r="C1496" s="9" t="s">
+      <c r="C1496" t="s">
         <v>401</v>
       </c>
-      <c r="D1496" s="9" t="s">
+      <c r="D1496" t="s">
         <v>264</v>
       </c>
-      <c r="E1496" s="9">
+      <c r="E1496">
         <v>-814.04</v>
       </c>
     </row>
     <row r="1497" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1497" s="8">
+      <c r="A1497" s="2">
         <v>45153</v>
       </c>
       <c r="B1497" t="s">
         <v>7</v>
       </c>
-      <c r="C1497" s="9" t="s">
+      <c r="C1497" t="s">
         <v>147</v>
       </c>
-      <c r="D1497" s="9" t="s">
+      <c r="D1497" t="s">
         <v>9</v>
       </c>
-      <c r="E1497" s="9">
+      <c r="E1497">
         <v>-300</v>
       </c>
     </row>
     <row r="1498" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1498" s="10">
+      <c r="A1498" s="4">
         <v>45153</v>
       </c>
-      <c r="B1498" s="9" t="s">
+      <c r="B1498" t="s">
         <v>16</v>
       </c>
-      <c r="C1498" s="11" t="s">
+      <c r="C1498" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D1498" s="11" t="s">
+      <c r="D1498" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E1498" s="11">
+      <c r="E1498" s="6">
         <v>300</v>
       </c>
     </row>
     <row r="1499" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1499" s="8">
+      <c r="A1499" s="2">
         <v>45153</v>
       </c>
       <c r="B1499" t="s">
         <v>21</v>
       </c>
-      <c r="C1499" s="9" t="s">
+      <c r="C1499" t="s">
         <v>282</v>
       </c>
-      <c r="D1499" s="9" t="s">
+      <c r="D1499" t="s">
         <v>266</v>
       </c>
-      <c r="E1499" s="9">
+      <c r="E1499">
         <v>33.92</v>
       </c>
     </row>
     <row r="1500" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1500" s="8">
+      <c r="A1500" s="2">
         <v>45154</v>
       </c>
       <c r="B1500" t="s">
         <v>7</v>
       </c>
-      <c r="C1500" s="9" t="s">
+      <c r="C1500" t="s">
         <v>169</v>
       </c>
-      <c r="D1500" s="9" t="s">
+      <c r="D1500" t="s">
         <v>14</v>
       </c>
-      <c r="E1500" s="9">
+      <c r="E1500">
         <v>0.03</v>
       </c>
     </row>
     <row r="1501" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1501" s="8">
+      <c r="A1501" s="2">
         <v>45154</v>
       </c>
       <c r="B1501" t="s">
         <v>7</v>
       </c>
-      <c r="C1501" s="9" t="s">
+      <c r="C1501" t="s">
         <v>446</v>
       </c>
-      <c r="D1501" s="9" t="s">
+      <c r="D1501" t="s">
         <v>54</v>
       </c>
-      <c r="E1501" s="9">
+      <c r="E1501">
         <v>-160.9</v>
       </c>
     </row>
     <row r="1502" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1502" s="10">
+      <c r="A1502" s="4">
         <v>45154</v>
       </c>
-      <c r="B1502" s="9" t="s">
+      <c r="B1502" t="s">
         <v>16</v>
       </c>
-      <c r="C1502" s="11" t="s">
+      <c r="C1502" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="D1502" s="11" t="s">
+      <c r="D1502" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="E1502" s="11">
+      <c r="E1502" s="6">
         <v>-300</v>
       </c>
     </row>
     <row r="1503" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1503" s="8">
+      <c r="A1503" s="2">
         <v>45154</v>
       </c>
       <c r="B1503" t="s">
         <v>21</v>
       </c>
-      <c r="C1503" s="9" t="s">
+      <c r="C1503" t="s">
         <v>517</v>
       </c>
-      <c r="D1503" s="9" t="s">
+      <c r="D1503" t="s">
         <v>265</v>
       </c>
-      <c r="E1503" s="9">
+      <c r="E1503">
         <v>-38.14</v>
       </c>
     </row>
     <row r="1504" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1504" s="8">
+      <c r="A1504" s="2">
         <v>45154</v>
       </c>
       <c r="B1504" t="s">
         <v>21</v>
       </c>
-      <c r="C1504" s="9" t="s">
+      <c r="C1504" t="s">
         <v>161</v>
       </c>
-      <c r="D1504" s="9" t="s">
+      <c r="D1504" t="s">
         <v>264</v>
       </c>
-      <c r="E1504" s="9">
+      <c r="E1504">
         <v>-47.37</v>
       </c>
     </row>
     <row r="1505" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1505" s="8">
+      <c r="A1505" s="2">
         <v>45155</v>
       </c>
       <c r="B1505" t="s">
         <v>21</v>
       </c>
-      <c r="C1505" s="9" t="s">
+      <c r="C1505" t="s">
         <v>181</v>
       </c>
-      <c r="D1505" s="9" t="s">
+      <c r="D1505" t="s">
         <v>266</v>
       </c>
-      <c r="E1505" s="9">
+      <c r="E1505">
         <v>-23.1</v>
       </c>
     </row>
     <row r="1506" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1506" s="8">
+      <c r="A1506" s="2">
         <v>45155</v>
       </c>
       <c r="B1506" t="s">
         <v>21</v>
       </c>
-      <c r="C1506" s="9" t="s">
+      <c r="C1506" t="s">
         <v>516</v>
       </c>
-      <c r="D1506" s="9" t="s">
+      <c r="D1506" t="s">
         <v>268</v>
       </c>
-      <c r="E1506" s="9">
+      <c r="E1506">
         <v>-34.979999999999997</v>
       </c>
     </row>
     <row r="1507" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1507" s="8">
+      <c r="A1507" s="2">
         <v>45155</v>
       </c>
       <c r="B1507" t="s">
         <v>21</v>
       </c>
-      <c r="C1507" s="9" t="s">
+      <c r="C1507" t="s">
         <v>101</v>
       </c>
-      <c r="D1507" s="9" t="s">
+      <c r="D1507" t="s">
         <v>264</v>
       </c>
-      <c r="E1507" s="9">
+      <c r="E1507">
         <v>-15</v>
       </c>
     </row>
     <row r="1508" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1508" s="8">
+      <c r="A1508" s="2">
         <v>45156</v>
       </c>
       <c r="B1508" t="s">
         <v>21</v>
       </c>
-      <c r="C1508" s="9" t="s">
+      <c r="C1508" t="s">
         <v>101</v>
       </c>
-      <c r="D1508" s="9" t="s">
+      <c r="D1508" t="s">
         <v>264</v>
       </c>
-      <c r="E1508" s="9">
+      <c r="E1508">
         <v>-12</v>
       </c>
     </row>
     <row r="1509" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1509" s="8">
+      <c r="A1509" s="2">
         <v>45157</v>
       </c>
       <c r="B1509" t="s">
         <v>21</v>
       </c>
-      <c r="C1509" s="9" t="s">
+      <c r="C1509" t="s">
         <v>473</v>
       </c>
-      <c r="D1509" s="9" t="s">
+      <c r="D1509" t="s">
         <v>268</v>
       </c>
-      <c r="E1509" s="9">
+      <c r="E1509">
         <v>-13.55</v>
       </c>
     </row>
     <row r="1510" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1510" s="8">
+      <c r="A1510" s="2">
         <v>45157</v>
       </c>
       <c r="B1510" t="s">
         <v>21</v>
       </c>
-      <c r="C1510" s="9" t="s">
+      <c r="C1510" t="s">
         <v>513</v>
       </c>
-      <c r="D1510" s="9" t="s">
+      <c r="D1510" t="s">
         <v>266</v>
       </c>
-      <c r="E1510" s="9">
+      <c r="E1510">
         <v>-15.05</v>
       </c>
     </row>
     <row r="1511" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1511" s="8">
+      <c r="A1511" s="2">
         <v>45157</v>
       </c>
       <c r="B1511" t="s">
         <v>21</v>
       </c>
-      <c r="C1511" s="9" t="s">
+      <c r="C1511" t="s">
         <v>387</v>
       </c>
-      <c r="D1511" s="9" t="s">
+      <c r="D1511" t="s">
         <v>265</v>
       </c>
-      <c r="E1511" s="9">
+      <c r="E1511">
         <v>-12.4</v>
       </c>
     </row>
     <row r="1512" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1512" s="8">
+      <c r="A1512" s="2">
         <v>45157</v>
       </c>
       <c r="B1512" t="s">
         <v>21</v>
       </c>
-      <c r="C1512" s="9" t="s">
+      <c r="C1512" t="s">
         <v>103</v>
       </c>
-      <c r="D1512" s="9" t="s">
+      <c r="D1512" t="s">
         <v>12</v>
       </c>
-      <c r="E1512" s="9">
+      <c r="E1512">
         <v>-91.69</v>
       </c>
     </row>
     <row r="1513" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1513" s="8">
+      <c r="A1513" s="2">
         <v>45157</v>
       </c>
       <c r="B1513" t="s">
         <v>21</v>
       </c>
-      <c r="C1513" s="9" t="s">
+      <c r="C1513" t="s">
         <v>515</v>
       </c>
-      <c r="D1513" s="9" t="s">
+      <c r="D1513" t="s">
         <v>310</v>
       </c>
-      <c r="E1513" s="9">
+      <c r="E1513">
         <v>-49.9</v>
       </c>
     </row>
     <row r="1514" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1514" s="8">
+      <c r="A1514" s="2">
         <v>45158</v>
       </c>
       <c r="B1514" t="s">
         <v>21</v>
       </c>
-      <c r="C1514" s="9" t="s">
+      <c r="C1514" t="s">
         <v>279</v>
       </c>
-      <c r="D1514" s="9" t="s">
+      <c r="D1514" t="s">
         <v>265</v>
       </c>
-      <c r="E1514" s="9">
+      <c r="E1514">
         <v>-39.99</v>
       </c>
     </row>
     <row r="1515" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1515" s="8">
+      <c r="A1515" s="2">
         <v>45158</v>
       </c>
       <c r="B1515" t="s">
         <v>21</v>
       </c>
-      <c r="C1515" s="9" t="s">
+      <c r="C1515" t="s">
         <v>514</v>
       </c>
-      <c r="D1515" s="9" t="s">
+      <c r="D1515" t="s">
         <v>266</v>
       </c>
-      <c r="E1515" s="9">
+      <c r="E1515">
         <v>-10.59</v>
       </c>
     </row>
     <row r="1516" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1516" s="8">
+      <c r="A1516" s="2">
         <v>45159</v>
       </c>
       <c r="B1516" t="s">
         <v>7</v>
       </c>
-      <c r="C1516" s="9" t="s">
+      <c r="C1516" t="s">
         <v>124</v>
       </c>
-      <c r="D1516" s="9" t="s">
+      <c r="D1516" t="s">
         <v>266</v>
       </c>
-      <c r="E1516" s="9">
+      <c r="E1516">
         <v>-10</v>
       </c>
     </row>
     <row r="1517" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1517" s="8">
+      <c r="A1517" s="2">
         <v>45159</v>
       </c>
       <c r="B1517" t="s">
         <v>7</v>
       </c>
-      <c r="C1517" s="9" t="s">
+      <c r="C1517" t="s">
         <v>124</v>
       </c>
-      <c r="D1517" s="9" t="s">
+      <c r="D1517" t="s">
         <v>266</v>
       </c>
-      <c r="E1517" s="9">
+      <c r="E1517">
         <v>-33.25</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1518" s="8">
+        <v>45159</v>
+      </c>
+      <c r="B1518" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1518" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="D1518" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1518" s="9">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1519" s="8">
+        <v>45159</v>
+      </c>
+      <c r="B1519" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1519" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="D1519" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="E1519" s="9">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1520" s="8">
+        <v>45159</v>
+      </c>
+      <c r="B1520" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1520" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="D1520" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1520" s="9">
+        <v>-15.05</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1521" s="8">
+        <v>45160</v>
+      </c>
+      <c r="B1521" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1521" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="D1521" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1521" s="9">
+        <v>-195.9</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1522" s="8">
+        <v>45161</v>
+      </c>
+      <c r="B1522" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1522" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1522" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1522" s="9">
+        <v>-110.24</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1523" s="8">
+        <v>45161</v>
+      </c>
+      <c r="B1523" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1523" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1523" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1523" s="9">
+        <v>118.54</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1524" s="8">
+        <v>45161</v>
+      </c>
+      <c r="B1524" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1524" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1524" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1524" s="9">
+        <v>6.54</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1525" s="8">
+        <v>45161</v>
+      </c>
+      <c r="B1525" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1525" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="D1525" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1525" s="9">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1526" s="8">
+        <v>45161</v>
+      </c>
+      <c r="B1526" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1526" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D1526" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1526" s="9">
+        <v>-13.55</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1527" s="8">
+        <v>45162</v>
+      </c>
+      <c r="B1527" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1527" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1527" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1527" s="9">
+        <v>-15.22</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1528" s="8">
+        <v>45162</v>
+      </c>
+      <c r="B1528" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1528" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="D1528" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1528" s="9">
+        <v>-165.77</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1529" s="8">
+        <v>45162</v>
+      </c>
+      <c r="B1529" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1529" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1529" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1529" s="9">
+        <v>-75.260000000000005</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1530" s="8">
+        <v>45164</v>
+      </c>
+      <c r="B1530" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1530" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="D1530" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1530" s="9">
+        <v>-33.42</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1531" s="8">
+        <v>45164</v>
+      </c>
+      <c r="B1531" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1531" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="D1531" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1531" s="9">
+        <v>-86</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1532" s="8">
+        <v>45165</v>
+      </c>
+      <c r="B1532" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1532" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1532" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1532" s="9">
+        <v>-8.1300000000000008</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1533" s="8">
+        <v>45165</v>
+      </c>
+      <c r="B1533" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1533" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1533" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1533" s="9">
+        <v>11.61</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1534" s="8">
+        <v>45166</v>
+      </c>
+      <c r="B1534" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1534" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="D1534" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1534" s="9">
+        <v>-553.01</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1535" s="8">
+        <v>45166</v>
+      </c>
+      <c r="B1535" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1535" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1535" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1535" s="9">
+        <v>-9.99</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1536" s="8">
+        <v>45166</v>
+      </c>
+      <c r="B1536" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1536" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="D1536" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1536" s="9">
+        <v>-16.11</v>
       </c>
     </row>
   </sheetData>
@@ -27933,7 +28273,7 @@
           <x14:formula1>
             <xm:f>OFFSET(Categories!$A$2,0,0,COUNTIF(Categories!$A$2:$A$99,"&lt;&gt;"))</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D1517</xm:sqref>
+          <xm:sqref>D2:D1536</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -27943,10 +28283,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A25"/>
+  <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27961,128 +28301,133 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>521</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>232</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>262</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>269</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>394</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>394</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>266</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>310</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>263</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>396</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>264</v>
+        <v>396</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>91</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:A9" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A25">
-      <sortCondition ref="A1:A9"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A26">
+      <sortCondition ref="A1:A26"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Expenses.xlsx
+++ b/Expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffgood/Desktop/R_Studio_Projects/Financial_Planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C58972-2615-CC4C-B0B8-377B63821C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5549592-A791-B742-89CB-BE1399EA3C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="14940" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4635" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4713" uniqueCount="529">
   <si>
     <t>Date</t>
   </si>
@@ -1619,6 +1619,15 @@
   </si>
   <si>
     <t>Amazon</t>
+  </si>
+  <si>
+    <t>ABC WEST LANES</t>
+  </si>
+  <si>
+    <t>Supersuds Spot Camp Hill</t>
+  </si>
+  <si>
+    <t>TJ Maxx</t>
   </si>
 </sst>
 </file>
@@ -1789,10 +1798,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E1536" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E1536" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E1536">
-    <sortCondition ref="A1:A1536"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E1562" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E1562" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E1562">
+    <sortCondition ref="A1:A1562"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="4"/>
@@ -2102,7 +2111,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1536"/>
+  <dimension ref="A1:E1562"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -27938,326 +27947,768 @@
       </c>
     </row>
     <row r="1518" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1518" s="8">
+      <c r="A1518" s="2">
         <v>45159</v>
       </c>
       <c r="B1518" t="s">
         <v>7</v>
       </c>
-      <c r="C1518" s="9" t="s">
+      <c r="C1518" t="s">
         <v>520</v>
       </c>
-      <c r="D1518" s="9" t="s">
+      <c r="D1518" t="s">
         <v>8</v>
       </c>
-      <c r="E1518" s="9">
+      <c r="E1518">
         <v>-50</v>
       </c>
     </row>
     <row r="1519" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1519" s="8">
+      <c r="A1519" s="2">
         <v>45159</v>
       </c>
       <c r="B1519" t="s">
         <v>7</v>
       </c>
-      <c r="C1519" s="9" t="s">
+      <c r="C1519" t="s">
         <v>520</v>
       </c>
-      <c r="D1519" s="9" t="s">
+      <c r="D1519" t="s">
         <v>521</v>
       </c>
-      <c r="E1519" s="9">
+      <c r="E1519">
         <v>-50</v>
       </c>
     </row>
     <row r="1520" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1520" s="8">
+      <c r="A1520" s="2">
         <v>45159</v>
       </c>
-      <c r="B1520" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1520" s="9" t="s">
+      <c r="B1520" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1520" t="s">
         <v>525</v>
       </c>
-      <c r="D1520" s="9" t="s">
+      <c r="D1520" t="s">
         <v>266</v>
       </c>
-      <c r="E1520" s="9">
+      <c r="E1520">
         <v>-15.05</v>
       </c>
     </row>
     <row r="1521" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1521" s="8">
+      <c r="A1521" s="2">
         <v>45160</v>
       </c>
       <c r="B1521" t="s">
         <v>7</v>
       </c>
-      <c r="C1521" s="9" t="s">
+      <c r="C1521" t="s">
         <v>446</v>
       </c>
-      <c r="D1521" s="9" t="s">
+      <c r="D1521" t="s">
         <v>54</v>
       </c>
-      <c r="E1521" s="9">
+      <c r="E1521">
         <v>-195.9</v>
       </c>
     </row>
     <row r="1522" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1522" s="8">
+      <c r="A1522" s="2">
         <v>45161</v>
       </c>
       <c r="B1522" t="s">
         <v>7</v>
       </c>
-      <c r="C1522" s="9" t="s">
+      <c r="C1522" t="s">
         <v>171</v>
       </c>
-      <c r="D1522" s="9" t="s">
+      <c r="D1522" t="s">
         <v>266</v>
       </c>
-      <c r="E1522" s="9">
+      <c r="E1522">
         <v>-110.24</v>
       </c>
     </row>
     <row r="1523" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1523" s="8">
+      <c r="A1523" s="2">
         <v>45161</v>
       </c>
       <c r="B1523" t="s">
         <v>7</v>
       </c>
-      <c r="C1523" s="9" t="s">
+      <c r="C1523" t="s">
         <v>171</v>
       </c>
-      <c r="D1523" s="9" t="s">
+      <c r="D1523" t="s">
         <v>266</v>
       </c>
-      <c r="E1523" s="9">
+      <c r="E1523">
         <v>118.54</v>
       </c>
     </row>
     <row r="1524" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1524" s="8">
+      <c r="A1524" s="2">
         <v>45161</v>
       </c>
       <c r="B1524" t="s">
         <v>7</v>
       </c>
-      <c r="C1524" s="9" t="s">
+      <c r="C1524" t="s">
         <v>171</v>
       </c>
-      <c r="D1524" s="9" t="s">
+      <c r="D1524" t="s">
         <v>265</v>
       </c>
-      <c r="E1524" s="9">
+      <c r="E1524">
         <v>6.54</v>
       </c>
     </row>
     <row r="1525" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1525" s="8">
+      <c r="A1525" s="2">
         <v>45161</v>
       </c>
-      <c r="B1525" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1525" s="9" t="s">
+      <c r="B1525" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1525" t="s">
         <v>524</v>
       </c>
-      <c r="D1525" s="9" t="s">
+      <c r="D1525" t="s">
         <v>11</v>
       </c>
-      <c r="E1525" s="9">
+      <c r="E1525">
         <v>-10</v>
       </c>
     </row>
     <row r="1526" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1526" s="8">
+      <c r="A1526" s="2">
         <v>45161</v>
       </c>
-      <c r="B1526" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1526" s="9" t="s">
+      <c r="B1526" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1526" t="s">
         <v>285</v>
       </c>
-      <c r="D1526" s="9" t="s">
+      <c r="D1526" t="s">
         <v>268</v>
       </c>
-      <c r="E1526" s="9">
+      <c r="E1526">
         <v>-13.55</v>
       </c>
     </row>
     <row r="1527" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1527" s="8">
+      <c r="A1527" s="2">
         <v>45162</v>
       </c>
-      <c r="B1527" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1527" s="9" t="s">
+      <c r="B1527" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1527" t="s">
         <v>206</v>
       </c>
-      <c r="D1527" s="9" t="s">
+      <c r="D1527" t="s">
         <v>262</v>
       </c>
-      <c r="E1527" s="9">
+      <c r="E1527">
         <v>-15.22</v>
       </c>
     </row>
     <row r="1528" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1528" s="8">
+      <c r="A1528" s="2">
         <v>45162</v>
       </c>
-      <c r="B1528" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1528" s="9" t="s">
+      <c r="B1528" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1528" t="s">
         <v>227</v>
       </c>
-      <c r="D1528" s="9" t="s">
+      <c r="D1528" t="s">
         <v>265</v>
       </c>
-      <c r="E1528" s="9">
+      <c r="E1528">
         <v>-165.77</v>
       </c>
     </row>
     <row r="1529" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1529" s="8">
+      <c r="A1529" s="2">
         <v>45162</v>
       </c>
-      <c r="B1529" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1529" s="9" t="s">
+      <c r="B1529" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1529" t="s">
         <v>226</v>
       </c>
-      <c r="D1529" s="9" t="s">
+      <c r="D1529" t="s">
         <v>266</v>
       </c>
-      <c r="E1529" s="9">
+      <c r="E1529">
         <v>-75.260000000000005</v>
       </c>
     </row>
     <row r="1530" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1530" s="8">
+      <c r="A1530" s="2">
         <v>45164</v>
       </c>
-      <c r="B1530" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1530" s="9" t="s">
+      <c r="B1530" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1530" t="s">
         <v>513</v>
       </c>
-      <c r="D1530" s="9" t="s">
+      <c r="D1530" t="s">
         <v>266</v>
       </c>
-      <c r="E1530" s="9">
+      <c r="E1530">
         <v>-33.42</v>
       </c>
     </row>
     <row r="1531" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1531" s="8">
+      <c r="A1531" s="2">
         <v>45164</v>
       </c>
-      <c r="B1531" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1531" s="9" t="s">
+      <c r="B1531" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1531" t="s">
         <v>523</v>
       </c>
-      <c r="D1531" s="9" t="s">
+      <c r="D1531" t="s">
         <v>263</v>
       </c>
-      <c r="E1531" s="9">
+      <c r="E1531">
         <v>-86</v>
       </c>
     </row>
     <row r="1532" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1532" s="8">
+      <c r="A1532" s="2">
         <v>45165</v>
       </c>
-      <c r="B1532" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1532" s="9" t="s">
+      <c r="B1532" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1532" t="s">
         <v>188</v>
       </c>
-      <c r="D1532" s="9" t="s">
+      <c r="D1532" t="s">
         <v>262</v>
       </c>
-      <c r="E1532" s="9">
+      <c r="E1532">
         <v>-8.1300000000000008</v>
       </c>
     </row>
     <row r="1533" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1533" s="8">
+      <c r="A1533" s="2">
         <v>45165</v>
       </c>
-      <c r="B1533" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1533" s="9" t="s">
+      <c r="B1533" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1533" t="s">
         <v>139</v>
       </c>
-      <c r="D1533" s="9" t="s">
+      <c r="D1533" t="s">
         <v>266</v>
       </c>
-      <c r="E1533" s="9">
+      <c r="E1533">
         <v>11.61</v>
       </c>
     </row>
     <row r="1534" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1534" s="8">
+      <c r="A1534" s="2">
         <v>45166</v>
       </c>
       <c r="B1534" t="s">
         <v>7</v>
       </c>
-      <c r="C1534" s="9" t="s">
+      <c r="C1534" t="s">
         <v>519</v>
       </c>
-      <c r="D1534" s="9" t="s">
+      <c r="D1534" t="s">
         <v>92</v>
       </c>
-      <c r="E1534" s="9">
+      <c r="E1534">
         <v>-553.01</v>
       </c>
     </row>
     <row r="1535" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1535" s="8">
+      <c r="A1535" s="2">
         <v>45166</v>
       </c>
-      <c r="B1535" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1535" s="9" t="s">
+      <c r="B1535" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1535" t="s">
         <v>172</v>
       </c>
-      <c r="D1535" s="9" t="s">
+      <c r="D1535" t="s">
         <v>265</v>
       </c>
-      <c r="E1535" s="9">
+      <c r="E1535">
         <v>-9.99</v>
       </c>
     </row>
     <row r="1536" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1536" s="8">
+      <c r="A1536" s="2">
         <v>45166</v>
       </c>
-      <c r="B1536" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1536" s="9" t="s">
+      <c r="B1536" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1536" t="s">
         <v>522</v>
       </c>
-      <c r="D1536" s="9" t="s">
+      <c r="D1536" t="s">
         <v>263</v>
       </c>
-      <c r="E1536" s="9">
+      <c r="E1536">
         <v>-16.11</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1537" s="8">
+        <v>45166</v>
+      </c>
+      <c r="B1537" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1537" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1537" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1537" s="9">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1538" s="8">
+        <v>45166</v>
+      </c>
+      <c r="B1538" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1538" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="D1538" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1538" s="9">
+        <v>-33.42</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1539" s="8">
+        <v>45167</v>
+      </c>
+      <c r="B1539" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1539" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="D1539" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1539" s="9">
+        <v>-195.9</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1540" s="8">
+        <v>45167</v>
+      </c>
+      <c r="B1540" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1540" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1540" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E1540" s="9">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1541" s="8">
+        <v>45167</v>
+      </c>
+      <c r="B1541" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1541" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="D1541" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1541" s="9">
+        <v>-26.64</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1542" s="8">
+        <v>45167</v>
+      </c>
+      <c r="B1542" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1542" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1542" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1542" s="9">
+        <v>-47.67</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1543" s="8">
+        <v>45167</v>
+      </c>
+      <c r="B1543" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1543" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1543" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1543" s="9">
+        <v>-8.27</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1544" s="8">
+        <v>45167</v>
+      </c>
+      <c r="B1544" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1544" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1544" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1544" s="9">
+        <v>-89.97</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1545" s="8">
+        <v>45167</v>
+      </c>
+      <c r="B1545" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1545" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1545" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1545" s="9">
+        <v>-18.32</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1546" s="8">
+        <v>45168</v>
+      </c>
+      <c r="B1546" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1546" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1546" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1546" s="9">
+        <v>3102.8</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1547" s="8">
+        <v>45168</v>
+      </c>
+      <c r="B1547" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1547" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1547" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1547" s="9">
+        <v>-73.45</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1548" s="8">
+        <v>45169</v>
+      </c>
+      <c r="B1548" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1548" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1548" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1548" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1549" s="8">
+        <v>45169</v>
+      </c>
+      <c r="B1549" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1549" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="D1549" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E1549" s="9">
+        <v>-64.2</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1550" s="8">
+        <v>45169</v>
+      </c>
+      <c r="B1550" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1550" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="D1550" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1550" s="9">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1551" s="8">
+        <v>45169</v>
+      </c>
+      <c r="B1551" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1551" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="D1551" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1551" s="9">
+        <v>-109.67</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1552" s="8">
+        <v>45169</v>
+      </c>
+      <c r="B1552" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1552" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1552" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1552" s="9">
+        <v>-9.2799999999999994</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1553" s="8">
+        <v>45170</v>
+      </c>
+      <c r="B1553" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1553" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1553" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1553" s="9">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1554" s="8">
+        <v>45170</v>
+      </c>
+      <c r="B1554" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1554" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1554" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1554" s="9">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1555" s="8">
+        <v>45170</v>
+      </c>
+      <c r="B1555" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1555" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1555" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="E1555" s="9">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1556" s="8">
+        <v>45170</v>
+      </c>
+      <c r="B1556" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1556" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1556" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1556" s="9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1557" s="8">
+        <v>45170</v>
+      </c>
+      <c r="B1557" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1557" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="D1557" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1557" s="9">
+        <v>-27.55</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1558" s="8">
+        <v>45170</v>
+      </c>
+      <c r="B1558" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1558" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1558" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1558" s="9">
+        <v>-40.89</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1559" s="8">
+        <v>45171</v>
+      </c>
+      <c r="B1559" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1559" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1559" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1559" s="9">
+        <v>-184.6</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1560" s="8">
+        <v>45171</v>
+      </c>
+      <c r="B1560" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1560" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="D1560" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1560" s="9">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1561" s="8">
+        <v>45171</v>
+      </c>
+      <c r="B1561" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1561" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="D1561" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1561" s="9">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1562" s="8">
+        <v>45173</v>
+      </c>
+      <c r="B1562" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1562" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="D1562" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1562" s="9">
+        <v>-27</v>
       </c>
     </row>
   </sheetData>
@@ -28273,7 +28724,7 @@
           <x14:formula1>
             <xm:f>OFFSET(Categories!$A$2,0,0,COUNTIF(Categories!$A$2:$A$99,"&lt;&gt;"))</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D1536</xm:sqref>
+          <xm:sqref>D2:D1562</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
